--- a/Tags and Affinities.xlsx
+++ b/Tags and Affinities.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CK.DESKTOP-BR5NVLN\Documents\Git Repositories\Creative\materials_and_crafting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0345919-67FB-447B-BAAF-CD3F35AF07F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4517C9A6-3CEA-4029-BEE2-08871C18BBA4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="2" xr2:uid="{8FD76562-234B-40A6-8AC6-52675E21BBDC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{8FD76562-234B-40A6-8AC6-52675E21BBDC}"/>
   </bookViews>
   <sheets>
     <sheet name="COMPONENT TAGS" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="316">
   <si>
     <t>As a bonus action on your turn, you can wind up the weapon. All attacks you make with this weapon until the end of the turn are treated as if they had the 'forceful' trait with a tier equal to its windup tier, and as if one additional attack had already been made that turn.
 You cannot benefit from the Extra Attack feature when using this weapon.</t>
@@ -168,12 +168,6 @@
   </si>
   <si>
     <t>If you move more than 30 feet in a straight line with this armour, you can push people out of their spaces and into adjacent ones, dealing 1d6 bludgeoning damage for every 10 feet moved. If a creature cannot be pushed out of its space, your movement is immediately stopped at the space before theirs.</t>
-  </si>
-  <si>
-    <t>If you headbutt with a helmet made of this material, you deal a number of additional d6's of bludgeoning damage equal to its forceful tier, and force a Strength save equal to 10 + (2 * the forceful tier) or be stunned - a headbutt with a forceful 2 helmet would deal an extra 2d6 bludgeoning damage and would force a DC 14 Strength save.</t>
-  </si>
-  <si>
-    <t>Each successive attack with this weapon deals a number of additional d6's of physical damage equal to the number of attacks previously made with it this turn multiplied by its forceful tier - the second attack from a forceful 2 weapon would deal 2d6 extra damage, whereas the third attack would deal 4d6, etc. A forceful weapon with no tier deals 1 damage for every previous attack.</t>
   </si>
   <si>
     <t>Items made from this component efficiently gather and transfer momentum.</t>
@@ -341,24 +335,6 @@
     <t>Spells cast with this staff slow down their targets by 10 feet per slowdown tier on a successful hit or a failed save.</t>
   </si>
   <si>
-    <t>The wearer of these boots has their speed increased by 10 feet for every positive attachment value, and decreased by 10 feet for every negative attachment value.</t>
-  </si>
-  <si>
-    <t>Attacks made against the wearer of this armour can have a number of their dice equal to its attachment value minimised if it is positive, or maximised if it is negative. The armour decides when this is done.</t>
-  </si>
-  <si>
-    <t>Dexterity (Stealth) and Charisma (Performance) checks made by the wearer of this cloak add its attachment value to their rolls.</t>
-  </si>
-  <si>
-    <t>Wisdom (Perception) and Wisdom (Insight) checks made by the wearer of this helmet add its attachment value to their rolls.</t>
-  </si>
-  <si>
-    <t>Attacks made with this weapon add its attachment value to their attack rolls.</t>
-  </si>
-  <si>
-    <t>This material has an attachment value associated with it, with a mimimum of -3 and a maximum of +3. This value is added to its harvesting and crafting checks, and to certain rolls made with items made from it.</t>
-  </si>
-  <si>
     <t>This material is alive, and will help its wielder if it likes them, or hinder them if it doesn't.</t>
   </si>
   <si>
@@ -1147,9 +1123,6 @@
     <t>Your speed is halved while you wear these boots.</t>
   </si>
   <si>
-    <t>pOTION OR FLASK</t>
-  </si>
-  <si>
     <t>When the potion in this flask is ingested, the flask shatters and becomes unusable.</t>
   </si>
   <si>
@@ -1162,9 +1135,6 @@
     <t>This potion flask can be thrown half as far as normal.</t>
   </si>
   <si>
-    <t>When this flask is thrown, a creature that is hit takes piercing damage equal to the step damage of the flask's keen tier.</t>
-  </si>
-  <si>
     <t>If you headbutt with a helmet made of this material, you deal a number of additional d6's of bludgeoning damage equal to its forceful tier and may force the creature to make a Strength save equal to 10 + (2 * the forceful tier) or be stunned - a headbutt with a forceful 2 helmet would deal an extra 2d6 bludgeoning damage and would force a DC 14 Strength save.</t>
   </si>
   <si>
@@ -1181,9 +1151,6 @@
   </si>
   <si>
     <t>This flask drops and shatters silently.</t>
-  </si>
-  <si>
-    <t>Ingesting this potion forces the consumer to make a Wisdom saving throw with a DC equal to 10 + (2 * the slowdown tier) or become cursed. The curse's level is equal to the item's cursed tier.</t>
   </si>
   <si>
     <t>Ingesting this potion grants the consumer 1d4 temporary hit points per nourishing tier.</t>
@@ -1229,9 +1196,6 @@
 If the potion is thrown, it deals 1d6 + 1 damage of its damage type for each tier of affinity.</t>
   </si>
   <si>
-    <t>The radius of this potion's explosion is doubled.</t>
-  </si>
-  <si>
     <t>When thrown, this flask does not arc, instead flying in a straight line.</t>
   </si>
   <si>
@@ -1241,81 +1205,6 @@
   <si>
     <t>Ingesting this potion causes the consumer to be immune to all magical effects of a level equal to or lower than this potion's antimagic tier, and suppresses the effect of all similarly powerful magic items and effects they come into contact with. This effect lasts for 1 hour.
 If it is thrown, are creatures within its explosion must make a Charisma saving throw of a DC equal to 10 + (2 * its antimagic tier) or suffer as if they were inside an antimagic field for 1 minute.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Ingesting this potion casts the </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>mental prison</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> spell as if it the consumer was the target.
-If it is thrown, all creatures within its explosion have the </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>dissonant whispers</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> spell cast on them.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Ingesting this potion casts the </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>time stop</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> spell as if it originated from the consumer.
-If it is thrown, the spell is cast as if all creatures within the radius of its explosion were included as the casters.</t>
-    </r>
   </si>
   <si>
     <t>The following effect only takes place if a striking part's base material is unstable.
@@ -1340,63 +1229,6 @@
 Enchantments override affinity, and if multiple affinities or enchantments are channelled into it, the strongest will override the others. If no overriding can take place, the wielder may switch the damage type of the core between them as a bonus action. </t>
   </si>
   <si>
-    <t xml:space="preserve">This potion has their dice rolls averaged out, forcing them to always roll the middle value. </t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">When ingested, the consumer gains darkvision out to a range of 60 feet, or has their darkvision increased by 60 feet, for 1 hour. Magical darkness does not impede their darkvision during this time.
-When thrown, the area of its explosion is covered by magical darkness, as if by the </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>darkness</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> spell.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Ingesting this potion forces the consumer to make a Constitution saving throw with a DC equal to 10 + (2 * the flaming tier) or become set </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>aflame</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> for 1 minute.
-If it is thrown, this saving throw is forced upon all creatures within the radius of its explosion.</t>
-    </r>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Ingesting this potion forces the consumer to make a Wisdom saving throw with a DC equal to 10 + (2 * the hypnotising tier) or become </t>
     </r>
@@ -1769,7 +1601,113 @@
 When the craving fades, the creature must make a Charisma saving throw, permanently transforming into a vampire spawn, which may alter their alignment, on a failure.</t>
   </si>
   <si>
-    <t>Spells cast through this staff's core may have their attack rolls and the DC of their saving throws altered by its attachment value. The staff decides when this is done.</t>
+    <t xml:space="preserve">This material has an attachment value associated with it, with a mimimum of -3 and a maximum of +3. This value is added to its harvesting and crafting checks, and to certain rolls made with items made from it. Once per week, you can bond with the </t>
+  </si>
+  <si>
+    <t>Dexterity (Stealth) and Charisma (Performance) checks made by the wearer of this cloak add its attachment value to their rolls.
+On a natural 1, the material's attachment value decreases by 1.</t>
+  </si>
+  <si>
+    <t>Wisdom (Perception) and Wisdom (Insight) checks made by the wearer of this helmet add its attachment value to their rolls.
+On a natural 1, the material's attachment value decreases by 1.</t>
+  </si>
+  <si>
+    <t>Attacks made with this weapon add its attachment value to their attack rolls.
+On a natural 1, the material's attachment value decreases by 1.</t>
+  </si>
+  <si>
+    <t>The wearer of these boots has their speed increased by 10 feet for every positive attachment value, and decreased by 10 feet for every negative attachment value.
+On a natural 1, the material's attachment value decreases by 1.</t>
+  </si>
+  <si>
+    <t>Attacks made against the wearer of this armour can have a number of their dice equal to its attachment value minimised if it is positive, or maximised if it is negative. The armour decides when this is done.
+If you suffer a critical hit, the material's attachment value decreases by 1.</t>
+  </si>
+  <si>
+    <t>When thrown, this the attack roll has the material's attachment value added to it. 
+When this flask is shattered, the material's attachment value decreases by 1.</t>
+  </si>
+  <si>
+    <t>Spells cast through this staff's core may have their attack rolls and the DC of their saving throws altered by its attachment value. The staff decides when this is done.
+On a natural 1 on the attack roll, or if the targets roll a natural 20 on their saving throw, the material's attachment value decreases by 1.</t>
+  </si>
+  <si>
+    <t>Patterned</t>
+  </si>
+  <si>
+    <t>FLASK</t>
+  </si>
+  <si>
+    <t>POTION BASE</t>
+  </si>
+  <si>
+    <t>This component allows for precise strikes at a target's weak points.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When applied to a cork, </t>
+  </si>
+  <si>
+    <t>When this flask is shattered, all creatures in the range of the explosion take piercing damage equal to the step damage of the flask's keen tier.</t>
+  </si>
+  <si>
+    <t>This material cannot be used in a flask.</t>
+  </si>
+  <si>
+    <t>Ingesting this potion forces the consumer to make a Wisdom saving throw with a DC equal to 10 + (2 * the cursed tier) or become cursed. The curse's level is equal to the item's cursed tier.</t>
+  </si>
+  <si>
+    <t>Ingesting this potion forces the consumer to make a Constitution saving throw with a DC equal to 10 + (2 * the flaming tier) or become set aflame for 1 minute.
+If it is thrown, this saving throw is forced upon all creatures within the radius of its explosion.</t>
+  </si>
+  <si>
+    <t>The radius of this potion's explosion is increased by its standard radius for every arcing tier.</t>
+  </si>
+  <si>
+    <t>The radius of this potion's explosion is increased by its standard radius.</t>
+  </si>
+  <si>
+    <t>When you throw this flask, you may expend a spell slot to enhance the potion's potency. The potion's MOD increases by the spell slot's level.</t>
+  </si>
+  <si>
+    <t>When you ingest this potion, you may expend a spell slot to enhance the potion's potency. The potion's MOD increases by the spell slot's level.</t>
+  </si>
+  <si>
+    <t>When ingested, the consumer gains darkvision out to a range of 60 feet, or has their darkvision increased by 60 feet, for 1 hour. Magical darkness does not impede their darkvision during this time.
+When thrown, the area of its explosion is covered by magical darkness, as if by the darkness spell.</t>
+  </si>
+  <si>
+    <t>This flask's material alters the appearance of the potion inside it, transforming it to appear like oily, liquid shadow.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When ingested, this potion has its dice rolls averaged out, forcing the consumer to always roll the middle value. </t>
+  </si>
+  <si>
+    <t>When thrown, this flask forces its attack or saving throw to average out, always rolling the middle value.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This flask's material alters the appearance of the potion inside it.
+If sources of positive elemental or healing affinity or elemental or healing enchantments are channeled into the unstable material, the potion will have its appearance changed to resemble a liquid form of the affinity it channels.
+Enchantments override affinity, and if multiple affinities or enchantments are channelled into it, the strongest will override the others. If no overriding can take place, the wielder may switch the damage type of the core between them as a bonus action. </t>
+  </si>
+  <si>
+    <t>Ingesting this potion casts the mental prison spell as if it the consumer was the target.
+If it is thrown, all creatures within its explosion have the dissonant whispers spell cast on them.</t>
+  </si>
+  <si>
+    <t>Ingesting this potion casts the time stop spell as if it originated from the consumer.
+If it is thrown, the spell is cast as if all creatures within the radius of its explosion were included as the casters.</t>
+  </si>
+  <si>
+    <t>This material is imbued with the essence of the elemental plane of fire.</t>
+  </si>
+  <si>
+    <t>This material is imbued with the essence of the elemental plane of water.</t>
+  </si>
+  <si>
+    <t>This material is imbued with the essence of the elemental plane of earth.</t>
+  </si>
+  <si>
+    <t>This material is imbued with the essence of the elemental plane of air.</t>
   </si>
 </sst>
 </file>
@@ -1819,7 +1757,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="57">
+  <borders count="58">
     <border>
       <left/>
       <right/>
@@ -2392,28 +2330,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -2507,11 +2423,56 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="141">
+  <cellXfs count="159">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2558,12 +2519,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2688,101 +2643,195 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -2798,12 +2847,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -2813,22 +2856,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2840,15 +2874,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2867,24 +2892,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -2894,15 +2919,18 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -2911,21 +2939,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3241,11 +3254,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2676EF7-6059-47B8-9088-C8B7174E5212}">
-  <dimension ref="A1:H17"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
+      <selection pane="bottomLeft" activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3253,58 +3267,68 @@
     <col min="1" max="1" width="20" style="2" customWidth="1"/>
     <col min="2" max="2" width="27.42578125" style="1" customWidth="1"/>
     <col min="3" max="7" width="26.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="27.28515625" style="1" customWidth="1"/>
+    <col min="8" max="10" width="27.140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="20" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="B1" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="C1" s="21" t="s">
+    <row r="1" spans="1:10" s="18" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="B1" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="C1" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="D1" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="E1" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="F1" s="19" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="240" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="G1" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="H1" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="I1" s="19" t="s">
+        <v>293</v>
+      </c>
+      <c r="J1" s="19" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="240" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="B2" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="E2" s="15"/>
-      <c r="F2" s="16" t="s">
+      <c r="C2" s="83" t="s">
+        <v>169</v>
+      </c>
+      <c r="D2" s="81" t="s">
+        <v>247</v>
+      </c>
+      <c r="E2" s="53"/>
+      <c r="F2" s="81" t="s">
         <v>43</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="H2" s="15"/>
-    </row>
-    <row r="3" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="H2" s="65"/>
+      <c r="I2" s="71" t="s">
+        <v>248</v>
+      </c>
+      <c r="J2" s="15"/>
+    </row>
+    <row r="3" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>41</v>
       </c>
@@ -3319,8 +3343,10 @@
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
-    </row>
-    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+    </row>
+    <row r="4" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>38</v>
       </c>
@@ -3335,8 +3361,10 @@
       <c r="F4" s="12"/>
       <c r="G4" s="12"/>
       <c r="H4" s="12"/>
-    </row>
-    <row r="5" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+    </row>
+    <row r="5" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>35</v>
       </c>
@@ -3351,8 +3379,10 @@
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
-    </row>
-    <row r="6" spans="1:8" s="3" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+    </row>
+    <row r="6" spans="1:10" s="3" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>32</v>
       </c>
@@ -3367,8 +3397,10 @@
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
-    </row>
-    <row r="7" spans="1:8" s="3" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+    </row>
+    <row r="7" spans="1:10" s="3" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>29</v>
       </c>
@@ -3383,8 +3415,10 @@
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
-    </row>
-    <row r="8" spans="1:8" s="3" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+    </row>
+    <row r="8" spans="1:10" s="3" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>26</v>
       </c>
@@ -3399,8 +3433,10 @@
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
-    </row>
-    <row r="9" spans="1:8" s="3" customFormat="1" ht="135" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+    </row>
+    <row r="9" spans="1:10" s="3" customFormat="1" ht="135" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>23</v>
       </c>
@@ -3415,8 +3451,10 @@
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
-    </row>
-    <row r="10" spans="1:8" s="3" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+    </row>
+    <row r="10" spans="1:10" s="3" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>20</v>
       </c>
@@ -3431,8 +3469,10 @@
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
-    </row>
-    <row r="11" spans="1:8" s="3" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+    </row>
+    <row r="11" spans="1:10" s="3" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>17</v>
       </c>
@@ -3447,8 +3487,10 @@
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
-    </row>
-    <row r="12" spans="1:8" s="3" customFormat="1" ht="150" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+    </row>
+    <row r="12" spans="1:10" s="3" customFormat="1" ht="150" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>14</v>
       </c>
@@ -3463,8 +3505,10 @@
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
-    </row>
-    <row r="13" spans="1:8" s="3" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+    </row>
+    <row r="13" spans="1:10" s="3" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>11</v>
       </c>
@@ -3479,8 +3523,10 @@
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
-    </row>
-    <row r="14" spans="1:8" s="3" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+    </row>
+    <row r="14" spans="1:10" s="3" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>8</v>
       </c>
@@ -3495,8 +3541,10 @@
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
-    </row>
-    <row r="15" spans="1:8" s="3" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+    </row>
+    <row r="15" spans="1:10" s="3" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>5</v>
       </c>
@@ -3511,41 +3559,64 @@
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
-    </row>
-    <row r="16" spans="1:8" s="69" customFormat="1" ht="225" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="67" t="s">
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+    </row>
+    <row r="16" spans="1:10" s="88" customFormat="1" ht="225" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="40" t="s">
+      <c r="B16" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="68" t="s">
+      <c r="C16" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="D16" s="37"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="37"/>
-    </row>
-    <row r="17" spans="1:8" s="69" customFormat="1" ht="225" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="70" t="s">
-        <v>244</v>
-      </c>
-      <c r="B17" s="40"/>
-      <c r="C17" s="68" t="s">
-        <v>245</v>
-      </c>
-      <c r="D17" s="37"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="56" t="s">
-        <v>246</v>
-      </c>
+      <c r="D16" s="53"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="53"/>
+      <c r="G16" s="53"/>
+      <c r="H16" s="53"/>
+      <c r="I16" s="53"/>
+      <c r="J16" s="53"/>
+    </row>
+    <row r="17" spans="1:10" s="88" customFormat="1" ht="225" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="90" t="s">
+        <v>236</v>
+      </c>
+      <c r="B17" s="23" t="s">
+        <v>295</v>
+      </c>
+      <c r="C17" s="83" t="s">
+        <v>237</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="21" t="s">
+        <v>238</v>
+      </c>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="92" t="s">
+        <v>292</v>
+      </c>
+      <c r="B18" s="93"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="54" t="s">
+        <v>296</v>
+      </c>
+      <c r="J18" s="35"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="TzWS6ZbWORxOW0iO8o1ZPQ8yTWiH0alHH/11ATzn9DbclMuB5Kcia1FpCMWthz6hJpOAq6oXnT3l27THzZTKfA==" saltValue="wSk19HXE0PoWYikRYM7xKw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -3553,1118 +3624,1187 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFDD3848-1CCA-4159-A124-07A157F1268B}">
-  <dimension ref="A1:I52"/>
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:J52"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A54" sqref="A54"/>
+      <selection pane="bottomLeft" activeCell="E50" sqref="E50:G50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" style="2" customWidth="1"/>
     <col min="2" max="2" width="27.42578125" style="1" customWidth="1"/>
-    <col min="3" max="7" width="26.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="26.85546875" style="1" customWidth="1"/>
+    <col min="4" max="7" width="26.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="27.140625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="27" customWidth="1"/>
+    <col min="9" max="10" width="27.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="20" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="B1" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="C1" s="21" t="s">
+    <row r="1" spans="1:10" s="18" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="B1" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="C1" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="D1" s="105" t="s">
         <v>50</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="E1" s="105" t="s">
         <v>49</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="F1" s="105" t="s">
         <v>48</v>
       </c>
-      <c r="I1" s="71" t="s">
+      <c r="G1" s="105" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1" s="105" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1" s="106" t="s">
+        <v>293</v>
+      </c>
+      <c r="J1" s="106" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="43" t="s">
+        <v>189</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="C2" s="143" t="s">
+        <v>187</v>
+      </c>
+      <c r="D2" s="144"/>
+      <c r="E2" s="144"/>
+      <c r="F2" s="144"/>
+      <c r="G2" s="144"/>
+      <c r="H2" s="144"/>
+      <c r="I2" s="145"/>
+      <c r="J2" s="94"/>
+    </row>
+    <row r="3" spans="1:10" s="18" customFormat="1" ht="165" x14ac:dyDescent="0.25">
+      <c r="A3" s="42" t="s">
+        <v>186</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="D3" s="135" t="s">
+        <v>184</v>
+      </c>
+      <c r="E3" s="135"/>
+      <c r="F3" s="135"/>
+      <c r="G3" s="135"/>
+      <c r="H3" s="64" t="s">
+        <v>183</v>
+      </c>
+      <c r="I3" s="95"/>
+      <c r="J3" s="76" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="18" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="42" t="s">
+        <v>182</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="C4" s="140" t="s">
+        <v>180</v>
+      </c>
+      <c r="D4" s="141"/>
+      <c r="E4" s="141"/>
+      <c r="F4" s="141"/>
+      <c r="G4" s="141"/>
+      <c r="H4" s="141"/>
+      <c r="I4" s="142"/>
+      <c r="J4" s="96"/>
+    </row>
+    <row r="5" spans="1:10" s="18" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A5" s="42" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="45" t="s">
-        <v>197</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>196</v>
-      </c>
-      <c r="C2" s="121" t="s">
-        <v>195</v>
-      </c>
-      <c r="D2" s="122"/>
-      <c r="E2" s="122"/>
-      <c r="F2" s="122"/>
-      <c r="G2" s="122"/>
-      <c r="H2" s="122"/>
-      <c r="I2" s="123"/>
-    </row>
-    <row r="3" spans="1:9" s="20" customFormat="1" ht="165" x14ac:dyDescent="0.25">
-      <c r="A3" s="44" t="s">
-        <v>194</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>193</v>
-      </c>
-      <c r="D3" s="110" t="s">
-        <v>192</v>
-      </c>
-      <c r="E3" s="110"/>
-      <c r="F3" s="110"/>
-      <c r="G3" s="110"/>
-      <c r="H3" s="72" t="s">
-        <v>191</v>
-      </c>
-      <c r="I3" s="84" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" s="20" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="44" t="s">
-        <v>190</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="C4" s="118" t="s">
-        <v>188</v>
-      </c>
-      <c r="D4" s="119"/>
-      <c r="E4" s="119"/>
-      <c r="F4" s="119"/>
-      <c r="G4" s="119"/>
-      <c r="H4" s="119"/>
-      <c r="I4" s="120"/>
-    </row>
-    <row r="5" spans="1:9" s="20" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A5" s="44" t="s">
+      <c r="B5" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>272</v>
-      </c>
-      <c r="C5" s="33"/>
-      <c r="D5" s="110" t="s">
-        <v>187</v>
-      </c>
-      <c r="E5" s="110"/>
-      <c r="F5" s="110"/>
-      <c r="G5" s="110"/>
-      <c r="H5" s="72" t="s">
-        <v>186</v>
-      </c>
-      <c r="I5" s="84" t="s">
+      <c r="C5" s="31"/>
+      <c r="D5" s="135" t="s">
+        <v>179</v>
+      </c>
+      <c r="E5" s="135"/>
+      <c r="F5" s="135"/>
+      <c r="G5" s="135"/>
+      <c r="H5" s="64" t="s">
+        <v>178</v>
+      </c>
+      <c r="I5" s="95"/>
+      <c r="J5" s="76" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="18" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="42" t="s">
+        <v>177</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="C6" s="140" t="s">
+        <v>175</v>
+      </c>
+      <c r="D6" s="141"/>
+      <c r="E6" s="141"/>
+      <c r="F6" s="141"/>
+      <c r="G6" s="141"/>
+      <c r="H6" s="141"/>
+      <c r="I6" s="142"/>
+      <c r="J6" s="96"/>
+    </row>
+    <row r="7" spans="1:10" s="18" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="42" t="s">
+        <v>174</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="C7" s="140" t="s">
+        <v>173</v>
+      </c>
+      <c r="D7" s="141"/>
+      <c r="E7" s="141"/>
+      <c r="F7" s="141"/>
+      <c r="G7" s="141"/>
+      <c r="H7" s="141"/>
+      <c r="I7" s="141"/>
+      <c r="J7" s="142"/>
+    </row>
+    <row r="8" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="42" t="s">
+        <v>172</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" s="20" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="44" t="s">
-        <v>185</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="C6" s="118" t="s">
-        <v>183</v>
-      </c>
-      <c r="D6" s="119"/>
-      <c r="E6" s="119"/>
-      <c r="F6" s="119"/>
-      <c r="G6" s="119"/>
-      <c r="H6" s="119"/>
-      <c r="I6" s="120"/>
-    </row>
-    <row r="7" spans="1:9" s="20" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="44" t="s">
-        <v>182</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>271</v>
-      </c>
-      <c r="C7" s="118" t="s">
-        <v>181</v>
-      </c>
-      <c r="D7" s="119"/>
-      <c r="E7" s="119"/>
-      <c r="F7" s="119"/>
-      <c r="G7" s="119"/>
-      <c r="H7" s="119"/>
-      <c r="I7" s="120"/>
-    </row>
-    <row r="8" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="44" t="s">
-        <v>180</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>270</v>
-      </c>
-      <c r="C8" s="118" t="s">
-        <v>179</v>
-      </c>
-      <c r="D8" s="119"/>
-      <c r="E8" s="119"/>
-      <c r="F8" s="119"/>
-      <c r="G8" s="119"/>
-      <c r="H8" s="119"/>
-      <c r="I8" s="120"/>
-    </row>
-    <row r="9" spans="1:9" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="44" t="s">
-        <v>269</v>
-      </c>
-      <c r="B9" s="87" t="s">
-        <v>274</v>
-      </c>
-      <c r="C9" s="118" t="s">
-        <v>276</v>
-      </c>
-      <c r="D9" s="119"/>
-      <c r="E9" s="119"/>
-      <c r="F9" s="119"/>
-      <c r="G9" s="119"/>
-      <c r="H9" s="120"/>
-      <c r="I9" s="43" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="240" x14ac:dyDescent="0.25">
+      <c r="C8" s="140" t="s">
+        <v>171</v>
+      </c>
+      <c r="D8" s="141"/>
+      <c r="E8" s="141"/>
+      <c r="F8" s="141"/>
+      <c r="G8" s="141"/>
+      <c r="H8" s="141"/>
+      <c r="I8" s="142"/>
+      <c r="J8" s="69"/>
+    </row>
+    <row r="9" spans="1:10" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="42" t="s">
+        <v>258</v>
+      </c>
+      <c r="B9" s="79" t="s">
+        <v>263</v>
+      </c>
+      <c r="C9" s="140" t="s">
+        <v>265</v>
+      </c>
+      <c r="D9" s="141"/>
+      <c r="E9" s="141"/>
+      <c r="F9" s="141"/>
+      <c r="G9" s="141"/>
+      <c r="H9" s="142"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="81" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="240" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>177</v>
-      </c>
-      <c r="D10" s="34" t="s">
-        <v>257</v>
-      </c>
-      <c r="E10" s="55"/>
-      <c r="F10" s="34" t="s">
+        <v>169</v>
+      </c>
+      <c r="D10" s="32" t="s">
+        <v>247</v>
+      </c>
+      <c r="E10" s="53"/>
+      <c r="F10" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="G10" s="34" t="s">
+      <c r="G10" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="H10" s="73"/>
-      <c r="I10" s="79" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+      <c r="H10" s="65"/>
+      <c r="I10" s="71" t="s">
+        <v>248</v>
+      </c>
+      <c r="J10" s="116"/>
+    </row>
+    <row r="11" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>41</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="D11" s="89"/>
-      <c r="E11" s="90"/>
-      <c r="F11" s="91"/>
-      <c r="G11" s="91"/>
-      <c r="H11" s="91"/>
-      <c r="I11" s="79" t="s">
+        <v>167</v>
+      </c>
+      <c r="D11" s="119"/>
+      <c r="E11" s="120"/>
+      <c r="F11" s="121"/>
+      <c r="G11" s="121"/>
+      <c r="H11" s="121"/>
+      <c r="I11" s="71" t="s">
+        <v>297</v>
+      </c>
+      <c r="J11" s="117"/>
+    </row>
+    <row r="12" spans="1:10" ht="135" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="E12" s="57"/>
+      <c r="F12" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="G12" s="21" t="s">
+        <v>161</v>
+      </c>
+      <c r="H12" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="I12" s="70" t="s">
+        <v>243</v>
+      </c>
+      <c r="J12" s="117"/>
+    </row>
+    <row r="13" spans="1:10" ht="135" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="129" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="130" t="s">
+        <v>159</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="D13" s="119"/>
+      <c r="E13" s="128"/>
+      <c r="F13" s="32" t="s">
+        <v>240</v>
+      </c>
+      <c r="G13" s="41" t="s">
+        <v>241</v>
+      </c>
+      <c r="H13" s="68"/>
+      <c r="I13" s="73" t="s">
+        <v>245</v>
+      </c>
+      <c r="J13" s="117"/>
+    </row>
+    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="129"/>
+      <c r="B14" s="130"/>
+      <c r="C14" s="134" t="s">
+        <v>157</v>
+      </c>
+      <c r="D14" s="147"/>
+      <c r="E14" s="147"/>
+      <c r="F14" s="147"/>
+      <c r="G14" s="147"/>
+      <c r="H14" s="147"/>
+      <c r="I14" s="148"/>
+      <c r="J14" s="117"/>
+    </row>
+    <row r="15" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="A15" s="129" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="130" t="s">
+        <v>156</v>
+      </c>
+      <c r="C15" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="D15" s="122"/>
+      <c r="E15" s="123"/>
+      <c r="F15" s="70" t="s">
+        <v>154</v>
+      </c>
+      <c r="G15" s="70" t="s">
+        <v>242</v>
+      </c>
+      <c r="H15" s="75"/>
+      <c r="I15" s="74" t="s">
+        <v>246</v>
+      </c>
+      <c r="J15" s="117"/>
+    </row>
+    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="129"/>
+      <c r="B16" s="136"/>
+      <c r="C16" s="135" t="s">
+        <v>153</v>
+      </c>
+      <c r="D16" s="135"/>
+      <c r="E16" s="135"/>
+      <c r="F16" s="135"/>
+      <c r="G16" s="135"/>
+      <c r="H16" s="135"/>
+      <c r="I16" s="135"/>
+      <c r="J16" s="118"/>
+    </row>
+    <row r="17" spans="1:10" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C17" s="134" t="s">
+        <v>281</v>
+      </c>
+      <c r="D17" s="147"/>
+      <c r="E17" s="147"/>
+      <c r="F17" s="147"/>
+      <c r="G17" s="147"/>
+      <c r="H17" s="147"/>
+      <c r="I17" s="97"/>
+      <c r="J17" s="72" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C18" s="110" t="s">
+        <v>148</v>
+      </c>
+      <c r="D18" s="111"/>
+      <c r="E18" s="111"/>
+      <c r="F18" s="111"/>
+      <c r="G18" s="111"/>
+      <c r="H18" s="111"/>
+      <c r="I18" s="111"/>
+      <c r="J18" s="112"/>
+    </row>
+    <row r="19" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="B19" s="40" t="s">
+        <v>146</v>
+      </c>
+      <c r="C19" s="110" t="s">
+        <v>145</v>
+      </c>
+      <c r="D19" s="111"/>
+      <c r="E19" s="111"/>
+      <c r="F19" s="111"/>
+      <c r="G19" s="111"/>
+      <c r="H19" s="111"/>
+      <c r="I19" s="111"/>
+      <c r="J19" s="112"/>
+    </row>
+    <row r="20" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="B20" s="40" t="s">
+        <v>202</v>
+      </c>
+      <c r="C20" s="110" t="s">
+        <v>203</v>
+      </c>
+      <c r="D20" s="111"/>
+      <c r="E20" s="111"/>
+      <c r="F20" s="111"/>
+      <c r="G20" s="111"/>
+      <c r="H20" s="111"/>
+      <c r="I20" s="111"/>
+      <c r="J20" s="112"/>
+    </row>
+    <row r="21" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B21" s="40" t="s">
+        <v>143</v>
+      </c>
+      <c r="C21" s="110" t="s">
+        <v>142</v>
+      </c>
+      <c r="D21" s="111"/>
+      <c r="E21" s="111"/>
+      <c r="F21" s="111"/>
+      <c r="G21" s="111"/>
+      <c r="H21" s="111"/>
+      <c r="I21" s="111"/>
+      <c r="J21" s="112"/>
+    </row>
+    <row r="22" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="B22" s="40" t="s">
+        <v>205</v>
+      </c>
+      <c r="C22" s="110" t="s">
+        <v>206</v>
+      </c>
+      <c r="D22" s="111"/>
+      <c r="E22" s="111"/>
+      <c r="F22" s="111"/>
+      <c r="G22" s="111"/>
+      <c r="H22" s="111"/>
+      <c r="I22" s="111"/>
+      <c r="J22" s="112"/>
+    </row>
+    <row r="23" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="B23" s="40" t="s">
+        <v>140</v>
+      </c>
+      <c r="C23" s="110" t="s">
+        <v>139</v>
+      </c>
+      <c r="D23" s="111"/>
+      <c r="E23" s="111"/>
+      <c r="F23" s="111"/>
+      <c r="G23" s="111"/>
+      <c r="H23" s="111"/>
+      <c r="I23" s="111"/>
+      <c r="J23" s="112"/>
+    </row>
+    <row r="24" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="B24" s="40" t="s">
+        <v>137</v>
+      </c>
+      <c r="C24" s="110" t="s">
+        <v>136</v>
+      </c>
+      <c r="D24" s="111"/>
+      <c r="E24" s="111"/>
+      <c r="F24" s="111"/>
+      <c r="G24" s="111"/>
+      <c r="H24" s="111"/>
+      <c r="I24" s="111"/>
+      <c r="J24" s="112"/>
+    </row>
+    <row r="25" spans="1:10" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="39" t="s">
+        <v>135</v>
+      </c>
+      <c r="B25" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="C25" s="37" t="s">
+        <v>209</v>
+      </c>
+      <c r="D25" s="35"/>
+      <c r="E25" s="36" t="s">
+        <v>133</v>
+      </c>
+      <c r="F25" s="54" t="s">
+        <v>210</v>
+      </c>
+      <c r="G25" s="132"/>
+      <c r="H25" s="133"/>
+      <c r="I25" s="36" t="s">
+        <v>298</v>
+      </c>
+      <c r="J25" s="98" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="B26" s="33" t="s">
+        <v>131</v>
+      </c>
+      <c r="C26" s="113" t="s">
+        <v>130</v>
+      </c>
+      <c r="D26" s="114"/>
+      <c r="E26" s="114"/>
+      <c r="F26" s="114"/>
+      <c r="G26" s="114"/>
+      <c r="H26" s="114"/>
+      <c r="I26" s="114"/>
+      <c r="J26" s="115"/>
+    </row>
+    <row r="27" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="B27" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="C27" s="137" t="s">
+        <v>127</v>
+      </c>
+      <c r="D27" s="138"/>
+      <c r="E27" s="138"/>
+      <c r="F27" s="138"/>
+      <c r="G27" s="138"/>
+      <c r="H27" s="138"/>
+      <c r="I27" s="139"/>
+      <c r="J27" s="116"/>
+    </row>
+    <row r="28" spans="1:10" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="34" t="s">
+        <v>126</v>
+      </c>
+      <c r="B28" s="60" t="s">
+        <v>125</v>
+      </c>
+      <c r="C28" s="63" t="s">
+        <v>124</v>
+      </c>
+      <c r="D28" s="108"/>
+      <c r="E28" s="109"/>
+      <c r="F28" s="41" t="s">
+        <v>123</v>
+      </c>
+      <c r="G28" s="41" t="s">
+        <v>122</v>
+      </c>
+      <c r="H28" s="122"/>
+      <c r="I28" s="71" t="s">
+        <v>250</v>
+      </c>
+      <c r="J28" s="117"/>
+    </row>
+    <row r="29" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="A29" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="B29" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="C29" s="77" t="s">
+        <v>119</v>
+      </c>
+      <c r="D29" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="E29" s="70" t="s">
+        <v>117</v>
+      </c>
+      <c r="F29" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="G29" s="70" t="s">
+        <v>115</v>
+      </c>
+      <c r="H29" s="131"/>
+      <c r="I29" s="71" t="s">
+        <v>252</v>
+      </c>
+      <c r="J29" s="118"/>
+    </row>
+    <row r="30" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="B30" s="23" t="s">
+        <v>219</v>
+      </c>
+      <c r="C30" s="110" t="s">
+        <v>220</v>
+      </c>
+      <c r="D30" s="111"/>
+      <c r="E30" s="111"/>
+      <c r="F30" s="111"/>
+      <c r="G30" s="111"/>
+      <c r="H30" s="112"/>
+      <c r="I30" s="99"/>
+      <c r="J30" s="81" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="24" t="s">
+        <v>254</v>
+      </c>
+      <c r="B31" s="23" t="s">
+        <v>255</v>
+      </c>
+      <c r="C31" s="110" t="s">
+        <v>257</v>
+      </c>
+      <c r="D31" s="111"/>
+      <c r="E31" s="111"/>
+      <c r="F31" s="111"/>
+      <c r="G31" s="111"/>
+      <c r="H31" s="112"/>
+      <c r="I31" s="100"/>
+      <c r="J31" s="81" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="135" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
-        <v>174</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="D12" s="23" t="s">
-        <v>171</v>
-      </c>
-      <c r="E12" s="59"/>
-      <c r="F12" s="23" t="s">
-        <v>170</v>
-      </c>
-      <c r="G12" s="23" t="s">
-        <v>169</v>
-      </c>
-      <c r="H12" s="30" t="s">
-        <v>168</v>
-      </c>
-      <c r="I12" s="78" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="135" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="101" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" s="102" t="s">
-        <v>167</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="D13" s="89"/>
-      <c r="E13" s="100"/>
-      <c r="F13" s="34" t="s">
-        <v>248</v>
-      </c>
-      <c r="G13" s="43" t="s">
-        <v>249</v>
-      </c>
-      <c r="H13" s="76"/>
-      <c r="I13" s="81" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="101"/>
-      <c r="B14" s="102"/>
-      <c r="C14" s="109" t="s">
-        <v>165</v>
-      </c>
-      <c r="D14" s="124"/>
-      <c r="E14" s="124"/>
-      <c r="F14" s="124"/>
-      <c r="G14" s="124"/>
-      <c r="H14" s="124"/>
-      <c r="I14" s="125"/>
-    </row>
-    <row r="15" spans="1:9" ht="120" x14ac:dyDescent="0.25">
-      <c r="A15" s="101" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15" s="102" t="s">
-        <v>164</v>
-      </c>
-      <c r="C15" s="32" t="s">
-        <v>163</v>
-      </c>
-      <c r="D15" s="92"/>
-      <c r="E15" s="93"/>
-      <c r="F15" s="78" t="s">
-        <v>162</v>
-      </c>
-      <c r="G15" s="78" t="s">
-        <v>250</v>
-      </c>
-      <c r="H15" s="83"/>
-      <c r="I15" s="82" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="101"/>
-      <c r="B16" s="111"/>
-      <c r="C16" s="110" t="s">
-        <v>161</v>
-      </c>
-      <c r="D16" s="110"/>
-      <c r="E16" s="110"/>
-      <c r="F16" s="110"/>
-      <c r="G16" s="110"/>
-      <c r="H16" s="110"/>
-      <c r="I16" s="110"/>
-    </row>
-    <row r="17" spans="1:9" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="C17" s="109" t="s">
+    <row r="32" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="A32" s="24" t="s">
+        <v>216</v>
+      </c>
+      <c r="B32" s="23" t="s">
+        <v>215</v>
+      </c>
+      <c r="C32" s="111" t="s">
+        <v>217</v>
+      </c>
+      <c r="D32" s="111"/>
+      <c r="E32" s="111"/>
+      <c r="F32" s="111"/>
+      <c r="G32" s="111"/>
+      <c r="H32" s="111"/>
+      <c r="I32" s="100"/>
+      <c r="J32" s="71" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="300" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="B33" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="C33" s="58" t="s">
+        <v>112</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="E33" s="55" t="s">
+        <v>111</v>
+      </c>
+      <c r="F33" s="55" t="s">
+        <v>110</v>
+      </c>
+      <c r="G33" s="55" t="s">
+        <v>109</v>
+      </c>
+      <c r="H33" s="66" t="s">
+        <v>87</v>
+      </c>
+      <c r="I33" s="100"/>
+      <c r="J33" s="71" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="225" x14ac:dyDescent="0.25">
+      <c r="A34" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="B34" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="C34" s="59" t="s">
+        <v>106</v>
+      </c>
+      <c r="D34" s="122"/>
+      <c r="E34" s="123"/>
+      <c r="F34" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="G34" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="H34" s="102"/>
+      <c r="I34" s="101"/>
+      <c r="J34" s="71" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="240" x14ac:dyDescent="0.25">
+      <c r="A35" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="B35" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="C35" s="152"/>
+      <c r="D35" s="120"/>
+      <c r="E35" s="73" t="s">
+        <v>275</v>
+      </c>
+      <c r="F35" s="131"/>
+      <c r="G35" s="120"/>
+      <c r="H35" s="120"/>
+      <c r="I35" s="156"/>
+      <c r="J35" s="71" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="165" x14ac:dyDescent="0.25">
+      <c r="A36" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="B36" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="C36" s="59" t="s">
+        <v>207</v>
+      </c>
+      <c r="D36" s="119"/>
+      <c r="E36" s="121"/>
+      <c r="F36" s="121"/>
+      <c r="G36" s="128"/>
+      <c r="H36" s="21" t="s">
+        <v>208</v>
+      </c>
+      <c r="I36" s="27" t="s">
+        <v>302</v>
+      </c>
+      <c r="J36" s="71" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="124" t="s">
+        <v>99</v>
+      </c>
+      <c r="B37" s="126" t="s">
+        <v>98</v>
+      </c>
+      <c r="C37" s="110" t="s">
+        <v>97</v>
+      </c>
+      <c r="D37" s="111"/>
+      <c r="E37" s="111"/>
+      <c r="F37" s="111"/>
+      <c r="G37" s="111"/>
+      <c r="H37" s="111"/>
+      <c r="I37" s="78" t="s">
+        <v>267</v>
+      </c>
+      <c r="J37" s="69"/>
+    </row>
+    <row r="38" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="125"/>
+      <c r="B38" s="127"/>
+      <c r="C38" s="140" t="s">
+        <v>96</v>
+      </c>
+      <c r="D38" s="141"/>
+      <c r="E38" s="141"/>
+      <c r="F38" s="141"/>
+      <c r="G38" s="141"/>
+      <c r="H38" s="141"/>
+      <c r="I38" s="141"/>
+      <c r="J38" s="142"/>
+    </row>
+    <row r="39" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="124" t="s">
+        <v>221</v>
+      </c>
+      <c r="B39" s="126" t="s">
+        <v>229</v>
+      </c>
+      <c r="C39" s="140" t="s">
+        <v>223</v>
+      </c>
+      <c r="D39" s="141"/>
+      <c r="E39" s="141"/>
+      <c r="F39" s="141"/>
+      <c r="G39" s="141"/>
+      <c r="H39" s="141"/>
+      <c r="I39" s="141"/>
+      <c r="J39" s="142"/>
+    </row>
+    <row r="40" spans="1:10" ht="285" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="125"/>
+      <c r="B40" s="134"/>
+      <c r="C40" s="63" t="s">
+        <v>224</v>
+      </c>
+      <c r="D40" s="41" t="s">
+        <v>225</v>
+      </c>
+      <c r="E40" s="41" t="s">
+        <v>226</v>
+      </c>
+      <c r="F40" s="41" t="s">
+        <v>227</v>
+      </c>
+      <c r="G40" s="41" t="s">
+        <v>276</v>
+      </c>
+      <c r="H40" s="64" t="s">
+        <v>268</v>
+      </c>
+      <c r="I40" s="99"/>
+      <c r="J40" s="71" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="330" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="29" t="s">
+        <v>222</v>
+      </c>
+      <c r="B41" s="56" t="s">
+        <v>230</v>
+      </c>
+      <c r="C41" s="63" t="s">
+        <v>233</v>
+      </c>
+      <c r="D41" s="41" t="s">
+        <v>234</v>
+      </c>
+      <c r="E41" s="41" t="s">
+        <v>235</v>
+      </c>
+      <c r="F41" s="41" t="s">
+        <v>231</v>
+      </c>
+      <c r="G41" s="41" t="s">
+        <v>277</v>
+      </c>
+      <c r="H41" s="64" t="s">
+        <v>232</v>
+      </c>
+      <c r="I41" s="131"/>
+      <c r="J41" s="156"/>
+    </row>
+    <row r="42" spans="1:10" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="B42" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="C42" s="61" t="s">
+        <v>93</v>
+      </c>
+      <c r="D42" s="55" t="s">
+        <v>92</v>
+      </c>
+      <c r="E42" s="55" t="s">
+        <v>211</v>
+      </c>
+      <c r="F42" s="55" t="s">
+        <v>91</v>
+      </c>
+      <c r="G42" s="55" t="s">
+        <v>90</v>
+      </c>
+      <c r="H42" s="66" t="s">
+        <v>228</v>
+      </c>
+      <c r="I42" s="73" t="s">
+        <v>303</v>
+      </c>
+      <c r="J42" s="71" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="124" t="s">
+        <v>89</v>
+      </c>
+      <c r="B43" s="126" t="s">
+        <v>88</v>
+      </c>
+      <c r="C43" s="110" t="s">
+        <v>284</v>
+      </c>
+      <c r="D43" s="111"/>
+      <c r="E43" s="111"/>
+      <c r="F43" s="111"/>
+      <c r="G43" s="111"/>
+      <c r="H43" s="111"/>
+      <c r="I43" s="112"/>
+      <c r="J43" s="116"/>
+    </row>
+    <row r="44" spans="1:10" ht="195" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="125"/>
+      <c r="B44" s="127"/>
+      <c r="C44" s="22" t="s">
+        <v>287</v>
+      </c>
+      <c r="D44" s="21" t="s">
+        <v>286</v>
+      </c>
+      <c r="E44" s="21" t="s">
+        <v>285</v>
+      </c>
+      <c r="F44" s="21" t="s">
+        <v>289</v>
+      </c>
+      <c r="G44" s="21" t="s">
+        <v>288</v>
+      </c>
+      <c r="H44" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="I44" s="21" t="s">
+        <v>290</v>
+      </c>
+      <c r="J44" s="118"/>
+    </row>
+    <row r="45" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="124" t="s">
+        <v>86</v>
+      </c>
+      <c r="B45" s="126" t="s">
+        <v>85</v>
+      </c>
+      <c r="C45" s="149" t="s">
+        <v>239</v>
+      </c>
+      <c r="D45" s="150"/>
+      <c r="E45" s="150"/>
+      <c r="F45" s="150"/>
+      <c r="G45" s="150"/>
+      <c r="H45" s="151"/>
+      <c r="I45" s="153"/>
+      <c r="J45" s="157" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="300" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="125"/>
+      <c r="B46" s="127"/>
+      <c r="C46" s="59" t="s">
+        <v>84</v>
+      </c>
+      <c r="D46" s="4"/>
+      <c r="E46" s="155" t="s">
+        <v>83</v>
+      </c>
+      <c r="F46" s="112"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="I46" s="154"/>
+      <c r="J46" s="158"/>
+    </row>
+    <row r="47" spans="1:10" ht="195" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="B47" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="C47" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="D47" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="E47" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="F47" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="G47" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="H47" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="I47" s="71" t="s">
+        <v>306</v>
+      </c>
+      <c r="J47" s="71" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="B48" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="C48" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="D48" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="E48" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="F48" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="G48" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="H48" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="I48" s="71" t="s">
+        <v>308</v>
+      </c>
+      <c r="J48" s="71" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="124" t="s">
+        <v>65</v>
+      </c>
+      <c r="B49" s="137" t="s">
+        <v>64</v>
+      </c>
+      <c r="C49" s="107" t="s">
+        <v>271</v>
+      </c>
+      <c r="D49" s="107"/>
+      <c r="E49" s="107"/>
+      <c r="F49" s="107"/>
+      <c r="G49" s="107"/>
+      <c r="H49" s="107"/>
+      <c r="I49" s="108"/>
+      <c r="J49" s="109"/>
+    </row>
+    <row r="50" spans="1:10" ht="345" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="125"/>
+      <c r="B50" s="127"/>
+      <c r="C50" s="26" t="s">
+        <v>270</v>
+      </c>
+      <c r="D50" s="25" t="s">
+        <v>272</v>
+      </c>
+      <c r="E50" s="108"/>
+      <c r="F50" s="146"/>
+      <c r="G50" s="123"/>
+      <c r="H50" s="67" t="s">
+        <v>273</v>
+      </c>
+      <c r="I50" s="21" t="s">
         <v>298</v>
       </c>
-      <c r="D17" s="124"/>
-      <c r="E17" s="124"/>
-      <c r="F17" s="124"/>
-      <c r="G17" s="124"/>
-      <c r="H17" s="124"/>
-      <c r="I17" s="80" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="14" t="s">
-        <v>158</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="C18" s="98" t="s">
-        <v>156</v>
-      </c>
-      <c r="D18" s="99"/>
-      <c r="E18" s="99"/>
-      <c r="F18" s="99"/>
-      <c r="G18" s="99"/>
-      <c r="H18" s="99"/>
-      <c r="I18" s="103"/>
-    </row>
-    <row r="19" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="B19" s="42" t="s">
-        <v>154</v>
-      </c>
-      <c r="C19" s="98" t="s">
-        <v>153</v>
-      </c>
-      <c r="D19" s="99"/>
-      <c r="E19" s="99"/>
-      <c r="F19" s="99"/>
-      <c r="G19" s="99"/>
-      <c r="H19" s="99"/>
-      <c r="I19" s="103"/>
-    </row>
-    <row r="20" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="B20" s="42" t="s">
-        <v>210</v>
-      </c>
-      <c r="C20" s="98" t="s">
-        <v>211</v>
-      </c>
-      <c r="D20" s="99"/>
-      <c r="E20" s="99"/>
-      <c r="F20" s="99"/>
-      <c r="G20" s="99"/>
-      <c r="H20" s="99"/>
-      <c r="I20" s="103"/>
-    </row>
-    <row r="21" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="B21" s="42" t="s">
-        <v>151</v>
-      </c>
-      <c r="C21" s="98" t="s">
-        <v>150</v>
-      </c>
-      <c r="D21" s="99"/>
-      <c r="E21" s="99"/>
-      <c r="F21" s="99"/>
-      <c r="G21" s="99"/>
-      <c r="H21" s="99"/>
-      <c r="I21" s="103"/>
-    </row>
-    <row r="22" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="11" t="s">
+      <c r="J50" s="71" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="345" x14ac:dyDescent="0.25">
+      <c r="A51" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="B51" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="C51" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D51" s="21" t="s">
+        <v>214</v>
+      </c>
+      <c r="E51" s="21" t="s">
+        <v>213</v>
+      </c>
+      <c r="F51" s="119"/>
+      <c r="G51" s="128"/>
+      <c r="H51" s="28" t="s">
         <v>212</v>
       </c>
-      <c r="B22" s="42" t="s">
-        <v>213</v>
-      </c>
-      <c r="C22" s="98" t="s">
-        <v>214</v>
-      </c>
-      <c r="D22" s="99"/>
-      <c r="E22" s="99"/>
-      <c r="F22" s="99"/>
-      <c r="G22" s="99"/>
-      <c r="H22" s="99"/>
-      <c r="I22" s="103"/>
-    </row>
-    <row r="23" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="B23" s="42" t="s">
-        <v>148</v>
-      </c>
-      <c r="C23" s="98" t="s">
-        <v>147</v>
-      </c>
-      <c r="D23" s="99"/>
-      <c r="E23" s="99"/>
-      <c r="F23" s="99"/>
-      <c r="G23" s="99"/>
-      <c r="H23" s="99"/>
-      <c r="I23" s="103"/>
-    </row>
-    <row r="24" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="B24" s="42" t="s">
-        <v>145</v>
-      </c>
-      <c r="C24" s="98" t="s">
-        <v>144</v>
-      </c>
-      <c r="D24" s="99"/>
-      <c r="E24" s="99"/>
-      <c r="F24" s="99"/>
-      <c r="G24" s="99"/>
-      <c r="H24" s="99"/>
-      <c r="I24" s="103"/>
-    </row>
-    <row r="25" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="41" t="s">
-        <v>143</v>
-      </c>
-      <c r="B25" s="40" t="s">
-        <v>142</v>
-      </c>
-      <c r="C25" s="39" t="s">
-        <v>217</v>
-      </c>
-      <c r="D25" s="37"/>
-      <c r="E25" s="38" t="s">
-        <v>141</v>
-      </c>
-      <c r="F25" s="56" t="s">
-        <v>218</v>
-      </c>
-      <c r="G25" s="107"/>
-      <c r="H25" s="108"/>
-      <c r="I25" s="38" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="36" t="s">
-        <v>140</v>
-      </c>
-      <c r="B26" s="35" t="s">
-        <v>139</v>
-      </c>
-      <c r="C26" s="112" t="s">
-        <v>138</v>
-      </c>
-      <c r="D26" s="113"/>
-      <c r="E26" s="113"/>
-      <c r="F26" s="113"/>
-      <c r="G26" s="113"/>
-      <c r="H26" s="113"/>
-      <c r="I26" s="114"/>
-    </row>
-    <row r="27" spans="1:9" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="36" t="s">
-        <v>137</v>
-      </c>
-      <c r="B27" s="35" t="s">
-        <v>136</v>
-      </c>
-      <c r="C27" s="115" t="s">
-        <v>135</v>
-      </c>
-      <c r="D27" s="116"/>
-      <c r="E27" s="116"/>
-      <c r="F27" s="116"/>
-      <c r="G27" s="116"/>
-      <c r="H27" s="116"/>
-      <c r="I27" s="117"/>
-    </row>
-    <row r="28" spans="1:9" ht="105" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="36" t="s">
-        <v>134</v>
-      </c>
-      <c r="B28" s="63" t="s">
-        <v>133</v>
-      </c>
-      <c r="C28" s="66" t="s">
-        <v>132</v>
-      </c>
-      <c r="D28" s="105"/>
-      <c r="E28" s="106"/>
-      <c r="F28" s="43" t="s">
-        <v>131</v>
-      </c>
-      <c r="G28" s="43" t="s">
-        <v>130</v>
-      </c>
-      <c r="H28" s="92"/>
-      <c r="I28" s="79" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="90" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="26" t="s">
-        <v>129</v>
-      </c>
-      <c r="B29" s="25" t="s">
-        <v>128</v>
-      </c>
-      <c r="C29" s="85" t="s">
-        <v>127</v>
-      </c>
-      <c r="D29" s="27" t="s">
-        <v>126</v>
-      </c>
-      <c r="E29" s="78" t="s">
-        <v>125</v>
-      </c>
-      <c r="F29" s="27" t="s">
-        <v>124</v>
-      </c>
-      <c r="G29" s="78" t="s">
-        <v>123</v>
-      </c>
-      <c r="H29" s="104"/>
-      <c r="I29" s="79" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="26" t="s">
-        <v>226</v>
-      </c>
-      <c r="B30" s="25" t="s">
-        <v>227</v>
-      </c>
-      <c r="C30" s="98" t="s">
-        <v>228</v>
-      </c>
-      <c r="D30" s="99"/>
-      <c r="E30" s="99"/>
-      <c r="F30" s="99"/>
-      <c r="G30" s="99"/>
-      <c r="H30" s="103"/>
-      <c r="I30" s="43" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="26" t="s">
-        <v>265</v>
-      </c>
-      <c r="B31" s="25" t="s">
-        <v>266</v>
-      </c>
-      <c r="C31" s="98" t="s">
-        <v>268</v>
-      </c>
-      <c r="D31" s="99"/>
-      <c r="E31" s="99"/>
-      <c r="F31" s="99"/>
-      <c r="G31" s="99"/>
-      <c r="H31" s="103"/>
-      <c r="I31" s="43" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="120" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="26" t="s">
-        <v>224</v>
-      </c>
-      <c r="B32" s="25" t="s">
-        <v>223</v>
-      </c>
-      <c r="C32" s="99" t="s">
-        <v>225</v>
-      </c>
-      <c r="D32" s="99"/>
-      <c r="E32" s="99"/>
-      <c r="F32" s="99"/>
-      <c r="G32" s="99"/>
-      <c r="H32" s="99"/>
-      <c r="I32" s="79" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="300" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="26" t="s">
-        <v>122</v>
-      </c>
-      <c r="B33" s="25" t="s">
-        <v>121</v>
-      </c>
-      <c r="C33" s="61" t="s">
-        <v>120</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>297</v>
-      </c>
-      <c r="E33" s="57" t="s">
-        <v>119</v>
-      </c>
-      <c r="F33" s="57" t="s">
-        <v>118</v>
-      </c>
-      <c r="G33" s="57" t="s">
-        <v>117</v>
-      </c>
-      <c r="H33" s="74" t="s">
-        <v>89</v>
-      </c>
-      <c r="I33" s="79" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="225" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="26" t="s">
-        <v>116</v>
-      </c>
-      <c r="B34" s="25" t="s">
-        <v>115</v>
-      </c>
-      <c r="C34" s="62" t="s">
-        <v>114</v>
-      </c>
-      <c r="D34" s="92"/>
-      <c r="E34" s="93"/>
-      <c r="F34" s="23" t="s">
-        <v>113</v>
-      </c>
-      <c r="G34" s="23" t="s">
-        <v>112</v>
-      </c>
-      <c r="H34" s="60"/>
-      <c r="I34" s="79" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="240" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="26" t="s">
-        <v>111</v>
-      </c>
-      <c r="B35" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="C35" s="132"/>
-      <c r="D35" s="90"/>
-      <c r="E35" s="81" t="s">
-        <v>292</v>
-      </c>
-      <c r="F35" s="90"/>
-      <c r="G35" s="90"/>
-      <c r="H35" s="133"/>
-      <c r="I35" s="79" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="165" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="26" t="s">
-        <v>109</v>
-      </c>
-      <c r="B36" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="C36" s="62" t="s">
-        <v>215</v>
-      </c>
-      <c r="D36" s="89"/>
-      <c r="E36" s="91"/>
-      <c r="F36" s="91"/>
-      <c r="G36" s="100"/>
-      <c r="H36" s="23" t="s">
-        <v>216</v>
-      </c>
-      <c r="I36" s="29" t="s">
+      <c r="I51" s="12"/>
+      <c r="J51" s="71" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="405" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="B52" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="C52" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="D52" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="E52" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="F52" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="G52" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="H52" s="28" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="94" t="s">
-        <v>107</v>
-      </c>
-      <c r="B37" s="96" t="s">
-        <v>106</v>
-      </c>
-      <c r="C37" s="98" t="s">
-        <v>105</v>
-      </c>
-      <c r="D37" s="99"/>
-      <c r="E37" s="99"/>
-      <c r="F37" s="99"/>
-      <c r="G37" s="99"/>
-      <c r="H37" s="99"/>
-      <c r="I37" s="86" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="95"/>
-      <c r="B38" s="97"/>
-      <c r="C38" s="109" t="s">
-        <v>104</v>
-      </c>
-      <c r="D38" s="124"/>
-      <c r="E38" s="124"/>
-      <c r="F38" s="124"/>
-      <c r="G38" s="124"/>
-      <c r="H38" s="124"/>
-      <c r="I38" s="125"/>
-    </row>
-    <row r="39" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="94" t="s">
-        <v>229</v>
-      </c>
-      <c r="B39" s="96" t="s">
-        <v>237</v>
-      </c>
-      <c r="C39" s="118" t="s">
-        <v>231</v>
-      </c>
-      <c r="D39" s="119"/>
-      <c r="E39" s="119"/>
-      <c r="F39" s="119"/>
-      <c r="G39" s="119"/>
-      <c r="H39" s="119"/>
-      <c r="I39" s="120"/>
-    </row>
-    <row r="40" spans="1:9" ht="285" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="95"/>
-      <c r="B40" s="109"/>
-      <c r="C40" s="66" t="s">
-        <v>232</v>
-      </c>
-      <c r="D40" s="43" t="s">
-        <v>233</v>
-      </c>
-      <c r="E40" s="43" t="s">
-        <v>234</v>
-      </c>
-      <c r="F40" s="43" t="s">
-        <v>235</v>
-      </c>
-      <c r="G40" s="43" t="s">
-        <v>293</v>
-      </c>
-      <c r="H40" s="72" t="s">
-        <v>280</v>
-      </c>
-      <c r="I40" s="79" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="292.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="31" t="s">
-        <v>230</v>
-      </c>
-      <c r="B41" s="58" t="s">
-        <v>238</v>
-      </c>
-      <c r="C41" s="66" t="s">
-        <v>241</v>
-      </c>
-      <c r="D41" s="43" t="s">
-        <v>242</v>
-      </c>
-      <c r="E41" s="43" t="s">
-        <v>243</v>
-      </c>
-      <c r="F41" s="43" t="s">
-        <v>239</v>
-      </c>
-      <c r="G41" s="43" t="s">
-        <v>294</v>
-      </c>
-      <c r="H41" s="72" t="s">
-        <v>240</v>
-      </c>
-      <c r="I41" s="130"/>
-    </row>
-    <row r="42" spans="1:9" ht="120" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="26" t="s">
-        <v>103</v>
-      </c>
-      <c r="B42" s="25" t="s">
-        <v>102</v>
-      </c>
-      <c r="C42" s="64" t="s">
-        <v>101</v>
-      </c>
-      <c r="D42" s="57" t="s">
-        <v>100</v>
-      </c>
-      <c r="E42" s="57" t="s">
-        <v>219</v>
-      </c>
-      <c r="F42" s="57" t="s">
-        <v>99</v>
-      </c>
-      <c r="G42" s="57" t="s">
-        <v>98</v>
-      </c>
-      <c r="H42" s="74" t="s">
-        <v>236</v>
-      </c>
-      <c r="I42" s="131"/>
-    </row>
-    <row r="43" spans="1:9" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="94" t="s">
-        <v>97</v>
-      </c>
-      <c r="B43" s="96" t="s">
-        <v>96</v>
-      </c>
-      <c r="C43" s="98" t="s">
-        <v>95</v>
-      </c>
-      <c r="D43" s="99"/>
-      <c r="E43" s="99"/>
-      <c r="F43" s="99"/>
-      <c r="G43" s="99"/>
-      <c r="H43" s="99"/>
-      <c r="I43" s="103"/>
-    </row>
-    <row r="44" spans="1:9" ht="120" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="95"/>
-      <c r="B44" s="97"/>
-      <c r="C44" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="D44" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="E44" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="F44" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="G44" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="H44" s="30" t="s">
-        <v>301</v>
-      </c>
-      <c r="I44" s="77"/>
-    </row>
-    <row r="45" spans="1:9" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="94" t="s">
-        <v>88</v>
-      </c>
-      <c r="B45" s="96" t="s">
-        <v>87</v>
-      </c>
-      <c r="C45" s="127" t="s">
-        <v>247</v>
-      </c>
-      <c r="D45" s="128"/>
-      <c r="E45" s="128"/>
-      <c r="F45" s="128"/>
-      <c r="G45" s="128"/>
-      <c r="H45" s="129"/>
-      <c r="I45" s="134" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" ht="247.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="95"/>
-      <c r="B46" s="97"/>
-      <c r="C46" s="62" t="s">
-        <v>86</v>
-      </c>
-      <c r="D46" s="4"/>
-      <c r="E46" s="136" t="s">
-        <v>85</v>
-      </c>
-      <c r="F46" s="103"/>
-      <c r="G46" s="4"/>
-      <c r="H46" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="I46" s="135"/>
-    </row>
-    <row r="47" spans="1:9" ht="195" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="B47" s="25" t="s">
-        <v>82</v>
-      </c>
-      <c r="C47" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="D47" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="E47" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="F47" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="G47" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="H47" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="I47" s="86" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" ht="105" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="B48" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="C48" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="D48" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="E48" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="F48" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="G48" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="H48" s="30" t="s">
-        <v>68</v>
-      </c>
-      <c r="I48" s="79" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="94" t="s">
-        <v>67</v>
-      </c>
-      <c r="B49" s="96" t="s">
-        <v>66</v>
-      </c>
-      <c r="C49" s="98" t="s">
-        <v>285</v>
-      </c>
-      <c r="D49" s="99"/>
-      <c r="E49" s="99"/>
-      <c r="F49" s="99"/>
-      <c r="G49" s="99"/>
-      <c r="H49" s="99"/>
-      <c r="I49" s="103"/>
-    </row>
-    <row r="50" spans="1:9" ht="292.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="95"/>
-      <c r="B50" s="97"/>
-      <c r="C50" s="28" t="s">
-        <v>284</v>
-      </c>
-      <c r="D50" s="27" t="s">
-        <v>286</v>
-      </c>
-      <c r="E50" s="105"/>
-      <c r="F50" s="126"/>
-      <c r="G50" s="93"/>
-      <c r="H50" s="75" t="s">
-        <v>287</v>
-      </c>
-      <c r="I50" s="77"/>
-    </row>
-    <row r="51" spans="1:9" ht="345" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="B51" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="C51" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="D51" s="23" t="s">
-        <v>222</v>
-      </c>
-      <c r="E51" s="23" t="s">
-        <v>221</v>
-      </c>
-      <c r="F51" s="89"/>
-      <c r="G51" s="100"/>
-      <c r="H51" s="30" t="s">
-        <v>220</v>
-      </c>
-      <c r="I51" s="79" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" ht="405" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="B52" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="C52" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="D52" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="E52" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="F52" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="G52" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="H52" s="30" t="s">
-        <v>295</v>
-      </c>
-      <c r="I52" s="79" t="s">
-        <v>283</v>
+      <c r="I52" s="12"/>
+      <c r="J52" s="71" t="s">
+        <v>311</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="4Z/a5DpLcK06F3jxAE9pwd//c1gMAlKkjeIAquMbTrkkFwSBrf9idaJxw4zNSgw28uMvk+/G+k/4Ath5PMZO2g==" saltValue="hpygyRB84UMCLU7Rbfe0mw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
-  <mergeCells count="58">
+  <mergeCells count="63">
     <mergeCell ref="F51:G51"/>
     <mergeCell ref="C43:I43"/>
-    <mergeCell ref="I41:I42"/>
     <mergeCell ref="C35:D35"/>
-    <mergeCell ref="F35:H35"/>
     <mergeCell ref="I45:I46"/>
     <mergeCell ref="E46:F46"/>
+    <mergeCell ref="F35:I35"/>
+    <mergeCell ref="C38:J38"/>
+    <mergeCell ref="C39:J39"/>
+    <mergeCell ref="J43:J44"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="J45:J46"/>
+    <mergeCell ref="C2:I2"/>
+    <mergeCell ref="C7:J7"/>
     <mergeCell ref="C9:H9"/>
-    <mergeCell ref="C38:I38"/>
-    <mergeCell ref="C39:I39"/>
     <mergeCell ref="A49:A50"/>
     <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:I49"/>
     <mergeCell ref="E50:G50"/>
     <mergeCell ref="D13:E13"/>
-    <mergeCell ref="C18:I18"/>
-    <mergeCell ref="C19:I19"/>
     <mergeCell ref="C14:I14"/>
     <mergeCell ref="C16:I16"/>
     <mergeCell ref="C17:H17"/>
     <mergeCell ref="B45:B46"/>
     <mergeCell ref="A45:A46"/>
     <mergeCell ref="C45:H45"/>
-    <mergeCell ref="C8:I8"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C6:I6"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C2:I2"/>
     <mergeCell ref="A43:A44"/>
     <mergeCell ref="A39:A40"/>
     <mergeCell ref="B39:B40"/>
@@ -4673,28 +4813,37 @@
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="B43:B44"/>
-    <mergeCell ref="C20:I20"/>
-    <mergeCell ref="C21:I21"/>
-    <mergeCell ref="C22:I22"/>
-    <mergeCell ref="C23:I23"/>
-    <mergeCell ref="C24:I24"/>
-    <mergeCell ref="C26:I26"/>
     <mergeCell ref="C27:I27"/>
     <mergeCell ref="C31:H31"/>
-    <mergeCell ref="D11:H11"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:H37"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D36:G36"/>
-    <mergeCell ref="C32:H32"/>
+    <mergeCell ref="C8:I8"/>
+    <mergeCell ref="C6:I6"/>
+    <mergeCell ref="C4:I4"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="C30:H30"/>
     <mergeCell ref="H28:H29"/>
     <mergeCell ref="D28:E28"/>
     <mergeCell ref="G25:H25"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="C22:J22"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:H37"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D36:G36"/>
+    <mergeCell ref="J10:J16"/>
+    <mergeCell ref="C18:J18"/>
+    <mergeCell ref="C19:J19"/>
+    <mergeCell ref="C20:J20"/>
+    <mergeCell ref="D11:H11"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="C49:H49"/>
+    <mergeCell ref="I49:J49"/>
+    <mergeCell ref="C23:J23"/>
+    <mergeCell ref="C24:J24"/>
+    <mergeCell ref="C26:J26"/>
+    <mergeCell ref="J27:J29"/>
+    <mergeCell ref="C32:H32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4703,12 +4852,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A9B3B07-7751-4ECD-93CE-AEEE6AF32C6D}">
-  <dimension ref="A1:H12"/>
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="H16" sqref="H16"/>
+      <selection pane="bottomLeft" activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4716,191 +4866,219 @@
     <col min="1" max="1" width="20" style="2" customWidth="1"/>
     <col min="2" max="2" width="27.42578125" style="1" customWidth="1"/>
     <col min="3" max="7" width="26.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="27.28515625" style="1" customWidth="1"/>
+    <col min="8" max="9" width="27.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="27.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="20" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="B1" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="C1" s="21" t="s">
+    <row r="1" spans="1:10" s="18" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="104" t="s">
         <v>53</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="B1" s="105" t="s">
         <v>52</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="C1" s="105" t="s">
         <v>51</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="D1" s="105" t="s">
         <v>50</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="E1" s="105" t="s">
         <v>49</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="F1" s="105" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
-        <v>208</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>208</v>
-      </c>
-      <c r="C2" s="54"/>
+      <c r="G1" s="105" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1" s="105" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1" s="105" t="s">
+        <v>293</v>
+      </c>
+      <c r="J1" s="105" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>312</v>
+      </c>
+      <c r="C2" s="52"/>
       <c r="D2" s="15"/>
       <c r="E2" s="15"/>
       <c r="F2" s="15"/>
       <c r="G2" s="15"/>
       <c r="H2" s="15"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+    </row>
+    <row r="3" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
-        <v>207</v>
-      </c>
-      <c r="B3" s="65" t="s">
-        <v>207</v>
-      </c>
-      <c r="C3" s="33"/>
+        <v>199</v>
+      </c>
+      <c r="B3" s="62" t="s">
+        <v>313</v>
+      </c>
+      <c r="C3" s="31"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+    </row>
+    <row r="4" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>206</v>
-      </c>
-      <c r="B4" s="88" t="s">
-        <v>206</v>
-      </c>
-      <c r="C4" s="53"/>
+        <v>198</v>
+      </c>
+      <c r="B4" s="80" t="s">
+        <v>314</v>
+      </c>
+      <c r="C4" s="51"/>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
       <c r="F4" s="12"/>
       <c r="G4" s="12"/>
       <c r="H4" s="12"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="B5" s="139" t="s">
-        <v>205</v>
-      </c>
-      <c r="C5" s="140"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
-    </row>
-    <row r="6" spans="1:8" s="46" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="50" t="s">
-        <v>204</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>204</v>
-      </c>
-      <c r="C6" s="137"/>
-      <c r="D6" s="138"/>
-      <c r="E6" s="138"/>
-      <c r="F6" s="138"/>
-      <c r="G6" s="138"/>
-      <c r="H6" s="138"/>
-    </row>
-    <row r="7" spans="1:8" s="46" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="50" t="s">
-        <v>203</v>
-      </c>
-      <c r="B7" s="65" t="s">
-        <v>203</v>
-      </c>
-      <c r="C7" s="52"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="47"/>
-    </row>
-    <row r="8" spans="1:8" s="46" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="50" t="s">
-        <v>202</v>
-      </c>
-      <c r="B8" s="65" t="s">
-        <v>202</v>
-      </c>
-      <c r="C8" s="52"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="47"/>
-    </row>
-    <row r="9" spans="1:8" s="46" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="50" t="s">
-        <v>201</v>
-      </c>
-      <c r="B9" s="65" t="s">
-        <v>201</v>
-      </c>
-      <c r="C9" s="51"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="47"/>
-      <c r="H9" s="47"/>
-    </row>
-    <row r="10" spans="1:8" s="46" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="50" t="s">
-        <v>200</v>
-      </c>
-      <c r="B10" s="87" t="s">
-        <v>200</v>
-      </c>
-      <c r="C10" s="48"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="47"/>
-      <c r="H10" s="47"/>
-    </row>
-    <row r="11" spans="1:8" s="46" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="50" t="s">
-        <v>199</v>
-      </c>
-      <c r="B11" s="87" t="s">
-        <v>199</v>
-      </c>
-      <c r="C11" s="48"/>
-      <c r="D11" s="48"/>
-      <c r="E11" s="47"/>
-      <c r="F11" s="47"/>
-      <c r="G11" s="47"/>
-      <c r="H11" s="47"/>
-    </row>
-    <row r="12" spans="1:8" s="46" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="50" t="s">
-        <v>198</v>
-      </c>
-      <c r="B12" s="87" t="s">
-        <v>198</v>
-      </c>
-      <c r="C12" s="49"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="47"/>
-      <c r="G12" s="47"/>
-      <c r="H12" s="47"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+    </row>
+    <row r="5" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="39" t="s">
+        <v>197</v>
+      </c>
+      <c r="B5" s="86" t="s">
+        <v>315</v>
+      </c>
+      <c r="C5" s="87"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
+    </row>
+    <row r="6" spans="1:10" s="44" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="103" t="s">
+        <v>196</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="C6" s="84"/>
+      <c r="D6" s="85"/>
+      <c r="E6" s="85"/>
+      <c r="F6" s="85"/>
+      <c r="G6" s="85"/>
+      <c r="H6" s="85"/>
+      <c r="I6" s="85"/>
+      <c r="J6" s="85"/>
+    </row>
+    <row r="7" spans="1:10" s="44" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="48" t="s">
+        <v>195</v>
+      </c>
+      <c r="B7" s="62" t="s">
+        <v>195</v>
+      </c>
+      <c r="C7" s="50"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="45"/>
+      <c r="J7" s="45"/>
+    </row>
+    <row r="8" spans="1:10" s="44" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="48" t="s">
+        <v>194</v>
+      </c>
+      <c r="B8" s="62" t="s">
+        <v>194</v>
+      </c>
+      <c r="C8" s="50"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="45"/>
+      <c r="J8" s="45"/>
+    </row>
+    <row r="9" spans="1:10" s="44" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="48" t="s">
+        <v>193</v>
+      </c>
+      <c r="B9" s="62" t="s">
+        <v>193</v>
+      </c>
+      <c r="C9" s="49"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="45"/>
+      <c r="I9" s="45"/>
+      <c r="J9" s="45"/>
+    </row>
+    <row r="10" spans="1:10" s="44" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="48" t="s">
+        <v>192</v>
+      </c>
+      <c r="B10" s="79" t="s">
+        <v>192</v>
+      </c>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="45"/>
+      <c r="I10" s="45"/>
+      <c r="J10" s="45"/>
+    </row>
+    <row r="11" spans="1:10" s="44" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="48" t="s">
+        <v>191</v>
+      </c>
+      <c r="B11" s="79" t="s">
+        <v>191</v>
+      </c>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="45"/>
+      <c r="J11" s="45"/>
+    </row>
+    <row r="12" spans="1:10" s="44" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="48" t="s">
+        <v>190</v>
+      </c>
+      <c r="B12" s="79" t="s">
+        <v>190</v>
+      </c>
+      <c r="C12" s="47"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="45"/>
+      <c r="I12" s="45"/>
+      <c r="J12" s="45"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="TMhSMjyhBDWbHf8NiHatK1lFqR0vRFZCTT4EWZaQxrwPE7cvjMH7cjaOtAJ5IY8QBU8FSjMr/vFnqMsH7852fw==" saltValue="pa9INnRjp66a9G2SI9q86A==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Tags and Affinities.xlsx
+++ b/Tags and Affinities.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CK.DESKTOP-BR5NVLN\Documents\Git Repositories\Creative\materials_and_crafting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4517C9A6-3CEA-4029-BEE2-08871C18BBA4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B44FDD01-17B7-4442-9FE9-41C948F51F82}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{8FD76562-234B-40A6-8AC6-52675E21BBDC}"/>
   </bookViews>
@@ -35,11 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="316">
-  <si>
-    <t>As a bonus action on your turn, you can wind up the weapon. All attacks you make with this weapon until the end of the turn are treated as if they had the 'forceful' trait with a tier equal to its windup tier, and as if one additional attack had already been made that turn.
-You cannot benefit from the Extra Attack feature when using this weapon.</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="348">
   <si>
     <t>This component's weapon can be wound up in preparation for a powerful strike, however its strikes take a while to rewind.</t>
   </si>
@@ -81,9 +77,6 @@
   </si>
   <si>
     <t>Superior Flourish</t>
-  </si>
-  <si>
-    <t>When you deal damage using this component, you deal extra piercing damage at a step equal to the MOD of the material used to make the spikes.</t>
   </si>
   <si>
     <t>This component is spiked, dealing extra piercing damage when it is used to deal damage.</t>
@@ -1644,9 +1637,6 @@
     <t>This component allows for precise strikes at a target's weak points.</t>
   </si>
   <si>
-    <t xml:space="preserve">When applied to a cork, </t>
-  </si>
-  <si>
     <t>When this flask is shattered, all creatures in the range of the explosion take piercing damage equal to the step damage of the flask's keen tier.</t>
   </si>
   <si>
@@ -1708,6 +1698,145 @@
   </si>
   <si>
     <t>This material is imbued with the essence of the elemental plane of air.</t>
+  </si>
+  <si>
+    <t>When this oil is applied to a metal item, it becomes a masterwork item at a grade equal to the potion's hardening grade. This effect lasts for as long as the oil persists.</t>
+  </si>
+  <si>
+    <t>Hardening</t>
+  </si>
+  <si>
+    <t>This material draws metal to it, hardening the surfaces of metal items it is contacts with.</t>
+  </si>
+  <si>
+    <t>When you deal damage using this component, you deal extra piercing damage at a step equal to the MOD of the material used to make the spikes plus its spiked tier.</t>
+  </si>
+  <si>
+    <t>As a bonus action on your turn, you can wind up the weapon. All attacks you make with this weapon until the end of the turn are treated as if they had the 'forceful' trait with a tier equal to its windup tier, and as if one additional attack had already been made that turn.
+You cannot benefit from the Extra Attack feature when using this ability.</t>
+  </si>
+  <si>
+    <t>This component has been patterned with arcane designs, allowing it to be enchanted.</t>
+  </si>
+  <si>
+    <t>This component can be enchanted.</t>
+  </si>
+  <si>
+    <t>Apply this effect before any alterations to the damage type of the item or its effects applied by other tags.</t>
+  </si>
+  <si>
+    <t>Nyxian</t>
+  </si>
+  <si>
+    <t>This material is imbued with the primordial essence of dreams.</t>
+  </si>
+  <si>
+    <t>This material is imbued with the primordial essence of darkness.</t>
+  </si>
+  <si>
+    <t>This material is imbued with the primordial essence of light.</t>
+  </si>
+  <si>
+    <t>This material is imbued with the essence of a creature's soul.</t>
+  </si>
+  <si>
+    <t>This material is imbued with the essence of the lower planes and the hordes of fiends therein.</t>
+  </si>
+  <si>
+    <t>This material is imbued with the essence of the higher planes and the hosts of celestials therein.</t>
+  </si>
+  <si>
+    <t>This material is imbued with the essence of Mechanus and the harmony of mathematical precision therein.</t>
+  </si>
+  <si>
+    <t>This material is imbued with the essence of Limbo and the omnipresent pandemonium therein.</t>
+  </si>
+  <si>
+    <t>Creatures of an evil alignment must make a Wisdom save equal to 10 + (2 * the elysian tier) or be unable to handle this item.</t>
+  </si>
+  <si>
+    <t>Creatures of a good alignment must make a Wisdom save equal to 10 + (2 * the hadean tier) or be unable to handle this item.</t>
+  </si>
+  <si>
+    <t>Creatures of a chaotic alignment must make a Wisdom save equal to 10 + (2 * the mechanic tier) or be unable to handle this item.</t>
+  </si>
+  <si>
+    <t>Creatures of a lawful alignment must make a Wisdom save equal to 10 + (2 * the limbic tier) or be unable to handle this item.</t>
+  </si>
+  <si>
+    <t>This material increases the emission radius of necromancy spells that conduct through it by a number of inches equal to its animus affinity.</t>
+  </si>
+  <si>
+    <t>This material increases the emission radius of conjuration spells that conduct through it by a number of inches equal to its erebian affinity.</t>
+  </si>
+  <si>
+    <t>This material increases the emission radius of divination spells that conduct through it by a number of inches equal to its luthian affinity.</t>
+  </si>
+  <si>
+    <t>This material increases the emission radius of illusion spells that conduct through it by a number of inches equal to its auran affinity.</t>
+  </si>
+  <si>
+    <t>This material increases the emission radius of transmutation spells that conduct through it by a number of inches equal to its terran affinity.</t>
+  </si>
+  <si>
+    <t>This material increases the emission radius of abjuration spells that conduct through it by a number of inches equal to its aquan affinity.</t>
+  </si>
+  <si>
+    <t>This material increases the emission radius of evocation spells that conduct through it by a number of inches equal to its ignan affinity.</t>
+  </si>
+  <si>
+    <t>Any extra necrotic damage that this weapon deals only activates if it damages a celestial or a fiend of an opposite alignment to the wielder. This weapon becomes a precision weapon at a tier equal to its elysian affinity if it is used to fight a these creatures.</t>
+  </si>
+  <si>
+    <t>Any extra radiant damage that this weapon deals only activates if it damages a fiend or an undead. This weapon becomes a precision weapon at a tier equal to its elysian affinity if it is used to fight these creatures.</t>
+  </si>
+  <si>
+    <t>This weapon thrums to a particular tempo. When you take your turn, you may choose to exactly repeat the last turn you made. If you choose to do so, this weapon becomes a precision weapon, or increases its precision tier, at this material's mechanic tier, and up to a critical range of three times the mehanic tier. If you choose not to, this benefit is lost.</t>
+  </si>
+  <si>
+    <t>This weapon thrashes with volatile elemental energy. Whenever you roll damage with this weapon, roll a 1d10 for each damage type in this list.
+1 / Acid
+2 / Cold
+3 / Fire
+4 / Force
+5 / Lightning
+6 / Poison
+7 / Psychic
+8 / Thunder
+9 / Radiant
+10 / Necrotic
+Replace each of your damage types with the types you obtained from their rolls.</t>
+  </si>
+  <si>
+    <t>This staff core thrashes with volatile elemental energy. Whenever you cast a damaging spell from this staff, roll a 1d10 for each damage type in this list.
+1 / Acid
+2 / Cold
+3 / Fire
+4 / Force
+5 / Lightning
+6 / Poison
+7 / Psychic
+8 / Thunder
+9 / Radiant
+10 / Necrotic
+Replace each of the spell's damage types with the types you obtained from their rolls.</t>
+  </si>
+  <si>
+    <t>This potion swirls with volatile elemental energy. When thrown, roll a 1d10 for each damage type in this list.
+1 / Acid
+2 / Cold
+3 / Fire
+4 / Force
+5 / Lightning
+6 / Poison
+7 / Psychic
+8 / Thunder
+9 / Radiant
+10 / Necrotic
+Replace each of the potion's explosion's damage types with the types you obtained from their rolls.</t>
+  </si>
+  <si>
+    <t>This material increases the emission radius of enchantment spells that conduct through it by a number of inches equal to its nyxian affinity.</t>
   </si>
 </sst>
 </file>
@@ -1757,7 +1886,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="58">
+  <borders count="71">
     <border>
       <left/>
       <right/>
@@ -2419,28 +2548,28 @@
         <color theme="2" tint="-0.249977111117893"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.34998626667073579"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.34998626667073579"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
-        <color theme="2" tint="-0.249977111117893"/>
+        <color theme="0" tint="-0.34998626667073579"/>
       </top>
       <bottom style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
@@ -2455,14 +2584,173 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color theme="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.34998626667073579"/>
       </right>
       <top style="thin">
         <color theme="0" tint="-0.34998626667073579"/>
       </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -2472,7 +2760,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="159">
+  <cellXfs count="190">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2601,33 +2889,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2655,9 +2916,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2707,9 +2965,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2718,18 +2973,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2737,16 +2980,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2772,9 +3012,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2784,8 +3021,170 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="64" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="65" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="70" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="58" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -2793,121 +3192,31 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2938,6 +3247,66 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3257,9 +3626,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J2" sqref="J2"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3272,71 +3641,71 @@
   <sheetData>
     <row r="1" spans="1:10" s="18" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F1" s="19" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G1" s="19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H1" s="19" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I1" s="19" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="J1" s="19" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="240" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" s="83" t="s">
-        <v>169</v>
-      </c>
-      <c r="D2" s="81" t="s">
-        <v>247</v>
-      </c>
-      <c r="E2" s="53"/>
-      <c r="F2" s="81" t="s">
-        <v>43</v>
-      </c>
-      <c r="G2" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="H2" s="65"/>
-      <c r="I2" s="71" t="s">
-        <v>248</v>
+      <c r="C2" s="72" t="s">
+        <v>167</v>
+      </c>
+      <c r="D2" s="70" t="s">
+        <v>245</v>
+      </c>
+      <c r="E2" s="44"/>
+      <c r="F2" s="70" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" s="70" t="s">
+        <v>40</v>
+      </c>
+      <c r="H2" s="55"/>
+      <c r="I2" s="61" t="s">
+        <v>246</v>
       </c>
       <c r="J2" s="15"/>
     </row>
     <row r="3" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
@@ -3348,13 +3717,13 @@
     </row>
     <row r="4" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
@@ -3366,13 +3735,13 @@
     </row>
     <row r="5" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
@@ -3384,13 +3753,13 @@
     </row>
     <row r="6" spans="1:10" s="3" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -3402,13 +3771,13 @@
     </row>
     <row r="7" spans="1:10" s="3" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
@@ -3420,13 +3789,13 @@
     </row>
     <row r="8" spans="1:10" s="3" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
@@ -3438,13 +3807,13 @@
     </row>
     <row r="9" spans="1:10" s="3" customFormat="1" ht="135" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
@@ -3456,13 +3825,13 @@
     </row>
     <row r="10" spans="1:10" s="3" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
@@ -3474,13 +3843,13 @@
     </row>
     <row r="11" spans="1:10" s="3" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>15</v>
+        <v>316</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
@@ -3492,13 +3861,13 @@
     </row>
     <row r="12" spans="1:10" s="3" customFormat="1" ht="150" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
@@ -3510,13 +3879,13 @@
     </row>
     <row r="13" spans="1:10" s="3" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
@@ -3528,13 +3897,13 @@
     </row>
     <row r="14" spans="1:10" s="3" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
@@ -3546,13 +3915,13 @@
     </row>
     <row r="15" spans="1:10" s="3" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
@@ -3562,61 +3931,66 @@
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
     </row>
-    <row r="16" spans="1:10" s="88" customFormat="1" ht="225" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="89" t="s">
-        <v>2</v>
-      </c>
-      <c r="B16" s="91" t="s">
+    <row r="16" spans="1:10" s="73" customFormat="1" ht="225" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="82" t="s">
+      <c r="B16" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="D16" s="53"/>
-      <c r="E16" s="53"/>
-      <c r="F16" s="53"/>
-      <c r="G16" s="53"/>
-      <c r="H16" s="53"/>
-      <c r="I16" s="53"/>
-      <c r="J16" s="53"/>
-    </row>
-    <row r="17" spans="1:10" s="88" customFormat="1" ht="225" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="90" t="s">
-        <v>236</v>
+      <c r="C16" s="71" t="s">
+        <v>317</v>
+      </c>
+      <c r="D16" s="44"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="44"/>
+      <c r="J16" s="44"/>
+    </row>
+    <row r="17" spans="1:10" s="73" customFormat="1" ht="225" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="93" t="s">
+        <v>234</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>295</v>
-      </c>
-      <c r="C17" s="83" t="s">
-        <v>237</v>
+        <v>293</v>
+      </c>
+      <c r="C17" s="72" t="s">
+        <v>235</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
       <c r="H17" s="21" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="92" t="s">
-        <v>292</v>
-      </c>
-      <c r="B18" s="93"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="54" t="s">
-        <v>296</v>
-      </c>
+    <row r="18" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A18" s="76" t="s">
+        <v>290</v>
+      </c>
+      <c r="B18" s="77" t="s">
+        <v>318</v>
+      </c>
+      <c r="C18" s="110" t="s">
+        <v>319</v>
+      </c>
+      <c r="D18" s="111"/>
+      <c r="E18" s="111"/>
+      <c r="F18" s="111"/>
+      <c r="G18" s="111"/>
+      <c r="H18" s="111"/>
+      <c r="I18" s="112"/>
       <c r="J18" s="35"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C18:I18"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -3625,12 +3999,12 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFDD3848-1CCA-4159-A124-07A157F1268B}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:J52"/>
+  <dimension ref="A1:J54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="E50" sqref="E50:G50"/>
+      <selection pane="bottomLeft" activeCell="D4" sqref="D4:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3645,221 +4019,209 @@
   <sheetData>
     <row r="1" spans="1:10" s="18" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="D1" s="105" t="s">
-        <v>50</v>
-      </c>
-      <c r="E1" s="105" t="s">
         <v>49</v>
       </c>
-      <c r="F1" s="105" t="s">
+      <c r="D1" s="88" t="s">
         <v>48</v>
       </c>
-      <c r="G1" s="105" t="s">
+      <c r="E1" s="88" t="s">
         <v>47</v>
       </c>
-      <c r="H1" s="105" t="s">
+      <c r="F1" s="88" t="s">
         <v>46</v>
       </c>
-      <c r="I1" s="106" t="s">
-        <v>293</v>
-      </c>
-      <c r="J1" s="106" t="s">
-        <v>294</v>
+      <c r="G1" s="88" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" s="88" t="s">
+        <v>44</v>
+      </c>
+      <c r="I1" s="89" t="s">
+        <v>291</v>
+      </c>
+      <c r="J1" s="89" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="43" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>188</v>
-      </c>
-      <c r="C2" s="143" t="s">
-        <v>187</v>
-      </c>
-      <c r="D2" s="144"/>
-      <c r="E2" s="144"/>
-      <c r="F2" s="144"/>
-      <c r="G2" s="144"/>
-      <c r="H2" s="144"/>
-      <c r="I2" s="145"/>
-      <c r="J2" s="94"/>
-    </row>
-    <row r="3" spans="1:10" s="18" customFormat="1" ht="165" x14ac:dyDescent="0.25">
-      <c r="A3" s="42" t="s">
         <v>186</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="C3" s="13" t="s">
+      <c r="C2" s="153" t="s">
         <v>185</v>
       </c>
-      <c r="D3" s="135" t="s">
+      <c r="D2" s="154"/>
+      <c r="E2" s="154"/>
+      <c r="F2" s="154"/>
+      <c r="G2" s="154"/>
+      <c r="H2" s="154"/>
+      <c r="I2" s="155"/>
+      <c r="J2" s="78"/>
+    </row>
+    <row r="3" spans="1:10" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="116" t="s">
         <v>184</v>
       </c>
-      <c r="E3" s="135"/>
-      <c r="F3" s="135"/>
-      <c r="G3" s="135"/>
-      <c r="H3" s="64" t="s">
+      <c r="B3" s="118" t="s">
+        <v>260</v>
+      </c>
+      <c r="C3" s="113" t="s">
+        <v>320</v>
+      </c>
+      <c r="D3" s="114"/>
+      <c r="E3" s="114"/>
+      <c r="F3" s="114"/>
+      <c r="G3" s="114"/>
+      <c r="H3" s="114"/>
+      <c r="I3" s="114"/>
+      <c r="J3" s="115"/>
+    </row>
+    <row r="4" spans="1:10" s="18" customFormat="1" ht="165" x14ac:dyDescent="0.25">
+      <c r="A4" s="117"/>
+      <c r="B4" s="119"/>
+      <c r="C4" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="I3" s="95"/>
-      <c r="J3" s="76" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" s="18" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="42" t="s">
+      <c r="D4" s="141" t="s">
         <v>182</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="C4" s="140" t="s">
-        <v>180</v>
-      </c>
-      <c r="D4" s="141"/>
       <c r="E4" s="141"/>
       <c r="F4" s="141"/>
       <c r="G4" s="141"/>
-      <c r="H4" s="141"/>
-      <c r="I4" s="142"/>
-      <c r="J4" s="96"/>
-    </row>
-    <row r="5" spans="1:10" s="18" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="H4" s="54" t="s">
+        <v>181</v>
+      </c>
+      <c r="I4" s="79"/>
+      <c r="J4" s="66" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="18" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="42" t="s">
-        <v>251</v>
+        <v>180</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="C5" s="31"/>
-      <c r="D5" s="135" t="s">
         <v>179</v>
       </c>
-      <c r="E5" s="135"/>
-      <c r="F5" s="135"/>
-      <c r="G5" s="135"/>
-      <c r="H5" s="64" t="s">
+      <c r="C5" s="113" t="s">
         <v>178</v>
       </c>
-      <c r="I5" s="95"/>
-      <c r="J5" s="76" t="s">
+      <c r="D5" s="114"/>
+      <c r="E5" s="114"/>
+      <c r="F5" s="114"/>
+      <c r="G5" s="114"/>
+      <c r="H5" s="114"/>
+      <c r="I5" s="115"/>
+      <c r="J5" s="80"/>
+    </row>
+    <row r="6" spans="1:10" s="18" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A6" s="42" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" s="18" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="42" t="s">
+      <c r="B6" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="C6" s="31"/>
+      <c r="D6" s="141" t="s">
         <v>177</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="C6" s="140" t="s">
-        <v>175</v>
-      </c>
-      <c r="D6" s="141"/>
       <c r="E6" s="141"/>
       <c r="F6" s="141"/>
       <c r="G6" s="141"/>
-      <c r="H6" s="141"/>
-      <c r="I6" s="142"/>
-      <c r="J6" s="96"/>
-    </row>
-    <row r="7" spans="1:10" s="18" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="H6" s="54" t="s">
+        <v>176</v>
+      </c>
+      <c r="I6" s="79"/>
+      <c r="J6" s="66" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="18" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="42" t="s">
+        <v>175</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="C7" s="140" t="s">
+      <c r="C7" s="113" t="s">
         <v>173</v>
       </c>
-      <c r="D7" s="141"/>
-      <c r="E7" s="141"/>
-      <c r="F7" s="141"/>
-      <c r="G7" s="141"/>
-      <c r="H7" s="141"/>
-      <c r="I7" s="141"/>
-      <c r="J7" s="142"/>
-    </row>
-    <row r="8" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D7" s="114"/>
+      <c r="E7" s="114"/>
+      <c r="F7" s="114"/>
+      <c r="G7" s="114"/>
+      <c r="H7" s="114"/>
+      <c r="I7" s="115"/>
+      <c r="J7" s="80"/>
+    </row>
+    <row r="8" spans="1:10" s="18" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="42" t="s">
         <v>172</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>259</v>
-      </c>
-      <c r="C8" s="140" t="s">
+        <v>258</v>
+      </c>
+      <c r="C8" s="113" t="s">
         <v>171</v>
       </c>
-      <c r="D8" s="141"/>
-      <c r="E8" s="141"/>
-      <c r="F8" s="141"/>
-      <c r="G8" s="141"/>
-      <c r="H8" s="141"/>
-      <c r="I8" s="142"/>
-      <c r="J8" s="69"/>
-    </row>
-    <row r="9" spans="1:10" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D8" s="114"/>
+      <c r="E8" s="114"/>
+      <c r="F8" s="114"/>
+      <c r="G8" s="114"/>
+      <c r="H8" s="114"/>
+      <c r="I8" s="114"/>
+      <c r="J8" s="115"/>
+    </row>
+    <row r="9" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="42" t="s">
-        <v>258</v>
-      </c>
-      <c r="B9" s="79" t="s">
+        <v>170</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="C9" s="113" t="s">
+        <v>169</v>
+      </c>
+      <c r="D9" s="114"/>
+      <c r="E9" s="114"/>
+      <c r="F9" s="114"/>
+      <c r="G9" s="114"/>
+      <c r="H9" s="114"/>
+      <c r="I9" s="115"/>
+      <c r="J9" s="59"/>
+    </row>
+    <row r="10" spans="1:10" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="42" t="s">
+        <v>256</v>
+      </c>
+      <c r="B10" s="69" t="s">
+        <v>261</v>
+      </c>
+      <c r="C10" s="113" t="s">
         <v>263</v>
       </c>
-      <c r="C9" s="140" t="s">
-        <v>265</v>
-      </c>
-      <c r="D9" s="141"/>
-      <c r="E9" s="141"/>
-      <c r="F9" s="141"/>
-      <c r="G9" s="141"/>
-      <c r="H9" s="142"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="81" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="240" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="D10" s="32" t="s">
-        <v>247</v>
-      </c>
-      <c r="E10" s="53"/>
-      <c r="F10" s="32" t="s">
+      <c r="D10" s="114"/>
+      <c r="E10" s="114"/>
+      <c r="F10" s="114"/>
+      <c r="G10" s="114"/>
+      <c r="H10" s="115"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="70" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="240" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
         <v>43</v>
-      </c>
-      <c r="G10" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="H10" s="65"/>
-      <c r="I10" s="71" t="s">
-        <v>248</v>
-      </c>
-      <c r="J10" s="116"/>
-    </row>
-    <row r="11" spans="1:10" ht="135" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
-        <v>41</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>168</v>
@@ -3867,983 +4229,1031 @@
       <c r="C11" s="13" t="s">
         <v>167</v>
       </c>
-      <c r="D11" s="119"/>
-      <c r="E11" s="120"/>
-      <c r="F11" s="121"/>
-      <c r="G11" s="121"/>
-      <c r="H11" s="121"/>
-      <c r="I11" s="71" t="s">
-        <v>297</v>
-      </c>
-      <c r="J11" s="117"/>
+      <c r="D11" s="32" t="s">
+        <v>245</v>
+      </c>
+      <c r="E11" s="44"/>
+      <c r="F11" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" s="55"/>
+      <c r="I11" s="61" t="s">
+        <v>246</v>
+      </c>
+      <c r="J11" s="120"/>
     </row>
     <row r="12" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="C12" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="D12" s="126"/>
+      <c r="E12" s="127"/>
+      <c r="F12" s="128"/>
+      <c r="G12" s="128"/>
+      <c r="H12" s="128"/>
+      <c r="I12" s="61" t="s">
+        <v>294</v>
+      </c>
+      <c r="J12" s="121"/>
+    </row>
+    <row r="13" spans="1:10" ht="135" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="D12" s="21" t="s">
+      <c r="B13" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="E12" s="57"/>
-      <c r="F12" s="21" t="s">
+      <c r="C13" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="G12" s="21" t="s">
+      <c r="D13" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="H12" s="28" t="s">
+      <c r="E13" s="48"/>
+      <c r="F13" s="21" t="s">
         <v>160</v>
       </c>
-      <c r="I12" s="70" t="s">
+      <c r="G13" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="H13" s="28" t="s">
+        <v>158</v>
+      </c>
+      <c r="I13" s="60" t="s">
+        <v>241</v>
+      </c>
+      <c r="J13" s="121"/>
+    </row>
+    <row r="14" spans="1:10" ht="135" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="142" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="143" t="s">
+        <v>157</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="D14" s="126"/>
+      <c r="E14" s="137"/>
+      <c r="F14" s="32" t="s">
+        <v>238</v>
+      </c>
+      <c r="G14" s="41" t="s">
+        <v>239</v>
+      </c>
+      <c r="H14" s="58"/>
+      <c r="I14" s="63" t="s">
         <v>243</v>
       </c>
-      <c r="J12" s="117"/>
-    </row>
-    <row r="13" spans="1:10" ht="135" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="129" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" s="130" t="s">
-        <v>159</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>158</v>
-      </c>
-      <c r="D13" s="119"/>
-      <c r="E13" s="128"/>
-      <c r="F13" s="32" t="s">
+      <c r="J14" s="121"/>
+    </row>
+    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="142"/>
+      <c r="B15" s="143"/>
+      <c r="C15" s="156" t="s">
+        <v>155</v>
+      </c>
+      <c r="D15" s="157"/>
+      <c r="E15" s="157"/>
+      <c r="F15" s="157"/>
+      <c r="G15" s="157"/>
+      <c r="H15" s="157"/>
+      <c r="I15" s="158"/>
+      <c r="J15" s="121"/>
+    </row>
+    <row r="16" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="A16" s="142" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="143" t="s">
+        <v>154</v>
+      </c>
+      <c r="C16" s="30" t="s">
+        <v>153</v>
+      </c>
+      <c r="D16" s="129"/>
+      <c r="E16" s="130"/>
+      <c r="F16" s="60" t="s">
+        <v>152</v>
+      </c>
+      <c r="G16" s="60" t="s">
         <v>240</v>
       </c>
-      <c r="G13" s="41" t="s">
-        <v>241</v>
-      </c>
-      <c r="H13" s="68"/>
-      <c r="I13" s="73" t="s">
-        <v>245</v>
-      </c>
-      <c r="J13" s="117"/>
-    </row>
-    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="129"/>
-      <c r="B14" s="130"/>
-      <c r="C14" s="134" t="s">
-        <v>157</v>
-      </c>
-      <c r="D14" s="147"/>
-      <c r="E14" s="147"/>
-      <c r="F14" s="147"/>
-      <c r="G14" s="147"/>
-      <c r="H14" s="147"/>
-      <c r="I14" s="148"/>
-      <c r="J14" s="117"/>
-    </row>
-    <row r="15" spans="1:10" ht="120" x14ac:dyDescent="0.25">
-      <c r="A15" s="129" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15" s="130" t="s">
-        <v>156</v>
-      </c>
-      <c r="C15" s="30" t="s">
-        <v>155</v>
-      </c>
-      <c r="D15" s="122"/>
-      <c r="E15" s="123"/>
-      <c r="F15" s="70" t="s">
-        <v>154</v>
-      </c>
-      <c r="G15" s="70" t="s">
-        <v>242</v>
-      </c>
-      <c r="H15" s="75"/>
-      <c r="I15" s="74" t="s">
-        <v>246</v>
-      </c>
-      <c r="J15" s="117"/>
-    </row>
-    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="129"/>
-      <c r="B16" s="136"/>
-      <c r="C16" s="135" t="s">
-        <v>153</v>
-      </c>
-      <c r="D16" s="135"/>
-      <c r="E16" s="135"/>
-      <c r="F16" s="135"/>
-      <c r="G16" s="135"/>
-      <c r="H16" s="135"/>
-      <c r="I16" s="135"/>
-      <c r="J16" s="118"/>
-    </row>
-    <row r="17" spans="1:10" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="B17" s="6" t="s">
+      <c r="H16" s="65"/>
+      <c r="I16" s="64" t="s">
+        <v>244</v>
+      </c>
+      <c r="J16" s="121"/>
+    </row>
+    <row r="17" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="142"/>
+      <c r="B17" s="144"/>
+      <c r="C17" s="159" t="s">
         <v>151</v>
       </c>
-      <c r="C17" s="134" t="s">
-        <v>281</v>
-      </c>
-      <c r="D17" s="147"/>
-      <c r="E17" s="147"/>
-      <c r="F17" s="147"/>
-      <c r="G17" s="147"/>
-      <c r="H17" s="147"/>
-      <c r="I17" s="97"/>
-      <c r="J17" s="72" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="14" t="s">
+      <c r="D17" s="141"/>
+      <c r="E17" s="141"/>
+      <c r="F17" s="141"/>
+      <c r="G17" s="141"/>
+      <c r="H17" s="141"/>
+      <c r="I17" s="141"/>
+      <c r="J17" s="122"/>
+    </row>
+    <row r="18" spans="1:10" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="90" t="s">
+        <v>314</v>
+      </c>
+      <c r="B18" s="91" t="s">
+        <v>315</v>
+      </c>
+      <c r="C18" s="131"/>
+      <c r="D18" s="132"/>
+      <c r="E18" s="132"/>
+      <c r="F18" s="132"/>
+      <c r="G18" s="132"/>
+      <c r="H18" s="132"/>
+      <c r="I18" s="130"/>
+      <c r="J18" s="46" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B19" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="C18" s="110" t="s">
+      <c r="C19" s="113" t="s">
+        <v>279</v>
+      </c>
+      <c r="D19" s="114"/>
+      <c r="E19" s="114"/>
+      <c r="F19" s="114"/>
+      <c r="G19" s="114"/>
+      <c r="H19" s="115"/>
+      <c r="I19" s="81"/>
+      <c r="J19" s="62" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="D18" s="111"/>
-      <c r="E18" s="111"/>
-      <c r="F18" s="111"/>
-      <c r="G18" s="111"/>
-      <c r="H18" s="111"/>
-      <c r="I18" s="111"/>
-      <c r="J18" s="112"/>
-    </row>
-    <row r="19" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
+      <c r="B20" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="B19" s="40" t="s">
+      <c r="C20" s="123" t="s">
         <v>146</v>
       </c>
-      <c r="C19" s="110" t="s">
-        <v>145</v>
-      </c>
-      <c r="D19" s="111"/>
-      <c r="E19" s="111"/>
-      <c r="F19" s="111"/>
-      <c r="G19" s="111"/>
-      <c r="H19" s="111"/>
-      <c r="I19" s="111"/>
-      <c r="J19" s="112"/>
-    </row>
-    <row r="20" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="B20" s="40" t="s">
-        <v>202</v>
-      </c>
-      <c r="C20" s="110" t="s">
-        <v>203</v>
-      </c>
-      <c r="D20" s="111"/>
-      <c r="E20" s="111"/>
-      <c r="F20" s="111"/>
-      <c r="G20" s="111"/>
-      <c r="H20" s="111"/>
-      <c r="I20" s="111"/>
-      <c r="J20" s="112"/>
+      <c r="D20" s="124"/>
+      <c r="E20" s="124"/>
+      <c r="F20" s="124"/>
+      <c r="G20" s="124"/>
+      <c r="H20" s="124"/>
+      <c r="I20" s="124"/>
+      <c r="J20" s="125"/>
     </row>
     <row r="21" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="B21" s="40" t="s">
         <v>144</v>
       </c>
-      <c r="B21" s="40" t="s">
+      <c r="C21" s="123" t="s">
         <v>143</v>
       </c>
-      <c r="C21" s="110" t="s">
-        <v>142</v>
-      </c>
-      <c r="D21" s="111"/>
-      <c r="E21" s="111"/>
-      <c r="F21" s="111"/>
-      <c r="G21" s="111"/>
-      <c r="H21" s="111"/>
-      <c r="I21" s="111"/>
-      <c r="J21" s="112"/>
+      <c r="D21" s="124"/>
+      <c r="E21" s="124"/>
+      <c r="F21" s="124"/>
+      <c r="G21" s="124"/>
+      <c r="H21" s="124"/>
+      <c r="I21" s="124"/>
+      <c r="J21" s="125"/>
     </row>
     <row r="22" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="B22" s="40" t="s">
-        <v>205</v>
-      </c>
-      <c r="C22" s="110" t="s">
-        <v>206</v>
-      </c>
-      <c r="D22" s="111"/>
-      <c r="E22" s="111"/>
-      <c r="F22" s="111"/>
-      <c r="G22" s="111"/>
-      <c r="H22" s="111"/>
-      <c r="I22" s="111"/>
-      <c r="J22" s="112"/>
+        <v>200</v>
+      </c>
+      <c r="C22" s="123" t="s">
+        <v>201</v>
+      </c>
+      <c r="D22" s="124"/>
+      <c r="E22" s="124"/>
+      <c r="F22" s="124"/>
+      <c r="G22" s="124"/>
+      <c r="H22" s="124"/>
+      <c r="I22" s="124"/>
+      <c r="J22" s="125"/>
     </row>
     <row r="23" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="B23" s="40" t="s">
         <v>141</v>
       </c>
-      <c r="B23" s="40" t="s">
+      <c r="C23" s="123" t="s">
         <v>140</v>
       </c>
-      <c r="C23" s="110" t="s">
-        <v>139</v>
-      </c>
-      <c r="D23" s="111"/>
-      <c r="E23" s="111"/>
-      <c r="F23" s="111"/>
-      <c r="G23" s="111"/>
-      <c r="H23" s="111"/>
-      <c r="I23" s="111"/>
-      <c r="J23" s="112"/>
+      <c r="D23" s="124"/>
+      <c r="E23" s="124"/>
+      <c r="F23" s="124"/>
+      <c r="G23" s="124"/>
+      <c r="H23" s="124"/>
+      <c r="I23" s="124"/>
+      <c r="J23" s="125"/>
     </row>
     <row r="24" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="B24" s="40" t="s">
+        <v>203</v>
+      </c>
+      <c r="C24" s="123" t="s">
+        <v>204</v>
+      </c>
+      <c r="D24" s="124"/>
+      <c r="E24" s="124"/>
+      <c r="F24" s="124"/>
+      <c r="G24" s="124"/>
+      <c r="H24" s="124"/>
+      <c r="I24" s="124"/>
+      <c r="J24" s="125"/>
+    </row>
+    <row r="25" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="B25" s="40" t="s">
         <v>138</v>
       </c>
-      <c r="B24" s="40" t="s">
+      <c r="C25" s="123" t="s">
         <v>137</v>
       </c>
-      <c r="C24" s="110" t="s">
+      <c r="D25" s="124"/>
+      <c r="E25" s="124"/>
+      <c r="F25" s="124"/>
+      <c r="G25" s="124"/>
+      <c r="H25" s="124"/>
+      <c r="I25" s="124"/>
+      <c r="J25" s="125"/>
+    </row>
+    <row r="26" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="D24" s="111"/>
-      <c r="E24" s="111"/>
-      <c r="F24" s="111"/>
-      <c r="G24" s="111"/>
-      <c r="H24" s="111"/>
-      <c r="I24" s="111"/>
-      <c r="J24" s="112"/>
-    </row>
-    <row r="25" spans="1:10" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="39" t="s">
+      <c r="B26" s="40" t="s">
         <v>135</v>
       </c>
-      <c r="B25" s="38" t="s">
+      <c r="C26" s="123" t="s">
         <v>134</v>
       </c>
-      <c r="C25" s="37" t="s">
-        <v>209</v>
-      </c>
-      <c r="D25" s="35"/>
-      <c r="E25" s="36" t="s">
+      <c r="D26" s="124"/>
+      <c r="E26" s="124"/>
+      <c r="F26" s="124"/>
+      <c r="G26" s="124"/>
+      <c r="H26" s="124"/>
+      <c r="I26" s="124"/>
+      <c r="J26" s="125"/>
+    </row>
+    <row r="27" spans="1:10" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="39" t="s">
         <v>133</v>
       </c>
-      <c r="F25" s="54" t="s">
-        <v>210</v>
-      </c>
-      <c r="G25" s="132"/>
-      <c r="H25" s="133"/>
-      <c r="I25" s="36" t="s">
-        <v>298</v>
-      </c>
-      <c r="J25" s="98" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="34" t="s">
+      <c r="B27" s="38" t="s">
         <v>132</v>
       </c>
-      <c r="B26" s="33" t="s">
+      <c r="C27" s="37" t="s">
+        <v>207</v>
+      </c>
+      <c r="D27" s="35"/>
+      <c r="E27" s="36" t="s">
         <v>131</v>
       </c>
-      <c r="C26" s="113" t="s">
+      <c r="F27" s="45" t="s">
+        <v>208</v>
+      </c>
+      <c r="G27" s="151"/>
+      <c r="H27" s="152"/>
+      <c r="I27" s="36" t="s">
+        <v>295</v>
+      </c>
+      <c r="J27" s="82" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="34" t="s">
         <v>130</v>
       </c>
-      <c r="D26" s="114"/>
-      <c r="E26" s="114"/>
-      <c r="F26" s="114"/>
-      <c r="G26" s="114"/>
-      <c r="H26" s="114"/>
-      <c r="I26" s="114"/>
-      <c r="J26" s="115"/>
-    </row>
-    <row r="27" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="34" t="s">
+      <c r="B28" s="33" t="s">
         <v>129</v>
       </c>
-      <c r="B27" s="33" t="s">
+      <c r="C28" s="138" t="s">
         <v>128</v>
       </c>
-      <c r="C27" s="137" t="s">
+      <c r="D28" s="139"/>
+      <c r="E28" s="139"/>
+      <c r="F28" s="139"/>
+      <c r="G28" s="139"/>
+      <c r="H28" s="139"/>
+      <c r="I28" s="139"/>
+      <c r="J28" s="140"/>
+    </row>
+    <row r="29" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="34" t="s">
         <v>127</v>
       </c>
-      <c r="D27" s="138"/>
-      <c r="E27" s="138"/>
-      <c r="F27" s="138"/>
-      <c r="G27" s="138"/>
-      <c r="H27" s="138"/>
-      <c r="I27" s="139"/>
-      <c r="J27" s="116"/>
-    </row>
-    <row r="28" spans="1:10" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="34" t="s">
+      <c r="B29" s="33" t="s">
         <v>126</v>
       </c>
-      <c r="B28" s="60" t="s">
+      <c r="C29" s="145" t="s">
         <v>125</v>
       </c>
-      <c r="C28" s="63" t="s">
+      <c r="D29" s="146"/>
+      <c r="E29" s="146"/>
+      <c r="F29" s="146"/>
+      <c r="G29" s="146"/>
+      <c r="H29" s="146"/>
+      <c r="I29" s="147"/>
+      <c r="J29" s="120"/>
+    </row>
+    <row r="30" spans="1:10" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="34" t="s">
         <v>124</v>
       </c>
-      <c r="D28" s="108"/>
-      <c r="E28" s="109"/>
-      <c r="F28" s="41" t="s">
+      <c r="B30" s="51" t="s">
         <v>123</v>
       </c>
-      <c r="G28" s="41" t="s">
+      <c r="C30" s="53" t="s">
         <v>122</v>
       </c>
-      <c r="H28" s="122"/>
-      <c r="I28" s="71" t="s">
+      <c r="D30" s="149"/>
+      <c r="E30" s="150"/>
+      <c r="F30" s="41" t="s">
+        <v>121</v>
+      </c>
+      <c r="G30" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="H30" s="129"/>
+      <c r="I30" s="61" t="s">
+        <v>248</v>
+      </c>
+      <c r="J30" s="121"/>
+    </row>
+    <row r="31" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="A31" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="B31" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="C31" s="67" t="s">
+        <v>117</v>
+      </c>
+      <c r="D31" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="E31" s="60" t="s">
+        <v>115</v>
+      </c>
+      <c r="F31" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="G31" s="60" t="s">
+        <v>113</v>
+      </c>
+      <c r="H31" s="148"/>
+      <c r="I31" s="61" t="s">
         <v>250</v>
       </c>
-      <c r="J28" s="117"/>
-    </row>
-    <row r="29" spans="1:10" ht="90" x14ac:dyDescent="0.25">
-      <c r="A29" s="24" t="s">
-        <v>121</v>
-      </c>
-      <c r="B29" s="23" t="s">
-        <v>120</v>
-      </c>
-      <c r="C29" s="77" t="s">
-        <v>119</v>
-      </c>
-      <c r="D29" s="25" t="s">
-        <v>118</v>
-      </c>
-      <c r="E29" s="70" t="s">
-        <v>117</v>
-      </c>
-      <c r="F29" s="25" t="s">
-        <v>116</v>
-      </c>
-      <c r="G29" s="70" t="s">
-        <v>115</v>
-      </c>
-      <c r="H29" s="131"/>
-      <c r="I29" s="71" t="s">
-        <v>252</v>
-      </c>
-      <c r="J29" s="118"/>
-    </row>
-    <row r="30" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="24" t="s">
-        <v>218</v>
-      </c>
-      <c r="B30" s="23" t="s">
-        <v>219</v>
-      </c>
-      <c r="C30" s="110" t="s">
-        <v>220</v>
-      </c>
-      <c r="D30" s="111"/>
-      <c r="E30" s="111"/>
-      <c r="F30" s="111"/>
-      <c r="G30" s="111"/>
-      <c r="H30" s="112"/>
-      <c r="I30" s="99"/>
-      <c r="J30" s="81" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="24" t="s">
-        <v>254</v>
-      </c>
-      <c r="B31" s="23" t="s">
-        <v>255</v>
-      </c>
-      <c r="C31" s="110" t="s">
-        <v>257</v>
-      </c>
-      <c r="D31" s="111"/>
-      <c r="E31" s="111"/>
-      <c r="F31" s="111"/>
-      <c r="G31" s="111"/>
-      <c r="H31" s="112"/>
-      <c r="I31" s="100"/>
-      <c r="J31" s="81" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="J31" s="122"/>
+    </row>
+    <row r="32" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="24" t="s">
         <v>216</v>
       </c>
       <c r="B32" s="23" t="s">
+        <v>217</v>
+      </c>
+      <c r="C32" s="123" t="s">
+        <v>218</v>
+      </c>
+      <c r="D32" s="124"/>
+      <c r="E32" s="124"/>
+      <c r="F32" s="124"/>
+      <c r="G32" s="124"/>
+      <c r="H32" s="125"/>
+      <c r="I32" s="83"/>
+      <c r="J32" s="70" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="24" t="s">
+        <v>252</v>
+      </c>
+      <c r="B33" s="23" t="s">
+        <v>253</v>
+      </c>
+      <c r="C33" s="123" t="s">
+        <v>255</v>
+      </c>
+      <c r="D33" s="124"/>
+      <c r="E33" s="124"/>
+      <c r="F33" s="124"/>
+      <c r="G33" s="124"/>
+      <c r="H33" s="125"/>
+      <c r="I33" s="84"/>
+      <c r="J33" s="70" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="A34" s="24" t="s">
+        <v>214</v>
+      </c>
+      <c r="B34" s="23" t="s">
+        <v>213</v>
+      </c>
+      <c r="C34" s="124" t="s">
         <v>215</v>
       </c>
-      <c r="C32" s="111" t="s">
-        <v>217</v>
-      </c>
-      <c r="D32" s="111"/>
-      <c r="E32" s="111"/>
-      <c r="F32" s="111"/>
-      <c r="G32" s="111"/>
-      <c r="H32" s="111"/>
-      <c r="I32" s="100"/>
-      <c r="J32" s="71" t="s">
+      <c r="D34" s="124"/>
+      <c r="E34" s="124"/>
+      <c r="F34" s="124"/>
+      <c r="G34" s="124"/>
+      <c r="H34" s="124"/>
+      <c r="I34" s="84"/>
+      <c r="J34" s="61" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="300" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="B35" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="C35" s="49" t="s">
+        <v>110</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="E35" s="46" t="s">
+        <v>109</v>
+      </c>
+      <c r="F35" s="46" t="s">
+        <v>108</v>
+      </c>
+      <c r="G35" s="46" t="s">
+        <v>107</v>
+      </c>
+      <c r="H35" s="56" t="s">
+        <v>85</v>
+      </c>
+      <c r="I35" s="84"/>
+      <c r="J35" s="61" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="225" x14ac:dyDescent="0.25">
+      <c r="A36" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="B36" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="C36" s="50" t="s">
+        <v>104</v>
+      </c>
+      <c r="D36" s="129"/>
+      <c r="E36" s="130"/>
+      <c r="F36" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="G36" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="H36" s="86"/>
+      <c r="I36" s="85"/>
+      <c r="J36" s="61" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="240" x14ac:dyDescent="0.25">
+      <c r="A37" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="B37" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="C37" s="163"/>
+      <c r="D37" s="127"/>
+      <c r="E37" s="63" t="s">
+        <v>273</v>
+      </c>
+      <c r="F37" s="148"/>
+      <c r="G37" s="127"/>
+      <c r="H37" s="127"/>
+      <c r="I37" s="167"/>
+      <c r="J37" s="61" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="165" x14ac:dyDescent="0.25">
+      <c r="A38" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="B38" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="C38" s="50" t="s">
+        <v>205</v>
+      </c>
+      <c r="D38" s="126"/>
+      <c r="E38" s="128"/>
+      <c r="F38" s="128"/>
+      <c r="G38" s="137"/>
+      <c r="H38" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="I38" s="27" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" ht="300" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="24" t="s">
-        <v>114</v>
-      </c>
-      <c r="B33" s="23" t="s">
-        <v>113</v>
-      </c>
-      <c r="C33" s="58" t="s">
-        <v>112</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="E33" s="55" t="s">
-        <v>111</v>
-      </c>
-      <c r="F33" s="55" t="s">
-        <v>110</v>
-      </c>
-      <c r="G33" s="55" t="s">
-        <v>109</v>
-      </c>
-      <c r="H33" s="66" t="s">
+      <c r="J38" s="61" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="133" t="s">
+        <v>97</v>
+      </c>
+      <c r="B39" s="135" t="s">
+        <v>96</v>
+      </c>
+      <c r="C39" s="123" t="s">
+        <v>95</v>
+      </c>
+      <c r="D39" s="124"/>
+      <c r="E39" s="124"/>
+      <c r="F39" s="124"/>
+      <c r="G39" s="124"/>
+      <c r="H39" s="124"/>
+      <c r="I39" s="68" t="s">
+        <v>265</v>
+      </c>
+      <c r="J39" s="59"/>
+    </row>
+    <row r="40" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="134"/>
+      <c r="B40" s="136"/>
+      <c r="C40" s="113" t="s">
+        <v>94</v>
+      </c>
+      <c r="D40" s="114"/>
+      <c r="E40" s="114"/>
+      <c r="F40" s="114"/>
+      <c r="G40" s="114"/>
+      <c r="H40" s="114"/>
+      <c r="I40" s="114"/>
+      <c r="J40" s="115"/>
+    </row>
+    <row r="41" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="133" t="s">
+        <v>219</v>
+      </c>
+      <c r="B41" s="135" t="s">
+        <v>227</v>
+      </c>
+      <c r="C41" s="113" t="s">
+        <v>221</v>
+      </c>
+      <c r="D41" s="114"/>
+      <c r="E41" s="114"/>
+      <c r="F41" s="114"/>
+      <c r="G41" s="114"/>
+      <c r="H41" s="114"/>
+      <c r="I41" s="114"/>
+      <c r="J41" s="115"/>
+    </row>
+    <row r="42" spans="1:10" ht="285" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="134"/>
+      <c r="B42" s="156"/>
+      <c r="C42" s="53" t="s">
+        <v>222</v>
+      </c>
+      <c r="D42" s="41" t="s">
+        <v>223</v>
+      </c>
+      <c r="E42" s="41" t="s">
+        <v>224</v>
+      </c>
+      <c r="F42" s="41" t="s">
+        <v>225</v>
+      </c>
+      <c r="G42" s="41" t="s">
+        <v>274</v>
+      </c>
+      <c r="H42" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="I42" s="83"/>
+      <c r="J42" s="61" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="330" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="29" t="s">
+        <v>220</v>
+      </c>
+      <c r="B43" s="47" t="s">
+        <v>228</v>
+      </c>
+      <c r="C43" s="53" t="s">
+        <v>231</v>
+      </c>
+      <c r="D43" s="41" t="s">
+        <v>232</v>
+      </c>
+      <c r="E43" s="41" t="s">
+        <v>233</v>
+      </c>
+      <c r="F43" s="41" t="s">
+        <v>229</v>
+      </c>
+      <c r="G43" s="41" t="s">
+        <v>275</v>
+      </c>
+      <c r="H43" s="54" t="s">
+        <v>230</v>
+      </c>
+      <c r="I43" s="148"/>
+      <c r="J43" s="167"/>
+    </row>
+    <row r="44" spans="1:10" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="B44" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="C44" s="52" t="s">
+        <v>91</v>
+      </c>
+      <c r="D44" s="46" t="s">
+        <v>90</v>
+      </c>
+      <c r="E44" s="46" t="s">
+        <v>209</v>
+      </c>
+      <c r="F44" s="46" t="s">
+        <v>89</v>
+      </c>
+      <c r="G44" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="H44" s="56" t="s">
+        <v>226</v>
+      </c>
+      <c r="I44" s="63" t="s">
+        <v>300</v>
+      </c>
+      <c r="J44" s="61" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="133" t="s">
         <v>87</v>
       </c>
-      <c r="I33" s="100"/>
-      <c r="J33" s="71" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" ht="225" x14ac:dyDescent="0.25">
-      <c r="A34" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="B34" s="23" t="s">
-        <v>107</v>
-      </c>
-      <c r="C34" s="59" t="s">
-        <v>106</v>
-      </c>
-      <c r="D34" s="122"/>
-      <c r="E34" s="123"/>
-      <c r="F34" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="G34" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="H34" s="102"/>
-      <c r="I34" s="101"/>
-      <c r="J34" s="71" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" ht="240" x14ac:dyDescent="0.25">
-      <c r="A35" s="24" t="s">
-        <v>103</v>
-      </c>
-      <c r="B35" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="C35" s="152"/>
-      <c r="D35" s="120"/>
-      <c r="E35" s="73" t="s">
-        <v>275</v>
-      </c>
-      <c r="F35" s="131"/>
-      <c r="G35" s="120"/>
-      <c r="H35" s="120"/>
-      <c r="I35" s="156"/>
-      <c r="J35" s="71" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" ht="165" x14ac:dyDescent="0.25">
-      <c r="A36" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="B36" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="C36" s="59" t="s">
-        <v>207</v>
-      </c>
-      <c r="D36" s="119"/>
-      <c r="E36" s="121"/>
-      <c r="F36" s="121"/>
-      <c r="G36" s="128"/>
-      <c r="H36" s="21" t="s">
-        <v>208</v>
-      </c>
-      <c r="I36" s="27" t="s">
+      <c r="B45" s="135" t="s">
+        <v>86</v>
+      </c>
+      <c r="C45" s="123" t="s">
+        <v>282</v>
+      </c>
+      <c r="D45" s="124"/>
+      <c r="E45" s="124"/>
+      <c r="F45" s="124"/>
+      <c r="G45" s="124"/>
+      <c r="H45" s="124"/>
+      <c r="I45" s="125"/>
+      <c r="J45" s="120"/>
+    </row>
+    <row r="46" spans="1:10" ht="195" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="134"/>
+      <c r="B46" s="136"/>
+      <c r="C46" s="22" t="s">
+        <v>285</v>
+      </c>
+      <c r="D46" s="21" t="s">
+        <v>284</v>
+      </c>
+      <c r="E46" s="21" t="s">
+        <v>283</v>
+      </c>
+      <c r="F46" s="21" t="s">
+        <v>287</v>
+      </c>
+      <c r="G46" s="21" t="s">
+        <v>286</v>
+      </c>
+      <c r="H46" s="28" t="s">
+        <v>289</v>
+      </c>
+      <c r="I46" s="21" t="s">
+        <v>288</v>
+      </c>
+      <c r="J46" s="122"/>
+    </row>
+    <row r="47" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="133" t="s">
+        <v>84</v>
+      </c>
+      <c r="B47" s="135" t="s">
+        <v>83</v>
+      </c>
+      <c r="C47" s="160" t="s">
+        <v>237</v>
+      </c>
+      <c r="D47" s="161"/>
+      <c r="E47" s="161"/>
+      <c r="F47" s="161"/>
+      <c r="G47" s="161"/>
+      <c r="H47" s="162"/>
+      <c r="I47" s="164"/>
+      <c r="J47" s="168" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="300" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="134"/>
+      <c r="B48" s="136"/>
+      <c r="C48" s="50" t="s">
+        <v>82</v>
+      </c>
+      <c r="D48" s="4"/>
+      <c r="E48" s="166" t="s">
+        <v>81</v>
+      </c>
+      <c r="F48" s="125"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="I48" s="165"/>
+      <c r="J48" s="169"/>
+    </row>
+    <row r="49" spans="1:10" ht="195" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="B49" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="C49" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="D49" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="E49" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="F49" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="G49" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="H49" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="I49" s="61" t="s">
+        <v>303</v>
+      </c>
+      <c r="J49" s="61" t="s">
         <v>302</v>
       </c>
-      <c r="J36" s="71" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="124" t="s">
-        <v>99</v>
-      </c>
-      <c r="B37" s="126" t="s">
-        <v>98</v>
-      </c>
-      <c r="C37" s="110" t="s">
-        <v>97</v>
-      </c>
-      <c r="D37" s="111"/>
-      <c r="E37" s="111"/>
-      <c r="F37" s="111"/>
-      <c r="G37" s="111"/>
-      <c r="H37" s="111"/>
-      <c r="I37" s="78" t="s">
-        <v>267</v>
-      </c>
-      <c r="J37" s="69"/>
-    </row>
-    <row r="38" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="125"/>
-      <c r="B38" s="127"/>
-      <c r="C38" s="140" t="s">
-        <v>96</v>
-      </c>
-      <c r="D38" s="141"/>
-      <c r="E38" s="141"/>
-      <c r="F38" s="141"/>
-      <c r="G38" s="141"/>
-      <c r="H38" s="141"/>
-      <c r="I38" s="141"/>
-      <c r="J38" s="142"/>
-    </row>
-    <row r="39" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="124" t="s">
-        <v>221</v>
-      </c>
-      <c r="B39" s="126" t="s">
-        <v>229</v>
-      </c>
-      <c r="C39" s="140" t="s">
-        <v>223</v>
-      </c>
-      <c r="D39" s="141"/>
-      <c r="E39" s="141"/>
-      <c r="F39" s="141"/>
-      <c r="G39" s="141"/>
-      <c r="H39" s="141"/>
-      <c r="I39" s="141"/>
-      <c r="J39" s="142"/>
-    </row>
-    <row r="40" spans="1:10" ht="285" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="125"/>
-      <c r="B40" s="134"/>
-      <c r="C40" s="63" t="s">
-        <v>224</v>
-      </c>
-      <c r="D40" s="41" t="s">
-        <v>225</v>
-      </c>
-      <c r="E40" s="41" t="s">
-        <v>226</v>
-      </c>
-      <c r="F40" s="41" t="s">
-        <v>227</v>
-      </c>
-      <c r="G40" s="41" t="s">
+    </row>
+    <row r="50" spans="1:10" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="B50" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="C50" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="D50" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="E50" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="F50" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="G50" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="H50" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="I50" s="61" t="s">
+        <v>305</v>
+      </c>
+      <c r="J50" s="61" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="133" t="s">
+        <v>63</v>
+      </c>
+      <c r="B51" s="145" t="s">
+        <v>62</v>
+      </c>
+      <c r="C51" s="170" t="s">
+        <v>269</v>
+      </c>
+      <c r="D51" s="170"/>
+      <c r="E51" s="170"/>
+      <c r="F51" s="170"/>
+      <c r="G51" s="170"/>
+      <c r="H51" s="170"/>
+      <c r="I51" s="149"/>
+      <c r="J51" s="150"/>
+    </row>
+    <row r="52" spans="1:10" ht="345" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="134"/>
+      <c r="B52" s="136"/>
+      <c r="C52" s="26" t="s">
+        <v>268</v>
+      </c>
+      <c r="D52" s="25" t="s">
+        <v>270</v>
+      </c>
+      <c r="E52" s="149"/>
+      <c r="F52" s="132"/>
+      <c r="G52" s="130"/>
+      <c r="H52" s="57" t="s">
+        <v>271</v>
+      </c>
+      <c r="I52" s="21" t="s">
+        <v>295</v>
+      </c>
+      <c r="J52" s="61" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="345" x14ac:dyDescent="0.25">
+      <c r="A53" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="B53" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="C53" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D53" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="E53" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="F53" s="126"/>
+      <c r="G53" s="137"/>
+      <c r="H53" s="28" t="s">
+        <v>210</v>
+      </c>
+      <c r="I53" s="12"/>
+      <c r="J53" s="61" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="405" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="B54" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="C54" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="D54" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="E54" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="F54" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="G54" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="H54" s="28" t="s">
         <v>276</v>
       </c>
-      <c r="H40" s="64" t="s">
-        <v>268</v>
-      </c>
-      <c r="I40" s="99"/>
-      <c r="J40" s="71" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" ht="330" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="29" t="s">
-        <v>222</v>
-      </c>
-      <c r="B41" s="56" t="s">
-        <v>230</v>
-      </c>
-      <c r="C41" s="63" t="s">
-        <v>233</v>
-      </c>
-      <c r="D41" s="41" t="s">
-        <v>234</v>
-      </c>
-      <c r="E41" s="41" t="s">
-        <v>235</v>
-      </c>
-      <c r="F41" s="41" t="s">
-        <v>231</v>
-      </c>
-      <c r="G41" s="41" t="s">
-        <v>277</v>
-      </c>
-      <c r="H41" s="64" t="s">
-        <v>232</v>
-      </c>
-      <c r="I41" s="131"/>
-      <c r="J41" s="156"/>
-    </row>
-    <row r="42" spans="1:10" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="24" t="s">
-        <v>95</v>
-      </c>
-      <c r="B42" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="C42" s="61" t="s">
-        <v>93</v>
-      </c>
-      <c r="D42" s="55" t="s">
-        <v>92</v>
-      </c>
-      <c r="E42" s="55" t="s">
-        <v>211</v>
-      </c>
-      <c r="F42" s="55" t="s">
-        <v>91</v>
-      </c>
-      <c r="G42" s="55" t="s">
-        <v>90</v>
-      </c>
-      <c r="H42" s="66" t="s">
-        <v>228</v>
-      </c>
-      <c r="I42" s="73" t="s">
-        <v>303</v>
-      </c>
-      <c r="J42" s="71" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="124" t="s">
-        <v>89</v>
-      </c>
-      <c r="B43" s="126" t="s">
-        <v>88</v>
-      </c>
-      <c r="C43" s="110" t="s">
-        <v>284</v>
-      </c>
-      <c r="D43" s="111"/>
-      <c r="E43" s="111"/>
-      <c r="F43" s="111"/>
-      <c r="G43" s="111"/>
-      <c r="H43" s="111"/>
-      <c r="I43" s="112"/>
-      <c r="J43" s="116"/>
-    </row>
-    <row r="44" spans="1:10" ht="195" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="125"/>
-      <c r="B44" s="127"/>
-      <c r="C44" s="22" t="s">
-        <v>287</v>
-      </c>
-      <c r="D44" s="21" t="s">
-        <v>286</v>
-      </c>
-      <c r="E44" s="21" t="s">
-        <v>285</v>
-      </c>
-      <c r="F44" s="21" t="s">
-        <v>289</v>
-      </c>
-      <c r="G44" s="21" t="s">
-        <v>288</v>
-      </c>
-      <c r="H44" s="28" t="s">
-        <v>291</v>
-      </c>
-      <c r="I44" s="21" t="s">
-        <v>290</v>
-      </c>
-      <c r="J44" s="118"/>
-    </row>
-    <row r="45" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="124" t="s">
-        <v>86</v>
-      </c>
-      <c r="B45" s="126" t="s">
-        <v>85</v>
-      </c>
-      <c r="C45" s="149" t="s">
-        <v>239</v>
-      </c>
-      <c r="D45" s="150"/>
-      <c r="E45" s="150"/>
-      <c r="F45" s="150"/>
-      <c r="G45" s="150"/>
-      <c r="H45" s="151"/>
-      <c r="I45" s="153"/>
-      <c r="J45" s="157" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" ht="300" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="125"/>
-      <c r="B46" s="127"/>
-      <c r="C46" s="59" t="s">
-        <v>84</v>
-      </c>
-      <c r="D46" s="4"/>
-      <c r="E46" s="155" t="s">
-        <v>83</v>
-      </c>
-      <c r="F46" s="112"/>
-      <c r="G46" s="4"/>
-      <c r="H46" s="27" t="s">
-        <v>82</v>
-      </c>
-      <c r="I46" s="154"/>
-      <c r="J46" s="158"/>
-    </row>
-    <row r="47" spans="1:10" ht="195" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="B47" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="C47" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="D47" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="E47" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="F47" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="G47" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="H47" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="I47" s="71" t="s">
-        <v>306</v>
-      </c>
-      <c r="J47" s="71" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="B48" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="C48" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="D48" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="E48" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="F48" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="G48" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="H48" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="I48" s="71" t="s">
+      <c r="I54" s="12"/>
+      <c r="J54" s="61" t="s">
         <v>308</v>
       </c>
-      <c r="J48" s="71" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="124" t="s">
-        <v>65</v>
-      </c>
-      <c r="B49" s="137" t="s">
-        <v>64</v>
-      </c>
-      <c r="C49" s="107" t="s">
-        <v>271</v>
-      </c>
-      <c r="D49" s="107"/>
-      <c r="E49" s="107"/>
-      <c r="F49" s="107"/>
-      <c r="G49" s="107"/>
-      <c r="H49" s="107"/>
-      <c r="I49" s="108"/>
-      <c r="J49" s="109"/>
-    </row>
-    <row r="50" spans="1:10" ht="345" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="125"/>
-      <c r="B50" s="127"/>
-      <c r="C50" s="26" t="s">
-        <v>270</v>
-      </c>
-      <c r="D50" s="25" t="s">
-        <v>272</v>
-      </c>
-      <c r="E50" s="108"/>
-      <c r="F50" s="146"/>
-      <c r="G50" s="123"/>
-      <c r="H50" s="67" t="s">
-        <v>273</v>
-      </c>
-      <c r="I50" s="21" t="s">
-        <v>298</v>
-      </c>
-      <c r="J50" s="71" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" ht="345" x14ac:dyDescent="0.25">
-      <c r="A51" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="B51" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="C51" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="D51" s="21" t="s">
-        <v>214</v>
-      </c>
-      <c r="E51" s="21" t="s">
-        <v>213</v>
-      </c>
-      <c r="F51" s="119"/>
-      <c r="G51" s="128"/>
-      <c r="H51" s="28" t="s">
-        <v>212</v>
-      </c>
-      <c r="I51" s="12"/>
-      <c r="J51" s="71" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" ht="405" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="B52" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="C52" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="D52" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="E52" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="F52" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="G52" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="H52" s="28" t="s">
-        <v>278</v>
-      </c>
-      <c r="I52" s="12"/>
-      <c r="J52" s="71" t="s">
-        <v>311</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="63">
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="C43:I43"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="I45:I46"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="F35:I35"/>
-    <mergeCell ref="C38:J38"/>
-    <mergeCell ref="C39:J39"/>
-    <mergeCell ref="J43:J44"/>
-    <mergeCell ref="I41:J41"/>
+  <mergeCells count="67">
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="C45:I45"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="I47:I48"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="F37:I37"/>
+    <mergeCell ref="C40:J40"/>
+    <mergeCell ref="C41:J41"/>
     <mergeCell ref="J45:J46"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="J47:J48"/>
+    <mergeCell ref="C51:H51"/>
+    <mergeCell ref="I51:J51"/>
     <mergeCell ref="C2:I2"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="C9:H9"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="E50:G50"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="C14:I14"/>
-    <mergeCell ref="C16:I16"/>
-    <mergeCell ref="C17:H17"/>
+    <mergeCell ref="C8:J8"/>
+    <mergeCell ref="C10:H10"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="E52:G52"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="C15:I15"/>
+    <mergeCell ref="C17:I17"/>
+    <mergeCell ref="C19:H19"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="C47:H47"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
     <mergeCell ref="B45:B46"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="C45:H45"/>
-    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="C29:I29"/>
+    <mergeCell ref="C33:H33"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C32:H32"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="C23:J23"/>
+    <mergeCell ref="C24:J24"/>
     <mergeCell ref="A39:A40"/>
     <mergeCell ref="B39:B40"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="C27:I27"/>
-    <mergeCell ref="C31:H31"/>
-    <mergeCell ref="C8:I8"/>
-    <mergeCell ref="C6:I6"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C30:H30"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="C39:H39"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D38:G38"/>
+    <mergeCell ref="C25:J25"/>
+    <mergeCell ref="C26:J26"/>
+    <mergeCell ref="C28:J28"/>
+    <mergeCell ref="J29:J31"/>
+    <mergeCell ref="C34:H34"/>
     <mergeCell ref="C21:J21"/>
     <mergeCell ref="C22:J22"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:H37"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D36:G36"/>
-    <mergeCell ref="J10:J16"/>
-    <mergeCell ref="C18:J18"/>
-    <mergeCell ref="C19:J19"/>
+    <mergeCell ref="D12:H12"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="C18:I18"/>
+    <mergeCell ref="C3:J3"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="J11:J17"/>
     <mergeCell ref="C20:J20"/>
-    <mergeCell ref="D11:H11"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="C49:H49"/>
-    <mergeCell ref="I49:J49"/>
-    <mergeCell ref="C23:J23"/>
-    <mergeCell ref="C24:J24"/>
-    <mergeCell ref="C26:J26"/>
-    <mergeCell ref="J27:J29"/>
-    <mergeCell ref="C32:H32"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4853,12 +5263,12 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A9B3B07-7751-4ECD-93CE-AEEE6AF32C6D}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:M37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="H4" sqref="H4"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4868,217 +5278,544 @@
     <col min="3" max="7" width="26.7109375" style="1" customWidth="1"/>
     <col min="8" max="9" width="27.140625" style="1" customWidth="1"/>
     <col min="10" max="10" width="27.5703125" style="1" customWidth="1"/>
+    <col min="11" max="13" width="9.140625" style="101"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="18" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="104" t="s">
-        <v>53</v>
-      </c>
-      <c r="B1" s="105" t="s">
-        <v>52</v>
-      </c>
-      <c r="C1" s="105" t="s">
+    <row r="1" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="87" t="s">
         <v>51</v>
       </c>
-      <c r="D1" s="105" t="s">
+      <c r="B1" s="88" t="s">
         <v>50</v>
       </c>
-      <c r="E1" s="105" t="s">
+      <c r="C1" s="88" t="s">
         <v>49</v>
       </c>
-      <c r="F1" s="105" t="s">
+      <c r="D1" s="88" t="s">
         <v>48</v>
       </c>
-      <c r="G1" s="105" t="s">
+      <c r="E1" s="88" t="s">
         <v>47</v>
       </c>
-      <c r="H1" s="105" t="s">
+      <c r="F1" s="88" t="s">
         <v>46</v>
       </c>
-      <c r="I1" s="105" t="s">
-        <v>293</v>
-      </c>
-      <c r="J1" s="105" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
-        <v>200</v>
-      </c>
-      <c r="B2" s="16" t="s">
+      <c r="G1" s="88" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" s="88" t="s">
+        <v>44</v>
+      </c>
+      <c r="I1" s="88" t="s">
+        <v>291</v>
+      </c>
+      <c r="J1" s="88" t="s">
+        <v>292</v>
+      </c>
+      <c r="K1" s="98"/>
+      <c r="L1" s="98"/>
+      <c r="M1" s="98"/>
+    </row>
+    <row r="2" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="186" t="s">
+        <v>198</v>
+      </c>
+      <c r="B2" s="185" t="s">
+        <v>309</v>
+      </c>
+      <c r="C2" s="188" t="s">
+        <v>340</v>
+      </c>
+      <c r="D2" s="189"/>
+      <c r="E2" s="189"/>
+      <c r="F2" s="189"/>
+      <c r="G2" s="189"/>
+      <c r="H2" s="189"/>
+      <c r="I2" s="189"/>
+      <c r="J2" s="189"/>
+      <c r="K2" s="98"/>
+      <c r="L2" s="98"/>
+      <c r="M2" s="98"/>
+    </row>
+    <row r="3" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="187"/>
+      <c r="B3" s="136"/>
+      <c r="C3" s="92"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="106"/>
+    </row>
+    <row r="4" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="183" t="s">
+        <v>197</v>
+      </c>
+      <c r="B4" s="177" t="s">
+        <v>310</v>
+      </c>
+      <c r="C4" s="180" t="s">
+        <v>339</v>
+      </c>
+      <c r="D4" s="181"/>
+      <c r="E4" s="181"/>
+      <c r="F4" s="181"/>
+      <c r="G4" s="181"/>
+      <c r="H4" s="181"/>
+      <c r="I4" s="181"/>
+      <c r="J4" s="181"/>
+      <c r="K4" s="98"/>
+      <c r="L4" s="98"/>
+      <c r="M4" s="98"/>
+    </row>
+    <row r="5" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="117"/>
+      <c r="B5" s="119"/>
+      <c r="C5" s="92"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="106"/>
+    </row>
+    <row r="6" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="183" t="s">
+        <v>196</v>
+      </c>
+      <c r="B6" s="177" t="s">
+        <v>311</v>
+      </c>
+      <c r="C6" s="180" t="s">
+        <v>338</v>
+      </c>
+      <c r="D6" s="181"/>
+      <c r="E6" s="181"/>
+      <c r="F6" s="181"/>
+      <c r="G6" s="181"/>
+      <c r="H6" s="181"/>
+      <c r="I6" s="181"/>
+      <c r="J6" s="181"/>
+      <c r="K6" s="98"/>
+      <c r="L6" s="98"/>
+      <c r="M6" s="98"/>
+    </row>
+    <row r="7" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="117"/>
+      <c r="B7" s="119"/>
+      <c r="C7" s="92"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="106"/>
+    </row>
+    <row r="8" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="116" t="s">
+        <v>195</v>
+      </c>
+      <c r="B8" s="118" t="s">
         <v>312</v>
       </c>
-      <c r="C2" s="52"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-    </row>
-    <row r="3" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
-        <v>199</v>
-      </c>
-      <c r="B3" s="62" t="s">
-        <v>313</v>
-      </c>
-      <c r="C3" s="31"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-    </row>
-    <row r="4" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
-        <v>198</v>
-      </c>
-      <c r="B4" s="80" t="s">
-        <v>314</v>
-      </c>
-      <c r="C4" s="51"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-    </row>
-    <row r="5" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="39" t="s">
-        <v>197</v>
-      </c>
-      <c r="B5" s="86" t="s">
-        <v>315</v>
-      </c>
-      <c r="C5" s="87"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="35"/>
-    </row>
-    <row r="6" spans="1:10" s="44" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="103" t="s">
-        <v>196</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>196</v>
-      </c>
-      <c r="C6" s="84"/>
-      <c r="D6" s="85"/>
-      <c r="E6" s="85"/>
-      <c r="F6" s="85"/>
-      <c r="G6" s="85"/>
-      <c r="H6" s="85"/>
-      <c r="I6" s="85"/>
-      <c r="J6" s="85"/>
-    </row>
-    <row r="7" spans="1:10" s="44" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="48" t="s">
-        <v>195</v>
-      </c>
-      <c r="B7" s="62" t="s">
-        <v>195</v>
-      </c>
-      <c r="C7" s="50"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45"/>
-      <c r="G7" s="45"/>
-      <c r="H7" s="45"/>
-      <c r="I7" s="45"/>
-      <c r="J7" s="45"/>
-    </row>
-    <row r="8" spans="1:10" s="44" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="48" t="s">
+      <c r="C8" s="180" t="s">
+        <v>337</v>
+      </c>
+      <c r="D8" s="181"/>
+      <c r="E8" s="181"/>
+      <c r="F8" s="181"/>
+      <c r="G8" s="181"/>
+      <c r="H8" s="181"/>
+      <c r="I8" s="181"/>
+      <c r="J8" s="181"/>
+      <c r="K8" s="98"/>
+      <c r="L8" s="98"/>
+      <c r="M8" s="98"/>
+    </row>
+    <row r="9" spans="1:13" s="97" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="184"/>
+      <c r="B9" s="178"/>
+      <c r="C9" s="95"/>
+      <c r="D9" s="96"/>
+      <c r="E9" s="96"/>
+      <c r="F9" s="96"/>
+      <c r="G9" s="96"/>
+      <c r="H9" s="96"/>
+      <c r="I9" s="96"/>
+      <c r="J9" s="107"/>
+      <c r="K9" s="101"/>
+      <c r="L9" s="101"/>
+      <c r="M9" s="101"/>
+    </row>
+    <row r="10" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="175" t="s">
         <v>194</v>
       </c>
-      <c r="B8" s="62" t="s">
-        <v>194</v>
-      </c>
-      <c r="C8" s="50"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="45"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="45"/>
-      <c r="J8" s="45"/>
-    </row>
-    <row r="9" spans="1:10" s="44" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="48" t="s">
+      <c r="B10" s="177" t="s">
+        <v>324</v>
+      </c>
+      <c r="C10" s="180" t="s">
+        <v>336</v>
+      </c>
+      <c r="D10" s="181"/>
+      <c r="E10" s="181"/>
+      <c r="F10" s="181"/>
+      <c r="G10" s="181"/>
+      <c r="H10" s="181"/>
+      <c r="I10" s="181"/>
+      <c r="J10" s="181"/>
+      <c r="K10" s="98"/>
+      <c r="L10" s="98"/>
+      <c r="M10" s="98"/>
+    </row>
+    <row r="11" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="182"/>
+      <c r="B11" s="119"/>
+      <c r="C11" s="92"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="106"/>
+    </row>
+    <row r="12" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="175" t="s">
         <v>193</v>
       </c>
-      <c r="B9" s="62" t="s">
-        <v>193</v>
-      </c>
-      <c r="C9" s="49"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="45"/>
-      <c r="G9" s="45"/>
-      <c r="H9" s="45"/>
-      <c r="I9" s="45"/>
-      <c r="J9" s="45"/>
-    </row>
-    <row r="10" spans="1:10" s="44" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="48" t="s">
+      <c r="B12" s="177" t="s">
+        <v>323</v>
+      </c>
+      <c r="C12" s="173" t="s">
+        <v>335</v>
+      </c>
+      <c r="D12" s="174"/>
+      <c r="E12" s="174"/>
+      <c r="F12" s="174"/>
+      <c r="G12" s="174"/>
+      <c r="H12" s="174"/>
+      <c r="I12" s="174"/>
+      <c r="J12" s="174"/>
+      <c r="K12" s="98"/>
+      <c r="L12" s="98"/>
+      <c r="M12" s="98"/>
+    </row>
+    <row r="13" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="182"/>
+      <c r="B13" s="119"/>
+      <c r="C13" s="92"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="106"/>
+    </row>
+    <row r="14" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="175" t="s">
+        <v>321</v>
+      </c>
+      <c r="B14" s="177" t="s">
+        <v>322</v>
+      </c>
+      <c r="C14" s="180" t="s">
+        <v>347</v>
+      </c>
+      <c r="D14" s="181"/>
+      <c r="E14" s="181"/>
+      <c r="F14" s="181"/>
+      <c r="G14" s="181"/>
+      <c r="H14" s="181"/>
+      <c r="I14" s="181"/>
+      <c r="J14" s="181"/>
+      <c r="K14" s="98"/>
+      <c r="L14" s="98"/>
+      <c r="M14" s="98"/>
+    </row>
+    <row r="15" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="182"/>
+      <c r="B15" s="119"/>
+      <c r="C15" s="92"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="106"/>
+    </row>
+    <row r="16" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="175" t="s">
         <v>192</v>
       </c>
-      <c r="B10" s="79" t="s">
-        <v>192</v>
-      </c>
-      <c r="C10" s="46"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="45"/>
-      <c r="G10" s="45"/>
-      <c r="H10" s="45"/>
-      <c r="I10" s="45"/>
-      <c r="J10" s="45"/>
-    </row>
-    <row r="11" spans="1:10" s="44" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="48" t="s">
+      <c r="B16" s="177" t="s">
+        <v>325</v>
+      </c>
+      <c r="C16" s="180" t="s">
+        <v>334</v>
+      </c>
+      <c r="D16" s="181"/>
+      <c r="E16" s="181"/>
+      <c r="F16" s="181"/>
+      <c r="G16" s="181"/>
+      <c r="H16" s="181"/>
+      <c r="I16" s="181"/>
+      <c r="J16" s="181"/>
+      <c r="K16" s="98"/>
+      <c r="L16" s="98"/>
+      <c r="M16" s="98"/>
+    </row>
+    <row r="17" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="182"/>
+      <c r="B17" s="119"/>
+      <c r="C17" s="92"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="106"/>
+    </row>
+    <row r="18" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="179" t="s">
         <v>191</v>
       </c>
-      <c r="B11" s="79" t="s">
-        <v>191</v>
-      </c>
-      <c r="C11" s="46"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="45"/>
-      <c r="G11" s="45"/>
-      <c r="H11" s="45"/>
-      <c r="I11" s="45"/>
-      <c r="J11" s="45"/>
-    </row>
-    <row r="12" spans="1:10" s="44" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="48" t="s">
+      <c r="B18" s="118" t="s">
+        <v>327</v>
+      </c>
+      <c r="C18" s="180" t="s">
+        <v>330</v>
+      </c>
+      <c r="D18" s="181"/>
+      <c r="E18" s="181"/>
+      <c r="F18" s="181"/>
+      <c r="G18" s="181"/>
+      <c r="H18" s="181"/>
+      <c r="I18" s="181"/>
+      <c r="J18" s="181"/>
+      <c r="K18" s="98"/>
+      <c r="L18" s="98"/>
+      <c r="M18" s="98"/>
+    </row>
+    <row r="19" spans="1:13" s="101" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="172"/>
+      <c r="B19" s="136"/>
+      <c r="C19" s="104" t="s">
+        <v>342</v>
+      </c>
+      <c r="D19" s="100"/>
+      <c r="E19" s="100"/>
+      <c r="F19" s="100"/>
+      <c r="G19" s="100"/>
+      <c r="H19" s="100"/>
+      <c r="I19" s="100"/>
+      <c r="J19" s="108"/>
+    </row>
+    <row r="20" spans="1:13" s="102" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="171" t="s">
         <v>190</v>
       </c>
-      <c r="B12" s="79" t="s">
-        <v>190</v>
-      </c>
-      <c r="C12" s="47"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="45"/>
-      <c r="G12" s="45"/>
-      <c r="H12" s="45"/>
-      <c r="I12" s="45"/>
-      <c r="J12" s="45"/>
+      <c r="B20" s="135" t="s">
+        <v>326</v>
+      </c>
+      <c r="C20" s="173" t="s">
+        <v>331</v>
+      </c>
+      <c r="D20" s="174"/>
+      <c r="E20" s="174"/>
+      <c r="F20" s="174"/>
+      <c r="G20" s="174"/>
+      <c r="H20" s="174"/>
+      <c r="I20" s="174"/>
+      <c r="J20" s="174"/>
+      <c r="K20" s="98"/>
+      <c r="L20" s="98"/>
+      <c r="M20" s="98"/>
+    </row>
+    <row r="21" spans="1:13" s="99" customFormat="1" ht="150" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="172"/>
+      <c r="B21" s="136"/>
+      <c r="C21" s="104" t="s">
+        <v>341</v>
+      </c>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="106"/>
+      <c r="K21" s="101"/>
+      <c r="L21" s="101"/>
+      <c r="M21" s="101"/>
+    </row>
+    <row r="22" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="171" t="s">
+        <v>189</v>
+      </c>
+      <c r="B22" s="135" t="s">
+        <v>328</v>
+      </c>
+      <c r="C22" s="173" t="s">
+        <v>332</v>
+      </c>
+      <c r="D22" s="174"/>
+      <c r="E22" s="174"/>
+      <c r="F22" s="174"/>
+      <c r="G22" s="174"/>
+      <c r="H22" s="174"/>
+      <c r="I22" s="174"/>
+      <c r="J22" s="174"/>
+      <c r="K22" s="98"/>
+      <c r="L22" s="98"/>
+      <c r="M22" s="98"/>
+    </row>
+    <row r="23" spans="1:13" s="101" customFormat="1" ht="210" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="172"/>
+      <c r="B23" s="136"/>
+      <c r="C23" s="104" t="s">
+        <v>343</v>
+      </c>
+      <c r="D23" s="100"/>
+      <c r="E23" s="100"/>
+      <c r="F23" s="100"/>
+      <c r="G23" s="100"/>
+      <c r="H23" s="100"/>
+      <c r="I23" s="100"/>
+      <c r="J23" s="108"/>
+    </row>
+    <row r="24" spans="1:13" s="103" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="175" t="s">
+        <v>188</v>
+      </c>
+      <c r="B24" s="177" t="s">
+        <v>329</v>
+      </c>
+      <c r="C24" s="173" t="s">
+        <v>333</v>
+      </c>
+      <c r="D24" s="174"/>
+      <c r="E24" s="174"/>
+      <c r="F24" s="174"/>
+      <c r="G24" s="174"/>
+      <c r="H24" s="174"/>
+      <c r="I24" s="174"/>
+      <c r="J24" s="174"/>
+      <c r="K24" s="98"/>
+      <c r="L24" s="98"/>
+      <c r="M24" s="98"/>
+    </row>
+    <row r="25" spans="1:13" s="97" customFormat="1" ht="285" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="176"/>
+      <c r="B25" s="178"/>
+      <c r="C25" s="105" t="s">
+        <v>344</v>
+      </c>
+      <c r="D25" s="96"/>
+      <c r="E25" s="96"/>
+      <c r="F25" s="96"/>
+      <c r="G25" s="96"/>
+      <c r="H25" s="105" t="s">
+        <v>345</v>
+      </c>
+      <c r="I25" s="96"/>
+      <c r="J25" s="109" t="s">
+        <v>346</v>
+      </c>
+      <c r="K25" s="101"/>
+      <c r="L25" s="101"/>
+      <c r="M25" s="101"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B26" s="94"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B27" s="94"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B28" s="94"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B29" s="94"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B30" s="94"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B31" s="94"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B32" s="94"/>
+    </row>
+    <row r="33" spans="2:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="B33" s="94" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="B34" s="94" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="B35" s="94" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="B36" s="94" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B37" s="94"/>
     </row>
   </sheetData>
+  <mergeCells count="36">
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="C2:J2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:J4"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:J8"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:J10"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:J12"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:J14"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:J16"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:J18"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:J20"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:J22"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:J24"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Tags and Affinities.xlsx
+++ b/Tags and Affinities.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CK.DESKTOP-BR5NVLN\Documents\Git Repositories\Creative\materials_and_crafting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B44FDD01-17B7-4442-9FE9-41C948F51F82}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53031307-48AE-491C-B43C-0FAAEC6B96E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{8FD76562-234B-40A6-8AC6-52675E21BBDC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="2" xr2:uid="{8FD76562-234B-40A6-8AC6-52675E21BBDC}"/>
   </bookViews>
   <sheets>
     <sheet name="COMPONENT TAGS" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="366">
   <si>
     <t>This component's weapon can be wound up in preparation for a powerful strike, however its strikes take a while to rewind.</t>
   </si>
@@ -1837,6 +1837,81 @@
   </si>
   <si>
     <t>This material increases the emission radius of enchantment spells that conduct through it by a number of inches equal to its nyxian affinity.</t>
+  </si>
+  <si>
+    <t>Movement causes tremors</t>
+  </si>
+  <si>
+    <t>Flask stores soul</t>
+  </si>
+  <si>
+    <t>Random movement size</t>
+  </si>
+  <si>
+    <t>Random AC</t>
+  </si>
+  <si>
+    <t>This helmet thrashes with volatile elemental energy. Whenever you roll damage on a breath weapon while wearing this helmet, roll a 1d10 for each damage type in this list.
+1 / Acid
+2 / Cold
+3 / Fire
+4 / Force
+5 / Lightning
+6 / Poison
+7 / Psychic
+8 / Thunder
+9 / Radiant
+10 / Necrotic
+Replace each of your damage types with the types you obtained from their rolls.</t>
+  </si>
+  <si>
+    <t>When you make an attack with this weapon, you can charge your weapon with radiant energy, firing a blasting wave of light that illuminates all things.
+The space you target is the origin of the wave, which must be directed away from you (when applicable). You choose the form of the wave’s area from the following options:
+ • A 5-foot-wide line with a length of 10 feet per luthian affinity.
+ • A cone of size 5 feet per luthian affinity.
+ • A radius-area 10 feet per 3 luthian affinity centered on the point of impact.
+All creatures (except you) within the affected area must succeed on a Constitution saving throw equal to 10 + (2 * luthian affinity) or take 2d10 points of radiant damage per luthian affinity, bathed in an illuminating light. A successful saving throw halves the damage and prevents the illumination. This illuminating light forces disadvantage on Stealth checks to hide, and nullifies invisibility.
+Once this ability has been used, it can no longer be used until the weapon has spent a long rest bathed in the energies of a holy site.</t>
+  </si>
+  <si>
+    <t>As a reaction when you take damage or when you die, you may explode in blazing wings of phoenix flame.
+Each creature within a radius 10 times this cloak's ignan affinity must make a Dexterity saving throw equal to 10 + (2 * ignan affinity) or take 1d10 fire damage per ignan affinity and be set aflame at a grade equal to the cloak's ignan affinity.
+The explosion reduces you to 0 hit points if you are not dead, and incases you in an glowing obsidian egg, granting you total cover from all effects outside of it. The egg is resistant to all damage,  has hit points equal to 10 times the cloak's ignan affinity, and has an AC of 8 + ignan affinity. While you are incased in this egg, you regain hit points equal to the cloak's ignan affinity at the start of each of your turns.
+Once this ability has been used, it can no longer be used until the weapon has spent a long rest bathed in magma.</t>
+  </si>
+  <si>
+    <t>When ingested, this potion grants resistance to radiant damage.</t>
+  </si>
+  <si>
+    <t>When ingested, this potion grants resistance to lightning damage.</t>
+  </si>
+  <si>
+    <t>When ingested, this potion grants resistance to poison and acid damage.</t>
+  </si>
+  <si>
+    <t>When ingested, this potion grants resistance to cold damage.</t>
+  </si>
+  <si>
+    <t>When ingested, this potion grants resistance to fire damage.</t>
+  </si>
+  <si>
+    <t>When ingested, this potion grants resistance to necrotic damage.</t>
+  </si>
+  <si>
+    <t>When ingested, this potion grants resistance to psychic damage.</t>
+  </si>
+  <si>
+    <t>When ingested, this potion grants resistance to force damage.</t>
+  </si>
+  <si>
+    <t>While you wear this helmet, you have truesight at a radius equal to 10 times its auran affinity.</t>
+  </si>
+  <si>
+    <t>While you wear these boots, you gain the ability to step from one shadow into another.
+When you are in dim light or darkness, as a bonus action you can teleport out to a radius equal to 20 times these boots' erebian affinity to an unoccupied space you can see that is also in dim light or darkness.</t>
+  </si>
+  <si>
+    <t>As an action while you wield this staff, you may conjure a large wave of water that pushes all creatures in a line.</t>
   </si>
 </sst>
 </file>
@@ -1886,7 +1961,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="71">
+  <borders count="72">
     <border>
       <left/>
       <right/>
@@ -2749,8 +2824,27 @@
       <left style="thin">
         <color theme="0" tint="-0.34998626667073579"/>
       </left>
-      <right/>
-      <top/>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -2760,7 +2854,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="190">
+  <cellXfs count="197">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3025,9 +3119,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3060,15 +3151,15 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="70" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3078,6 +3169,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3086,6 +3213,117 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="58" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -3099,214 +3337,91 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="58" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="65" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="70" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="71" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="70" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3628,7 +3743,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
+      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3950,7 +4065,7 @@
       <c r="J16" s="44"/>
     </row>
     <row r="17" spans="1:10" s="73" customFormat="1" ht="225" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="93" t="s">
+      <c r="A17" s="92" t="s">
         <v>234</v>
       </c>
       <c r="B17" s="23" t="s">
@@ -3976,15 +4091,15 @@
       <c r="B18" s="77" t="s">
         <v>318</v>
       </c>
-      <c r="C18" s="110" t="s">
+      <c r="C18" s="109" t="s">
         <v>319</v>
       </c>
-      <c r="D18" s="111"/>
-      <c r="E18" s="111"/>
-      <c r="F18" s="111"/>
-      <c r="G18" s="111"/>
-      <c r="H18" s="111"/>
-      <c r="I18" s="112"/>
+      <c r="D18" s="110"/>
+      <c r="E18" s="110"/>
+      <c r="F18" s="110"/>
+      <c r="G18" s="110"/>
+      <c r="H18" s="110"/>
+      <c r="I18" s="111"/>
       <c r="J18" s="35"/>
     </row>
   </sheetData>
@@ -4001,10 +4116,10 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:J54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="D4" sqref="D4:G4"/>
+      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4056,47 +4171,47 @@
       <c r="B2" s="16" t="s">
         <v>186</v>
       </c>
-      <c r="C2" s="153" t="s">
+      <c r="C2" s="134" t="s">
         <v>185</v>
       </c>
-      <c r="D2" s="154"/>
-      <c r="E2" s="154"/>
-      <c r="F2" s="154"/>
-      <c r="G2" s="154"/>
-      <c r="H2" s="154"/>
-      <c r="I2" s="155"/>
+      <c r="D2" s="135"/>
+      <c r="E2" s="135"/>
+      <c r="F2" s="135"/>
+      <c r="G2" s="135"/>
+      <c r="H2" s="135"/>
+      <c r="I2" s="136"/>
       <c r="J2" s="78"/>
     </row>
     <row r="3" spans="1:10" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="116" t="s">
+      <c r="A3" s="164" t="s">
         <v>184</v>
       </c>
-      <c r="B3" s="118" t="s">
+      <c r="B3" s="166" t="s">
         <v>260</v>
       </c>
-      <c r="C3" s="113" t="s">
+      <c r="C3" s="124" t="s">
         <v>320</v>
       </c>
-      <c r="D3" s="114"/>
-      <c r="E3" s="114"/>
-      <c r="F3" s="114"/>
-      <c r="G3" s="114"/>
-      <c r="H3" s="114"/>
-      <c r="I3" s="114"/>
-      <c r="J3" s="115"/>
+      <c r="D3" s="125"/>
+      <c r="E3" s="125"/>
+      <c r="F3" s="125"/>
+      <c r="G3" s="125"/>
+      <c r="H3" s="125"/>
+      <c r="I3" s="125"/>
+      <c r="J3" s="126"/>
     </row>
     <row r="4" spans="1:10" s="18" customFormat="1" ht="165" x14ac:dyDescent="0.25">
-      <c r="A4" s="117"/>
-      <c r="B4" s="119"/>
+      <c r="A4" s="165"/>
+      <c r="B4" s="167"/>
       <c r="C4" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="D4" s="141" t="s">
+      <c r="D4" s="147" t="s">
         <v>182</v>
       </c>
-      <c r="E4" s="141"/>
-      <c r="F4" s="141"/>
-      <c r="G4" s="141"/>
+      <c r="E4" s="147"/>
+      <c r="F4" s="147"/>
+      <c r="G4" s="147"/>
       <c r="H4" s="54" t="s">
         <v>181</v>
       </c>
@@ -4112,15 +4227,15 @@
       <c r="B5" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="C5" s="113" t="s">
+      <c r="C5" s="124" t="s">
         <v>178</v>
       </c>
-      <c r="D5" s="114"/>
-      <c r="E5" s="114"/>
-      <c r="F5" s="114"/>
-      <c r="G5" s="114"/>
-      <c r="H5" s="114"/>
-      <c r="I5" s="115"/>
+      <c r="D5" s="125"/>
+      <c r="E5" s="125"/>
+      <c r="F5" s="125"/>
+      <c r="G5" s="125"/>
+      <c r="H5" s="125"/>
+      <c r="I5" s="126"/>
       <c r="J5" s="80"/>
     </row>
     <row r="6" spans="1:10" s="18" customFormat="1" ht="75" x14ac:dyDescent="0.25">
@@ -4131,12 +4246,12 @@
         <v>259</v>
       </c>
       <c r="C6" s="31"/>
-      <c r="D6" s="141" t="s">
+      <c r="D6" s="147" t="s">
         <v>177</v>
       </c>
-      <c r="E6" s="141"/>
-      <c r="F6" s="141"/>
-      <c r="G6" s="141"/>
+      <c r="E6" s="147"/>
+      <c r="F6" s="147"/>
+      <c r="G6" s="147"/>
       <c r="H6" s="54" t="s">
         <v>176</v>
       </c>
@@ -4152,15 +4267,15 @@
       <c r="B7" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="C7" s="113" t="s">
+      <c r="C7" s="124" t="s">
         <v>173</v>
       </c>
-      <c r="D7" s="114"/>
-      <c r="E7" s="114"/>
-      <c r="F7" s="114"/>
-      <c r="G7" s="114"/>
-      <c r="H7" s="114"/>
-      <c r="I7" s="115"/>
+      <c r="D7" s="125"/>
+      <c r="E7" s="125"/>
+      <c r="F7" s="125"/>
+      <c r="G7" s="125"/>
+      <c r="H7" s="125"/>
+      <c r="I7" s="126"/>
       <c r="J7" s="80"/>
     </row>
     <row r="8" spans="1:10" s="18" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -4170,16 +4285,16 @@
       <c r="B8" s="6" t="s">
         <v>258</v>
       </c>
-      <c r="C8" s="113" t="s">
+      <c r="C8" s="124" t="s">
         <v>171</v>
       </c>
-      <c r="D8" s="114"/>
-      <c r="E8" s="114"/>
-      <c r="F8" s="114"/>
-      <c r="G8" s="114"/>
-      <c r="H8" s="114"/>
-      <c r="I8" s="114"/>
-      <c r="J8" s="115"/>
+      <c r="D8" s="125"/>
+      <c r="E8" s="125"/>
+      <c r="F8" s="125"/>
+      <c r="G8" s="125"/>
+      <c r="H8" s="125"/>
+      <c r="I8" s="125"/>
+      <c r="J8" s="126"/>
     </row>
     <row r="9" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="42" t="s">
@@ -4188,15 +4303,15 @@
       <c r="B9" s="6" t="s">
         <v>257</v>
       </c>
-      <c r="C9" s="113" t="s">
+      <c r="C9" s="124" t="s">
         <v>169</v>
       </c>
-      <c r="D9" s="114"/>
-      <c r="E9" s="114"/>
-      <c r="F9" s="114"/>
-      <c r="G9" s="114"/>
-      <c r="H9" s="114"/>
-      <c r="I9" s="115"/>
+      <c r="D9" s="125"/>
+      <c r="E9" s="125"/>
+      <c r="F9" s="125"/>
+      <c r="G9" s="125"/>
+      <c r="H9" s="125"/>
+      <c r="I9" s="126"/>
       <c r="J9" s="59"/>
     </row>
     <row r="10" spans="1:10" ht="90" customHeight="1" x14ac:dyDescent="0.25">
@@ -4206,14 +4321,14 @@
       <c r="B10" s="69" t="s">
         <v>261</v>
       </c>
-      <c r="C10" s="113" t="s">
+      <c r="C10" s="124" t="s">
         <v>263</v>
       </c>
-      <c r="D10" s="114"/>
-      <c r="E10" s="114"/>
-      <c r="F10" s="114"/>
-      <c r="G10" s="114"/>
-      <c r="H10" s="115"/>
+      <c r="D10" s="125"/>
+      <c r="E10" s="125"/>
+      <c r="F10" s="125"/>
+      <c r="G10" s="125"/>
+      <c r="H10" s="126"/>
       <c r="I10" s="4"/>
       <c r="J10" s="70" t="s">
         <v>262</v>
@@ -4243,7 +4358,7 @@
       <c r="I11" s="61" t="s">
         <v>246</v>
       </c>
-      <c r="J11" s="120"/>
+      <c r="J11" s="127"/>
     </row>
     <row r="12" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
@@ -4255,15 +4370,15 @@
       <c r="C12" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="D12" s="126"/>
-      <c r="E12" s="127"/>
-      <c r="F12" s="128"/>
-      <c r="G12" s="128"/>
-      <c r="H12" s="128"/>
+      <c r="D12" s="112"/>
+      <c r="E12" s="118"/>
+      <c r="F12" s="158"/>
+      <c r="G12" s="158"/>
+      <c r="H12" s="158"/>
       <c r="I12" s="61" t="s">
         <v>294</v>
       </c>
-      <c r="J12" s="121"/>
+      <c r="J12" s="162"/>
     </row>
     <row r="13" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
@@ -4291,20 +4406,20 @@
       <c r="I13" s="60" t="s">
         <v>241</v>
       </c>
-      <c r="J13" s="121"/>
+      <c r="J13" s="162"/>
     </row>
     <row r="14" spans="1:10" ht="135" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="142" t="s">
+      <c r="A14" s="168" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="143" t="s">
+      <c r="B14" s="154" t="s">
         <v>157</v>
       </c>
       <c r="C14" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="D14" s="126"/>
-      <c r="E14" s="137"/>
+      <c r="D14" s="112"/>
+      <c r="E14" s="113"/>
       <c r="F14" s="32" t="s">
         <v>238</v>
       </c>
@@ -4315,34 +4430,34 @@
       <c r="I14" s="63" t="s">
         <v>243</v>
       </c>
-      <c r="J14" s="121"/>
+      <c r="J14" s="162"/>
     </row>
     <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="142"/>
-      <c r="B15" s="143"/>
-      <c r="C15" s="156" t="s">
+      <c r="A15" s="168"/>
+      <c r="B15" s="154"/>
+      <c r="C15" s="143" t="s">
         <v>155</v>
       </c>
-      <c r="D15" s="157"/>
-      <c r="E15" s="157"/>
-      <c r="F15" s="157"/>
-      <c r="G15" s="157"/>
-      <c r="H15" s="157"/>
-      <c r="I15" s="158"/>
-      <c r="J15" s="121"/>
+      <c r="D15" s="144"/>
+      <c r="E15" s="144"/>
+      <c r="F15" s="144"/>
+      <c r="G15" s="144"/>
+      <c r="H15" s="144"/>
+      <c r="I15" s="145"/>
+      <c r="J15" s="162"/>
     </row>
     <row r="16" spans="1:10" ht="120" x14ac:dyDescent="0.25">
-      <c r="A16" s="142" t="s">
+      <c r="A16" s="168" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="143" t="s">
+      <c r="B16" s="154" t="s">
         <v>154</v>
       </c>
       <c r="C16" s="30" t="s">
         <v>153</v>
       </c>
-      <c r="D16" s="129"/>
-      <c r="E16" s="130"/>
+      <c r="D16" s="155"/>
+      <c r="E16" s="142"/>
       <c r="F16" s="60" t="s">
         <v>152</v>
       </c>
@@ -4353,21 +4468,21 @@
       <c r="I16" s="64" t="s">
         <v>244</v>
       </c>
-      <c r="J16" s="121"/>
+      <c r="J16" s="162"/>
     </row>
     <row r="17" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="142"/>
-      <c r="B17" s="144"/>
-      <c r="C17" s="159" t="s">
+      <c r="A17" s="168"/>
+      <c r="B17" s="169"/>
+      <c r="C17" s="146" t="s">
         <v>151</v>
       </c>
-      <c r="D17" s="141"/>
-      <c r="E17" s="141"/>
-      <c r="F17" s="141"/>
-      <c r="G17" s="141"/>
-      <c r="H17" s="141"/>
-      <c r="I17" s="141"/>
-      <c r="J17" s="122"/>
+      <c r="D17" s="147"/>
+      <c r="E17" s="147"/>
+      <c r="F17" s="147"/>
+      <c r="G17" s="147"/>
+      <c r="H17" s="147"/>
+      <c r="I17" s="147"/>
+      <c r="J17" s="128"/>
     </row>
     <row r="18" spans="1:10" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="90" t="s">
@@ -4376,13 +4491,13 @@
       <c r="B18" s="91" t="s">
         <v>315</v>
       </c>
-      <c r="C18" s="131"/>
-      <c r="D18" s="132"/>
-      <c r="E18" s="132"/>
-      <c r="F18" s="132"/>
-      <c r="G18" s="132"/>
-      <c r="H18" s="132"/>
-      <c r="I18" s="130"/>
+      <c r="C18" s="163"/>
+      <c r="D18" s="141"/>
+      <c r="E18" s="141"/>
+      <c r="F18" s="141"/>
+      <c r="G18" s="141"/>
+      <c r="H18" s="141"/>
+      <c r="I18" s="142"/>
       <c r="J18" s="46" t="s">
         <v>313</v>
       </c>
@@ -4394,14 +4509,14 @@
       <c r="B19" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="C19" s="113" t="s">
+      <c r="C19" s="124" t="s">
         <v>279</v>
       </c>
-      <c r="D19" s="114"/>
-      <c r="E19" s="114"/>
-      <c r="F19" s="114"/>
-      <c r="G19" s="114"/>
-      <c r="H19" s="115"/>
+      <c r="D19" s="125"/>
+      <c r="E19" s="125"/>
+      <c r="F19" s="125"/>
+      <c r="G19" s="125"/>
+      <c r="H19" s="126"/>
       <c r="I19" s="81"/>
       <c r="J19" s="62" t="s">
         <v>280</v>
@@ -4414,16 +4529,16 @@
       <c r="B20" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="C20" s="123" t="s">
+      <c r="C20" s="114" t="s">
         <v>146</v>
       </c>
-      <c r="D20" s="124"/>
-      <c r="E20" s="124"/>
-      <c r="F20" s="124"/>
-      <c r="G20" s="124"/>
-      <c r="H20" s="124"/>
-      <c r="I20" s="124"/>
-      <c r="J20" s="125"/>
+      <c r="D20" s="115"/>
+      <c r="E20" s="115"/>
+      <c r="F20" s="115"/>
+      <c r="G20" s="115"/>
+      <c r="H20" s="115"/>
+      <c r="I20" s="115"/>
+      <c r="J20" s="116"/>
     </row>
     <row r="21" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
@@ -4432,16 +4547,16 @@
       <c r="B21" s="40" t="s">
         <v>144</v>
       </c>
-      <c r="C21" s="123" t="s">
+      <c r="C21" s="114" t="s">
         <v>143</v>
       </c>
-      <c r="D21" s="124"/>
-      <c r="E21" s="124"/>
-      <c r="F21" s="124"/>
-      <c r="G21" s="124"/>
-      <c r="H21" s="124"/>
-      <c r="I21" s="124"/>
-      <c r="J21" s="125"/>
+      <c r="D21" s="115"/>
+      <c r="E21" s="115"/>
+      <c r="F21" s="115"/>
+      <c r="G21" s="115"/>
+      <c r="H21" s="115"/>
+      <c r="I21" s="115"/>
+      <c r="J21" s="116"/>
     </row>
     <row r="22" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
@@ -4450,16 +4565,16 @@
       <c r="B22" s="40" t="s">
         <v>200</v>
       </c>
-      <c r="C22" s="123" t="s">
+      <c r="C22" s="114" t="s">
         <v>201</v>
       </c>
-      <c r="D22" s="124"/>
-      <c r="E22" s="124"/>
-      <c r="F22" s="124"/>
-      <c r="G22" s="124"/>
-      <c r="H22" s="124"/>
-      <c r="I22" s="124"/>
-      <c r="J22" s="125"/>
+      <c r="D22" s="115"/>
+      <c r="E22" s="115"/>
+      <c r="F22" s="115"/>
+      <c r="G22" s="115"/>
+      <c r="H22" s="115"/>
+      <c r="I22" s="115"/>
+      <c r="J22" s="116"/>
     </row>
     <row r="23" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
@@ -4468,16 +4583,16 @@
       <c r="B23" s="40" t="s">
         <v>141</v>
       </c>
-      <c r="C23" s="123" t="s">
+      <c r="C23" s="114" t="s">
         <v>140</v>
       </c>
-      <c r="D23" s="124"/>
-      <c r="E23" s="124"/>
-      <c r="F23" s="124"/>
-      <c r="G23" s="124"/>
-      <c r="H23" s="124"/>
-      <c r="I23" s="124"/>
-      <c r="J23" s="125"/>
+      <c r="D23" s="115"/>
+      <c r="E23" s="115"/>
+      <c r="F23" s="115"/>
+      <c r="G23" s="115"/>
+      <c r="H23" s="115"/>
+      <c r="I23" s="115"/>
+      <c r="J23" s="116"/>
     </row>
     <row r="24" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
@@ -4486,16 +4601,16 @@
       <c r="B24" s="40" t="s">
         <v>203</v>
       </c>
-      <c r="C24" s="123" t="s">
+      <c r="C24" s="114" t="s">
         <v>204</v>
       </c>
-      <c r="D24" s="124"/>
-      <c r="E24" s="124"/>
-      <c r="F24" s="124"/>
-      <c r="G24" s="124"/>
-      <c r="H24" s="124"/>
-      <c r="I24" s="124"/>
-      <c r="J24" s="125"/>
+      <c r="D24" s="115"/>
+      <c r="E24" s="115"/>
+      <c r="F24" s="115"/>
+      <c r="G24" s="115"/>
+      <c r="H24" s="115"/>
+      <c r="I24" s="115"/>
+      <c r="J24" s="116"/>
     </row>
     <row r="25" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
@@ -4504,16 +4619,16 @@
       <c r="B25" s="40" t="s">
         <v>138</v>
       </c>
-      <c r="C25" s="123" t="s">
+      <c r="C25" s="114" t="s">
         <v>137</v>
       </c>
-      <c r="D25" s="124"/>
-      <c r="E25" s="124"/>
-      <c r="F25" s="124"/>
-      <c r="G25" s="124"/>
-      <c r="H25" s="124"/>
-      <c r="I25" s="124"/>
-      <c r="J25" s="125"/>
+      <c r="D25" s="115"/>
+      <c r="E25" s="115"/>
+      <c r="F25" s="115"/>
+      <c r="G25" s="115"/>
+      <c r="H25" s="115"/>
+      <c r="I25" s="115"/>
+      <c r="J25" s="116"/>
     </row>
     <row r="26" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
@@ -4522,16 +4637,16 @@
       <c r="B26" s="40" t="s">
         <v>135</v>
       </c>
-      <c r="C26" s="123" t="s">
+      <c r="C26" s="114" t="s">
         <v>134</v>
       </c>
-      <c r="D26" s="124"/>
-      <c r="E26" s="124"/>
-      <c r="F26" s="124"/>
-      <c r="G26" s="124"/>
-      <c r="H26" s="124"/>
-      <c r="I26" s="124"/>
-      <c r="J26" s="125"/>
+      <c r="D26" s="115"/>
+      <c r="E26" s="115"/>
+      <c r="F26" s="115"/>
+      <c r="G26" s="115"/>
+      <c r="H26" s="115"/>
+      <c r="I26" s="115"/>
+      <c r="J26" s="116"/>
     </row>
     <row r="27" spans="1:10" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="39" t="s">
@@ -4550,8 +4665,8 @@
       <c r="F27" s="45" t="s">
         <v>208</v>
       </c>
-      <c r="G27" s="151"/>
-      <c r="H27" s="152"/>
+      <c r="G27" s="156"/>
+      <c r="H27" s="157"/>
       <c r="I27" s="36" t="s">
         <v>295</v>
       </c>
@@ -4566,16 +4681,16 @@
       <c r="B28" s="33" t="s">
         <v>129</v>
       </c>
-      <c r="C28" s="138" t="s">
+      <c r="C28" s="159" t="s">
         <v>128</v>
       </c>
-      <c r="D28" s="139"/>
-      <c r="E28" s="139"/>
-      <c r="F28" s="139"/>
-      <c r="G28" s="139"/>
-      <c r="H28" s="139"/>
-      <c r="I28" s="139"/>
-      <c r="J28" s="140"/>
+      <c r="D28" s="160"/>
+      <c r="E28" s="160"/>
+      <c r="F28" s="160"/>
+      <c r="G28" s="160"/>
+      <c r="H28" s="160"/>
+      <c r="I28" s="160"/>
+      <c r="J28" s="161"/>
     </row>
     <row r="29" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="34" t="s">
@@ -4584,16 +4699,16 @@
       <c r="B29" s="33" t="s">
         <v>126</v>
       </c>
-      <c r="C29" s="145" t="s">
+      <c r="C29" s="139" t="s">
         <v>125</v>
       </c>
-      <c r="D29" s="146"/>
-      <c r="E29" s="146"/>
-      <c r="F29" s="146"/>
-      <c r="G29" s="146"/>
-      <c r="H29" s="146"/>
-      <c r="I29" s="147"/>
-      <c r="J29" s="120"/>
+      <c r="D29" s="152"/>
+      <c r="E29" s="152"/>
+      <c r="F29" s="152"/>
+      <c r="G29" s="152"/>
+      <c r="H29" s="152"/>
+      <c r="I29" s="153"/>
+      <c r="J29" s="127"/>
     </row>
     <row r="30" spans="1:10" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="34" t="s">
@@ -4605,19 +4720,19 @@
       <c r="C30" s="53" t="s">
         <v>122</v>
       </c>
-      <c r="D30" s="149"/>
-      <c r="E30" s="150"/>
+      <c r="D30" s="132"/>
+      <c r="E30" s="133"/>
       <c r="F30" s="41" t="s">
         <v>121</v>
       </c>
       <c r="G30" s="41" t="s">
         <v>120</v>
       </c>
-      <c r="H30" s="129"/>
+      <c r="H30" s="155"/>
       <c r="I30" s="61" t="s">
         <v>248</v>
       </c>
-      <c r="J30" s="121"/>
+      <c r="J30" s="162"/>
     </row>
     <row r="31" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A31" s="24" t="s">
@@ -4641,11 +4756,11 @@
       <c r="G31" s="60" t="s">
         <v>113</v>
       </c>
-      <c r="H31" s="148"/>
+      <c r="H31" s="122"/>
       <c r="I31" s="61" t="s">
         <v>250</v>
       </c>
-      <c r="J31" s="122"/>
+      <c r="J31" s="128"/>
     </row>
     <row r="32" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="24" t="s">
@@ -4654,14 +4769,14 @@
       <c r="B32" s="23" t="s">
         <v>217</v>
       </c>
-      <c r="C32" s="123" t="s">
+      <c r="C32" s="114" t="s">
         <v>218</v>
       </c>
-      <c r="D32" s="124"/>
-      <c r="E32" s="124"/>
-      <c r="F32" s="124"/>
-      <c r="G32" s="124"/>
-      <c r="H32" s="125"/>
+      <c r="D32" s="115"/>
+      <c r="E32" s="115"/>
+      <c r="F32" s="115"/>
+      <c r="G32" s="115"/>
+      <c r="H32" s="116"/>
       <c r="I32" s="83"/>
       <c r="J32" s="70" t="s">
         <v>251</v>
@@ -4674,14 +4789,14 @@
       <c r="B33" s="23" t="s">
         <v>253</v>
       </c>
-      <c r="C33" s="123" t="s">
+      <c r="C33" s="114" t="s">
         <v>255</v>
       </c>
-      <c r="D33" s="124"/>
-      <c r="E33" s="124"/>
-      <c r="F33" s="124"/>
-      <c r="G33" s="124"/>
-      <c r="H33" s="125"/>
+      <c r="D33" s="115"/>
+      <c r="E33" s="115"/>
+      <c r="F33" s="115"/>
+      <c r="G33" s="115"/>
+      <c r="H33" s="116"/>
       <c r="I33" s="84"/>
       <c r="J33" s="70" t="s">
         <v>254</v>
@@ -4694,14 +4809,14 @@
       <c r="B34" s="23" t="s">
         <v>213</v>
       </c>
-      <c r="C34" s="124" t="s">
+      <c r="C34" s="115" t="s">
         <v>215</v>
       </c>
-      <c r="D34" s="124"/>
-      <c r="E34" s="124"/>
-      <c r="F34" s="124"/>
-      <c r="G34" s="124"/>
-      <c r="H34" s="124"/>
+      <c r="D34" s="115"/>
+      <c r="E34" s="115"/>
+      <c r="F34" s="115"/>
+      <c r="G34" s="115"/>
+      <c r="H34" s="115"/>
       <c r="I34" s="84"/>
       <c r="J34" s="61" t="s">
         <v>296</v>
@@ -4747,8 +4862,8 @@
       <c r="C36" s="50" t="s">
         <v>104</v>
       </c>
-      <c r="D36" s="129"/>
-      <c r="E36" s="130"/>
+      <c r="D36" s="155"/>
+      <c r="E36" s="142"/>
       <c r="F36" s="21" t="s">
         <v>103</v>
       </c>
@@ -4768,15 +4883,15 @@
       <c r="B37" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="C37" s="163"/>
-      <c r="D37" s="127"/>
+      <c r="C37" s="117"/>
+      <c r="D37" s="118"/>
       <c r="E37" s="63" t="s">
         <v>273</v>
       </c>
-      <c r="F37" s="148"/>
-      <c r="G37" s="127"/>
-      <c r="H37" s="127"/>
-      <c r="I37" s="167"/>
+      <c r="F37" s="122"/>
+      <c r="G37" s="118"/>
+      <c r="H37" s="118"/>
+      <c r="I37" s="123"/>
       <c r="J37" s="61" t="s">
         <v>272</v>
       </c>
@@ -4791,10 +4906,10 @@
       <c r="C38" s="50" t="s">
         <v>205</v>
       </c>
-      <c r="D38" s="126"/>
-      <c r="E38" s="128"/>
-      <c r="F38" s="128"/>
-      <c r="G38" s="137"/>
+      <c r="D38" s="112"/>
+      <c r="E38" s="158"/>
+      <c r="F38" s="158"/>
+      <c r="G38" s="113"/>
       <c r="H38" s="21" t="s">
         <v>206</v>
       </c>
@@ -4806,60 +4921,60 @@
       </c>
     </row>
     <row r="39" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="133" t="s">
+      <c r="A39" s="137" t="s">
         <v>97</v>
       </c>
-      <c r="B39" s="135" t="s">
+      <c r="B39" s="148" t="s">
         <v>96</v>
       </c>
-      <c r="C39" s="123" t="s">
+      <c r="C39" s="114" t="s">
         <v>95</v>
       </c>
-      <c r="D39" s="124"/>
-      <c r="E39" s="124"/>
-      <c r="F39" s="124"/>
-      <c r="G39" s="124"/>
-      <c r="H39" s="124"/>
+      <c r="D39" s="115"/>
+      <c r="E39" s="115"/>
+      <c r="F39" s="115"/>
+      <c r="G39" s="115"/>
+      <c r="H39" s="115"/>
       <c r="I39" s="68" t="s">
         <v>265</v>
       </c>
       <c r="J39" s="59"/>
     </row>
     <row r="40" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="134"/>
-      <c r="B40" s="136"/>
-      <c r="C40" s="113" t="s">
+      <c r="A40" s="138"/>
+      <c r="B40" s="140"/>
+      <c r="C40" s="124" t="s">
         <v>94</v>
       </c>
-      <c r="D40" s="114"/>
-      <c r="E40" s="114"/>
-      <c r="F40" s="114"/>
-      <c r="G40" s="114"/>
-      <c r="H40" s="114"/>
-      <c r="I40" s="114"/>
-      <c r="J40" s="115"/>
+      <c r="D40" s="125"/>
+      <c r="E40" s="125"/>
+      <c r="F40" s="125"/>
+      <c r="G40" s="125"/>
+      <c r="H40" s="125"/>
+      <c r="I40" s="125"/>
+      <c r="J40" s="126"/>
     </row>
     <row r="41" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="133" t="s">
+      <c r="A41" s="137" t="s">
         <v>219</v>
       </c>
-      <c r="B41" s="135" t="s">
+      <c r="B41" s="148" t="s">
         <v>227</v>
       </c>
-      <c r="C41" s="113" t="s">
+      <c r="C41" s="124" t="s">
         <v>221</v>
       </c>
-      <c r="D41" s="114"/>
-      <c r="E41" s="114"/>
-      <c r="F41" s="114"/>
-      <c r="G41" s="114"/>
-      <c r="H41" s="114"/>
-      <c r="I41" s="114"/>
-      <c r="J41" s="115"/>
+      <c r="D41" s="125"/>
+      <c r="E41" s="125"/>
+      <c r="F41" s="125"/>
+      <c r="G41" s="125"/>
+      <c r="H41" s="125"/>
+      <c r="I41" s="125"/>
+      <c r="J41" s="126"/>
     </row>
     <row r="42" spans="1:10" ht="285" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="134"/>
-      <c r="B42" s="156"/>
+      <c r="A42" s="138"/>
+      <c r="B42" s="143"/>
       <c r="C42" s="53" t="s">
         <v>222</v>
       </c>
@@ -4908,8 +5023,8 @@
       <c r="H43" s="54" t="s">
         <v>230</v>
       </c>
-      <c r="I43" s="148"/>
-      <c r="J43" s="167"/>
+      <c r="I43" s="122"/>
+      <c r="J43" s="123"/>
     </row>
     <row r="44" spans="1:10" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="24" t="s">
@@ -4944,26 +5059,26 @@
       </c>
     </row>
     <row r="45" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="133" t="s">
+      <c r="A45" s="137" t="s">
         <v>87</v>
       </c>
-      <c r="B45" s="135" t="s">
+      <c r="B45" s="148" t="s">
         <v>86</v>
       </c>
-      <c r="C45" s="123" t="s">
+      <c r="C45" s="114" t="s">
         <v>282</v>
       </c>
-      <c r="D45" s="124"/>
-      <c r="E45" s="124"/>
-      <c r="F45" s="124"/>
-      <c r="G45" s="124"/>
-      <c r="H45" s="124"/>
-      <c r="I45" s="125"/>
-      <c r="J45" s="120"/>
+      <c r="D45" s="115"/>
+      <c r="E45" s="115"/>
+      <c r="F45" s="115"/>
+      <c r="G45" s="115"/>
+      <c r="H45" s="115"/>
+      <c r="I45" s="116"/>
+      <c r="J45" s="127"/>
     </row>
     <row r="46" spans="1:10" ht="195" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="134"/>
-      <c r="B46" s="136"/>
+      <c r="A46" s="138"/>
+      <c r="B46" s="140"/>
       <c r="C46" s="22" t="s">
         <v>285</v>
       </c>
@@ -4985,45 +5100,45 @@
       <c r="I46" s="21" t="s">
         <v>288</v>
       </c>
-      <c r="J46" s="122"/>
+      <c r="J46" s="128"/>
     </row>
     <row r="47" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="133" t="s">
+      <c r="A47" s="137" t="s">
         <v>84</v>
       </c>
-      <c r="B47" s="135" t="s">
+      <c r="B47" s="148" t="s">
         <v>83</v>
       </c>
-      <c r="C47" s="160" t="s">
+      <c r="C47" s="149" t="s">
         <v>237</v>
       </c>
-      <c r="D47" s="161"/>
-      <c r="E47" s="161"/>
-      <c r="F47" s="161"/>
-      <c r="G47" s="161"/>
-      <c r="H47" s="162"/>
-      <c r="I47" s="164"/>
-      <c r="J47" s="168" t="s">
+      <c r="D47" s="150"/>
+      <c r="E47" s="150"/>
+      <c r="F47" s="150"/>
+      <c r="G47" s="150"/>
+      <c r="H47" s="151"/>
+      <c r="I47" s="119"/>
+      <c r="J47" s="129" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="300" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="134"/>
-      <c r="B48" s="136"/>
+      <c r="A48" s="138"/>
+      <c r="B48" s="140"/>
       <c r="C48" s="50" t="s">
         <v>82</v>
       </c>
       <c r="D48" s="4"/>
-      <c r="E48" s="166" t="s">
+      <c r="E48" s="121" t="s">
         <v>81</v>
       </c>
-      <c r="F48" s="125"/>
+      <c r="F48" s="116"/>
       <c r="G48" s="4"/>
       <c r="H48" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="I48" s="165"/>
-      <c r="J48" s="169"/>
+      <c r="I48" s="120"/>
+      <c r="J48" s="130"/>
     </row>
     <row r="49" spans="1:10" ht="195" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="24" t="s">
@@ -5090,35 +5205,35 @@
       </c>
     </row>
     <row r="51" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="133" t="s">
+      <c r="A51" s="137" t="s">
         <v>63</v>
       </c>
-      <c r="B51" s="145" t="s">
+      <c r="B51" s="139" t="s">
         <v>62</v>
       </c>
-      <c r="C51" s="170" t="s">
+      <c r="C51" s="131" t="s">
         <v>269</v>
       </c>
-      <c r="D51" s="170"/>
-      <c r="E51" s="170"/>
-      <c r="F51" s="170"/>
-      <c r="G51" s="170"/>
-      <c r="H51" s="170"/>
-      <c r="I51" s="149"/>
-      <c r="J51" s="150"/>
+      <c r="D51" s="131"/>
+      <c r="E51" s="131"/>
+      <c r="F51" s="131"/>
+      <c r="G51" s="131"/>
+      <c r="H51" s="131"/>
+      <c r="I51" s="132"/>
+      <c r="J51" s="133"/>
     </row>
     <row r="52" spans="1:10" ht="345" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="134"/>
-      <c r="B52" s="136"/>
+      <c r="A52" s="138"/>
+      <c r="B52" s="140"/>
       <c r="C52" s="26" t="s">
         <v>268</v>
       </c>
       <c r="D52" s="25" t="s">
         <v>270</v>
       </c>
-      <c r="E52" s="149"/>
-      <c r="F52" s="132"/>
-      <c r="G52" s="130"/>
+      <c r="E52" s="132"/>
+      <c r="F52" s="141"/>
+      <c r="G52" s="142"/>
       <c r="H52" s="57" t="s">
         <v>271</v>
       </c>
@@ -5145,8 +5260,8 @@
       <c r="E53" s="21" t="s">
         <v>211</v>
       </c>
-      <c r="F53" s="126"/>
-      <c r="G53" s="137"/>
+      <c r="F53" s="112"/>
+      <c r="G53" s="113"/>
       <c r="H53" s="28" t="s">
         <v>210</v>
       </c>
@@ -5187,19 +5302,44 @@
     </row>
   </sheetData>
   <mergeCells count="67">
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="C45:I45"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="I47:I48"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="F37:I37"/>
-    <mergeCell ref="C40:J40"/>
-    <mergeCell ref="C41:J41"/>
-    <mergeCell ref="J45:J46"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="J47:J48"/>
-    <mergeCell ref="C51:H51"/>
-    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="C3:J3"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="J11:J17"/>
+    <mergeCell ref="C20:J20"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C34:H34"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="C22:J22"/>
+    <mergeCell ref="D12:H12"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="C18:I18"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:H39"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D38:G38"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C29:I29"/>
+    <mergeCell ref="C33:H33"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C32:H32"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="C23:J23"/>
+    <mergeCell ref="C24:J24"/>
+    <mergeCell ref="C25:J25"/>
+    <mergeCell ref="C26:J26"/>
+    <mergeCell ref="C28:J28"/>
+    <mergeCell ref="J29:J31"/>
     <mergeCell ref="C2:I2"/>
     <mergeCell ref="C8:J8"/>
     <mergeCell ref="C10:H10"/>
@@ -5216,44 +5356,19 @@
     <mergeCell ref="A45:A46"/>
     <mergeCell ref="A41:A42"/>
     <mergeCell ref="B41:B42"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C29:I29"/>
-    <mergeCell ref="C33:H33"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C32:H32"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="C23:J23"/>
-    <mergeCell ref="C24:J24"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:H39"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D38:G38"/>
-    <mergeCell ref="C25:J25"/>
-    <mergeCell ref="C26:J26"/>
-    <mergeCell ref="C28:J28"/>
-    <mergeCell ref="J29:J31"/>
-    <mergeCell ref="C34:H34"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="C22:J22"/>
-    <mergeCell ref="D12:H12"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="C18:I18"/>
-    <mergeCell ref="C3:J3"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="J11:J17"/>
-    <mergeCell ref="C20:J20"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="D6:G6"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="C45:I45"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="I47:I48"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="F37:I37"/>
+    <mergeCell ref="C40:J40"/>
+    <mergeCell ref="C41:J41"/>
+    <mergeCell ref="J45:J46"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="J47:J48"/>
+    <mergeCell ref="C51:H51"/>
+    <mergeCell ref="I51:J51"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5265,10 +5380,10 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:M37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomLeft" activeCell="C4" sqref="C4:J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5278,7 +5393,7 @@
     <col min="3" max="7" width="26.7109375" style="1" customWidth="1"/>
     <col min="8" max="9" width="27.140625" style="1" customWidth="1"/>
     <col min="10" max="10" width="27.5703125" style="1" customWidth="1"/>
-    <col min="11" max="13" width="9.140625" style="101"/>
+    <col min="11" max="13" width="9.140625" style="100"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5312,337 +5427,367 @@
       <c r="J1" s="88" t="s">
         <v>292</v>
       </c>
-      <c r="K1" s="98"/>
-      <c r="L1" s="98"/>
-      <c r="M1" s="98"/>
+      <c r="K1" s="97"/>
+      <c r="L1" s="97"/>
+      <c r="M1" s="97"/>
     </row>
     <row r="2" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="186" t="s">
+      <c r="A2" s="171" t="s">
         <v>198</v>
       </c>
-      <c r="B2" s="185" t="s">
+      <c r="B2" s="170" t="s">
         <v>309</v>
       </c>
-      <c r="C2" s="188" t="s">
+      <c r="C2" s="173" t="s">
         <v>340</v>
       </c>
-      <c r="D2" s="189"/>
-      <c r="E2" s="189"/>
-      <c r="F2" s="189"/>
-      <c r="G2" s="189"/>
-      <c r="H2" s="189"/>
-      <c r="I2" s="189"/>
-      <c r="J2" s="189"/>
-      <c r="K2" s="98"/>
-      <c r="L2" s="98"/>
-      <c r="M2" s="98"/>
-    </row>
-    <row r="3" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="187"/>
-      <c r="B3" s="136"/>
-      <c r="C3" s="92"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="106"/>
+      <c r="D2" s="174"/>
+      <c r="E2" s="174"/>
+      <c r="F2" s="174"/>
+      <c r="G2" s="174"/>
+      <c r="H2" s="174"/>
+      <c r="I2" s="174"/>
+      <c r="J2" s="174"/>
+      <c r="K2" s="97"/>
+      <c r="L2" s="97"/>
+      <c r="M2" s="97"/>
+    </row>
+    <row r="3" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="172"/>
+      <c r="B3" s="140"/>
+      <c r="C3" s="191"/>
+      <c r="D3" s="133"/>
+      <c r="E3" s="46" t="s">
+        <v>354</v>
+      </c>
+      <c r="F3" s="132"/>
+      <c r="G3" s="190"/>
+      <c r="H3" s="190"/>
+      <c r="I3" s="133"/>
+      <c r="J3" s="192" t="s">
+        <v>359</v>
+      </c>
     </row>
     <row r="4" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="183" t="s">
+      <c r="A4" s="175" t="s">
         <v>197</v>
       </c>
-      <c r="B4" s="177" t="s">
+      <c r="B4" s="176" t="s">
         <v>310</v>
       </c>
-      <c r="C4" s="180" t="s">
+      <c r="C4" s="177" t="s">
         <v>339</v>
       </c>
-      <c r="D4" s="181"/>
-      <c r="E4" s="181"/>
-      <c r="F4" s="181"/>
-      <c r="G4" s="181"/>
-      <c r="H4" s="181"/>
-      <c r="I4" s="181"/>
-      <c r="J4" s="181"/>
-      <c r="K4" s="98"/>
-      <c r="L4" s="98"/>
-      <c r="M4" s="98"/>
-    </row>
-    <row r="5" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="117"/>
-      <c r="B5" s="119"/>
-      <c r="C5" s="92"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="106"/>
+      <c r="D4" s="178"/>
+      <c r="E4" s="178"/>
+      <c r="F4" s="178"/>
+      <c r="G4" s="178"/>
+      <c r="H4" s="178"/>
+      <c r="I4" s="178"/>
+      <c r="J4" s="178"/>
+      <c r="K4" s="97"/>
+      <c r="L4" s="97"/>
+      <c r="M4" s="97"/>
+    </row>
+    <row r="5" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="165"/>
+      <c r="B5" s="167"/>
+      <c r="C5" s="191"/>
+      <c r="D5" s="190"/>
+      <c r="E5" s="190"/>
+      <c r="F5" s="190"/>
+      <c r="G5" s="133"/>
+      <c r="H5" s="46" t="s">
+        <v>365</v>
+      </c>
+      <c r="I5" s="58"/>
+      <c r="J5" s="192" t="s">
+        <v>358</v>
+      </c>
     </row>
     <row r="6" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="183" t="s">
+      <c r="A6" s="175" t="s">
         <v>196</v>
       </c>
-      <c r="B6" s="177" t="s">
+      <c r="B6" s="176" t="s">
         <v>311</v>
       </c>
-      <c r="C6" s="180" t="s">
+      <c r="C6" s="177" t="s">
         <v>338</v>
       </c>
-      <c r="D6" s="181"/>
-      <c r="E6" s="181"/>
-      <c r="F6" s="181"/>
-      <c r="G6" s="181"/>
-      <c r="H6" s="181"/>
-      <c r="I6" s="181"/>
-      <c r="J6" s="181"/>
-      <c r="K6" s="98"/>
-      <c r="L6" s="98"/>
-      <c r="M6" s="98"/>
+      <c r="D6" s="178"/>
+      <c r="E6" s="178"/>
+      <c r="F6" s="178"/>
+      <c r="G6" s="178"/>
+      <c r="H6" s="178"/>
+      <c r="I6" s="178"/>
+      <c r="J6" s="178"/>
+      <c r="K6" s="97"/>
+      <c r="L6" s="97"/>
+      <c r="M6" s="97"/>
     </row>
     <row r="7" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="117"/>
-      <c r="B7" s="119"/>
-      <c r="C7" s="92"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="106"/>
+      <c r="A7" s="165"/>
+      <c r="B7" s="167"/>
+      <c r="C7" s="191"/>
+      <c r="D7" s="190"/>
+      <c r="E7" s="133"/>
+      <c r="F7" s="46" t="s">
+        <v>348</v>
+      </c>
+      <c r="G7" s="132"/>
+      <c r="H7" s="190"/>
+      <c r="I7" s="133"/>
+      <c r="J7" s="192" t="s">
+        <v>357</v>
+      </c>
     </row>
     <row r="8" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="116" t="s">
+      <c r="A8" s="164" t="s">
         <v>195</v>
       </c>
-      <c r="B8" s="118" t="s">
+      <c r="B8" s="166" t="s">
         <v>312</v>
       </c>
-      <c r="C8" s="180" t="s">
+      <c r="C8" s="177" t="s">
         <v>337</v>
       </c>
-      <c r="D8" s="181"/>
-      <c r="E8" s="181"/>
-      <c r="F8" s="181"/>
-      <c r="G8" s="181"/>
-      <c r="H8" s="181"/>
-      <c r="I8" s="181"/>
-      <c r="J8" s="181"/>
-      <c r="K8" s="98"/>
-      <c r="L8" s="98"/>
-      <c r="M8" s="98"/>
-    </row>
-    <row r="9" spans="1:13" s="97" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="184"/>
-      <c r="B9" s="178"/>
-      <c r="C9" s="95"/>
-      <c r="D9" s="96"/>
-      <c r="E9" s="96"/>
-      <c r="F9" s="96"/>
-      <c r="G9" s="96"/>
-      <c r="H9" s="96"/>
-      <c r="I9" s="96"/>
-      <c r="J9" s="107"/>
-      <c r="K9" s="101"/>
-      <c r="L9" s="101"/>
-      <c r="M9" s="101"/>
+      <c r="D8" s="178"/>
+      <c r="E8" s="178"/>
+      <c r="F8" s="178"/>
+      <c r="G8" s="178"/>
+      <c r="H8" s="178"/>
+      <c r="I8" s="178"/>
+      <c r="J8" s="178"/>
+      <c r="K8" s="97"/>
+      <c r="L8" s="97"/>
+      <c r="M8" s="97"/>
+    </row>
+    <row r="9" spans="1:13" s="96" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="179"/>
+      <c r="B9" s="180"/>
+      <c r="C9" s="94"/>
+      <c r="D9" s="189" t="s">
+        <v>363</v>
+      </c>
+      <c r="E9" s="156"/>
+      <c r="F9" s="157"/>
+      <c r="G9" s="157"/>
+      <c r="H9" s="157"/>
+      <c r="I9" s="157"/>
+      <c r="J9" s="193" t="s">
+        <v>356</v>
+      </c>
+      <c r="K9" s="100"/>
+      <c r="L9" s="100"/>
+      <c r="M9" s="100"/>
     </row>
     <row r="10" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="175" t="s">
+      <c r="A10" s="181" t="s">
         <v>194</v>
       </c>
-      <c r="B10" s="177" t="s">
+      <c r="B10" s="176" t="s">
         <v>324</v>
       </c>
-      <c r="C10" s="180" t="s">
+      <c r="C10" s="177" t="s">
         <v>336</v>
       </c>
-      <c r="D10" s="181"/>
-      <c r="E10" s="181"/>
-      <c r="F10" s="181"/>
-      <c r="G10" s="181"/>
-      <c r="H10" s="181"/>
-      <c r="I10" s="181"/>
-      <c r="J10" s="181"/>
-      <c r="K10" s="98"/>
-      <c r="L10" s="98"/>
-      <c r="M10" s="98"/>
-    </row>
-    <row r="11" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D10" s="178"/>
+      <c r="E10" s="178"/>
+      <c r="F10" s="178"/>
+      <c r="G10" s="178"/>
+      <c r="H10" s="178"/>
+      <c r="I10" s="178"/>
+      <c r="J10" s="178"/>
+      <c r="K10" s="97"/>
+      <c r="L10" s="97"/>
+      <c r="M10" s="97"/>
+    </row>
+    <row r="11" spans="1:13" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="182"/>
-      <c r="B11" s="119"/>
-      <c r="C11" s="92"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="106"/>
+      <c r="B11" s="167"/>
+      <c r="C11" s="108" t="s">
+        <v>353</v>
+      </c>
+      <c r="D11" s="132"/>
+      <c r="E11" s="190"/>
+      <c r="F11" s="190"/>
+      <c r="G11" s="190"/>
+      <c r="H11" s="190"/>
+      <c r="I11" s="190"/>
+      <c r="J11" s="192" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="12" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="175" t="s">
+      <c r="A12" s="181" t="s">
         <v>193</v>
       </c>
-      <c r="B12" s="177" t="s">
+      <c r="B12" s="176" t="s">
         <v>323</v>
       </c>
-      <c r="C12" s="173" t="s">
+      <c r="C12" s="183" t="s">
         <v>335</v>
       </c>
-      <c r="D12" s="174"/>
-      <c r="E12" s="174"/>
-      <c r="F12" s="174"/>
-      <c r="G12" s="174"/>
-      <c r="H12" s="174"/>
-      <c r="I12" s="174"/>
-      <c r="J12" s="174"/>
-      <c r="K12" s="98"/>
-      <c r="L12" s="98"/>
-      <c r="M12" s="98"/>
-    </row>
-    <row r="13" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D12" s="184"/>
+      <c r="E12" s="184"/>
+      <c r="F12" s="184"/>
+      <c r="G12" s="184"/>
+      <c r="H12" s="184"/>
+      <c r="I12" s="184"/>
+      <c r="J12" s="184"/>
+      <c r="K12" s="97"/>
+      <c r="L12" s="97"/>
+      <c r="M12" s="97"/>
+    </row>
+    <row r="13" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="182"/>
-      <c r="B13" s="119"/>
-      <c r="C13" s="92"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="106"/>
+      <c r="B13" s="167"/>
+      <c r="C13" s="191"/>
+      <c r="D13" s="190"/>
+      <c r="E13" s="190"/>
+      <c r="F13" s="133"/>
+      <c r="G13" s="46" t="s">
+        <v>364</v>
+      </c>
+      <c r="H13" s="132"/>
+      <c r="I13" s="133"/>
+      <c r="J13" s="194" t="s">
+        <v>360</v>
+      </c>
     </row>
     <row r="14" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="175" t="s">
+      <c r="A14" s="181" t="s">
         <v>321</v>
       </c>
-      <c r="B14" s="177" t="s">
+      <c r="B14" s="176" t="s">
         <v>322</v>
       </c>
-      <c r="C14" s="180" t="s">
+      <c r="C14" s="177" t="s">
         <v>347</v>
       </c>
-      <c r="D14" s="181"/>
-      <c r="E14" s="181"/>
-      <c r="F14" s="181"/>
-      <c r="G14" s="181"/>
-      <c r="H14" s="181"/>
-      <c r="I14" s="181"/>
-      <c r="J14" s="181"/>
-      <c r="K14" s="98"/>
-      <c r="L14" s="98"/>
-      <c r="M14" s="98"/>
+      <c r="D14" s="178"/>
+      <c r="E14" s="178"/>
+      <c r="F14" s="178"/>
+      <c r="G14" s="178"/>
+      <c r="H14" s="178"/>
+      <c r="I14" s="178"/>
+      <c r="J14" s="178"/>
+      <c r="K14" s="97"/>
+      <c r="L14" s="97"/>
+      <c r="M14" s="97"/>
     </row>
     <row r="15" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="182"/>
-      <c r="B15" s="119"/>
-      <c r="C15" s="92"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="106"/>
+      <c r="B15" s="167"/>
+      <c r="C15" s="191"/>
+      <c r="D15" s="190"/>
+      <c r="E15" s="190"/>
+      <c r="F15" s="190"/>
+      <c r="G15" s="190"/>
+      <c r="H15" s="190"/>
+      <c r="I15" s="133"/>
+      <c r="J15" s="56" t="s">
+        <v>361</v>
+      </c>
     </row>
     <row r="16" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="175" t="s">
+      <c r="A16" s="181" t="s">
         <v>192</v>
       </c>
-      <c r="B16" s="177" t="s">
+      <c r="B16" s="176" t="s">
         <v>325</v>
       </c>
-      <c r="C16" s="180" t="s">
+      <c r="C16" s="177" t="s">
         <v>334</v>
       </c>
-      <c r="D16" s="181"/>
-      <c r="E16" s="181"/>
-      <c r="F16" s="181"/>
-      <c r="G16" s="181"/>
-      <c r="H16" s="181"/>
-      <c r="I16" s="181"/>
-      <c r="J16" s="181"/>
-      <c r="K16" s="98"/>
-      <c r="L16" s="98"/>
-      <c r="M16" s="98"/>
+      <c r="D16" s="178"/>
+      <c r="E16" s="178"/>
+      <c r="F16" s="178"/>
+      <c r="G16" s="178"/>
+      <c r="H16" s="178"/>
+      <c r="I16" s="178"/>
+      <c r="J16" s="178"/>
+      <c r="K16" s="97"/>
+      <c r="L16" s="97"/>
+      <c r="M16" s="97"/>
     </row>
     <row r="17" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="182"/>
-      <c r="B17" s="119"/>
-      <c r="C17" s="92"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="106"/>
+      <c r="B17" s="167"/>
+      <c r="C17" s="191"/>
+      <c r="D17" s="190"/>
+      <c r="E17" s="190"/>
+      <c r="F17" s="190"/>
+      <c r="G17" s="190"/>
+      <c r="H17" s="133"/>
+      <c r="I17" s="46" t="s">
+        <v>349</v>
+      </c>
+      <c r="J17" s="56" t="s">
+        <v>362</v>
+      </c>
     </row>
     <row r="18" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="179" t="s">
+      <c r="A18" s="185" t="s">
         <v>191</v>
       </c>
-      <c r="B18" s="118" t="s">
+      <c r="B18" s="166" t="s">
         <v>327</v>
       </c>
-      <c r="C18" s="180" t="s">
+      <c r="C18" s="195" t="s">
         <v>330</v>
       </c>
-      <c r="D18" s="181"/>
-      <c r="E18" s="181"/>
-      <c r="F18" s="181"/>
-      <c r="G18" s="181"/>
-      <c r="H18" s="181"/>
-      <c r="I18" s="181"/>
-      <c r="J18" s="181"/>
-      <c r="K18" s="98"/>
-      <c r="L18" s="98"/>
-      <c r="M18" s="98"/>
-    </row>
-    <row r="19" spans="1:13" s="101" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="172"/>
-      <c r="B19" s="136"/>
-      <c r="C19" s="104" t="s">
+      <c r="D18" s="196"/>
+      <c r="E18" s="196"/>
+      <c r="F18" s="196"/>
+      <c r="G18" s="196"/>
+      <c r="H18" s="196"/>
+      <c r="I18" s="196"/>
+      <c r="J18" s="196"/>
+      <c r="K18" s="97"/>
+      <c r="L18" s="97"/>
+      <c r="M18" s="97"/>
+    </row>
+    <row r="19" spans="1:13" s="100" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="186"/>
+      <c r="B19" s="140"/>
+      <c r="C19" s="103" t="s">
         <v>342</v>
       </c>
-      <c r="D19" s="100"/>
-      <c r="E19" s="100"/>
-      <c r="F19" s="100"/>
-      <c r="G19" s="100"/>
-      <c r="H19" s="100"/>
-      <c r="I19" s="100"/>
-      <c r="J19" s="108"/>
-    </row>
-    <row r="20" spans="1:13" s="102" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="171" t="s">
+      <c r="D19" s="99"/>
+      <c r="E19" s="99"/>
+      <c r="F19" s="99"/>
+      <c r="G19" s="99"/>
+      <c r="H19" s="99"/>
+      <c r="I19" s="99"/>
+      <c r="J19" s="106"/>
+    </row>
+    <row r="20" spans="1:13" s="101" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="187" t="s">
         <v>190</v>
       </c>
-      <c r="B20" s="135" t="s">
+      <c r="B20" s="148" t="s">
         <v>326</v>
       </c>
-      <c r="C20" s="173" t="s">
+      <c r="C20" s="183" t="s">
         <v>331</v>
       </c>
-      <c r="D20" s="174"/>
-      <c r="E20" s="174"/>
-      <c r="F20" s="174"/>
-      <c r="G20" s="174"/>
-      <c r="H20" s="174"/>
-      <c r="I20" s="174"/>
-      <c r="J20" s="174"/>
-      <c r="K20" s="98"/>
-      <c r="L20" s="98"/>
-      <c r="M20" s="98"/>
-    </row>
-    <row r="21" spans="1:13" s="99" customFormat="1" ht="150" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="172"/>
-      <c r="B21" s="136"/>
-      <c r="C21" s="104" t="s">
+      <c r="D20" s="184"/>
+      <c r="E20" s="184"/>
+      <c r="F20" s="184"/>
+      <c r="G20" s="184"/>
+      <c r="H20" s="184"/>
+      <c r="I20" s="184"/>
+      <c r="J20" s="184"/>
+      <c r="K20" s="97"/>
+      <c r="L20" s="97"/>
+      <c r="M20" s="97"/>
+    </row>
+    <row r="21" spans="1:13" s="98" customFormat="1" ht="150" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="186"/>
+      <c r="B21" s="140"/>
+      <c r="C21" s="103" t="s">
         <v>341</v>
       </c>
       <c r="D21" s="15"/>
@@ -5651,170 +5796,179 @@
       <c r="G21" s="15"/>
       <c r="H21" s="15"/>
       <c r="I21" s="15"/>
-      <c r="J21" s="106"/>
-      <c r="K21" s="101"/>
-      <c r="L21" s="101"/>
-      <c r="M21" s="101"/>
+      <c r="J21" s="105"/>
+      <c r="K21" s="100"/>
+      <c r="L21" s="100"/>
+      <c r="M21" s="100"/>
     </row>
     <row r="22" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="171" t="s">
+      <c r="A22" s="187" t="s">
         <v>189</v>
       </c>
-      <c r="B22" s="135" t="s">
+      <c r="B22" s="148" t="s">
         <v>328</v>
       </c>
-      <c r="C22" s="173" t="s">
+      <c r="C22" s="183" t="s">
         <v>332</v>
       </c>
-      <c r="D22" s="174"/>
-      <c r="E22" s="174"/>
-      <c r="F22" s="174"/>
-      <c r="G22" s="174"/>
-      <c r="H22" s="174"/>
-      <c r="I22" s="174"/>
-      <c r="J22" s="174"/>
-      <c r="K22" s="98"/>
-      <c r="L22" s="98"/>
-      <c r="M22" s="98"/>
-    </row>
-    <row r="23" spans="1:13" s="101" customFormat="1" ht="210" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="172"/>
-      <c r="B23" s="136"/>
-      <c r="C23" s="104" t="s">
+      <c r="D22" s="184"/>
+      <c r="E22" s="184"/>
+      <c r="F22" s="184"/>
+      <c r="G22" s="184"/>
+      <c r="H22" s="184"/>
+      <c r="I22" s="184"/>
+      <c r="J22" s="184"/>
+      <c r="K22" s="97"/>
+      <c r="L22" s="97"/>
+      <c r="M22" s="97"/>
+    </row>
+    <row r="23" spans="1:13" s="100" customFormat="1" ht="210" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="186"/>
+      <c r="B23" s="140"/>
+      <c r="C23" s="103" t="s">
         <v>343</v>
       </c>
-      <c r="D23" s="100"/>
-      <c r="E23" s="100"/>
-      <c r="F23" s="100"/>
-      <c r="G23" s="100"/>
-      <c r="H23" s="100"/>
-      <c r="I23" s="100"/>
-      <c r="J23" s="108"/>
-    </row>
-    <row r="24" spans="1:13" s="103" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="175" t="s">
+      <c r="D23" s="99"/>
+      <c r="E23" s="99"/>
+      <c r="F23" s="99"/>
+      <c r="G23" s="99"/>
+      <c r="H23" s="99"/>
+      <c r="I23" s="99"/>
+      <c r="J23" s="106"/>
+    </row>
+    <row r="24" spans="1:13" s="102" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="181" t="s">
         <v>188</v>
       </c>
-      <c r="B24" s="177" t="s">
+      <c r="B24" s="176" t="s">
         <v>329</v>
       </c>
-      <c r="C24" s="173" t="s">
+      <c r="C24" s="183" t="s">
         <v>333</v>
       </c>
-      <c r="D24" s="174"/>
-      <c r="E24" s="174"/>
-      <c r="F24" s="174"/>
-      <c r="G24" s="174"/>
-      <c r="H24" s="174"/>
-      <c r="I24" s="174"/>
-      <c r="J24" s="174"/>
-      <c r="K24" s="98"/>
-      <c r="L24" s="98"/>
-      <c r="M24" s="98"/>
-    </row>
-    <row r="25" spans="1:13" s="97" customFormat="1" ht="285" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="176"/>
-      <c r="B25" s="178"/>
-      <c r="C25" s="105" t="s">
+      <c r="D24" s="184"/>
+      <c r="E24" s="184"/>
+      <c r="F24" s="184"/>
+      <c r="G24" s="184"/>
+      <c r="H24" s="184"/>
+      <c r="I24" s="184"/>
+      <c r="J24" s="184"/>
+      <c r="K24" s="97"/>
+      <c r="L24" s="97"/>
+      <c r="M24" s="97"/>
+    </row>
+    <row r="25" spans="1:13" s="96" customFormat="1" ht="300" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="188"/>
+      <c r="B25" s="180"/>
+      <c r="C25" s="104" t="s">
         <v>344</v>
       </c>
-      <c r="D25" s="96"/>
-      <c r="E25" s="96"/>
-      <c r="F25" s="96"/>
-      <c r="G25" s="96"/>
-      <c r="H25" s="105" t="s">
+      <c r="D25" s="189" t="s">
+        <v>352</v>
+      </c>
+      <c r="E25" s="95"/>
+      <c r="F25" s="95" t="s">
+        <v>351</v>
+      </c>
+      <c r="G25" s="95" t="s">
+        <v>350</v>
+      </c>
+      <c r="H25" s="104" t="s">
         <v>345</v>
       </c>
-      <c r="I25" s="96"/>
-      <c r="J25" s="109" t="s">
+      <c r="I25" s="95"/>
+      <c r="J25" s="107" t="s">
         <v>346</v>
       </c>
-      <c r="K25" s="101"/>
-      <c r="L25" s="101"/>
-      <c r="M25" s="101"/>
+      <c r="K25" s="100"/>
+      <c r="L25" s="100"/>
+      <c r="M25" s="100"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B26" s="94"/>
+      <c r="B26" s="93"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B27" s="94"/>
+      <c r="B27" s="93"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B28" s="94"/>
+      <c r="B28" s="93"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B29" s="94"/>
+      <c r="B29" s="93"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B30" s="94"/>
+      <c r="B30" s="93"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B31" s="94"/>
+      <c r="B31" s="93"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B32" s="94"/>
-    </row>
-    <row r="33" spans="2:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="B33" s="94" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="B34" s="94" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="B35" s="94" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="B36" s="94" t="s">
-        <v>325</v>
-      </c>
+      <c r="B32" s="93"/>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" s="93"/>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B34" s="93"/>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B35" s="93"/>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B36" s="93"/>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B37" s="94"/>
+      <c r="B37" s="93"/>
     </row>
   </sheetData>
-  <mergeCells count="36">
+  <mergeCells count="47">
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:J22"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:J24"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:J18"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:J20"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:J14"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:J16"/>
+    <mergeCell ref="C15:I15"/>
+    <mergeCell ref="C17:H17"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:J10"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:J12"/>
+    <mergeCell ref="D11:I11"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:J8"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="E9:I9"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="C2:J2"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:J4"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:J8"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:J10"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:J12"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:J14"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:J16"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:J18"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:J20"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:J22"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:J24"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Tags and Affinities.xlsx
+++ b/Tags and Affinities.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CK.DESKTOP-BR5NVLN\Documents\Git Repositories\Creative\materials_and_crafting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53031307-48AE-491C-B43C-0FAAEC6B96E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89A1F173-9426-4E72-80D9-6A131FA54AFA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="2" xr2:uid="{8FD76562-234B-40A6-8AC6-52675E21BBDC}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="370">
   <si>
     <t>This component's weapon can be wound up in preparation for a powerful strike, however its strikes take a while to rewind.</t>
   </si>
@@ -1842,9 +1842,6 @@
     <t>Movement causes tremors</t>
   </si>
   <si>
-    <t>Flask stores soul</t>
-  </si>
-  <si>
     <t>Random movement size</t>
   </si>
   <si>
@@ -1886,9 +1883,6 @@
     <t>When ingested, this potion grants resistance to lightning damage.</t>
   </si>
   <si>
-    <t>When ingested, this potion grants resistance to poison and acid damage.</t>
-  </si>
-  <si>
     <t>When ingested, this potion grants resistance to cold damage.</t>
   </si>
   <si>
@@ -1911,7 +1905,72 @@
 When you are in dim light or darkness, as a bonus action you can teleport out to a radius equal to 20 times these boots' erebian affinity to an unoccupied space you can see that is also in dim light or darkness.</t>
   </si>
   <si>
-    <t>As an action while you wield this staff, you may conjure a large wave of water that pushes all creatures in a line.</t>
+    <t>Weighted</t>
+  </si>
+  <si>
+    <t>This item cannot be light.</t>
+  </si>
+  <si>
+    <t>This component weighs down items that incorporate it.</t>
+  </si>
+  <si>
+    <t>Double this component's weight (this is not factored into the material cost or MOD calculations).</t>
+  </si>
+  <si>
+    <t>When ingested, this potion grants resistance to poison or acid damage.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">This flask can store a soul within its cavity.
+This flask can be used as the material component of the </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>soul cage</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>soul jar</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> spells, and you may cast both of these spells once as a bonus action.
+These spells cannot be cast again from this flask until it has spent a long rest bathed in quintescent energy.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">As an action while you wield this staff, you may conjure a large wave of water that pushes all creatures in a line.
+</t>
   </si>
 </sst>
 </file>
@@ -2854,7 +2913,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="197">
+  <cellXfs count="199">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3160,6 +3219,21 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="65" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="70" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="71" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="70" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3167,29 +3241,161 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="58" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3198,28 +3404,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3229,119 +3417,59 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="58" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3358,70 +3486,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="65" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="70" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="71" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="70" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3739,11 +3804,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2676EF7-6059-47B8-9088-C8B7174E5212}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3848,33 +3913,29 @@
       <c r="I4" s="12"/>
       <c r="J4" s="12"/>
     </row>
-    <row r="5" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="120" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="122" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="117" t="s">
+        <v>366</v>
+      </c>
+      <c r="D5" s="118"/>
+      <c r="E5" s="118"/>
+      <c r="F5" s="118"/>
+      <c r="G5" s="118"/>
+      <c r="H5" s="118"/>
+      <c r="I5" s="119"/>
+      <c r="J5" s="12"/>
+    </row>
+    <row r="6" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="121"/>
+      <c r="B6" s="123"/>
+      <c r="C6" s="9" t="s">
         <v>31</v>
-      </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-    </row>
-    <row r="6" spans="1:10" s="3" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>28</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -3886,13 +3947,13 @@
     </row>
     <row r="7" spans="1:10" s="3" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
@@ -3902,15 +3963,15 @@
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
     </row>
-    <row r="8" spans="1:10" s="3" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" s="3" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
@@ -3920,15 +3981,15 @@
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
     </row>
-    <row r="9" spans="1:10" s="3" customFormat="1" ht="135" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" s="3" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
@@ -3938,15 +3999,15 @@
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
     </row>
-    <row r="10" spans="1:10" s="3" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" s="3" customFormat="1" ht="135" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
@@ -3956,15 +4017,15 @@
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
     </row>
-    <row r="11" spans="1:10" s="3" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" s="3" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>316</v>
+        <v>17</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>16</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
@@ -3974,15 +4035,15 @@
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
     </row>
-    <row r="12" spans="1:10" s="3" customFormat="1" ht="150" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" s="3" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>11</v>
+        <v>316</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
@@ -3992,15 +4053,15 @@
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
     </row>
-    <row r="13" spans="1:10" s="3" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" s="3" customFormat="1" ht="150" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
@@ -4012,13 +4073,13 @@
     </row>
     <row r="14" spans="1:10" s="3" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
@@ -4030,13 +4091,13 @@
     </row>
     <row r="15" spans="1:10" s="3" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
@@ -4046,65 +4107,105 @@
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
     </row>
-    <row r="16" spans="1:10" s="73" customFormat="1" ht="225" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="74" t="s">
+    <row r="16" spans="1:10" s="3" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+    </row>
+    <row r="17" spans="1:10" s="73" customFormat="1" ht="225" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="75" t="s">
+      <c r="B17" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="C16" s="71" t="s">
+      <c r="C17" s="71" t="s">
         <v>317</v>
       </c>
-      <c r="D16" s="44"/>
-      <c r="E16" s="44"/>
-      <c r="F16" s="44"/>
-      <c r="G16" s="44"/>
-      <c r="H16" s="44"/>
-      <c r="I16" s="44"/>
-      <c r="J16" s="44"/>
-    </row>
-    <row r="17" spans="1:10" s="73" customFormat="1" ht="225" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="92" t="s">
+      <c r="D17" s="44"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="44"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="44"/>
+      <c r="J17" s="44"/>
+    </row>
+    <row r="18" spans="1:10" s="73" customFormat="1" ht="225" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="92" t="s">
         <v>234</v>
       </c>
-      <c r="B17" s="23" t="s">
+      <c r="B18" s="23" t="s">
         <v>293</v>
       </c>
-      <c r="C17" s="72" t="s">
+      <c r="C18" s="72" t="s">
         <v>235</v>
       </c>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="21" t="s">
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="21" t="s">
         <v>236</v>
       </c>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-    </row>
-    <row r="18" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A18" s="76" t="s">
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+    </row>
+    <row r="19" spans="1:10" s="73" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="198" t="s">
+        <v>363</v>
+      </c>
+      <c r="B19" s="109" t="s">
+        <v>365</v>
+      </c>
+      <c r="C19" s="117" t="s">
+        <v>364</v>
+      </c>
+      <c r="D19" s="118"/>
+      <c r="E19" s="118"/>
+      <c r="F19" s="118"/>
+      <c r="G19" s="118"/>
+      <c r="H19" s="118"/>
+      <c r="I19" s="119"/>
+      <c r="J19" s="44"/>
+    </row>
+    <row r="20" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A20" s="76" t="s">
         <v>290</v>
       </c>
-      <c r="B18" s="77" t="s">
+      <c r="B20" s="77" t="s">
         <v>318</v>
       </c>
-      <c r="C18" s="109" t="s">
+      <c r="C20" s="114" t="s">
         <v>319</v>
       </c>
-      <c r="D18" s="110"/>
-      <c r="E18" s="110"/>
-      <c r="F18" s="110"/>
-      <c r="G18" s="110"/>
-      <c r="H18" s="110"/>
-      <c r="I18" s="111"/>
-      <c r="J18" s="35"/>
+      <c r="D20" s="115"/>
+      <c r="E20" s="115"/>
+      <c r="F20" s="115"/>
+      <c r="G20" s="115"/>
+      <c r="H20" s="115"/>
+      <c r="I20" s="116"/>
+      <c r="J20" s="35"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="C18:I18"/>
+  <mergeCells count="5">
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="C20:I20"/>
+    <mergeCell ref="C19:I19"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="B5:B6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4116,10 +4217,10 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:J54"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
+      <selection pane="bottomLeft" activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4171,47 +4272,47 @@
       <c r="B2" s="16" t="s">
         <v>186</v>
       </c>
-      <c r="C2" s="134" t="s">
+      <c r="C2" s="157" t="s">
         <v>185</v>
       </c>
-      <c r="D2" s="135"/>
-      <c r="E2" s="135"/>
-      <c r="F2" s="135"/>
-      <c r="G2" s="135"/>
-      <c r="H2" s="135"/>
-      <c r="I2" s="136"/>
+      <c r="D2" s="158"/>
+      <c r="E2" s="158"/>
+      <c r="F2" s="158"/>
+      <c r="G2" s="158"/>
+      <c r="H2" s="158"/>
+      <c r="I2" s="159"/>
       <c r="J2" s="78"/>
     </row>
     <row r="3" spans="1:10" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="164" t="s">
+      <c r="A3" s="120" t="s">
         <v>184</v>
       </c>
-      <c r="B3" s="166" t="s">
+      <c r="B3" s="122" t="s">
         <v>260</v>
       </c>
-      <c r="C3" s="124" t="s">
+      <c r="C3" s="117" t="s">
         <v>320</v>
       </c>
-      <c r="D3" s="125"/>
-      <c r="E3" s="125"/>
-      <c r="F3" s="125"/>
-      <c r="G3" s="125"/>
-      <c r="H3" s="125"/>
-      <c r="I3" s="125"/>
-      <c r="J3" s="126"/>
+      <c r="D3" s="118"/>
+      <c r="E3" s="118"/>
+      <c r="F3" s="118"/>
+      <c r="G3" s="118"/>
+      <c r="H3" s="118"/>
+      <c r="I3" s="118"/>
+      <c r="J3" s="119"/>
     </row>
     <row r="4" spans="1:10" s="18" customFormat="1" ht="165" x14ac:dyDescent="0.25">
-      <c r="A4" s="165"/>
-      <c r="B4" s="167"/>
+      <c r="A4" s="121"/>
+      <c r="B4" s="123"/>
       <c r="C4" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="D4" s="147" t="s">
+      <c r="D4" s="130" t="s">
         <v>182</v>
       </c>
-      <c r="E4" s="147"/>
-      <c r="F4" s="147"/>
-      <c r="G4" s="147"/>
+      <c r="E4" s="130"/>
+      <c r="F4" s="130"/>
+      <c r="G4" s="130"/>
       <c r="H4" s="54" t="s">
         <v>181</v>
       </c>
@@ -4227,15 +4328,15 @@
       <c r="B5" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="C5" s="124" t="s">
+      <c r="C5" s="117" t="s">
         <v>178</v>
       </c>
-      <c r="D5" s="125"/>
-      <c r="E5" s="125"/>
-      <c r="F5" s="125"/>
-      <c r="G5" s="125"/>
-      <c r="H5" s="125"/>
-      <c r="I5" s="126"/>
+      <c r="D5" s="118"/>
+      <c r="E5" s="118"/>
+      <c r="F5" s="118"/>
+      <c r="G5" s="118"/>
+      <c r="H5" s="118"/>
+      <c r="I5" s="119"/>
       <c r="J5" s="80"/>
     </row>
     <row r="6" spans="1:10" s="18" customFormat="1" ht="75" x14ac:dyDescent="0.25">
@@ -4246,12 +4347,12 @@
         <v>259</v>
       </c>
       <c r="C6" s="31"/>
-      <c r="D6" s="147" t="s">
+      <c r="D6" s="130" t="s">
         <v>177</v>
       </c>
-      <c r="E6" s="147"/>
-      <c r="F6" s="147"/>
-      <c r="G6" s="147"/>
+      <c r="E6" s="130"/>
+      <c r="F6" s="130"/>
+      <c r="G6" s="130"/>
       <c r="H6" s="54" t="s">
         <v>176</v>
       </c>
@@ -4267,15 +4368,15 @@
       <c r="B7" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="C7" s="124" t="s">
+      <c r="C7" s="117" t="s">
         <v>173</v>
       </c>
-      <c r="D7" s="125"/>
-      <c r="E7" s="125"/>
-      <c r="F7" s="125"/>
-      <c r="G7" s="125"/>
-      <c r="H7" s="125"/>
-      <c r="I7" s="126"/>
+      <c r="D7" s="118"/>
+      <c r="E7" s="118"/>
+      <c r="F7" s="118"/>
+      <c r="G7" s="118"/>
+      <c r="H7" s="118"/>
+      <c r="I7" s="119"/>
       <c r="J7" s="80"/>
     </row>
     <row r="8" spans="1:10" s="18" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -4285,16 +4386,16 @@
       <c r="B8" s="6" t="s">
         <v>258</v>
       </c>
-      <c r="C8" s="124" t="s">
+      <c r="C8" s="117" t="s">
         <v>171</v>
       </c>
-      <c r="D8" s="125"/>
-      <c r="E8" s="125"/>
-      <c r="F8" s="125"/>
-      <c r="G8" s="125"/>
-      <c r="H8" s="125"/>
-      <c r="I8" s="125"/>
-      <c r="J8" s="126"/>
+      <c r="D8" s="118"/>
+      <c r="E8" s="118"/>
+      <c r="F8" s="118"/>
+      <c r="G8" s="118"/>
+      <c r="H8" s="118"/>
+      <c r="I8" s="118"/>
+      <c r="J8" s="119"/>
     </row>
     <row r="9" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="42" t="s">
@@ -4303,15 +4404,15 @@
       <c r="B9" s="6" t="s">
         <v>257</v>
       </c>
-      <c r="C9" s="124" t="s">
+      <c r="C9" s="117" t="s">
         <v>169</v>
       </c>
-      <c r="D9" s="125"/>
-      <c r="E9" s="125"/>
-      <c r="F9" s="125"/>
-      <c r="G9" s="125"/>
-      <c r="H9" s="125"/>
-      <c r="I9" s="126"/>
+      <c r="D9" s="118"/>
+      <c r="E9" s="118"/>
+      <c r="F9" s="118"/>
+      <c r="G9" s="118"/>
+      <c r="H9" s="118"/>
+      <c r="I9" s="119"/>
       <c r="J9" s="59"/>
     </row>
     <row r="10" spans="1:10" ht="90" customHeight="1" x14ac:dyDescent="0.25">
@@ -4321,14 +4422,14 @@
       <c r="B10" s="69" t="s">
         <v>261</v>
       </c>
-      <c r="C10" s="124" t="s">
+      <c r="C10" s="117" t="s">
         <v>263</v>
       </c>
-      <c r="D10" s="125"/>
-      <c r="E10" s="125"/>
-      <c r="F10" s="125"/>
-      <c r="G10" s="125"/>
-      <c r="H10" s="126"/>
+      <c r="D10" s="118"/>
+      <c r="E10" s="118"/>
+      <c r="F10" s="118"/>
+      <c r="G10" s="118"/>
+      <c r="H10" s="119"/>
       <c r="I10" s="4"/>
       <c r="J10" s="70" t="s">
         <v>262</v>
@@ -4358,7 +4459,7 @@
       <c r="I11" s="61" t="s">
         <v>246</v>
       </c>
-      <c r="J11" s="127"/>
+      <c r="J11" s="124"/>
     </row>
     <row r="12" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
@@ -4370,15 +4471,15 @@
       <c r="C12" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="D12" s="112"/>
-      <c r="E12" s="118"/>
-      <c r="F12" s="158"/>
-      <c r="G12" s="158"/>
-      <c r="H12" s="158"/>
+      <c r="D12" s="134"/>
+      <c r="E12" s="135"/>
+      <c r="F12" s="136"/>
+      <c r="G12" s="136"/>
+      <c r="H12" s="136"/>
       <c r="I12" s="61" t="s">
         <v>294</v>
       </c>
-      <c r="J12" s="162"/>
+      <c r="J12" s="125"/>
     </row>
     <row r="13" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
@@ -4406,20 +4507,20 @@
       <c r="I13" s="60" t="s">
         <v>241</v>
       </c>
-      <c r="J13" s="162"/>
+      <c r="J13" s="125"/>
     </row>
     <row r="14" spans="1:10" ht="135" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="168" t="s">
+      <c r="A14" s="131" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="154" t="s">
+      <c r="B14" s="132" t="s">
         <v>157</v>
       </c>
       <c r="C14" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="D14" s="112"/>
-      <c r="E14" s="113"/>
+      <c r="D14" s="134"/>
+      <c r="E14" s="145"/>
       <c r="F14" s="32" t="s">
         <v>238</v>
       </c>
@@ -4430,34 +4531,34 @@
       <c r="I14" s="63" t="s">
         <v>243</v>
       </c>
-      <c r="J14" s="162"/>
+      <c r="J14" s="125"/>
     </row>
     <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="168"/>
-      <c r="B15" s="154"/>
-      <c r="C15" s="143" t="s">
+      <c r="A15" s="131"/>
+      <c r="B15" s="132"/>
+      <c r="C15" s="160" t="s">
         <v>155</v>
       </c>
-      <c r="D15" s="144"/>
-      <c r="E15" s="144"/>
-      <c r="F15" s="144"/>
-      <c r="G15" s="144"/>
-      <c r="H15" s="144"/>
-      <c r="I15" s="145"/>
-      <c r="J15" s="162"/>
+      <c r="D15" s="161"/>
+      <c r="E15" s="161"/>
+      <c r="F15" s="161"/>
+      <c r="G15" s="161"/>
+      <c r="H15" s="161"/>
+      <c r="I15" s="162"/>
+      <c r="J15" s="125"/>
     </row>
     <row r="16" spans="1:10" ht="120" x14ac:dyDescent="0.25">
-      <c r="A16" s="168" t="s">
+      <c r="A16" s="131" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="154" t="s">
+      <c r="B16" s="132" t="s">
         <v>154</v>
       </c>
       <c r="C16" s="30" t="s">
         <v>153</v>
       </c>
-      <c r="D16" s="155"/>
-      <c r="E16" s="142"/>
+      <c r="D16" s="137"/>
+      <c r="E16" s="138"/>
       <c r="F16" s="60" t="s">
         <v>152</v>
       </c>
@@ -4468,21 +4569,21 @@
       <c r="I16" s="64" t="s">
         <v>244</v>
       </c>
-      <c r="J16" s="162"/>
+      <c r="J16" s="125"/>
     </row>
     <row r="17" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="168"/>
-      <c r="B17" s="169"/>
-      <c r="C17" s="146" t="s">
+      <c r="A17" s="131"/>
+      <c r="B17" s="133"/>
+      <c r="C17" s="163" t="s">
         <v>151</v>
       </c>
-      <c r="D17" s="147"/>
-      <c r="E17" s="147"/>
-      <c r="F17" s="147"/>
-      <c r="G17" s="147"/>
-      <c r="H17" s="147"/>
-      <c r="I17" s="147"/>
-      <c r="J17" s="128"/>
+      <c r="D17" s="130"/>
+      <c r="E17" s="130"/>
+      <c r="F17" s="130"/>
+      <c r="G17" s="130"/>
+      <c r="H17" s="130"/>
+      <c r="I17" s="130"/>
+      <c r="J17" s="126"/>
     </row>
     <row r="18" spans="1:10" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="90" t="s">
@@ -4491,13 +4592,13 @@
       <c r="B18" s="91" t="s">
         <v>315</v>
       </c>
-      <c r="C18" s="163"/>
-      <c r="D18" s="141"/>
-      <c r="E18" s="141"/>
-      <c r="F18" s="141"/>
-      <c r="G18" s="141"/>
-      <c r="H18" s="141"/>
-      <c r="I18" s="142"/>
+      <c r="C18" s="139"/>
+      <c r="D18" s="140"/>
+      <c r="E18" s="140"/>
+      <c r="F18" s="140"/>
+      <c r="G18" s="140"/>
+      <c r="H18" s="140"/>
+      <c r="I18" s="138"/>
       <c r="J18" s="46" t="s">
         <v>313</v>
       </c>
@@ -4509,14 +4610,14 @@
       <c r="B19" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="C19" s="124" t="s">
+      <c r="C19" s="117" t="s">
         <v>279</v>
       </c>
-      <c r="D19" s="125"/>
-      <c r="E19" s="125"/>
-      <c r="F19" s="125"/>
-      <c r="G19" s="125"/>
-      <c r="H19" s="126"/>
+      <c r="D19" s="118"/>
+      <c r="E19" s="118"/>
+      <c r="F19" s="118"/>
+      <c r="G19" s="118"/>
+      <c r="H19" s="119"/>
       <c r="I19" s="81"/>
       <c r="J19" s="62" t="s">
         <v>280</v>
@@ -4529,16 +4630,16 @@
       <c r="B20" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="C20" s="114" t="s">
+      <c r="C20" s="127" t="s">
         <v>146</v>
       </c>
-      <c r="D20" s="115"/>
-      <c r="E20" s="115"/>
-      <c r="F20" s="115"/>
-      <c r="G20" s="115"/>
-      <c r="H20" s="115"/>
-      <c r="I20" s="115"/>
-      <c r="J20" s="116"/>
+      <c r="D20" s="128"/>
+      <c r="E20" s="128"/>
+      <c r="F20" s="128"/>
+      <c r="G20" s="128"/>
+      <c r="H20" s="128"/>
+      <c r="I20" s="128"/>
+      <c r="J20" s="129"/>
     </row>
     <row r="21" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
@@ -4547,16 +4648,16 @@
       <c r="B21" s="40" t="s">
         <v>144</v>
       </c>
-      <c r="C21" s="114" t="s">
+      <c r="C21" s="127" t="s">
         <v>143</v>
       </c>
-      <c r="D21" s="115"/>
-      <c r="E21" s="115"/>
-      <c r="F21" s="115"/>
-      <c r="G21" s="115"/>
-      <c r="H21" s="115"/>
-      <c r="I21" s="115"/>
-      <c r="J21" s="116"/>
+      <c r="D21" s="128"/>
+      <c r="E21" s="128"/>
+      <c r="F21" s="128"/>
+      <c r="G21" s="128"/>
+      <c r="H21" s="128"/>
+      <c r="I21" s="128"/>
+      <c r="J21" s="129"/>
     </row>
     <row r="22" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
@@ -4565,16 +4666,16 @@
       <c r="B22" s="40" t="s">
         <v>200</v>
       </c>
-      <c r="C22" s="114" t="s">
+      <c r="C22" s="127" t="s">
         <v>201</v>
       </c>
-      <c r="D22" s="115"/>
-      <c r="E22" s="115"/>
-      <c r="F22" s="115"/>
-      <c r="G22" s="115"/>
-      <c r="H22" s="115"/>
-      <c r="I22" s="115"/>
-      <c r="J22" s="116"/>
+      <c r="D22" s="128"/>
+      <c r="E22" s="128"/>
+      <c r="F22" s="128"/>
+      <c r="G22" s="128"/>
+      <c r="H22" s="128"/>
+      <c r="I22" s="128"/>
+      <c r="J22" s="129"/>
     </row>
     <row r="23" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
@@ -4583,16 +4684,16 @@
       <c r="B23" s="40" t="s">
         <v>141</v>
       </c>
-      <c r="C23" s="114" t="s">
+      <c r="C23" s="127" t="s">
         <v>140</v>
       </c>
-      <c r="D23" s="115"/>
-      <c r="E23" s="115"/>
-      <c r="F23" s="115"/>
-      <c r="G23" s="115"/>
-      <c r="H23" s="115"/>
-      <c r="I23" s="115"/>
-      <c r="J23" s="116"/>
+      <c r="D23" s="128"/>
+      <c r="E23" s="128"/>
+      <c r="F23" s="128"/>
+      <c r="G23" s="128"/>
+      <c r="H23" s="128"/>
+      <c r="I23" s="128"/>
+      <c r="J23" s="129"/>
     </row>
     <row r="24" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
@@ -4601,16 +4702,16 @@
       <c r="B24" s="40" t="s">
         <v>203</v>
       </c>
-      <c r="C24" s="114" t="s">
+      <c r="C24" s="127" t="s">
         <v>204</v>
       </c>
-      <c r="D24" s="115"/>
-      <c r="E24" s="115"/>
-      <c r="F24" s="115"/>
-      <c r="G24" s="115"/>
-      <c r="H24" s="115"/>
-      <c r="I24" s="115"/>
-      <c r="J24" s="116"/>
+      <c r="D24" s="128"/>
+      <c r="E24" s="128"/>
+      <c r="F24" s="128"/>
+      <c r="G24" s="128"/>
+      <c r="H24" s="128"/>
+      <c r="I24" s="128"/>
+      <c r="J24" s="129"/>
     </row>
     <row r="25" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
@@ -4619,16 +4720,16 @@
       <c r="B25" s="40" t="s">
         <v>138</v>
       </c>
-      <c r="C25" s="114" t="s">
+      <c r="C25" s="127" t="s">
         <v>137</v>
       </c>
-      <c r="D25" s="115"/>
-      <c r="E25" s="115"/>
-      <c r="F25" s="115"/>
-      <c r="G25" s="115"/>
-      <c r="H25" s="115"/>
-      <c r="I25" s="115"/>
-      <c r="J25" s="116"/>
+      <c r="D25" s="128"/>
+      <c r="E25" s="128"/>
+      <c r="F25" s="128"/>
+      <c r="G25" s="128"/>
+      <c r="H25" s="128"/>
+      <c r="I25" s="128"/>
+      <c r="J25" s="129"/>
     </row>
     <row r="26" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
@@ -4637,16 +4738,16 @@
       <c r="B26" s="40" t="s">
         <v>135</v>
       </c>
-      <c r="C26" s="114" t="s">
+      <c r="C26" s="127" t="s">
         <v>134</v>
       </c>
-      <c r="D26" s="115"/>
-      <c r="E26" s="115"/>
-      <c r="F26" s="115"/>
-      <c r="G26" s="115"/>
-      <c r="H26" s="115"/>
-      <c r="I26" s="115"/>
-      <c r="J26" s="116"/>
+      <c r="D26" s="128"/>
+      <c r="E26" s="128"/>
+      <c r="F26" s="128"/>
+      <c r="G26" s="128"/>
+      <c r="H26" s="128"/>
+      <c r="I26" s="128"/>
+      <c r="J26" s="129"/>
     </row>
     <row r="27" spans="1:10" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="39" t="s">
@@ -4665,8 +4766,8 @@
       <c r="F27" s="45" t="s">
         <v>208</v>
       </c>
-      <c r="G27" s="156"/>
-      <c r="H27" s="157"/>
+      <c r="G27" s="152"/>
+      <c r="H27" s="153"/>
       <c r="I27" s="36" t="s">
         <v>295</v>
       </c>
@@ -4674,43 +4775,43 @@
         <v>242</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="34" t="s">
         <v>130</v>
       </c>
       <c r="B28" s="33" t="s">
         <v>129</v>
       </c>
-      <c r="C28" s="159" t="s">
+      <c r="C28" s="154" t="s">
         <v>128</v>
       </c>
-      <c r="D28" s="160"/>
-      <c r="E28" s="160"/>
-      <c r="F28" s="160"/>
-      <c r="G28" s="160"/>
-      <c r="H28" s="160"/>
-      <c r="I28" s="160"/>
-      <c r="J28" s="161"/>
-    </row>
-    <row r="29" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D28" s="155"/>
+      <c r="E28" s="155"/>
+      <c r="F28" s="155"/>
+      <c r="G28" s="155"/>
+      <c r="H28" s="155"/>
+      <c r="I28" s="155"/>
+      <c r="J28" s="156"/>
+    </row>
+    <row r="29" spans="1:10" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="34" t="s">
         <v>127</v>
       </c>
       <c r="B29" s="33" t="s">
         <v>126</v>
       </c>
-      <c r="C29" s="139" t="s">
+      <c r="C29" s="146" t="s">
         <v>125</v>
       </c>
-      <c r="D29" s="152"/>
-      <c r="E29" s="152"/>
-      <c r="F29" s="152"/>
-      <c r="G29" s="152"/>
-      <c r="H29" s="152"/>
-      <c r="I29" s="153"/>
-      <c r="J29" s="127"/>
-    </row>
-    <row r="30" spans="1:10" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D29" s="147"/>
+      <c r="E29" s="147"/>
+      <c r="F29" s="147"/>
+      <c r="G29" s="147"/>
+      <c r="H29" s="147"/>
+      <c r="I29" s="148"/>
+      <c r="J29" s="124"/>
+    </row>
+    <row r="30" spans="1:10" ht="105" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="34" t="s">
         <v>124</v>
       </c>
@@ -4720,21 +4821,21 @@
       <c r="C30" s="53" t="s">
         <v>122</v>
       </c>
-      <c r="D30" s="132"/>
-      <c r="E30" s="133"/>
+      <c r="D30" s="150"/>
+      <c r="E30" s="151"/>
       <c r="F30" s="41" t="s">
         <v>121</v>
       </c>
       <c r="G30" s="41" t="s">
         <v>120</v>
       </c>
-      <c r="H30" s="155"/>
+      <c r="H30" s="137"/>
       <c r="I30" s="61" t="s">
         <v>248</v>
       </c>
-      <c r="J30" s="162"/>
-    </row>
-    <row r="31" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="J30" s="125"/>
+    </row>
+    <row r="31" spans="1:10" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="24" t="s">
         <v>119</v>
       </c>
@@ -4756,73 +4857,73 @@
       <c r="G31" s="60" t="s">
         <v>113</v>
       </c>
-      <c r="H31" s="122"/>
+      <c r="H31" s="149"/>
       <c r="I31" s="61" t="s">
         <v>250</v>
       </c>
-      <c r="J31" s="128"/>
-    </row>
-    <row r="32" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J31" s="126"/>
+    </row>
+    <row r="32" spans="1:10" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="24" t="s">
         <v>216</v>
       </c>
       <c r="B32" s="23" t="s">
         <v>217</v>
       </c>
-      <c r="C32" s="114" t="s">
+      <c r="C32" s="127" t="s">
         <v>218</v>
       </c>
-      <c r="D32" s="115"/>
-      <c r="E32" s="115"/>
-      <c r="F32" s="115"/>
-      <c r="G32" s="115"/>
-      <c r="H32" s="116"/>
+      <c r="D32" s="128"/>
+      <c r="E32" s="128"/>
+      <c r="F32" s="128"/>
+      <c r="G32" s="128"/>
+      <c r="H32" s="129"/>
       <c r="I32" s="83"/>
       <c r="J32" s="70" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" ht="75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="24" t="s">
         <v>252</v>
       </c>
       <c r="B33" s="23" t="s">
         <v>253</v>
       </c>
-      <c r="C33" s="114" t="s">
+      <c r="C33" s="127" t="s">
         <v>255</v>
       </c>
-      <c r="D33" s="115"/>
-      <c r="E33" s="115"/>
-      <c r="F33" s="115"/>
-      <c r="G33" s="115"/>
-      <c r="H33" s="116"/>
+      <c r="D33" s="128"/>
+      <c r="E33" s="128"/>
+      <c r="F33" s="128"/>
+      <c r="G33" s="128"/>
+      <c r="H33" s="129"/>
       <c r="I33" s="84"/>
       <c r="J33" s="70" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="24" t="s">
         <v>214</v>
       </c>
       <c r="B34" s="23" t="s">
         <v>213</v>
       </c>
-      <c r="C34" s="115" t="s">
+      <c r="C34" s="128" t="s">
         <v>215</v>
       </c>
-      <c r="D34" s="115"/>
-      <c r="E34" s="115"/>
-      <c r="F34" s="115"/>
-      <c r="G34" s="115"/>
-      <c r="H34" s="115"/>
+      <c r="D34" s="128"/>
+      <c r="E34" s="128"/>
+      <c r="F34" s="128"/>
+      <c r="G34" s="128"/>
+      <c r="H34" s="128"/>
       <c r="I34" s="84"/>
       <c r="J34" s="61" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="300" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" ht="300" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="24" t="s">
         <v>112</v>
       </c>
@@ -4852,7 +4953,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="225" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" ht="225" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="24" t="s">
         <v>106</v>
       </c>
@@ -4862,8 +4963,8 @@
       <c r="C36" s="50" t="s">
         <v>104</v>
       </c>
-      <c r="D36" s="155"/>
-      <c r="E36" s="142"/>
+      <c r="D36" s="137"/>
+      <c r="E36" s="138"/>
       <c r="F36" s="21" t="s">
         <v>103</v>
       </c>
@@ -4876,27 +4977,27 @@
         <v>297</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="240" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" ht="240" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="24" t="s">
         <v>101</v>
       </c>
       <c r="B37" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="C37" s="117"/>
-      <c r="D37" s="118"/>
+      <c r="C37" s="167"/>
+      <c r="D37" s="135"/>
       <c r="E37" s="63" t="s">
         <v>273</v>
       </c>
-      <c r="F37" s="122"/>
-      <c r="G37" s="118"/>
-      <c r="H37" s="118"/>
-      <c r="I37" s="123"/>
+      <c r="F37" s="149"/>
+      <c r="G37" s="135"/>
+      <c r="H37" s="135"/>
+      <c r="I37" s="171"/>
       <c r="J37" s="61" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="165" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="24" t="s">
         <v>99</v>
       </c>
@@ -4906,10 +5007,10 @@
       <c r="C38" s="50" t="s">
         <v>205</v>
       </c>
-      <c r="D38" s="112"/>
-      <c r="E38" s="158"/>
-      <c r="F38" s="158"/>
-      <c r="G38" s="113"/>
+      <c r="D38" s="134"/>
+      <c r="E38" s="136"/>
+      <c r="F38" s="136"/>
+      <c r="G38" s="145"/>
       <c r="H38" s="21" t="s">
         <v>206</v>
       </c>
@@ -4920,61 +5021,61 @@
         <v>298</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="137" t="s">
+    <row r="39" spans="1:10" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="141" t="s">
         <v>97</v>
       </c>
-      <c r="B39" s="148" t="s">
+      <c r="B39" s="143" t="s">
         <v>96</v>
       </c>
-      <c r="C39" s="114" t="s">
+      <c r="C39" s="127" t="s">
         <v>95</v>
       </c>
-      <c r="D39" s="115"/>
-      <c r="E39" s="115"/>
-      <c r="F39" s="115"/>
-      <c r="G39" s="115"/>
-      <c r="H39" s="115"/>
+      <c r="D39" s="128"/>
+      <c r="E39" s="128"/>
+      <c r="F39" s="128"/>
+      <c r="G39" s="128"/>
+      <c r="H39" s="128"/>
       <c r="I39" s="68" t="s">
         <v>265</v>
       </c>
       <c r="J39" s="59"/>
     </row>
-    <row r="40" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="138"/>
-      <c r="B40" s="140"/>
-      <c r="C40" s="124" t="s">
+    <row r="40" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="142"/>
+      <c r="B40" s="144"/>
+      <c r="C40" s="117" t="s">
         <v>94</v>
       </c>
-      <c r="D40" s="125"/>
-      <c r="E40" s="125"/>
-      <c r="F40" s="125"/>
-      <c r="G40" s="125"/>
-      <c r="H40" s="125"/>
-      <c r="I40" s="125"/>
-      <c r="J40" s="126"/>
-    </row>
-    <row r="41" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="137" t="s">
+      <c r="D40" s="118"/>
+      <c r="E40" s="118"/>
+      <c r="F40" s="118"/>
+      <c r="G40" s="118"/>
+      <c r="H40" s="118"/>
+      <c r="I40" s="118"/>
+      <c r="J40" s="119"/>
+    </row>
+    <row r="41" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="141" t="s">
         <v>219</v>
       </c>
-      <c r="B41" s="148" t="s">
+      <c r="B41" s="143" t="s">
         <v>227</v>
       </c>
-      <c r="C41" s="124" t="s">
+      <c r="C41" s="117" t="s">
         <v>221</v>
       </c>
-      <c r="D41" s="125"/>
-      <c r="E41" s="125"/>
-      <c r="F41" s="125"/>
-      <c r="G41" s="125"/>
-      <c r="H41" s="125"/>
-      <c r="I41" s="125"/>
-      <c r="J41" s="126"/>
-    </row>
-    <row r="42" spans="1:10" ht="285" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="138"/>
-      <c r="B42" s="143"/>
+      <c r="D41" s="118"/>
+      <c r="E41" s="118"/>
+      <c r="F41" s="118"/>
+      <c r="G41" s="118"/>
+      <c r="H41" s="118"/>
+      <c r="I41" s="118"/>
+      <c r="J41" s="119"/>
+    </row>
+    <row r="42" spans="1:10" ht="285" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="142"/>
+      <c r="B42" s="160"/>
       <c r="C42" s="53" t="s">
         <v>222</v>
       </c>
@@ -4998,7 +5099,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="330" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" ht="330" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="29" t="s">
         <v>220</v>
       </c>
@@ -5023,10 +5124,10 @@
       <c r="H43" s="54" t="s">
         <v>230</v>
       </c>
-      <c r="I43" s="122"/>
-      <c r="J43" s="123"/>
-    </row>
-    <row r="44" spans="1:10" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I43" s="149"/>
+      <c r="J43" s="171"/>
+    </row>
+    <row r="44" spans="1:10" ht="120" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="24" t="s">
         <v>93</v>
       </c>
@@ -5058,27 +5159,27 @@
         <v>301</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="137" t="s">
+    <row r="45" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="141" t="s">
         <v>87</v>
       </c>
-      <c r="B45" s="148" t="s">
+      <c r="B45" s="143" t="s">
         <v>86</v>
       </c>
-      <c r="C45" s="114" t="s">
+      <c r="C45" s="127" t="s">
         <v>282</v>
       </c>
-      <c r="D45" s="115"/>
-      <c r="E45" s="115"/>
-      <c r="F45" s="115"/>
-      <c r="G45" s="115"/>
-      <c r="H45" s="115"/>
-      <c r="I45" s="116"/>
-      <c r="J45" s="127"/>
-    </row>
-    <row r="46" spans="1:10" ht="195" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="138"/>
-      <c r="B46" s="140"/>
+      <c r="D45" s="128"/>
+      <c r="E45" s="128"/>
+      <c r="F45" s="128"/>
+      <c r="G45" s="128"/>
+      <c r="H45" s="128"/>
+      <c r="I45" s="129"/>
+      <c r="J45" s="124"/>
+    </row>
+    <row r="46" spans="1:10" ht="195" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="142"/>
+      <c r="B46" s="144"/>
       <c r="C46" s="22" t="s">
         <v>285</v>
       </c>
@@ -5100,47 +5201,47 @@
       <c r="I46" s="21" t="s">
         <v>288</v>
       </c>
-      <c r="J46" s="128"/>
-    </row>
-    <row r="47" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="137" t="s">
+      <c r="J46" s="126"/>
+    </row>
+    <row r="47" spans="1:10" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="141" t="s">
         <v>84</v>
       </c>
-      <c r="B47" s="148" t="s">
+      <c r="B47" s="143" t="s">
         <v>83</v>
       </c>
-      <c r="C47" s="149" t="s">
+      <c r="C47" s="164" t="s">
         <v>237</v>
       </c>
-      <c r="D47" s="150"/>
-      <c r="E47" s="150"/>
-      <c r="F47" s="150"/>
-      <c r="G47" s="150"/>
-      <c r="H47" s="151"/>
-      <c r="I47" s="119"/>
-      <c r="J47" s="129" t="s">
+      <c r="D47" s="165"/>
+      <c r="E47" s="165"/>
+      <c r="F47" s="165"/>
+      <c r="G47" s="165"/>
+      <c r="H47" s="166"/>
+      <c r="I47" s="168"/>
+      <c r="J47" s="172" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="300" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="138"/>
-      <c r="B48" s="140"/>
+    <row r="48" spans="1:10" ht="300" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="142"/>
+      <c r="B48" s="144"/>
       <c r="C48" s="50" t="s">
         <v>82</v>
       </c>
       <c r="D48" s="4"/>
-      <c r="E48" s="121" t="s">
+      <c r="E48" s="170" t="s">
         <v>81</v>
       </c>
-      <c r="F48" s="116"/>
+      <c r="F48" s="129"/>
       <c r="G48" s="4"/>
       <c r="H48" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="I48" s="120"/>
-      <c r="J48" s="130"/>
-    </row>
-    <row r="49" spans="1:10" ht="195" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I48" s="169"/>
+      <c r="J48" s="173"/>
+    </row>
+    <row r="49" spans="1:10" ht="195" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="24" t="s">
         <v>79</v>
       </c>
@@ -5172,7 +5273,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" ht="105" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="24" t="s">
         <v>71</v>
       </c>
@@ -5204,36 +5305,36 @@
         <v>304</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="137" t="s">
+    <row r="51" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="141" t="s">
         <v>63</v>
       </c>
-      <c r="B51" s="139" t="s">
+      <c r="B51" s="146" t="s">
         <v>62</v>
       </c>
-      <c r="C51" s="131" t="s">
+      <c r="C51" s="174" t="s">
         <v>269</v>
       </c>
-      <c r="D51" s="131"/>
-      <c r="E51" s="131"/>
-      <c r="F51" s="131"/>
-      <c r="G51" s="131"/>
-      <c r="H51" s="131"/>
-      <c r="I51" s="132"/>
-      <c r="J51" s="133"/>
-    </row>
-    <row r="52" spans="1:10" ht="345" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="138"/>
-      <c r="B52" s="140"/>
+      <c r="D51" s="174"/>
+      <c r="E51" s="174"/>
+      <c r="F51" s="174"/>
+      <c r="G51" s="174"/>
+      <c r="H51" s="174"/>
+      <c r="I51" s="150"/>
+      <c r="J51" s="151"/>
+    </row>
+    <row r="52" spans="1:10" ht="345" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="142"/>
+      <c r="B52" s="144"/>
       <c r="C52" s="26" t="s">
         <v>268</v>
       </c>
       <c r="D52" s="25" t="s">
         <v>270</v>
       </c>
-      <c r="E52" s="132"/>
-      <c r="F52" s="141"/>
-      <c r="G52" s="142"/>
+      <c r="E52" s="150"/>
+      <c r="F52" s="140"/>
+      <c r="G52" s="138"/>
       <c r="H52" s="57" t="s">
         <v>271</v>
       </c>
@@ -5244,7 +5345,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="345" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" ht="345" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="24" t="s">
         <v>61</v>
       </c>
@@ -5260,8 +5361,8 @@
       <c r="E53" s="21" t="s">
         <v>211</v>
       </c>
-      <c r="F53" s="112"/>
-      <c r="G53" s="113"/>
+      <c r="F53" s="134"/>
+      <c r="G53" s="145"/>
       <c r="H53" s="28" t="s">
         <v>210</v>
       </c>
@@ -5270,7 +5371,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="405" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" ht="405" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="24" t="s">
         <v>58</v>
       </c>
@@ -5302,28 +5403,35 @@
     </row>
   </sheetData>
   <mergeCells count="67">
-    <mergeCell ref="C3:J3"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="J11:J17"/>
-    <mergeCell ref="C20:J20"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="D6:G6"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="C34:H34"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="C22:J22"/>
-    <mergeCell ref="D12:H12"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="C18:I18"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:H39"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D38:G38"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="C45:I45"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="I47:I48"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="F37:I37"/>
+    <mergeCell ref="C40:J40"/>
+    <mergeCell ref="C41:J41"/>
+    <mergeCell ref="J45:J46"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="J47:J48"/>
+    <mergeCell ref="C51:H51"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="C2:I2"/>
+    <mergeCell ref="C8:J8"/>
+    <mergeCell ref="C10:H10"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="E52:G52"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="C15:I15"/>
+    <mergeCell ref="C17:I17"/>
+    <mergeCell ref="C19:H19"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="C47:H47"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
     <mergeCell ref="B45:B46"/>
     <mergeCell ref="C29:I29"/>
     <mergeCell ref="C33:H33"/>
@@ -5340,35 +5448,28 @@
     <mergeCell ref="C26:J26"/>
     <mergeCell ref="C28:J28"/>
     <mergeCell ref="J29:J31"/>
-    <mergeCell ref="C2:I2"/>
-    <mergeCell ref="C8:J8"/>
-    <mergeCell ref="C10:H10"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="E52:G52"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="C15:I15"/>
-    <mergeCell ref="C17:I17"/>
-    <mergeCell ref="C19:H19"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="C47:H47"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="C45:I45"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="I47:I48"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="F37:I37"/>
-    <mergeCell ref="C40:J40"/>
-    <mergeCell ref="C41:J41"/>
-    <mergeCell ref="J45:J46"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="J47:J48"/>
-    <mergeCell ref="C51:H51"/>
-    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:H39"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D38:G38"/>
+    <mergeCell ref="C34:H34"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="C22:J22"/>
+    <mergeCell ref="D12:H12"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="C18:I18"/>
+    <mergeCell ref="C3:J3"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="J11:J17"/>
+    <mergeCell ref="C20:J20"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5380,10 +5481,10 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:M37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="C4" sqref="C4:J4"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5432,326 +5533,326 @@
       <c r="M1" s="97"/>
     </row>
     <row r="2" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="171" t="s">
+      <c r="A2" s="194" t="s">
         <v>198</v>
       </c>
-      <c r="B2" s="170" t="s">
+      <c r="B2" s="193" t="s">
         <v>309</v>
       </c>
-      <c r="C2" s="173" t="s">
+      <c r="C2" s="196" t="s">
         <v>340</v>
       </c>
-      <c r="D2" s="174"/>
-      <c r="E2" s="174"/>
-      <c r="F2" s="174"/>
-      <c r="G2" s="174"/>
-      <c r="H2" s="174"/>
-      <c r="I2" s="174"/>
-      <c r="J2" s="174"/>
+      <c r="D2" s="197"/>
+      <c r="E2" s="197"/>
+      <c r="F2" s="197"/>
+      <c r="G2" s="197"/>
+      <c r="H2" s="197"/>
+      <c r="I2" s="197"/>
+      <c r="J2" s="197"/>
       <c r="K2" s="97"/>
       <c r="L2" s="97"/>
       <c r="M2" s="97"/>
     </row>
     <row r="3" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="172"/>
-      <c r="B3" s="140"/>
-      <c r="C3" s="191"/>
-      <c r="D3" s="133"/>
+      <c r="A3" s="195"/>
+      <c r="B3" s="144"/>
+      <c r="C3" s="189"/>
+      <c r="D3" s="151"/>
       <c r="E3" s="46" t="s">
-        <v>354</v>
-      </c>
-      <c r="F3" s="132"/>
+        <v>353</v>
+      </c>
+      <c r="F3" s="150"/>
       <c r="G3" s="190"/>
       <c r="H3" s="190"/>
-      <c r="I3" s="133"/>
-      <c r="J3" s="192" t="s">
-        <v>359</v>
+      <c r="I3" s="151"/>
+      <c r="J3" s="111" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="4" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="175" t="s">
+      <c r="A4" s="191" t="s">
         <v>197</v>
       </c>
-      <c r="B4" s="176" t="s">
+      <c r="B4" s="181" t="s">
         <v>310</v>
       </c>
-      <c r="C4" s="177" t="s">
+      <c r="C4" s="187" t="s">
         <v>339</v>
       </c>
-      <c r="D4" s="178"/>
-      <c r="E4" s="178"/>
-      <c r="F4" s="178"/>
-      <c r="G4" s="178"/>
-      <c r="H4" s="178"/>
-      <c r="I4" s="178"/>
-      <c r="J4" s="178"/>
+      <c r="D4" s="188"/>
+      <c r="E4" s="188"/>
+      <c r="F4" s="188"/>
+      <c r="G4" s="188"/>
+      <c r="H4" s="188"/>
+      <c r="I4" s="188"/>
+      <c r="J4" s="188"/>
       <c r="K4" s="97"/>
       <c r="L4" s="97"/>
       <c r="M4" s="97"/>
     </row>
     <row r="5" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="165"/>
-      <c r="B5" s="167"/>
-      <c r="C5" s="191"/>
+      <c r="A5" s="121"/>
+      <c r="B5" s="123"/>
+      <c r="C5" s="189"/>
       <c r="D5" s="190"/>
       <c r="E5" s="190"/>
       <c r="F5" s="190"/>
-      <c r="G5" s="133"/>
+      <c r="G5" s="151"/>
       <c r="H5" s="46" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="I5" s="58"/>
-      <c r="J5" s="192" t="s">
-        <v>358</v>
+      <c r="J5" s="111" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="6" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="175" t="s">
+      <c r="A6" s="191" t="s">
         <v>196</v>
       </c>
-      <c r="B6" s="176" t="s">
+      <c r="B6" s="181" t="s">
         <v>311</v>
       </c>
-      <c r="C6" s="177" t="s">
+      <c r="C6" s="187" t="s">
         <v>338</v>
       </c>
-      <c r="D6" s="178"/>
-      <c r="E6" s="178"/>
-      <c r="F6" s="178"/>
-      <c r="G6" s="178"/>
-      <c r="H6" s="178"/>
-      <c r="I6" s="178"/>
-      <c r="J6" s="178"/>
+      <c r="D6" s="188"/>
+      <c r="E6" s="188"/>
+      <c r="F6" s="188"/>
+      <c r="G6" s="188"/>
+      <c r="H6" s="188"/>
+      <c r="I6" s="188"/>
+      <c r="J6" s="188"/>
       <c r="K6" s="97"/>
       <c r="L6" s="97"/>
       <c r="M6" s="97"/>
     </row>
     <row r="7" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="165"/>
-      <c r="B7" s="167"/>
-      <c r="C7" s="191"/>
+      <c r="A7" s="121"/>
+      <c r="B7" s="123"/>
+      <c r="C7" s="189"/>
       <c r="D7" s="190"/>
-      <c r="E7" s="133"/>
+      <c r="E7" s="151"/>
       <c r="F7" s="46" t="s">
         <v>348</v>
       </c>
-      <c r="G7" s="132"/>
+      <c r="G7" s="150"/>
       <c r="H7" s="190"/>
-      <c r="I7" s="133"/>
-      <c r="J7" s="192" t="s">
-        <v>357</v>
+      <c r="I7" s="151"/>
+      <c r="J7" s="111" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="8" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="164" t="s">
+      <c r="A8" s="120" t="s">
         <v>195</v>
       </c>
-      <c r="B8" s="166" t="s">
+      <c r="B8" s="122" t="s">
         <v>312</v>
       </c>
-      <c r="C8" s="177" t="s">
+      <c r="C8" s="187" t="s">
         <v>337</v>
       </c>
-      <c r="D8" s="178"/>
-      <c r="E8" s="178"/>
-      <c r="F8" s="178"/>
-      <c r="G8" s="178"/>
-      <c r="H8" s="178"/>
-      <c r="I8" s="178"/>
-      <c r="J8" s="178"/>
+      <c r="D8" s="188"/>
+      <c r="E8" s="188"/>
+      <c r="F8" s="188"/>
+      <c r="G8" s="188"/>
+      <c r="H8" s="188"/>
+      <c r="I8" s="188"/>
+      <c r="J8" s="188"/>
       <c r="K8" s="97"/>
       <c r="L8" s="97"/>
       <c r="M8" s="97"/>
     </row>
     <row r="9" spans="1:13" s="96" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="179"/>
-      <c r="B9" s="180"/>
+      <c r="A9" s="192"/>
+      <c r="B9" s="182"/>
       <c r="C9" s="94"/>
-      <c r="D9" s="189" t="s">
-        <v>363</v>
-      </c>
-      <c r="E9" s="156"/>
-      <c r="F9" s="157"/>
-      <c r="G9" s="157"/>
-      <c r="H9" s="157"/>
-      <c r="I9" s="157"/>
-      <c r="J9" s="193" t="s">
-        <v>356</v>
+      <c r="D9" s="110" t="s">
+        <v>361</v>
+      </c>
+      <c r="E9" s="152"/>
+      <c r="F9" s="153"/>
+      <c r="G9" s="153"/>
+      <c r="H9" s="153"/>
+      <c r="I9" s="153"/>
+      <c r="J9" s="112" t="s">
+        <v>355</v>
       </c>
       <c r="K9" s="100"/>
       <c r="L9" s="100"/>
       <c r="M9" s="100"/>
     </row>
     <row r="10" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="181" t="s">
+      <c r="A10" s="179" t="s">
         <v>194</v>
       </c>
-      <c r="B10" s="176" t="s">
+      <c r="B10" s="181" t="s">
         <v>324</v>
       </c>
-      <c r="C10" s="177" t="s">
+      <c r="C10" s="187" t="s">
         <v>336</v>
       </c>
-      <c r="D10" s="178"/>
-      <c r="E10" s="178"/>
-      <c r="F10" s="178"/>
-      <c r="G10" s="178"/>
-      <c r="H10" s="178"/>
-      <c r="I10" s="178"/>
-      <c r="J10" s="178"/>
+      <c r="D10" s="188"/>
+      <c r="E10" s="188"/>
+      <c r="F10" s="188"/>
+      <c r="G10" s="188"/>
+      <c r="H10" s="188"/>
+      <c r="I10" s="188"/>
+      <c r="J10" s="188"/>
       <c r="K10" s="97"/>
       <c r="L10" s="97"/>
       <c r="M10" s="97"/>
     </row>
     <row r="11" spans="1:13" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="182"/>
-      <c r="B11" s="167"/>
+      <c r="A11" s="186"/>
+      <c r="B11" s="123"/>
       <c r="C11" s="108" t="s">
-        <v>353</v>
-      </c>
-      <c r="D11" s="132"/>
+        <v>352</v>
+      </c>
+      <c r="D11" s="150"/>
       <c r="E11" s="190"/>
       <c r="F11" s="190"/>
       <c r="G11" s="190"/>
       <c r="H11" s="190"/>
       <c r="I11" s="190"/>
-      <c r="J11" s="192" t="s">
-        <v>355</v>
+      <c r="J11" s="111" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="12" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="181" t="s">
+      <c r="A12" s="179" t="s">
         <v>193</v>
       </c>
-      <c r="B12" s="176" t="s">
+      <c r="B12" s="181" t="s">
         <v>323</v>
       </c>
-      <c r="C12" s="183" t="s">
+      <c r="C12" s="177" t="s">
         <v>335</v>
       </c>
-      <c r="D12" s="184"/>
-      <c r="E12" s="184"/>
-      <c r="F12" s="184"/>
-      <c r="G12" s="184"/>
-      <c r="H12" s="184"/>
-      <c r="I12" s="184"/>
-      <c r="J12" s="184"/>
+      <c r="D12" s="178"/>
+      <c r="E12" s="178"/>
+      <c r="F12" s="178"/>
+      <c r="G12" s="178"/>
+      <c r="H12" s="178"/>
+      <c r="I12" s="178"/>
+      <c r="J12" s="178"/>
       <c r="K12" s="97"/>
       <c r="L12" s="97"/>
       <c r="M12" s="97"/>
     </row>
     <row r="13" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="182"/>
-      <c r="B13" s="167"/>
-      <c r="C13" s="191"/>
+      <c r="A13" s="186"/>
+      <c r="B13" s="123"/>
+      <c r="C13" s="189"/>
       <c r="D13" s="190"/>
       <c r="E13" s="190"/>
-      <c r="F13" s="133"/>
+      <c r="F13" s="151"/>
       <c r="G13" s="46" t="s">
-        <v>364</v>
-      </c>
-      <c r="H13" s="132"/>
-      <c r="I13" s="133"/>
-      <c r="J13" s="194" t="s">
-        <v>360</v>
+        <v>362</v>
+      </c>
+      <c r="H13" s="150"/>
+      <c r="I13" s="151"/>
+      <c r="J13" s="113" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="14" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="181" t="s">
+      <c r="A14" s="179" t="s">
         <v>321</v>
       </c>
-      <c r="B14" s="176" t="s">
+      <c r="B14" s="181" t="s">
         <v>322</v>
       </c>
-      <c r="C14" s="177" t="s">
+      <c r="C14" s="187" t="s">
         <v>347</v>
       </c>
-      <c r="D14" s="178"/>
-      <c r="E14" s="178"/>
-      <c r="F14" s="178"/>
-      <c r="G14" s="178"/>
-      <c r="H14" s="178"/>
-      <c r="I14" s="178"/>
-      <c r="J14" s="178"/>
+      <c r="D14" s="188"/>
+      <c r="E14" s="188"/>
+      <c r="F14" s="188"/>
+      <c r="G14" s="188"/>
+      <c r="H14" s="188"/>
+      <c r="I14" s="188"/>
+      <c r="J14" s="188"/>
       <c r="K14" s="97"/>
       <c r="L14" s="97"/>
       <c r="M14" s="97"/>
     </row>
     <row r="15" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="182"/>
-      <c r="B15" s="167"/>
-      <c r="C15" s="191"/>
+      <c r="A15" s="186"/>
+      <c r="B15" s="123"/>
+      <c r="C15" s="189"/>
       <c r="D15" s="190"/>
       <c r="E15" s="190"/>
       <c r="F15" s="190"/>
       <c r="G15" s="190"/>
       <c r="H15" s="190"/>
-      <c r="I15" s="133"/>
+      <c r="I15" s="151"/>
       <c r="J15" s="56" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="16" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="181" t="s">
+      <c r="A16" s="179" t="s">
         <v>192</v>
       </c>
-      <c r="B16" s="176" t="s">
+      <c r="B16" s="181" t="s">
         <v>325</v>
       </c>
-      <c r="C16" s="177" t="s">
+      <c r="C16" s="187" t="s">
         <v>334</v>
       </c>
-      <c r="D16" s="178"/>
-      <c r="E16" s="178"/>
-      <c r="F16" s="178"/>
-      <c r="G16" s="178"/>
-      <c r="H16" s="178"/>
-      <c r="I16" s="178"/>
-      <c r="J16" s="178"/>
+      <c r="D16" s="188"/>
+      <c r="E16" s="188"/>
+      <c r="F16" s="188"/>
+      <c r="G16" s="188"/>
+      <c r="H16" s="188"/>
+      <c r="I16" s="188"/>
+      <c r="J16" s="188"/>
       <c r="K16" s="97"/>
       <c r="L16" s="97"/>
       <c r="M16" s="97"/>
     </row>
     <row r="17" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="182"/>
-      <c r="B17" s="167"/>
-      <c r="C17" s="191"/>
+      <c r="A17" s="186"/>
+      <c r="B17" s="123"/>
+      <c r="C17" s="189"/>
       <c r="D17" s="190"/>
       <c r="E17" s="190"/>
       <c r="F17" s="190"/>
       <c r="G17" s="190"/>
-      <c r="H17" s="133"/>
+      <c r="H17" s="151"/>
       <c r="I17" s="46" t="s">
-        <v>349</v>
+        <v>368</v>
       </c>
       <c r="J17" s="56" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="18" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="185" t="s">
+      <c r="A18" s="183" t="s">
         <v>191</v>
       </c>
-      <c r="B18" s="166" t="s">
+      <c r="B18" s="122" t="s">
         <v>327</v>
       </c>
-      <c r="C18" s="195" t="s">
+      <c r="C18" s="184" t="s">
         <v>330</v>
       </c>
-      <c r="D18" s="196"/>
-      <c r="E18" s="196"/>
-      <c r="F18" s="196"/>
-      <c r="G18" s="196"/>
-      <c r="H18" s="196"/>
-      <c r="I18" s="196"/>
-      <c r="J18" s="196"/>
+      <c r="D18" s="185"/>
+      <c r="E18" s="185"/>
+      <c r="F18" s="185"/>
+      <c r="G18" s="185"/>
+      <c r="H18" s="185"/>
+      <c r="I18" s="185"/>
+      <c r="J18" s="185"/>
       <c r="K18" s="97"/>
       <c r="L18" s="97"/>
       <c r="M18" s="97"/>
     </row>
     <row r="19" spans="1:13" s="100" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="186"/>
-      <c r="B19" s="140"/>
+      <c r="A19" s="176"/>
+      <c r="B19" s="144"/>
       <c r="C19" s="103" t="s">
         <v>342</v>
       </c>
@@ -5764,29 +5865,29 @@
       <c r="J19" s="106"/>
     </row>
     <row r="20" spans="1:13" s="101" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="187" t="s">
+      <c r="A20" s="175" t="s">
         <v>190</v>
       </c>
-      <c r="B20" s="148" t="s">
+      <c r="B20" s="143" t="s">
         <v>326</v>
       </c>
-      <c r="C20" s="183" t="s">
+      <c r="C20" s="177" t="s">
         <v>331</v>
       </c>
-      <c r="D20" s="184"/>
-      <c r="E20" s="184"/>
-      <c r="F20" s="184"/>
-      <c r="G20" s="184"/>
-      <c r="H20" s="184"/>
-      <c r="I20" s="184"/>
-      <c r="J20" s="184"/>
+      <c r="D20" s="178"/>
+      <c r="E20" s="178"/>
+      <c r="F20" s="178"/>
+      <c r="G20" s="178"/>
+      <c r="H20" s="178"/>
+      <c r="I20" s="178"/>
+      <c r="J20" s="178"/>
       <c r="K20" s="97"/>
       <c r="L20" s="97"/>
       <c r="M20" s="97"/>
     </row>
     <row r="21" spans="1:13" s="98" customFormat="1" ht="150" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="186"/>
-      <c r="B21" s="140"/>
+      <c r="A21" s="176"/>
+      <c r="B21" s="144"/>
       <c r="C21" s="103" t="s">
         <v>341</v>
       </c>
@@ -5802,29 +5903,29 @@
       <c r="M21" s="100"/>
     </row>
     <row r="22" spans="1:13" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="187" t="s">
+      <c r="A22" s="175" t="s">
         <v>189</v>
       </c>
-      <c r="B22" s="148" t="s">
+      <c r="B22" s="143" t="s">
         <v>328</v>
       </c>
-      <c r="C22" s="183" t="s">
+      <c r="C22" s="177" t="s">
         <v>332</v>
       </c>
-      <c r="D22" s="184"/>
-      <c r="E22" s="184"/>
-      <c r="F22" s="184"/>
-      <c r="G22" s="184"/>
-      <c r="H22" s="184"/>
-      <c r="I22" s="184"/>
-      <c r="J22" s="184"/>
+      <c r="D22" s="178"/>
+      <c r="E22" s="178"/>
+      <c r="F22" s="178"/>
+      <c r="G22" s="178"/>
+      <c r="H22" s="178"/>
+      <c r="I22" s="178"/>
+      <c r="J22" s="178"/>
       <c r="K22" s="97"/>
       <c r="L22" s="97"/>
       <c r="M22" s="97"/>
     </row>
     <row r="23" spans="1:13" s="100" customFormat="1" ht="210" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="186"/>
-      <c r="B23" s="140"/>
+      <c r="A23" s="176"/>
+      <c r="B23" s="144"/>
       <c r="C23" s="103" t="s">
         <v>343</v>
       </c>
@@ -5837,41 +5938,41 @@
       <c r="J23" s="106"/>
     </row>
     <row r="24" spans="1:13" s="102" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="181" t="s">
+      <c r="A24" s="179" t="s">
         <v>188</v>
       </c>
-      <c r="B24" s="176" t="s">
+      <c r="B24" s="181" t="s">
         <v>329</v>
       </c>
-      <c r="C24" s="183" t="s">
+      <c r="C24" s="177" t="s">
         <v>333</v>
       </c>
-      <c r="D24" s="184"/>
-      <c r="E24" s="184"/>
-      <c r="F24" s="184"/>
-      <c r="G24" s="184"/>
-      <c r="H24" s="184"/>
-      <c r="I24" s="184"/>
-      <c r="J24" s="184"/>
+      <c r="D24" s="178"/>
+      <c r="E24" s="178"/>
+      <c r="F24" s="178"/>
+      <c r="G24" s="178"/>
+      <c r="H24" s="178"/>
+      <c r="I24" s="178"/>
+      <c r="J24" s="178"/>
       <c r="K24" s="97"/>
       <c r="L24" s="97"/>
       <c r="M24" s="97"/>
     </row>
     <row r="25" spans="1:13" s="96" customFormat="1" ht="300" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="188"/>
-      <c r="B25" s="180"/>
+      <c r="A25" s="180"/>
+      <c r="B25" s="182"/>
       <c r="C25" s="104" t="s">
         <v>344</v>
       </c>
-      <c r="D25" s="189" t="s">
-        <v>352</v>
+      <c r="D25" s="110" t="s">
+        <v>351</v>
       </c>
       <c r="E25" s="95"/>
       <c r="F25" s="95" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G25" s="95" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H25" s="104" t="s">
         <v>345</v>
@@ -5922,26 +6023,24 @@
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:J22"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:J24"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:J18"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:J20"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:J14"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:J16"/>
-    <mergeCell ref="C15:I15"/>
-    <mergeCell ref="C17:H17"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="C2:J2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:J4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:J8"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="E9:I9"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="C10:J10"/>
@@ -5951,24 +6050,26 @@
     <mergeCell ref="D11:I11"/>
     <mergeCell ref="H13:I13"/>
     <mergeCell ref="C13:F13"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:J8"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="E9:I9"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="C2:J2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:J4"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:J14"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:J16"/>
+    <mergeCell ref="C15:I15"/>
+    <mergeCell ref="C17:H17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:J18"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:J20"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:J22"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:J24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Tags and Affinities.xlsx
+++ b/Tags and Affinities.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Charles\Documents\Git Repositories\materials_and_crafting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFC23F09-B9EA-4868-9A65-B2F6AB579A8B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30D75184-A8CD-4396-B714-69942CA85946}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="2" xr2:uid="{8FD76562-234B-40A6-8AC6-52675E21BBDC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{8FD76562-234B-40A6-8AC6-52675E21BBDC}"/>
   </bookViews>
   <sheets>
     <sheet name="COMPONENT TAGS" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="530">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="529">
   <si>
     <t>This component's weapon can be wound up in preparation for a powerful strike, however its strikes take a while to rewind.</t>
   </si>
@@ -2478,12 +2478,6 @@
     <t>The bearer of this tattoo has all of their dice rolls averaged out, forcing them to always roll the middle value.</t>
   </si>
   <si>
-    <t>The bearer of this tattoo gains darkvision out to a range of 60 feet or has their darkvision increased by 30 feet. Magical darkness does not impede their darkvision.</t>
-  </si>
-  <si>
-    <t>&lt;Maddening Aura&gt;</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">The bearer of this tattoo permanently has the effect of the </t>
     </r>
@@ -3071,6 +3065,9 @@
       </rPr>
       <t xml:space="preserve"> spell on an air elemental, with a save DC equal to 10 + the headgear's auran affinity.</t>
     </r>
+  </si>
+  <si>
+    <t>The bearer of this tattoo gains darkvision out to a range of 30 feet or has their darkvision increased by 30 feet. Magical darkness does not impede their darkvision.</t>
   </si>
 </sst>
 </file>
@@ -4655,6 +4652,72 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="86" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="79" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -4664,58 +4727,196 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="81" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="60" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="75" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4724,305 +4925,101 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="60" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="75" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="86" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5342,7 +5339,7 @@
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
@@ -5356,10 +5353,10 @@
   <sheetData>
     <row r="1" spans="1:11" s="16" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A1" s="18" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C1" s="17" t="s">
         <v>381</v>
@@ -5399,14 +5396,14 @@
       <c r="C2" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="155"/>
-      <c r="E2" s="156"/>
-      <c r="F2" s="156"/>
-      <c r="G2" s="156"/>
-      <c r="H2" s="156"/>
-      <c r="I2" s="156"/>
-      <c r="J2" s="156"/>
-      <c r="K2" s="157"/>
+      <c r="D2" s="177"/>
+      <c r="E2" s="178"/>
+      <c r="F2" s="178"/>
+      <c r="G2" s="178"/>
+      <c r="H2" s="178"/>
+      <c r="I2" s="178"/>
+      <c r="J2" s="178"/>
+      <c r="K2" s="179"/>
     </row>
     <row r="3" spans="1:11" ht="30">
       <c r="A3" s="10" t="s">
@@ -5418,48 +5415,48 @@
       <c r="C3" s="140" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="158"/>
-      <c r="E3" s="159"/>
-      <c r="F3" s="159"/>
-      <c r="G3" s="159"/>
-      <c r="H3" s="159"/>
-      <c r="I3" s="159"/>
-      <c r="J3" s="159"/>
-      <c r="K3" s="160"/>
+      <c r="D3" s="175"/>
+      <c r="E3" s="176"/>
+      <c r="F3" s="176"/>
+      <c r="G3" s="176"/>
+      <c r="H3" s="176"/>
+      <c r="I3" s="176"/>
+      <c r="J3" s="176"/>
+      <c r="K3" s="174"/>
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1">
-      <c r="A4" s="164" t="s">
+      <c r="A4" s="161" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="172" t="s">
+      <c r="B4" s="169" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="169" t="s">
+      <c r="C4" s="166" t="s">
         <v>311</v>
       </c>
-      <c r="D4" s="170"/>
-      <c r="E4" s="170"/>
-      <c r="F4" s="170"/>
-      <c r="G4" s="170"/>
-      <c r="H4" s="170"/>
-      <c r="I4" s="170"/>
-      <c r="J4" s="171"/>
+      <c r="D4" s="167"/>
+      <c r="E4" s="167"/>
+      <c r="F4" s="167"/>
+      <c r="G4" s="167"/>
+      <c r="H4" s="167"/>
+      <c r="I4" s="167"/>
+      <c r="J4" s="168"/>
       <c r="K4" s="138"/>
     </row>
     <row r="5" spans="1:11" ht="30">
-      <c r="A5" s="165"/>
-      <c r="B5" s="173"/>
+      <c r="A5" s="162"/>
+      <c r="B5" s="170"/>
       <c r="C5" s="139" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="158"/>
-      <c r="E5" s="159"/>
-      <c r="F5" s="159"/>
-      <c r="G5" s="159"/>
-      <c r="H5" s="159"/>
-      <c r="I5" s="159"/>
-      <c r="J5" s="159"/>
-      <c r="K5" s="160"/>
+      <c r="D5" s="175"/>
+      <c r="E5" s="176"/>
+      <c r="F5" s="176"/>
+      <c r="G5" s="176"/>
+      <c r="H5" s="176"/>
+      <c r="I5" s="176"/>
+      <c r="J5" s="176"/>
+      <c r="K5" s="174"/>
     </row>
     <row r="6" spans="1:11" s="3" customFormat="1" ht="105" customHeight="1">
       <c r="A6" s="6" t="s">
@@ -5471,14 +5468,14 @@
       <c r="C6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="158"/>
-      <c r="E6" s="159"/>
-      <c r="F6" s="159"/>
-      <c r="G6" s="159"/>
-      <c r="H6" s="159"/>
-      <c r="I6" s="159"/>
-      <c r="J6" s="159"/>
-      <c r="K6" s="160"/>
+      <c r="D6" s="175"/>
+      <c r="E6" s="176"/>
+      <c r="F6" s="176"/>
+      <c r="G6" s="176"/>
+      <c r="H6" s="176"/>
+      <c r="I6" s="176"/>
+      <c r="J6" s="176"/>
+      <c r="K6" s="174"/>
     </row>
     <row r="7" spans="1:11" s="3" customFormat="1" ht="105" customHeight="1">
       <c r="A7" s="6" t="s">
@@ -5490,14 +5487,14 @@
       <c r="C7" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="158"/>
-      <c r="E7" s="159"/>
-      <c r="F7" s="159"/>
-      <c r="G7" s="159"/>
-      <c r="H7" s="159"/>
-      <c r="I7" s="159"/>
-      <c r="J7" s="159"/>
-      <c r="K7" s="160"/>
+      <c r="D7" s="175"/>
+      <c r="E7" s="176"/>
+      <c r="F7" s="176"/>
+      <c r="G7" s="176"/>
+      <c r="H7" s="176"/>
+      <c r="I7" s="176"/>
+      <c r="J7" s="176"/>
+      <c r="K7" s="174"/>
     </row>
     <row r="8" spans="1:11" s="3" customFormat="1" ht="120" customHeight="1">
       <c r="A8" s="6" t="s">
@@ -5509,14 +5506,14 @@
       <c r="C8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="158"/>
-      <c r="E8" s="159"/>
-      <c r="F8" s="159"/>
-      <c r="G8" s="159"/>
-      <c r="H8" s="159"/>
-      <c r="I8" s="159"/>
-      <c r="J8" s="159"/>
-      <c r="K8" s="160"/>
+      <c r="D8" s="175"/>
+      <c r="E8" s="176"/>
+      <c r="F8" s="176"/>
+      <c r="G8" s="176"/>
+      <c r="H8" s="176"/>
+      <c r="I8" s="176"/>
+      <c r="J8" s="176"/>
+      <c r="K8" s="174"/>
     </row>
     <row r="9" spans="1:11" s="3" customFormat="1" ht="135" customHeight="1">
       <c r="A9" s="6" t="s">
@@ -5528,14 +5525,14 @@
       <c r="C9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="158"/>
-      <c r="E9" s="159"/>
-      <c r="F9" s="159"/>
-      <c r="G9" s="159"/>
-      <c r="H9" s="159"/>
-      <c r="I9" s="159"/>
-      <c r="J9" s="159"/>
-      <c r="K9" s="160"/>
+      <c r="D9" s="175"/>
+      <c r="E9" s="176"/>
+      <c r="F9" s="176"/>
+      <c r="G9" s="176"/>
+      <c r="H9" s="176"/>
+      <c r="I9" s="176"/>
+      <c r="J9" s="176"/>
+      <c r="K9" s="174"/>
     </row>
     <row r="10" spans="1:11" s="3" customFormat="1" ht="135" customHeight="1">
       <c r="A10" s="6" t="s">
@@ -5547,16 +5544,16 @@
       <c r="C10" s="83" t="s">
         <v>361</v>
       </c>
-      <c r="D10" s="158"/>
-      <c r="E10" s="159"/>
-      <c r="F10" s="159"/>
-      <c r="G10" s="159"/>
-      <c r="H10" s="160"/>
+      <c r="D10" s="175"/>
+      <c r="E10" s="176"/>
+      <c r="F10" s="176"/>
+      <c r="G10" s="176"/>
+      <c r="H10" s="174"/>
       <c r="I10" s="127" t="s">
         <v>360</v>
       </c>
-      <c r="J10" s="158"/>
-      <c r="K10" s="160"/>
+      <c r="J10" s="175"/>
+      <c r="K10" s="174"/>
     </row>
     <row r="11" spans="1:11" s="3" customFormat="1" ht="135" customHeight="1">
       <c r="A11" s="6" t="s">
@@ -5568,14 +5565,14 @@
       <c r="C11" s="89" t="s">
         <v>364</v>
       </c>
-      <c r="D11" s="158"/>
-      <c r="E11" s="159"/>
-      <c r="F11" s="159"/>
-      <c r="G11" s="159"/>
-      <c r="H11" s="159"/>
-      <c r="I11" s="159"/>
-      <c r="J11" s="159"/>
-      <c r="K11" s="160"/>
+      <c r="D11" s="175"/>
+      <c r="E11" s="176"/>
+      <c r="F11" s="176"/>
+      <c r="G11" s="176"/>
+      <c r="H11" s="176"/>
+      <c r="I11" s="176"/>
+      <c r="J11" s="176"/>
+      <c r="K11" s="174"/>
     </row>
     <row r="12" spans="1:11" s="3" customFormat="1" ht="135" customHeight="1">
       <c r="A12" s="6" t="s">
@@ -5584,36 +5581,36 @@
       <c r="B12" s="84" t="s">
         <v>348</v>
       </c>
-      <c r="C12" s="163"/>
-      <c r="D12" s="159"/>
-      <c r="E12" s="159"/>
-      <c r="F12" s="159"/>
-      <c r="G12" s="159"/>
-      <c r="H12" s="160"/>
+      <c r="C12" s="180"/>
+      <c r="D12" s="176"/>
+      <c r="E12" s="176"/>
+      <c r="F12" s="176"/>
+      <c r="G12" s="176"/>
+      <c r="H12" s="174"/>
       <c r="I12" s="127" t="s">
         <v>350</v>
       </c>
-      <c r="J12" s="158"/>
-      <c r="K12" s="160"/>
+      <c r="J12" s="175"/>
+      <c r="K12" s="174"/>
     </row>
     <row r="13" spans="1:11" s="3" customFormat="1" ht="180" customHeight="1">
       <c r="A13" s="6" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C13" s="141" t="s">
-        <v>515</v>
-      </c>
-      <c r="D13" s="158"/>
-      <c r="E13" s="159"/>
-      <c r="F13" s="159"/>
-      <c r="G13" s="159"/>
-      <c r="H13" s="159"/>
-      <c r="I13" s="159"/>
-      <c r="J13" s="159"/>
-      <c r="K13" s="160"/>
+        <v>513</v>
+      </c>
+      <c r="D13" s="175"/>
+      <c r="E13" s="176"/>
+      <c r="F13" s="176"/>
+      <c r="G13" s="176"/>
+      <c r="H13" s="176"/>
+      <c r="I13" s="176"/>
+      <c r="J13" s="176"/>
+      <c r="K13" s="174"/>
     </row>
     <row r="14" spans="1:11" s="3" customFormat="1" ht="90" customHeight="1">
       <c r="A14" s="6" t="s">
@@ -5625,52 +5622,52 @@
       <c r="C14" s="134" t="s">
         <v>274</v>
       </c>
-      <c r="D14" s="158"/>
-      <c r="E14" s="159"/>
-      <c r="F14" s="159"/>
-      <c r="G14" s="159"/>
-      <c r="H14" s="159"/>
-      <c r="I14" s="159"/>
-      <c r="J14" s="159"/>
-      <c r="K14" s="160"/>
+      <c r="D14" s="175"/>
+      <c r="E14" s="176"/>
+      <c r="F14" s="176"/>
+      <c r="G14" s="176"/>
+      <c r="H14" s="176"/>
+      <c r="I14" s="176"/>
+      <c r="J14" s="176"/>
+      <c r="K14" s="174"/>
     </row>
     <row r="15" spans="1:11" s="3" customFormat="1" ht="30" customHeight="1">
       <c r="A15" s="6" t="s">
+        <v>517</v>
+      </c>
+      <c r="B15" s="136" t="s">
+        <v>518</v>
+      </c>
+      <c r="C15" s="166" t="s">
         <v>519</v>
       </c>
-      <c r="B15" s="136" t="s">
-        <v>520</v>
-      </c>
-      <c r="C15" s="169" t="s">
-        <v>521</v>
-      </c>
-      <c r="D15" s="170"/>
-      <c r="E15" s="170"/>
-      <c r="F15" s="170"/>
-      <c r="G15" s="170"/>
-      <c r="H15" s="170"/>
-      <c r="I15" s="170"/>
-      <c r="J15" s="170"/>
-      <c r="K15" s="171"/>
+      <c r="D15" s="167"/>
+      <c r="E15" s="167"/>
+      <c r="F15" s="167"/>
+      <c r="G15" s="167"/>
+      <c r="H15" s="167"/>
+      <c r="I15" s="167"/>
+      <c r="J15" s="167"/>
+      <c r="K15" s="168"/>
     </row>
     <row r="16" spans="1:11" s="3" customFormat="1" ht="30" customHeight="1">
       <c r="A16" s="6" t="s">
         <v>113</v>
       </c>
       <c r="B16" s="136" t="s">
-        <v>518</v>
-      </c>
-      <c r="C16" s="169" t="s">
         <v>516</v>
       </c>
-      <c r="D16" s="170"/>
-      <c r="E16" s="170"/>
-      <c r="F16" s="170"/>
-      <c r="G16" s="170"/>
-      <c r="H16" s="170"/>
-      <c r="I16" s="170"/>
-      <c r="J16" s="170"/>
-      <c r="K16" s="171"/>
+      <c r="C16" s="166" t="s">
+        <v>514</v>
+      </c>
+      <c r="D16" s="167"/>
+      <c r="E16" s="167"/>
+      <c r="F16" s="167"/>
+      <c r="G16" s="167"/>
+      <c r="H16" s="167"/>
+      <c r="I16" s="167"/>
+      <c r="J16" s="167"/>
+      <c r="K16" s="168"/>
     </row>
     <row r="17" spans="1:11" s="3" customFormat="1" ht="150" customHeight="1">
       <c r="A17" s="6" t="s">
@@ -5682,14 +5679,14 @@
       <c r="C17" s="135" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="158"/>
-      <c r="E17" s="159"/>
-      <c r="F17" s="159"/>
-      <c r="G17" s="159"/>
-      <c r="H17" s="159"/>
-      <c r="I17" s="159"/>
-      <c r="J17" s="159"/>
-      <c r="K17" s="160"/>
+      <c r="D17" s="175"/>
+      <c r="E17" s="176"/>
+      <c r="F17" s="176"/>
+      <c r="G17" s="176"/>
+      <c r="H17" s="176"/>
+      <c r="I17" s="176"/>
+      <c r="J17" s="176"/>
+      <c r="K17" s="174"/>
     </row>
     <row r="18" spans="1:11" s="3" customFormat="1" ht="60" customHeight="1">
       <c r="A18" s="6" t="s">
@@ -5701,14 +5698,14 @@
       <c r="C18" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D18" s="158"/>
-      <c r="E18" s="159"/>
-      <c r="F18" s="159"/>
-      <c r="G18" s="159"/>
-      <c r="H18" s="159"/>
-      <c r="I18" s="159"/>
-      <c r="J18" s="159"/>
-      <c r="K18" s="160"/>
+      <c r="D18" s="175"/>
+      <c r="E18" s="176"/>
+      <c r="F18" s="176"/>
+      <c r="G18" s="176"/>
+      <c r="H18" s="176"/>
+      <c r="I18" s="176"/>
+      <c r="J18" s="176"/>
+      <c r="K18" s="174"/>
     </row>
     <row r="19" spans="1:11" s="3" customFormat="1" ht="60" customHeight="1">
       <c r="A19" s="6" t="s">
@@ -5720,14 +5717,14 @@
       <c r="C19" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D19" s="158"/>
-      <c r="E19" s="159"/>
-      <c r="F19" s="159"/>
-      <c r="G19" s="159"/>
-      <c r="H19" s="159"/>
-      <c r="I19" s="159"/>
-      <c r="J19" s="159"/>
-      <c r="K19" s="160"/>
+      <c r="D19" s="175"/>
+      <c r="E19" s="176"/>
+      <c r="F19" s="176"/>
+      <c r="G19" s="176"/>
+      <c r="H19" s="176"/>
+      <c r="I19" s="176"/>
+      <c r="J19" s="176"/>
+      <c r="K19" s="174"/>
     </row>
     <row r="20" spans="1:11" s="3" customFormat="1" ht="60" customHeight="1">
       <c r="A20" s="6" t="s">
@@ -5739,14 +5736,14 @@
       <c r="C20" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D20" s="158"/>
-      <c r="E20" s="159"/>
-      <c r="F20" s="159"/>
-      <c r="G20" s="159"/>
-      <c r="H20" s="159"/>
-      <c r="I20" s="159"/>
-      <c r="J20" s="159"/>
-      <c r="K20" s="160"/>
+      <c r="D20" s="175"/>
+      <c r="E20" s="176"/>
+      <c r="F20" s="176"/>
+      <c r="G20" s="176"/>
+      <c r="H20" s="176"/>
+      <c r="I20" s="176"/>
+      <c r="J20" s="176"/>
+      <c r="K20" s="174"/>
     </row>
     <row r="21" spans="1:11" s="51" customFormat="1" ht="225" customHeight="1">
       <c r="A21" s="52" t="s">
@@ -5758,14 +5755,14 @@
       <c r="C21" s="49" t="s">
         <v>316</v>
       </c>
-      <c r="D21" s="158"/>
-      <c r="E21" s="159"/>
-      <c r="F21" s="159"/>
-      <c r="G21" s="159"/>
-      <c r="H21" s="159"/>
-      <c r="I21" s="159"/>
-      <c r="J21" s="159"/>
-      <c r="K21" s="160"/>
+      <c r="D21" s="175"/>
+      <c r="E21" s="176"/>
+      <c r="F21" s="176"/>
+      <c r="G21" s="176"/>
+      <c r="H21" s="176"/>
+      <c r="I21" s="176"/>
+      <c r="J21" s="176"/>
+      <c r="K21" s="174"/>
     </row>
     <row r="22" spans="1:11" s="51" customFormat="1" ht="225" customHeight="1">
       <c r="A22" s="64" t="s">
@@ -5777,18 +5774,18 @@
       <c r="C22" s="50" t="s">
         <v>210</v>
       </c>
-      <c r="D22" s="174"/>
-      <c r="E22" s="162"/>
-      <c r="F22" s="162"/>
-      <c r="G22" s="175"/>
+      <c r="D22" s="171"/>
+      <c r="E22" s="172"/>
+      <c r="F22" s="172"/>
+      <c r="G22" s="173"/>
       <c r="H22" s="19" t="s">
         <v>211</v>
       </c>
       <c r="I22" s="126" t="s">
-        <v>475</v>
-      </c>
-      <c r="J22" s="174"/>
-      <c r="K22" s="160"/>
+        <v>473</v>
+      </c>
+      <c r="J22" s="171"/>
+      <c r="K22" s="174"/>
     </row>
     <row r="23" spans="1:11" s="51" customFormat="1" ht="30" customHeight="1">
       <c r="A23" s="77" t="s">
@@ -5797,16 +5794,16 @@
       <c r="B23" s="73" t="s">
         <v>310</v>
       </c>
-      <c r="C23" s="169" t="s">
+      <c r="C23" s="166" t="s">
         <v>309</v>
       </c>
-      <c r="D23" s="170"/>
-      <c r="E23" s="170"/>
-      <c r="F23" s="170"/>
-      <c r="G23" s="170"/>
-      <c r="H23" s="170"/>
-      <c r="I23" s="170"/>
-      <c r="J23" s="171"/>
+      <c r="D23" s="167"/>
+      <c r="E23" s="167"/>
+      <c r="F23" s="167"/>
+      <c r="G23" s="167"/>
+      <c r="H23" s="167"/>
+      <c r="I23" s="167"/>
+      <c r="J23" s="168"/>
       <c r="K23" s="69"/>
     </row>
     <row r="24" spans="1:11" ht="60">
@@ -5816,20 +5813,27 @@
       <c r="B24" s="55" t="s">
         <v>275</v>
       </c>
-      <c r="C24" s="166" t="s">
+      <c r="C24" s="163" t="s">
         <v>276</v>
       </c>
-      <c r="D24" s="167"/>
-      <c r="E24" s="167"/>
-      <c r="F24" s="167"/>
-      <c r="G24" s="167"/>
-      <c r="H24" s="167"/>
-      <c r="I24" s="167"/>
-      <c r="J24" s="168"/>
+      <c r="D24" s="164"/>
+      <c r="E24" s="164"/>
+      <c r="F24" s="164"/>
+      <c r="G24" s="164"/>
+      <c r="H24" s="164"/>
+      <c r="I24" s="164"/>
+      <c r="J24" s="165"/>
       <c r="K24" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="D2:K3"/>
+    <mergeCell ref="D5:K9"/>
+    <mergeCell ref="D11:K11"/>
+    <mergeCell ref="D10:H10"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="C12:H12"/>
+    <mergeCell ref="J10:K10"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="C24:J24"/>
     <mergeCell ref="C23:J23"/>
@@ -5841,13 +5845,6 @@
     <mergeCell ref="D17:K21"/>
     <mergeCell ref="C16:K16"/>
     <mergeCell ref="C15:K15"/>
-    <mergeCell ref="D2:K3"/>
-    <mergeCell ref="D5:K9"/>
-    <mergeCell ref="D11:K11"/>
-    <mergeCell ref="D10:H10"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="C12:H12"/>
-    <mergeCell ref="J10:K10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5859,10 +5856,10 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:M60"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="L37" sqref="L37"/>
+      <selection pane="bottomLeft" activeCell="L59" sqref="L59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5878,10 +5875,10 @@
   <sheetData>
     <row r="1" spans="1:12" s="16" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A1" s="18" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C1" s="17" t="s">
         <v>381</v>
@@ -5908,7 +5905,7 @@
         <v>251</v>
       </c>
       <c r="K1" s="61" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="L1" s="61" t="s">
         <v>411</v>
@@ -5921,58 +5918,58 @@
       <c r="B2" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="C2" s="184" t="s">
+      <c r="C2" s="229" t="s">
         <v>162</v>
       </c>
-      <c r="D2" s="185"/>
-      <c r="E2" s="185"/>
-      <c r="F2" s="185"/>
-      <c r="G2" s="185"/>
-      <c r="H2" s="185"/>
-      <c r="I2" s="185"/>
-      <c r="J2" s="186"/>
-      <c r="K2" s="176"/>
-      <c r="L2" s="177"/>
+      <c r="D2" s="230"/>
+      <c r="E2" s="230"/>
+      <c r="F2" s="230"/>
+      <c r="G2" s="230"/>
+      <c r="H2" s="230"/>
+      <c r="I2" s="230"/>
+      <c r="J2" s="231"/>
+      <c r="K2" s="244"/>
+      <c r="L2" s="245"/>
     </row>
     <row r="3" spans="1:12" s="16" customFormat="1" ht="15" customHeight="1">
-      <c r="A3" s="164" t="s">
+      <c r="A3" s="161" t="s">
         <v>161</v>
       </c>
-      <c r="B3" s="172" t="s">
+      <c r="B3" s="169" t="s">
         <v>228</v>
       </c>
-      <c r="C3" s="169" t="s">
+      <c r="C3" s="166" t="s">
         <v>277</v>
       </c>
-      <c r="D3" s="170"/>
-      <c r="E3" s="170"/>
-      <c r="F3" s="170"/>
-      <c r="G3" s="170"/>
-      <c r="H3" s="170"/>
-      <c r="I3" s="170"/>
-      <c r="J3" s="170"/>
-      <c r="K3" s="170"/>
-      <c r="L3" s="171"/>
+      <c r="D3" s="167"/>
+      <c r="E3" s="167"/>
+      <c r="F3" s="167"/>
+      <c r="G3" s="167"/>
+      <c r="H3" s="167"/>
+      <c r="I3" s="167"/>
+      <c r="J3" s="167"/>
+      <c r="K3" s="167"/>
+      <c r="L3" s="168"/>
     </row>
     <row r="4" spans="1:12" s="16" customFormat="1" ht="15" customHeight="1">
-      <c r="A4" s="227"/>
-      <c r="B4" s="202"/>
-      <c r="C4" s="169" t="s">
-        <v>496</v>
-      </c>
-      <c r="D4" s="170"/>
-      <c r="E4" s="170"/>
-      <c r="F4" s="170"/>
-      <c r="G4" s="170"/>
-      <c r="H4" s="170"/>
-      <c r="I4" s="170"/>
-      <c r="J4" s="170"/>
-      <c r="K4" s="170"/>
-      <c r="L4" s="171"/>
+      <c r="A4" s="181"/>
+      <c r="B4" s="182"/>
+      <c r="C4" s="166" t="s">
+        <v>494</v>
+      </c>
+      <c r="D4" s="167"/>
+      <c r="E4" s="167"/>
+      <c r="F4" s="167"/>
+      <c r="G4" s="167"/>
+      <c r="H4" s="167"/>
+      <c r="I4" s="167"/>
+      <c r="J4" s="167"/>
+      <c r="K4" s="167"/>
+      <c r="L4" s="168"/>
     </row>
     <row r="5" spans="1:12" s="16" customFormat="1" ht="180">
-      <c r="A5" s="165"/>
-      <c r="B5" s="173"/>
+      <c r="A5" s="162"/>
+      <c r="B5" s="170"/>
       <c r="C5" s="12" t="s">
         <v>160</v>
       </c>
@@ -6003,16 +6000,16 @@
       <c r="B6" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="C6" s="169" t="s">
+      <c r="C6" s="166" t="s">
         <v>156</v>
       </c>
-      <c r="D6" s="170"/>
-      <c r="E6" s="170"/>
-      <c r="F6" s="170"/>
-      <c r="G6" s="170"/>
-      <c r="H6" s="170"/>
-      <c r="I6" s="170"/>
-      <c r="J6" s="171"/>
+      <c r="D6" s="167"/>
+      <c r="E6" s="167"/>
+      <c r="F6" s="167"/>
+      <c r="G6" s="167"/>
+      <c r="H6" s="167"/>
+      <c r="I6" s="167"/>
+      <c r="J6" s="168"/>
       <c r="K6" s="115"/>
       <c r="L6" s="87" t="s">
         <v>413</v>
@@ -6035,10 +6032,10 @@
       <c r="H7" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="I7" s="224"/>
-      <c r="J7" s="225"/>
+      <c r="I7" s="242"/>
+      <c r="J7" s="243"/>
       <c r="K7" s="46" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="L7" s="46" t="s">
         <v>414</v>
@@ -6051,16 +6048,16 @@
       <c r="B8" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="C8" s="229" t="s">
+      <c r="C8" s="185" t="s">
         <v>151</v>
       </c>
-      <c r="D8" s="230"/>
-      <c r="E8" s="230"/>
-      <c r="F8" s="230"/>
-      <c r="G8" s="230"/>
-      <c r="H8" s="230"/>
-      <c r="I8" s="230"/>
-      <c r="J8" s="231"/>
+      <c r="D8" s="186"/>
+      <c r="E8" s="186"/>
+      <c r="F8" s="186"/>
+      <c r="G8" s="186"/>
+      <c r="H8" s="186"/>
+      <c r="I8" s="186"/>
+      <c r="J8" s="187"/>
       <c r="K8" s="115"/>
       <c r="L8" s="87" t="s">
         <v>151</v>
@@ -6073,7 +6070,7 @@
       <c r="B9" s="48" t="s">
         <v>226</v>
       </c>
-      <c r="C9" s="171" t="s">
+      <c r="C9" s="168" t="s">
         <v>149</v>
       </c>
       <c r="D9" s="183"/>
@@ -6093,16 +6090,16 @@
       <c r="B10" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="C10" s="229" t="s">
+      <c r="C10" s="185" t="s">
         <v>147</v>
       </c>
-      <c r="D10" s="230"/>
-      <c r="E10" s="230"/>
-      <c r="F10" s="230"/>
-      <c r="G10" s="230"/>
-      <c r="H10" s="230"/>
-      <c r="I10" s="230"/>
-      <c r="J10" s="231"/>
+      <c r="D10" s="186"/>
+      <c r="E10" s="186"/>
+      <c r="F10" s="186"/>
+      <c r="G10" s="186"/>
+      <c r="H10" s="186"/>
+      <c r="I10" s="186"/>
+      <c r="J10" s="187"/>
       <c r="K10" s="86"/>
       <c r="L10" s="87" t="s">
         <v>412</v>
@@ -6115,16 +6112,16 @@
       <c r="B11" s="48" t="s">
         <v>229</v>
       </c>
-      <c r="C11" s="169" t="s">
+      <c r="C11" s="166" t="s">
         <v>321</v>
       </c>
-      <c r="D11" s="170"/>
-      <c r="E11" s="170"/>
-      <c r="F11" s="170"/>
-      <c r="G11" s="170"/>
-      <c r="H11" s="171"/>
-      <c r="I11" s="161"/>
-      <c r="J11" s="219"/>
+      <c r="D11" s="167"/>
+      <c r="E11" s="167"/>
+      <c r="F11" s="167"/>
+      <c r="G11" s="167"/>
+      <c r="H11" s="168"/>
+      <c r="I11" s="190"/>
+      <c r="J11" s="191"/>
       <c r="K11" s="79" t="s">
         <v>317</v>
       </c>
@@ -6137,14 +6134,14 @@
         <v>322</v>
       </c>
       <c r="B12" s="76"/>
-      <c r="C12" s="232"/>
-      <c r="D12" s="233"/>
-      <c r="E12" s="233"/>
-      <c r="F12" s="233"/>
-      <c r="G12" s="233"/>
-      <c r="H12" s="233"/>
-      <c r="I12" s="162"/>
-      <c r="J12" s="175"/>
+      <c r="C12" s="194"/>
+      <c r="D12" s="195"/>
+      <c r="E12" s="195"/>
+      <c r="F12" s="195"/>
+      <c r="G12" s="195"/>
+      <c r="H12" s="195"/>
+      <c r="I12" s="172"/>
+      <c r="J12" s="173"/>
       <c r="K12" s="41" t="s">
         <v>323</v>
       </c>
@@ -6179,8 +6176,8 @@
       <c r="J13" s="42" t="s">
         <v>357</v>
       </c>
-      <c r="K13" s="187"/>
-      <c r="L13" s="188"/>
+      <c r="K13" s="232"/>
+      <c r="L13" s="233"/>
     </row>
     <row r="14" spans="1:12" ht="135">
       <c r="A14" s="13" t="s">
@@ -6192,19 +6189,19 @@
       <c r="C14" s="12" t="s">
         <v>345</v>
       </c>
-      <c r="D14" s="174"/>
-      <c r="E14" s="159"/>
-      <c r="F14" s="162"/>
-      <c r="G14" s="162"/>
-      <c r="H14" s="162"/>
+      <c r="D14" s="171"/>
+      <c r="E14" s="176"/>
+      <c r="F14" s="172"/>
+      <c r="G14" s="172"/>
+      <c r="H14" s="172"/>
       <c r="I14" s="42" t="s">
         <v>351</v>
       </c>
       <c r="J14" s="42" t="s">
         <v>254</v>
       </c>
-      <c r="K14" s="189"/>
-      <c r="L14" s="190"/>
+      <c r="K14" s="234"/>
+      <c r="L14" s="235"/>
     </row>
     <row r="15" spans="1:12" ht="135">
       <c r="A15" s="13" t="s">
@@ -6237,21 +6234,21 @@
       <c r="J15" s="41" t="s">
         <v>214</v>
       </c>
-      <c r="K15" s="189"/>
-      <c r="L15" s="190"/>
+      <c r="K15" s="234"/>
+      <c r="L15" s="235"/>
     </row>
     <row r="16" spans="1:12" ht="150" customHeight="1">
-      <c r="A16" s="228" t="s">
+      <c r="A16" s="184" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="207" t="s">
+      <c r="B16" s="205" t="s">
         <v>137</v>
       </c>
       <c r="C16" s="12" t="s">
         <v>315</v>
       </c>
-      <c r="D16" s="217"/>
-      <c r="E16" s="210"/>
+      <c r="D16" s="188"/>
+      <c r="E16" s="189"/>
       <c r="F16" s="28" t="s">
         <v>314</v>
       </c>
@@ -6265,37 +6262,37 @@
       <c r="J16" s="44" t="s">
         <v>216</v>
       </c>
-      <c r="K16" s="189"/>
-      <c r="L16" s="190"/>
+      <c r="K16" s="234"/>
+      <c r="L16" s="235"/>
     </row>
     <row r="17" spans="1:12" ht="15" customHeight="1">
-      <c r="A17" s="228"/>
-      <c r="B17" s="207"/>
-      <c r="C17" s="169" t="s">
+      <c r="A17" s="184"/>
+      <c r="B17" s="205"/>
+      <c r="C17" s="166" t="s">
         <v>136</v>
       </c>
-      <c r="D17" s="170"/>
-      <c r="E17" s="170"/>
-      <c r="F17" s="170"/>
-      <c r="G17" s="170"/>
-      <c r="H17" s="212"/>
-      <c r="I17" s="212"/>
-      <c r="J17" s="195"/>
-      <c r="K17" s="189"/>
-      <c r="L17" s="190"/>
+      <c r="D17" s="167"/>
+      <c r="E17" s="167"/>
+      <c r="F17" s="167"/>
+      <c r="G17" s="167"/>
+      <c r="H17" s="192"/>
+      <c r="I17" s="192"/>
+      <c r="J17" s="193"/>
+      <c r="K17" s="234"/>
+      <c r="L17" s="235"/>
     </row>
     <row r="18" spans="1:12" ht="135" customHeight="1">
-      <c r="A18" s="228" t="s">
+      <c r="A18" s="184" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="207" t="s">
+      <c r="B18" s="205" t="s">
         <v>135</v>
       </c>
       <c r="C18" s="93" t="s">
         <v>312</v>
       </c>
-      <c r="D18" s="217"/>
-      <c r="E18" s="210"/>
+      <c r="D18" s="188"/>
+      <c r="E18" s="189"/>
       <c r="F18" s="94" t="s">
         <v>313</v>
       </c>
@@ -6309,24 +6306,24 @@
       <c r="J18" s="44" t="s">
         <v>217</v>
       </c>
-      <c r="K18" s="191"/>
-      <c r="L18" s="192"/>
+      <c r="K18" s="236"/>
+      <c r="L18" s="237"/>
     </row>
     <row r="19" spans="1:12" ht="15" customHeight="1">
-      <c r="A19" s="228"/>
-      <c r="B19" s="216"/>
-      <c r="C19" s="193" t="s">
+      <c r="A19" s="184"/>
+      <c r="B19" s="212"/>
+      <c r="C19" s="238" t="s">
         <v>134</v>
       </c>
-      <c r="D19" s="170"/>
-      <c r="E19" s="170"/>
-      <c r="F19" s="170"/>
-      <c r="G19" s="170"/>
-      <c r="H19" s="170"/>
-      <c r="I19" s="170"/>
-      <c r="J19" s="170"/>
-      <c r="K19" s="170"/>
-      <c r="L19" s="171"/>
+      <c r="D19" s="167"/>
+      <c r="E19" s="167"/>
+      <c r="F19" s="167"/>
+      <c r="G19" s="167"/>
+      <c r="H19" s="167"/>
+      <c r="I19" s="167"/>
+      <c r="J19" s="167"/>
+      <c r="K19" s="167"/>
+      <c r="L19" s="168"/>
     </row>
     <row r="20" spans="1:12" ht="105" customHeight="1">
       <c r="A20" s="62" t="s">
@@ -6335,14 +6332,14 @@
       <c r="B20" s="63" t="s">
         <v>273</v>
       </c>
-      <c r="C20" s="208"/>
-      <c r="D20" s="209"/>
-      <c r="E20" s="209"/>
-      <c r="F20" s="209"/>
-      <c r="G20" s="209"/>
-      <c r="H20" s="209"/>
-      <c r="I20" s="209"/>
-      <c r="J20" s="210"/>
+      <c r="C20" s="206"/>
+      <c r="D20" s="207"/>
+      <c r="E20" s="207"/>
+      <c r="F20" s="207"/>
+      <c r="G20" s="207"/>
+      <c r="H20" s="207"/>
+      <c r="I20" s="207"/>
+      <c r="J20" s="189"/>
       <c r="K20" s="81" t="s">
         <v>271</v>
       </c>
@@ -6357,16 +6354,16 @@
       <c r="B21" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="C21" s="169" t="s">
+      <c r="C21" s="166" t="s">
         <v>241</v>
       </c>
-      <c r="D21" s="170"/>
-      <c r="E21" s="170"/>
-      <c r="F21" s="170"/>
-      <c r="G21" s="170"/>
-      <c r="H21" s="170"/>
-      <c r="I21" s="170"/>
-      <c r="J21" s="171"/>
+      <c r="D21" s="167"/>
+      <c r="E21" s="167"/>
+      <c r="F21" s="167"/>
+      <c r="G21" s="167"/>
+      <c r="H21" s="167"/>
+      <c r="I21" s="167"/>
+      <c r="J21" s="168"/>
       <c r="K21" s="43" t="s">
         <v>319</v>
       </c>
@@ -6375,60 +6372,60 @@
       </c>
     </row>
     <row r="22" spans="1:12" ht="90" customHeight="1">
-      <c r="A22" s="199" t="s">
+      <c r="A22" s="217" t="s">
         <v>396</v>
       </c>
-      <c r="B22" s="172" t="s">
+      <c r="B22" s="169" t="s">
         <v>401</v>
       </c>
-      <c r="C22" s="169" t="s">
+      <c r="C22" s="166" t="s">
         <v>398</v>
       </c>
-      <c r="D22" s="170"/>
-      <c r="E22" s="170"/>
-      <c r="F22" s="170"/>
-      <c r="G22" s="170"/>
-      <c r="H22" s="170"/>
-      <c r="I22" s="170"/>
-      <c r="J22" s="171"/>
-      <c r="K22" s="195" t="s">
+      <c r="D22" s="167"/>
+      <c r="E22" s="167"/>
+      <c r="F22" s="167"/>
+      <c r="G22" s="167"/>
+      <c r="H22" s="167"/>
+      <c r="I22" s="167"/>
+      <c r="J22" s="168"/>
+      <c r="K22" s="193" t="s">
         <v>400</v>
       </c>
-      <c r="L22" s="195" t="s">
+      <c r="L22" s="193" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="15" customHeight="1">
-      <c r="A23" s="200"/>
-      <c r="B23" s="202"/>
-      <c r="C23" s="169" t="s">
+      <c r="A23" s="218"/>
+      <c r="B23" s="182"/>
+      <c r="C23" s="166" t="s">
         <v>397</v>
       </c>
-      <c r="D23" s="170"/>
-      <c r="E23" s="170"/>
-      <c r="F23" s="170"/>
-      <c r="G23" s="170"/>
-      <c r="H23" s="170"/>
-      <c r="I23" s="170"/>
-      <c r="J23" s="171"/>
-      <c r="K23" s="196"/>
-      <c r="L23" s="196"/>
+      <c r="D23" s="167"/>
+      <c r="E23" s="167"/>
+      <c r="F23" s="167"/>
+      <c r="G23" s="167"/>
+      <c r="H23" s="167"/>
+      <c r="I23" s="167"/>
+      <c r="J23" s="168"/>
+      <c r="K23" s="220"/>
+      <c r="L23" s="220"/>
     </row>
     <row r="24" spans="1:12" ht="45" customHeight="1">
-      <c r="A24" s="201"/>
-      <c r="B24" s="173"/>
-      <c r="C24" s="169" t="s">
+      <c r="A24" s="219"/>
+      <c r="B24" s="170"/>
+      <c r="C24" s="166" t="s">
         <v>399</v>
       </c>
-      <c r="D24" s="170"/>
-      <c r="E24" s="170"/>
-      <c r="F24" s="170"/>
-      <c r="G24" s="170"/>
-      <c r="H24" s="170"/>
-      <c r="I24" s="170"/>
-      <c r="J24" s="171"/>
-      <c r="K24" s="180"/>
-      <c r="L24" s="180"/>
+      <c r="D24" s="167"/>
+      <c r="E24" s="167"/>
+      <c r="F24" s="167"/>
+      <c r="G24" s="167"/>
+      <c r="H24" s="167"/>
+      <c r="I24" s="167"/>
+      <c r="J24" s="168"/>
+      <c r="K24" s="209"/>
+      <c r="L24" s="209"/>
     </row>
     <row r="25" spans="1:12" ht="30" customHeight="1">
       <c r="A25" s="13" t="s">
@@ -6437,18 +6434,18 @@
       <c r="B25" s="48" t="s">
         <v>130</v>
       </c>
-      <c r="C25" s="194" t="s">
+      <c r="C25" s="223" t="s">
         <v>129</v>
       </c>
-      <c r="D25" s="182"/>
-      <c r="E25" s="182"/>
-      <c r="F25" s="182"/>
-      <c r="G25" s="182"/>
-      <c r="H25" s="182"/>
-      <c r="I25" s="182"/>
-      <c r="J25" s="182"/>
-      <c r="K25" s="182"/>
-      <c r="L25" s="182"/>
+      <c r="D25" s="228"/>
+      <c r="E25" s="228"/>
+      <c r="F25" s="228"/>
+      <c r="G25" s="228"/>
+      <c r="H25" s="228"/>
+      <c r="I25" s="228"/>
+      <c r="J25" s="228"/>
+      <c r="K25" s="228"/>
+      <c r="L25" s="228"/>
     </row>
     <row r="26" spans="1:12" ht="30" customHeight="1">
       <c r="A26" s="10" t="s">
@@ -6457,18 +6454,18 @@
       <c r="B26" s="103" t="s">
         <v>127</v>
       </c>
-      <c r="C26" s="194" t="s">
+      <c r="C26" s="223" t="s">
         <v>126</v>
       </c>
-      <c r="D26" s="182"/>
-      <c r="E26" s="182"/>
-      <c r="F26" s="182"/>
-      <c r="G26" s="182"/>
-      <c r="H26" s="182"/>
-      <c r="I26" s="182"/>
-      <c r="J26" s="182"/>
-      <c r="K26" s="182"/>
-      <c r="L26" s="182"/>
+      <c r="D26" s="228"/>
+      <c r="E26" s="228"/>
+      <c r="F26" s="228"/>
+      <c r="G26" s="228"/>
+      <c r="H26" s="228"/>
+      <c r="I26" s="228"/>
+      <c r="J26" s="228"/>
+      <c r="K26" s="228"/>
+      <c r="L26" s="228"/>
     </row>
     <row r="27" spans="1:12" ht="30" customHeight="1">
       <c r="A27" s="10" t="s">
@@ -6477,18 +6474,18 @@
       <c r="B27" s="103" t="s">
         <v>177</v>
       </c>
-      <c r="C27" s="194" t="s">
+      <c r="C27" s="223" t="s">
         <v>178</v>
       </c>
-      <c r="D27" s="182"/>
-      <c r="E27" s="182"/>
-      <c r="F27" s="182"/>
-      <c r="G27" s="182"/>
-      <c r="H27" s="182"/>
-      <c r="I27" s="182"/>
-      <c r="J27" s="182"/>
-      <c r="K27" s="182"/>
-      <c r="L27" s="182"/>
+      <c r="D27" s="228"/>
+      <c r="E27" s="228"/>
+      <c r="F27" s="228"/>
+      <c r="G27" s="228"/>
+      <c r="H27" s="228"/>
+      <c r="I27" s="228"/>
+      <c r="J27" s="228"/>
+      <c r="K27" s="228"/>
+      <c r="L27" s="228"/>
     </row>
     <row r="28" spans="1:12" ht="30" customHeight="1">
       <c r="A28" s="10" t="s">
@@ -6497,18 +6494,18 @@
       <c r="B28" s="103" t="s">
         <v>124</v>
       </c>
-      <c r="C28" s="194" t="s">
+      <c r="C28" s="223" t="s">
         <v>123</v>
       </c>
-      <c r="D28" s="182"/>
-      <c r="E28" s="182"/>
-      <c r="F28" s="182"/>
-      <c r="G28" s="182"/>
-      <c r="H28" s="182"/>
-      <c r="I28" s="182"/>
-      <c r="J28" s="182"/>
-      <c r="K28" s="182"/>
-      <c r="L28" s="182"/>
+      <c r="D28" s="228"/>
+      <c r="E28" s="228"/>
+      <c r="F28" s="228"/>
+      <c r="G28" s="228"/>
+      <c r="H28" s="228"/>
+      <c r="I28" s="228"/>
+      <c r="J28" s="228"/>
+      <c r="K28" s="228"/>
+      <c r="L28" s="228"/>
     </row>
     <row r="29" spans="1:12" ht="30" customHeight="1">
       <c r="A29" s="10" t="s">
@@ -6517,18 +6514,18 @@
       <c r="B29" s="103" t="s">
         <v>180</v>
       </c>
-      <c r="C29" s="194" t="s">
+      <c r="C29" s="223" t="s">
         <v>181</v>
       </c>
-      <c r="D29" s="182"/>
-      <c r="E29" s="182"/>
-      <c r="F29" s="182"/>
-      <c r="G29" s="182"/>
-      <c r="H29" s="182"/>
-      <c r="I29" s="182"/>
-      <c r="J29" s="182"/>
-      <c r="K29" s="182"/>
-      <c r="L29" s="182"/>
+      <c r="D29" s="228"/>
+      <c r="E29" s="228"/>
+      <c r="F29" s="228"/>
+      <c r="G29" s="228"/>
+      <c r="H29" s="228"/>
+      <c r="I29" s="228"/>
+      <c r="J29" s="228"/>
+      <c r="K29" s="228"/>
+      <c r="L29" s="228"/>
     </row>
     <row r="30" spans="1:12" ht="30" customHeight="1">
       <c r="A30" s="10" t="s">
@@ -6537,18 +6534,18 @@
       <c r="B30" s="103" t="s">
         <v>121</v>
       </c>
-      <c r="C30" s="194" t="s">
+      <c r="C30" s="223" t="s">
         <v>120</v>
       </c>
-      <c r="D30" s="182"/>
-      <c r="E30" s="182"/>
-      <c r="F30" s="182"/>
-      <c r="G30" s="182"/>
-      <c r="H30" s="182"/>
-      <c r="I30" s="182"/>
-      <c r="J30" s="182"/>
-      <c r="K30" s="182"/>
-      <c r="L30" s="182"/>
+      <c r="D30" s="228"/>
+      <c r="E30" s="228"/>
+      <c r="F30" s="228"/>
+      <c r="G30" s="228"/>
+      <c r="H30" s="228"/>
+      <c r="I30" s="228"/>
+      <c r="J30" s="228"/>
+      <c r="K30" s="228"/>
+      <c r="L30" s="228"/>
     </row>
     <row r="31" spans="1:12" ht="30" customHeight="1">
       <c r="A31" s="10" t="s">
@@ -6557,83 +6554,83 @@
       <c r="B31" s="48" t="s">
         <v>118</v>
       </c>
-      <c r="C31" s="194" t="s">
+      <c r="C31" s="223" t="s">
         <v>117</v>
       </c>
-      <c r="D31" s="182"/>
-      <c r="E31" s="182"/>
-      <c r="F31" s="182"/>
-      <c r="G31" s="182"/>
-      <c r="H31" s="182"/>
-      <c r="I31" s="182"/>
-      <c r="J31" s="182"/>
-      <c r="K31" s="182"/>
-      <c r="L31" s="182"/>
+      <c r="D31" s="228"/>
+      <c r="E31" s="228"/>
+      <c r="F31" s="228"/>
+      <c r="G31" s="228"/>
+      <c r="H31" s="228"/>
+      <c r="I31" s="228"/>
+      <c r="J31" s="228"/>
+      <c r="K31" s="228"/>
+      <c r="L31" s="228"/>
     </row>
     <row r="32" spans="1:12" ht="75" customHeight="1">
-      <c r="A32" s="272" t="s">
+      <c r="A32" s="155" t="s">
         <v>116</v>
       </c>
-      <c r="B32" s="273" t="s">
+      <c r="B32" s="156" t="s">
         <v>115</v>
       </c>
       <c r="C32" s="133" t="s">
         <v>183</v>
       </c>
-      <c r="D32" s="274"/>
-      <c r="E32" s="275" t="s">
+      <c r="D32" s="157"/>
+      <c r="E32" s="158" t="s">
         <v>114</v>
       </c>
-      <c r="F32" s="276" t="s">
+      <c r="F32" s="159" t="s">
         <v>184</v>
       </c>
-      <c r="G32" s="239"/>
-      <c r="H32" s="240"/>
-      <c r="I32" s="275" t="s">
+      <c r="G32" s="215"/>
+      <c r="H32" s="216"/>
+      <c r="I32" s="158" t="s">
         <v>332</v>
       </c>
-      <c r="J32" s="275" t="s">
+      <c r="J32" s="158" t="s">
         <v>255</v>
       </c>
-      <c r="K32" s="277" t="s">
+      <c r="K32" s="160" t="s">
         <v>215</v>
       </c>
-      <c r="L32" s="277" t="s">
+      <c r="L32" s="160" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="33" spans="1:13" s="70" customFormat="1" ht="15" customHeight="1">
-      <c r="A33" s="226" t="s">
+      <c r="A33" s="196" t="s">
         <v>55</v>
       </c>
-      <c r="B33" s="268" t="s">
+      <c r="B33" s="197" t="s">
         <v>54</v>
       </c>
-      <c r="C33" s="269" t="s">
+      <c r="C33" s="239" t="s">
         <v>410</v>
       </c>
-      <c r="D33" s="270"/>
-      <c r="E33" s="270"/>
-      <c r="F33" s="270"/>
-      <c r="G33" s="270"/>
-      <c r="H33" s="270"/>
-      <c r="I33" s="270"/>
-      <c r="J33" s="270"/>
-      <c r="K33" s="270"/>
-      <c r="L33" s="271"/>
+      <c r="D33" s="240"/>
+      <c r="E33" s="240"/>
+      <c r="F33" s="240"/>
+      <c r="G33" s="240"/>
+      <c r="H33" s="240"/>
+      <c r="I33" s="240"/>
+      <c r="J33" s="240"/>
+      <c r="K33" s="240"/>
+      <c r="L33" s="241"/>
     </row>
     <row r="34" spans="1:13" ht="345" customHeight="1">
-      <c r="A34" s="226"/>
-      <c r="B34" s="202"/>
+      <c r="A34" s="196"/>
+      <c r="B34" s="182"/>
       <c r="C34" s="116" t="s">
         <v>233</v>
       </c>
       <c r="D34" s="101" t="s">
         <v>409</v>
       </c>
-      <c r="E34" s="158"/>
-      <c r="F34" s="159"/>
-      <c r="G34" s="160"/>
+      <c r="E34" s="175"/>
+      <c r="F34" s="176"/>
+      <c r="G34" s="174"/>
       <c r="H34" s="117" t="s">
         <v>234</v>
       </c>
@@ -6655,20 +6652,20 @@
         <v>113</v>
       </c>
       <c r="B35" s="132" t="s">
-        <v>517</v>
-      </c>
-      <c r="C35" s="178" t="s">
+        <v>515</v>
+      </c>
+      <c r="C35" s="204" t="s">
         <v>112</v>
       </c>
-      <c r="D35" s="179"/>
-      <c r="E35" s="179"/>
-      <c r="F35" s="179"/>
-      <c r="G35" s="179"/>
-      <c r="H35" s="179"/>
-      <c r="I35" s="179"/>
-      <c r="J35" s="179"/>
-      <c r="K35" s="179"/>
-      <c r="L35" s="180"/>
+      <c r="D35" s="208"/>
+      <c r="E35" s="208"/>
+      <c r="F35" s="208"/>
+      <c r="G35" s="208"/>
+      <c r="H35" s="208"/>
+      <c r="I35" s="208"/>
+      <c r="J35" s="208"/>
+      <c r="K35" s="208"/>
+      <c r="L35" s="209"/>
     </row>
     <row r="36" spans="1:13" ht="45" customHeight="1">
       <c r="A36" s="131" t="s">
@@ -6677,41 +6674,41 @@
       <c r="B36" s="132" t="s">
         <v>110</v>
       </c>
-      <c r="C36" s="211" t="s">
-        <v>469</v>
-      </c>
-      <c r="D36" s="212"/>
-      <c r="E36" s="212"/>
-      <c r="F36" s="212"/>
-      <c r="G36" s="212"/>
-      <c r="H36" s="212"/>
-      <c r="I36" s="212"/>
-      <c r="J36" s="212"/>
-      <c r="K36" s="212"/>
-      <c r="L36" s="195"/>
+      <c r="C36" s="203" t="s">
+        <v>467</v>
+      </c>
+      <c r="D36" s="192"/>
+      <c r="E36" s="192"/>
+      <c r="F36" s="192"/>
+      <c r="G36" s="192"/>
+      <c r="H36" s="192"/>
+      <c r="I36" s="192"/>
+      <c r="J36" s="192"/>
+      <c r="K36" s="192"/>
+      <c r="L36" s="193"/>
     </row>
     <row r="37" spans="1:13" ht="60" customHeight="1">
       <c r="A37" s="129" t="s">
+        <v>520</v>
+      </c>
+      <c r="B37" s="130" t="s">
+        <v>521</v>
+      </c>
+      <c r="C37" s="166" t="s">
+        <v>466</v>
+      </c>
+      <c r="D37" s="167"/>
+      <c r="E37" s="167"/>
+      <c r="F37" s="167"/>
+      <c r="G37" s="167"/>
+      <c r="H37" s="167"/>
+      <c r="I37" s="167"/>
+      <c r="J37" s="168"/>
+      <c r="K37" s="124" t="s">
+        <v>468</v>
+      </c>
+      <c r="L37" s="124" t="s">
         <v>522</v>
-      </c>
-      <c r="B37" s="130" t="s">
-        <v>523</v>
-      </c>
-      <c r="C37" s="169" t="s">
-        <v>468</v>
-      </c>
-      <c r="D37" s="170"/>
-      <c r="E37" s="170"/>
-      <c r="F37" s="170"/>
-      <c r="G37" s="170"/>
-      <c r="H37" s="170"/>
-      <c r="I37" s="170"/>
-      <c r="J37" s="171"/>
-      <c r="K37" s="124" t="s">
-        <v>470</v>
-      </c>
-      <c r="L37" s="124" t="s">
-        <v>524</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="105" customHeight="1">
@@ -6724,20 +6721,20 @@
       <c r="C38" s="37" t="s">
         <v>353</v>
       </c>
-      <c r="D38" s="217"/>
-      <c r="E38" s="210"/>
+      <c r="D38" s="188"/>
+      <c r="E38" s="189"/>
       <c r="F38" s="29" t="s">
         <v>107</v>
       </c>
       <c r="G38" s="29" t="s">
         <v>106</v>
       </c>
-      <c r="H38" s="206"/>
+      <c r="H38" s="213"/>
       <c r="I38" s="82" t="s">
         <v>352</v>
       </c>
-      <c r="J38" s="213"/>
-      <c r="K38" s="214"/>
+      <c r="J38" s="210"/>
+      <c r="K38" s="211"/>
       <c r="L38" s="105" t="s">
         <v>419</v>
       </c>
@@ -6764,15 +6761,15 @@
       <c r="G39" s="41" t="s">
         <v>99</v>
       </c>
-      <c r="H39" s="205"/>
+      <c r="H39" s="214"/>
       <c r="I39" s="85" t="s">
         <v>335</v>
       </c>
       <c r="J39" s="43" t="s">
         <v>219</v>
       </c>
-      <c r="K39" s="215"/>
-      <c r="L39" s="215"/>
+      <c r="K39" s="225"/>
+      <c r="L39" s="225"/>
     </row>
     <row r="40" spans="1:13" ht="60" customHeight="1">
       <c r="A40" s="22" t="s">
@@ -6781,16 +6778,16 @@
       <c r="B40" s="21" t="s">
         <v>192</v>
       </c>
-      <c r="C40" s="197" t="s">
+      <c r="C40" s="222" t="s">
         <v>193</v>
       </c>
-      <c r="D40" s="198"/>
-      <c r="E40" s="198"/>
-      <c r="F40" s="198"/>
-      <c r="G40" s="198"/>
-      <c r="H40" s="194"/>
-      <c r="I40" s="218"/>
-      <c r="J40" s="219"/>
+      <c r="D40" s="202"/>
+      <c r="E40" s="202"/>
+      <c r="F40" s="202"/>
+      <c r="G40" s="202"/>
+      <c r="H40" s="223"/>
+      <c r="I40" s="226"/>
+      <c r="J40" s="191"/>
       <c r="K40" s="79" t="s">
         <v>220</v>
       </c>
@@ -6805,16 +6802,16 @@
       <c r="B41" s="21" t="s">
         <v>222</v>
       </c>
-      <c r="C41" s="197" t="s">
+      <c r="C41" s="222" t="s">
         <v>224</v>
       </c>
-      <c r="D41" s="198"/>
-      <c r="E41" s="198"/>
-      <c r="F41" s="198"/>
-      <c r="G41" s="198"/>
-      <c r="H41" s="194"/>
-      <c r="I41" s="158"/>
-      <c r="J41" s="160"/>
+      <c r="D41" s="202"/>
+      <c r="E41" s="202"/>
+      <c r="F41" s="202"/>
+      <c r="G41" s="202"/>
+      <c r="H41" s="223"/>
+      <c r="I41" s="175"/>
+      <c r="J41" s="174"/>
       <c r="K41" s="79" t="s">
         <v>223</v>
       </c>
@@ -6829,14 +6826,14 @@
       <c r="B42" s="21" t="s">
         <v>188</v>
       </c>
-      <c r="C42" s="198" t="s">
+      <c r="C42" s="202" t="s">
         <v>190</v>
       </c>
-      <c r="D42" s="198"/>
-      <c r="E42" s="198"/>
-      <c r="F42" s="198"/>
-      <c r="G42" s="198"/>
-      <c r="H42" s="198"/>
+      <c r="D42" s="202"/>
+      <c r="E42" s="202"/>
+      <c r="F42" s="202"/>
+      <c r="G42" s="202"/>
+      <c r="H42" s="202"/>
       <c r="I42" s="44" t="s">
         <v>331</v>
       </c>
@@ -6862,7 +6859,7 @@
         <v>367</v>
       </c>
       <c r="E43" s="32" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="F43" s="32" t="s">
         <v>431</v>
@@ -6873,13 +6870,13 @@
       <c r="H43" s="81" t="s">
         <v>430</v>
       </c>
-      <c r="I43" s="158"/>
-      <c r="J43" s="160"/>
+      <c r="I43" s="175"/>
+      <c r="J43" s="174"/>
       <c r="K43" s="42" t="s">
         <v>240</v>
       </c>
       <c r="L43" s="42" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="44" spans="1:13" ht="285">
@@ -6902,14 +6899,14 @@
       <c r="G44" s="19" t="s">
         <v>429</v>
       </c>
-      <c r="H44" s="158"/>
-      <c r="I44" s="159"/>
-      <c r="J44" s="160"/>
+      <c r="H44" s="175"/>
+      <c r="I44" s="176"/>
+      <c r="J44" s="174"/>
       <c r="K44" s="42" t="s">
         <v>426</v>
       </c>
       <c r="L44" s="42" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="45" spans="1:13" ht="240">
@@ -6919,15 +6916,15 @@
       <c r="B45" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="C45" s="203"/>
-      <c r="D45" s="159"/>
+      <c r="C45" s="221"/>
+      <c r="D45" s="176"/>
       <c r="E45" s="44" t="s">
         <v>236</v>
       </c>
-      <c r="F45" s="158"/>
-      <c r="G45" s="159"/>
-      <c r="H45" s="159"/>
-      <c r="I45" s="160"/>
+      <c r="F45" s="175"/>
+      <c r="G45" s="176"/>
+      <c r="H45" s="176"/>
+      <c r="I45" s="174"/>
       <c r="J45" s="42" t="s">
         <v>235</v>
       </c>
@@ -6946,10 +6943,10 @@
       <c r="C46" s="35" t="s">
         <v>328</v>
       </c>
-      <c r="D46" s="174"/>
-      <c r="E46" s="162"/>
-      <c r="F46" s="162"/>
-      <c r="G46" s="175"/>
+      <c r="D46" s="171"/>
+      <c r="E46" s="172"/>
+      <c r="F46" s="172"/>
+      <c r="G46" s="173"/>
       <c r="H46" s="19" t="s">
         <v>182</v>
       </c>
@@ -6963,29 +6960,29 @@
         <v>257</v>
       </c>
       <c r="L46" s="104" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="M46" s="7"/>
     </row>
     <row r="47" spans="1:13" ht="210" customHeight="1">
-      <c r="A47" s="221" t="s">
+      <c r="A47" s="198" t="s">
         <v>87</v>
       </c>
-      <c r="B47" s="223" t="s">
+      <c r="B47" s="200" t="s">
         <v>86</v>
       </c>
-      <c r="C47" s="197" t="s">
+      <c r="C47" s="222" t="s">
         <v>327</v>
       </c>
-      <c r="D47" s="198"/>
+      <c r="D47" s="202"/>
       <c r="E47" s="44" t="s">
         <v>329</v>
       </c>
-      <c r="F47" s="198" t="s">
+      <c r="F47" s="202" t="s">
         <v>326</v>
       </c>
-      <c r="G47" s="198"/>
-      <c r="H47" s="194"/>
+      <c r="G47" s="202"/>
+      <c r="H47" s="223"/>
       <c r="I47" s="42" t="s">
         <v>333</v>
       </c>
@@ -6998,44 +6995,44 @@
       <c r="L47" s="11"/>
     </row>
     <row r="48" spans="1:13" ht="15" customHeight="1">
-      <c r="A48" s="222"/>
-      <c r="B48" s="220"/>
-      <c r="C48" s="169" t="s">
+      <c r="A48" s="199"/>
+      <c r="B48" s="201"/>
+      <c r="C48" s="166" t="s">
         <v>85</v>
       </c>
-      <c r="D48" s="170"/>
-      <c r="E48" s="170"/>
-      <c r="F48" s="170"/>
-      <c r="G48" s="170"/>
-      <c r="H48" s="170"/>
-      <c r="I48" s="170"/>
-      <c r="J48" s="170"/>
-      <c r="K48" s="170"/>
-      <c r="L48" s="171"/>
+      <c r="D48" s="167"/>
+      <c r="E48" s="167"/>
+      <c r="F48" s="167"/>
+      <c r="G48" s="167"/>
+      <c r="H48" s="167"/>
+      <c r="I48" s="167"/>
+      <c r="J48" s="167"/>
+      <c r="K48" s="167"/>
+      <c r="L48" s="168"/>
     </row>
     <row r="49" spans="1:12" ht="15" customHeight="1">
-      <c r="A49" s="221" t="s">
+      <c r="A49" s="198" t="s">
         <v>194</v>
       </c>
-      <c r="B49" s="223" t="s">
+      <c r="B49" s="200" t="s">
         <v>202</v>
       </c>
-      <c r="C49" s="178" t="s">
+      <c r="C49" s="204" t="s">
         <v>196</v>
       </c>
-      <c r="D49" s="179"/>
-      <c r="E49" s="179"/>
-      <c r="F49" s="179"/>
-      <c r="G49" s="179"/>
-      <c r="H49" s="179"/>
-      <c r="I49" s="179"/>
-      <c r="J49" s="179"/>
-      <c r="K49" s="179"/>
-      <c r="L49" s="180"/>
+      <c r="D49" s="208"/>
+      <c r="E49" s="208"/>
+      <c r="F49" s="208"/>
+      <c r="G49" s="208"/>
+      <c r="H49" s="208"/>
+      <c r="I49" s="208"/>
+      <c r="J49" s="208"/>
+      <c r="K49" s="208"/>
+      <c r="L49" s="209"/>
     </row>
     <row r="50" spans="1:12" ht="285" customHeight="1">
-      <c r="A50" s="222"/>
-      <c r="B50" s="178"/>
+      <c r="A50" s="199"/>
+      <c r="B50" s="204"/>
       <c r="C50" s="37" t="s">
         <v>197</v>
       </c>
@@ -7057,12 +7054,12 @@
       <c r="I50" s="44" t="s">
         <v>337</v>
       </c>
-      <c r="J50" s="206"/>
+      <c r="J50" s="213"/>
       <c r="K50" s="42" t="s">
         <v>232</v>
       </c>
       <c r="L50" s="42" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="51" spans="1:12" ht="352.5" customHeight="1">
@@ -7093,12 +7090,12 @@
       <c r="I51" s="44" t="s">
         <v>339</v>
       </c>
-      <c r="J51" s="205"/>
+      <c r="J51" s="214"/>
       <c r="K51" s="42" t="s">
         <v>338</v>
       </c>
       <c r="L51" s="42" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="52" spans="1:12" ht="135" customHeight="1">
@@ -7115,7 +7112,7 @@
         <v>81</v>
       </c>
       <c r="E52" s="32" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="F52" s="32" t="s">
         <v>80</v>
@@ -7138,28 +7135,28 @@
       </c>
     </row>
     <row r="53" spans="1:12" ht="30" customHeight="1">
-      <c r="A53" s="221" t="s">
+      <c r="A53" s="198" t="s">
         <v>78</v>
       </c>
-      <c r="B53" s="211" t="s">
+      <c r="B53" s="203" t="s">
         <v>77</v>
       </c>
-      <c r="C53" s="181" t="s">
-        <v>441</v>
-      </c>
-      <c r="D53" s="182"/>
-      <c r="E53" s="182"/>
-      <c r="F53" s="182"/>
-      <c r="G53" s="182"/>
-      <c r="H53" s="182"/>
-      <c r="I53" s="182"/>
-      <c r="J53" s="182"/>
-      <c r="K53" s="182"/>
-      <c r="L53" s="182"/>
+      <c r="C53" s="227" t="s">
+        <v>439</v>
+      </c>
+      <c r="D53" s="228"/>
+      <c r="E53" s="228"/>
+      <c r="F53" s="228"/>
+      <c r="G53" s="228"/>
+      <c r="H53" s="228"/>
+      <c r="I53" s="228"/>
+      <c r="J53" s="228"/>
+      <c r="K53" s="228"/>
+      <c r="L53" s="228"/>
     </row>
     <row r="54" spans="1:12" ht="195" customHeight="1">
-      <c r="A54" s="222"/>
-      <c r="B54" s="220"/>
+      <c r="A54" s="199"/>
+      <c r="B54" s="201"/>
       <c r="C54" s="116" t="s">
         <v>245</v>
       </c>
@@ -7188,34 +7185,34 @@
       </c>
     </row>
     <row r="55" spans="1:12" ht="30" customHeight="1">
-      <c r="A55" s="221" t="s">
+      <c r="A55" s="198" t="s">
         <v>76</v>
       </c>
-      <c r="B55" s="211" t="s">
+      <c r="B55" s="203" t="s">
         <v>75</v>
       </c>
-      <c r="C55" s="181" t="s">
-        <v>442</v>
-      </c>
-      <c r="D55" s="182"/>
-      <c r="E55" s="182"/>
-      <c r="F55" s="182"/>
-      <c r="G55" s="182"/>
-      <c r="H55" s="182"/>
-      <c r="I55" s="182"/>
-      <c r="J55" s="182"/>
-      <c r="K55" s="182"/>
-      <c r="L55" s="182"/>
+      <c r="C55" s="227" t="s">
+        <v>440</v>
+      </c>
+      <c r="D55" s="228"/>
+      <c r="E55" s="228"/>
+      <c r="F55" s="228"/>
+      <c r="G55" s="228"/>
+      <c r="H55" s="228"/>
+      <c r="I55" s="228"/>
+      <c r="J55" s="228"/>
+      <c r="K55" s="228"/>
+      <c r="L55" s="228"/>
     </row>
     <row r="56" spans="1:12" ht="326.25" customHeight="1">
-      <c r="A56" s="222"/>
-      <c r="B56" s="220"/>
+      <c r="A56" s="199"/>
+      <c r="B56" s="201"/>
       <c r="C56" s="122" t="s">
         <v>74</v>
       </c>
       <c r="D56" s="14"/>
       <c r="E56" s="142" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="F56" s="142" t="s">
         <v>73</v>
@@ -7230,7 +7227,7 @@
         <v>242</v>
       </c>
       <c r="L56" s="99" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="57" spans="1:12" ht="195" customHeight="1">
@@ -7258,7 +7255,7 @@
       <c r="H57" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="I57" s="204"/>
+      <c r="I57" s="224"/>
       <c r="J57" s="42" t="s">
         <v>262</v>
       </c>
@@ -7266,7 +7263,7 @@
         <v>261</v>
       </c>
       <c r="L57" s="42" t="s">
-        <v>435</v>
+        <v>528</v>
       </c>
     </row>
     <row r="58" spans="1:12" ht="105" customHeight="1">
@@ -7294,7 +7291,7 @@
       <c r="H58" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="I58" s="205"/>
+      <c r="I58" s="214"/>
       <c r="J58" s="42" t="s">
         <v>264</v>
       </c>
@@ -7321,21 +7318,19 @@
       <c r="E59" s="19" t="s">
         <v>186</v>
       </c>
-      <c r="F59" s="174"/>
-      <c r="G59" s="175"/>
+      <c r="F59" s="171"/>
+      <c r="G59" s="173"/>
       <c r="H59" s="25" t="s">
         <v>185</v>
       </c>
       <c r="I59" s="80" t="s">
         <v>341</v>
       </c>
-      <c r="J59" s="206"/>
+      <c r="J59" s="213"/>
       <c r="K59" s="8" t="s">
         <v>342</v>
       </c>
-      <c r="L59" s="106" t="s">
-        <v>436</v>
-      </c>
+      <c r="L59" s="106"/>
     </row>
     <row r="60" spans="1:12" ht="405" customHeight="1">
       <c r="A60" s="22" t="s">
@@ -7365,16 +7360,81 @@
       <c r="I60" s="44" t="s">
         <v>349</v>
       </c>
-      <c r="J60" s="205"/>
+      <c r="J60" s="214"/>
       <c r="K60" s="42" t="s">
         <v>266</v>
       </c>
       <c r="L60" s="42" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="81">
+    <mergeCell ref="C3:L3"/>
+    <mergeCell ref="C9:L9"/>
+    <mergeCell ref="C2:J2"/>
+    <mergeCell ref="K13:L18"/>
+    <mergeCell ref="C19:L19"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="C4:L4"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="J59:J60"/>
+    <mergeCell ref="J50:J51"/>
+    <mergeCell ref="C41:H41"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="I40:J41"/>
+    <mergeCell ref="C40:H40"/>
+    <mergeCell ref="C55:L55"/>
+    <mergeCell ref="C48:L48"/>
+    <mergeCell ref="C49:L49"/>
+    <mergeCell ref="C53:L53"/>
+    <mergeCell ref="F59:G59"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="F45:I45"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="F47:H47"/>
+    <mergeCell ref="I57:I58"/>
+    <mergeCell ref="C20:J20"/>
+    <mergeCell ref="C35:L35"/>
+    <mergeCell ref="C36:L36"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="C37:J37"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="C24:J24"/>
+    <mergeCell ref="K22:K24"/>
+    <mergeCell ref="C25:L25"/>
+    <mergeCell ref="C26:L26"/>
+    <mergeCell ref="C27:L27"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="D46:G46"/>
+    <mergeCell ref="C42:H42"/>
+    <mergeCell ref="H44:J44"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="C22:J22"/>
+    <mergeCell ref="C23:J23"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="C28:L28"/>
+    <mergeCell ref="C29:L29"/>
+    <mergeCell ref="C30:L30"/>
+    <mergeCell ref="L22:L24"/>
+    <mergeCell ref="C31:L31"/>
+    <mergeCell ref="C33:L33"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="D5:G5"/>
@@ -7390,72 +7450,7 @@
     <mergeCell ref="I11:J12"/>
     <mergeCell ref="C17:J17"/>
     <mergeCell ref="C12:H12"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="E34:G34"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="C22:J22"/>
-    <mergeCell ref="C23:J23"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="D46:G46"/>
-    <mergeCell ref="C42:H42"/>
-    <mergeCell ref="H44:J44"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="B53:B54"/>
     <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C20:J20"/>
-    <mergeCell ref="C35:L35"/>
-    <mergeCell ref="C36:L36"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="H38:H39"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="C37:J37"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="C24:J24"/>
-    <mergeCell ref="K22:K24"/>
-    <mergeCell ref="F59:G59"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="F45:I45"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="F47:H47"/>
-    <mergeCell ref="I57:I58"/>
-    <mergeCell ref="J59:J60"/>
-    <mergeCell ref="J50:J51"/>
-    <mergeCell ref="C41:H41"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="I40:J41"/>
-    <mergeCell ref="C40:H40"/>
-    <mergeCell ref="C55:L55"/>
-    <mergeCell ref="C3:L3"/>
-    <mergeCell ref="C9:L9"/>
-    <mergeCell ref="C2:J2"/>
-    <mergeCell ref="K13:L18"/>
-    <mergeCell ref="C19:L19"/>
-    <mergeCell ref="C25:L25"/>
-    <mergeCell ref="C26:L26"/>
-    <mergeCell ref="C27:L27"/>
-    <mergeCell ref="C28:L28"/>
-    <mergeCell ref="C29:L29"/>
-    <mergeCell ref="C30:L30"/>
-    <mergeCell ref="L22:L24"/>
-    <mergeCell ref="C31:L31"/>
-    <mergeCell ref="C33:L33"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="C4:L4"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="C48:L48"/>
-    <mergeCell ref="C49:L49"/>
-    <mergeCell ref="C53:L53"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7467,7 +7462,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:XFB56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="E24" sqref="E24"/>
@@ -7486,13 +7481,13 @@
   <sheetData>
     <row r="1" spans="1:14" s="16" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A1" s="59" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B1" s="60" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C1" s="144" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="D1" s="60" t="s">
         <v>381</v>
@@ -7526,51 +7521,51 @@
       </c>
     </row>
     <row r="2" spans="1:14" s="16" customFormat="1" ht="15" customHeight="1">
-      <c r="A2" s="247" t="s">
+      <c r="A2" s="272" t="s">
         <v>402</v>
       </c>
-      <c r="B2" s="245" t="s">
+      <c r="B2" s="270" t="s">
         <v>403</v>
       </c>
       <c r="C2" s="145">
         <v>1</v>
       </c>
-      <c r="D2" s="251" t="s">
+      <c r="D2" s="266" t="s">
         <v>404</v>
       </c>
-      <c r="E2" s="251"/>
-      <c r="F2" s="251"/>
-      <c r="G2" s="251"/>
-      <c r="H2" s="251"/>
-      <c r="I2" s="251"/>
-      <c r="J2" s="251"/>
-      <c r="K2" s="251"/>
-      <c r="L2" s="251"/>
-      <c r="M2" s="252"/>
+      <c r="E2" s="266"/>
+      <c r="F2" s="266"/>
+      <c r="G2" s="266"/>
+      <c r="H2" s="266"/>
+      <c r="I2" s="266"/>
+      <c r="J2" s="266"/>
+      <c r="K2" s="266"/>
+      <c r="L2" s="266"/>
+      <c r="M2" s="267"/>
     </row>
     <row r="3" spans="1:14" s="16" customFormat="1" ht="15" customHeight="1">
-      <c r="A3" s="227"/>
-      <c r="B3" s="243"/>
+      <c r="A3" s="181"/>
+      <c r="B3" s="261"/>
       <c r="C3" s="146">
         <v>2</v>
       </c>
-      <c r="D3" s="253" t="s">
-        <v>506</v>
-      </c>
-      <c r="E3" s="253"/>
-      <c r="F3" s="253"/>
-      <c r="G3" s="253"/>
-      <c r="H3" s="253"/>
-      <c r="I3" s="253"/>
-      <c r="J3" s="253"/>
-      <c r="K3" s="253"/>
-      <c r="L3" s="253"/>
-      <c r="M3" s="253"/>
+      <c r="D3" s="268" t="s">
+        <v>504</v>
+      </c>
+      <c r="E3" s="268"/>
+      <c r="F3" s="268"/>
+      <c r="G3" s="268"/>
+      <c r="H3" s="268"/>
+      <c r="I3" s="268"/>
+      <c r="J3" s="268"/>
+      <c r="K3" s="268"/>
+      <c r="L3" s="268"/>
+      <c r="M3" s="268"/>
       <c r="N3" s="88"/>
     </row>
     <row r="4" spans="1:14" s="16" customFormat="1" ht="120" customHeight="1">
-      <c r="A4" s="227"/>
-      <c r="B4" s="243"/>
+      <c r="A4" s="181"/>
+      <c r="B4" s="261"/>
       <c r="C4" s="146">
         <v>3</v>
       </c>
@@ -7578,16 +7573,16 @@
         <v>405</v>
       </c>
       <c r="E4" s="96" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="F4" s="96" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="G4" s="44" t="s">
         <v>407</v>
       </c>
       <c r="H4" s="114" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="I4" s="46"/>
       <c r="J4" s="109" t="s">
@@ -7598,73 +7593,73 @@
         <v>408</v>
       </c>
       <c r="M4" s="96" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="90" customHeight="1">
-      <c r="A5" s="248"/>
-      <c r="B5" s="246"/>
+      <c r="A5" s="273"/>
+      <c r="B5" s="271"/>
       <c r="C5" s="152">
         <v>4</v>
       </c>
-      <c r="D5" s="209"/>
-      <c r="E5" s="209"/>
-      <c r="F5" s="209"/>
-      <c r="G5" s="209"/>
-      <c r="H5" s="209"/>
-      <c r="I5" s="209"/>
-      <c r="J5" s="209"/>
-      <c r="K5" s="209"/>
-      <c r="L5" s="210"/>
+      <c r="D5" s="207"/>
+      <c r="E5" s="207"/>
+      <c r="F5" s="207"/>
+      <c r="G5" s="207"/>
+      <c r="H5" s="207"/>
+      <c r="I5" s="207"/>
+      <c r="J5" s="207"/>
+      <c r="K5" s="207"/>
+      <c r="L5" s="189"/>
       <c r="M5" s="44" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="6" spans="1:14" s="16" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="227" t="s">
+      <c r="A6" s="181" t="s">
         <v>175</v>
       </c>
-      <c r="B6" s="243" t="s">
+      <c r="B6" s="261" t="s">
         <v>267</v>
       </c>
       <c r="C6" s="153">
         <v>1</v>
       </c>
-      <c r="D6" s="236" t="s">
+      <c r="D6" s="254" t="s">
         <v>292</v>
       </c>
-      <c r="E6" s="236"/>
-      <c r="F6" s="236"/>
-      <c r="G6" s="236"/>
-      <c r="H6" s="236"/>
-      <c r="I6" s="236"/>
-      <c r="J6" s="236"/>
-      <c r="K6" s="236"/>
-      <c r="L6" s="236"/>
-      <c r="M6" s="234"/>
+      <c r="E6" s="254"/>
+      <c r="F6" s="254"/>
+      <c r="G6" s="254"/>
+      <c r="H6" s="254"/>
+      <c r="I6" s="254"/>
+      <c r="J6" s="254"/>
+      <c r="K6" s="254"/>
+      <c r="L6" s="254"/>
+      <c r="M6" s="255"/>
     </row>
     <row r="7" spans="1:14" s="16" customFormat="1" ht="15" customHeight="1">
-      <c r="A7" s="227"/>
-      <c r="B7" s="243"/>
+      <c r="A7" s="181"/>
+      <c r="B7" s="261"/>
       <c r="C7" s="146">
         <v>2</v>
       </c>
-      <c r="D7" s="237" t="s">
-        <v>505</v>
-      </c>
-      <c r="E7" s="237"/>
-      <c r="F7" s="237"/>
-      <c r="G7" s="237"/>
-      <c r="H7" s="237"/>
-      <c r="I7" s="237"/>
-      <c r="J7" s="237"/>
-      <c r="K7" s="237"/>
-      <c r="L7" s="237"/>
-      <c r="M7" s="238"/>
+      <c r="D7" s="256" t="s">
+        <v>503</v>
+      </c>
+      <c r="E7" s="256"/>
+      <c r="F7" s="256"/>
+      <c r="G7" s="256"/>
+      <c r="H7" s="256"/>
+      <c r="I7" s="256"/>
+      <c r="J7" s="256"/>
+      <c r="K7" s="256"/>
+      <c r="L7" s="256"/>
+      <c r="M7" s="257"/>
     </row>
     <row r="8" spans="1:14" s="16" customFormat="1" ht="105" customHeight="1">
-      <c r="A8" s="227"/>
-      <c r="B8" s="243"/>
+      <c r="A8" s="181"/>
+      <c r="B8" s="261"/>
       <c r="C8" s="146">
         <v>3</v>
       </c>
@@ -7672,16 +7667,16 @@
         <v>387</v>
       </c>
       <c r="E8" s="137" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="F8" s="128" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="G8" s="114" t="s">
         <v>369</v>
       </c>
       <c r="H8" s="114" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="I8" s="114"/>
       <c r="J8" s="113" t="s">
@@ -7692,73 +7687,73 @@
         <v>304</v>
       </c>
       <c r="M8" s="125" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="75" customHeight="1">
-      <c r="A9" s="248"/>
-      <c r="B9" s="246"/>
+      <c r="A9" s="273"/>
+      <c r="B9" s="271"/>
       <c r="C9" s="147">
         <v>4</v>
       </c>
-      <c r="D9" s="209"/>
-      <c r="E9" s="210"/>
+      <c r="D9" s="207"/>
+      <c r="E9" s="189"/>
       <c r="F9" s="108" t="s">
         <v>374</v>
       </c>
-      <c r="G9" s="217"/>
-      <c r="H9" s="209"/>
-      <c r="I9" s="209"/>
-      <c r="J9" s="209"/>
-      <c r="K9" s="209"/>
-      <c r="L9" s="209"/>
-      <c r="M9" s="210"/>
+      <c r="G9" s="188"/>
+      <c r="H9" s="207"/>
+      <c r="I9" s="207"/>
+      <c r="J9" s="207"/>
+      <c r="K9" s="207"/>
+      <c r="L9" s="207"/>
+      <c r="M9" s="189"/>
     </row>
     <row r="10" spans="1:14" s="16" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="249" t="s">
+      <c r="A10" s="274" t="s">
         <v>174</v>
       </c>
-      <c r="B10" s="250" t="s">
+      <c r="B10" s="275" t="s">
         <v>268</v>
       </c>
       <c r="C10" s="153">
         <v>1</v>
       </c>
-      <c r="D10" s="236" t="s">
+      <c r="D10" s="254" t="s">
         <v>291</v>
       </c>
-      <c r="E10" s="236"/>
-      <c r="F10" s="236"/>
-      <c r="G10" s="236"/>
-      <c r="H10" s="236"/>
-      <c r="I10" s="236"/>
-      <c r="J10" s="236"/>
-      <c r="K10" s="236"/>
-      <c r="L10" s="236"/>
-      <c r="M10" s="234"/>
+      <c r="E10" s="254"/>
+      <c r="F10" s="254"/>
+      <c r="G10" s="254"/>
+      <c r="H10" s="254"/>
+      <c r="I10" s="254"/>
+      <c r="J10" s="254"/>
+      <c r="K10" s="254"/>
+      <c r="L10" s="254"/>
+      <c r="M10" s="255"/>
     </row>
     <row r="11" spans="1:14" s="16" customFormat="1" ht="15" customHeight="1">
-      <c r="A11" s="227"/>
-      <c r="B11" s="243"/>
+      <c r="A11" s="181"/>
+      <c r="B11" s="261"/>
       <c r="C11" s="146">
         <v>2</v>
       </c>
-      <c r="D11" s="237" t="s">
-        <v>507</v>
-      </c>
-      <c r="E11" s="237"/>
-      <c r="F11" s="237"/>
-      <c r="G11" s="237"/>
-      <c r="H11" s="237"/>
-      <c r="I11" s="237"/>
-      <c r="J11" s="237"/>
-      <c r="K11" s="237"/>
-      <c r="L11" s="237"/>
-      <c r="M11" s="238"/>
+      <c r="D11" s="256" t="s">
+        <v>505</v>
+      </c>
+      <c r="E11" s="256"/>
+      <c r="F11" s="256"/>
+      <c r="G11" s="256"/>
+      <c r="H11" s="256"/>
+      <c r="I11" s="256"/>
+      <c r="J11" s="256"/>
+      <c r="K11" s="256"/>
+      <c r="L11" s="256"/>
+      <c r="M11" s="257"/>
     </row>
     <row r="12" spans="1:14" s="16" customFormat="1" ht="105" customHeight="1">
-      <c r="A12" s="227"/>
-      <c r="B12" s="243"/>
+      <c r="A12" s="181"/>
+      <c r="B12" s="261"/>
       <c r="C12" s="146">
         <v>3</v>
       </c>
@@ -7766,16 +7761,16 @@
         <v>386</v>
       </c>
       <c r="E12" s="137" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="F12" s="46" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="G12" s="44" t="s">
         <v>368</v>
       </c>
       <c r="H12" s="114" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="I12" s="96"/>
       <c r="J12" s="113" t="s">
@@ -7786,200 +7781,200 @@
         <v>303</v>
       </c>
       <c r="M12" s="125" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="90" customHeight="1">
-      <c r="A13" s="165"/>
-      <c r="B13" s="244"/>
+      <c r="A13" s="162"/>
+      <c r="B13" s="269"/>
       <c r="C13" s="147">
         <v>4</v>
       </c>
-      <c r="D13" s="209"/>
-      <c r="E13" s="209"/>
-      <c r="F13" s="209"/>
-      <c r="G13" s="209"/>
-      <c r="H13" s="210"/>
+      <c r="D13" s="207"/>
+      <c r="E13" s="207"/>
+      <c r="F13" s="207"/>
+      <c r="G13" s="207"/>
+      <c r="H13" s="189"/>
       <c r="I13" s="99" t="s">
         <v>375</v>
       </c>
-      <c r="J13" s="217"/>
-      <c r="K13" s="209"/>
-      <c r="L13" s="209"/>
-      <c r="M13" s="210"/>
+      <c r="J13" s="188"/>
+      <c r="K13" s="207"/>
+      <c r="L13" s="207"/>
+      <c r="M13" s="189"/>
     </row>
     <row r="14" spans="1:14" s="16" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="164" t="s">
+      <c r="A14" s="161" t="s">
         <v>173</v>
       </c>
-      <c r="B14" s="242" t="s">
+      <c r="B14" s="260" t="s">
         <v>269</v>
       </c>
       <c r="C14" s="153">
         <v>1</v>
       </c>
-      <c r="D14" s="236" t="s">
+      <c r="D14" s="254" t="s">
         <v>290</v>
       </c>
-      <c r="E14" s="236"/>
-      <c r="F14" s="236"/>
-      <c r="G14" s="236"/>
-      <c r="H14" s="236"/>
-      <c r="I14" s="236"/>
-      <c r="J14" s="236"/>
-      <c r="K14" s="236"/>
-      <c r="L14" s="236"/>
-      <c r="M14" s="234"/>
+      <c r="E14" s="254"/>
+      <c r="F14" s="254"/>
+      <c r="G14" s="254"/>
+      <c r="H14" s="254"/>
+      <c r="I14" s="254"/>
+      <c r="J14" s="254"/>
+      <c r="K14" s="254"/>
+      <c r="L14" s="254"/>
+      <c r="M14" s="255"/>
     </row>
     <row r="15" spans="1:14" s="16" customFormat="1" ht="15" customHeight="1">
-      <c r="A15" s="227"/>
-      <c r="B15" s="243"/>
+      <c r="A15" s="181"/>
+      <c r="B15" s="261"/>
       <c r="C15" s="146">
         <v>2</v>
       </c>
-      <c r="D15" s="237" t="s">
-        <v>508</v>
-      </c>
-      <c r="E15" s="237"/>
-      <c r="F15" s="237"/>
-      <c r="G15" s="237"/>
-      <c r="H15" s="237"/>
-      <c r="I15" s="237"/>
-      <c r="J15" s="237"/>
-      <c r="K15" s="237"/>
-      <c r="L15" s="237"/>
-      <c r="M15" s="238"/>
+      <c r="D15" s="256" t="s">
+        <v>506</v>
+      </c>
+      <c r="E15" s="256"/>
+      <c r="F15" s="256"/>
+      <c r="G15" s="256"/>
+      <c r="H15" s="256"/>
+      <c r="I15" s="256"/>
+      <c r="J15" s="256"/>
+      <c r="K15" s="256"/>
+      <c r="L15" s="256"/>
+      <c r="M15" s="257"/>
     </row>
     <row r="16" spans="1:14" s="16" customFormat="1" ht="105" customHeight="1">
-      <c r="A16" s="227"/>
-      <c r="B16" s="243"/>
+      <c r="A16" s="181"/>
+      <c r="B16" s="261"/>
       <c r="C16" s="146">
         <v>3</v>
       </c>
       <c r="D16" s="92" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E16" s="137" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="F16" s="46" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="G16" s="44" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="H16" s="114" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="I16" s="112"/>
       <c r="J16" s="113" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="K16" s="112"/>
       <c r="L16" s="112" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="M16" s="125" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="17" spans="1:16382" ht="75" customHeight="1">
-      <c r="A17" s="165"/>
-      <c r="B17" s="244"/>
+      <c r="A17" s="162"/>
+      <c r="B17" s="269"/>
       <c r="C17" s="147">
         <v>4</v>
       </c>
-      <c r="D17" s="209"/>
-      <c r="E17" s="209"/>
-      <c r="F17" s="210"/>
+      <c r="D17" s="207"/>
+      <c r="E17" s="207"/>
+      <c r="F17" s="189"/>
       <c r="G17" s="99" t="s">
         <v>324</v>
       </c>
-      <c r="H17" s="217"/>
-      <c r="I17" s="209"/>
-      <c r="J17" s="209"/>
-      <c r="K17" s="209"/>
-      <c r="L17" s="209"/>
-      <c r="M17" s="210"/>
+      <c r="H17" s="188"/>
+      <c r="I17" s="207"/>
+      <c r="J17" s="207"/>
+      <c r="K17" s="207"/>
+      <c r="L17" s="207"/>
+      <c r="M17" s="189"/>
     </row>
     <row r="18" spans="1:16382" s="16" customFormat="1" ht="15" customHeight="1">
-      <c r="A18" s="164" t="s">
+      <c r="A18" s="161" t="s">
         <v>172</v>
       </c>
-      <c r="B18" s="242" t="s">
+      <c r="B18" s="260" t="s">
         <v>270</v>
       </c>
       <c r="C18" s="153">
         <v>1</v>
       </c>
-      <c r="D18" s="236" t="s">
-        <v>451</v>
-      </c>
-      <c r="E18" s="236"/>
-      <c r="F18" s="236"/>
-      <c r="G18" s="236"/>
-      <c r="H18" s="236"/>
-      <c r="I18" s="236"/>
-      <c r="J18" s="236"/>
-      <c r="K18" s="236"/>
-      <c r="L18" s="236"/>
-      <c r="M18" s="234"/>
+      <c r="D18" s="254" t="s">
+        <v>449</v>
+      </c>
+      <c r="E18" s="254"/>
+      <c r="F18" s="254"/>
+      <c r="G18" s="254"/>
+      <c r="H18" s="254"/>
+      <c r="I18" s="254"/>
+      <c r="J18" s="254"/>
+      <c r="K18" s="254"/>
+      <c r="L18" s="254"/>
+      <c r="M18" s="255"/>
     </row>
     <row r="19" spans="1:16382" s="16" customFormat="1" ht="15" customHeight="1">
-      <c r="A19" s="227"/>
-      <c r="B19" s="243"/>
+      <c r="A19" s="181"/>
+      <c r="B19" s="261"/>
       <c r="C19" s="146">
         <v>2</v>
       </c>
-      <c r="D19" s="237" t="s">
-        <v>509</v>
-      </c>
-      <c r="E19" s="237"/>
-      <c r="F19" s="237"/>
-      <c r="G19" s="237"/>
-      <c r="H19" s="237"/>
-      <c r="I19" s="237"/>
-      <c r="J19" s="237"/>
-      <c r="K19" s="237"/>
-      <c r="L19" s="237"/>
-      <c r="M19" s="238"/>
+      <c r="D19" s="256" t="s">
+        <v>507</v>
+      </c>
+      <c r="E19" s="256"/>
+      <c r="F19" s="256"/>
+      <c r="G19" s="256"/>
+      <c r="H19" s="256"/>
+      <c r="I19" s="256"/>
+      <c r="J19" s="256"/>
+      <c r="K19" s="256"/>
+      <c r="L19" s="256"/>
+      <c r="M19" s="257"/>
     </row>
     <row r="20" spans="1:16382" s="16" customFormat="1" ht="105" customHeight="1">
-      <c r="A20" s="227"/>
-      <c r="B20" s="243"/>
+      <c r="A20" s="181"/>
+      <c r="B20" s="261"/>
       <c r="C20" s="146">
         <v>3</v>
       </c>
       <c r="D20" s="92" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="E20" s="137" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="F20" s="112" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="G20" s="112" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="H20" s="114" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="I20" s="112"/>
       <c r="J20" s="113" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="K20" s="112"/>
       <c r="L20" s="112" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="M20" s="125" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="21" spans="1:16382" s="67" customFormat="1" ht="60" customHeight="1">
-      <c r="A21" s="260"/>
-      <c r="B21" s="254"/>
+      <c r="A21" s="265"/>
+      <c r="B21" s="262"/>
       <c r="C21" s="147">
         <v>4</v>
       </c>
@@ -7987,14 +7982,14 @@
       <c r="E21" s="123" t="s">
         <v>373</v>
       </c>
-      <c r="F21" s="239"/>
-      <c r="G21" s="240"/>
-      <c r="H21" s="240"/>
-      <c r="I21" s="240"/>
-      <c r="J21" s="240"/>
-      <c r="K21" s="240"/>
-      <c r="L21" s="240"/>
-      <c r="M21" s="241"/>
+      <c r="F21" s="215"/>
+      <c r="G21" s="216"/>
+      <c r="H21" s="216"/>
+      <c r="I21" s="216"/>
+      <c r="J21" s="216"/>
+      <c r="K21" s="216"/>
+      <c r="L21" s="216"/>
+      <c r="M21" s="277"/>
       <c r="N21" s="70"/>
       <c r="O21" s="70"/>
       <c r="P21" s="70"/>
@@ -24366,50 +24361,50 @@
       <c r="XFB21" s="70"/>
     </row>
     <row r="22" spans="1:16382" s="68" customFormat="1" ht="15" customHeight="1">
-      <c r="A22" s="259" t="s">
+      <c r="A22" s="264" t="s">
         <v>171</v>
       </c>
-      <c r="B22" s="258" t="s">
-        <v>459</v>
+      <c r="B22" s="263" t="s">
+        <v>457</v>
       </c>
       <c r="C22" s="153">
         <v>1</v>
       </c>
-      <c r="D22" s="237" t="s">
+      <c r="D22" s="256" t="s">
         <v>289</v>
       </c>
-      <c r="E22" s="237"/>
-      <c r="F22" s="237"/>
-      <c r="G22" s="237"/>
-      <c r="H22" s="237"/>
-      <c r="I22" s="237"/>
-      <c r="J22" s="237"/>
-      <c r="K22" s="237"/>
-      <c r="L22" s="237"/>
-      <c r="M22" s="238"/>
+      <c r="E22" s="256"/>
+      <c r="F22" s="256"/>
+      <c r="G22" s="256"/>
+      <c r="H22" s="256"/>
+      <c r="I22" s="256"/>
+      <c r="J22" s="256"/>
+      <c r="K22" s="256"/>
+      <c r="L22" s="256"/>
+      <c r="M22" s="257"/>
     </row>
     <row r="23" spans="1:16382" s="68" customFormat="1" ht="15" customHeight="1">
-      <c r="A23" s="256"/>
-      <c r="B23" s="202"/>
+      <c r="A23" s="250"/>
+      <c r="B23" s="182"/>
       <c r="C23" s="146">
         <v>2</v>
       </c>
-      <c r="D23" s="237" t="s">
-        <v>510</v>
-      </c>
-      <c r="E23" s="237"/>
-      <c r="F23" s="237"/>
-      <c r="G23" s="237"/>
-      <c r="H23" s="237"/>
-      <c r="I23" s="237"/>
-      <c r="J23" s="237"/>
-      <c r="K23" s="237"/>
-      <c r="L23" s="237"/>
-      <c r="M23" s="238"/>
+      <c r="D23" s="256" t="s">
+        <v>508</v>
+      </c>
+      <c r="E23" s="256"/>
+      <c r="F23" s="256"/>
+      <c r="G23" s="256"/>
+      <c r="H23" s="256"/>
+      <c r="I23" s="256"/>
+      <c r="J23" s="256"/>
+      <c r="K23" s="256"/>
+      <c r="L23" s="256"/>
+      <c r="M23" s="257"/>
     </row>
     <row r="24" spans="1:16382" s="68" customFormat="1" ht="105" customHeight="1">
-      <c r="A24" s="256"/>
-      <c r="B24" s="202"/>
+      <c r="A24" s="250"/>
+      <c r="B24" s="182"/>
       <c r="C24" s="146">
         <v>3</v>
       </c>
@@ -24418,13 +24413,13 @@
       </c>
       <c r="E24" s="137"/>
       <c r="F24" s="112" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="G24" s="112" t="s">
         <v>372</v>
       </c>
       <c r="H24" s="112" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="I24" s="112"/>
       <c r="J24" s="113" t="s">
@@ -24435,73 +24430,73 @@
         <v>302</v>
       </c>
       <c r="M24" s="125" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="25" spans="1:16382" s="70" customFormat="1" ht="90" customHeight="1">
-      <c r="A25" s="257"/>
-      <c r="B25" s="173"/>
+      <c r="A25" s="253"/>
+      <c r="B25" s="170"/>
       <c r="C25" s="147">
         <v>4</v>
       </c>
       <c r="D25" s="98" t="s">
         <v>376</v>
       </c>
-      <c r="E25" s="217"/>
-      <c r="F25" s="209"/>
-      <c r="G25" s="209"/>
-      <c r="H25" s="209"/>
-      <c r="I25" s="209"/>
-      <c r="J25" s="209"/>
-      <c r="K25" s="209"/>
-      <c r="L25" s="209"/>
-      <c r="M25" s="210"/>
+      <c r="E25" s="188"/>
+      <c r="F25" s="207"/>
+      <c r="G25" s="207"/>
+      <c r="H25" s="207"/>
+      <c r="I25" s="207"/>
+      <c r="J25" s="207"/>
+      <c r="K25" s="207"/>
+      <c r="L25" s="207"/>
+      <c r="M25" s="189"/>
     </row>
     <row r="26" spans="1:16382" s="16" customFormat="1" ht="15" customHeight="1">
-      <c r="A26" s="261" t="s">
+      <c r="A26" s="252" t="s">
         <v>170</v>
       </c>
-      <c r="B26" s="172" t="s">
-        <v>460</v>
+      <c r="B26" s="169" t="s">
+        <v>458</v>
       </c>
       <c r="C26" s="153">
         <v>1</v>
       </c>
-      <c r="D26" s="236" t="s">
+      <c r="D26" s="254" t="s">
         <v>288</v>
       </c>
-      <c r="E26" s="236"/>
-      <c r="F26" s="236"/>
-      <c r="G26" s="236"/>
-      <c r="H26" s="236"/>
-      <c r="I26" s="236"/>
-      <c r="J26" s="236"/>
-      <c r="K26" s="236"/>
-      <c r="L26" s="236"/>
-      <c r="M26" s="234"/>
+      <c r="E26" s="254"/>
+      <c r="F26" s="254"/>
+      <c r="G26" s="254"/>
+      <c r="H26" s="254"/>
+      <c r="I26" s="254"/>
+      <c r="J26" s="254"/>
+      <c r="K26" s="254"/>
+      <c r="L26" s="254"/>
+      <c r="M26" s="255"/>
     </row>
     <row r="27" spans="1:16382" s="16" customFormat="1" ht="15" customHeight="1">
-      <c r="A27" s="256"/>
-      <c r="B27" s="202"/>
+      <c r="A27" s="250"/>
+      <c r="B27" s="182"/>
       <c r="C27" s="146">
         <v>2</v>
       </c>
-      <c r="D27" s="237" t="s">
-        <v>511</v>
-      </c>
-      <c r="E27" s="237"/>
-      <c r="F27" s="237"/>
-      <c r="G27" s="237"/>
-      <c r="H27" s="237"/>
-      <c r="I27" s="237"/>
-      <c r="J27" s="237"/>
-      <c r="K27" s="237"/>
-      <c r="L27" s="237"/>
-      <c r="M27" s="238"/>
+      <c r="D27" s="256" t="s">
+        <v>509</v>
+      </c>
+      <c r="E27" s="256"/>
+      <c r="F27" s="256"/>
+      <c r="G27" s="256"/>
+      <c r="H27" s="256"/>
+      <c r="I27" s="256"/>
+      <c r="J27" s="256"/>
+      <c r="K27" s="256"/>
+      <c r="L27" s="256"/>
+      <c r="M27" s="257"/>
     </row>
     <row r="28" spans="1:16382" s="16" customFormat="1" ht="105" customHeight="1">
-      <c r="A28" s="256"/>
-      <c r="B28" s="202"/>
+      <c r="A28" s="250"/>
+      <c r="B28" s="182"/>
       <c r="C28" s="146">
         <v>3</v>
       </c>
@@ -24510,13 +24505,13 @@
       </c>
       <c r="E28" s="96"/>
       <c r="F28" s="112" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G28" s="96" t="s">
         <v>371</v>
       </c>
       <c r="H28" s="128" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="I28" s="112"/>
       <c r="J28" s="112" t="s">
@@ -24525,73 +24520,73 @@
       <c r="K28" s="112"/>
       <c r="L28" s="112"/>
       <c r="M28" s="125" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="29" spans="1:16382" ht="60" customHeight="1">
-      <c r="A29" s="257"/>
-      <c r="B29" s="173"/>
+      <c r="A29" s="253"/>
+      <c r="B29" s="170"/>
       <c r="C29" s="147">
         <v>4</v>
       </c>
-      <c r="D29" s="209"/>
-      <c r="E29" s="209"/>
-      <c r="F29" s="209"/>
-      <c r="G29" s="210"/>
+      <c r="D29" s="207"/>
+      <c r="E29" s="207"/>
+      <c r="F29" s="207"/>
+      <c r="G29" s="189"/>
       <c r="H29" s="90" t="s">
         <v>307</v>
       </c>
-      <c r="I29" s="217"/>
-      <c r="J29" s="209"/>
-      <c r="K29" s="209"/>
-      <c r="L29" s="209"/>
-      <c r="M29" s="210"/>
+      <c r="I29" s="188"/>
+      <c r="J29" s="207"/>
+      <c r="K29" s="207"/>
+      <c r="L29" s="207"/>
+      <c r="M29" s="189"/>
     </row>
     <row r="30" spans="1:16382" s="16" customFormat="1" ht="15" customHeight="1">
-      <c r="A30" s="261" t="s">
+      <c r="A30" s="252" t="s">
         <v>278</v>
       </c>
-      <c r="B30" s="172" t="s">
-        <v>461</v>
+      <c r="B30" s="169" t="s">
+        <v>459</v>
       </c>
       <c r="C30" s="153">
         <v>1</v>
       </c>
-      <c r="D30" s="236" t="s">
+      <c r="D30" s="254" t="s">
         <v>299</v>
       </c>
-      <c r="E30" s="236"/>
-      <c r="F30" s="236"/>
-      <c r="G30" s="236"/>
-      <c r="H30" s="236"/>
-      <c r="I30" s="236"/>
-      <c r="J30" s="236"/>
-      <c r="K30" s="236"/>
-      <c r="L30" s="236"/>
-      <c r="M30" s="234"/>
+      <c r="E30" s="254"/>
+      <c r="F30" s="254"/>
+      <c r="G30" s="254"/>
+      <c r="H30" s="254"/>
+      <c r="I30" s="254"/>
+      <c r="J30" s="254"/>
+      <c r="K30" s="254"/>
+      <c r="L30" s="254"/>
+      <c r="M30" s="255"/>
     </row>
     <row r="31" spans="1:16382" s="16" customFormat="1" ht="15" customHeight="1">
-      <c r="A31" s="256"/>
-      <c r="B31" s="202"/>
+      <c r="A31" s="250"/>
+      <c r="B31" s="182"/>
       <c r="C31" s="146">
         <v>2</v>
       </c>
-      <c r="D31" s="237" t="s">
-        <v>512</v>
-      </c>
-      <c r="E31" s="237"/>
-      <c r="F31" s="237"/>
-      <c r="G31" s="237"/>
-      <c r="H31" s="237"/>
-      <c r="I31" s="237"/>
-      <c r="J31" s="237"/>
-      <c r="K31" s="237"/>
-      <c r="L31" s="237"/>
-      <c r="M31" s="238"/>
+      <c r="D31" s="256" t="s">
+        <v>510</v>
+      </c>
+      <c r="E31" s="256"/>
+      <c r="F31" s="256"/>
+      <c r="G31" s="256"/>
+      <c r="H31" s="256"/>
+      <c r="I31" s="256"/>
+      <c r="J31" s="256"/>
+      <c r="K31" s="256"/>
+      <c r="L31" s="256"/>
+      <c r="M31" s="257"/>
     </row>
     <row r="32" spans="1:16382" ht="105" customHeight="1">
-      <c r="A32" s="256"/>
-      <c r="B32" s="202"/>
+      <c r="A32" s="250"/>
+      <c r="B32" s="182"/>
       <c r="C32" s="146">
         <v>3</v>
       </c>
@@ -24600,13 +24595,13 @@
       </c>
       <c r="E32" s="44"/>
       <c r="F32" s="112" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="G32" s="44" t="s">
         <v>370</v>
       </c>
       <c r="H32" s="128" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="I32" s="44"/>
       <c r="J32" s="96" t="s">
@@ -24617,73 +24612,73 @@
         <v>305</v>
       </c>
       <c r="M32" s="125" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="33" spans="1:13" s="16" customFormat="1" ht="45" customHeight="1">
-      <c r="A33" s="256"/>
-      <c r="B33" s="202"/>
+      <c r="A33" s="250"/>
+      <c r="B33" s="182"/>
       <c r="C33" s="147">
         <v>4</v>
       </c>
-      <c r="D33" s="209"/>
-      <c r="E33" s="209"/>
-      <c r="F33" s="209"/>
-      <c r="G33" s="209"/>
-      <c r="H33" s="209"/>
-      <c r="I33" s="209"/>
-      <c r="J33" s="209"/>
-      <c r="K33" s="210"/>
+      <c r="D33" s="207"/>
+      <c r="E33" s="207"/>
+      <c r="F33" s="207"/>
+      <c r="G33" s="207"/>
+      <c r="H33" s="207"/>
+      <c r="I33" s="207"/>
+      <c r="J33" s="207"/>
+      <c r="K33" s="189"/>
       <c r="L33" s="46" t="s">
         <v>366</v>
       </c>
       <c r="M33" s="57"/>
     </row>
     <row r="34" spans="1:13" ht="15" customHeight="1">
-      <c r="A34" s="255" t="s">
+      <c r="A34" s="249" t="s">
         <v>169</v>
       </c>
-      <c r="B34" s="223" t="s">
-        <v>462</v>
+      <c r="B34" s="200" t="s">
+        <v>460</v>
       </c>
       <c r="C34" s="153">
         <v>1</v>
       </c>
-      <c r="D34" s="236" t="s">
+      <c r="D34" s="254" t="s">
         <v>287</v>
       </c>
-      <c r="E34" s="236"/>
-      <c r="F34" s="236"/>
-      <c r="G34" s="236"/>
-      <c r="H34" s="236"/>
-      <c r="I34" s="236"/>
-      <c r="J34" s="236"/>
-      <c r="K34" s="236"/>
-      <c r="L34" s="236"/>
-      <c r="M34" s="234"/>
+      <c r="E34" s="254"/>
+      <c r="F34" s="254"/>
+      <c r="G34" s="254"/>
+      <c r="H34" s="254"/>
+      <c r="I34" s="254"/>
+      <c r="J34" s="254"/>
+      <c r="K34" s="254"/>
+      <c r="L34" s="254"/>
+      <c r="M34" s="255"/>
     </row>
     <row r="35" spans="1:13" ht="15" customHeight="1">
-      <c r="A35" s="256"/>
-      <c r="B35" s="202"/>
+      <c r="A35" s="250"/>
+      <c r="B35" s="182"/>
       <c r="C35" s="146">
         <v>2</v>
       </c>
-      <c r="D35" s="237" t="s">
-        <v>513</v>
-      </c>
-      <c r="E35" s="237"/>
-      <c r="F35" s="237"/>
-      <c r="G35" s="237"/>
-      <c r="H35" s="237"/>
-      <c r="I35" s="237"/>
-      <c r="J35" s="237"/>
-      <c r="K35" s="237"/>
-      <c r="L35" s="237"/>
-      <c r="M35" s="238"/>
+      <c r="D35" s="256" t="s">
+        <v>511</v>
+      </c>
+      <c r="E35" s="256"/>
+      <c r="F35" s="256"/>
+      <c r="G35" s="256"/>
+      <c r="H35" s="256"/>
+      <c r="I35" s="256"/>
+      <c r="J35" s="256"/>
+      <c r="K35" s="256"/>
+      <c r="L35" s="256"/>
+      <c r="M35" s="257"/>
     </row>
     <row r="36" spans="1:13" ht="105" customHeight="1">
-      <c r="A36" s="256"/>
-      <c r="B36" s="202"/>
+      <c r="A36" s="250"/>
+      <c r="B36" s="182"/>
       <c r="C36" s="146">
         <v>3</v>
       </c>
@@ -24692,13 +24687,13 @@
       </c>
       <c r="E36" s="96"/>
       <c r="F36" s="112" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="G36" s="96" t="s">
         <v>380</v>
       </c>
       <c r="H36" s="96" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="I36" s="96"/>
       <c r="J36" s="96" t="s">
@@ -24709,22 +24704,22 @@
         <v>306</v>
       </c>
       <c r="M36" s="125" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="37" spans="1:13" s="16" customFormat="1" ht="45" customHeight="1">
-      <c r="A37" s="257"/>
-      <c r="B37" s="173"/>
+      <c r="A37" s="253"/>
+      <c r="B37" s="170"/>
       <c r="C37" s="147">
         <v>4</v>
       </c>
-      <c r="D37" s="209"/>
-      <c r="E37" s="209"/>
-      <c r="F37" s="209"/>
-      <c r="G37" s="209"/>
-      <c r="H37" s="209"/>
-      <c r="I37" s="209"/>
-      <c r="J37" s="210"/>
+      <c r="D37" s="207"/>
+      <c r="E37" s="207"/>
+      <c r="F37" s="207"/>
+      <c r="G37" s="207"/>
+      <c r="H37" s="207"/>
+      <c r="I37" s="207"/>
+      <c r="J37" s="189"/>
       <c r="K37" s="90" t="s">
         <v>365</v>
       </c>
@@ -24732,31 +24727,31 @@
       <c r="M37" s="110"/>
     </row>
     <row r="38" spans="1:13" s="70" customFormat="1" ht="15" customHeight="1">
-      <c r="A38" s="261" t="s">
+      <c r="A38" s="252" t="s">
         <v>168</v>
       </c>
-      <c r="B38" s="172" t="s">
+      <c r="B38" s="169" t="s">
         <v>280</v>
       </c>
       <c r="C38" s="146">
         <v>1</v>
       </c>
-      <c r="D38" s="263" t="s">
+      <c r="D38" s="258" t="s">
         <v>283</v>
       </c>
-      <c r="E38" s="264"/>
-      <c r="F38" s="264"/>
-      <c r="G38" s="264"/>
-      <c r="H38" s="264"/>
-      <c r="I38" s="264"/>
-      <c r="J38" s="264"/>
-      <c r="K38" s="264"/>
-      <c r="L38" s="264"/>
-      <c r="M38" s="264"/>
+      <c r="E38" s="259"/>
+      <c r="F38" s="259"/>
+      <c r="G38" s="259"/>
+      <c r="H38" s="259"/>
+      <c r="I38" s="259"/>
+      <c r="J38" s="259"/>
+      <c r="K38" s="259"/>
+      <c r="L38" s="259"/>
+      <c r="M38" s="259"/>
     </row>
     <row r="39" spans="1:13" s="68" customFormat="1" ht="120" customHeight="1">
-      <c r="A39" s="262"/>
-      <c r="B39" s="220"/>
+      <c r="A39" s="251"/>
+      <c r="B39" s="201"/>
       <c r="C39" s="146">
         <v>4</v>
       </c>
@@ -24768,7 +24763,7 @@
       </c>
       <c r="F39" s="101"/>
       <c r="G39" s="101" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="H39" s="69"/>
       <c r="I39" s="69"/>
@@ -24778,31 +24773,31 @@
       <c r="M39" s="69"/>
     </row>
     <row r="40" spans="1:13" s="70" customFormat="1" ht="15" customHeight="1">
-      <c r="A40" s="255" t="s">
+      <c r="A40" s="249" t="s">
         <v>167</v>
       </c>
-      <c r="B40" s="223" t="s">
+      <c r="B40" s="200" t="s">
         <v>279</v>
       </c>
       <c r="C40" s="148">
         <v>1</v>
       </c>
-      <c r="D40" s="234" t="s">
+      <c r="D40" s="255" t="s">
         <v>284</v>
       </c>
-      <c r="E40" s="235"/>
-      <c r="F40" s="235"/>
-      <c r="G40" s="235"/>
-      <c r="H40" s="235"/>
-      <c r="I40" s="235"/>
-      <c r="J40" s="235"/>
-      <c r="K40" s="235"/>
-      <c r="L40" s="235"/>
-      <c r="M40" s="235"/>
+      <c r="E40" s="276"/>
+      <c r="F40" s="276"/>
+      <c r="G40" s="276"/>
+      <c r="H40" s="276"/>
+      <c r="I40" s="276"/>
+      <c r="J40" s="276"/>
+      <c r="K40" s="276"/>
+      <c r="L40" s="276"/>
+      <c r="M40" s="276"/>
     </row>
     <row r="41" spans="1:13" s="16" customFormat="1" ht="150" customHeight="1">
-      <c r="A41" s="262"/>
-      <c r="B41" s="220"/>
+      <c r="A41" s="251"/>
+      <c r="B41" s="201"/>
       <c r="C41" s="146">
         <v>4</v>
       </c>
@@ -24814,7 +24809,7 @@
       </c>
       <c r="F41" s="101"/>
       <c r="G41" s="101" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="H41" s="69"/>
       <c r="I41" s="69"/>
@@ -24824,31 +24819,31 @@
       <c r="M41" s="69"/>
     </row>
     <row r="42" spans="1:13" s="70" customFormat="1" ht="15" customHeight="1">
-      <c r="A42" s="255" t="s">
+      <c r="A42" s="249" t="s">
         <v>166</v>
       </c>
-      <c r="B42" s="223" t="s">
+      <c r="B42" s="200" t="s">
         <v>281</v>
       </c>
       <c r="C42" s="148">
         <v>1</v>
       </c>
-      <c r="D42" s="234" t="s">
+      <c r="D42" s="255" t="s">
         <v>285</v>
       </c>
-      <c r="E42" s="235"/>
-      <c r="F42" s="235"/>
-      <c r="G42" s="235"/>
-      <c r="H42" s="235"/>
-      <c r="I42" s="235"/>
-      <c r="J42" s="235"/>
-      <c r="K42" s="235"/>
-      <c r="L42" s="235"/>
-      <c r="M42" s="235"/>
+      <c r="E42" s="276"/>
+      <c r="F42" s="276"/>
+      <c r="G42" s="276"/>
+      <c r="H42" s="276"/>
+      <c r="I42" s="276"/>
+      <c r="J42" s="276"/>
+      <c r="K42" s="276"/>
+      <c r="L42" s="276"/>
+      <c r="M42" s="276"/>
     </row>
     <row r="43" spans="1:13" s="100" customFormat="1" ht="225" customHeight="1">
-      <c r="A43" s="256"/>
-      <c r="B43" s="220"/>
+      <c r="A43" s="250"/>
+      <c r="B43" s="201"/>
       <c r="C43" s="154">
         <v>4</v>
       </c>
@@ -24860,7 +24855,7 @@
       </c>
       <c r="F43" s="101"/>
       <c r="G43" s="101" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="H43" s="69"/>
       <c r="I43" s="69"/>
@@ -24870,31 +24865,31 @@
       <c r="M43" s="69"/>
     </row>
     <row r="44" spans="1:13" s="70" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A44" s="265" t="s">
+      <c r="A44" s="246" t="s">
         <v>165</v>
       </c>
-      <c r="B44" s="202" t="s">
+      <c r="B44" s="182" t="s">
         <v>282</v>
       </c>
       <c r="C44" s="146">
         <v>1</v>
       </c>
-      <c r="D44" s="234" t="s">
+      <c r="D44" s="255" t="s">
         <v>286</v>
       </c>
-      <c r="E44" s="235"/>
-      <c r="F44" s="235"/>
-      <c r="G44" s="235"/>
-      <c r="H44" s="235"/>
-      <c r="I44" s="235"/>
-      <c r="J44" s="235"/>
-      <c r="K44" s="235"/>
-      <c r="L44" s="235"/>
-      <c r="M44" s="235"/>
+      <c r="E44" s="276"/>
+      <c r="F44" s="276"/>
+      <c r="G44" s="276"/>
+      <c r="H44" s="276"/>
+      <c r="I44" s="276"/>
+      <c r="J44" s="276"/>
+      <c r="K44" s="276"/>
+      <c r="L44" s="276"/>
+      <c r="M44" s="276"/>
     </row>
     <row r="45" spans="1:13" ht="300" customHeight="1">
-      <c r="A45" s="266"/>
-      <c r="B45" s="267"/>
+      <c r="A45" s="247"/>
+      <c r="B45" s="248"/>
       <c r="C45" s="149">
         <v>4</v>
       </c>
@@ -24905,10 +24900,10 @@
         <v>301</v>
       </c>
       <c r="F45" s="74" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="G45" s="74" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="H45" s="66" t="s">
         <v>300</v>
@@ -24973,31 +24968,27 @@
     </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="D29:G29"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="D30:M30"/>
-    <mergeCell ref="D33:K33"/>
-    <mergeCell ref="D37:J37"/>
-    <mergeCell ref="D35:M35"/>
-    <mergeCell ref="D34:M34"/>
-    <mergeCell ref="D38:M38"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="D40:M40"/>
+    <mergeCell ref="D42:M42"/>
+    <mergeCell ref="D44:M44"/>
+    <mergeCell ref="D18:M18"/>
+    <mergeCell ref="D19:M19"/>
+    <mergeCell ref="D31:M31"/>
+    <mergeCell ref="D26:M26"/>
+    <mergeCell ref="D27:M27"/>
+    <mergeCell ref="F21:M21"/>
+    <mergeCell ref="E25:M25"/>
+    <mergeCell ref="D22:M22"/>
+    <mergeCell ref="D23:M23"/>
+    <mergeCell ref="I29:M29"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="B6:B9"/>
     <mergeCell ref="D2:M2"/>
     <mergeCell ref="D3:M3"/>
     <mergeCell ref="D6:M6"/>
@@ -25013,27 +25004,31 @@
     <mergeCell ref="D11:M11"/>
     <mergeCell ref="D14:M14"/>
     <mergeCell ref="D15:M15"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="D40:M40"/>
-    <mergeCell ref="D42:M42"/>
-    <mergeCell ref="D44:M44"/>
-    <mergeCell ref="D18:M18"/>
-    <mergeCell ref="D19:M19"/>
-    <mergeCell ref="D31:M31"/>
-    <mergeCell ref="D26:M26"/>
-    <mergeCell ref="D27:M27"/>
-    <mergeCell ref="F21:M21"/>
-    <mergeCell ref="E25:M25"/>
-    <mergeCell ref="D22:M22"/>
-    <mergeCell ref="D23:M23"/>
-    <mergeCell ref="I29:M29"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="D29:G29"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="D30:M30"/>
+    <mergeCell ref="D33:K33"/>
+    <mergeCell ref="D37:J37"/>
+    <mergeCell ref="D35:M35"/>
+    <mergeCell ref="D34:M34"/>
+    <mergeCell ref="D38:M38"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="A40:A41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Tags and Affinities.xlsx
+++ b/Tags and Affinities.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Charles\Documents\Git Repositories\materials_and_crafting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{719AE8E4-CACB-4244-94E3-791FD4073682}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB9FFE48-0C5E-467D-8966-01A1F016CC70}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{8FD76562-234B-40A6-8AC6-52675E21BBDC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="2" xr2:uid="{8FD76562-234B-40A6-8AC6-52675E21BBDC}"/>
   </bookViews>
   <sheets>
     <sheet name="COMPONENT TAGS" sheetId="2" r:id="rId1"/>
@@ -2180,9 +2180,6 @@
     <t>WEAPON</t>
   </si>
   <si>
-    <t>When you intercept an attack with this cloak, roll a d20. On a 10 or lower, the cloak is irrepearably damaged and becomes unusable.</t>
-  </si>
-  <si>
     <t>This item confers to the wielder damage resistance to the specified damage type equal to its damage affinity.</t>
   </si>
   <si>
@@ -2741,32 +2738,6 @@
 You become immune to the damage type you rolled until the end of your next turn.</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Increase the MCI of any </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>force binding</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> spells that conduct through this material by its force affinity.</t>
-    </r>
-  </si>
-  <si>
     <t>TIER</t>
   </si>
   <si>
@@ -2806,9 +2777,6 @@
   </si>
   <si>
     <t>This item counts as holding a number of tier of fire affinity equal to its ignan affinity.</t>
-  </si>
-  <si>
-    <t>This item counts as holding a number of tier of acid or poison affinity equal to its primal affinity</t>
   </si>
   <si>
     <t>This item counts as holding a number of tier of cold affinity equal to its aquan affinity.</t>
@@ -3151,6 +3119,38 @@
   </si>
   <si>
     <t>The bearer of this tattoo gains 1d4 temporary hit points per nourishing tier at the start of each of their turns. The first time they are reduced to 0 hit points each day, they regain hit points equal to the tattoo's nourishing tier at the start of their next turn.</t>
+  </si>
+  <si>
+    <t>The cloak takes double damage when used to intercept damage.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Increase the MCI of any </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>magic weapon</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> spells that conduct through this material by its force affinity.</t>
+    </r>
+  </si>
+  <si>
+    <t>This item counts as holding a number of tier of acid or poison affinity equal to its primal affinity.</t>
   </si>
 </sst>
 </file>
@@ -4798,6 +4798,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="91" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="92" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -4858,119 +4877,299 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="89" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="90" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="88" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="86" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="87" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="60" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="75" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -4978,208 +5177,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="89" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="90" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="88" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="86" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="87" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="91" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="92" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="60" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5512,10 +5512,10 @@
   <sheetData>
     <row r="1" spans="1:11" s="16" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A1" s="18" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C1" s="17" t="s">
         <v>373</v>
@@ -5555,14 +5555,14 @@
       <c r="C2" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="171"/>
-      <c r="E2" s="172"/>
-      <c r="F2" s="172"/>
-      <c r="G2" s="172"/>
-      <c r="H2" s="172"/>
-      <c r="I2" s="172"/>
-      <c r="J2" s="172"/>
-      <c r="K2" s="173"/>
+      <c r="D2" s="178"/>
+      <c r="E2" s="179"/>
+      <c r="F2" s="179"/>
+      <c r="G2" s="179"/>
+      <c r="H2" s="179"/>
+      <c r="I2" s="179"/>
+      <c r="J2" s="179"/>
+      <c r="K2" s="180"/>
     </row>
     <row r="3" spans="1:11" ht="30">
       <c r="A3" s="10" t="s">
@@ -5574,48 +5574,48 @@
       <c r="C3" s="137" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="169"/>
-      <c r="E3" s="170"/>
-      <c r="F3" s="170"/>
-      <c r="G3" s="170"/>
-      <c r="H3" s="170"/>
-      <c r="I3" s="170"/>
-      <c r="J3" s="170"/>
-      <c r="K3" s="168"/>
+      <c r="D3" s="176"/>
+      <c r="E3" s="177"/>
+      <c r="F3" s="177"/>
+      <c r="G3" s="177"/>
+      <c r="H3" s="177"/>
+      <c r="I3" s="177"/>
+      <c r="J3" s="177"/>
+      <c r="K3" s="175"/>
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1">
-      <c r="A4" s="155" t="s">
+      <c r="A4" s="162" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="163" t="s">
+      <c r="B4" s="170" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="160" t="s">
+      <c r="C4" s="167" t="s">
         <v>304</v>
       </c>
-      <c r="D4" s="161"/>
-      <c r="E4" s="161"/>
-      <c r="F4" s="161"/>
-      <c r="G4" s="161"/>
-      <c r="H4" s="161"/>
-      <c r="I4" s="161"/>
-      <c r="J4" s="162"/>
+      <c r="D4" s="168"/>
+      <c r="E4" s="168"/>
+      <c r="F4" s="168"/>
+      <c r="G4" s="168"/>
+      <c r="H4" s="168"/>
+      <c r="I4" s="168"/>
+      <c r="J4" s="169"/>
       <c r="K4" s="135"/>
     </row>
     <row r="5" spans="1:11" ht="30">
-      <c r="A5" s="156"/>
-      <c r="B5" s="164"/>
+      <c r="A5" s="163"/>
+      <c r="B5" s="171"/>
       <c r="C5" s="136" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="169"/>
-      <c r="E5" s="170"/>
-      <c r="F5" s="170"/>
-      <c r="G5" s="170"/>
-      <c r="H5" s="170"/>
-      <c r="I5" s="170"/>
-      <c r="J5" s="170"/>
-      <c r="K5" s="168"/>
+      <c r="D5" s="176"/>
+      <c r="E5" s="177"/>
+      <c r="F5" s="177"/>
+      <c r="G5" s="177"/>
+      <c r="H5" s="177"/>
+      <c r="I5" s="177"/>
+      <c r="J5" s="177"/>
+      <c r="K5" s="175"/>
     </row>
     <row r="6" spans="1:11" s="3" customFormat="1" ht="105" customHeight="1">
       <c r="A6" s="6" t="s">
@@ -5627,14 +5627,14 @@
       <c r="C6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="169"/>
-      <c r="E6" s="170"/>
-      <c r="F6" s="170"/>
-      <c r="G6" s="170"/>
-      <c r="H6" s="170"/>
-      <c r="I6" s="170"/>
-      <c r="J6" s="170"/>
-      <c r="K6" s="168"/>
+      <c r="D6" s="176"/>
+      <c r="E6" s="177"/>
+      <c r="F6" s="177"/>
+      <c r="G6" s="177"/>
+      <c r="H6" s="177"/>
+      <c r="I6" s="177"/>
+      <c r="J6" s="177"/>
+      <c r="K6" s="175"/>
     </row>
     <row r="7" spans="1:11" s="3" customFormat="1" ht="105" customHeight="1">
       <c r="A7" s="6" t="s">
@@ -5646,14 +5646,14 @@
       <c r="C7" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="169"/>
-      <c r="E7" s="170"/>
-      <c r="F7" s="170"/>
-      <c r="G7" s="170"/>
-      <c r="H7" s="170"/>
-      <c r="I7" s="170"/>
-      <c r="J7" s="170"/>
-      <c r="K7" s="168"/>
+      <c r="D7" s="176"/>
+      <c r="E7" s="177"/>
+      <c r="F7" s="177"/>
+      <c r="G7" s="177"/>
+      <c r="H7" s="177"/>
+      <c r="I7" s="177"/>
+      <c r="J7" s="177"/>
+      <c r="K7" s="175"/>
     </row>
     <row r="8" spans="1:11" s="3" customFormat="1" ht="120" customHeight="1">
       <c r="A8" s="6" t="s">
@@ -5665,14 +5665,14 @@
       <c r="C8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="169"/>
-      <c r="E8" s="170"/>
-      <c r="F8" s="170"/>
-      <c r="G8" s="170"/>
-      <c r="H8" s="170"/>
-      <c r="I8" s="170"/>
-      <c r="J8" s="170"/>
-      <c r="K8" s="168"/>
+      <c r="D8" s="176"/>
+      <c r="E8" s="177"/>
+      <c r="F8" s="177"/>
+      <c r="G8" s="177"/>
+      <c r="H8" s="177"/>
+      <c r="I8" s="177"/>
+      <c r="J8" s="177"/>
+      <c r="K8" s="175"/>
     </row>
     <row r="9" spans="1:11" s="3" customFormat="1" ht="135" customHeight="1">
       <c r="A9" s="6" t="s">
@@ -5684,14 +5684,14 @@
       <c r="C9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="169"/>
-      <c r="E9" s="170"/>
-      <c r="F9" s="170"/>
-      <c r="G9" s="170"/>
-      <c r="H9" s="170"/>
-      <c r="I9" s="170"/>
-      <c r="J9" s="170"/>
-      <c r="K9" s="168"/>
+      <c r="D9" s="176"/>
+      <c r="E9" s="177"/>
+      <c r="F9" s="177"/>
+      <c r="G9" s="177"/>
+      <c r="H9" s="177"/>
+      <c r="I9" s="177"/>
+      <c r="J9" s="177"/>
+      <c r="K9" s="175"/>
     </row>
     <row r="10" spans="1:11" s="3" customFormat="1" ht="135" customHeight="1">
       <c r="A10" s="6" t="s">
@@ -5703,16 +5703,16 @@
       <c r="C10" s="81" t="s">
         <v>353</v>
       </c>
-      <c r="D10" s="169"/>
-      <c r="E10" s="170"/>
-      <c r="F10" s="170"/>
-      <c r="G10" s="170"/>
-      <c r="H10" s="168"/>
+      <c r="D10" s="176"/>
+      <c r="E10" s="177"/>
+      <c r="F10" s="177"/>
+      <c r="G10" s="177"/>
+      <c r="H10" s="175"/>
       <c r="I10" s="125" t="s">
         <v>352</v>
       </c>
-      <c r="J10" s="169"/>
-      <c r="K10" s="168"/>
+      <c r="J10" s="176"/>
+      <c r="K10" s="175"/>
     </row>
     <row r="11" spans="1:11" s="3" customFormat="1" ht="135" customHeight="1">
       <c r="A11" s="6" t="s">
@@ -5724,14 +5724,14 @@
       <c r="C11" s="87" t="s">
         <v>356</v>
       </c>
-      <c r="D11" s="169"/>
-      <c r="E11" s="170"/>
-      <c r="F11" s="170"/>
-      <c r="G11" s="170"/>
-      <c r="H11" s="170"/>
-      <c r="I11" s="170"/>
-      <c r="J11" s="170"/>
-      <c r="K11" s="168"/>
+      <c r="D11" s="176"/>
+      <c r="E11" s="177"/>
+      <c r="F11" s="177"/>
+      <c r="G11" s="177"/>
+      <c r="H11" s="177"/>
+      <c r="I11" s="177"/>
+      <c r="J11" s="177"/>
+      <c r="K11" s="175"/>
     </row>
     <row r="12" spans="1:11" s="3" customFormat="1" ht="135" customHeight="1">
       <c r="A12" s="6" t="s">
@@ -5740,36 +5740,36 @@
       <c r="B12" s="82" t="s">
         <v>340</v>
       </c>
-      <c r="C12" s="174"/>
-      <c r="D12" s="170"/>
-      <c r="E12" s="170"/>
-      <c r="F12" s="170"/>
-      <c r="G12" s="170"/>
-      <c r="H12" s="168"/>
+      <c r="C12" s="181"/>
+      <c r="D12" s="177"/>
+      <c r="E12" s="177"/>
+      <c r="F12" s="177"/>
+      <c r="G12" s="177"/>
+      <c r="H12" s="175"/>
       <c r="I12" s="125" t="s">
         <v>342</v>
       </c>
-      <c r="J12" s="169"/>
-      <c r="K12" s="168"/>
+      <c r="J12" s="176"/>
+      <c r="K12" s="175"/>
     </row>
     <row r="13" spans="1:11" s="3" customFormat="1" ht="180" customHeight="1">
       <c r="A13" s="6" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C13" s="138" t="s">
-        <v>500</v>
-      </c>
-      <c r="D13" s="169"/>
-      <c r="E13" s="170"/>
-      <c r="F13" s="170"/>
-      <c r="G13" s="170"/>
-      <c r="H13" s="170"/>
-      <c r="I13" s="170"/>
-      <c r="J13" s="170"/>
-      <c r="K13" s="168"/>
+        <v>497</v>
+      </c>
+      <c r="D13" s="176"/>
+      <c r="E13" s="177"/>
+      <c r="F13" s="177"/>
+      <c r="G13" s="177"/>
+      <c r="H13" s="177"/>
+      <c r="I13" s="177"/>
+      <c r="J13" s="177"/>
+      <c r="K13" s="175"/>
     </row>
     <row r="14" spans="1:11" s="3" customFormat="1" ht="90" customHeight="1">
       <c r="A14" s="6" t="s">
@@ -5781,52 +5781,52 @@
       <c r="C14" s="131" t="s">
         <v>269</v>
       </c>
-      <c r="D14" s="169"/>
-      <c r="E14" s="170"/>
-      <c r="F14" s="170"/>
-      <c r="G14" s="170"/>
-      <c r="H14" s="170"/>
-      <c r="I14" s="170"/>
-      <c r="J14" s="170"/>
-      <c r="K14" s="168"/>
+      <c r="D14" s="176"/>
+      <c r="E14" s="177"/>
+      <c r="F14" s="177"/>
+      <c r="G14" s="177"/>
+      <c r="H14" s="177"/>
+      <c r="I14" s="177"/>
+      <c r="J14" s="177"/>
+      <c r="K14" s="175"/>
     </row>
     <row r="15" spans="1:11" s="3" customFormat="1" ht="30" customHeight="1">
       <c r="A15" s="6" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="B15" s="133" t="s">
-        <v>505</v>
-      </c>
-      <c r="C15" s="160" t="s">
-        <v>506</v>
-      </c>
-      <c r="D15" s="161"/>
-      <c r="E15" s="161"/>
-      <c r="F15" s="161"/>
-      <c r="G15" s="161"/>
-      <c r="H15" s="161"/>
-      <c r="I15" s="161"/>
-      <c r="J15" s="161"/>
-      <c r="K15" s="162"/>
+        <v>502</v>
+      </c>
+      <c r="C15" s="167" t="s">
+        <v>503</v>
+      </c>
+      <c r="D15" s="168"/>
+      <c r="E15" s="168"/>
+      <c r="F15" s="168"/>
+      <c r="G15" s="168"/>
+      <c r="H15" s="168"/>
+      <c r="I15" s="168"/>
+      <c r="J15" s="168"/>
+      <c r="K15" s="169"/>
     </row>
     <row r="16" spans="1:11" s="3" customFormat="1" ht="30" customHeight="1">
       <c r="A16" s="6" t="s">
         <v>109</v>
       </c>
       <c r="B16" s="133" t="s">
-        <v>503</v>
-      </c>
-      <c r="C16" s="160" t="s">
-        <v>501</v>
-      </c>
-      <c r="D16" s="161"/>
-      <c r="E16" s="161"/>
-      <c r="F16" s="161"/>
-      <c r="G16" s="161"/>
-      <c r="H16" s="161"/>
-      <c r="I16" s="161"/>
-      <c r="J16" s="161"/>
-      <c r="K16" s="162"/>
+        <v>500</v>
+      </c>
+      <c r="C16" s="167" t="s">
+        <v>498</v>
+      </c>
+      <c r="D16" s="168"/>
+      <c r="E16" s="168"/>
+      <c r="F16" s="168"/>
+      <c r="G16" s="168"/>
+      <c r="H16" s="168"/>
+      <c r="I16" s="168"/>
+      <c r="J16" s="168"/>
+      <c r="K16" s="169"/>
     </row>
     <row r="17" spans="1:11" s="3" customFormat="1" ht="150" customHeight="1">
       <c r="A17" s="6" t="s">
@@ -5838,14 +5838,14 @@
       <c r="C17" s="132" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="169"/>
-      <c r="E17" s="170"/>
-      <c r="F17" s="170"/>
-      <c r="G17" s="170"/>
-      <c r="H17" s="170"/>
-      <c r="I17" s="170"/>
-      <c r="J17" s="170"/>
-      <c r="K17" s="168"/>
+      <c r="D17" s="176"/>
+      <c r="E17" s="177"/>
+      <c r="F17" s="177"/>
+      <c r="G17" s="177"/>
+      <c r="H17" s="177"/>
+      <c r="I17" s="177"/>
+      <c r="J17" s="177"/>
+      <c r="K17" s="175"/>
     </row>
     <row r="18" spans="1:11" s="3" customFormat="1" ht="60" customHeight="1">
       <c r="A18" s="6" t="s">
@@ -5857,14 +5857,14 @@
       <c r="C18" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D18" s="169"/>
-      <c r="E18" s="170"/>
-      <c r="F18" s="170"/>
-      <c r="G18" s="170"/>
-      <c r="H18" s="170"/>
-      <c r="I18" s="170"/>
-      <c r="J18" s="170"/>
-      <c r="K18" s="168"/>
+      <c r="D18" s="176"/>
+      <c r="E18" s="177"/>
+      <c r="F18" s="177"/>
+      <c r="G18" s="177"/>
+      <c r="H18" s="177"/>
+      <c r="I18" s="177"/>
+      <c r="J18" s="177"/>
+      <c r="K18" s="175"/>
     </row>
     <row r="19" spans="1:11" s="3" customFormat="1" ht="60" customHeight="1">
       <c r="A19" s="6" t="s">
@@ -5876,14 +5876,14 @@
       <c r="C19" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D19" s="169"/>
-      <c r="E19" s="170"/>
-      <c r="F19" s="170"/>
-      <c r="G19" s="170"/>
-      <c r="H19" s="170"/>
-      <c r="I19" s="170"/>
-      <c r="J19" s="170"/>
-      <c r="K19" s="168"/>
+      <c r="D19" s="176"/>
+      <c r="E19" s="177"/>
+      <c r="F19" s="177"/>
+      <c r="G19" s="177"/>
+      <c r="H19" s="177"/>
+      <c r="I19" s="177"/>
+      <c r="J19" s="177"/>
+      <c r="K19" s="175"/>
     </row>
     <row r="20" spans="1:11" s="3" customFormat="1" ht="60" customHeight="1">
       <c r="A20" s="6" t="s">
@@ -5895,14 +5895,14 @@
       <c r="C20" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D20" s="169"/>
-      <c r="E20" s="170"/>
-      <c r="F20" s="170"/>
-      <c r="G20" s="170"/>
-      <c r="H20" s="170"/>
-      <c r="I20" s="170"/>
-      <c r="J20" s="170"/>
-      <c r="K20" s="168"/>
+      <c r="D20" s="176"/>
+      <c r="E20" s="177"/>
+      <c r="F20" s="177"/>
+      <c r="G20" s="177"/>
+      <c r="H20" s="177"/>
+      <c r="I20" s="177"/>
+      <c r="J20" s="177"/>
+      <c r="K20" s="175"/>
     </row>
     <row r="21" spans="1:11" s="51" customFormat="1" ht="225" customHeight="1">
       <c r="A21" s="52" t="s">
@@ -5914,14 +5914,14 @@
       <c r="C21" s="49" t="s">
         <v>309</v>
       </c>
-      <c r="D21" s="169"/>
-      <c r="E21" s="170"/>
-      <c r="F21" s="170"/>
-      <c r="G21" s="170"/>
-      <c r="H21" s="170"/>
-      <c r="I21" s="170"/>
-      <c r="J21" s="170"/>
-      <c r="K21" s="168"/>
+      <c r="D21" s="176"/>
+      <c r="E21" s="177"/>
+      <c r="F21" s="177"/>
+      <c r="G21" s="177"/>
+      <c r="H21" s="177"/>
+      <c r="I21" s="177"/>
+      <c r="J21" s="177"/>
+      <c r="K21" s="175"/>
     </row>
     <row r="22" spans="1:11" s="51" customFormat="1" ht="225" customHeight="1">
       <c r="A22" s="62" t="s">
@@ -5933,18 +5933,18 @@
       <c r="C22" s="50" t="s">
         <v>206</v>
       </c>
-      <c r="D22" s="165"/>
-      <c r="E22" s="166"/>
-      <c r="F22" s="166"/>
-      <c r="G22" s="167"/>
+      <c r="D22" s="172"/>
+      <c r="E22" s="173"/>
+      <c r="F22" s="173"/>
+      <c r="G22" s="174"/>
       <c r="H22" s="19" t="s">
         <v>207</v>
       </c>
       <c r="I22" s="124" t="s">
-        <v>461</v>
-      </c>
-      <c r="J22" s="165"/>
-      <c r="K22" s="168"/>
+        <v>460</v>
+      </c>
+      <c r="J22" s="172"/>
+      <c r="K22" s="175"/>
     </row>
     <row r="23" spans="1:11" s="51" customFormat="1" ht="30" customHeight="1">
       <c r="A23" s="75" t="s">
@@ -5953,16 +5953,16 @@
       <c r="B23" s="71" t="s">
         <v>303</v>
       </c>
-      <c r="C23" s="160" t="s">
+      <c r="C23" s="167" t="s">
         <v>302</v>
       </c>
-      <c r="D23" s="161"/>
-      <c r="E23" s="161"/>
-      <c r="F23" s="161"/>
-      <c r="G23" s="161"/>
-      <c r="H23" s="161"/>
-      <c r="I23" s="161"/>
-      <c r="J23" s="162"/>
+      <c r="D23" s="168"/>
+      <c r="E23" s="168"/>
+      <c r="F23" s="168"/>
+      <c r="G23" s="168"/>
+      <c r="H23" s="168"/>
+      <c r="I23" s="168"/>
+      <c r="J23" s="169"/>
       <c r="K23" s="67"/>
     </row>
     <row r="24" spans="1:11" ht="60">
@@ -5972,16 +5972,16 @@
       <c r="B24" s="55" t="s">
         <v>270</v>
       </c>
-      <c r="C24" s="157" t="s">
+      <c r="C24" s="164" t="s">
         <v>271</v>
       </c>
-      <c r="D24" s="158"/>
-      <c r="E24" s="158"/>
-      <c r="F24" s="158"/>
-      <c r="G24" s="158"/>
-      <c r="H24" s="158"/>
-      <c r="I24" s="158"/>
-      <c r="J24" s="159"/>
+      <c r="D24" s="165"/>
+      <c r="E24" s="165"/>
+      <c r="F24" s="165"/>
+      <c r="G24" s="165"/>
+      <c r="H24" s="165"/>
+      <c r="I24" s="165"/>
+      <c r="J24" s="166"/>
       <c r="K24" s="64"/>
     </row>
   </sheetData>
@@ -6015,10 +6015,10 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:M62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="L42" sqref="L42"/>
+      <selection pane="bottomLeft" activeCell="I52" sqref="I52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6034,10 +6034,10 @@
   <sheetData>
     <row r="1" spans="1:12" s="16" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A1" s="18" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C1" s="17" t="s">
         <v>373</v>
@@ -6064,10 +6064,10 @@
         <v>247</v>
       </c>
       <c r="K1" s="61" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="L1" s="61" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="16" customFormat="1" ht="30" customHeight="1">
@@ -6077,67 +6077,67 @@
       <c r="B2" s="15" t="s">
         <v>159</v>
       </c>
-      <c r="C2" s="221" t="s">
+      <c r="C2" s="222" t="s">
         <v>158</v>
       </c>
-      <c r="D2" s="222"/>
-      <c r="E2" s="222"/>
-      <c r="F2" s="222"/>
-      <c r="G2" s="222"/>
-      <c r="H2" s="222"/>
-      <c r="I2" s="222"/>
-      <c r="J2" s="223"/>
-      <c r="K2" s="233"/>
-      <c r="L2" s="234"/>
+      <c r="D2" s="223"/>
+      <c r="E2" s="223"/>
+      <c r="F2" s="223"/>
+      <c r="G2" s="223"/>
+      <c r="H2" s="223"/>
+      <c r="I2" s="223"/>
+      <c r="J2" s="224"/>
+      <c r="K2" s="234"/>
+      <c r="L2" s="235"/>
     </row>
     <row r="3" spans="1:12" s="16" customFormat="1" ht="15" customHeight="1">
-      <c r="A3" s="155" t="s">
+      <c r="A3" s="162" t="s">
         <v>157</v>
       </c>
-      <c r="B3" s="163" t="s">
+      <c r="B3" s="170" t="s">
         <v>224</v>
       </c>
-      <c r="C3" s="160" t="s">
+      <c r="C3" s="167" t="s">
         <v>272</v>
       </c>
-      <c r="D3" s="161"/>
-      <c r="E3" s="161"/>
-      <c r="F3" s="161"/>
-      <c r="G3" s="161"/>
-      <c r="H3" s="161"/>
-      <c r="I3" s="161"/>
-      <c r="J3" s="161"/>
-      <c r="K3" s="161"/>
-      <c r="L3" s="162"/>
+      <c r="D3" s="168"/>
+      <c r="E3" s="168"/>
+      <c r="F3" s="168"/>
+      <c r="G3" s="168"/>
+      <c r="H3" s="168"/>
+      <c r="I3" s="168"/>
+      <c r="J3" s="168"/>
+      <c r="K3" s="168"/>
+      <c r="L3" s="169"/>
     </row>
     <row r="4" spans="1:12" s="16" customFormat="1" ht="15" customHeight="1">
-      <c r="A4" s="175"/>
-      <c r="B4" s="176"/>
-      <c r="C4" s="160" t="s">
-        <v>481</v>
-      </c>
-      <c r="D4" s="161"/>
-      <c r="E4" s="161"/>
-      <c r="F4" s="161"/>
-      <c r="G4" s="161"/>
-      <c r="H4" s="161"/>
-      <c r="I4" s="161"/>
-      <c r="J4" s="161"/>
-      <c r="K4" s="161"/>
-      <c r="L4" s="162"/>
+      <c r="A4" s="246"/>
+      <c r="B4" s="185"/>
+      <c r="C4" s="167" t="s">
+        <v>538</v>
+      </c>
+      <c r="D4" s="168"/>
+      <c r="E4" s="168"/>
+      <c r="F4" s="168"/>
+      <c r="G4" s="168"/>
+      <c r="H4" s="168"/>
+      <c r="I4" s="168"/>
+      <c r="J4" s="168"/>
+      <c r="K4" s="168"/>
+      <c r="L4" s="169"/>
     </row>
     <row r="5" spans="1:12" s="16" customFormat="1" ht="180">
-      <c r="A5" s="156"/>
-      <c r="B5" s="164"/>
+      <c r="A5" s="163"/>
+      <c r="B5" s="171"/>
       <c r="C5" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="D5" s="177" t="s">
-        <v>375</v>
-      </c>
-      <c r="E5" s="177"/>
-      <c r="F5" s="177"/>
-      <c r="G5" s="177"/>
+      <c r="D5" s="236" t="s">
+        <v>374</v>
+      </c>
+      <c r="E5" s="236"/>
+      <c r="F5" s="236"/>
+      <c r="G5" s="236"/>
       <c r="H5" s="38" t="s">
         <v>155</v>
       </c>
@@ -6146,7 +6146,7 @@
       </c>
       <c r="J5" s="56"/>
       <c r="K5" s="46" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="L5" s="46" t="s">
         <v>310</v>
@@ -6159,19 +6159,19 @@
       <c r="B6" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="C6" s="160" t="s">
+      <c r="C6" s="167" t="s">
         <v>152</v>
       </c>
-      <c r="D6" s="161"/>
-      <c r="E6" s="161"/>
-      <c r="F6" s="161"/>
-      <c r="G6" s="161"/>
-      <c r="H6" s="161"/>
-      <c r="I6" s="161"/>
-      <c r="J6" s="162"/>
+      <c r="D6" s="168"/>
+      <c r="E6" s="168"/>
+      <c r="F6" s="168"/>
+      <c r="G6" s="168"/>
+      <c r="H6" s="168"/>
+      <c r="I6" s="168"/>
+      <c r="J6" s="169"/>
       <c r="K6" s="113"/>
       <c r="L6" s="85" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="7" spans="1:12" s="16" customFormat="1" ht="90">
@@ -6182,22 +6182,22 @@
         <v>223</v>
       </c>
       <c r="C7" s="27"/>
-      <c r="D7" s="177" t="s">
+      <c r="D7" s="236" t="s">
         <v>151</v>
       </c>
-      <c r="E7" s="177"/>
-      <c r="F7" s="177"/>
-      <c r="G7" s="177"/>
+      <c r="E7" s="236"/>
+      <c r="F7" s="236"/>
+      <c r="G7" s="236"/>
       <c r="H7" s="38" t="s">
         <v>150</v>
       </c>
-      <c r="I7" s="231"/>
-      <c r="J7" s="232"/>
+      <c r="I7" s="232"/>
+      <c r="J7" s="233"/>
       <c r="K7" s="46" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="L7" s="46" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="8" spans="1:12" s="16" customFormat="1" ht="105" customHeight="1">
@@ -6207,16 +6207,16 @@
       <c r="B8" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="C8" s="179" t="s">
+      <c r="C8" s="237" t="s">
         <v>147</v>
       </c>
-      <c r="D8" s="180"/>
-      <c r="E8" s="180"/>
-      <c r="F8" s="180"/>
-      <c r="G8" s="180"/>
-      <c r="H8" s="180"/>
-      <c r="I8" s="180"/>
-      <c r="J8" s="181"/>
+      <c r="D8" s="238"/>
+      <c r="E8" s="238"/>
+      <c r="F8" s="238"/>
+      <c r="G8" s="238"/>
+      <c r="H8" s="238"/>
+      <c r="I8" s="238"/>
+      <c r="J8" s="239"/>
       <c r="K8" s="113"/>
       <c r="L8" s="85" t="s">
         <v>147</v>
@@ -6229,18 +6229,18 @@
       <c r="B9" s="48" t="s">
         <v>222</v>
       </c>
-      <c r="C9" s="162" t="s">
+      <c r="C9" s="169" t="s">
         <v>145</v>
       </c>
-      <c r="D9" s="177"/>
-      <c r="E9" s="177"/>
-      <c r="F9" s="177"/>
-      <c r="G9" s="177"/>
-      <c r="H9" s="177"/>
-      <c r="I9" s="177"/>
-      <c r="J9" s="177"/>
-      <c r="K9" s="177"/>
-      <c r="L9" s="177"/>
+      <c r="D9" s="236"/>
+      <c r="E9" s="236"/>
+      <c r="F9" s="236"/>
+      <c r="G9" s="236"/>
+      <c r="H9" s="236"/>
+      <c r="I9" s="236"/>
+      <c r="J9" s="236"/>
+      <c r="K9" s="236"/>
+      <c r="L9" s="236"/>
     </row>
     <row r="10" spans="1:12" ht="105" customHeight="1">
       <c r="A10" s="30" t="s">
@@ -6249,19 +6249,19 @@
       <c r="B10" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="C10" s="179" t="s">
+      <c r="C10" s="237" t="s">
         <v>143</v>
       </c>
-      <c r="D10" s="180"/>
-      <c r="E10" s="180"/>
-      <c r="F10" s="180"/>
-      <c r="G10" s="180"/>
-      <c r="H10" s="180"/>
-      <c r="I10" s="180"/>
-      <c r="J10" s="181"/>
+      <c r="D10" s="238"/>
+      <c r="E10" s="238"/>
+      <c r="F10" s="238"/>
+      <c r="G10" s="238"/>
+      <c r="H10" s="238"/>
+      <c r="I10" s="238"/>
+      <c r="J10" s="239"/>
       <c r="K10" s="84"/>
       <c r="L10" s="85" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="120" customHeight="1">
@@ -6271,21 +6271,21 @@
       <c r="B11" s="48" t="s">
         <v>225</v>
       </c>
-      <c r="C11" s="160" t="s">
+      <c r="C11" s="167" t="s">
         <v>313</v>
       </c>
-      <c r="D11" s="161"/>
-      <c r="E11" s="161"/>
-      <c r="F11" s="161"/>
-      <c r="G11" s="161"/>
-      <c r="H11" s="162"/>
-      <c r="I11" s="184"/>
-      <c r="J11" s="185"/>
+      <c r="D11" s="168"/>
+      <c r="E11" s="168"/>
+      <c r="F11" s="168"/>
+      <c r="G11" s="168"/>
+      <c r="H11" s="169"/>
+      <c r="I11" s="240"/>
+      <c r="J11" s="218"/>
       <c r="K11" s="77" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="L11" s="46" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="120" customHeight="1">
@@ -6293,19 +6293,19 @@
         <v>314</v>
       </c>
       <c r="B12" s="74"/>
-      <c r="C12" s="188"/>
-      <c r="D12" s="189"/>
-      <c r="E12" s="189"/>
-      <c r="F12" s="189"/>
-      <c r="G12" s="189"/>
-      <c r="H12" s="189"/>
-      <c r="I12" s="166"/>
-      <c r="J12" s="167"/>
+      <c r="C12" s="248"/>
+      <c r="D12" s="249"/>
+      <c r="E12" s="249"/>
+      <c r="F12" s="249"/>
+      <c r="G12" s="249"/>
+      <c r="H12" s="249"/>
+      <c r="I12" s="173"/>
+      <c r="J12" s="174"/>
       <c r="K12" s="41" t="s">
         <v>315</v>
       </c>
       <c r="L12" s="41" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="180" customHeight="1">
@@ -6335,8 +6335,8 @@
       <c r="J13" s="42" t="s">
         <v>349</v>
       </c>
-      <c r="K13" s="224"/>
-      <c r="L13" s="225"/>
+      <c r="K13" s="225"/>
+      <c r="L13" s="226"/>
     </row>
     <row r="14" spans="1:12" ht="135">
       <c r="A14" s="13" t="s">
@@ -6348,19 +6348,19 @@
       <c r="C14" s="12" t="s">
         <v>337</v>
       </c>
-      <c r="D14" s="165"/>
-      <c r="E14" s="170"/>
-      <c r="F14" s="166"/>
-      <c r="G14" s="166"/>
-      <c r="H14" s="166"/>
+      <c r="D14" s="172"/>
+      <c r="E14" s="177"/>
+      <c r="F14" s="173"/>
+      <c r="G14" s="173"/>
+      <c r="H14" s="173"/>
       <c r="I14" s="42" t="s">
         <v>343</v>
       </c>
       <c r="J14" s="42" t="s">
         <v>250</v>
       </c>
-      <c r="K14" s="226"/>
-      <c r="L14" s="227"/>
+      <c r="K14" s="227"/>
+      <c r="L14" s="228"/>
     </row>
     <row r="15" spans="1:12" ht="135">
       <c r="A15" s="13" t="s">
@@ -6376,7 +6376,7 @@
         <v>137</v>
       </c>
       <c r="E15" s="99" t="s">
-        <v>374</v>
+        <v>537</v>
       </c>
       <c r="F15" s="19" t="s">
         <v>136</v>
@@ -6393,21 +6393,21 @@
       <c r="J15" s="41" t="s">
         <v>210</v>
       </c>
-      <c r="K15" s="226"/>
-      <c r="L15" s="227"/>
+      <c r="K15" s="227"/>
+      <c r="L15" s="228"/>
     </row>
     <row r="16" spans="1:12" ht="150" customHeight="1">
-      <c r="A16" s="178" t="s">
+      <c r="A16" s="247" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="190" t="s">
+      <c r="B16" s="209" t="s">
         <v>133</v>
       </c>
       <c r="C16" s="12" t="s">
         <v>308</v>
       </c>
-      <c r="D16" s="182"/>
-      <c r="E16" s="183"/>
+      <c r="D16" s="211"/>
+      <c r="E16" s="212"/>
       <c r="F16" s="28" t="s">
         <v>307</v>
       </c>
@@ -6421,37 +6421,37 @@
       <c r="J16" s="44" t="s">
         <v>212</v>
       </c>
-      <c r="K16" s="226"/>
-      <c r="L16" s="227"/>
+      <c r="K16" s="227"/>
+      <c r="L16" s="228"/>
     </row>
     <row r="17" spans="1:13" ht="15" customHeight="1">
-      <c r="A17" s="178"/>
-      <c r="B17" s="190"/>
-      <c r="C17" s="160" t="s">
+      <c r="A17" s="247"/>
+      <c r="B17" s="209"/>
+      <c r="C17" s="167" t="s">
         <v>132</v>
       </c>
-      <c r="D17" s="161"/>
-      <c r="E17" s="161"/>
-      <c r="F17" s="161"/>
-      <c r="G17" s="161"/>
-      <c r="H17" s="186"/>
-      <c r="I17" s="186"/>
-      <c r="J17" s="187"/>
-      <c r="K17" s="226"/>
-      <c r="L17" s="227"/>
+      <c r="D17" s="168"/>
+      <c r="E17" s="168"/>
+      <c r="F17" s="168"/>
+      <c r="G17" s="168"/>
+      <c r="H17" s="206"/>
+      <c r="I17" s="206"/>
+      <c r="J17" s="191"/>
+      <c r="K17" s="227"/>
+      <c r="L17" s="228"/>
     </row>
     <row r="18" spans="1:13" ht="135" customHeight="1">
-      <c r="A18" s="178" t="s">
+      <c r="A18" s="247" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="190" t="s">
+      <c r="B18" s="209" t="s">
         <v>131</v>
       </c>
       <c r="C18" s="91" t="s">
         <v>305</v>
       </c>
-      <c r="D18" s="182"/>
-      <c r="E18" s="183"/>
+      <c r="D18" s="211"/>
+      <c r="E18" s="212"/>
       <c r="F18" s="92" t="s">
         <v>306</v>
       </c>
@@ -6465,64 +6465,64 @@
       <c r="J18" s="44" t="s">
         <v>213</v>
       </c>
-      <c r="K18" s="228"/>
-      <c r="L18" s="229"/>
+      <c r="K18" s="229"/>
+      <c r="L18" s="230"/>
     </row>
     <row r="19" spans="1:13" ht="15" customHeight="1">
-      <c r="A19" s="178"/>
+      <c r="A19" s="247"/>
       <c r="B19" s="210"/>
-      <c r="C19" s="230" t="s">
+      <c r="C19" s="231" t="s">
         <v>130</v>
       </c>
-      <c r="D19" s="161"/>
-      <c r="E19" s="161"/>
-      <c r="F19" s="161"/>
-      <c r="G19" s="161"/>
-      <c r="H19" s="161"/>
-      <c r="I19" s="161"/>
-      <c r="J19" s="161"/>
-      <c r="K19" s="161"/>
-      <c r="L19" s="162"/>
+      <c r="D19" s="168"/>
+      <c r="E19" s="168"/>
+      <c r="F19" s="168"/>
+      <c r="G19" s="168"/>
+      <c r="H19" s="168"/>
+      <c r="I19" s="168"/>
+      <c r="J19" s="168"/>
+      <c r="K19" s="168"/>
+      <c r="L19" s="169"/>
     </row>
     <row r="20" spans="1:13" ht="15" customHeight="1">
-      <c r="A20" s="155" t="s">
+      <c r="A20" s="162" t="s">
         <v>267</v>
       </c>
-      <c r="B20" s="249" t="s">
+      <c r="B20" s="241" t="s">
         <v>268</v>
       </c>
-      <c r="C20" s="230" t="s">
-        <v>534</v>
-      </c>
-      <c r="D20" s="161"/>
-      <c r="E20" s="161"/>
-      <c r="F20" s="161"/>
-      <c r="G20" s="161"/>
-      <c r="H20" s="161"/>
-      <c r="I20" s="161"/>
-      <c r="J20" s="161"/>
-      <c r="K20" s="161"/>
-      <c r="L20" s="161"/>
-      <c r="M20" s="282"/>
+      <c r="C20" s="231" t="s">
+        <v>531</v>
+      </c>
+      <c r="D20" s="168"/>
+      <c r="E20" s="168"/>
+      <c r="F20" s="168"/>
+      <c r="G20" s="168"/>
+      <c r="H20" s="168"/>
+      <c r="I20" s="168"/>
+      <c r="J20" s="168"/>
+      <c r="K20" s="168"/>
+      <c r="L20" s="168"/>
+      <c r="M20" s="161"/>
     </row>
     <row r="21" spans="1:13" ht="105" customHeight="1">
-      <c r="A21" s="156"/>
-      <c r="B21" s="258"/>
-      <c r="C21" s="278" t="s">
-        <v>537</v>
-      </c>
-      <c r="D21" s="279"/>
-      <c r="E21" s="279"/>
-      <c r="F21" s="279"/>
-      <c r="G21" s="279"/>
-      <c r="H21" s="279"/>
-      <c r="I21" s="279"/>
-      <c r="J21" s="280"/>
+      <c r="A21" s="163"/>
+      <c r="B21" s="242"/>
+      <c r="C21" s="243" t="s">
+        <v>534</v>
+      </c>
+      <c r="D21" s="244"/>
+      <c r="E21" s="244"/>
+      <c r="F21" s="244"/>
+      <c r="G21" s="244"/>
+      <c r="H21" s="244"/>
+      <c r="I21" s="244"/>
+      <c r="J21" s="245"/>
       <c r="K21" s="44" t="s">
-        <v>536</v>
-      </c>
-      <c r="L21" s="281" t="s">
-        <v>535</v>
+        <v>533</v>
+      </c>
+      <c r="L21" s="160" t="s">
+        <v>532</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="105" customHeight="1">
@@ -6532,78 +6532,78 @@
       <c r="B22" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="C22" s="160" t="s">
+      <c r="C22" s="167" t="s">
         <v>237</v>
       </c>
-      <c r="D22" s="161"/>
-      <c r="E22" s="161"/>
-      <c r="F22" s="161"/>
-      <c r="G22" s="161"/>
-      <c r="H22" s="161"/>
-      <c r="I22" s="161"/>
-      <c r="J22" s="162"/>
+      <c r="D22" s="168"/>
+      <c r="E22" s="168"/>
+      <c r="F22" s="168"/>
+      <c r="G22" s="168"/>
+      <c r="H22" s="168"/>
+      <c r="I22" s="168"/>
+      <c r="J22" s="169"/>
       <c r="K22" s="43" t="s">
         <v>311</v>
       </c>
       <c r="L22" s="46" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="90" customHeight="1">
-      <c r="A23" s="192" t="s">
-        <v>388</v>
-      </c>
-      <c r="B23" s="163" t="s">
-        <v>393</v>
-      </c>
-      <c r="C23" s="160" t="s">
-        <v>390</v>
-      </c>
-      <c r="D23" s="161"/>
-      <c r="E23" s="161"/>
-      <c r="F23" s="161"/>
-      <c r="G23" s="161"/>
-      <c r="H23" s="161"/>
-      <c r="I23" s="161"/>
-      <c r="J23" s="162"/>
-      <c r="K23" s="187" t="s">
+      <c r="A23" s="186" t="s">
+        <v>387</v>
+      </c>
+      <c r="B23" s="170" t="s">
         <v>392</v>
       </c>
-      <c r="L23" s="187" t="s">
-        <v>409</v>
+      <c r="C23" s="167" t="s">
+        <v>389</v>
+      </c>
+      <c r="D23" s="168"/>
+      <c r="E23" s="168"/>
+      <c r="F23" s="168"/>
+      <c r="G23" s="168"/>
+      <c r="H23" s="168"/>
+      <c r="I23" s="168"/>
+      <c r="J23" s="169"/>
+      <c r="K23" s="191" t="s">
+        <v>391</v>
+      </c>
+      <c r="L23" s="191" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="15" customHeight="1">
-      <c r="A24" s="193"/>
-      <c r="B24" s="176"/>
-      <c r="C24" s="160" t="s">
-        <v>389</v>
-      </c>
-      <c r="D24" s="161"/>
-      <c r="E24" s="161"/>
-      <c r="F24" s="161"/>
-      <c r="G24" s="161"/>
-      <c r="H24" s="161"/>
-      <c r="I24" s="161"/>
-      <c r="J24" s="162"/>
-      <c r="K24" s="197"/>
-      <c r="L24" s="197"/>
+      <c r="A24" s="187"/>
+      <c r="B24" s="185"/>
+      <c r="C24" s="167" t="s">
+        <v>388</v>
+      </c>
+      <c r="D24" s="168"/>
+      <c r="E24" s="168"/>
+      <c r="F24" s="168"/>
+      <c r="G24" s="168"/>
+      <c r="H24" s="168"/>
+      <c r="I24" s="168"/>
+      <c r="J24" s="169"/>
+      <c r="K24" s="192"/>
+      <c r="L24" s="192"/>
     </row>
     <row r="25" spans="1:13" ht="45" customHeight="1">
-      <c r="A25" s="194"/>
-      <c r="B25" s="164"/>
-      <c r="C25" s="160" t="s">
-        <v>391</v>
-      </c>
-      <c r="D25" s="161"/>
-      <c r="E25" s="161"/>
-      <c r="F25" s="161"/>
-      <c r="G25" s="161"/>
-      <c r="H25" s="161"/>
-      <c r="I25" s="161"/>
-      <c r="J25" s="162"/>
-      <c r="K25" s="198"/>
-      <c r="L25" s="198"/>
+      <c r="A25" s="188"/>
+      <c r="B25" s="171"/>
+      <c r="C25" s="167" t="s">
+        <v>390</v>
+      </c>
+      <c r="D25" s="168"/>
+      <c r="E25" s="168"/>
+      <c r="F25" s="168"/>
+      <c r="G25" s="168"/>
+      <c r="H25" s="168"/>
+      <c r="I25" s="168"/>
+      <c r="J25" s="169"/>
+      <c r="K25" s="193"/>
+      <c r="L25" s="193"/>
     </row>
     <row r="26" spans="1:13" ht="30" customHeight="1">
       <c r="A26" s="13" t="s">
@@ -6612,18 +6612,18 @@
       <c r="B26" s="48" t="s">
         <v>126</v>
       </c>
-      <c r="C26" s="195" t="s">
+      <c r="C26" s="189" t="s">
         <v>125</v>
       </c>
-      <c r="D26" s="196"/>
-      <c r="E26" s="196"/>
-      <c r="F26" s="196"/>
-      <c r="G26" s="196"/>
-      <c r="H26" s="196"/>
-      <c r="I26" s="196"/>
-      <c r="J26" s="196"/>
-      <c r="K26" s="196"/>
-      <c r="L26" s="196"/>
+      <c r="D26" s="190"/>
+      <c r="E26" s="190"/>
+      <c r="F26" s="190"/>
+      <c r="G26" s="190"/>
+      <c r="H26" s="190"/>
+      <c r="I26" s="190"/>
+      <c r="J26" s="190"/>
+      <c r="K26" s="190"/>
+      <c r="L26" s="190"/>
     </row>
     <row r="27" spans="1:13" ht="30" customHeight="1">
       <c r="A27" s="10" t="s">
@@ -6632,18 +6632,18 @@
       <c r="B27" s="101" t="s">
         <v>123</v>
       </c>
-      <c r="C27" s="195" t="s">
+      <c r="C27" s="189" t="s">
         <v>122</v>
       </c>
-      <c r="D27" s="196"/>
-      <c r="E27" s="196"/>
-      <c r="F27" s="196"/>
-      <c r="G27" s="196"/>
-      <c r="H27" s="196"/>
-      <c r="I27" s="196"/>
-      <c r="J27" s="196"/>
-      <c r="K27" s="196"/>
-      <c r="L27" s="196"/>
+      <c r="D27" s="190"/>
+      <c r="E27" s="190"/>
+      <c r="F27" s="190"/>
+      <c r="G27" s="190"/>
+      <c r="H27" s="190"/>
+      <c r="I27" s="190"/>
+      <c r="J27" s="190"/>
+      <c r="K27" s="190"/>
+      <c r="L27" s="190"/>
     </row>
     <row r="28" spans="1:13" ht="30" customHeight="1">
       <c r="A28" s="10" t="s">
@@ -6652,18 +6652,18 @@
       <c r="B28" s="101" t="s">
         <v>173</v>
       </c>
-      <c r="C28" s="195" t="s">
+      <c r="C28" s="189" t="s">
         <v>174</v>
       </c>
-      <c r="D28" s="196"/>
-      <c r="E28" s="196"/>
-      <c r="F28" s="196"/>
-      <c r="G28" s="196"/>
-      <c r="H28" s="196"/>
-      <c r="I28" s="196"/>
-      <c r="J28" s="196"/>
-      <c r="K28" s="196"/>
-      <c r="L28" s="196"/>
+      <c r="D28" s="190"/>
+      <c r="E28" s="190"/>
+      <c r="F28" s="190"/>
+      <c r="G28" s="190"/>
+      <c r="H28" s="190"/>
+      <c r="I28" s="190"/>
+      <c r="J28" s="190"/>
+      <c r="K28" s="190"/>
+      <c r="L28" s="190"/>
     </row>
     <row r="29" spans="1:13" ht="30" customHeight="1">
       <c r="A29" s="10" t="s">
@@ -6672,18 +6672,18 @@
       <c r="B29" s="101" t="s">
         <v>120</v>
       </c>
-      <c r="C29" s="195" t="s">
+      <c r="C29" s="189" t="s">
         <v>119</v>
       </c>
-      <c r="D29" s="196"/>
-      <c r="E29" s="196"/>
-      <c r="F29" s="196"/>
-      <c r="G29" s="196"/>
-      <c r="H29" s="196"/>
-      <c r="I29" s="196"/>
-      <c r="J29" s="196"/>
-      <c r="K29" s="196"/>
-      <c r="L29" s="196"/>
+      <c r="D29" s="190"/>
+      <c r="E29" s="190"/>
+      <c r="F29" s="190"/>
+      <c r="G29" s="190"/>
+      <c r="H29" s="190"/>
+      <c r="I29" s="190"/>
+      <c r="J29" s="190"/>
+      <c r="K29" s="190"/>
+      <c r="L29" s="190"/>
     </row>
     <row r="30" spans="1:13" ht="30" customHeight="1">
       <c r="A30" s="10" t="s">
@@ -6692,18 +6692,18 @@
       <c r="B30" s="101" t="s">
         <v>176</v>
       </c>
-      <c r="C30" s="195" t="s">
+      <c r="C30" s="189" t="s">
         <v>177</v>
       </c>
-      <c r="D30" s="196"/>
-      <c r="E30" s="196"/>
-      <c r="F30" s="196"/>
-      <c r="G30" s="196"/>
-      <c r="H30" s="196"/>
-      <c r="I30" s="196"/>
-      <c r="J30" s="196"/>
-      <c r="K30" s="196"/>
-      <c r="L30" s="196"/>
+      <c r="D30" s="190"/>
+      <c r="E30" s="190"/>
+      <c r="F30" s="190"/>
+      <c r="G30" s="190"/>
+      <c r="H30" s="190"/>
+      <c r="I30" s="190"/>
+      <c r="J30" s="190"/>
+      <c r="K30" s="190"/>
+      <c r="L30" s="190"/>
     </row>
     <row r="31" spans="1:13" ht="30" customHeight="1">
       <c r="A31" s="10" t="s">
@@ -6712,18 +6712,18 @@
       <c r="B31" s="101" t="s">
         <v>117</v>
       </c>
-      <c r="C31" s="195" t="s">
+      <c r="C31" s="189" t="s">
         <v>116</v>
       </c>
-      <c r="D31" s="196"/>
-      <c r="E31" s="196"/>
-      <c r="F31" s="196"/>
-      <c r="G31" s="196"/>
-      <c r="H31" s="196"/>
-      <c r="I31" s="196"/>
-      <c r="J31" s="196"/>
-      <c r="K31" s="196"/>
-      <c r="L31" s="196"/>
+      <c r="D31" s="190"/>
+      <c r="E31" s="190"/>
+      <c r="F31" s="190"/>
+      <c r="G31" s="190"/>
+      <c r="H31" s="190"/>
+      <c r="I31" s="190"/>
+      <c r="J31" s="190"/>
+      <c r="K31" s="190"/>
+      <c r="L31" s="190"/>
     </row>
     <row r="32" spans="1:13" ht="30" customHeight="1">
       <c r="A32" s="10" t="s">
@@ -6732,38 +6732,38 @@
       <c r="B32" s="48" t="s">
         <v>114</v>
       </c>
-      <c r="C32" s="195" t="s">
+      <c r="C32" s="189" t="s">
         <v>113</v>
       </c>
-      <c r="D32" s="196"/>
-      <c r="E32" s="196"/>
-      <c r="F32" s="196"/>
-      <c r="G32" s="196"/>
-      <c r="H32" s="196"/>
-      <c r="I32" s="196"/>
-      <c r="J32" s="196"/>
-      <c r="K32" s="196"/>
-      <c r="L32" s="196"/>
+      <c r="D32" s="190"/>
+      <c r="E32" s="190"/>
+      <c r="F32" s="190"/>
+      <c r="G32" s="190"/>
+      <c r="H32" s="190"/>
+      <c r="I32" s="190"/>
+      <c r="J32" s="190"/>
+      <c r="K32" s="190"/>
+      <c r="L32" s="190"/>
     </row>
     <row r="33" spans="1:13" ht="75" customHeight="1">
-      <c r="A33" s="276" t="s">
+      <c r="A33" s="158" t="s">
         <v>112</v>
       </c>
-      <c r="B33" s="277" t="s">
+      <c r="B33" s="159" t="s">
         <v>111</v>
       </c>
       <c r="C33" s="151" t="s">
         <v>179</v>
       </c>
-      <c r="D33" s="268"/>
+      <c r="D33" s="156"/>
       <c r="E33" s="152" t="s">
         <v>110</v>
       </c>
       <c r="F33" s="153" t="s">
         <v>180</v>
       </c>
-      <c r="G33" s="182"/>
-      <c r="H33" s="183"/>
+      <c r="G33" s="211"/>
+      <c r="H33" s="212"/>
       <c r="I33" s="152" t="s">
         <v>324</v>
       </c>
@@ -6774,67 +6774,67 @@
         <v>211</v>
       </c>
       <c r="L33" s="42" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="34" spans="1:13" ht="75" customHeight="1">
-      <c r="A34" s="275" t="s">
+      <c r="A34" s="157" t="s">
+        <v>524</v>
+      </c>
+      <c r="B34" s="154" t="s">
+        <v>525</v>
+      </c>
+      <c r="C34" s="192" t="s">
+        <v>529</v>
+      </c>
+      <c r="D34" s="197"/>
+      <c r="E34" s="197"/>
+      <c r="F34" s="197"/>
+      <c r="G34" s="197"/>
+      <c r="H34" s="197"/>
+      <c r="I34" s="197"/>
+      <c r="J34" s="99" t="s">
+        <v>528</v>
+      </c>
+      <c r="K34" s="119" t="s">
         <v>527</v>
       </c>
-      <c r="B34" s="154" t="s">
-        <v>528</v>
-      </c>
-      <c r="C34" s="197" t="s">
-        <v>532</v>
-      </c>
-      <c r="D34" s="274"/>
-      <c r="E34" s="274"/>
-      <c r="F34" s="274"/>
-      <c r="G34" s="274"/>
-      <c r="H34" s="274"/>
-      <c r="I34" s="274"/>
-      <c r="J34" s="99" t="s">
-        <v>531</v>
-      </c>
-      <c r="K34" s="119" t="s">
-        <v>530</v>
-      </c>
-      <c r="L34" s="267" t="s">
-        <v>529</v>
+      <c r="L34" s="155" t="s">
+        <v>526</v>
       </c>
     </row>
     <row r="35" spans="1:13" s="68" customFormat="1" ht="15" customHeight="1">
-      <c r="A35" s="269" t="s">
+      <c r="A35" s="182" t="s">
         <v>55</v>
       </c>
-      <c r="B35" s="270" t="s">
+      <c r="B35" s="184" t="s">
         <v>54</v>
       </c>
-      <c r="C35" s="271" t="s">
-        <v>402</v>
-      </c>
-      <c r="D35" s="272"/>
-      <c r="E35" s="272"/>
-      <c r="F35" s="272"/>
-      <c r="G35" s="272"/>
-      <c r="H35" s="272"/>
-      <c r="I35" s="272"/>
-      <c r="J35" s="272"/>
-      <c r="K35" s="272"/>
-      <c r="L35" s="273"/>
+      <c r="C35" s="194" t="s">
+        <v>401</v>
+      </c>
+      <c r="D35" s="195"/>
+      <c r="E35" s="195"/>
+      <c r="F35" s="195"/>
+      <c r="G35" s="195"/>
+      <c r="H35" s="195"/>
+      <c r="I35" s="195"/>
+      <c r="J35" s="195"/>
+      <c r="K35" s="195"/>
+      <c r="L35" s="196"/>
     </row>
     <row r="36" spans="1:13" ht="345" customHeight="1">
-      <c r="A36" s="191"/>
-      <c r="B36" s="176"/>
+      <c r="A36" s="183"/>
+      <c r="B36" s="185"/>
       <c r="C36" s="114" t="s">
         <v>229</v>
       </c>
       <c r="D36" s="99" t="s">
-        <v>401</v>
-      </c>
-      <c r="E36" s="169"/>
-      <c r="F36" s="170"/>
-      <c r="G36" s="168"/>
+        <v>400</v>
+      </c>
+      <c r="E36" s="176"/>
+      <c r="F36" s="177"/>
+      <c r="G36" s="175"/>
       <c r="H36" s="115" t="s">
         <v>230</v>
       </c>
@@ -6848,7 +6848,7 @@
         <v>261</v>
       </c>
       <c r="L36" s="42" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="45" customHeight="1">
@@ -6856,20 +6856,20 @@
         <v>109</v>
       </c>
       <c r="B37" s="130" t="s">
-        <v>502</v>
-      </c>
-      <c r="C37" s="205" t="s">
+        <v>499</v>
+      </c>
+      <c r="C37" s="204" t="s">
         <v>108</v>
       </c>
-      <c r="D37" s="207"/>
-      <c r="E37" s="207"/>
-      <c r="F37" s="207"/>
-      <c r="G37" s="207"/>
-      <c r="H37" s="207"/>
-      <c r="I37" s="207"/>
-      <c r="J37" s="207"/>
-      <c r="K37" s="207"/>
-      <c r="L37" s="198"/>
+      <c r="D37" s="205"/>
+      <c r="E37" s="205"/>
+      <c r="F37" s="205"/>
+      <c r="G37" s="205"/>
+      <c r="H37" s="205"/>
+      <c r="I37" s="205"/>
+      <c r="J37" s="205"/>
+      <c r="K37" s="205"/>
+      <c r="L37" s="193"/>
     </row>
     <row r="38" spans="1:13" ht="45" customHeight="1">
       <c r="A38" s="129" t="s">
@@ -6878,41 +6878,41 @@
       <c r="B38" s="130" t="s">
         <v>106</v>
       </c>
-      <c r="C38" s="204" t="s">
-        <v>455</v>
-      </c>
-      <c r="D38" s="186"/>
-      <c r="E38" s="186"/>
-      <c r="F38" s="186"/>
-      <c r="G38" s="186"/>
-      <c r="H38" s="186"/>
-      <c r="I38" s="186"/>
-      <c r="J38" s="186"/>
-      <c r="K38" s="186"/>
-      <c r="L38" s="187"/>
+      <c r="C38" s="203" t="s">
+        <v>454</v>
+      </c>
+      <c r="D38" s="206"/>
+      <c r="E38" s="206"/>
+      <c r="F38" s="206"/>
+      <c r="G38" s="206"/>
+      <c r="H38" s="206"/>
+      <c r="I38" s="206"/>
+      <c r="J38" s="206"/>
+      <c r="K38" s="206"/>
+      <c r="L38" s="191"/>
     </row>
     <row r="39" spans="1:13" ht="60" customHeight="1">
       <c r="A39" s="127" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="B39" s="128" t="s">
-        <v>508</v>
-      </c>
-      <c r="C39" s="160" t="s">
-        <v>454</v>
-      </c>
-      <c r="D39" s="161"/>
-      <c r="E39" s="161"/>
-      <c r="F39" s="161"/>
-      <c r="G39" s="161"/>
-      <c r="H39" s="161"/>
-      <c r="I39" s="161"/>
-      <c r="J39" s="162"/>
+        <v>505</v>
+      </c>
+      <c r="C39" s="167" t="s">
+        <v>453</v>
+      </c>
+      <c r="D39" s="168"/>
+      <c r="E39" s="168"/>
+      <c r="F39" s="168"/>
+      <c r="G39" s="168"/>
+      <c r="H39" s="168"/>
+      <c r="I39" s="168"/>
+      <c r="J39" s="169"/>
       <c r="K39" s="122" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="L39" s="122" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
     </row>
     <row r="40" spans="1:13" ht="105" customHeight="1">
@@ -6925,22 +6925,22 @@
       <c r="C40" s="37" t="s">
         <v>345</v>
       </c>
-      <c r="D40" s="182"/>
-      <c r="E40" s="183"/>
+      <c r="D40" s="211"/>
+      <c r="E40" s="212"/>
       <c r="F40" s="29" t="s">
         <v>103</v>
       </c>
       <c r="G40" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="H40" s="211"/>
+      <c r="H40" s="213"/>
       <c r="I40" s="80" t="s">
         <v>344</v>
       </c>
-      <c r="J40" s="208"/>
-      <c r="K40" s="209"/>
+      <c r="J40" s="207"/>
+      <c r="K40" s="208"/>
       <c r="L40" s="103" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="41" spans="1:13" ht="90">
@@ -6960,12 +6960,12 @@
         <v>97</v>
       </c>
       <c r="F41" s="23" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="G41" s="41" t="s">
         <v>96</v>
       </c>
-      <c r="H41" s="212"/>
+      <c r="H41" s="214"/>
       <c r="I41" s="83" t="s">
         <v>327</v>
       </c>
@@ -6985,18 +6985,18 @@
       <c r="C42" s="215" t="s">
         <v>189</v>
       </c>
-      <c r="D42" s="203"/>
-      <c r="E42" s="203"/>
-      <c r="F42" s="203"/>
-      <c r="G42" s="203"/>
-      <c r="H42" s="195"/>
+      <c r="D42" s="202"/>
+      <c r="E42" s="202"/>
+      <c r="F42" s="202"/>
+      <c r="G42" s="202"/>
+      <c r="H42" s="189"/>
       <c r="I42" s="217"/>
-      <c r="J42" s="185"/>
+      <c r="J42" s="218"/>
       <c r="K42" s="77" t="s">
         <v>216</v>
       </c>
       <c r="L42" s="103" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
     </row>
     <row r="43" spans="1:13" ht="75" customHeight="1">
@@ -7009,18 +7009,18 @@
       <c r="C43" s="215" t="s">
         <v>220</v>
       </c>
-      <c r="D43" s="203"/>
-      <c r="E43" s="203"/>
-      <c r="F43" s="203"/>
-      <c r="G43" s="203"/>
-      <c r="H43" s="195"/>
-      <c r="I43" s="169"/>
-      <c r="J43" s="168"/>
+      <c r="D43" s="202"/>
+      <c r="E43" s="202"/>
+      <c r="F43" s="202"/>
+      <c r="G43" s="202"/>
+      <c r="H43" s="189"/>
+      <c r="I43" s="176"/>
+      <c r="J43" s="175"/>
       <c r="K43" s="77" t="s">
         <v>219</v>
       </c>
       <c r="L43" s="103" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="44" spans="1:13" ht="120">
@@ -7030,14 +7030,14 @@
       <c r="B44" s="21" t="s">
         <v>184</v>
       </c>
-      <c r="C44" s="203" t="s">
+      <c r="C44" s="202" t="s">
         <v>186</v>
       </c>
-      <c r="D44" s="203"/>
-      <c r="E44" s="203"/>
-      <c r="F44" s="203"/>
-      <c r="G44" s="203"/>
-      <c r="H44" s="203"/>
+      <c r="D44" s="202"/>
+      <c r="E44" s="202"/>
+      <c r="F44" s="202"/>
+      <c r="G44" s="202"/>
+      <c r="H44" s="202"/>
       <c r="I44" s="44" t="s">
         <v>323</v>
       </c>
@@ -7046,7 +7046,7 @@
         <v>252</v>
       </c>
       <c r="L44" s="42" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="45" spans="1:13" ht="300" customHeight="1">
@@ -7063,24 +7063,24 @@
         <v>359</v>
       </c>
       <c r="E45" s="32" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F45" s="32" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="G45" s="32" t="s">
         <v>92</v>
       </c>
       <c r="H45" s="79" t="s">
-        <v>420</v>
-      </c>
-      <c r="I45" s="169"/>
-      <c r="J45" s="168"/>
+        <v>419</v>
+      </c>
+      <c r="I45" s="176"/>
+      <c r="J45" s="175"/>
       <c r="K45" s="42" t="s">
         <v>236</v>
       </c>
       <c r="L45" s="42" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="46" spans="1:13" ht="285">
@@ -7095,22 +7095,22 @@
       </c>
       <c r="D46" s="45"/>
       <c r="E46" s="100" t="s">
+        <v>416</v>
+      </c>
+      <c r="F46" s="19" t="s">
         <v>417</v>
       </c>
-      <c r="F46" s="19" t="s">
+      <c r="G46" s="19" t="s">
         <v>418</v>
       </c>
-      <c r="G46" s="19" t="s">
-        <v>419</v>
-      </c>
-      <c r="H46" s="169"/>
-      <c r="I46" s="170"/>
-      <c r="J46" s="168"/>
+      <c r="H46" s="176"/>
+      <c r="I46" s="177"/>
+      <c r="J46" s="175"/>
       <c r="K46" s="42" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="L46" s="42" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="47" spans="1:13" ht="240">
@@ -7120,15 +7120,15 @@
       <c r="B47" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="C47" s="219"/>
-      <c r="D47" s="170"/>
+      <c r="C47" s="220"/>
+      <c r="D47" s="177"/>
       <c r="E47" s="44" t="s">
         <v>232</v>
       </c>
-      <c r="F47" s="169"/>
-      <c r="G47" s="170"/>
-      <c r="H47" s="170"/>
-      <c r="I47" s="168"/>
+      <c r="F47" s="176"/>
+      <c r="G47" s="177"/>
+      <c r="H47" s="177"/>
+      <c r="I47" s="175"/>
       <c r="J47" s="42" t="s">
         <v>231</v>
       </c>
@@ -7147,10 +7147,10 @@
       <c r="C48" s="35" t="s">
         <v>320</v>
       </c>
-      <c r="D48" s="165"/>
-      <c r="E48" s="166"/>
-      <c r="F48" s="166"/>
-      <c r="G48" s="167"/>
+      <c r="D48" s="172"/>
+      <c r="E48" s="173"/>
+      <c r="F48" s="173"/>
+      <c r="G48" s="174"/>
       <c r="H48" s="19" t="s">
         <v>178</v>
       </c>
@@ -7164,29 +7164,29 @@
         <v>253</v>
       </c>
       <c r="L48" s="102" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="M48" s="7"/>
     </row>
     <row r="49" spans="1:12" ht="210" customHeight="1">
-      <c r="A49" s="199" t="s">
+      <c r="A49" s="198" t="s">
         <v>84</v>
       </c>
-      <c r="B49" s="201" t="s">
+      <c r="B49" s="200" t="s">
         <v>83</v>
       </c>
       <c r="C49" s="215" t="s">
         <v>319</v>
       </c>
-      <c r="D49" s="203"/>
+      <c r="D49" s="202"/>
       <c r="E49" s="44" t="s">
         <v>321</v>
       </c>
-      <c r="F49" s="203" t="s">
+      <c r="F49" s="202" t="s">
         <v>318</v>
       </c>
-      <c r="G49" s="203"/>
-      <c r="H49" s="195"/>
+      <c r="G49" s="202"/>
+      <c r="H49" s="189"/>
       <c r="I49" s="42" t="s">
         <v>325</v>
       </c>
@@ -7199,44 +7199,44 @@
       <c r="L49" s="11"/>
     </row>
     <row r="50" spans="1:12" ht="15" customHeight="1">
-      <c r="A50" s="200"/>
-      <c r="B50" s="202"/>
-      <c r="C50" s="160" t="s">
+      <c r="A50" s="199"/>
+      <c r="B50" s="201"/>
+      <c r="C50" s="167" t="s">
         <v>82</v>
       </c>
-      <c r="D50" s="161"/>
-      <c r="E50" s="161"/>
-      <c r="F50" s="161"/>
-      <c r="G50" s="161"/>
-      <c r="H50" s="161"/>
-      <c r="I50" s="161"/>
-      <c r="J50" s="161"/>
-      <c r="K50" s="161"/>
-      <c r="L50" s="162"/>
+      <c r="D50" s="168"/>
+      <c r="E50" s="168"/>
+      <c r="F50" s="168"/>
+      <c r="G50" s="168"/>
+      <c r="H50" s="168"/>
+      <c r="I50" s="168"/>
+      <c r="J50" s="168"/>
+      <c r="K50" s="168"/>
+      <c r="L50" s="169"/>
     </row>
     <row r="51" spans="1:12" ht="15" customHeight="1">
-      <c r="A51" s="199" t="s">
+      <c r="A51" s="198" t="s">
         <v>190</v>
       </c>
-      <c r="B51" s="201" t="s">
+      <c r="B51" s="200" t="s">
         <v>198</v>
       </c>
-      <c r="C51" s="205" t="s">
+      <c r="C51" s="204" t="s">
         <v>192</v>
       </c>
-      <c r="D51" s="207"/>
-      <c r="E51" s="207"/>
-      <c r="F51" s="207"/>
-      <c r="G51" s="207"/>
-      <c r="H51" s="207"/>
-      <c r="I51" s="207"/>
-      <c r="J51" s="207"/>
-      <c r="K51" s="207"/>
-      <c r="L51" s="198"/>
+      <c r="D51" s="205"/>
+      <c r="E51" s="205"/>
+      <c r="F51" s="205"/>
+      <c r="G51" s="205"/>
+      <c r="H51" s="205"/>
+      <c r="I51" s="205"/>
+      <c r="J51" s="205"/>
+      <c r="K51" s="205"/>
+      <c r="L51" s="193"/>
     </row>
     <row r="52" spans="1:12" ht="285" customHeight="1">
-      <c r="A52" s="200"/>
-      <c r="B52" s="205"/>
+      <c r="A52" s="199"/>
+      <c r="B52" s="204"/>
       <c r="C52" s="37" t="s">
         <v>193</v>
       </c>
@@ -7258,12 +7258,12 @@
       <c r="I52" s="44" t="s">
         <v>329</v>
       </c>
-      <c r="J52" s="211"/>
+      <c r="J52" s="213"/>
       <c r="K52" s="42" t="s">
         <v>228</v>
       </c>
       <c r="L52" s="42" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="53" spans="1:12" ht="352.5" customHeight="1">
@@ -7294,12 +7294,12 @@
       <c r="I53" s="44" t="s">
         <v>331</v>
       </c>
-      <c r="J53" s="212"/>
+      <c r="J53" s="214"/>
       <c r="K53" s="42" t="s">
         <v>330</v>
       </c>
       <c r="L53" s="42" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="54" spans="1:12" ht="135" customHeight="1">
@@ -7316,7 +7316,7 @@
         <v>78</v>
       </c>
       <c r="E54" s="32" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F54" s="32" t="s">
         <v>77</v>
@@ -7335,32 +7335,32 @@
         <v>256</v>
       </c>
       <c r="L54" s="36" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
     </row>
     <row r="55" spans="1:12" ht="30" customHeight="1">
-      <c r="A55" s="199" t="s">
+      <c r="A55" s="198" t="s">
         <v>75</v>
       </c>
-      <c r="B55" s="204" t="s">
+      <c r="B55" s="203" t="s">
         <v>74</v>
       </c>
-      <c r="C55" s="218" t="s">
-        <v>427</v>
-      </c>
-      <c r="D55" s="196"/>
-      <c r="E55" s="196"/>
-      <c r="F55" s="196"/>
-      <c r="G55" s="196"/>
-      <c r="H55" s="196"/>
-      <c r="I55" s="196"/>
-      <c r="J55" s="196"/>
-      <c r="K55" s="196"/>
-      <c r="L55" s="196"/>
+      <c r="C55" s="219" t="s">
+        <v>426</v>
+      </c>
+      <c r="D55" s="190"/>
+      <c r="E55" s="190"/>
+      <c r="F55" s="190"/>
+      <c r="G55" s="190"/>
+      <c r="H55" s="190"/>
+      <c r="I55" s="190"/>
+      <c r="J55" s="190"/>
+      <c r="K55" s="190"/>
+      <c r="L55" s="190"/>
     </row>
     <row r="56" spans="1:12" ht="195" customHeight="1">
-      <c r="A56" s="200"/>
-      <c r="B56" s="202"/>
+      <c r="A56" s="199"/>
+      <c r="B56" s="201"/>
       <c r="C56" s="114" t="s">
         <v>241</v>
       </c>
@@ -7385,45 +7385,45 @@
       </c>
       <c r="K56" s="117"/>
       <c r="L56" s="119" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="57" spans="1:12" ht="30" customHeight="1">
-      <c r="A57" s="199" t="s">
+      <c r="A57" s="198" t="s">
         <v>73</v>
       </c>
-      <c r="B57" s="204" t="s">
+      <c r="B57" s="203" t="s">
         <v>72</v>
       </c>
-      <c r="C57" s="218" t="s">
-        <v>428</v>
-      </c>
-      <c r="D57" s="196"/>
-      <c r="E57" s="196"/>
-      <c r="F57" s="196"/>
-      <c r="G57" s="196"/>
-      <c r="H57" s="196"/>
-      <c r="I57" s="196"/>
-      <c r="J57" s="196"/>
-      <c r="K57" s="196"/>
-      <c r="L57" s="196"/>
+      <c r="C57" s="219" t="s">
+        <v>427</v>
+      </c>
+      <c r="D57" s="190"/>
+      <c r="E57" s="190"/>
+      <c r="F57" s="190"/>
+      <c r="G57" s="190"/>
+      <c r="H57" s="190"/>
+      <c r="I57" s="190"/>
+      <c r="J57" s="190"/>
+      <c r="K57" s="190"/>
+      <c r="L57" s="190"/>
     </row>
     <row r="58" spans="1:12" ht="326.25" customHeight="1">
-      <c r="A58" s="200"/>
-      <c r="B58" s="202"/>
+      <c r="A58" s="199"/>
+      <c r="B58" s="201"/>
       <c r="C58" s="120" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="D58" s="14"/>
       <c r="E58" s="139" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="F58" s="139" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="G58" s="14"/>
       <c r="H58" s="36" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="I58" s="109"/>
       <c r="J58" s="118"/>
@@ -7431,7 +7431,7 @@
         <v>238</v>
       </c>
       <c r="L58" s="97" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
     </row>
     <row r="59" spans="1:12" ht="195" customHeight="1">
@@ -7459,7 +7459,7 @@
       <c r="H59" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="I59" s="220"/>
+      <c r="I59" s="221"/>
       <c r="J59" s="42" t="s">
         <v>258</v>
       </c>
@@ -7467,7 +7467,7 @@
         <v>257</v>
       </c>
       <c r="L59" s="42" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
     </row>
     <row r="60" spans="1:12" ht="105" customHeight="1">
@@ -7495,7 +7495,7 @@
       <c r="H60" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="I60" s="212"/>
+      <c r="I60" s="214"/>
       <c r="J60" s="42" t="s">
         <v>260</v>
       </c>
@@ -7503,7 +7503,7 @@
         <v>259</v>
       </c>
       <c r="L60" s="42" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="61" spans="1:12" ht="360">
@@ -7522,15 +7522,15 @@
       <c r="E61" s="19" t="s">
         <v>182</v>
       </c>
-      <c r="F61" s="165"/>
-      <c r="G61" s="167"/>
+      <c r="F61" s="172"/>
+      <c r="G61" s="174"/>
       <c r="H61" s="25" t="s">
         <v>181</v>
       </c>
       <c r="I61" s="78" t="s">
         <v>333</v>
       </c>
-      <c r="J61" s="211"/>
+      <c r="J61" s="213"/>
       <c r="K61" s="8" t="s">
         <v>334</v>
       </c>
@@ -7564,27 +7564,43 @@
       <c r="I62" s="44" t="s">
         <v>341</v>
       </c>
-      <c r="J62" s="212"/>
+      <c r="J62" s="214"/>
       <c r="K62" s="42" t="s">
         <v>262</v>
       </c>
       <c r="L62" s="42" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="85">
-    <mergeCell ref="B20:B21"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="C20:L20"/>
     <mergeCell ref="C3:L3"/>
     <mergeCell ref="C9:L9"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="C12:H12"/>
+    <mergeCell ref="B16:B17"/>
     <mergeCell ref="C2:J2"/>
     <mergeCell ref="K13:L18"/>
     <mergeCell ref="C19:L19"/>
     <mergeCell ref="I7:J7"/>
     <mergeCell ref="C4:L4"/>
     <mergeCell ref="K2:L2"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C8:J8"/>
+    <mergeCell ref="C10:J10"/>
+    <mergeCell ref="D14:H14"/>
+    <mergeCell ref="C11:H11"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="I11:J12"/>
+    <mergeCell ref="C17:J17"/>
     <mergeCell ref="J61:J62"/>
     <mergeCell ref="J52:J53"/>
     <mergeCell ref="C43:H43"/>
@@ -7601,7 +7617,6 @@
     <mergeCell ref="C49:D49"/>
     <mergeCell ref="F49:H49"/>
     <mergeCell ref="I59:I60"/>
-    <mergeCell ref="C21:J21"/>
     <mergeCell ref="C37:L37"/>
     <mergeCell ref="C38:L38"/>
     <mergeCell ref="J40:K40"/>
@@ -7617,6 +7632,7 @@
     <mergeCell ref="C26:L26"/>
     <mergeCell ref="C27:L27"/>
     <mergeCell ref="C28:L28"/>
+    <mergeCell ref="B20:B21"/>
     <mergeCell ref="B57:B58"/>
     <mergeCell ref="A57:A58"/>
     <mergeCell ref="A55:A56"/>
@@ -7643,22 +7659,6 @@
     <mergeCell ref="C32:L32"/>
     <mergeCell ref="C35:L35"/>
     <mergeCell ref="C34:I34"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="D7:G7"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C8:J8"/>
-    <mergeCell ref="C10:J10"/>
-    <mergeCell ref="D14:H14"/>
-    <mergeCell ref="C11:H11"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="I11:J12"/>
-    <mergeCell ref="C17:J17"/>
-    <mergeCell ref="C12:H12"/>
-    <mergeCell ref="B16:B17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7670,10 +7670,10 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:XFB56"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="I45" sqref="I45"/>
+      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7689,13 +7689,13 @@
   <sheetData>
     <row r="1" spans="1:14" s="16" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A1" s="59" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B1" s="60" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C1" s="140" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="D1" s="60" t="s">
         <v>373</v>
@@ -7725,464 +7725,464 @@
         <v>248</v>
       </c>
       <c r="M1" s="60" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="2" spans="1:14" s="16" customFormat="1" ht="15" customHeight="1">
-      <c r="A2" s="261" t="s">
+      <c r="A2" s="275" t="s">
+        <v>393</v>
+      </c>
+      <c r="B2" s="273" t="s">
         <v>394</v>
-      </c>
-      <c r="B2" s="259" t="s">
-        <v>395</v>
       </c>
       <c r="C2" s="141">
         <v>1</v>
       </c>
-      <c r="D2" s="255" t="s">
-        <v>396</v>
-      </c>
-      <c r="E2" s="255"/>
-      <c r="F2" s="255"/>
-      <c r="G2" s="255"/>
-      <c r="H2" s="255"/>
-      <c r="I2" s="255"/>
-      <c r="J2" s="255"/>
-      <c r="K2" s="255"/>
-      <c r="L2" s="255"/>
-      <c r="M2" s="256"/>
+      <c r="D2" s="270" t="s">
+        <v>395</v>
+      </c>
+      <c r="E2" s="270"/>
+      <c r="F2" s="270"/>
+      <c r="G2" s="270"/>
+      <c r="H2" s="270"/>
+      <c r="I2" s="270"/>
+      <c r="J2" s="270"/>
+      <c r="K2" s="270"/>
+      <c r="L2" s="270"/>
+      <c r="M2" s="271"/>
     </row>
     <row r="3" spans="1:14" s="16" customFormat="1" ht="15" customHeight="1">
-      <c r="A3" s="175"/>
-      <c r="B3" s="250"/>
+      <c r="A3" s="246"/>
+      <c r="B3" s="265"/>
       <c r="C3" s="142">
         <v>2</v>
       </c>
-      <c r="D3" s="257" t="s">
-        <v>491</v>
-      </c>
-      <c r="E3" s="257"/>
-      <c r="F3" s="257"/>
-      <c r="G3" s="257"/>
-      <c r="H3" s="257"/>
-      <c r="I3" s="257"/>
-      <c r="J3" s="257"/>
-      <c r="K3" s="257"/>
-      <c r="L3" s="257"/>
-      <c r="M3" s="257"/>
+      <c r="D3" s="272" t="s">
+        <v>539</v>
+      </c>
+      <c r="E3" s="272"/>
+      <c r="F3" s="272"/>
+      <c r="G3" s="272"/>
+      <c r="H3" s="272"/>
+      <c r="I3" s="272"/>
+      <c r="J3" s="272"/>
+      <c r="K3" s="272"/>
+      <c r="L3" s="272"/>
+      <c r="M3" s="272"/>
       <c r="N3" s="86"/>
     </row>
     <row r="4" spans="1:14" s="16" customFormat="1" ht="120" customHeight="1">
-      <c r="A4" s="175"/>
-      <c r="B4" s="250"/>
+      <c r="A4" s="246"/>
+      <c r="B4" s="265"/>
       <c r="C4" s="142">
         <v>3</v>
       </c>
       <c r="D4" s="107" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E4" s="94" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="F4" s="94" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="G4" s="44" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H4" s="112" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="I4" s="46"/>
       <c r="J4" s="107" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="K4" s="46"/>
       <c r="L4" s="94" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="M4" s="94" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="90" customHeight="1">
-      <c r="A5" s="262"/>
-      <c r="B5" s="260"/>
+      <c r="A5" s="276"/>
+      <c r="B5" s="274"/>
       <c r="C5" s="148">
         <v>4</v>
       </c>
-      <c r="D5" s="206"/>
-      <c r="E5" s="206"/>
-      <c r="F5" s="206"/>
-      <c r="G5" s="206"/>
-      <c r="H5" s="206"/>
-      <c r="I5" s="206"/>
-      <c r="J5" s="206"/>
-      <c r="K5" s="206"/>
-      <c r="L5" s="183"/>
+      <c r="D5" s="257"/>
+      <c r="E5" s="257"/>
+      <c r="F5" s="257"/>
+      <c r="G5" s="257"/>
+      <c r="H5" s="257"/>
+      <c r="I5" s="257"/>
+      <c r="J5" s="257"/>
+      <c r="K5" s="257"/>
+      <c r="L5" s="212"/>
       <c r="M5" s="44" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="6" spans="1:14" s="16" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="175" t="s">
+      <c r="A6" s="246" t="s">
         <v>171</v>
       </c>
-      <c r="B6" s="250" t="s">
+      <c r="B6" s="265" t="s">
         <v>263</v>
       </c>
       <c r="C6" s="149">
         <v>1</v>
       </c>
-      <c r="D6" s="243" t="s">
+      <c r="D6" s="259" t="s">
         <v>287</v>
       </c>
-      <c r="E6" s="243"/>
-      <c r="F6" s="243"/>
-      <c r="G6" s="243"/>
-      <c r="H6" s="243"/>
-      <c r="I6" s="243"/>
-      <c r="J6" s="243"/>
-      <c r="K6" s="243"/>
-      <c r="L6" s="243"/>
-      <c r="M6" s="244"/>
+      <c r="E6" s="259"/>
+      <c r="F6" s="259"/>
+      <c r="G6" s="259"/>
+      <c r="H6" s="259"/>
+      <c r="I6" s="259"/>
+      <c r="J6" s="259"/>
+      <c r="K6" s="259"/>
+      <c r="L6" s="259"/>
+      <c r="M6" s="260"/>
     </row>
     <row r="7" spans="1:14" s="16" customFormat="1" ht="15" customHeight="1">
-      <c r="A7" s="175"/>
-      <c r="B7" s="250"/>
+      <c r="A7" s="246"/>
+      <c r="B7" s="265"/>
       <c r="C7" s="142">
         <v>2</v>
       </c>
-      <c r="D7" s="245" t="s">
-        <v>490</v>
-      </c>
-      <c r="E7" s="245"/>
-      <c r="F7" s="245"/>
-      <c r="G7" s="245"/>
-      <c r="H7" s="245"/>
-      <c r="I7" s="245"/>
-      <c r="J7" s="245"/>
-      <c r="K7" s="245"/>
-      <c r="L7" s="245"/>
-      <c r="M7" s="246"/>
+      <c r="D7" s="261" t="s">
+        <v>488</v>
+      </c>
+      <c r="E7" s="261"/>
+      <c r="F7" s="261"/>
+      <c r="G7" s="261"/>
+      <c r="H7" s="261"/>
+      <c r="I7" s="261"/>
+      <c r="J7" s="261"/>
+      <c r="K7" s="261"/>
+      <c r="L7" s="261"/>
+      <c r="M7" s="262"/>
     </row>
     <row r="8" spans="1:14" s="16" customFormat="1" ht="105" customHeight="1">
-      <c r="A8" s="175"/>
-      <c r="B8" s="250"/>
+      <c r="A8" s="246"/>
+      <c r="B8" s="265"/>
       <c r="C8" s="142">
         <v>3</v>
       </c>
       <c r="D8" s="107" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E8" s="134" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="F8" s="126" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="G8" s="112" t="s">
         <v>361</v>
       </c>
       <c r="H8" s="112" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="I8" s="112"/>
       <c r="J8" s="111" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="K8" s="112"/>
       <c r="L8" s="110" t="s">
         <v>297</v>
       </c>
       <c r="M8" s="123" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="75" customHeight="1">
-      <c r="A9" s="262"/>
-      <c r="B9" s="260"/>
+      <c r="A9" s="276"/>
+      <c r="B9" s="274"/>
       <c r="C9" s="143">
         <v>4</v>
       </c>
-      <c r="D9" s="206"/>
-      <c r="E9" s="183"/>
+      <c r="D9" s="257"/>
+      <c r="E9" s="212"/>
       <c r="F9" s="106" t="s">
         <v>366</v>
       </c>
-      <c r="G9" s="182"/>
-      <c r="H9" s="206"/>
-      <c r="I9" s="206"/>
-      <c r="J9" s="206"/>
-      <c r="K9" s="206"/>
-      <c r="L9" s="206"/>
-      <c r="M9" s="183"/>
+      <c r="G9" s="211"/>
+      <c r="H9" s="257"/>
+      <c r="I9" s="257"/>
+      <c r="J9" s="257"/>
+      <c r="K9" s="257"/>
+      <c r="L9" s="257"/>
+      <c r="M9" s="212"/>
     </row>
     <row r="10" spans="1:14" s="16" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="263" t="s">
+      <c r="A10" s="277" t="s">
         <v>170</v>
       </c>
-      <c r="B10" s="264" t="s">
+      <c r="B10" s="278" t="s">
         <v>264</v>
       </c>
       <c r="C10" s="149">
         <v>1</v>
       </c>
-      <c r="D10" s="243" t="s">
+      <c r="D10" s="259" t="s">
         <v>286</v>
       </c>
-      <c r="E10" s="243"/>
-      <c r="F10" s="243"/>
-      <c r="G10" s="243"/>
-      <c r="H10" s="243"/>
-      <c r="I10" s="243"/>
-      <c r="J10" s="243"/>
-      <c r="K10" s="243"/>
-      <c r="L10" s="243"/>
-      <c r="M10" s="244"/>
+      <c r="E10" s="259"/>
+      <c r="F10" s="259"/>
+      <c r="G10" s="259"/>
+      <c r="H10" s="259"/>
+      <c r="I10" s="259"/>
+      <c r="J10" s="259"/>
+      <c r="K10" s="259"/>
+      <c r="L10" s="259"/>
+      <c r="M10" s="260"/>
     </row>
     <row r="11" spans="1:14" s="16" customFormat="1" ht="15" customHeight="1">
-      <c r="A11" s="175"/>
-      <c r="B11" s="250"/>
+      <c r="A11" s="246"/>
+      <c r="B11" s="265"/>
       <c r="C11" s="142">
         <v>2</v>
       </c>
-      <c r="D11" s="245" t="s">
-        <v>492</v>
-      </c>
-      <c r="E11" s="245"/>
-      <c r="F11" s="245"/>
-      <c r="G11" s="245"/>
-      <c r="H11" s="245"/>
-      <c r="I11" s="245"/>
-      <c r="J11" s="245"/>
-      <c r="K11" s="245"/>
-      <c r="L11" s="245"/>
-      <c r="M11" s="246"/>
+      <c r="D11" s="261" t="s">
+        <v>489</v>
+      </c>
+      <c r="E11" s="261"/>
+      <c r="F11" s="261"/>
+      <c r="G11" s="261"/>
+      <c r="H11" s="261"/>
+      <c r="I11" s="261"/>
+      <c r="J11" s="261"/>
+      <c r="K11" s="261"/>
+      <c r="L11" s="261"/>
+      <c r="M11" s="262"/>
     </row>
     <row r="12" spans="1:14" s="16" customFormat="1" ht="105" customHeight="1">
-      <c r="A12" s="175"/>
-      <c r="B12" s="250"/>
+      <c r="A12" s="246"/>
+      <c r="B12" s="265"/>
       <c r="C12" s="142">
         <v>3</v>
       </c>
       <c r="D12" s="90" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E12" s="134" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="F12" s="46" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="G12" s="44" t="s">
         <v>360</v>
       </c>
       <c r="H12" s="112" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="I12" s="94"/>
       <c r="J12" s="111" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="K12" s="110"/>
       <c r="L12" s="110" t="s">
         <v>296</v>
       </c>
       <c r="M12" s="123" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="90" customHeight="1">
-      <c r="A13" s="156"/>
-      <c r="B13" s="258"/>
+      <c r="A13" s="163"/>
+      <c r="B13" s="242"/>
       <c r="C13" s="143">
         <v>4</v>
       </c>
-      <c r="D13" s="206"/>
-      <c r="E13" s="206"/>
-      <c r="F13" s="206"/>
-      <c r="G13" s="206"/>
-      <c r="H13" s="183"/>
+      <c r="D13" s="257"/>
+      <c r="E13" s="257"/>
+      <c r="F13" s="257"/>
+      <c r="G13" s="257"/>
+      <c r="H13" s="212"/>
       <c r="I13" s="97" t="s">
         <v>367</v>
       </c>
-      <c r="J13" s="182"/>
-      <c r="K13" s="206"/>
-      <c r="L13" s="206"/>
-      <c r="M13" s="183"/>
+      <c r="J13" s="211"/>
+      <c r="K13" s="257"/>
+      <c r="L13" s="257"/>
+      <c r="M13" s="212"/>
     </row>
     <row r="14" spans="1:14" s="16" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="155" t="s">
+      <c r="A14" s="162" t="s">
         <v>169</v>
       </c>
-      <c r="B14" s="249" t="s">
+      <c r="B14" s="241" t="s">
         <v>265</v>
       </c>
       <c r="C14" s="149">
         <v>1</v>
       </c>
-      <c r="D14" s="243" t="s">
+      <c r="D14" s="259" t="s">
         <v>285</v>
       </c>
-      <c r="E14" s="243"/>
-      <c r="F14" s="243"/>
-      <c r="G14" s="243"/>
-      <c r="H14" s="243"/>
-      <c r="I14" s="243"/>
-      <c r="J14" s="243"/>
-      <c r="K14" s="243"/>
-      <c r="L14" s="243"/>
-      <c r="M14" s="244"/>
+      <c r="E14" s="259"/>
+      <c r="F14" s="259"/>
+      <c r="G14" s="259"/>
+      <c r="H14" s="259"/>
+      <c r="I14" s="259"/>
+      <c r="J14" s="259"/>
+      <c r="K14" s="259"/>
+      <c r="L14" s="259"/>
+      <c r="M14" s="260"/>
     </row>
     <row r="15" spans="1:14" s="16" customFormat="1" ht="15" customHeight="1">
-      <c r="A15" s="175"/>
-      <c r="B15" s="250"/>
+      <c r="A15" s="246"/>
+      <c r="B15" s="265"/>
       <c r="C15" s="142">
         <v>2</v>
       </c>
-      <c r="D15" s="245" t="s">
-        <v>493</v>
-      </c>
-      <c r="E15" s="245"/>
-      <c r="F15" s="245"/>
-      <c r="G15" s="245"/>
-      <c r="H15" s="245"/>
-      <c r="I15" s="245"/>
-      <c r="J15" s="245"/>
-      <c r="K15" s="245"/>
-      <c r="L15" s="245"/>
-      <c r="M15" s="246"/>
+      <c r="D15" s="261" t="s">
+        <v>490</v>
+      </c>
+      <c r="E15" s="261"/>
+      <c r="F15" s="261"/>
+      <c r="G15" s="261"/>
+      <c r="H15" s="261"/>
+      <c r="I15" s="261"/>
+      <c r="J15" s="261"/>
+      <c r="K15" s="261"/>
+      <c r="L15" s="261"/>
+      <c r="M15" s="262"/>
     </row>
     <row r="16" spans="1:14" s="16" customFormat="1" ht="105" customHeight="1">
-      <c r="A16" s="175"/>
-      <c r="B16" s="250"/>
+      <c r="A16" s="246"/>
+      <c r="B16" s="265"/>
       <c r="C16" s="142">
         <v>3</v>
       </c>
       <c r="D16" s="90" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E16" s="134" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="F16" s="46" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="G16" s="44" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H16" s="112" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="I16" s="110"/>
       <c r="J16" s="111" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="K16" s="110"/>
       <c r="L16" s="110" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="M16" s="123" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="17" spans="1:16382" ht="75" customHeight="1">
-      <c r="A17" s="156"/>
-      <c r="B17" s="258"/>
+      <c r="A17" s="163"/>
+      <c r="B17" s="242"/>
       <c r="C17" s="143">
         <v>4</v>
       </c>
-      <c r="D17" s="206"/>
-      <c r="E17" s="206"/>
-      <c r="F17" s="183"/>
+      <c r="D17" s="257"/>
+      <c r="E17" s="257"/>
+      <c r="F17" s="212"/>
       <c r="G17" s="97" t="s">
         <v>316</v>
       </c>
-      <c r="H17" s="182"/>
-      <c r="I17" s="206"/>
-      <c r="J17" s="206"/>
-      <c r="K17" s="206"/>
-      <c r="L17" s="206"/>
-      <c r="M17" s="183"/>
+      <c r="H17" s="211"/>
+      <c r="I17" s="257"/>
+      <c r="J17" s="257"/>
+      <c r="K17" s="257"/>
+      <c r="L17" s="257"/>
+      <c r="M17" s="212"/>
     </row>
     <row r="18" spans="1:16382" s="16" customFormat="1" ht="15" customHeight="1">
-      <c r="A18" s="155" t="s">
+      <c r="A18" s="162" t="s">
         <v>168</v>
       </c>
-      <c r="B18" s="249" t="s">
+      <c r="B18" s="241" t="s">
         <v>266</v>
       </c>
       <c r="C18" s="149">
         <v>1</v>
       </c>
-      <c r="D18" s="243" t="s">
-        <v>437</v>
-      </c>
-      <c r="E18" s="243"/>
-      <c r="F18" s="243"/>
-      <c r="G18" s="243"/>
-      <c r="H18" s="243"/>
-      <c r="I18" s="243"/>
-      <c r="J18" s="243"/>
-      <c r="K18" s="243"/>
-      <c r="L18" s="243"/>
-      <c r="M18" s="244"/>
+      <c r="D18" s="259" t="s">
+        <v>436</v>
+      </c>
+      <c r="E18" s="259"/>
+      <c r="F18" s="259"/>
+      <c r="G18" s="259"/>
+      <c r="H18" s="259"/>
+      <c r="I18" s="259"/>
+      <c r="J18" s="259"/>
+      <c r="K18" s="259"/>
+      <c r="L18" s="259"/>
+      <c r="M18" s="260"/>
     </row>
     <row r="19" spans="1:16382" s="16" customFormat="1" ht="15" customHeight="1">
-      <c r="A19" s="175"/>
-      <c r="B19" s="250"/>
+      <c r="A19" s="246"/>
+      <c r="B19" s="265"/>
       <c r="C19" s="142">
         <v>2</v>
       </c>
-      <c r="D19" s="245" t="s">
-        <v>494</v>
-      </c>
-      <c r="E19" s="245"/>
-      <c r="F19" s="245"/>
-      <c r="G19" s="245"/>
-      <c r="H19" s="245"/>
-      <c r="I19" s="245"/>
-      <c r="J19" s="245"/>
-      <c r="K19" s="245"/>
-      <c r="L19" s="245"/>
-      <c r="M19" s="246"/>
+      <c r="D19" s="261" t="s">
+        <v>491</v>
+      </c>
+      <c r="E19" s="261"/>
+      <c r="F19" s="261"/>
+      <c r="G19" s="261"/>
+      <c r="H19" s="261"/>
+      <c r="I19" s="261"/>
+      <c r="J19" s="261"/>
+      <c r="K19" s="261"/>
+      <c r="L19" s="261"/>
+      <c r="M19" s="262"/>
     </row>
     <row r="20" spans="1:16382" s="16" customFormat="1" ht="105" customHeight="1">
-      <c r="A20" s="175"/>
-      <c r="B20" s="250"/>
+      <c r="A20" s="246"/>
+      <c r="B20" s="265"/>
       <c r="C20" s="142">
         <v>3</v>
       </c>
       <c r="D20" s="90" t="s">
+        <v>428</v>
+      </c>
+      <c r="E20" s="134" t="s">
+        <v>511</v>
+      </c>
+      <c r="F20" s="110" t="s">
+        <v>467</v>
+      </c>
+      <c r="G20" s="110" t="s">
         <v>429</v>
       </c>
-      <c r="E20" s="134" t="s">
-        <v>514</v>
-      </c>
-      <c r="F20" s="110" t="s">
-        <v>468</v>
-      </c>
-      <c r="G20" s="110" t="s">
-        <v>430</v>
-      </c>
       <c r="H20" s="112" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="I20" s="110"/>
       <c r="J20" s="111" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="K20" s="110"/>
       <c r="L20" s="110" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="M20" s="123" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="21" spans="1:16382" s="65" customFormat="1" ht="60" customHeight="1">
-      <c r="A21" s="254"/>
-      <c r="B21" s="251"/>
+      <c r="A21" s="269"/>
+      <c r="B21" s="266"/>
       <c r="C21" s="143">
         <v>4</v>
       </c>
@@ -8190,14 +8190,14 @@
       <c r="E21" s="121" t="s">
         <v>365</v>
       </c>
-      <c r="F21" s="213"/>
-      <c r="G21" s="214"/>
-      <c r="H21" s="214"/>
-      <c r="I21" s="214"/>
-      <c r="J21" s="214"/>
-      <c r="K21" s="214"/>
-      <c r="L21" s="214"/>
-      <c r="M21" s="266"/>
+      <c r="F21" s="280"/>
+      <c r="G21" s="281"/>
+      <c r="H21" s="281"/>
+      <c r="I21" s="281"/>
+      <c r="J21" s="281"/>
+      <c r="K21" s="281"/>
+      <c r="L21" s="281"/>
+      <c r="M21" s="282"/>
       <c r="N21" s="68"/>
       <c r="O21" s="68"/>
       <c r="P21" s="68"/>
@@ -24569,365 +24569,365 @@
       <c r="XFB21" s="68"/>
     </row>
     <row r="22" spans="1:16382" s="66" customFormat="1" ht="15" customHeight="1">
-      <c r="A22" s="253" t="s">
+      <c r="A22" s="268" t="s">
         <v>167</v>
       </c>
-      <c r="B22" s="252" t="s">
-        <v>445</v>
+      <c r="B22" s="267" t="s">
+        <v>444</v>
       </c>
       <c r="C22" s="149">
         <v>1</v>
       </c>
-      <c r="D22" s="245" t="s">
+      <c r="D22" s="261" t="s">
         <v>284</v>
       </c>
-      <c r="E22" s="245"/>
-      <c r="F22" s="245"/>
-      <c r="G22" s="245"/>
-      <c r="H22" s="245"/>
-      <c r="I22" s="245"/>
-      <c r="J22" s="245"/>
-      <c r="K22" s="245"/>
-      <c r="L22" s="245"/>
-      <c r="M22" s="246"/>
+      <c r="E22" s="261"/>
+      <c r="F22" s="261"/>
+      <c r="G22" s="261"/>
+      <c r="H22" s="261"/>
+      <c r="I22" s="261"/>
+      <c r="J22" s="261"/>
+      <c r="K22" s="261"/>
+      <c r="L22" s="261"/>
+      <c r="M22" s="262"/>
     </row>
     <row r="23" spans="1:16382" s="66" customFormat="1" ht="15" customHeight="1">
-      <c r="A23" s="239"/>
-      <c r="B23" s="176"/>
+      <c r="A23" s="254"/>
+      <c r="B23" s="185"/>
       <c r="C23" s="142">
         <v>2</v>
       </c>
-      <c r="D23" s="245" t="s">
-        <v>495</v>
-      </c>
-      <c r="E23" s="245"/>
-      <c r="F23" s="245"/>
-      <c r="G23" s="245"/>
-      <c r="H23" s="245"/>
-      <c r="I23" s="245"/>
-      <c r="J23" s="245"/>
-      <c r="K23" s="245"/>
-      <c r="L23" s="245"/>
-      <c r="M23" s="246"/>
+      <c r="D23" s="261" t="s">
+        <v>492</v>
+      </c>
+      <c r="E23" s="261"/>
+      <c r="F23" s="261"/>
+      <c r="G23" s="261"/>
+      <c r="H23" s="261"/>
+      <c r="I23" s="261"/>
+      <c r="J23" s="261"/>
+      <c r="K23" s="261"/>
+      <c r="L23" s="261"/>
+      <c r="M23" s="262"/>
     </row>
     <row r="24" spans="1:16382" s="66" customFormat="1" ht="105" customHeight="1">
-      <c r="A24" s="239"/>
-      <c r="B24" s="176"/>
+      <c r="A24" s="254"/>
+      <c r="B24" s="185"/>
       <c r="C24" s="142">
         <v>3</v>
       </c>
       <c r="D24" s="93" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E24" s="134"/>
       <c r="F24" s="110" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="G24" s="110" t="s">
         <v>364</v>
       </c>
       <c r="H24" s="110" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="I24" s="110"/>
       <c r="J24" s="111" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="K24" s="110"/>
       <c r="L24" s="110" t="s">
         <v>295</v>
       </c>
       <c r="M24" s="123" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="25" spans="1:16382" s="68" customFormat="1" ht="90" customHeight="1">
-      <c r="A25" s="242"/>
-      <c r="B25" s="164"/>
+      <c r="A25" s="258"/>
+      <c r="B25" s="171"/>
       <c r="C25" s="143">
         <v>4</v>
       </c>
       <c r="D25" s="96" t="s">
         <v>368</v>
       </c>
-      <c r="E25" s="182"/>
-      <c r="F25" s="206"/>
-      <c r="G25" s="206"/>
-      <c r="H25" s="206"/>
-      <c r="I25" s="206"/>
-      <c r="J25" s="206"/>
-      <c r="K25" s="206"/>
-      <c r="L25" s="206"/>
-      <c r="M25" s="183"/>
+      <c r="E25" s="211"/>
+      <c r="F25" s="257"/>
+      <c r="G25" s="257"/>
+      <c r="H25" s="257"/>
+      <c r="I25" s="257"/>
+      <c r="J25" s="257"/>
+      <c r="K25" s="257"/>
+      <c r="L25" s="257"/>
+      <c r="M25" s="212"/>
     </row>
     <row r="26" spans="1:16382" s="16" customFormat="1" ht="15" customHeight="1">
-      <c r="A26" s="241" t="s">
+      <c r="A26" s="256" t="s">
         <v>166</v>
       </c>
-      <c r="B26" s="163" t="s">
-        <v>446</v>
+      <c r="B26" s="170" t="s">
+        <v>445</v>
       </c>
       <c r="C26" s="149">
         <v>1</v>
       </c>
-      <c r="D26" s="243" t="s">
+      <c r="D26" s="259" t="s">
         <v>283</v>
       </c>
-      <c r="E26" s="243"/>
-      <c r="F26" s="243"/>
-      <c r="G26" s="243"/>
-      <c r="H26" s="243"/>
-      <c r="I26" s="243"/>
-      <c r="J26" s="243"/>
-      <c r="K26" s="243"/>
-      <c r="L26" s="243"/>
-      <c r="M26" s="244"/>
+      <c r="E26" s="259"/>
+      <c r="F26" s="259"/>
+      <c r="G26" s="259"/>
+      <c r="H26" s="259"/>
+      <c r="I26" s="259"/>
+      <c r="J26" s="259"/>
+      <c r="K26" s="259"/>
+      <c r="L26" s="259"/>
+      <c r="M26" s="260"/>
     </row>
     <row r="27" spans="1:16382" s="16" customFormat="1" ht="15" customHeight="1">
-      <c r="A27" s="239"/>
-      <c r="B27" s="176"/>
+      <c r="A27" s="254"/>
+      <c r="B27" s="185"/>
       <c r="C27" s="142">
         <v>2</v>
       </c>
-      <c r="D27" s="245" t="s">
-        <v>496</v>
-      </c>
-      <c r="E27" s="245"/>
-      <c r="F27" s="245"/>
-      <c r="G27" s="245"/>
-      <c r="H27" s="245"/>
-      <c r="I27" s="245"/>
-      <c r="J27" s="245"/>
-      <c r="K27" s="245"/>
-      <c r="L27" s="245"/>
-      <c r="M27" s="246"/>
+      <c r="D27" s="261" t="s">
+        <v>493</v>
+      </c>
+      <c r="E27" s="261"/>
+      <c r="F27" s="261"/>
+      <c r="G27" s="261"/>
+      <c r="H27" s="261"/>
+      <c r="I27" s="261"/>
+      <c r="J27" s="261"/>
+      <c r="K27" s="261"/>
+      <c r="L27" s="261"/>
+      <c r="M27" s="262"/>
     </row>
     <row r="28" spans="1:16382" s="16" customFormat="1" ht="105" customHeight="1">
-      <c r="A28" s="239"/>
-      <c r="B28" s="176"/>
+      <c r="A28" s="254"/>
+      <c r="B28" s="185"/>
       <c r="C28" s="142">
         <v>3</v>
       </c>
       <c r="D28" s="93" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E28" s="94"/>
       <c r="F28" s="110" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="G28" s="94" t="s">
         <v>363</v>
       </c>
       <c r="H28" s="126" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="I28" s="110"/>
       <c r="J28" s="110" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="K28" s="110"/>
       <c r="L28" s="110"/>
       <c r="M28" s="123" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="29" spans="1:16382" ht="60" customHeight="1">
-      <c r="A29" s="242"/>
-      <c r="B29" s="164"/>
+      <c r="A29" s="258"/>
+      <c r="B29" s="171"/>
       <c r="C29" s="143">
         <v>4</v>
       </c>
-      <c r="D29" s="206"/>
-      <c r="E29" s="206"/>
-      <c r="F29" s="206"/>
-      <c r="G29" s="183"/>
+      <c r="D29" s="257"/>
+      <c r="E29" s="257"/>
+      <c r="F29" s="257"/>
+      <c r="G29" s="212"/>
       <c r="H29" s="88" t="s">
         <v>300</v>
       </c>
-      <c r="I29" s="182"/>
-      <c r="J29" s="206"/>
-      <c r="K29" s="206"/>
-      <c r="L29" s="206"/>
-      <c r="M29" s="183"/>
+      <c r="I29" s="211"/>
+      <c r="J29" s="257"/>
+      <c r="K29" s="257"/>
+      <c r="L29" s="257"/>
+      <c r="M29" s="212"/>
     </row>
     <row r="30" spans="1:16382" s="16" customFormat="1" ht="15" customHeight="1">
-      <c r="A30" s="241" t="s">
+      <c r="A30" s="256" t="s">
         <v>273</v>
       </c>
-      <c r="B30" s="163" t="s">
-        <v>447</v>
+      <c r="B30" s="170" t="s">
+        <v>446</v>
       </c>
       <c r="C30" s="149">
         <v>1</v>
       </c>
-      <c r="D30" s="243" t="s">
+      <c r="D30" s="259" t="s">
         <v>293</v>
       </c>
-      <c r="E30" s="243"/>
-      <c r="F30" s="243"/>
-      <c r="G30" s="243"/>
-      <c r="H30" s="243"/>
-      <c r="I30" s="243"/>
-      <c r="J30" s="243"/>
-      <c r="K30" s="243"/>
-      <c r="L30" s="243"/>
-      <c r="M30" s="244"/>
+      <c r="E30" s="259"/>
+      <c r="F30" s="259"/>
+      <c r="G30" s="259"/>
+      <c r="H30" s="259"/>
+      <c r="I30" s="259"/>
+      <c r="J30" s="259"/>
+      <c r="K30" s="259"/>
+      <c r="L30" s="259"/>
+      <c r="M30" s="260"/>
     </row>
     <row r="31" spans="1:16382" s="16" customFormat="1" ht="15" customHeight="1">
-      <c r="A31" s="239"/>
-      <c r="B31" s="176"/>
+      <c r="A31" s="254"/>
+      <c r="B31" s="185"/>
       <c r="C31" s="142">
         <v>2</v>
       </c>
-      <c r="D31" s="245" t="s">
-        <v>497</v>
-      </c>
-      <c r="E31" s="245"/>
-      <c r="F31" s="245"/>
-      <c r="G31" s="245"/>
-      <c r="H31" s="245"/>
-      <c r="I31" s="245"/>
-      <c r="J31" s="245"/>
-      <c r="K31" s="245"/>
-      <c r="L31" s="245"/>
-      <c r="M31" s="246"/>
+      <c r="D31" s="261" t="s">
+        <v>494</v>
+      </c>
+      <c r="E31" s="261"/>
+      <c r="F31" s="261"/>
+      <c r="G31" s="261"/>
+      <c r="H31" s="261"/>
+      <c r="I31" s="261"/>
+      <c r="J31" s="261"/>
+      <c r="K31" s="261"/>
+      <c r="L31" s="261"/>
+      <c r="M31" s="262"/>
     </row>
     <row r="32" spans="1:16382" ht="105" customHeight="1">
-      <c r="A32" s="239"/>
-      <c r="B32" s="176"/>
+      <c r="A32" s="254"/>
+      <c r="B32" s="185"/>
       <c r="C32" s="142">
         <v>3</v>
       </c>
       <c r="D32" s="93" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E32" s="44"/>
       <c r="F32" s="110" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="G32" s="44" t="s">
         <v>362</v>
       </c>
       <c r="H32" s="126" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="I32" s="44"/>
       <c r="J32" s="94" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="K32" s="44"/>
       <c r="L32" s="79" t="s">
         <v>298</v>
       </c>
       <c r="M32" s="123" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="33" spans="1:13" s="16" customFormat="1" ht="45" customHeight="1">
-      <c r="A33" s="239"/>
-      <c r="B33" s="176"/>
+      <c r="A33" s="254"/>
+      <c r="B33" s="185"/>
       <c r="C33" s="143">
         <v>4</v>
       </c>
-      <c r="D33" s="206"/>
-      <c r="E33" s="206"/>
-      <c r="F33" s="206"/>
-      <c r="G33" s="206"/>
-      <c r="H33" s="206"/>
-      <c r="I33" s="206"/>
-      <c r="J33" s="206"/>
-      <c r="K33" s="183"/>
+      <c r="D33" s="257"/>
+      <c r="E33" s="257"/>
+      <c r="F33" s="257"/>
+      <c r="G33" s="257"/>
+      <c r="H33" s="257"/>
+      <c r="I33" s="257"/>
+      <c r="J33" s="257"/>
+      <c r="K33" s="212"/>
       <c r="L33" s="46" t="s">
         <v>358</v>
       </c>
       <c r="M33" s="57"/>
     </row>
     <row r="34" spans="1:13" ht="15" customHeight="1">
-      <c r="A34" s="238" t="s">
+      <c r="A34" s="253" t="s">
         <v>165</v>
       </c>
-      <c r="B34" s="201" t="s">
-        <v>448</v>
+      <c r="B34" s="200" t="s">
+        <v>447</v>
       </c>
       <c r="C34" s="149">
         <v>1</v>
       </c>
-      <c r="D34" s="243" t="s">
+      <c r="D34" s="259" t="s">
         <v>282</v>
       </c>
-      <c r="E34" s="243"/>
-      <c r="F34" s="243"/>
-      <c r="G34" s="243"/>
-      <c r="H34" s="243"/>
-      <c r="I34" s="243"/>
-      <c r="J34" s="243"/>
-      <c r="K34" s="243"/>
-      <c r="L34" s="243"/>
-      <c r="M34" s="244"/>
+      <c r="E34" s="259"/>
+      <c r="F34" s="259"/>
+      <c r="G34" s="259"/>
+      <c r="H34" s="259"/>
+      <c r="I34" s="259"/>
+      <c r="J34" s="259"/>
+      <c r="K34" s="259"/>
+      <c r="L34" s="259"/>
+      <c r="M34" s="260"/>
     </row>
     <row r="35" spans="1:13" ht="15" customHeight="1">
-      <c r="A35" s="239"/>
-      <c r="B35" s="176"/>
+      <c r="A35" s="254"/>
+      <c r="B35" s="185"/>
       <c r="C35" s="142">
         <v>2</v>
       </c>
-      <c r="D35" s="245" t="s">
-        <v>498</v>
-      </c>
-      <c r="E35" s="245"/>
-      <c r="F35" s="245"/>
-      <c r="G35" s="245"/>
-      <c r="H35" s="245"/>
-      <c r="I35" s="245"/>
-      <c r="J35" s="245"/>
-      <c r="K35" s="245"/>
-      <c r="L35" s="245"/>
-      <c r="M35" s="246"/>
+      <c r="D35" s="261" t="s">
+        <v>495</v>
+      </c>
+      <c r="E35" s="261"/>
+      <c r="F35" s="261"/>
+      <c r="G35" s="261"/>
+      <c r="H35" s="261"/>
+      <c r="I35" s="261"/>
+      <c r="J35" s="261"/>
+      <c r="K35" s="261"/>
+      <c r="L35" s="261"/>
+      <c r="M35" s="262"/>
     </row>
     <row r="36" spans="1:13" ht="105" customHeight="1">
-      <c r="A36" s="239"/>
-      <c r="B36" s="176"/>
+      <c r="A36" s="254"/>
+      <c r="B36" s="185"/>
       <c r="C36" s="142">
         <v>3</v>
       </c>
       <c r="D36" s="93" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E36" s="94"/>
       <c r="F36" s="110" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="G36" s="94" t="s">
         <v>372</v>
       </c>
       <c r="H36" s="94" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="I36" s="94"/>
       <c r="J36" s="94" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="K36" s="94"/>
       <c r="L36" s="110" t="s">
         <v>299</v>
       </c>
       <c r="M36" s="123" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="37" spans="1:13" s="16" customFormat="1" ht="45" customHeight="1">
-      <c r="A37" s="242"/>
-      <c r="B37" s="164"/>
+      <c r="A37" s="258"/>
+      <c r="B37" s="171"/>
       <c r="C37" s="143">
         <v>4</v>
       </c>
-      <c r="D37" s="206"/>
-      <c r="E37" s="206"/>
-      <c r="F37" s="206"/>
-      <c r="G37" s="206"/>
-      <c r="H37" s="206"/>
-      <c r="I37" s="206"/>
-      <c r="J37" s="183"/>
+      <c r="D37" s="257"/>
+      <c r="E37" s="257"/>
+      <c r="F37" s="257"/>
+      <c r="G37" s="257"/>
+      <c r="H37" s="257"/>
+      <c r="I37" s="257"/>
+      <c r="J37" s="212"/>
       <c r="K37" s="88" t="s">
         <v>357</v>
       </c>
@@ -24935,31 +24935,31 @@
       <c r="M37" s="108"/>
     </row>
     <row r="38" spans="1:13" s="68" customFormat="1" ht="15" customHeight="1">
-      <c r="A38" s="241" t="s">
+      <c r="A38" s="256" t="s">
         <v>164</v>
       </c>
-      <c r="B38" s="163" t="s">
+      <c r="B38" s="170" t="s">
         <v>275</v>
       </c>
       <c r="C38" s="142">
         <v>1</v>
       </c>
-      <c r="D38" s="247" t="s">
+      <c r="D38" s="263" t="s">
         <v>278</v>
       </c>
-      <c r="E38" s="248"/>
-      <c r="F38" s="248"/>
-      <c r="G38" s="248"/>
-      <c r="H38" s="248"/>
-      <c r="I38" s="248"/>
-      <c r="J38" s="248"/>
-      <c r="K38" s="248"/>
-      <c r="L38" s="248"/>
-      <c r="M38" s="248"/>
+      <c r="E38" s="264"/>
+      <c r="F38" s="264"/>
+      <c r="G38" s="264"/>
+      <c r="H38" s="264"/>
+      <c r="I38" s="264"/>
+      <c r="J38" s="264"/>
+      <c r="K38" s="264"/>
+      <c r="L38" s="264"/>
+      <c r="M38" s="264"/>
     </row>
     <row r="39" spans="1:13" s="66" customFormat="1" ht="120" customHeight="1">
-      <c r="A39" s="240"/>
-      <c r="B39" s="202"/>
+      <c r="A39" s="255"/>
+      <c r="B39" s="201"/>
       <c r="C39" s="142">
         <v>4</v>
       </c>
@@ -24971,7 +24971,7 @@
       </c>
       <c r="F39" s="99"/>
       <c r="G39" s="99" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H39" s="67"/>
       <c r="I39" s="67"/>
@@ -24981,31 +24981,31 @@
       <c r="M39" s="67"/>
     </row>
     <row r="40" spans="1:13" s="68" customFormat="1" ht="15" customHeight="1">
-      <c r="A40" s="238" t="s">
+      <c r="A40" s="253" t="s">
         <v>163</v>
       </c>
-      <c r="B40" s="201" t="s">
+      <c r="B40" s="200" t="s">
         <v>274</v>
       </c>
       <c r="C40" s="144">
         <v>1</v>
       </c>
-      <c r="D40" s="244" t="s">
+      <c r="D40" s="260" t="s">
         <v>279</v>
       </c>
-      <c r="E40" s="265"/>
-      <c r="F40" s="265"/>
-      <c r="G40" s="265"/>
-      <c r="H40" s="265"/>
-      <c r="I40" s="265"/>
-      <c r="J40" s="265"/>
-      <c r="K40" s="265"/>
-      <c r="L40" s="265"/>
-      <c r="M40" s="265"/>
+      <c r="E40" s="279"/>
+      <c r="F40" s="279"/>
+      <c r="G40" s="279"/>
+      <c r="H40" s="279"/>
+      <c r="I40" s="279"/>
+      <c r="J40" s="279"/>
+      <c r="K40" s="279"/>
+      <c r="L40" s="279"/>
+      <c r="M40" s="279"/>
     </row>
     <row r="41" spans="1:13" s="16" customFormat="1" ht="150" customHeight="1">
-      <c r="A41" s="240"/>
-      <c r="B41" s="202"/>
+      <c r="A41" s="255"/>
+      <c r="B41" s="201"/>
       <c r="C41" s="142">
         <v>4</v>
       </c>
@@ -25017,7 +25017,7 @@
       </c>
       <c r="F41" s="99"/>
       <c r="G41" s="99" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H41" s="67"/>
       <c r="I41" s="67"/>
@@ -25027,31 +25027,31 @@
       <c r="M41" s="67"/>
     </row>
     <row r="42" spans="1:13" s="68" customFormat="1" ht="15" customHeight="1">
-      <c r="A42" s="238" t="s">
+      <c r="A42" s="253" t="s">
         <v>162</v>
       </c>
-      <c r="B42" s="201" t="s">
+      <c r="B42" s="200" t="s">
         <v>276</v>
       </c>
       <c r="C42" s="144">
         <v>1</v>
       </c>
-      <c r="D42" s="244" t="s">
+      <c r="D42" s="260" t="s">
         <v>280</v>
       </c>
-      <c r="E42" s="265"/>
-      <c r="F42" s="265"/>
-      <c r="G42" s="265"/>
-      <c r="H42" s="265"/>
-      <c r="I42" s="265"/>
-      <c r="J42" s="265"/>
-      <c r="K42" s="265"/>
-      <c r="L42" s="265"/>
-      <c r="M42" s="265"/>
+      <c r="E42" s="279"/>
+      <c r="F42" s="279"/>
+      <c r="G42" s="279"/>
+      <c r="H42" s="279"/>
+      <c r="I42" s="279"/>
+      <c r="J42" s="279"/>
+      <c r="K42" s="279"/>
+      <c r="L42" s="279"/>
+      <c r="M42" s="279"/>
     </row>
     <row r="43" spans="1:13" s="98" customFormat="1" ht="225" customHeight="1">
-      <c r="A43" s="239"/>
-      <c r="B43" s="202"/>
+      <c r="A43" s="254"/>
+      <c r="B43" s="201"/>
       <c r="C43" s="150">
         <v>4</v>
       </c>
@@ -25063,7 +25063,7 @@
       </c>
       <c r="F43" s="99"/>
       <c r="G43" s="99" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H43" s="67"/>
       <c r="I43" s="67"/>
@@ -25073,54 +25073,54 @@
       <c r="M43" s="67"/>
     </row>
     <row r="44" spans="1:13" s="68" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A44" s="235" t="s">
+      <c r="A44" s="250" t="s">
         <v>161</v>
       </c>
-      <c r="B44" s="176" t="s">
+      <c r="B44" s="185" t="s">
         <v>277</v>
       </c>
       <c r="C44" s="142">
         <v>1</v>
       </c>
-      <c r="D44" s="244" t="s">
+      <c r="D44" s="260" t="s">
         <v>281</v>
       </c>
-      <c r="E44" s="265"/>
-      <c r="F44" s="265"/>
-      <c r="G44" s="265"/>
-      <c r="H44" s="265"/>
-      <c r="I44" s="265"/>
-      <c r="J44" s="265"/>
-      <c r="K44" s="265"/>
-      <c r="L44" s="265"/>
-      <c r="M44" s="265"/>
+      <c r="E44" s="279"/>
+      <c r="F44" s="279"/>
+      <c r="G44" s="279"/>
+      <c r="H44" s="279"/>
+      <c r="I44" s="279"/>
+      <c r="J44" s="279"/>
+      <c r="K44" s="279"/>
+      <c r="L44" s="279"/>
+      <c r="M44" s="279"/>
     </row>
     <row r="45" spans="1:13" ht="300" customHeight="1">
-      <c r="A45" s="236"/>
-      <c r="B45" s="237"/>
+      <c r="A45" s="251"/>
+      <c r="B45" s="252"/>
       <c r="C45" s="145">
         <v>4</v>
       </c>
       <c r="D45" s="70" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="E45" s="72" t="s">
         <v>294</v>
       </c>
       <c r="F45" s="72" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="G45" s="72" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H45" s="72" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="I45" s="70" t="s">
         <v>291</v>
       </c>
       <c r="J45" s="70" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="K45" s="64" t="s">
         <v>317</v>
@@ -25129,7 +25129,7 @@
         <v>292</v>
       </c>
       <c r="M45" s="70" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
     </row>
     <row r="46" spans="1:13">

--- a/Tags and Affinities.xlsx
+++ b/Tags and Affinities.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20373"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20374"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Charles\Documents\Git Repositories\materials_and_crafting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB9FFE48-0C5E-467D-8966-01A1F016CC70}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68D209E6-1DAF-48B4-8DE6-B0B8B2625CFC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="2" xr2:uid="{8FD76562-234B-40A6-8AC6-52675E21BBDC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{8FD76562-234B-40A6-8AC6-52675E21BBDC}"/>
   </bookViews>
   <sheets>
     <sheet name="COMPONENT TAGS" sheetId="2" r:id="rId1"/>
@@ -1038,10 +1038,6 @@
   </si>
   <si>
     <t>When thrown, this flask does not arc, instead flying in a straight line.</t>
-  </si>
-  <si>
-    <t>When you cast a spell with this staff's core that is not a cantrip and that requires a saving throw to avoid some debilitating effect, the targets must make an additional Charisma saving throw of a DC equal to your spell save DC or suffer as if they were inside an antimagic field for 1 minute. This suppressing effect only applies for spells and magical effects of a level equal to or lower than this staff's core's antimagic tier.
-This staff cannot be charged while the effect lasts.</t>
   </si>
   <si>
     <t>Ingesting this potion causes the consumer to be immune to all magical effects of a level equal to or lower than this potion's antimagic tier, and suppresses the effect of all similarly powerful magic items and effects they come into contact with. This effect lasts for 1 hour.
@@ -1417,9 +1413,6 @@
     <t>This component allows for precise strikes at a target's weak points.</t>
   </si>
   <si>
-    <t>When this flask is shattered, all creatures in the range of the explosion take piercing damage equal to the step damage of the flask's keen tier.</t>
-  </si>
-  <si>
     <t>This material cannot be used in a flask.</t>
   </si>
   <si>
@@ -1544,49 +1537,7 @@
     <t>This weapon thrums to a particular tempo. When you take your turn, you may choose to exactly repeat the last turn you made. If you choose to do so, this weapon becomes a precision weapon, or increases its precision tier, at this material's mechanic tier, and up to a critical range of three times the mehanic tier. If you choose not to, this benefit is lost.</t>
   </si>
   <si>
-    <t>This staff core thrashes with volatile elemental energy. Whenever you cast a damaging spell from this staff, roll a 1d10 for each damage type in this list.
-1 / Acid
-2 / Cold
-3 / Fire
-4 / Force
-5 / Lightning
-6 / Poison
-7 / Psychic
-8 / Thunder
-9 / Radiant
-10 / Necrotic
-Replace each of the spell's damage types with the types you obtained from their rolls.</t>
-  </si>
-  <si>
-    <t>This potion swirls with volatile elemental energy. When thrown, roll a 1d10 for each damage type in this list.
-1 / Acid
-2 / Cold
-3 / Fire
-4 / Force
-5 / Lightning
-6 / Poison
-7 / Psychic
-8 / Thunder
-9 / Radiant
-10 / Necrotic
-Replace each of the potion's explosion's damage types with the types you obtained from their rolls.</t>
-  </si>
-  <si>
     <t>This material increases the emission radius of enchantment spells that conduct through it by a number of inches equal to its nyxian affinity.</t>
-  </si>
-  <si>
-    <t>This helmet thrashes with volatile elemental energy. Whenever you roll damage on a breath weapon while wearing this helmet, roll a 1d10 for each damage type in this list.
-1 / Acid
-2 / Cold
-3 / Fire
-4 / Force
-5 / Lightning
-6 / Poison
-7 / Psychic
-8 / Thunder
-9 / Radiant
-10 / Necrotic
-Replace each of your damage types with the types you obtained from their rolls.</t>
   </si>
   <si>
     <t>When ingested, this potion grants resistance to radiant damage.</t>
@@ -1683,9 +1634,6 @@
 All creatures in contact with the ground in that area must make a Constitution saving throw equal to 10 + (2 * terran affinity) or take 1d6 thunder damage per terran affinity, and lose their concentration.</t>
   </si>
   <si>
-    <t>Random radius of throw and explosion</t>
-  </si>
-  <si>
     <t>If this item is not worn or held, it will hang, suspended in the air. This effect is overpowered if a weight (in lbs) above 1,000 times its weightless tier is placed atop it, at which point it will fall half as quickly as normal.</t>
   </si>
   <si>
@@ -1741,9 +1689,6 @@
   </si>
   <si>
     <t>When a creature is hit with this piece of ammunition, the elemental energy of the attack leaps to a number of different creatures of your choice up to the arcing tier, within a range in feet equal to 10 * the arcing tier, dealing the attack's elemental damage to this creature as well.</t>
-  </si>
-  <si>
-    <t>A creature hit by this piece of ammunition must make a Charisma saving throw of a DC equal to 10 + (2 * its antimagic tier) or suffer as if they were inside an antimagic field for 1 minute.</t>
   </si>
   <si>
     <t>When ingested, the consumer must make a Charisma saving throw equal to 10 + (2 * the spell turning tier), or have their spell's ranges inversed. 
@@ -2724,20 +2669,6 @@
     <t>You have advantage on saving throws made to resist spells and effects made by constructs of a challenge rating equal to or lower than five times this armour's limbic affinity.</t>
   </si>
   <si>
-    <t>When this cloak is used to intercept damage, you may reduce its hit points to zero to roll a 1d10 for each damage type in this list.
-1 / Acid
-2 / Cold
-3 / Fire
-4 / Force
-5 / Lightning
-6 / Poison
-7 / Psychic
-8 / Thunder
-9 / Radiant
-10 / Necrotic
-You become immune to the damage type you rolled until the end of your next turn.</t>
-  </si>
-  <si>
     <t>TIER</t>
   </si>
   <si>
@@ -3033,48 +2964,6 @@
     </r>
   </si>
   <si>
-    <t>This tattoo thrashes with volatile elemental energy. Whenever you roll damage with an unarmed strike made with this tattoo's area, roll a 1d10 for each damage type in this list.
-1 / Acid
-2 / Cold
-3 / Fire
-4 / Force
-5 / Lightning
-6 / Poison
-7 / Psychic
-8 / Thunder
-9 / Radiant
-10 / Necrotic
-Replace each of the attack's damage types with the types you obtained from their rolls.</t>
-  </si>
-  <si>
-    <t>This ammunition thrashes with volatile elemental energy. Whenever you hit a creature with this piece of ammunition, roll a 1d10 for each damage type in this list.
-1 / Acid
-2 / Cold
-3 / Fire
-4 / Force
-5 / Lightning
-6 / Poison
-7 / Psychic
-8 / Thunder
-9 / Radiant
-10 / Necrotic
-Replace each of the attack's damage types with the types you obtained from their rolls.</t>
-  </si>
-  <si>
-    <t>This melee weapon thrashes with volatile elemental energy. Whenever you roll damage with this weapon, roll a 1d10 for each damage type in this list.
-1 / Acid
-2 / Cold
-3 / Fire
-4 / Force
-5 / Lightning
-6 / Poison
-7 / Psychic
-8 / Thunder
-9 / Radiant
-10 / Necrotic
-Replace each of your damage types with the types you obtained from their rolls.</t>
-  </si>
-  <si>
     <t>As a bonus action, you may choose to teleport to a random space within a number of feet of your location equal to ten times this boots' limbic affinity. If you teleport into an occupied space, you take 1d10 force damage.</t>
   </si>
   <si>
@@ -3151,6 +3040,125 @@
   </si>
   <si>
     <t>This item counts as holding a number of tier of acid or poison affinity equal to its primal affinity.</t>
+  </si>
+  <si>
+    <t>When this flask is shattered, all creatures in the range of the explosion take either piercing or slashing damage equal to the step damage of the flask's keen tier.</t>
+  </si>
+  <si>
+    <t>When you throw this flask, roll a d8. The flask gains either a non-tiered tag, or a number of tiers of a tiered tag equal to this flask's limbic affinity, based on the result of your roll.
+1/ Brittle
+2/ Heavy
+3/ Muffling
+4/ Weightless
+5/ Keen
+6/ Forceful
+7/ Light
+8/ Arcing</t>
+  </si>
+  <si>
+    <t>This potion swirls with volatile elemental energy. When thrown, roll a d10 for each damage type in this list.
+1 / Acid
+2 / Cold
+3 / Fire
+4 / Force
+5 / Lightning
+6 / Poison
+7 / Psychic
+8 / Thunder
+9 / Radiant
+10 / Necrotic
+Replace each of the potion's explosion's damage types with the types you obtained from their rolls.</t>
+  </si>
+  <si>
+    <t>This tattoo thrashes with volatile elemental energy. Whenever you roll damage with an unarmed strike made with this tattoo's area, roll a d10 for each damage type in this list.
+1 / Acid
+2 / Cold
+3 / Fire
+4 / Force
+5 / Lightning
+6 / Poison
+7 / Psychic
+8 / Thunder
+9 / Radiant
+10 / Necrotic
+Replace each of the attack's damage types with the types you obtained from their rolls.</t>
+  </si>
+  <si>
+    <t>This ammunition thrashes with volatile elemental energy. Whenever you hit a creature with this piece of ammunition, roll a d10 for each damage type in this list.
+1 / Acid
+2 / Cold
+3 / Fire
+4 / Force
+5 / Lightning
+6 / Poison
+7 / Psychic
+8 / Thunder
+9 / Radiant
+10 / Necrotic
+Replace each of the attack's damage types with the types you obtained from their rolls.</t>
+  </si>
+  <si>
+    <t>This staff core thrashes with volatile elemental energy. Whenever you cast a damaging spell from this staff, roll a d10 for each damage type in this list.
+1 / Acid
+2 / Cold
+3 / Fire
+4 / Force
+5 / Lightning
+6 / Poison
+7 / Psychic
+8 / Thunder
+9 / Radiant
+10 / Necrotic
+Replace each of the spell's damage types with the types you obtained from their rolls.</t>
+  </si>
+  <si>
+    <t>When this cloak is used to intercept damage, you may reduce its hit points to zero to roll a d10 for each damage type in this list.
+1 / Acid
+2 / Cold
+3 / Fire
+4 / Force
+5 / Lightning
+6 / Poison
+7 / Psychic
+8 / Thunder
+9 / Radiant
+10 / Necrotic
+You become immune to the damage type you rolled until the end of your next turn.</t>
+  </si>
+  <si>
+    <t>This helmet thrashes with volatile elemental energy. Whenever you roll damage on a breath weapon while wearing this helmet, roll a d10 for each damage type in this list.
+1 / Acid
+2 / Cold
+3 / Fire
+4 / Force
+5 / Lightning
+6 / Poison
+7 / Psychic
+8 / Thunder
+9 / Radiant
+10 / Necrotic
+Replace each of your damage types with the types you obtained from their rolls.</t>
+  </si>
+  <si>
+    <t>This melee weapon thrashes with volatile elemental energy. Whenever you roll damage with this weapon, roll a d10 for each damage type in this list.
+1 / Acid
+2 / Cold
+3 / Fire
+4 / Force
+5 / Lightning
+6 / Poison
+7 / Psychic
+8 / Thunder
+9 / Radiant
+10 / Necrotic
+Replace each of your damage types with the types you obtained from their rolls.</t>
+  </si>
+  <si>
+    <t>When you cast a spell with this staff's core that is not a cantrip and that requires a saving throw to avoid some debilitating effect, the targets must make an additional Charisma saving throw of a DC equal to 10 + (2 * its antimagic tier) or suffer as if they were inside an antimagic field for 1 minute. This suppressing effect only applies for spells and magical effects of a level equal to or lower than this staff's core's antimagic tier.
+This staff cannot be charged or cast through while the effect lasts.</t>
+  </si>
+  <si>
+    <t>A creature hit by this piece of ammunition must make a Charisma saving throw of a DC equal to 10 + (2 * its antimagic tier) or suffer as if they were inside an antimagic field for 1 minute. This suppressing effect only applies for spells and magical effects of a level equal to or lower than this ammunition's antimagic tier.</t>
   </si>
 </sst>
 </file>
@@ -4354,7 +4362,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="283">
+  <cellXfs count="279">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -4664,9 +4672,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -4687,9 +4692,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -4877,6 +4879,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="89" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -4952,10 +4960,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4976,18 +4984,18 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -5006,12 +5014,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5053,12 +5055,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="60" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -5498,7 +5494,7 @@
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -5512,13 +5508,13 @@
   <sheetData>
     <row r="1" spans="1:11" s="16" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A1" s="18" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="D1" s="17" t="s">
         <v>44</v>
@@ -5536,13 +5532,13 @@
         <v>40</v>
       </c>
       <c r="I1" s="17" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="J1" s="17" t="s">
+        <v>246</v>
+      </c>
+      <c r="K1" s="17" t="s">
         <v>247</v>
-      </c>
-      <c r="K1" s="17" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="105">
@@ -5555,14 +5551,14 @@
       <c r="C2" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="178"/>
-      <c r="E2" s="179"/>
-      <c r="F2" s="179"/>
-      <c r="G2" s="179"/>
-      <c r="H2" s="179"/>
-      <c r="I2" s="179"/>
-      <c r="J2" s="179"/>
-      <c r="K2" s="180"/>
+      <c r="D2" s="176"/>
+      <c r="E2" s="177"/>
+      <c r="F2" s="177"/>
+      <c r="G2" s="177"/>
+      <c r="H2" s="177"/>
+      <c r="I2" s="177"/>
+      <c r="J2" s="177"/>
+      <c r="K2" s="178"/>
     </row>
     <row r="3" spans="1:11" ht="30">
       <c r="A3" s="10" t="s">
@@ -5571,51 +5567,51 @@
       <c r="B3" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="137" t="s">
+      <c r="C3" s="135" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="176"/>
-      <c r="E3" s="177"/>
-      <c r="F3" s="177"/>
-      <c r="G3" s="177"/>
-      <c r="H3" s="177"/>
-      <c r="I3" s="177"/>
-      <c r="J3" s="177"/>
-      <c r="K3" s="175"/>
+      <c r="D3" s="174"/>
+      <c r="E3" s="175"/>
+      <c r="F3" s="175"/>
+      <c r="G3" s="175"/>
+      <c r="H3" s="175"/>
+      <c r="I3" s="175"/>
+      <c r="J3" s="175"/>
+      <c r="K3" s="173"/>
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1">
-      <c r="A4" s="162" t="s">
+      <c r="A4" s="160" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="170" t="s">
+      <c r="B4" s="168" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="167" t="s">
-        <v>304</v>
-      </c>
-      <c r="D4" s="168"/>
-      <c r="E4" s="168"/>
-      <c r="F4" s="168"/>
-      <c r="G4" s="168"/>
-      <c r="H4" s="168"/>
-      <c r="I4" s="168"/>
-      <c r="J4" s="169"/>
-      <c r="K4" s="135"/>
+      <c r="C4" s="165" t="s">
+        <v>299</v>
+      </c>
+      <c r="D4" s="166"/>
+      <c r="E4" s="166"/>
+      <c r="F4" s="166"/>
+      <c r="G4" s="166"/>
+      <c r="H4" s="166"/>
+      <c r="I4" s="166"/>
+      <c r="J4" s="167"/>
+      <c r="K4" s="133"/>
     </row>
     <row r="5" spans="1:11" ht="30">
-      <c r="A5" s="163"/>
-      <c r="B5" s="171"/>
-      <c r="C5" s="136" t="s">
+      <c r="A5" s="161"/>
+      <c r="B5" s="169"/>
+      <c r="C5" s="134" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="176"/>
-      <c r="E5" s="177"/>
-      <c r="F5" s="177"/>
-      <c r="G5" s="177"/>
-      <c r="H5" s="177"/>
-      <c r="I5" s="177"/>
-      <c r="J5" s="177"/>
-      <c r="K5" s="175"/>
+      <c r="D5" s="174"/>
+      <c r="E5" s="175"/>
+      <c r="F5" s="175"/>
+      <c r="G5" s="175"/>
+      <c r="H5" s="175"/>
+      <c r="I5" s="175"/>
+      <c r="J5" s="175"/>
+      <c r="K5" s="173"/>
     </row>
     <row r="6" spans="1:11" s="3" customFormat="1" ht="105" customHeight="1">
       <c r="A6" s="6" t="s">
@@ -5627,14 +5623,14 @@
       <c r="C6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="176"/>
-      <c r="E6" s="177"/>
-      <c r="F6" s="177"/>
-      <c r="G6" s="177"/>
-      <c r="H6" s="177"/>
-      <c r="I6" s="177"/>
-      <c r="J6" s="177"/>
-      <c r="K6" s="175"/>
+      <c r="D6" s="174"/>
+      <c r="E6" s="175"/>
+      <c r="F6" s="175"/>
+      <c r="G6" s="175"/>
+      <c r="H6" s="175"/>
+      <c r="I6" s="175"/>
+      <c r="J6" s="175"/>
+      <c r="K6" s="173"/>
     </row>
     <row r="7" spans="1:11" s="3" customFormat="1" ht="105" customHeight="1">
       <c r="A7" s="6" t="s">
@@ -5646,14 +5642,14 @@
       <c r="C7" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="176"/>
-      <c r="E7" s="177"/>
-      <c r="F7" s="177"/>
-      <c r="G7" s="177"/>
-      <c r="H7" s="177"/>
-      <c r="I7" s="177"/>
-      <c r="J7" s="177"/>
-      <c r="K7" s="175"/>
+      <c r="D7" s="174"/>
+      <c r="E7" s="175"/>
+      <c r="F7" s="175"/>
+      <c r="G7" s="175"/>
+      <c r="H7" s="175"/>
+      <c r="I7" s="175"/>
+      <c r="J7" s="175"/>
+      <c r="K7" s="173"/>
     </row>
     <row r="8" spans="1:11" s="3" customFormat="1" ht="120" customHeight="1">
       <c r="A8" s="6" t="s">
@@ -5665,14 +5661,14 @@
       <c r="C8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="176"/>
-      <c r="E8" s="177"/>
-      <c r="F8" s="177"/>
-      <c r="G8" s="177"/>
-      <c r="H8" s="177"/>
-      <c r="I8" s="177"/>
-      <c r="J8" s="177"/>
-      <c r="K8" s="175"/>
+      <c r="D8" s="174"/>
+      <c r="E8" s="175"/>
+      <c r="F8" s="175"/>
+      <c r="G8" s="175"/>
+      <c r="H8" s="175"/>
+      <c r="I8" s="175"/>
+      <c r="J8" s="175"/>
+      <c r="K8" s="173"/>
     </row>
     <row r="9" spans="1:11" s="3" customFormat="1" ht="135" customHeight="1">
       <c r="A9" s="6" t="s">
@@ -5684,92 +5680,92 @@
       <c r="C9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="176"/>
-      <c r="E9" s="177"/>
-      <c r="F9" s="177"/>
-      <c r="G9" s="177"/>
-      <c r="H9" s="177"/>
-      <c r="I9" s="177"/>
-      <c r="J9" s="177"/>
-      <c r="K9" s="175"/>
+      <c r="D9" s="174"/>
+      <c r="E9" s="175"/>
+      <c r="F9" s="175"/>
+      <c r="G9" s="175"/>
+      <c r="H9" s="175"/>
+      <c r="I9" s="175"/>
+      <c r="J9" s="175"/>
+      <c r="K9" s="173"/>
     </row>
     <row r="10" spans="1:11" s="3" customFormat="1" ht="135" customHeight="1">
       <c r="A10" s="6" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="B10" s="82" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="C10" s="81" t="s">
-        <v>353</v>
-      </c>
-      <c r="D10" s="176"/>
-      <c r="E10" s="177"/>
-      <c r="F10" s="177"/>
-      <c r="G10" s="177"/>
-      <c r="H10" s="175"/>
-      <c r="I10" s="125" t="s">
-        <v>352</v>
-      </c>
-      <c r="J10" s="176"/>
-      <c r="K10" s="175"/>
+        <v>346</v>
+      </c>
+      <c r="D10" s="174"/>
+      <c r="E10" s="175"/>
+      <c r="F10" s="175"/>
+      <c r="G10" s="175"/>
+      <c r="H10" s="173"/>
+      <c r="I10" s="123" t="s">
+        <v>345</v>
+      </c>
+      <c r="J10" s="174"/>
+      <c r="K10" s="173"/>
     </row>
     <row r="11" spans="1:11" s="3" customFormat="1" ht="135" customHeight="1">
       <c r="A11" s="6" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="B11" s="89" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="C11" s="87" t="s">
-        <v>356</v>
-      </c>
-      <c r="D11" s="176"/>
-      <c r="E11" s="177"/>
-      <c r="F11" s="177"/>
-      <c r="G11" s="177"/>
-      <c r="H11" s="177"/>
-      <c r="I11" s="177"/>
-      <c r="J11" s="177"/>
-      <c r="K11" s="175"/>
+        <v>349</v>
+      </c>
+      <c r="D11" s="174"/>
+      <c r="E11" s="175"/>
+      <c r="F11" s="175"/>
+      <c r="G11" s="175"/>
+      <c r="H11" s="175"/>
+      <c r="I11" s="175"/>
+      <c r="J11" s="175"/>
+      <c r="K11" s="173"/>
     </row>
     <row r="12" spans="1:11" s="3" customFormat="1" ht="135" customHeight="1">
       <c r="A12" s="6" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="B12" s="82" t="s">
-        <v>340</v>
-      </c>
-      <c r="C12" s="181"/>
-      <c r="D12" s="177"/>
-      <c r="E12" s="177"/>
-      <c r="F12" s="177"/>
-      <c r="G12" s="177"/>
-      <c r="H12" s="175"/>
-      <c r="I12" s="125" t="s">
-        <v>342</v>
-      </c>
-      <c r="J12" s="176"/>
-      <c r="K12" s="175"/>
+        <v>333</v>
+      </c>
+      <c r="C12" s="179"/>
+      <c r="D12" s="175"/>
+      <c r="E12" s="175"/>
+      <c r="F12" s="175"/>
+      <c r="G12" s="175"/>
+      <c r="H12" s="173"/>
+      <c r="I12" s="123" t="s">
+        <v>335</v>
+      </c>
+      <c r="J12" s="174"/>
+      <c r="K12" s="173"/>
     </row>
     <row r="13" spans="1:11" s="3" customFormat="1" ht="180" customHeight="1">
       <c r="A13" s="6" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="138" t="s">
-        <v>497</v>
-      </c>
-      <c r="D13" s="176"/>
-      <c r="E13" s="177"/>
-      <c r="F13" s="177"/>
-      <c r="G13" s="177"/>
-      <c r="H13" s="177"/>
-      <c r="I13" s="177"/>
-      <c r="J13" s="177"/>
-      <c r="K13" s="175"/>
+      <c r="C13" s="136" t="s">
+        <v>489</v>
+      </c>
+      <c r="D13" s="174"/>
+      <c r="E13" s="175"/>
+      <c r="F13" s="175"/>
+      <c r="G13" s="175"/>
+      <c r="H13" s="175"/>
+      <c r="I13" s="175"/>
+      <c r="J13" s="175"/>
+      <c r="K13" s="173"/>
     </row>
     <row r="14" spans="1:11" s="3" customFormat="1" ht="90" customHeight="1">
       <c r="A14" s="6" t="s">
@@ -5778,55 +5774,55 @@
       <c r="B14" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="131" t="s">
-        <v>269</v>
-      </c>
-      <c r="D14" s="176"/>
-      <c r="E14" s="177"/>
-      <c r="F14" s="177"/>
-      <c r="G14" s="177"/>
-      <c r="H14" s="177"/>
-      <c r="I14" s="177"/>
-      <c r="J14" s="177"/>
-      <c r="K14" s="175"/>
+      <c r="C14" s="129" t="s">
+        <v>267</v>
+      </c>
+      <c r="D14" s="174"/>
+      <c r="E14" s="175"/>
+      <c r="F14" s="175"/>
+      <c r="G14" s="175"/>
+      <c r="H14" s="175"/>
+      <c r="I14" s="175"/>
+      <c r="J14" s="175"/>
+      <c r="K14" s="173"/>
     </row>
     <row r="15" spans="1:11" s="3" customFormat="1" ht="30" customHeight="1">
       <c r="A15" s="6" t="s">
-        <v>501</v>
-      </c>
-      <c r="B15" s="133" t="s">
-        <v>502</v>
-      </c>
-      <c r="C15" s="167" t="s">
-        <v>503</v>
-      </c>
-      <c r="D15" s="168"/>
-      <c r="E15" s="168"/>
-      <c r="F15" s="168"/>
-      <c r="G15" s="168"/>
-      <c r="H15" s="168"/>
-      <c r="I15" s="168"/>
-      <c r="J15" s="168"/>
-      <c r="K15" s="169"/>
+        <v>493</v>
+      </c>
+      <c r="B15" s="131" t="s">
+        <v>494</v>
+      </c>
+      <c r="C15" s="165" t="s">
+        <v>495</v>
+      </c>
+      <c r="D15" s="166"/>
+      <c r="E15" s="166"/>
+      <c r="F15" s="166"/>
+      <c r="G15" s="166"/>
+      <c r="H15" s="166"/>
+      <c r="I15" s="166"/>
+      <c r="J15" s="166"/>
+      <c r="K15" s="167"/>
     </row>
     <row r="16" spans="1:11" s="3" customFormat="1" ht="30" customHeight="1">
       <c r="A16" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="B16" s="133" t="s">
-        <v>500</v>
-      </c>
-      <c r="C16" s="167" t="s">
-        <v>498</v>
-      </c>
-      <c r="D16" s="168"/>
-      <c r="E16" s="168"/>
-      <c r="F16" s="168"/>
-      <c r="G16" s="168"/>
-      <c r="H16" s="168"/>
-      <c r="I16" s="168"/>
-      <c r="J16" s="168"/>
-      <c r="K16" s="169"/>
+      <c r="B16" s="131" t="s">
+        <v>492</v>
+      </c>
+      <c r="C16" s="165" t="s">
+        <v>490</v>
+      </c>
+      <c r="D16" s="166"/>
+      <c r="E16" s="166"/>
+      <c r="F16" s="166"/>
+      <c r="G16" s="166"/>
+      <c r="H16" s="166"/>
+      <c r="I16" s="166"/>
+      <c r="J16" s="166"/>
+      <c r="K16" s="167"/>
     </row>
     <row r="17" spans="1:11" s="3" customFormat="1" ht="150" customHeight="1">
       <c r="A17" s="6" t="s">
@@ -5835,17 +5831,17 @@
       <c r="B17" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="132" t="s">
+      <c r="C17" s="130" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="176"/>
-      <c r="E17" s="177"/>
-      <c r="F17" s="177"/>
-      <c r="G17" s="177"/>
-      <c r="H17" s="177"/>
-      <c r="I17" s="177"/>
-      <c r="J17" s="177"/>
-      <c r="K17" s="175"/>
+      <c r="D17" s="174"/>
+      <c r="E17" s="175"/>
+      <c r="F17" s="175"/>
+      <c r="G17" s="175"/>
+      <c r="H17" s="175"/>
+      <c r="I17" s="175"/>
+      <c r="J17" s="175"/>
+      <c r="K17" s="173"/>
     </row>
     <row r="18" spans="1:11" s="3" customFormat="1" ht="60" customHeight="1">
       <c r="A18" s="6" t="s">
@@ -5857,14 +5853,14 @@
       <c r="C18" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D18" s="176"/>
-      <c r="E18" s="177"/>
-      <c r="F18" s="177"/>
-      <c r="G18" s="177"/>
-      <c r="H18" s="177"/>
-      <c r="I18" s="177"/>
-      <c r="J18" s="177"/>
-      <c r="K18" s="175"/>
+      <c r="D18" s="174"/>
+      <c r="E18" s="175"/>
+      <c r="F18" s="175"/>
+      <c r="G18" s="175"/>
+      <c r="H18" s="175"/>
+      <c r="I18" s="175"/>
+      <c r="J18" s="175"/>
+      <c r="K18" s="173"/>
     </row>
     <row r="19" spans="1:11" s="3" customFormat="1" ht="60" customHeight="1">
       <c r="A19" s="6" t="s">
@@ -5876,14 +5872,14 @@
       <c r="C19" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D19" s="176"/>
-      <c r="E19" s="177"/>
-      <c r="F19" s="177"/>
-      <c r="G19" s="177"/>
-      <c r="H19" s="177"/>
-      <c r="I19" s="177"/>
-      <c r="J19" s="177"/>
-      <c r="K19" s="175"/>
+      <c r="D19" s="174"/>
+      <c r="E19" s="175"/>
+      <c r="F19" s="175"/>
+      <c r="G19" s="175"/>
+      <c r="H19" s="175"/>
+      <c r="I19" s="175"/>
+      <c r="J19" s="175"/>
+      <c r="K19" s="173"/>
     </row>
     <row r="20" spans="1:11" s="3" customFormat="1" ht="60" customHeight="1">
       <c r="A20" s="6" t="s">
@@ -5895,14 +5891,14 @@
       <c r="C20" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D20" s="176"/>
-      <c r="E20" s="177"/>
-      <c r="F20" s="177"/>
-      <c r="G20" s="177"/>
-      <c r="H20" s="177"/>
-      <c r="I20" s="177"/>
-      <c r="J20" s="177"/>
-      <c r="K20" s="175"/>
+      <c r="D20" s="174"/>
+      <c r="E20" s="175"/>
+      <c r="F20" s="175"/>
+      <c r="G20" s="175"/>
+      <c r="H20" s="175"/>
+      <c r="I20" s="175"/>
+      <c r="J20" s="175"/>
+      <c r="K20" s="173"/>
     </row>
     <row r="21" spans="1:11" s="51" customFormat="1" ht="225" customHeight="1">
       <c r="A21" s="52" t="s">
@@ -5912,76 +5908,76 @@
         <v>0</v>
       </c>
       <c r="C21" s="49" t="s">
-        <v>309</v>
-      </c>
-      <c r="D21" s="176"/>
-      <c r="E21" s="177"/>
-      <c r="F21" s="177"/>
-      <c r="G21" s="177"/>
-      <c r="H21" s="177"/>
-      <c r="I21" s="177"/>
-      <c r="J21" s="177"/>
-      <c r="K21" s="175"/>
+        <v>304</v>
+      </c>
+      <c r="D21" s="174"/>
+      <c r="E21" s="175"/>
+      <c r="F21" s="175"/>
+      <c r="G21" s="175"/>
+      <c r="H21" s="175"/>
+      <c r="I21" s="175"/>
+      <c r="J21" s="175"/>
+      <c r="K21" s="173"/>
     </row>
     <row r="22" spans="1:11" s="51" customFormat="1" ht="225" customHeight="1">
       <c r="A22" s="62" t="s">
         <v>205</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C22" s="50" t="s">
         <v>206</v>
       </c>
-      <c r="D22" s="172"/>
-      <c r="E22" s="173"/>
-      <c r="F22" s="173"/>
-      <c r="G22" s="174"/>
+      <c r="D22" s="170"/>
+      <c r="E22" s="171"/>
+      <c r="F22" s="171"/>
+      <c r="G22" s="172"/>
       <c r="H22" s="19" t="s">
         <v>207</v>
       </c>
-      <c r="I22" s="124" t="s">
-        <v>460</v>
-      </c>
-      <c r="J22" s="172"/>
-      <c r="K22" s="175"/>
+      <c r="I22" s="122" t="s">
+        <v>453</v>
+      </c>
+      <c r="J22" s="170"/>
+      <c r="K22" s="173"/>
     </row>
     <row r="23" spans="1:11" s="51" customFormat="1" ht="30" customHeight="1">
       <c r="A23" s="75" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="B23" s="71" t="s">
-        <v>303</v>
-      </c>
-      <c r="C23" s="167" t="s">
-        <v>302</v>
-      </c>
-      <c r="D23" s="168"/>
-      <c r="E23" s="168"/>
-      <c r="F23" s="168"/>
-      <c r="G23" s="168"/>
-      <c r="H23" s="168"/>
-      <c r="I23" s="168"/>
-      <c r="J23" s="169"/>
+        <v>298</v>
+      </c>
+      <c r="C23" s="165" t="s">
+        <v>297</v>
+      </c>
+      <c r="D23" s="166"/>
+      <c r="E23" s="166"/>
+      <c r="F23" s="166"/>
+      <c r="G23" s="166"/>
+      <c r="H23" s="166"/>
+      <c r="I23" s="166"/>
+      <c r="J23" s="167"/>
       <c r="K23" s="67"/>
     </row>
     <row r="24" spans="1:11" ht="60">
       <c r="A24" s="54" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B24" s="55" t="s">
-        <v>270</v>
-      </c>
-      <c r="C24" s="164" t="s">
-        <v>271</v>
-      </c>
-      <c r="D24" s="165"/>
-      <c r="E24" s="165"/>
-      <c r="F24" s="165"/>
-      <c r="G24" s="165"/>
-      <c r="H24" s="165"/>
-      <c r="I24" s="165"/>
-      <c r="J24" s="166"/>
+        <v>268</v>
+      </c>
+      <c r="C24" s="162" t="s">
+        <v>269</v>
+      </c>
+      <c r="D24" s="163"/>
+      <c r="E24" s="163"/>
+      <c r="F24" s="163"/>
+      <c r="G24" s="163"/>
+      <c r="H24" s="163"/>
+      <c r="I24" s="163"/>
+      <c r="J24" s="164"/>
       <c r="K24" s="64"/>
     </row>
   </sheetData>
@@ -6015,10 +6011,10 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:M62"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="I52" sqref="I52"/>
+      <selection pane="bottomLeft" activeCell="L58" sqref="L58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6034,13 +6030,13 @@
   <sheetData>
     <row r="1" spans="1:12" s="16" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A1" s="18" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="D1" s="60" t="s">
         <v>44</v>
@@ -6058,16 +6054,16 @@
         <v>40</v>
       </c>
       <c r="I1" s="61" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="J1" s="61" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K1" s="61" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="L1" s="61" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="16" customFormat="1" ht="30" customHeight="1">
@@ -6087,69 +6083,69 @@
       <c r="H2" s="223"/>
       <c r="I2" s="223"/>
       <c r="J2" s="224"/>
-      <c r="K2" s="234"/>
-      <c r="L2" s="235"/>
+      <c r="K2" s="232"/>
+      <c r="L2" s="233"/>
     </row>
     <row r="3" spans="1:12" s="16" customFormat="1" ht="15" customHeight="1">
-      <c r="A3" s="162" t="s">
+      <c r="A3" s="160" t="s">
         <v>157</v>
       </c>
-      <c r="B3" s="170" t="s">
+      <c r="B3" s="168" t="s">
         <v>224</v>
       </c>
-      <c r="C3" s="167" t="s">
-        <v>272</v>
-      </c>
-      <c r="D3" s="168"/>
-      <c r="E3" s="168"/>
-      <c r="F3" s="168"/>
-      <c r="G3" s="168"/>
-      <c r="H3" s="168"/>
-      <c r="I3" s="168"/>
-      <c r="J3" s="168"/>
-      <c r="K3" s="168"/>
-      <c r="L3" s="169"/>
+      <c r="C3" s="165" t="s">
+        <v>270</v>
+      </c>
+      <c r="D3" s="166"/>
+      <c r="E3" s="166"/>
+      <c r="F3" s="166"/>
+      <c r="G3" s="166"/>
+      <c r="H3" s="166"/>
+      <c r="I3" s="166"/>
+      <c r="J3" s="166"/>
+      <c r="K3" s="166"/>
+      <c r="L3" s="167"/>
     </row>
     <row r="4" spans="1:12" s="16" customFormat="1" ht="15" customHeight="1">
-      <c r="A4" s="246"/>
+      <c r="A4" s="242"/>
       <c r="B4" s="185"/>
-      <c r="C4" s="167" t="s">
-        <v>538</v>
-      </c>
-      <c r="D4" s="168"/>
-      <c r="E4" s="168"/>
-      <c r="F4" s="168"/>
-      <c r="G4" s="168"/>
-      <c r="H4" s="168"/>
-      <c r="I4" s="168"/>
-      <c r="J4" s="168"/>
-      <c r="K4" s="168"/>
-      <c r="L4" s="169"/>
+      <c r="C4" s="165" t="s">
+        <v>527</v>
+      </c>
+      <c r="D4" s="166"/>
+      <c r="E4" s="166"/>
+      <c r="F4" s="166"/>
+      <c r="G4" s="166"/>
+      <c r="H4" s="166"/>
+      <c r="I4" s="166"/>
+      <c r="J4" s="166"/>
+      <c r="K4" s="166"/>
+      <c r="L4" s="167"/>
     </row>
     <row r="5" spans="1:12" s="16" customFormat="1" ht="180">
-      <c r="A5" s="163"/>
-      <c r="B5" s="171"/>
+      <c r="A5" s="161"/>
+      <c r="B5" s="169"/>
       <c r="C5" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="D5" s="236" t="s">
-        <v>374</v>
-      </c>
-      <c r="E5" s="236"/>
-      <c r="F5" s="236"/>
-      <c r="G5" s="236"/>
+      <c r="D5" s="234" t="s">
+        <v>367</v>
+      </c>
+      <c r="E5" s="234"/>
+      <c r="F5" s="234"/>
+      <c r="G5" s="234"/>
       <c r="H5" s="38" t="s">
         <v>155</v>
       </c>
       <c r="I5" s="85" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="J5" s="56"/>
       <c r="K5" s="46" t="s">
-        <v>530</v>
+        <v>519</v>
       </c>
       <c r="L5" s="46" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="16" customFormat="1" ht="105" customHeight="1">
@@ -6159,19 +6155,19 @@
       <c r="B6" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="C6" s="167" t="s">
+      <c r="C6" s="165" t="s">
         <v>152</v>
       </c>
-      <c r="D6" s="168"/>
-      <c r="E6" s="168"/>
-      <c r="F6" s="168"/>
-      <c r="G6" s="168"/>
-      <c r="H6" s="168"/>
-      <c r="I6" s="168"/>
-      <c r="J6" s="169"/>
-      <c r="K6" s="113"/>
+      <c r="D6" s="166"/>
+      <c r="E6" s="166"/>
+      <c r="F6" s="166"/>
+      <c r="G6" s="166"/>
+      <c r="H6" s="166"/>
+      <c r="I6" s="166"/>
+      <c r="J6" s="167"/>
+      <c r="K6" s="112"/>
       <c r="L6" s="85" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
     </row>
     <row r="7" spans="1:12" s="16" customFormat="1" ht="90">
@@ -6182,22 +6178,22 @@
         <v>223</v>
       </c>
       <c r="C7" s="27"/>
-      <c r="D7" s="236" t="s">
+      <c r="D7" s="234" t="s">
         <v>151</v>
       </c>
-      <c r="E7" s="236"/>
-      <c r="F7" s="236"/>
-      <c r="G7" s="236"/>
+      <c r="E7" s="234"/>
+      <c r="F7" s="234"/>
+      <c r="G7" s="234"/>
       <c r="H7" s="38" t="s">
         <v>150</v>
       </c>
-      <c r="I7" s="232"/>
-      <c r="J7" s="233"/>
+      <c r="I7" s="230"/>
+      <c r="J7" s="231"/>
       <c r="K7" s="46" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="L7" s="46" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
     </row>
     <row r="8" spans="1:12" s="16" customFormat="1" ht="105" customHeight="1">
@@ -6207,17 +6203,17 @@
       <c r="B8" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="C8" s="237" t="s">
+      <c r="C8" s="235" t="s">
         <v>147</v>
       </c>
-      <c r="D8" s="238"/>
-      <c r="E8" s="238"/>
-      <c r="F8" s="238"/>
-      <c r="G8" s="238"/>
-      <c r="H8" s="238"/>
-      <c r="I8" s="238"/>
-      <c r="J8" s="239"/>
-      <c r="K8" s="113"/>
+      <c r="D8" s="236"/>
+      <c r="E8" s="236"/>
+      <c r="F8" s="236"/>
+      <c r="G8" s="236"/>
+      <c r="H8" s="236"/>
+      <c r="I8" s="236"/>
+      <c r="J8" s="237"/>
+      <c r="K8" s="112"/>
       <c r="L8" s="85" t="s">
         <v>147</v>
       </c>
@@ -6229,18 +6225,18 @@
       <c r="B9" s="48" t="s">
         <v>222</v>
       </c>
-      <c r="C9" s="169" t="s">
+      <c r="C9" s="167" t="s">
         <v>145</v>
       </c>
-      <c r="D9" s="236"/>
-      <c r="E9" s="236"/>
-      <c r="F9" s="236"/>
-      <c r="G9" s="236"/>
-      <c r="H9" s="236"/>
-      <c r="I9" s="236"/>
-      <c r="J9" s="236"/>
-      <c r="K9" s="236"/>
-      <c r="L9" s="236"/>
+      <c r="D9" s="234"/>
+      <c r="E9" s="234"/>
+      <c r="F9" s="234"/>
+      <c r="G9" s="234"/>
+      <c r="H9" s="234"/>
+      <c r="I9" s="234"/>
+      <c r="J9" s="234"/>
+      <c r="K9" s="234"/>
+      <c r="L9" s="234"/>
     </row>
     <row r="10" spans="1:12" ht="105" customHeight="1">
       <c r="A10" s="30" t="s">
@@ -6249,63 +6245,63 @@
       <c r="B10" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="C10" s="237" t="s">
+      <c r="C10" s="235" t="s">
         <v>143</v>
       </c>
-      <c r="D10" s="238"/>
-      <c r="E10" s="238"/>
-      <c r="F10" s="238"/>
-      <c r="G10" s="238"/>
-      <c r="H10" s="238"/>
-      <c r="I10" s="238"/>
-      <c r="J10" s="239"/>
+      <c r="D10" s="236"/>
+      <c r="E10" s="236"/>
+      <c r="F10" s="236"/>
+      <c r="G10" s="236"/>
+      <c r="H10" s="236"/>
+      <c r="I10" s="236"/>
+      <c r="J10" s="237"/>
       <c r="K10" s="84"/>
       <c r="L10" s="85" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="120" customHeight="1">
       <c r="A11" s="30" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="B11" s="48" t="s">
         <v>225</v>
       </c>
-      <c r="C11" s="167" t="s">
-        <v>313</v>
-      </c>
-      <c r="D11" s="168"/>
-      <c r="E11" s="168"/>
-      <c r="F11" s="168"/>
-      <c r="G11" s="168"/>
-      <c r="H11" s="169"/>
-      <c r="I11" s="240"/>
-      <c r="J11" s="218"/>
+      <c r="C11" s="165" t="s">
+        <v>308</v>
+      </c>
+      <c r="D11" s="166"/>
+      <c r="E11" s="166"/>
+      <c r="F11" s="166"/>
+      <c r="G11" s="166"/>
+      <c r="H11" s="167"/>
+      <c r="I11" s="238"/>
+      <c r="J11" s="181"/>
       <c r="K11" s="77" t="s">
-        <v>523</v>
+        <v>512</v>
       </c>
       <c r="L11" s="46" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="120" customHeight="1">
       <c r="A12" s="73" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="B12" s="74"/>
-      <c r="C12" s="248"/>
-      <c r="D12" s="249"/>
-      <c r="E12" s="249"/>
-      <c r="F12" s="249"/>
-      <c r="G12" s="249"/>
-      <c r="H12" s="249"/>
-      <c r="I12" s="173"/>
-      <c r="J12" s="174"/>
+      <c r="C12" s="244"/>
+      <c r="D12" s="245"/>
+      <c r="E12" s="245"/>
+      <c r="F12" s="245"/>
+      <c r="G12" s="245"/>
+      <c r="H12" s="245"/>
+      <c r="I12" s="171"/>
+      <c r="J12" s="172"/>
       <c r="K12" s="41" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="L12" s="41" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="180" customHeight="1">
@@ -6316,27 +6312,27 @@
         <v>142</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="D13" s="28" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="E13" s="67"/>
       <c r="F13" s="28" t="s">
         <v>38</v>
       </c>
       <c r="G13" s="28" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="H13" s="67"/>
       <c r="I13" s="42" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="J13" s="42" t="s">
-        <v>349</v>
-      </c>
-      <c r="K13" s="225"/>
-      <c r="L13" s="226"/>
+        <v>342</v>
+      </c>
+      <c r="K13" s="207"/>
+      <c r="L13" s="208"/>
     </row>
     <row r="14" spans="1:12" ht="135">
       <c r="A14" s="13" t="s">
@@ -6346,21 +6342,21 @@
         <v>141</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>337</v>
-      </c>
-      <c r="D14" s="172"/>
-      <c r="E14" s="177"/>
-      <c r="F14" s="173"/>
-      <c r="G14" s="173"/>
-      <c r="H14" s="173"/>
+        <v>330</v>
+      </c>
+      <c r="D14" s="170"/>
+      <c r="E14" s="175"/>
+      <c r="F14" s="171"/>
+      <c r="G14" s="171"/>
+      <c r="H14" s="171"/>
       <c r="I14" s="42" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="J14" s="42" t="s">
-        <v>250</v>
-      </c>
-      <c r="K14" s="227"/>
-      <c r="L14" s="228"/>
+        <v>529</v>
+      </c>
+      <c r="K14" s="225"/>
+      <c r="L14" s="226"/>
     </row>
     <row r="15" spans="1:12" ht="135">
       <c r="A15" s="13" t="s">
@@ -6376,7 +6372,7 @@
         <v>137</v>
       </c>
       <c r="E15" s="99" t="s">
-        <v>537</v>
+        <v>526</v>
       </c>
       <c r="F15" s="19" t="s">
         <v>136</v>
@@ -6393,23 +6389,23 @@
       <c r="J15" s="41" t="s">
         <v>210</v>
       </c>
-      <c r="K15" s="227"/>
-      <c r="L15" s="228"/>
+      <c r="K15" s="225"/>
+      <c r="L15" s="226"/>
     </row>
     <row r="16" spans="1:12" ht="150" customHeight="1">
-      <c r="A16" s="247" t="s">
+      <c r="A16" s="243" t="s">
         <v>34</v>
       </c>
       <c r="B16" s="209" t="s">
         <v>133</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="D16" s="211"/>
       <c r="E16" s="212"/>
       <c r="F16" s="28" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="G16" s="29" t="s">
         <v>208</v>
@@ -6421,39 +6417,39 @@
       <c r="J16" s="44" t="s">
         <v>212</v>
       </c>
-      <c r="K16" s="227"/>
-      <c r="L16" s="228"/>
+      <c r="K16" s="225"/>
+      <c r="L16" s="226"/>
     </row>
     <row r="17" spans="1:13" ht="15" customHeight="1">
-      <c r="A17" s="247"/>
+      <c r="A17" s="243"/>
       <c r="B17" s="209"/>
-      <c r="C17" s="167" t="s">
+      <c r="C17" s="165" t="s">
         <v>132</v>
       </c>
-      <c r="D17" s="168"/>
-      <c r="E17" s="168"/>
-      <c r="F17" s="168"/>
-      <c r="G17" s="168"/>
+      <c r="D17" s="166"/>
+      <c r="E17" s="166"/>
+      <c r="F17" s="166"/>
+      <c r="G17" s="166"/>
       <c r="H17" s="206"/>
       <c r="I17" s="206"/>
       <c r="J17" s="191"/>
-      <c r="K17" s="227"/>
-      <c r="L17" s="228"/>
+      <c r="K17" s="225"/>
+      <c r="L17" s="226"/>
     </row>
     <row r="18" spans="1:13" ht="135" customHeight="1">
-      <c r="A18" s="247" t="s">
+      <c r="A18" s="243" t="s">
         <v>31</v>
       </c>
       <c r="B18" s="209" t="s">
         <v>131</v>
       </c>
       <c r="C18" s="91" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="D18" s="211"/>
       <c r="E18" s="212"/>
       <c r="F18" s="92" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="G18" s="92" t="s">
         <v>209</v>
@@ -6465,64 +6461,64 @@
       <c r="J18" s="44" t="s">
         <v>213</v>
       </c>
-      <c r="K18" s="229"/>
-      <c r="L18" s="230"/>
+      <c r="K18" s="227"/>
+      <c r="L18" s="228"/>
     </row>
     <row r="19" spans="1:13" ht="15" customHeight="1">
-      <c r="A19" s="247"/>
+      <c r="A19" s="243"/>
       <c r="B19" s="210"/>
-      <c r="C19" s="231" t="s">
+      <c r="C19" s="229" t="s">
         <v>130</v>
       </c>
-      <c r="D19" s="168"/>
-      <c r="E19" s="168"/>
-      <c r="F19" s="168"/>
-      <c r="G19" s="168"/>
-      <c r="H19" s="168"/>
-      <c r="I19" s="168"/>
-      <c r="J19" s="168"/>
-      <c r="K19" s="168"/>
-      <c r="L19" s="169"/>
+      <c r="D19" s="166"/>
+      <c r="E19" s="166"/>
+      <c r="F19" s="166"/>
+      <c r="G19" s="166"/>
+      <c r="H19" s="166"/>
+      <c r="I19" s="166"/>
+      <c r="J19" s="166"/>
+      <c r="K19" s="166"/>
+      <c r="L19" s="167"/>
     </row>
     <row r="20" spans="1:13" ht="15" customHeight="1">
-      <c r="A20" s="162" t="s">
-        <v>267</v>
-      </c>
-      <c r="B20" s="241" t="s">
-        <v>268</v>
-      </c>
-      <c r="C20" s="231" t="s">
-        <v>531</v>
-      </c>
-      <c r="D20" s="168"/>
-      <c r="E20" s="168"/>
-      <c r="F20" s="168"/>
-      <c r="G20" s="168"/>
-      <c r="H20" s="168"/>
-      <c r="I20" s="168"/>
-      <c r="J20" s="168"/>
-      <c r="K20" s="168"/>
-      <c r="L20" s="168"/>
-      <c r="M20" s="161"/>
+      <c r="A20" s="160" t="s">
+        <v>265</v>
+      </c>
+      <c r="B20" s="215" t="s">
+        <v>266</v>
+      </c>
+      <c r="C20" s="229" t="s">
+        <v>520</v>
+      </c>
+      <c r="D20" s="166"/>
+      <c r="E20" s="166"/>
+      <c r="F20" s="166"/>
+      <c r="G20" s="166"/>
+      <c r="H20" s="166"/>
+      <c r="I20" s="166"/>
+      <c r="J20" s="166"/>
+      <c r="K20" s="166"/>
+      <c r="L20" s="166"/>
+      <c r="M20" s="159"/>
     </row>
     <row r="21" spans="1:13" ht="105" customHeight="1">
-      <c r="A21" s="163"/>
-      <c r="B21" s="242"/>
-      <c r="C21" s="243" t="s">
-        <v>534</v>
-      </c>
-      <c r="D21" s="244"/>
-      <c r="E21" s="244"/>
-      <c r="F21" s="244"/>
-      <c r="G21" s="244"/>
-      <c r="H21" s="244"/>
-      <c r="I21" s="244"/>
-      <c r="J21" s="245"/>
+      <c r="A21" s="161"/>
+      <c r="B21" s="216"/>
+      <c r="C21" s="239" t="s">
+        <v>523</v>
+      </c>
+      <c r="D21" s="240"/>
+      <c r="E21" s="240"/>
+      <c r="F21" s="240"/>
+      <c r="G21" s="240"/>
+      <c r="H21" s="240"/>
+      <c r="I21" s="240"/>
+      <c r="J21" s="241"/>
       <c r="K21" s="44" t="s">
-        <v>533</v>
-      </c>
-      <c r="L21" s="160" t="s">
-        <v>532</v>
+        <v>522</v>
+      </c>
+      <c r="L21" s="158" t="s">
+        <v>521</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="105" customHeight="1">
@@ -6532,76 +6528,76 @@
       <c r="B22" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="C22" s="167" t="s">
-        <v>237</v>
-      </c>
-      <c r="D22" s="168"/>
-      <c r="E22" s="168"/>
-      <c r="F22" s="168"/>
-      <c r="G22" s="168"/>
-      <c r="H22" s="168"/>
-      <c r="I22" s="168"/>
-      <c r="J22" s="169"/>
+      <c r="C22" s="165" t="s">
+        <v>236</v>
+      </c>
+      <c r="D22" s="166"/>
+      <c r="E22" s="166"/>
+      <c r="F22" s="166"/>
+      <c r="G22" s="166"/>
+      <c r="H22" s="166"/>
+      <c r="I22" s="166"/>
+      <c r="J22" s="167"/>
       <c r="K22" s="43" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="L22" s="46" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="90" customHeight="1">
       <c r="A23" s="186" t="s">
-        <v>387</v>
-      </c>
-      <c r="B23" s="170" t="s">
-        <v>392</v>
-      </c>
-      <c r="C23" s="167" t="s">
-        <v>389</v>
-      </c>
-      <c r="D23" s="168"/>
-      <c r="E23" s="168"/>
-      <c r="F23" s="168"/>
-      <c r="G23" s="168"/>
-      <c r="H23" s="168"/>
-      <c r="I23" s="168"/>
-      <c r="J23" s="169"/>
+        <v>380</v>
+      </c>
+      <c r="B23" s="168" t="s">
+        <v>385</v>
+      </c>
+      <c r="C23" s="165" t="s">
+        <v>382</v>
+      </c>
+      <c r="D23" s="166"/>
+      <c r="E23" s="166"/>
+      <c r="F23" s="166"/>
+      <c r="G23" s="166"/>
+      <c r="H23" s="166"/>
+      <c r="I23" s="166"/>
+      <c r="J23" s="167"/>
       <c r="K23" s="191" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="L23" s="191" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="15" customHeight="1">
       <c r="A24" s="187"/>
       <c r="B24" s="185"/>
-      <c r="C24" s="167" t="s">
-        <v>388</v>
-      </c>
-      <c r="D24" s="168"/>
-      <c r="E24" s="168"/>
-      <c r="F24" s="168"/>
-      <c r="G24" s="168"/>
-      <c r="H24" s="168"/>
-      <c r="I24" s="168"/>
-      <c r="J24" s="169"/>
+      <c r="C24" s="165" t="s">
+        <v>381</v>
+      </c>
+      <c r="D24" s="166"/>
+      <c r="E24" s="166"/>
+      <c r="F24" s="166"/>
+      <c r="G24" s="166"/>
+      <c r="H24" s="166"/>
+      <c r="I24" s="166"/>
+      <c r="J24" s="167"/>
       <c r="K24" s="192"/>
       <c r="L24" s="192"/>
     </row>
     <row r="25" spans="1:13" ht="45" customHeight="1">
       <c r="A25" s="188"/>
-      <c r="B25" s="171"/>
-      <c r="C25" s="167" t="s">
-        <v>390</v>
-      </c>
-      <c r="D25" s="168"/>
-      <c r="E25" s="168"/>
-      <c r="F25" s="168"/>
-      <c r="G25" s="168"/>
-      <c r="H25" s="168"/>
-      <c r="I25" s="168"/>
-      <c r="J25" s="169"/>
+      <c r="B25" s="169"/>
+      <c r="C25" s="165" t="s">
+        <v>383</v>
+      </c>
+      <c r="D25" s="166"/>
+      <c r="E25" s="166"/>
+      <c r="F25" s="166"/>
+      <c r="G25" s="166"/>
+      <c r="H25" s="166"/>
+      <c r="I25" s="166"/>
+      <c r="J25" s="167"/>
       <c r="K25" s="193"/>
       <c r="L25" s="193"/>
     </row>
@@ -6746,46 +6742,46 @@
       <c r="L32" s="190"/>
     </row>
     <row r="33" spans="1:13" ht="75" customHeight="1">
-      <c r="A33" s="158" t="s">
+      <c r="A33" s="156" t="s">
         <v>112</v>
       </c>
-      <c r="B33" s="159" t="s">
+      <c r="B33" s="157" t="s">
         <v>111</v>
       </c>
-      <c r="C33" s="151" t="s">
+      <c r="C33" s="149" t="s">
         <v>179</v>
       </c>
-      <c r="D33" s="156"/>
-      <c r="E33" s="152" t="s">
+      <c r="D33" s="154"/>
+      <c r="E33" s="150" t="s">
         <v>110</v>
       </c>
-      <c r="F33" s="153" t="s">
+      <c r="F33" s="151" t="s">
         <v>180</v>
       </c>
       <c r="G33" s="211"/>
       <c r="H33" s="212"/>
-      <c r="I33" s="152" t="s">
-        <v>324</v>
-      </c>
-      <c r="J33" s="152" t="s">
-        <v>251</v>
+      <c r="I33" s="150" t="s">
+        <v>318</v>
+      </c>
+      <c r="J33" s="150" t="s">
+        <v>249</v>
       </c>
       <c r="K33" s="42" t="s">
         <v>211</v>
       </c>
       <c r="L33" s="42" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
     </row>
     <row r="34" spans="1:13" ht="75" customHeight="1">
-      <c r="A34" s="157" t="s">
-        <v>524</v>
-      </c>
-      <c r="B34" s="154" t="s">
-        <v>525</v>
+      <c r="A34" s="155" t="s">
+        <v>513</v>
+      </c>
+      <c r="B34" s="152" t="s">
+        <v>514</v>
       </c>
       <c r="C34" s="192" t="s">
-        <v>529</v>
+        <v>518</v>
       </c>
       <c r="D34" s="197"/>
       <c r="E34" s="197"/>
@@ -6794,13 +6790,13 @@
       <c r="H34" s="197"/>
       <c r="I34" s="197"/>
       <c r="J34" s="99" t="s">
-        <v>528</v>
-      </c>
-      <c r="K34" s="119" t="s">
-        <v>527</v>
-      </c>
-      <c r="L34" s="155" t="s">
-        <v>526</v>
+        <v>517</v>
+      </c>
+      <c r="K34" s="117" t="s">
+        <v>516</v>
+      </c>
+      <c r="L34" s="153" t="s">
+        <v>515</v>
       </c>
     </row>
     <row r="35" spans="1:13" s="68" customFormat="1" ht="15" customHeight="1">
@@ -6811,7 +6807,7 @@
         <v>54</v>
       </c>
       <c r="C35" s="194" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="D35" s="195"/>
       <c r="E35" s="195"/>
@@ -6826,37 +6822,37 @@
     <row r="36" spans="1:13" ht="345" customHeight="1">
       <c r="A36" s="183"/>
       <c r="B36" s="185"/>
-      <c r="C36" s="114" t="s">
+      <c r="C36" s="113" t="s">
+        <v>228</v>
+      </c>
+      <c r="D36" s="99" t="s">
+        <v>393</v>
+      </c>
+      <c r="E36" s="174"/>
+      <c r="F36" s="175"/>
+      <c r="G36" s="173"/>
+      <c r="H36" s="114" t="s">
         <v>229</v>
       </c>
-      <c r="D36" s="99" t="s">
-        <v>400</v>
-      </c>
-      <c r="E36" s="176"/>
-      <c r="F36" s="177"/>
-      <c r="G36" s="175"/>
-      <c r="H36" s="115" t="s">
-        <v>230</v>
-      </c>
       <c r="I36" s="99" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="J36" s="99" t="s">
-        <v>251</v>
-      </c>
-      <c r="K36" s="116" t="s">
-        <v>261</v>
+        <v>249</v>
+      </c>
+      <c r="K36" s="115" t="s">
+        <v>259</v>
       </c>
       <c r="L36" s="42" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="45" customHeight="1">
-      <c r="A37" s="129" t="s">
+      <c r="A37" s="127" t="s">
         <v>109</v>
       </c>
-      <c r="B37" s="130" t="s">
-        <v>499</v>
+      <c r="B37" s="128" t="s">
+        <v>491</v>
       </c>
       <c r="C37" s="204" t="s">
         <v>108</v>
@@ -6872,14 +6868,14 @@
       <c r="L37" s="193"/>
     </row>
     <row r="38" spans="1:13" ht="45" customHeight="1">
-      <c r="A38" s="129" t="s">
+      <c r="A38" s="127" t="s">
         <v>107</v>
       </c>
-      <c r="B38" s="130" t="s">
+      <c r="B38" s="128" t="s">
         <v>106</v>
       </c>
       <c r="C38" s="203" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="D38" s="206"/>
       <c r="E38" s="206"/>
@@ -6892,38 +6888,38 @@
       <c r="L38" s="191"/>
     </row>
     <row r="39" spans="1:13" ht="60" customHeight="1">
-      <c r="A39" s="127" t="s">
-        <v>504</v>
-      </c>
-      <c r="B39" s="128" t="s">
-        <v>505</v>
-      </c>
-      <c r="C39" s="167" t="s">
-        <v>453</v>
-      </c>
-      <c r="D39" s="168"/>
-      <c r="E39" s="168"/>
-      <c r="F39" s="168"/>
-      <c r="G39" s="168"/>
-      <c r="H39" s="168"/>
-      <c r="I39" s="168"/>
-      <c r="J39" s="169"/>
-      <c r="K39" s="122" t="s">
-        <v>455</v>
-      </c>
-      <c r="L39" s="122" t="s">
-        <v>506</v>
+      <c r="A39" s="125" t="s">
+        <v>496</v>
+      </c>
+      <c r="B39" s="126" t="s">
+        <v>497</v>
+      </c>
+      <c r="C39" s="165" t="s">
+        <v>446</v>
+      </c>
+      <c r="D39" s="166"/>
+      <c r="E39" s="166"/>
+      <c r="F39" s="166"/>
+      <c r="G39" s="166"/>
+      <c r="H39" s="166"/>
+      <c r="I39" s="166"/>
+      <c r="J39" s="167"/>
+      <c r="K39" s="120" t="s">
+        <v>448</v>
+      </c>
+      <c r="L39" s="120" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="40" spans="1:13" ht="105" customHeight="1">
-      <c r="A40" s="129" t="s">
+      <c r="A40" s="127" t="s">
         <v>105</v>
       </c>
       <c r="B40" s="21" t="s">
         <v>104</v>
       </c>
       <c r="C40" s="37" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="D40" s="211"/>
       <c r="E40" s="212"/>
@@ -6935,12 +6931,12 @@
       </c>
       <c r="H40" s="213"/>
       <c r="I40" s="80" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="J40" s="207"/>
       <c r="K40" s="208"/>
       <c r="L40" s="103" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
     </row>
     <row r="41" spans="1:13" ht="90">
@@ -6960,20 +6956,20 @@
         <v>97</v>
       </c>
       <c r="F41" s="23" t="s">
-        <v>535</v>
+        <v>524</v>
       </c>
       <c r="G41" s="41" t="s">
         <v>96</v>
       </c>
       <c r="H41" s="214"/>
       <c r="I41" s="83" t="s">
-        <v>327</v>
-      </c>
-      <c r="J41" s="43" t="s">
+        <v>321</v>
+      </c>
+      <c r="J41" s="42" t="s">
         <v>215</v>
       </c>
-      <c r="K41" s="216"/>
-      <c r="L41" s="216"/>
+      <c r="K41" s="218"/>
+      <c r="L41" s="218"/>
     </row>
     <row r="42" spans="1:13" ht="135" customHeight="1">
       <c r="A42" s="22" t="s">
@@ -6982,7 +6978,7 @@
       <c r="B42" s="21" t="s">
         <v>188</v>
       </c>
-      <c r="C42" s="215" t="s">
+      <c r="C42" s="217" t="s">
         <v>189</v>
       </c>
       <c r="D42" s="202"/>
@@ -6990,13 +6986,13 @@
       <c r="F42" s="202"/>
       <c r="G42" s="202"/>
       <c r="H42" s="189"/>
-      <c r="I42" s="217"/>
-      <c r="J42" s="218"/>
+      <c r="I42" s="180"/>
+      <c r="J42" s="181"/>
       <c r="K42" s="77" t="s">
         <v>216</v>
       </c>
       <c r="L42" s="103" t="s">
-        <v>536</v>
+        <v>525</v>
       </c>
     </row>
     <row r="43" spans="1:13" ht="75" customHeight="1">
@@ -7006,7 +7002,7 @@
       <c r="B43" s="21" t="s">
         <v>218</v>
       </c>
-      <c r="C43" s="215" t="s">
+      <c r="C43" s="217" t="s">
         <v>220</v>
       </c>
       <c r="D43" s="202"/>
@@ -7014,13 +7010,13 @@
       <c r="F43" s="202"/>
       <c r="G43" s="202"/>
       <c r="H43" s="189"/>
-      <c r="I43" s="176"/>
-      <c r="J43" s="175"/>
+      <c r="I43" s="174"/>
+      <c r="J43" s="173"/>
       <c r="K43" s="77" t="s">
         <v>219</v>
       </c>
       <c r="L43" s="103" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
     </row>
     <row r="44" spans="1:13" ht="120">
@@ -7039,14 +7035,14 @@
       <c r="G44" s="202"/>
       <c r="H44" s="202"/>
       <c r="I44" s="44" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="J44" s="58"/>
       <c r="K44" s="42" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="L44" s="42" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
     </row>
     <row r="45" spans="1:13" ht="300" customHeight="1">
@@ -7060,27 +7056,27 @@
         <v>93</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="E45" s="32" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="F45" s="32" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="G45" s="32" t="s">
         <v>92</v>
       </c>
       <c r="H45" s="79" t="s">
-        <v>419</v>
-      </c>
-      <c r="I45" s="176"/>
-      <c r="J45" s="175"/>
+        <v>412</v>
+      </c>
+      <c r="I45" s="174"/>
+      <c r="J45" s="173"/>
       <c r="K45" s="42" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="L45" s="42" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
     </row>
     <row r="46" spans="1:13" ht="285">
@@ -7095,22 +7091,22 @@
       </c>
       <c r="D46" s="45"/>
       <c r="E46" s="100" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="F46" s="19" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="G46" s="19" t="s">
-        <v>418</v>
-      </c>
-      <c r="H46" s="176"/>
-      <c r="I46" s="177"/>
-      <c r="J46" s="175"/>
+        <v>411</v>
+      </c>
+      <c r="H46" s="174"/>
+      <c r="I46" s="175"/>
+      <c r="J46" s="173"/>
       <c r="K46" s="42" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="L46" s="42" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
     </row>
     <row r="47" spans="1:13" ht="240">
@@ -7121,19 +7117,19 @@
         <v>87</v>
       </c>
       <c r="C47" s="220"/>
-      <c r="D47" s="177"/>
+      <c r="D47" s="175"/>
       <c r="E47" s="44" t="s">
-        <v>232</v>
-      </c>
-      <c r="F47" s="176"/>
-      <c r="G47" s="177"/>
-      <c r="H47" s="177"/>
-      <c r="I47" s="175"/>
+        <v>231</v>
+      </c>
+      <c r="F47" s="174"/>
+      <c r="G47" s="175"/>
+      <c r="H47" s="175"/>
+      <c r="I47" s="173"/>
       <c r="J47" s="42" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="K47" s="42" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L47" s="42"/>
     </row>
@@ -7145,26 +7141,26 @@
         <v>85</v>
       </c>
       <c r="C48" s="35" t="s">
-        <v>320</v>
-      </c>
-      <c r="D48" s="172"/>
-      <c r="E48" s="173"/>
-      <c r="F48" s="173"/>
-      <c r="G48" s="174"/>
+        <v>314</v>
+      </c>
+      <c r="D48" s="170"/>
+      <c r="E48" s="171"/>
+      <c r="F48" s="171"/>
+      <c r="G48" s="172"/>
       <c r="H48" s="19" t="s">
         <v>178</v>
       </c>
       <c r="I48" s="24" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="J48" s="76" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="K48" s="42" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="L48" s="102" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="M48" s="7"/>
     </row>
@@ -7175,44 +7171,44 @@
       <c r="B49" s="200" t="s">
         <v>83</v>
       </c>
-      <c r="C49" s="215" t="s">
-        <v>319</v>
+      <c r="C49" s="217" t="s">
+        <v>313</v>
       </c>
       <c r="D49" s="202"/>
       <c r="E49" s="44" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="F49" s="202" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="G49" s="202"/>
       <c r="H49" s="189"/>
       <c r="I49" s="42" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="J49" s="42" t="s">
         <v>226</v>
       </c>
       <c r="K49" s="44" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="L49" s="11"/>
     </row>
     <row r="50" spans="1:12" ht="15" customHeight="1">
       <c r="A50" s="199"/>
       <c r="B50" s="201"/>
-      <c r="C50" s="167" t="s">
+      <c r="C50" s="165" t="s">
         <v>82</v>
       </c>
-      <c r="D50" s="168"/>
-      <c r="E50" s="168"/>
-      <c r="F50" s="168"/>
-      <c r="G50" s="168"/>
-      <c r="H50" s="168"/>
-      <c r="I50" s="168"/>
-      <c r="J50" s="168"/>
-      <c r="K50" s="168"/>
-      <c r="L50" s="169"/>
+      <c r="D50" s="166"/>
+      <c r="E50" s="166"/>
+      <c r="F50" s="166"/>
+      <c r="G50" s="166"/>
+      <c r="H50" s="166"/>
+      <c r="I50" s="166"/>
+      <c r="J50" s="166"/>
+      <c r="K50" s="166"/>
+      <c r="L50" s="167"/>
     </row>
     <row r="51" spans="1:12" ht="15" customHeight="1">
       <c r="A51" s="198" t="s">
@@ -7234,7 +7230,7 @@
       <c r="K51" s="205"/>
       <c r="L51" s="193"/>
     </row>
-    <row r="52" spans="1:12" ht="285" customHeight="1">
+    <row r="52" spans="1:12" ht="300" customHeight="1">
       <c r="A52" s="199"/>
       <c r="B52" s="204"/>
       <c r="C52" s="37" t="s">
@@ -7250,20 +7246,20 @@
         <v>196</v>
       </c>
       <c r="G52" s="29" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H52" s="38" t="s">
-        <v>227</v>
+        <v>538</v>
       </c>
       <c r="I52" s="44" t="s">
-        <v>329</v>
+        <v>539</v>
       </c>
       <c r="J52" s="213"/>
       <c r="K52" s="42" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L52" s="42" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
     </row>
     <row r="53" spans="1:12" ht="352.5" customHeight="1">
@@ -7286,20 +7282,20 @@
         <v>200</v>
       </c>
       <c r="G53" s="29" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H53" s="38" t="s">
         <v>201</v>
       </c>
       <c r="I53" s="44" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="J53" s="214"/>
       <c r="K53" s="42" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="L53" s="42" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
     </row>
     <row r="54" spans="1:12" ht="135" customHeight="1">
@@ -7316,7 +7312,7 @@
         <v>78</v>
       </c>
       <c r="E54" s="32" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="F54" s="32" t="s">
         <v>77</v>
@@ -7329,13 +7325,13 @@
       </c>
       <c r="I54" s="11"/>
       <c r="J54" s="44" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="K54" s="42" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="L54" s="36" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
     </row>
     <row r="55" spans="1:12" ht="30" customHeight="1">
@@ -7346,7 +7342,7 @@
         <v>74</v>
       </c>
       <c r="C55" s="219" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="D55" s="190"/>
       <c r="E55" s="190"/>
@@ -7361,31 +7357,31 @@
     <row r="56" spans="1:12" ht="195" customHeight="1">
       <c r="A56" s="199"/>
       <c r="B56" s="201"/>
-      <c r="C56" s="114" t="s">
+      <c r="C56" s="113" t="s">
+        <v>240</v>
+      </c>
+      <c r="D56" s="99" t="s">
+        <v>239</v>
+      </c>
+      <c r="E56" s="99" t="s">
+        <v>238</v>
+      </c>
+      <c r="F56" s="99" t="s">
+        <v>242</v>
+      </c>
+      <c r="G56" s="99" t="s">
         <v>241</v>
       </c>
-      <c r="D56" s="99" t="s">
-        <v>240</v>
-      </c>
-      <c r="E56" s="99" t="s">
-        <v>239</v>
-      </c>
-      <c r="F56" s="99" t="s">
-        <v>243</v>
-      </c>
-      <c r="G56" s="99" t="s">
-        <v>242</v>
-      </c>
-      <c r="H56" s="115" t="s">
-        <v>245</v>
+      <c r="H56" s="114" t="s">
+        <v>244</v>
       </c>
       <c r="I56" s="67"/>
       <c r="J56" s="99" t="s">
-        <v>244</v>
-      </c>
-      <c r="K56" s="117"/>
-      <c r="L56" s="119" t="s">
-        <v>421</v>
+        <v>243</v>
+      </c>
+      <c r="K56" s="116"/>
+      <c r="L56" s="117" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="57" spans="1:12" ht="30" customHeight="1">
@@ -7396,7 +7392,7 @@
         <v>72</v>
       </c>
       <c r="C57" s="219" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="D57" s="190"/>
       <c r="E57" s="190"/>
@@ -7411,27 +7407,27 @@
     <row r="58" spans="1:12" ht="326.25" customHeight="1">
       <c r="A58" s="199"/>
       <c r="B58" s="201"/>
-      <c r="C58" s="120" t="s">
-        <v>516</v>
+      <c r="C58" s="118" t="s">
+        <v>508</v>
       </c>
       <c r="D58" s="14"/>
-      <c r="E58" s="139" t="s">
-        <v>515</v>
-      </c>
-      <c r="F58" s="139" t="s">
-        <v>514</v>
+      <c r="E58" s="137" t="s">
+        <v>507</v>
+      </c>
+      <c r="F58" s="137" t="s">
+        <v>506</v>
       </c>
       <c r="G58" s="14"/>
       <c r="H58" s="36" t="s">
-        <v>513</v>
-      </c>
-      <c r="I58" s="109"/>
-      <c r="J58" s="118"/>
-      <c r="K58" s="119" t="s">
-        <v>238</v>
+        <v>505</v>
+      </c>
+      <c r="I58" s="180"/>
+      <c r="J58" s="181"/>
+      <c r="K58" s="117" t="s">
+        <v>237</v>
       </c>
       <c r="L58" s="97" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
     </row>
     <row r="59" spans="1:12" ht="195" customHeight="1">
@@ -7461,13 +7457,13 @@
       </c>
       <c r="I59" s="221"/>
       <c r="J59" s="42" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K59" s="42" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="L59" s="42" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
     </row>
     <row r="60" spans="1:12" ht="105" customHeight="1">
@@ -7497,13 +7493,13 @@
       </c>
       <c r="I60" s="214"/>
       <c r="J60" s="42" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="K60" s="42" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="L60" s="42" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
     </row>
     <row r="61" spans="1:12" ht="360">
@@ -7514,7 +7510,7 @@
         <v>52</v>
       </c>
       <c r="C61" s="20" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="D61" s="19" t="s">
         <v>183</v>
@@ -7522,17 +7518,17 @@
       <c r="E61" s="19" t="s">
         <v>182</v>
       </c>
-      <c r="F61" s="172"/>
-      <c r="G61" s="174"/>
+      <c r="F61" s="170"/>
+      <c r="G61" s="172"/>
       <c r="H61" s="25" t="s">
         <v>181</v>
       </c>
       <c r="I61" s="78" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="J61" s="213"/>
       <c r="K61" s="8" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="L61" s="104"/>
     </row>
@@ -7559,21 +7555,21 @@
         <v>45</v>
       </c>
       <c r="H62" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I62" s="44" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="J62" s="214"/>
       <c r="K62" s="42" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="L62" s="42" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="85">
+  <mergeCells count="86">
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="C20:L20"/>
     <mergeCell ref="C3:L3"/>
@@ -7639,12 +7635,12 @@
     <mergeCell ref="A51:A52"/>
     <mergeCell ref="B51:B52"/>
     <mergeCell ref="B55:B56"/>
-    <mergeCell ref="A49:A50"/>
     <mergeCell ref="B49:B50"/>
     <mergeCell ref="D48:G48"/>
     <mergeCell ref="C44:H44"/>
     <mergeCell ref="H46:J46"/>
     <mergeCell ref="I45:J45"/>
+    <mergeCell ref="I58:J58"/>
     <mergeCell ref="A35:A36"/>
     <mergeCell ref="B35:B36"/>
     <mergeCell ref="E36:G36"/>
@@ -7659,6 +7655,7 @@
     <mergeCell ref="C32:L32"/>
     <mergeCell ref="C35:L35"/>
     <mergeCell ref="C34:I34"/>
+    <mergeCell ref="A49:A50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7670,17 +7667,17 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:XFB56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomLeft" activeCell="A34" sqref="A34:A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20" style="2" customWidth="1"/>
     <col min="2" max="2" width="27.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5703125" style="147" customWidth="1"/>
+    <col min="3" max="3" width="8.5703125" style="145" customWidth="1"/>
     <col min="4" max="8" width="26.7109375" style="1" customWidth="1"/>
     <col min="9" max="11" width="27.140625" style="1" customWidth="1"/>
     <col min="12" max="12" width="27.5703125" style="1" customWidth="1"/>
@@ -7689,16 +7686,16 @@
   <sheetData>
     <row r="1" spans="1:14" s="16" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A1" s="59" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="B1" s="60" t="s">
-        <v>457</v>
-      </c>
-      <c r="C1" s="140" t="s">
-        <v>480</v>
+        <v>450</v>
+      </c>
+      <c r="C1" s="138" t="s">
+        <v>472</v>
       </c>
       <c r="D1" s="60" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="E1" s="60" t="s">
         <v>44</v>
@@ -7716,488 +7713,488 @@
         <v>40</v>
       </c>
       <c r="J1" s="60" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="K1" s="60" t="s">
+        <v>246</v>
+      </c>
+      <c r="L1" s="60" t="s">
         <v>247</v>
       </c>
-      <c r="L1" s="60" t="s">
-        <v>248</v>
-      </c>
       <c r="M1" s="60" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
     </row>
     <row r="2" spans="1:14" s="16" customFormat="1" ht="15" customHeight="1">
-      <c r="A2" s="275" t="s">
-        <v>393</v>
-      </c>
-      <c r="B2" s="273" t="s">
-        <v>394</v>
-      </c>
-      <c r="C2" s="141">
+      <c r="A2" s="271" t="s">
+        <v>386</v>
+      </c>
+      <c r="B2" s="269" t="s">
+        <v>387</v>
+      </c>
+      <c r="C2" s="139">
         <v>1</v>
       </c>
-      <c r="D2" s="270" t="s">
-        <v>395</v>
-      </c>
-      <c r="E2" s="270"/>
-      <c r="F2" s="270"/>
-      <c r="G2" s="270"/>
-      <c r="H2" s="270"/>
-      <c r="I2" s="270"/>
-      <c r="J2" s="270"/>
-      <c r="K2" s="270"/>
-      <c r="L2" s="270"/>
-      <c r="M2" s="271"/>
+      <c r="D2" s="266" t="s">
+        <v>388</v>
+      </c>
+      <c r="E2" s="266"/>
+      <c r="F2" s="266"/>
+      <c r="G2" s="266"/>
+      <c r="H2" s="266"/>
+      <c r="I2" s="266"/>
+      <c r="J2" s="266"/>
+      <c r="K2" s="266"/>
+      <c r="L2" s="266"/>
+      <c r="M2" s="267"/>
     </row>
     <row r="3" spans="1:14" s="16" customFormat="1" ht="15" customHeight="1">
-      <c r="A3" s="246"/>
-      <c r="B3" s="265"/>
-      <c r="C3" s="142">
+      <c r="A3" s="242"/>
+      <c r="B3" s="261"/>
+      <c r="C3" s="140">
         <v>2</v>
       </c>
-      <c r="D3" s="272" t="s">
-        <v>539</v>
-      </c>
-      <c r="E3" s="272"/>
-      <c r="F3" s="272"/>
-      <c r="G3" s="272"/>
-      <c r="H3" s="272"/>
-      <c r="I3" s="272"/>
-      <c r="J3" s="272"/>
-      <c r="K3" s="272"/>
-      <c r="L3" s="272"/>
-      <c r="M3" s="272"/>
+      <c r="D3" s="268" t="s">
+        <v>528</v>
+      </c>
+      <c r="E3" s="268"/>
+      <c r="F3" s="268"/>
+      <c r="G3" s="268"/>
+      <c r="H3" s="268"/>
+      <c r="I3" s="268"/>
+      <c r="J3" s="268"/>
+      <c r="K3" s="268"/>
+      <c r="L3" s="268"/>
+      <c r="M3" s="268"/>
       <c r="N3" s="86"/>
     </row>
     <row r="4" spans="1:14" s="16" customFormat="1" ht="120" customHeight="1">
-      <c r="A4" s="246"/>
-      <c r="B4" s="265"/>
-      <c r="C4" s="142">
+      <c r="A4" s="242"/>
+      <c r="B4" s="261"/>
+      <c r="C4" s="140">
         <v>3</v>
       </c>
       <c r="D4" s="107" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="E4" s="94" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="F4" s="94" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="G4" s="44" t="s">
-        <v>398</v>
-      </c>
-      <c r="H4" s="112" t="s">
-        <v>463</v>
+        <v>391</v>
+      </c>
+      <c r="H4" s="111" t="s">
+        <v>456</v>
       </c>
       <c r="I4" s="46"/>
       <c r="J4" s="107" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="K4" s="46"/>
       <c r="L4" s="94" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="M4" s="94" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="90" customHeight="1">
-      <c r="A5" s="276"/>
-      <c r="B5" s="274"/>
-      <c r="C5" s="148">
+      <c r="A5" s="272"/>
+      <c r="B5" s="270"/>
+      <c r="C5" s="146">
         <v>4</v>
       </c>
-      <c r="D5" s="257"/>
-      <c r="E5" s="257"/>
-      <c r="F5" s="257"/>
-      <c r="G5" s="257"/>
-      <c r="H5" s="257"/>
-      <c r="I5" s="257"/>
-      <c r="J5" s="257"/>
-      <c r="K5" s="257"/>
+      <c r="D5" s="253"/>
+      <c r="E5" s="253"/>
+      <c r="F5" s="253"/>
+      <c r="G5" s="253"/>
+      <c r="H5" s="253"/>
+      <c r="I5" s="253"/>
+      <c r="J5" s="253"/>
+      <c r="K5" s="253"/>
       <c r="L5" s="212"/>
       <c r="M5" s="44" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
     </row>
     <row r="6" spans="1:14" s="16" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="246" t="s">
+      <c r="A6" s="242" t="s">
         <v>171</v>
       </c>
-      <c r="B6" s="265" t="s">
-        <v>263</v>
-      </c>
-      <c r="C6" s="149">
+      <c r="B6" s="261" t="s">
+        <v>261</v>
+      </c>
+      <c r="C6" s="147">
         <v>1</v>
       </c>
-      <c r="D6" s="259" t="s">
-        <v>287</v>
-      </c>
-      <c r="E6" s="259"/>
-      <c r="F6" s="259"/>
-      <c r="G6" s="259"/>
-      <c r="H6" s="259"/>
-      <c r="I6" s="259"/>
-      <c r="J6" s="259"/>
-      <c r="K6" s="259"/>
-      <c r="L6" s="259"/>
-      <c r="M6" s="260"/>
+      <c r="D6" s="255" t="s">
+        <v>285</v>
+      </c>
+      <c r="E6" s="255"/>
+      <c r="F6" s="255"/>
+      <c r="G6" s="255"/>
+      <c r="H6" s="255"/>
+      <c r="I6" s="255"/>
+      <c r="J6" s="255"/>
+      <c r="K6" s="255"/>
+      <c r="L6" s="255"/>
+      <c r="M6" s="256"/>
     </row>
     <row r="7" spans="1:14" s="16" customFormat="1" ht="15" customHeight="1">
-      <c r="A7" s="246"/>
-      <c r="B7" s="265"/>
-      <c r="C7" s="142">
+      <c r="A7" s="242"/>
+      <c r="B7" s="261"/>
+      <c r="C7" s="140">
         <v>2</v>
       </c>
-      <c r="D7" s="261" t="s">
-        <v>488</v>
-      </c>
-      <c r="E7" s="261"/>
-      <c r="F7" s="261"/>
-      <c r="G7" s="261"/>
-      <c r="H7" s="261"/>
-      <c r="I7" s="261"/>
-      <c r="J7" s="261"/>
-      <c r="K7" s="261"/>
-      <c r="L7" s="261"/>
-      <c r="M7" s="262"/>
+      <c r="D7" s="257" t="s">
+        <v>480</v>
+      </c>
+      <c r="E7" s="257"/>
+      <c r="F7" s="257"/>
+      <c r="G7" s="257"/>
+      <c r="H7" s="257"/>
+      <c r="I7" s="257"/>
+      <c r="J7" s="257"/>
+      <c r="K7" s="257"/>
+      <c r="L7" s="257"/>
+      <c r="M7" s="258"/>
     </row>
     <row r="8" spans="1:14" s="16" customFormat="1" ht="105" customHeight="1">
-      <c r="A8" s="246"/>
-      <c r="B8" s="265"/>
-      <c r="C8" s="142">
+      <c r="A8" s="242"/>
+      <c r="B8" s="261"/>
+      <c r="C8" s="140">
         <v>3</v>
       </c>
       <c r="D8" s="107" t="s">
-        <v>378</v>
-      </c>
-      <c r="E8" s="134" t="s">
-        <v>508</v>
-      </c>
-      <c r="F8" s="126" t="s">
-        <v>464</v>
-      </c>
-      <c r="G8" s="112" t="s">
-        <v>361</v>
-      </c>
-      <c r="H8" s="112" t="s">
-        <v>481</v>
-      </c>
-      <c r="I8" s="112"/>
-      <c r="J8" s="111" t="s">
-        <v>376</v>
-      </c>
-      <c r="K8" s="112"/>
-      <c r="L8" s="110" t="s">
-        <v>297</v>
-      </c>
-      <c r="M8" s="123" t="s">
-        <v>441</v>
+        <v>371</v>
+      </c>
+      <c r="E8" s="132" t="s">
+        <v>500</v>
+      </c>
+      <c r="F8" s="124" t="s">
+        <v>457</v>
+      </c>
+      <c r="G8" s="111" t="s">
+        <v>354</v>
+      </c>
+      <c r="H8" s="111" t="s">
+        <v>473</v>
+      </c>
+      <c r="I8" s="111"/>
+      <c r="J8" s="110" t="s">
+        <v>369</v>
+      </c>
+      <c r="K8" s="111"/>
+      <c r="L8" s="109" t="s">
+        <v>292</v>
+      </c>
+      <c r="M8" s="121" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="75" customHeight="1">
-      <c r="A9" s="276"/>
-      <c r="B9" s="274"/>
-      <c r="C9" s="143">
+      <c r="A9" s="272"/>
+      <c r="B9" s="270"/>
+      <c r="C9" s="141">
         <v>4</v>
       </c>
-      <c r="D9" s="257"/>
+      <c r="D9" s="253"/>
       <c r="E9" s="212"/>
       <c r="F9" s="106" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="G9" s="211"/>
-      <c r="H9" s="257"/>
-      <c r="I9" s="257"/>
-      <c r="J9" s="257"/>
-      <c r="K9" s="257"/>
-      <c r="L9" s="257"/>
+      <c r="H9" s="253"/>
+      <c r="I9" s="253"/>
+      <c r="J9" s="253"/>
+      <c r="K9" s="253"/>
+      <c r="L9" s="253"/>
       <c r="M9" s="212"/>
     </row>
     <row r="10" spans="1:14" s="16" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="277" t="s">
+      <c r="A10" s="273" t="s">
         <v>170</v>
       </c>
-      <c r="B10" s="278" t="s">
-        <v>264</v>
-      </c>
-      <c r="C10" s="149">
+      <c r="B10" s="274" t="s">
+        <v>262</v>
+      </c>
+      <c r="C10" s="147">
         <v>1</v>
       </c>
-      <c r="D10" s="259" t="s">
-        <v>286</v>
-      </c>
-      <c r="E10" s="259"/>
-      <c r="F10" s="259"/>
-      <c r="G10" s="259"/>
-      <c r="H10" s="259"/>
-      <c r="I10" s="259"/>
-      <c r="J10" s="259"/>
-      <c r="K10" s="259"/>
-      <c r="L10" s="259"/>
-      <c r="M10" s="260"/>
+      <c r="D10" s="255" t="s">
+        <v>284</v>
+      </c>
+      <c r="E10" s="255"/>
+      <c r="F10" s="255"/>
+      <c r="G10" s="255"/>
+      <c r="H10" s="255"/>
+      <c r="I10" s="255"/>
+      <c r="J10" s="255"/>
+      <c r="K10" s="255"/>
+      <c r="L10" s="255"/>
+      <c r="M10" s="256"/>
     </row>
     <row r="11" spans="1:14" s="16" customFormat="1" ht="15" customHeight="1">
-      <c r="A11" s="246"/>
-      <c r="B11" s="265"/>
-      <c r="C11" s="142">
+      <c r="A11" s="242"/>
+      <c r="B11" s="261"/>
+      <c r="C11" s="140">
         <v>2</v>
       </c>
-      <c r="D11" s="261" t="s">
-        <v>489</v>
-      </c>
-      <c r="E11" s="261"/>
-      <c r="F11" s="261"/>
-      <c r="G11" s="261"/>
-      <c r="H11" s="261"/>
-      <c r="I11" s="261"/>
-      <c r="J11" s="261"/>
-      <c r="K11" s="261"/>
-      <c r="L11" s="261"/>
-      <c r="M11" s="262"/>
+      <c r="D11" s="257" t="s">
+        <v>481</v>
+      </c>
+      <c r="E11" s="257"/>
+      <c r="F11" s="257"/>
+      <c r="G11" s="257"/>
+      <c r="H11" s="257"/>
+      <c r="I11" s="257"/>
+      <c r="J11" s="257"/>
+      <c r="K11" s="257"/>
+      <c r="L11" s="257"/>
+      <c r="M11" s="258"/>
     </row>
     <row r="12" spans="1:14" s="16" customFormat="1" ht="105" customHeight="1">
-      <c r="A12" s="246"/>
-      <c r="B12" s="265"/>
-      <c r="C12" s="142">
+      <c r="A12" s="242"/>
+      <c r="B12" s="261"/>
+      <c r="C12" s="140">
         <v>3</v>
       </c>
       <c r="D12" s="90" t="s">
-        <v>377</v>
-      </c>
-      <c r="E12" s="134" t="s">
-        <v>510</v>
+        <v>370</v>
+      </c>
+      <c r="E12" s="132" t="s">
+        <v>502</v>
       </c>
       <c r="F12" s="46" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="G12" s="44" t="s">
-        <v>360</v>
-      </c>
-      <c r="H12" s="112" t="s">
-        <v>482</v>
+        <v>353</v>
+      </c>
+      <c r="H12" s="111" t="s">
+        <v>474</v>
       </c>
       <c r="I12" s="94"/>
-      <c r="J12" s="111" t="s">
-        <v>375</v>
-      </c>
-      <c r="K12" s="110"/>
-      <c r="L12" s="110" t="s">
-        <v>296</v>
-      </c>
-      <c r="M12" s="123" t="s">
-        <v>452</v>
+      <c r="J12" s="110" t="s">
+        <v>368</v>
+      </c>
+      <c r="K12" s="109"/>
+      <c r="L12" s="109" t="s">
+        <v>291</v>
+      </c>
+      <c r="M12" s="121" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="90" customHeight="1">
-      <c r="A13" s="163"/>
-      <c r="B13" s="242"/>
-      <c r="C13" s="143">
+      <c r="A13" s="161"/>
+      <c r="B13" s="216"/>
+      <c r="C13" s="141">
         <v>4</v>
       </c>
-      <c r="D13" s="257"/>
-      <c r="E13" s="257"/>
-      <c r="F13" s="257"/>
-      <c r="G13" s="257"/>
+      <c r="D13" s="253"/>
+      <c r="E13" s="253"/>
+      <c r="F13" s="253"/>
+      <c r="G13" s="253"/>
       <c r="H13" s="212"/>
       <c r="I13" s="97" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="J13" s="211"/>
-      <c r="K13" s="257"/>
-      <c r="L13" s="257"/>
+      <c r="K13" s="253"/>
+      <c r="L13" s="253"/>
       <c r="M13" s="212"/>
     </row>
     <row r="14" spans="1:14" s="16" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="162" t="s">
+      <c r="A14" s="160" t="s">
         <v>169</v>
       </c>
-      <c r="B14" s="241" t="s">
-        <v>265</v>
-      </c>
-      <c r="C14" s="149">
+      <c r="B14" s="215" t="s">
+        <v>263</v>
+      </c>
+      <c r="C14" s="147">
         <v>1</v>
       </c>
-      <c r="D14" s="259" t="s">
-        <v>285</v>
-      </c>
-      <c r="E14" s="259"/>
-      <c r="F14" s="259"/>
-      <c r="G14" s="259"/>
-      <c r="H14" s="259"/>
-      <c r="I14" s="259"/>
-      <c r="J14" s="259"/>
-      <c r="K14" s="259"/>
-      <c r="L14" s="259"/>
-      <c r="M14" s="260"/>
+      <c r="D14" s="255" t="s">
+        <v>283</v>
+      </c>
+      <c r="E14" s="255"/>
+      <c r="F14" s="255"/>
+      <c r="G14" s="255"/>
+      <c r="H14" s="255"/>
+      <c r="I14" s="255"/>
+      <c r="J14" s="255"/>
+      <c r="K14" s="255"/>
+      <c r="L14" s="255"/>
+      <c r="M14" s="256"/>
     </row>
     <row r="15" spans="1:14" s="16" customFormat="1" ht="15" customHeight="1">
-      <c r="A15" s="246"/>
-      <c r="B15" s="265"/>
-      <c r="C15" s="142">
+      <c r="A15" s="242"/>
+      <c r="B15" s="261"/>
+      <c r="C15" s="140">
         <v>2</v>
       </c>
-      <c r="D15" s="261" t="s">
-        <v>490</v>
-      </c>
-      <c r="E15" s="261"/>
-      <c r="F15" s="261"/>
-      <c r="G15" s="261"/>
-      <c r="H15" s="261"/>
-      <c r="I15" s="261"/>
-      <c r="J15" s="261"/>
-      <c r="K15" s="261"/>
-      <c r="L15" s="261"/>
-      <c r="M15" s="262"/>
+      <c r="D15" s="257" t="s">
+        <v>482</v>
+      </c>
+      <c r="E15" s="257"/>
+      <c r="F15" s="257"/>
+      <c r="G15" s="257"/>
+      <c r="H15" s="257"/>
+      <c r="I15" s="257"/>
+      <c r="J15" s="257"/>
+      <c r="K15" s="257"/>
+      <c r="L15" s="257"/>
+      <c r="M15" s="258"/>
     </row>
     <row r="16" spans="1:14" s="16" customFormat="1" ht="105" customHeight="1">
-      <c r="A16" s="246"/>
-      <c r="B16" s="265"/>
-      <c r="C16" s="142">
+      <c r="A16" s="242"/>
+      <c r="B16" s="261"/>
+      <c r="C16" s="140">
         <v>3</v>
       </c>
       <c r="D16" s="90" t="s">
-        <v>438</v>
-      </c>
-      <c r="E16" s="134" t="s">
-        <v>509</v>
+        <v>431</v>
+      </c>
+      <c r="E16" s="132" t="s">
+        <v>501</v>
       </c>
       <c r="F16" s="46" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="G16" s="44" t="s">
-        <v>437</v>
-      </c>
-      <c r="H16" s="112" t="s">
-        <v>461</v>
-      </c>
-      <c r="I16" s="110"/>
-      <c r="J16" s="111" t="s">
-        <v>439</v>
-      </c>
-      <c r="K16" s="110"/>
-      <c r="L16" s="110" t="s">
+        <v>430</v>
+      </c>
+      <c r="H16" s="111" t="s">
+        <v>454</v>
+      </c>
+      <c r="I16" s="109"/>
+      <c r="J16" s="110" t="s">
         <v>432</v>
       </c>
-      <c r="M16" s="123" t="s">
-        <v>451</v>
+      <c r="K16" s="109"/>
+      <c r="L16" s="109" t="s">
+        <v>425</v>
+      </c>
+      <c r="M16" s="121" t="s">
+        <v>444</v>
       </c>
     </row>
     <row r="17" spans="1:16382" ht="75" customHeight="1">
-      <c r="A17" s="163"/>
-      <c r="B17" s="242"/>
-      <c r="C17" s="143">
+      <c r="A17" s="161"/>
+      <c r="B17" s="216"/>
+      <c r="C17" s="141">
         <v>4</v>
       </c>
-      <c r="D17" s="257"/>
-      <c r="E17" s="257"/>
+      <c r="D17" s="253"/>
+      <c r="E17" s="253"/>
       <c r="F17" s="212"/>
       <c r="G17" s="97" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H17" s="211"/>
-      <c r="I17" s="257"/>
-      <c r="J17" s="257"/>
-      <c r="K17" s="257"/>
-      <c r="L17" s="257"/>
+      <c r="I17" s="253"/>
+      <c r="J17" s="253"/>
+      <c r="K17" s="253"/>
+      <c r="L17" s="253"/>
       <c r="M17" s="212"/>
     </row>
     <row r="18" spans="1:16382" s="16" customFormat="1" ht="15" customHeight="1">
-      <c r="A18" s="162" t="s">
+      <c r="A18" s="160" t="s">
         <v>168</v>
       </c>
-      <c r="B18" s="241" t="s">
-        <v>266</v>
-      </c>
-      <c r="C18" s="149">
+      <c r="B18" s="215" t="s">
+        <v>264</v>
+      </c>
+      <c r="C18" s="147">
         <v>1</v>
       </c>
-      <c r="D18" s="259" t="s">
-        <v>436</v>
-      </c>
-      <c r="E18" s="259"/>
-      <c r="F18" s="259"/>
-      <c r="G18" s="259"/>
-      <c r="H18" s="259"/>
-      <c r="I18" s="259"/>
-      <c r="J18" s="259"/>
-      <c r="K18" s="259"/>
-      <c r="L18" s="259"/>
-      <c r="M18" s="260"/>
+      <c r="D18" s="255" t="s">
+        <v>429</v>
+      </c>
+      <c r="E18" s="255"/>
+      <c r="F18" s="255"/>
+      <c r="G18" s="255"/>
+      <c r="H18" s="255"/>
+      <c r="I18" s="255"/>
+      <c r="J18" s="255"/>
+      <c r="K18" s="255"/>
+      <c r="L18" s="255"/>
+      <c r="M18" s="256"/>
     </row>
     <row r="19" spans="1:16382" s="16" customFormat="1" ht="15" customHeight="1">
-      <c r="A19" s="246"/>
-      <c r="B19" s="265"/>
-      <c r="C19" s="142">
+      <c r="A19" s="242"/>
+      <c r="B19" s="261"/>
+      <c r="C19" s="140">
         <v>2</v>
       </c>
-      <c r="D19" s="261" t="s">
-        <v>491</v>
-      </c>
-      <c r="E19" s="261"/>
-      <c r="F19" s="261"/>
-      <c r="G19" s="261"/>
-      <c r="H19" s="261"/>
-      <c r="I19" s="261"/>
-      <c r="J19" s="261"/>
-      <c r="K19" s="261"/>
-      <c r="L19" s="261"/>
-      <c r="M19" s="262"/>
+      <c r="D19" s="257" t="s">
+        <v>483</v>
+      </c>
+      <c r="E19" s="257"/>
+      <c r="F19" s="257"/>
+      <c r="G19" s="257"/>
+      <c r="H19" s="257"/>
+      <c r="I19" s="257"/>
+      <c r="J19" s="257"/>
+      <c r="K19" s="257"/>
+      <c r="L19" s="257"/>
+      <c r="M19" s="258"/>
     </row>
     <row r="20" spans="1:16382" s="16" customFormat="1" ht="105" customHeight="1">
-      <c r="A20" s="246"/>
-      <c r="B20" s="265"/>
-      <c r="C20" s="142">
+      <c r="A20" s="242"/>
+      <c r="B20" s="261"/>
+      <c r="C20" s="140">
         <v>3</v>
       </c>
       <c r="D20" s="90" t="s">
-        <v>428</v>
-      </c>
-      <c r="E20" s="134" t="s">
-        <v>511</v>
-      </c>
-      <c r="F20" s="110" t="s">
-        <v>467</v>
-      </c>
-      <c r="G20" s="110" t="s">
-        <v>429</v>
-      </c>
-      <c r="H20" s="112" t="s">
-        <v>483</v>
-      </c>
-      <c r="I20" s="110"/>
-      <c r="J20" s="111" t="s">
-        <v>430</v>
-      </c>
-      <c r="K20" s="110"/>
-      <c r="L20" s="110" t="s">
-        <v>431</v>
-      </c>
-      <c r="M20" s="123" t="s">
-        <v>450</v>
+        <v>421</v>
+      </c>
+      <c r="E20" s="132" t="s">
+        <v>503</v>
+      </c>
+      <c r="F20" s="109" t="s">
+        <v>460</v>
+      </c>
+      <c r="G20" s="109" t="s">
+        <v>422</v>
+      </c>
+      <c r="H20" s="111" t="s">
+        <v>475</v>
+      </c>
+      <c r="I20" s="109"/>
+      <c r="J20" s="110" t="s">
+        <v>423</v>
+      </c>
+      <c r="K20" s="109"/>
+      <c r="L20" s="109" t="s">
+        <v>424</v>
+      </c>
+      <c r="M20" s="121" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="21" spans="1:16382" s="65" customFormat="1" ht="60" customHeight="1">
-      <c r="A21" s="269"/>
-      <c r="B21" s="266"/>
-      <c r="C21" s="143">
+      <c r="A21" s="265"/>
+      <c r="B21" s="262"/>
+      <c r="C21" s="141">
         <v>4</v>
       </c>
       <c r="D21" s="95"/>
-      <c r="E21" s="121" t="s">
-        <v>365</v>
-      </c>
-      <c r="F21" s="280"/>
-      <c r="G21" s="281"/>
-      <c r="H21" s="281"/>
-      <c r="I21" s="281"/>
-      <c r="J21" s="281"/>
-      <c r="K21" s="281"/>
-      <c r="L21" s="281"/>
-      <c r="M21" s="282"/>
+      <c r="E21" s="119" t="s">
+        <v>358</v>
+      </c>
+      <c r="F21" s="276"/>
+      <c r="G21" s="277"/>
+      <c r="H21" s="277"/>
+      <c r="I21" s="277"/>
+      <c r="J21" s="277"/>
+      <c r="K21" s="277"/>
+      <c r="L21" s="277"/>
+      <c r="M21" s="278"/>
       <c r="N21" s="68"/>
       <c r="O21" s="68"/>
       <c r="P21" s="68"/>
@@ -24569,409 +24566,409 @@
       <c r="XFB21" s="68"/>
     </row>
     <row r="22" spans="1:16382" s="66" customFormat="1" ht="15" customHeight="1">
-      <c r="A22" s="268" t="s">
+      <c r="A22" s="264" t="s">
         <v>167</v>
       </c>
-      <c r="B22" s="267" t="s">
-        <v>444</v>
-      </c>
-      <c r="C22" s="149">
+      <c r="B22" s="263" t="s">
+        <v>437</v>
+      </c>
+      <c r="C22" s="147">
         <v>1</v>
       </c>
-      <c r="D22" s="261" t="s">
-        <v>284</v>
-      </c>
-      <c r="E22" s="261"/>
-      <c r="F22" s="261"/>
-      <c r="G22" s="261"/>
-      <c r="H22" s="261"/>
-      <c r="I22" s="261"/>
-      <c r="J22" s="261"/>
-      <c r="K22" s="261"/>
-      <c r="L22" s="261"/>
-      <c r="M22" s="262"/>
+      <c r="D22" s="257" t="s">
+        <v>282</v>
+      </c>
+      <c r="E22" s="257"/>
+      <c r="F22" s="257"/>
+      <c r="G22" s="257"/>
+      <c r="H22" s="257"/>
+      <c r="I22" s="257"/>
+      <c r="J22" s="257"/>
+      <c r="K22" s="257"/>
+      <c r="L22" s="257"/>
+      <c r="M22" s="258"/>
     </row>
     <row r="23" spans="1:16382" s="66" customFormat="1" ht="15" customHeight="1">
-      <c r="A23" s="254"/>
+      <c r="A23" s="250"/>
       <c r="B23" s="185"/>
-      <c r="C23" s="142">
+      <c r="C23" s="140">
         <v>2</v>
       </c>
-      <c r="D23" s="261" t="s">
-        <v>492</v>
-      </c>
-      <c r="E23" s="261"/>
-      <c r="F23" s="261"/>
-      <c r="G23" s="261"/>
-      <c r="H23" s="261"/>
-      <c r="I23" s="261"/>
-      <c r="J23" s="261"/>
-      <c r="K23" s="261"/>
-      <c r="L23" s="261"/>
-      <c r="M23" s="262"/>
+      <c r="D23" s="257" t="s">
+        <v>484</v>
+      </c>
+      <c r="E23" s="257"/>
+      <c r="F23" s="257"/>
+      <c r="G23" s="257"/>
+      <c r="H23" s="257"/>
+      <c r="I23" s="257"/>
+      <c r="J23" s="257"/>
+      <c r="K23" s="257"/>
+      <c r="L23" s="257"/>
+      <c r="M23" s="258"/>
     </row>
     <row r="24" spans="1:16382" s="66" customFormat="1" ht="105" customHeight="1">
-      <c r="A24" s="254"/>
+      <c r="A24" s="250"/>
       <c r="B24" s="185"/>
-      <c r="C24" s="142">
+      <c r="C24" s="140">
         <v>3</v>
       </c>
       <c r="D24" s="93" t="s">
-        <v>380</v>
-      </c>
-      <c r="E24" s="134"/>
-      <c r="F24" s="110" t="s">
-        <v>469</v>
-      </c>
-      <c r="G24" s="110" t="s">
-        <v>364</v>
-      </c>
-      <c r="H24" s="110" t="s">
-        <v>484</v>
-      </c>
-      <c r="I24" s="110"/>
-      <c r="J24" s="111" t="s">
-        <v>379</v>
-      </c>
-      <c r="K24" s="110"/>
-      <c r="L24" s="110" t="s">
-        <v>295</v>
-      </c>
-      <c r="M24" s="123" t="s">
-        <v>449</v>
+        <v>373</v>
+      </c>
+      <c r="E24" s="132"/>
+      <c r="F24" s="109" t="s">
+        <v>462</v>
+      </c>
+      <c r="G24" s="109" t="s">
+        <v>357</v>
+      </c>
+      <c r="H24" s="109" t="s">
+        <v>476</v>
+      </c>
+      <c r="I24" s="109"/>
+      <c r="J24" s="110" t="s">
+        <v>372</v>
+      </c>
+      <c r="K24" s="109"/>
+      <c r="L24" s="109" t="s">
+        <v>290</v>
+      </c>
+      <c r="M24" s="121" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="25" spans="1:16382" s="68" customFormat="1" ht="90" customHeight="1">
-      <c r="A25" s="258"/>
-      <c r="B25" s="171"/>
-      <c r="C25" s="143">
+      <c r="A25" s="254"/>
+      <c r="B25" s="169"/>
+      <c r="C25" s="141">
         <v>4</v>
       </c>
       <c r="D25" s="96" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="E25" s="211"/>
-      <c r="F25" s="257"/>
-      <c r="G25" s="257"/>
-      <c r="H25" s="257"/>
-      <c r="I25" s="257"/>
-      <c r="J25" s="257"/>
-      <c r="K25" s="257"/>
-      <c r="L25" s="257"/>
+      <c r="F25" s="253"/>
+      <c r="G25" s="253"/>
+      <c r="H25" s="253"/>
+      <c r="I25" s="253"/>
+      <c r="J25" s="253"/>
+      <c r="K25" s="253"/>
+      <c r="L25" s="253"/>
       <c r="M25" s="212"/>
     </row>
     <row r="26" spans="1:16382" s="16" customFormat="1" ht="15" customHeight="1">
-      <c r="A26" s="256" t="s">
+      <c r="A26" s="252" t="s">
         <v>166</v>
       </c>
-      <c r="B26" s="170" t="s">
-        <v>445</v>
-      </c>
-      <c r="C26" s="149">
+      <c r="B26" s="168" t="s">
+        <v>438</v>
+      </c>
+      <c r="C26" s="147">
         <v>1</v>
       </c>
-      <c r="D26" s="259" t="s">
-        <v>283</v>
-      </c>
-      <c r="E26" s="259"/>
-      <c r="F26" s="259"/>
-      <c r="G26" s="259"/>
-      <c r="H26" s="259"/>
-      <c r="I26" s="259"/>
-      <c r="J26" s="259"/>
-      <c r="K26" s="259"/>
-      <c r="L26" s="259"/>
-      <c r="M26" s="260"/>
+      <c r="D26" s="255" t="s">
+        <v>281</v>
+      </c>
+      <c r="E26" s="255"/>
+      <c r="F26" s="255"/>
+      <c r="G26" s="255"/>
+      <c r="H26" s="255"/>
+      <c r="I26" s="255"/>
+      <c r="J26" s="255"/>
+      <c r="K26" s="255"/>
+      <c r="L26" s="255"/>
+      <c r="M26" s="256"/>
     </row>
     <row r="27" spans="1:16382" s="16" customFormat="1" ht="15" customHeight="1">
-      <c r="A27" s="254"/>
+      <c r="A27" s="250"/>
       <c r="B27" s="185"/>
-      <c r="C27" s="142">
+      <c r="C27" s="140">
         <v>2</v>
       </c>
-      <c r="D27" s="261" t="s">
-        <v>493</v>
-      </c>
-      <c r="E27" s="261"/>
-      <c r="F27" s="261"/>
-      <c r="G27" s="261"/>
-      <c r="H27" s="261"/>
-      <c r="I27" s="261"/>
-      <c r="J27" s="261"/>
-      <c r="K27" s="261"/>
-      <c r="L27" s="261"/>
-      <c r="M27" s="262"/>
+      <c r="D27" s="257" t="s">
+        <v>485</v>
+      </c>
+      <c r="E27" s="257"/>
+      <c r="F27" s="257"/>
+      <c r="G27" s="257"/>
+      <c r="H27" s="257"/>
+      <c r="I27" s="257"/>
+      <c r="J27" s="257"/>
+      <c r="K27" s="257"/>
+      <c r="L27" s="257"/>
+      <c r="M27" s="258"/>
     </row>
     <row r="28" spans="1:16382" s="16" customFormat="1" ht="105" customHeight="1">
-      <c r="A28" s="254"/>
+      <c r="A28" s="250"/>
       <c r="B28" s="185"/>
-      <c r="C28" s="142">
+      <c r="C28" s="140">
         <v>3</v>
       </c>
       <c r="D28" s="93" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="E28" s="94"/>
-      <c r="F28" s="110" t="s">
-        <v>470</v>
+      <c r="F28" s="109" t="s">
+        <v>463</v>
       </c>
       <c r="G28" s="94" t="s">
-        <v>363</v>
-      </c>
-      <c r="H28" s="126" t="s">
-        <v>485</v>
-      </c>
-      <c r="I28" s="110"/>
-      <c r="J28" s="110" t="s">
-        <v>382</v>
-      </c>
-      <c r="K28" s="110"/>
-      <c r="L28" s="110"/>
-      <c r="M28" s="123" t="s">
-        <v>448</v>
+        <v>356</v>
+      </c>
+      <c r="H28" s="124" t="s">
+        <v>477</v>
+      </c>
+      <c r="I28" s="109"/>
+      <c r="J28" s="109" t="s">
+        <v>375</v>
+      </c>
+      <c r="K28" s="109"/>
+      <c r="L28" s="109"/>
+      <c r="M28" s="121" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="29" spans="1:16382" ht="60" customHeight="1">
-      <c r="A29" s="258"/>
-      <c r="B29" s="171"/>
-      <c r="C29" s="143">
+      <c r="A29" s="254"/>
+      <c r="B29" s="169"/>
+      <c r="C29" s="141">
         <v>4</v>
       </c>
-      <c r="D29" s="257"/>
-      <c r="E29" s="257"/>
-      <c r="F29" s="257"/>
+      <c r="D29" s="253"/>
+      <c r="E29" s="253"/>
+      <c r="F29" s="253"/>
       <c r="G29" s="212"/>
       <c r="H29" s="88" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="I29" s="211"/>
-      <c r="J29" s="257"/>
-      <c r="K29" s="257"/>
-      <c r="L29" s="257"/>
+      <c r="J29" s="253"/>
+      <c r="K29" s="253"/>
+      <c r="L29" s="253"/>
       <c r="M29" s="212"/>
     </row>
     <row r="30" spans="1:16382" s="16" customFormat="1" ht="15" customHeight="1">
-      <c r="A30" s="256" t="s">
-        <v>273</v>
-      </c>
-      <c r="B30" s="170" t="s">
-        <v>446</v>
-      </c>
-      <c r="C30" s="149">
+      <c r="A30" s="252" t="s">
+        <v>271</v>
+      </c>
+      <c r="B30" s="168" t="s">
+        <v>439</v>
+      </c>
+      <c r="C30" s="147">
         <v>1</v>
       </c>
-      <c r="D30" s="259" t="s">
-        <v>293</v>
-      </c>
-      <c r="E30" s="259"/>
-      <c r="F30" s="259"/>
-      <c r="G30" s="259"/>
-      <c r="H30" s="259"/>
-      <c r="I30" s="259"/>
-      <c r="J30" s="259"/>
-      <c r="K30" s="259"/>
-      <c r="L30" s="259"/>
-      <c r="M30" s="260"/>
+      <c r="D30" s="255" t="s">
+        <v>289</v>
+      </c>
+      <c r="E30" s="255"/>
+      <c r="F30" s="255"/>
+      <c r="G30" s="255"/>
+      <c r="H30" s="255"/>
+      <c r="I30" s="255"/>
+      <c r="J30" s="255"/>
+      <c r="K30" s="255"/>
+      <c r="L30" s="255"/>
+      <c r="M30" s="256"/>
     </row>
     <row r="31" spans="1:16382" s="16" customFormat="1" ht="15" customHeight="1">
-      <c r="A31" s="254"/>
+      <c r="A31" s="250"/>
       <c r="B31" s="185"/>
-      <c r="C31" s="142">
+      <c r="C31" s="140">
         <v>2</v>
       </c>
-      <c r="D31" s="261" t="s">
-        <v>494</v>
-      </c>
-      <c r="E31" s="261"/>
-      <c r="F31" s="261"/>
-      <c r="G31" s="261"/>
-      <c r="H31" s="261"/>
-      <c r="I31" s="261"/>
-      <c r="J31" s="261"/>
-      <c r="K31" s="261"/>
-      <c r="L31" s="261"/>
-      <c r="M31" s="262"/>
+      <c r="D31" s="257" t="s">
+        <v>486</v>
+      </c>
+      <c r="E31" s="257"/>
+      <c r="F31" s="257"/>
+      <c r="G31" s="257"/>
+      <c r="H31" s="257"/>
+      <c r="I31" s="257"/>
+      <c r="J31" s="257"/>
+      <c r="K31" s="257"/>
+      <c r="L31" s="257"/>
+      <c r="M31" s="258"/>
     </row>
     <row r="32" spans="1:16382" ht="105" customHeight="1">
-      <c r="A32" s="254"/>
+      <c r="A32" s="250"/>
       <c r="B32" s="185"/>
-      <c r="C32" s="142">
+      <c r="C32" s="140">
         <v>3</v>
       </c>
       <c r="D32" s="93" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="E32" s="44"/>
-      <c r="F32" s="110" t="s">
-        <v>471</v>
+      <c r="F32" s="109" t="s">
+        <v>464</v>
       </c>
       <c r="G32" s="44" t="s">
-        <v>362</v>
-      </c>
-      <c r="H32" s="126" t="s">
-        <v>486</v>
+        <v>355</v>
+      </c>
+      <c r="H32" s="124" t="s">
+        <v>478</v>
       </c>
       <c r="I32" s="44"/>
       <c r="J32" s="94" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="K32" s="44"/>
       <c r="L32" s="79" t="s">
-        <v>298</v>
-      </c>
-      <c r="M32" s="123" t="s">
-        <v>443</v>
+        <v>293</v>
+      </c>
+      <c r="M32" s="121" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="33" spans="1:13" s="16" customFormat="1" ht="45" customHeight="1">
-      <c r="A33" s="254"/>
+      <c r="A33" s="250"/>
       <c r="B33" s="185"/>
-      <c r="C33" s="143">
+      <c r="C33" s="141">
         <v>4</v>
       </c>
-      <c r="D33" s="257"/>
-      <c r="E33" s="257"/>
-      <c r="F33" s="257"/>
-      <c r="G33" s="257"/>
-      <c r="H33" s="257"/>
-      <c r="I33" s="257"/>
-      <c r="J33" s="257"/>
+      <c r="D33" s="253"/>
+      <c r="E33" s="253"/>
+      <c r="F33" s="253"/>
+      <c r="G33" s="253"/>
+      <c r="H33" s="253"/>
+      <c r="I33" s="253"/>
+      <c r="J33" s="253"/>
       <c r="K33" s="212"/>
       <c r="L33" s="46" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="M33" s="57"/>
     </row>
     <row r="34" spans="1:13" ht="15" customHeight="1">
-      <c r="A34" s="253" t="s">
+      <c r="A34" s="249" t="s">
         <v>165</v>
       </c>
       <c r="B34" s="200" t="s">
-        <v>447</v>
-      </c>
-      <c r="C34" s="149">
+        <v>440</v>
+      </c>
+      <c r="C34" s="147">
         <v>1</v>
       </c>
-      <c r="D34" s="259" t="s">
-        <v>282</v>
-      </c>
-      <c r="E34" s="259"/>
-      <c r="F34" s="259"/>
-      <c r="G34" s="259"/>
-      <c r="H34" s="259"/>
-      <c r="I34" s="259"/>
-      <c r="J34" s="259"/>
-      <c r="K34" s="259"/>
-      <c r="L34" s="259"/>
-      <c r="M34" s="260"/>
+      <c r="D34" s="255" t="s">
+        <v>280</v>
+      </c>
+      <c r="E34" s="255"/>
+      <c r="F34" s="255"/>
+      <c r="G34" s="255"/>
+      <c r="H34" s="255"/>
+      <c r="I34" s="255"/>
+      <c r="J34" s="255"/>
+      <c r="K34" s="255"/>
+      <c r="L34" s="255"/>
+      <c r="M34" s="256"/>
     </row>
     <row r="35" spans="1:13" ht="15" customHeight="1">
-      <c r="A35" s="254"/>
+      <c r="A35" s="250"/>
       <c r="B35" s="185"/>
-      <c r="C35" s="142">
+      <c r="C35" s="140">
         <v>2</v>
       </c>
-      <c r="D35" s="261" t="s">
-        <v>495</v>
-      </c>
-      <c r="E35" s="261"/>
-      <c r="F35" s="261"/>
-      <c r="G35" s="261"/>
-      <c r="H35" s="261"/>
-      <c r="I35" s="261"/>
-      <c r="J35" s="261"/>
-      <c r="K35" s="261"/>
-      <c r="L35" s="261"/>
-      <c r="M35" s="262"/>
+      <c r="D35" s="257" t="s">
+        <v>487</v>
+      </c>
+      <c r="E35" s="257"/>
+      <c r="F35" s="257"/>
+      <c r="G35" s="257"/>
+      <c r="H35" s="257"/>
+      <c r="I35" s="257"/>
+      <c r="J35" s="257"/>
+      <c r="K35" s="257"/>
+      <c r="L35" s="257"/>
+      <c r="M35" s="258"/>
     </row>
     <row r="36" spans="1:13" ht="105" customHeight="1">
-      <c r="A36" s="254"/>
+      <c r="A36" s="250"/>
       <c r="B36" s="185"/>
-      <c r="C36" s="142">
+      <c r="C36" s="140">
         <v>3</v>
       </c>
       <c r="D36" s="93" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="E36" s="94"/>
-      <c r="F36" s="110" t="s">
-        <v>472</v>
+      <c r="F36" s="109" t="s">
+        <v>465</v>
       </c>
       <c r="G36" s="94" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="H36" s="94" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="I36" s="94"/>
       <c r="J36" s="94" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="K36" s="94"/>
-      <c r="L36" s="110" t="s">
-        <v>299</v>
-      </c>
-      <c r="M36" s="123" t="s">
-        <v>442</v>
+      <c r="L36" s="109" t="s">
+        <v>294</v>
+      </c>
+      <c r="M36" s="121" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="37" spans="1:13" s="16" customFormat="1" ht="45" customHeight="1">
-      <c r="A37" s="258"/>
-      <c r="B37" s="171"/>
-      <c r="C37" s="143">
+      <c r="A37" s="254"/>
+      <c r="B37" s="169"/>
+      <c r="C37" s="141">
         <v>4</v>
       </c>
-      <c r="D37" s="257"/>
-      <c r="E37" s="257"/>
-      <c r="F37" s="257"/>
-      <c r="G37" s="257"/>
-      <c r="H37" s="257"/>
-      <c r="I37" s="257"/>
+      <c r="D37" s="253"/>
+      <c r="E37" s="253"/>
+      <c r="F37" s="253"/>
+      <c r="G37" s="253"/>
+      <c r="H37" s="253"/>
+      <c r="I37" s="253"/>
       <c r="J37" s="212"/>
       <c r="K37" s="88" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="L37" s="40"/>
       <c r="M37" s="108"/>
     </row>
     <row r="38" spans="1:13" s="68" customFormat="1" ht="15" customHeight="1">
-      <c r="A38" s="256" t="s">
+      <c r="A38" s="252" t="s">
         <v>164</v>
       </c>
-      <c r="B38" s="170" t="s">
-        <v>275</v>
-      </c>
-      <c r="C38" s="142">
+      <c r="B38" s="168" t="s">
+        <v>273</v>
+      </c>
+      <c r="C38" s="140">
         <v>1</v>
       </c>
-      <c r="D38" s="263" t="s">
-        <v>278</v>
-      </c>
-      <c r="E38" s="264"/>
-      <c r="F38" s="264"/>
-      <c r="G38" s="264"/>
-      <c r="H38" s="264"/>
-      <c r="I38" s="264"/>
-      <c r="J38" s="264"/>
-      <c r="K38" s="264"/>
-      <c r="L38" s="264"/>
-      <c r="M38" s="264"/>
+      <c r="D38" s="259" t="s">
+        <v>276</v>
+      </c>
+      <c r="E38" s="260"/>
+      <c r="F38" s="260"/>
+      <c r="G38" s="260"/>
+      <c r="H38" s="260"/>
+      <c r="I38" s="260"/>
+      <c r="J38" s="260"/>
+      <c r="K38" s="260"/>
+      <c r="L38" s="260"/>
+      <c r="M38" s="260"/>
     </row>
     <row r="39" spans="1:13" s="66" customFormat="1" ht="120" customHeight="1">
-      <c r="A39" s="255"/>
+      <c r="A39" s="251"/>
       <c r="B39" s="201"/>
-      <c r="C39" s="142">
+      <c r="C39" s="140">
         <v>4</v>
       </c>
       <c r="D39" s="69" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E39" s="99" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="F39" s="99"/>
       <c r="G39" s="99" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="H39" s="67"/>
       <c r="I39" s="67"/>
@@ -24981,43 +24978,43 @@
       <c r="M39" s="67"/>
     </row>
     <row r="40" spans="1:13" s="68" customFormat="1" ht="15" customHeight="1">
-      <c r="A40" s="253" t="s">
+      <c r="A40" s="249" t="s">
         <v>163</v>
       </c>
       <c r="B40" s="200" t="s">
-        <v>274</v>
-      </c>
-      <c r="C40" s="144">
+        <v>272</v>
+      </c>
+      <c r="C40" s="142">
         <v>1</v>
       </c>
-      <c r="D40" s="260" t="s">
-        <v>279</v>
-      </c>
-      <c r="E40" s="279"/>
-      <c r="F40" s="279"/>
-      <c r="G40" s="279"/>
-      <c r="H40" s="279"/>
-      <c r="I40" s="279"/>
-      <c r="J40" s="279"/>
-      <c r="K40" s="279"/>
-      <c r="L40" s="279"/>
-      <c r="M40" s="279"/>
+      <c r="D40" s="256" t="s">
+        <v>277</v>
+      </c>
+      <c r="E40" s="275"/>
+      <c r="F40" s="275"/>
+      <c r="G40" s="275"/>
+      <c r="H40" s="275"/>
+      <c r="I40" s="275"/>
+      <c r="J40" s="275"/>
+      <c r="K40" s="275"/>
+      <c r="L40" s="275"/>
+      <c r="M40" s="275"/>
     </row>
     <row r="41" spans="1:13" s="16" customFormat="1" ht="150" customHeight="1">
-      <c r="A41" s="255"/>
+      <c r="A41" s="251"/>
       <c r="B41" s="201"/>
-      <c r="C41" s="142">
+      <c r="C41" s="140">
         <v>4</v>
       </c>
       <c r="D41" s="69" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E41" s="99" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="F41" s="99"/>
       <c r="G41" s="99" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="H41" s="67"/>
       <c r="I41" s="67"/>
@@ -25027,43 +25024,43 @@
       <c r="M41" s="67"/>
     </row>
     <row r="42" spans="1:13" s="68" customFormat="1" ht="15" customHeight="1">
-      <c r="A42" s="253" t="s">
+      <c r="A42" s="249" t="s">
         <v>162</v>
       </c>
       <c r="B42" s="200" t="s">
-        <v>276</v>
-      </c>
-      <c r="C42" s="144">
+        <v>274</v>
+      </c>
+      <c r="C42" s="142">
         <v>1</v>
       </c>
-      <c r="D42" s="260" t="s">
-        <v>280</v>
-      </c>
-      <c r="E42" s="279"/>
-      <c r="F42" s="279"/>
-      <c r="G42" s="279"/>
-      <c r="H42" s="279"/>
-      <c r="I42" s="279"/>
-      <c r="J42" s="279"/>
-      <c r="K42" s="279"/>
-      <c r="L42" s="279"/>
-      <c r="M42" s="279"/>
+      <c r="D42" s="256" t="s">
+        <v>278</v>
+      </c>
+      <c r="E42" s="275"/>
+      <c r="F42" s="275"/>
+      <c r="G42" s="275"/>
+      <c r="H42" s="275"/>
+      <c r="I42" s="275"/>
+      <c r="J42" s="275"/>
+      <c r="K42" s="275"/>
+      <c r="L42" s="275"/>
+      <c r="M42" s="275"/>
     </row>
     <row r="43" spans="1:13" s="98" customFormat="1" ht="225" customHeight="1">
-      <c r="A43" s="254"/>
+      <c r="A43" s="250"/>
       <c r="B43" s="201"/>
-      <c r="C43" s="150">
+      <c r="C43" s="148">
         <v>4</v>
       </c>
       <c r="D43" s="69" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E43" s="99" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="F43" s="99"/>
       <c r="G43" s="99" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="H43" s="67"/>
       <c r="I43" s="67"/>
@@ -25073,108 +25070,108 @@
       <c r="M43" s="67"/>
     </row>
     <row r="44" spans="1:13" s="68" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A44" s="250" t="s">
+      <c r="A44" s="246" t="s">
         <v>161</v>
       </c>
       <c r="B44" s="185" t="s">
-        <v>277</v>
-      </c>
-      <c r="C44" s="142">
+        <v>275</v>
+      </c>
+      <c r="C44" s="140">
         <v>1</v>
       </c>
-      <c r="D44" s="260" t="s">
-        <v>281</v>
-      </c>
-      <c r="E44" s="279"/>
-      <c r="F44" s="279"/>
-      <c r="G44" s="279"/>
-      <c r="H44" s="279"/>
-      <c r="I44" s="279"/>
-      <c r="J44" s="279"/>
-      <c r="K44" s="279"/>
-      <c r="L44" s="279"/>
-      <c r="M44" s="279"/>
+      <c r="D44" s="256" t="s">
+        <v>279</v>
+      </c>
+      <c r="E44" s="275"/>
+      <c r="F44" s="275"/>
+      <c r="G44" s="275"/>
+      <c r="H44" s="275"/>
+      <c r="I44" s="275"/>
+      <c r="J44" s="275"/>
+      <c r="K44" s="275"/>
+      <c r="L44" s="275"/>
+      <c r="M44" s="275"/>
     </row>
     <row r="45" spans="1:13" ht="300" customHeight="1">
-      <c r="A45" s="251"/>
-      <c r="B45" s="252"/>
-      <c r="C45" s="145">
+      <c r="A45" s="247"/>
+      <c r="B45" s="248"/>
+      <c r="C45" s="143">
         <v>4</v>
       </c>
       <c r="D45" s="70" t="s">
-        <v>521</v>
+        <v>537</v>
       </c>
       <c r="E45" s="72" t="s">
-        <v>294</v>
+        <v>536</v>
       </c>
       <c r="F45" s="72" t="s">
-        <v>479</v>
+        <v>535</v>
       </c>
       <c r="G45" s="72" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="H45" s="72" t="s">
-        <v>522</v>
+        <v>511</v>
       </c>
       <c r="I45" s="70" t="s">
-        <v>291</v>
+        <v>534</v>
       </c>
       <c r="J45" s="70" t="s">
-        <v>520</v>
-      </c>
-      <c r="K45" s="64" t="s">
-        <v>317</v>
+        <v>533</v>
+      </c>
+      <c r="K45" s="72" t="s">
+        <v>530</v>
       </c>
       <c r="L45" s="70" t="s">
-        <v>292</v>
+        <v>531</v>
       </c>
       <c r="M45" s="70" t="s">
-        <v>519</v>
+        <v>532</v>
       </c>
     </row>
     <row r="46" spans="1:13">
       <c r="B46" s="63"/>
-      <c r="C46" s="146"/>
+      <c r="C46" s="144"/>
     </row>
     <row r="47" spans="1:13">
       <c r="B47" s="63"/>
-      <c r="C47" s="146"/>
+      <c r="C47" s="144"/>
     </row>
     <row r="48" spans="1:13">
       <c r="B48" s="63"/>
-      <c r="C48" s="146"/>
+      <c r="C48" s="144"/>
     </row>
     <row r="49" spans="2:3">
       <c r="B49" s="63"/>
-      <c r="C49" s="146"/>
+      <c r="C49" s="144"/>
     </row>
     <row r="50" spans="2:3">
       <c r="B50" s="63"/>
-      <c r="C50" s="146"/>
+      <c r="C50" s="144"/>
     </row>
     <row r="51" spans="2:3">
       <c r="B51" s="63"/>
-      <c r="C51" s="146"/>
+      <c r="C51" s="144"/>
     </row>
     <row r="52" spans="2:3">
       <c r="B52" s="63"/>
-      <c r="C52" s="146"/>
+      <c r="C52" s="144"/>
     </row>
     <row r="53" spans="2:3">
       <c r="B53" s="63"/>
-      <c r="C53" s="146"/>
+      <c r="C53" s="144"/>
     </row>
     <row r="54" spans="2:3">
       <c r="B54" s="63"/>
-      <c r="C54" s="146"/>
+      <c r="C54" s="144"/>
     </row>
     <row r="55" spans="2:3">
       <c r="B55" s="63"/>
-      <c r="C55" s="146"/>
+      <c r="C55" s="144"/>
     </row>
     <row r="56" spans="2:3">
       <c r="B56" s="63"/>
-      <c r="C56" s="146"/>
+      <c r="C56" s="144"/>
     </row>
   </sheetData>
   <mergeCells count="61">

--- a/Tags and Affinities.xlsx
+++ b/Tags and Affinities.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Charles\Documents\Git Repositories\materials_and_crafting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9772F2C-4A90-4E00-B916-A345F8219282}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F65FB6EE-4647-4A92-B123-B2CEAEBA2B77}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="2" xr2:uid="{8FD76562-234B-40A6-8AC6-52675E21BBDC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{8FD76562-234B-40A6-8AC6-52675E21BBDC}"/>
   </bookViews>
   <sheets>
     <sheet name="COMPONENT TAGS" sheetId="2" r:id="rId1"/>
@@ -842,11 +842,6 @@
   </si>
   <si>
     <t>When you would suffer the effects of a magic missile spell, a line spell, or a spell that requires a ranged attack roll, roll a 1d6. On a 1 to 5, you are unaffected. On a 6, you are unaffected, and the effect is reflected back at the caster as though it originated from you, turning the caster into the target.
-The spell must be of a level equal to or below this item's spell turning tier for this property to apply.</t>
-  </si>
-  <si>
-    <t>When you would suffer the effects of a spell that only targets you, you may expend your reaction to absorb the spell into this staff's core, charging it with the spell's magic. Absorbing a spell flushes any previously stored spell out of the staff's core, causing it to be immediately cast targeting one random creature within its range.
-While this staff is charged, you may cast the spell that it has stored, releasing the spell and consuming the charge.
 The spell must be of a level equal to or below this item's spell turning tier for this property to apply.</t>
   </si>
   <si>
@@ -3295,12 +3290,17 @@
   <si>
     <t>This staff core thrums to a particular tempo. When you take your turn and cast a spell through this staff, you may choose to exactly repeat the last turn you made. If you choose to do so, it is upcast by 1 level, up to a maximum of the mechanic affinity. If you choose not to, this benefit is lost.</t>
   </si>
+  <si>
+    <t>When you are solely targeted by a spell, you may expend your reaction to absorb the spell into this staff's core, charging it with the spell's magic. Absorbing a spell flushes any previously stored spell out of the staff's core, causing it to be immediately cast targeting one random creature within its range.
+While this staff is charged, you may cast the spell that it has stored, releasing the spell and consuming the charge.
+The spell must be of a level equal to or below this item's spell turning tier for this property to apply.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4484,7 +4484,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="273">
+  <cellXfs count="274">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -4923,6 +4923,54 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="74" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="79" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -4932,273 +4980,297 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="81" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="89" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="90" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="88" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="86" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="87" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="60" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="60" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="89" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="90" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="88" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="86" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="87" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="75" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -5208,77 +5280,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5599,10 +5602,10 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
+      <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" style="2" customWidth="1"/>
     <col min="2" max="2" width="27.42578125" style="1" customWidth="1"/>
@@ -5610,15 +5613,15 @@
     <col min="8" max="10" width="27.140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="15" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="1" spans="1:10" s="15" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B1" s="149" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C1" s="149" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D1" s="149" t="s">
         <v>44</v>
@@ -5636,13 +5639,13 @@
         <v>40</v>
       </c>
       <c r="I1" s="149" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J1" s="149" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="105">
+    <row r="2" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>37</v>
       </c>
@@ -5652,15 +5655,15 @@
       <c r="C2" s="151" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="154"/>
-      <c r="E2" s="155"/>
-      <c r="F2" s="155"/>
-      <c r="G2" s="155"/>
-      <c r="H2" s="155"/>
-      <c r="I2" s="155"/>
-      <c r="J2" s="156"/>
+      <c r="D2" s="170"/>
+      <c r="E2" s="171"/>
+      <c r="F2" s="171"/>
+      <c r="G2" s="171"/>
+      <c r="H2" s="171"/>
+      <c r="I2" s="171"/>
+      <c r="J2" s="172"/>
     </row>
-    <row r="3" spans="1:10" ht="30">
+    <row r="3" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>34</v>
       </c>
@@ -5670,47 +5673,47 @@
       <c r="C3" s="152" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="157"/>
-      <c r="E3" s="158"/>
-      <c r="F3" s="158"/>
-      <c r="G3" s="158"/>
-      <c r="H3" s="158"/>
-      <c r="I3" s="158"/>
-      <c r="J3" s="159"/>
+      <c r="D3" s="167"/>
+      <c r="E3" s="168"/>
+      <c r="F3" s="168"/>
+      <c r="G3" s="168"/>
+      <c r="H3" s="168"/>
+      <c r="I3" s="168"/>
+      <c r="J3" s="169"/>
     </row>
-    <row r="4" spans="1:10" ht="15" customHeight="1">
-      <c r="A4" s="161" t="s">
+    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="154" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="169" t="s">
+      <c r="B4" s="162" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="166" t="s">
-        <v>286</v>
-      </c>
-      <c r="D4" s="167"/>
-      <c r="E4" s="167"/>
-      <c r="F4" s="167"/>
-      <c r="G4" s="167"/>
-      <c r="H4" s="167"/>
-      <c r="I4" s="167"/>
-      <c r="J4" s="168"/>
+      <c r="C4" s="159" t="s">
+        <v>285</v>
+      </c>
+      <c r="D4" s="160"/>
+      <c r="E4" s="160"/>
+      <c r="F4" s="160"/>
+      <c r="G4" s="160"/>
+      <c r="H4" s="160"/>
+      <c r="I4" s="160"/>
+      <c r="J4" s="161"/>
     </row>
-    <row r="5" spans="1:10" ht="30">
-      <c r="A5" s="162"/>
-      <c r="B5" s="170"/>
+    <row r="5" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="155"/>
+      <c r="B5" s="163"/>
       <c r="C5" s="153" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="157"/>
-      <c r="E5" s="158"/>
-      <c r="F5" s="158"/>
-      <c r="G5" s="158"/>
-      <c r="H5" s="158"/>
-      <c r="I5" s="158"/>
-      <c r="J5" s="159"/>
+      <c r="D5" s="167"/>
+      <c r="E5" s="168"/>
+      <c r="F5" s="168"/>
+      <c r="G5" s="168"/>
+      <c r="H5" s="168"/>
+      <c r="I5" s="168"/>
+      <c r="J5" s="169"/>
     </row>
-    <row r="6" spans="1:10" s="3" customFormat="1" ht="105" customHeight="1">
+    <row r="6" spans="1:10" s="3" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>28</v>
       </c>
@@ -5720,15 +5723,15 @@
       <c r="C6" s="142" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="157"/>
-      <c r="E6" s="158"/>
-      <c r="F6" s="158"/>
-      <c r="G6" s="158"/>
-      <c r="H6" s="158"/>
-      <c r="I6" s="158"/>
-      <c r="J6" s="159"/>
+      <c r="D6" s="167"/>
+      <c r="E6" s="168"/>
+      <c r="F6" s="168"/>
+      <c r="G6" s="168"/>
+      <c r="H6" s="168"/>
+      <c r="I6" s="168"/>
+      <c r="J6" s="169"/>
     </row>
-    <row r="7" spans="1:10" s="3" customFormat="1" ht="105" customHeight="1">
+    <row r="7" spans="1:10" s="3" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>25</v>
       </c>
@@ -5738,15 +5741,15 @@
       <c r="C7" s="142" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="157"/>
-      <c r="E7" s="158"/>
-      <c r="F7" s="158"/>
-      <c r="G7" s="158"/>
-      <c r="H7" s="158"/>
-      <c r="I7" s="158"/>
-      <c r="J7" s="159"/>
+      <c r="D7" s="167"/>
+      <c r="E7" s="168"/>
+      <c r="F7" s="168"/>
+      <c r="G7" s="168"/>
+      <c r="H7" s="168"/>
+      <c r="I7" s="168"/>
+      <c r="J7" s="169"/>
     </row>
-    <row r="8" spans="1:10" s="3" customFormat="1" ht="120" customHeight="1">
+    <row r="8" spans="1:10" s="3" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>22</v>
       </c>
@@ -5756,15 +5759,15 @@
       <c r="C8" s="142" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="157"/>
-      <c r="E8" s="158"/>
-      <c r="F8" s="158"/>
-      <c r="G8" s="158"/>
-      <c r="H8" s="158"/>
-      <c r="I8" s="158"/>
-      <c r="J8" s="159"/>
+      <c r="D8" s="167"/>
+      <c r="E8" s="168"/>
+      <c r="F8" s="168"/>
+      <c r="G8" s="168"/>
+      <c r="H8" s="168"/>
+      <c r="I8" s="168"/>
+      <c r="J8" s="169"/>
     </row>
-    <row r="9" spans="1:10" s="3" customFormat="1" ht="135" customHeight="1">
+    <row r="9" spans="1:10" s="3" customFormat="1" ht="135" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>19</v>
       </c>
@@ -5774,89 +5777,89 @@
       <c r="C9" s="142" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="157"/>
-      <c r="E9" s="158"/>
-      <c r="F9" s="158"/>
-      <c r="G9" s="158"/>
-      <c r="H9" s="158"/>
-      <c r="I9" s="158"/>
-      <c r="J9" s="159"/>
+      <c r="D9" s="167"/>
+      <c r="E9" s="168"/>
+      <c r="F9" s="168"/>
+      <c r="G9" s="168"/>
+      <c r="H9" s="168"/>
+      <c r="I9" s="168"/>
+      <c r="J9" s="169"/>
     </row>
-    <row r="10" spans="1:10" s="3" customFormat="1" ht="135" customHeight="1">
+    <row r="10" spans="1:10" s="3" customFormat="1" ht="135" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="B10" s="74" t="s">
         <v>330</v>
       </c>
-      <c r="B10" s="74" t="s">
+      <c r="C10" s="144" t="s">
+        <v>332</v>
+      </c>
+      <c r="D10" s="167"/>
+      <c r="E10" s="168"/>
+      <c r="F10" s="168"/>
+      <c r="G10" s="168"/>
+      <c r="H10" s="169"/>
+      <c r="I10" s="145" t="s">
         <v>331</v>
-      </c>
-      <c r="C10" s="144" t="s">
-        <v>333</v>
-      </c>
-      <c r="D10" s="157"/>
-      <c r="E10" s="158"/>
-      <c r="F10" s="158"/>
-      <c r="G10" s="158"/>
-      <c r="H10" s="159"/>
-      <c r="I10" s="145" t="s">
-        <v>332</v>
       </c>
       <c r="J10" s="147"/>
     </row>
-    <row r="11" spans="1:10" s="3" customFormat="1" ht="135" customHeight="1">
+    <row r="11" spans="1:10" s="3" customFormat="1" ht="135" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="B11" s="80" t="s">
         <v>334</v>
       </c>
-      <c r="B11" s="80" t="s">
+      <c r="C11" s="144" t="s">
         <v>335</v>
       </c>
-      <c r="C11" s="144" t="s">
-        <v>336</v>
-      </c>
-      <c r="D11" s="157"/>
-      <c r="E11" s="158"/>
-      <c r="F11" s="158"/>
-      <c r="G11" s="158"/>
-      <c r="H11" s="158"/>
-      <c r="I11" s="158"/>
-      <c r="J11" s="159"/>
+      <c r="D11" s="167"/>
+      <c r="E11" s="168"/>
+      <c r="F11" s="168"/>
+      <c r="G11" s="168"/>
+      <c r="H11" s="168"/>
+      <c r="I11" s="168"/>
+      <c r="J11" s="169"/>
     </row>
-    <row r="12" spans="1:10" s="3" customFormat="1" ht="135" customHeight="1">
+    <row r="12" spans="1:10" s="3" customFormat="1" ht="135" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="B12" s="74" t="s">
         <v>319</v>
       </c>
-      <c r="B12" s="74" t="s">
-        <v>320</v>
-      </c>
-      <c r="C12" s="160"/>
-      <c r="D12" s="158"/>
-      <c r="E12" s="158"/>
-      <c r="F12" s="158"/>
-      <c r="G12" s="158"/>
-      <c r="H12" s="159"/>
+      <c r="C12" s="173"/>
+      <c r="D12" s="168"/>
+      <c r="E12" s="168"/>
+      <c r="F12" s="168"/>
+      <c r="G12" s="168"/>
+      <c r="H12" s="169"/>
       <c r="I12" s="145" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="J12" s="147"/>
     </row>
-    <row r="13" spans="1:10" s="3" customFormat="1" ht="180" customHeight="1">
+    <row r="13" spans="1:10" s="3" customFormat="1" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C13" s="120" t="s">
-        <v>472</v>
-      </c>
-      <c r="D13" s="157"/>
-      <c r="E13" s="158"/>
-      <c r="F13" s="158"/>
-      <c r="G13" s="158"/>
-      <c r="H13" s="158"/>
-      <c r="I13" s="158"/>
-      <c r="J13" s="159"/>
+        <v>471</v>
+      </c>
+      <c r="D13" s="167"/>
+      <c r="E13" s="168"/>
+      <c r="F13" s="168"/>
+      <c r="G13" s="168"/>
+      <c r="H13" s="168"/>
+      <c r="I13" s="168"/>
+      <c r="J13" s="169"/>
     </row>
-    <row r="14" spans="1:10" s="3" customFormat="1" ht="90" customHeight="1">
+    <row r="14" spans="1:10" s="3" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>15</v>
       </c>
@@ -5864,53 +5867,53 @@
         <v>14</v>
       </c>
       <c r="C14" s="148" t="s">
-        <v>266</v>
-      </c>
-      <c r="D14" s="157"/>
-      <c r="E14" s="158"/>
-      <c r="F14" s="158"/>
-      <c r="G14" s="158"/>
-      <c r="H14" s="158"/>
-      <c r="I14" s="158"/>
-      <c r="J14" s="159"/>
+        <v>265</v>
+      </c>
+      <c r="D14" s="167"/>
+      <c r="E14" s="168"/>
+      <c r="F14" s="168"/>
+      <c r="G14" s="168"/>
+      <c r="H14" s="168"/>
+      <c r="I14" s="168"/>
+      <c r="J14" s="169"/>
     </row>
-    <row r="15" spans="1:10" s="3" customFormat="1" ht="30" customHeight="1">
+    <row r="15" spans="1:10" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
+        <v>475</v>
+      </c>
+      <c r="B15" s="118" t="s">
         <v>476</v>
       </c>
-      <c r="B15" s="118" t="s">
+      <c r="C15" s="159" t="s">
         <v>477</v>
       </c>
-      <c r="C15" s="166" t="s">
-        <v>478</v>
-      </c>
-      <c r="D15" s="167"/>
-      <c r="E15" s="167"/>
-      <c r="F15" s="167"/>
-      <c r="G15" s="167"/>
-      <c r="H15" s="167"/>
-      <c r="I15" s="167"/>
-      <c r="J15" s="168"/>
+      <c r="D15" s="160"/>
+      <c r="E15" s="160"/>
+      <c r="F15" s="160"/>
+      <c r="G15" s="160"/>
+      <c r="H15" s="160"/>
+      <c r="I15" s="160"/>
+      <c r="J15" s="161"/>
     </row>
-    <row r="16" spans="1:10" s="3" customFormat="1" ht="30" customHeight="1">
+    <row r="16" spans="1:10" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>109</v>
       </c>
       <c r="B16" s="118" t="s">
-        <v>475</v>
-      </c>
-      <c r="C16" s="166" t="s">
-        <v>473</v>
-      </c>
-      <c r="D16" s="167"/>
-      <c r="E16" s="167"/>
-      <c r="F16" s="167"/>
-      <c r="G16" s="167"/>
-      <c r="H16" s="167"/>
-      <c r="I16" s="167"/>
-      <c r="J16" s="168"/>
+        <v>474</v>
+      </c>
+      <c r="C16" s="159" t="s">
+        <v>472</v>
+      </c>
+      <c r="D16" s="160"/>
+      <c r="E16" s="160"/>
+      <c r="F16" s="160"/>
+      <c r="G16" s="160"/>
+      <c r="H16" s="160"/>
+      <c r="I16" s="160"/>
+      <c r="J16" s="161"/>
     </row>
-    <row r="17" spans="1:10" s="3" customFormat="1" ht="150" customHeight="1">
+    <row r="17" spans="1:10" s="3" customFormat="1" ht="150" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>13</v>
       </c>
@@ -5920,15 +5923,15 @@
       <c r="C17" s="146" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="157"/>
-      <c r="E17" s="158"/>
-      <c r="F17" s="158"/>
-      <c r="G17" s="158"/>
-      <c r="H17" s="158"/>
-      <c r="I17" s="158"/>
-      <c r="J17" s="159"/>
+      <c r="D17" s="167"/>
+      <c r="E17" s="168"/>
+      <c r="F17" s="168"/>
+      <c r="G17" s="168"/>
+      <c r="H17" s="168"/>
+      <c r="I17" s="168"/>
+      <c r="J17" s="169"/>
     </row>
-    <row r="18" spans="1:10" s="3" customFormat="1" ht="60" customHeight="1">
+    <row r="18" spans="1:10" s="3" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>10</v>
       </c>
@@ -5938,15 +5941,15 @@
       <c r="C18" s="142" t="s">
         <v>8</v>
       </c>
-      <c r="D18" s="157"/>
-      <c r="E18" s="158"/>
-      <c r="F18" s="158"/>
-      <c r="G18" s="158"/>
-      <c r="H18" s="158"/>
-      <c r="I18" s="158"/>
-      <c r="J18" s="159"/>
+      <c r="D18" s="167"/>
+      <c r="E18" s="168"/>
+      <c r="F18" s="168"/>
+      <c r="G18" s="168"/>
+      <c r="H18" s="168"/>
+      <c r="I18" s="168"/>
+      <c r="J18" s="169"/>
     </row>
-    <row r="19" spans="1:10" s="3" customFormat="1" ht="60" customHeight="1">
+    <row r="19" spans="1:10" s="3" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>7</v>
       </c>
@@ -5956,15 +5959,15 @@
       <c r="C19" s="142" t="s">
         <v>5</v>
       </c>
-      <c r="D19" s="157"/>
-      <c r="E19" s="158"/>
-      <c r="F19" s="158"/>
-      <c r="G19" s="158"/>
-      <c r="H19" s="158"/>
-      <c r="I19" s="158"/>
-      <c r="J19" s="159"/>
+      <c r="D19" s="167"/>
+      <c r="E19" s="168"/>
+      <c r="F19" s="168"/>
+      <c r="G19" s="168"/>
+      <c r="H19" s="168"/>
+      <c r="I19" s="168"/>
+      <c r="J19" s="169"/>
     </row>
-    <row r="20" spans="1:10" s="3" customFormat="1" ht="60" customHeight="1">
+    <row r="20" spans="1:10" s="3" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>4</v>
       </c>
@@ -5974,15 +5977,15 @@
       <c r="C20" s="142" t="s">
         <v>2</v>
       </c>
-      <c r="D20" s="157"/>
-      <c r="E20" s="158"/>
-      <c r="F20" s="158"/>
-      <c r="G20" s="158"/>
-      <c r="H20" s="158"/>
-      <c r="I20" s="158"/>
-      <c r="J20" s="159"/>
+      <c r="D20" s="167"/>
+      <c r="E20" s="168"/>
+      <c r="F20" s="168"/>
+      <c r="G20" s="168"/>
+      <c r="H20" s="168"/>
+      <c r="I20" s="168"/>
+      <c r="J20" s="169"/>
     </row>
-    <row r="21" spans="1:10" s="47" customFormat="1" ht="225" customHeight="1">
+    <row r="21" spans="1:10" s="47" customFormat="1" ht="225" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="48" t="s">
         <v>1</v>
       </c>
@@ -5990,76 +5993,81 @@
         <v>0</v>
       </c>
       <c r="C21" s="148" t="s">
-        <v>291</v>
-      </c>
-      <c r="D21" s="157"/>
-      <c r="E21" s="158"/>
-      <c r="F21" s="158"/>
-      <c r="G21" s="158"/>
-      <c r="H21" s="158"/>
-      <c r="I21" s="158"/>
-      <c r="J21" s="159"/>
+        <v>290</v>
+      </c>
+      <c r="D21" s="167"/>
+      <c r="E21" s="168"/>
+      <c r="F21" s="168"/>
+      <c r="G21" s="168"/>
+      <c r="H21" s="168"/>
+      <c r="I21" s="168"/>
+      <c r="J21" s="169"/>
     </row>
-    <row r="22" spans="1:10" s="47" customFormat="1" ht="225" customHeight="1">
+    <row r="22" spans="1:10" s="47" customFormat="1" ht="225" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="56" t="s">
+        <v>203</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>246</v>
+      </c>
+      <c r="C22" s="35" t="s">
         <v>204</v>
       </c>
-      <c r="B22" s="19" t="s">
-        <v>247</v>
-      </c>
-      <c r="C22" s="35" t="s">
+      <c r="D22" s="164"/>
+      <c r="E22" s="165"/>
+      <c r="F22" s="165"/>
+      <c r="G22" s="166"/>
+      <c r="H22" s="145" t="s">
         <v>205</v>
       </c>
-      <c r="D22" s="171"/>
-      <c r="E22" s="172"/>
-      <c r="F22" s="172"/>
-      <c r="G22" s="173"/>
-      <c r="H22" s="145" t="s">
-        <v>206</v>
-      </c>
       <c r="I22" s="143" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="J22" s="147"/>
     </row>
-    <row r="23" spans="1:10" s="47" customFormat="1" ht="30" customHeight="1">
+    <row r="23" spans="1:10" s="47" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="68" t="s">
+        <v>282</v>
+      </c>
+      <c r="B23" s="64" t="s">
+        <v>284</v>
+      </c>
+      <c r="C23" s="159" t="s">
         <v>283</v>
       </c>
-      <c r="B23" s="64" t="s">
-        <v>285</v>
-      </c>
-      <c r="C23" s="166" t="s">
-        <v>284</v>
-      </c>
-      <c r="D23" s="167"/>
-      <c r="E23" s="167"/>
-      <c r="F23" s="167"/>
-      <c r="G23" s="167"/>
-      <c r="H23" s="167"/>
-      <c r="I23" s="167"/>
-      <c r="J23" s="168"/>
+      <c r="D23" s="160"/>
+      <c r="E23" s="160"/>
+      <c r="F23" s="160"/>
+      <c r="G23" s="160"/>
+      <c r="H23" s="160"/>
+      <c r="I23" s="160"/>
+      <c r="J23" s="161"/>
     </row>
-    <row r="24" spans="1:10" ht="60">
+    <row r="24" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A24" s="50" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B24" s="51" t="s">
+        <v>266</v>
+      </c>
+      <c r="C24" s="156" t="s">
         <v>267</v>
       </c>
-      <c r="C24" s="163" t="s">
-        <v>268</v>
-      </c>
-      <c r="D24" s="164"/>
-      <c r="E24" s="164"/>
-      <c r="F24" s="164"/>
-      <c r="G24" s="164"/>
-      <c r="H24" s="164"/>
-      <c r="I24" s="164"/>
-      <c r="J24" s="165"/>
+      <c r="D24" s="157"/>
+      <c r="E24" s="157"/>
+      <c r="F24" s="157"/>
+      <c r="G24" s="157"/>
+      <c r="H24" s="157"/>
+      <c r="I24" s="157"/>
+      <c r="J24" s="158"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="D2:J3"/>
+    <mergeCell ref="D5:J9"/>
+    <mergeCell ref="D11:J11"/>
+    <mergeCell ref="D10:H10"/>
+    <mergeCell ref="C12:H12"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="C24:J24"/>
     <mergeCell ref="C23:J23"/>
@@ -6070,11 +6078,6 @@
     <mergeCell ref="D17:J21"/>
     <mergeCell ref="C16:J16"/>
     <mergeCell ref="C15:J15"/>
-    <mergeCell ref="D2:J3"/>
-    <mergeCell ref="D5:J9"/>
-    <mergeCell ref="D11:J11"/>
-    <mergeCell ref="D10:H10"/>
-    <mergeCell ref="C12:H12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6086,13 +6089,13 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:M63"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="H63" sqref="H63"/>
+      <selection pane="bottomLeft" activeCell="H53" sqref="H53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" style="2" customWidth="1"/>
     <col min="2" max="2" width="27.42578125" style="1" customWidth="1"/>
@@ -6103,15 +6106,15 @@
     <col min="11" max="12" width="27.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="15" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="1" spans="1:12" s="15" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B1" s="149" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C1" s="149" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D1" s="122" t="s">
         <v>44</v>
@@ -6129,257 +6132,257 @@
         <v>40</v>
       </c>
       <c r="I1" s="150" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J1" s="150" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="K1" s="150" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="L1" s="150" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="15" customFormat="1" ht="30" customHeight="1">
+    <row r="2" spans="1:12" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>159</v>
       </c>
       <c r="B2" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="C2" s="190" t="s">
-        <v>518</v>
-      </c>
-      <c r="D2" s="191"/>
-      <c r="E2" s="191"/>
-      <c r="F2" s="191"/>
-      <c r="G2" s="191"/>
-      <c r="H2" s="191"/>
-      <c r="I2" s="191"/>
-      <c r="J2" s="192"/>
-      <c r="K2" s="201"/>
-      <c r="L2" s="202"/>
+      <c r="C2" s="216" t="s">
+        <v>517</v>
+      </c>
+      <c r="D2" s="217"/>
+      <c r="E2" s="217"/>
+      <c r="F2" s="217"/>
+      <c r="G2" s="217"/>
+      <c r="H2" s="217"/>
+      <c r="I2" s="217"/>
+      <c r="J2" s="218"/>
+      <c r="K2" s="226"/>
+      <c r="L2" s="227"/>
     </row>
-    <row r="3" spans="1:12" s="15" customFormat="1" ht="15" customHeight="1">
-      <c r="A3" s="161" t="s">
+    <row r="3" spans="1:12" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="154" t="s">
         <v>157</v>
       </c>
-      <c r="B3" s="169" t="s">
-        <v>223</v>
-      </c>
-      <c r="C3" s="166" t="s">
-        <v>269</v>
-      </c>
-      <c r="D3" s="167"/>
-      <c r="E3" s="167"/>
-      <c r="F3" s="167"/>
-      <c r="G3" s="167"/>
-      <c r="H3" s="167"/>
-      <c r="I3" s="167"/>
-      <c r="J3" s="167"/>
-      <c r="K3" s="167"/>
-      <c r="L3" s="168"/>
+      <c r="B3" s="162" t="s">
+        <v>222</v>
+      </c>
+      <c r="C3" s="159" t="s">
+        <v>268</v>
+      </c>
+      <c r="D3" s="160"/>
+      <c r="E3" s="160"/>
+      <c r="F3" s="160"/>
+      <c r="G3" s="160"/>
+      <c r="H3" s="160"/>
+      <c r="I3" s="160"/>
+      <c r="J3" s="160"/>
+      <c r="K3" s="160"/>
+      <c r="L3" s="161"/>
     </row>
-    <row r="4" spans="1:12" s="15" customFormat="1" ht="15" customHeight="1">
-      <c r="A4" s="184"/>
-      <c r="B4" s="185"/>
-      <c r="C4" s="166" t="s">
-        <v>517</v>
-      </c>
-      <c r="D4" s="167"/>
-      <c r="E4" s="167"/>
-      <c r="F4" s="167"/>
-      <c r="G4" s="167"/>
-      <c r="H4" s="167"/>
-      <c r="I4" s="167"/>
-      <c r="J4" s="167"/>
-      <c r="K4" s="167"/>
-      <c r="L4" s="168"/>
+    <row r="4" spans="1:12" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="236"/>
+      <c r="B4" s="179"/>
+      <c r="C4" s="159" t="s">
+        <v>516</v>
+      </c>
+      <c r="D4" s="160"/>
+      <c r="E4" s="160"/>
+      <c r="F4" s="160"/>
+      <c r="G4" s="160"/>
+      <c r="H4" s="160"/>
+      <c r="I4" s="160"/>
+      <c r="J4" s="160"/>
+      <c r="K4" s="160"/>
+      <c r="L4" s="161"/>
     </row>
-    <row r="5" spans="1:12" s="15" customFormat="1" ht="180">
-      <c r="A5" s="162"/>
-      <c r="B5" s="170"/>
+    <row r="5" spans="1:12" s="15" customFormat="1" ht="180" x14ac:dyDescent="0.25">
+      <c r="A5" s="155"/>
+      <c r="B5" s="163"/>
       <c r="C5" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="D5" s="180" t="s">
-        <v>354</v>
-      </c>
-      <c r="E5" s="180"/>
-      <c r="F5" s="180"/>
-      <c r="G5" s="180"/>
+      <c r="D5" s="228" t="s">
+        <v>353</v>
+      </c>
+      <c r="E5" s="228"/>
+      <c r="F5" s="228"/>
+      <c r="G5" s="228"/>
       <c r="H5" s="36" t="s">
         <v>155</v>
       </c>
       <c r="I5" s="77" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="J5" s="52"/>
       <c r="K5" s="44" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="L5" s="44" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="15" customFormat="1" ht="105" customHeight="1">
+    <row r="6" spans="1:12" s="15" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="28" t="s">
         <v>154</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="C6" s="166" t="s">
+      <c r="C6" s="159" t="s">
         <v>152</v>
       </c>
-      <c r="D6" s="167"/>
-      <c r="E6" s="167"/>
-      <c r="F6" s="167"/>
-      <c r="G6" s="167"/>
-      <c r="H6" s="167"/>
-      <c r="I6" s="167"/>
-      <c r="J6" s="168"/>
+      <c r="D6" s="160"/>
+      <c r="E6" s="160"/>
+      <c r="F6" s="160"/>
+      <c r="G6" s="160"/>
+      <c r="H6" s="160"/>
+      <c r="I6" s="160"/>
+      <c r="J6" s="161"/>
       <c r="K6" s="103"/>
       <c r="L6" s="77" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
-    <row r="7" spans="1:12" s="15" customFormat="1" ht="90">
+    <row r="7" spans="1:12" s="15" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A7" s="28" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C7" s="25"/>
-      <c r="D7" s="180" t="s">
+      <c r="D7" s="228" t="s">
         <v>151</v>
       </c>
-      <c r="E7" s="180"/>
-      <c r="F7" s="180"/>
-      <c r="G7" s="180"/>
+      <c r="E7" s="228"/>
+      <c r="F7" s="228"/>
+      <c r="G7" s="228"/>
       <c r="H7" s="36" t="s">
         <v>150</v>
       </c>
-      <c r="I7" s="199"/>
-      <c r="J7" s="200"/>
+      <c r="I7" s="224"/>
+      <c r="J7" s="225"/>
       <c r="K7" s="44" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="L7" s="44" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="15" customFormat="1" ht="105" customHeight="1">
+    <row r="8" spans="1:12" s="15" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="28" t="s">
         <v>149</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="C8" s="203" t="s">
+      <c r="C8" s="229" t="s">
         <v>147</v>
       </c>
-      <c r="D8" s="204"/>
-      <c r="E8" s="204"/>
-      <c r="F8" s="204"/>
-      <c r="G8" s="204"/>
-      <c r="H8" s="204"/>
-      <c r="I8" s="204"/>
-      <c r="J8" s="205"/>
+      <c r="D8" s="230"/>
+      <c r="E8" s="230"/>
+      <c r="F8" s="230"/>
+      <c r="G8" s="230"/>
+      <c r="H8" s="230"/>
+      <c r="I8" s="230"/>
+      <c r="J8" s="231"/>
       <c r="K8" s="103"/>
       <c r="L8" s="77" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="9" spans="1:12" s="15" customFormat="1" ht="45">
+    <row r="9" spans="1:12" s="15" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="28" t="s">
         <v>146</v>
       </c>
       <c r="B9" s="46" t="s">
-        <v>221</v>
-      </c>
-      <c r="C9" s="168" t="s">
+        <v>220</v>
+      </c>
+      <c r="C9" s="161" t="s">
         <v>145</v>
       </c>
-      <c r="D9" s="180"/>
-      <c r="E9" s="180"/>
-      <c r="F9" s="180"/>
-      <c r="G9" s="180"/>
-      <c r="H9" s="180"/>
-      <c r="I9" s="180"/>
-      <c r="J9" s="180"/>
-      <c r="K9" s="180"/>
-      <c r="L9" s="180"/>
+      <c r="D9" s="228"/>
+      <c r="E9" s="228"/>
+      <c r="F9" s="228"/>
+      <c r="G9" s="228"/>
+      <c r="H9" s="228"/>
+      <c r="I9" s="228"/>
+      <c r="J9" s="228"/>
+      <c r="K9" s="228"/>
+      <c r="L9" s="228"/>
     </row>
-    <row r="10" spans="1:12" ht="105" customHeight="1">
+    <row r="10" spans="1:12" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="28" t="s">
         <v>144</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="C10" s="203" t="s">
+        <v>219</v>
+      </c>
+      <c r="C10" s="229" t="s">
         <v>143</v>
       </c>
-      <c r="D10" s="204"/>
-      <c r="E10" s="204"/>
-      <c r="F10" s="204"/>
-      <c r="G10" s="204"/>
-      <c r="H10" s="204"/>
-      <c r="I10" s="204"/>
-      <c r="J10" s="205"/>
+      <c r="D10" s="230"/>
+      <c r="E10" s="230"/>
+      <c r="F10" s="230"/>
+      <c r="G10" s="230"/>
+      <c r="H10" s="230"/>
+      <c r="I10" s="230"/>
+      <c r="J10" s="231"/>
       <c r="K10" s="76"/>
       <c r="L10" s="77" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="120" customHeight="1">
+    <row r="11" spans="1:12" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="28" t="s">
+        <v>293</v>
+      </c>
+      <c r="B11" s="46" t="s">
+        <v>223</v>
+      </c>
+      <c r="C11" s="159" t="s">
         <v>294</v>
       </c>
-      <c r="B11" s="46" t="s">
-        <v>224</v>
-      </c>
-      <c r="C11" s="166" t="s">
+      <c r="D11" s="160"/>
+      <c r="E11" s="160"/>
+      <c r="F11" s="160"/>
+      <c r="G11" s="160"/>
+      <c r="H11" s="161"/>
+      <c r="I11" s="232"/>
+      <c r="J11" s="175"/>
+      <c r="K11" s="70" t="s">
+        <v>490</v>
+      </c>
+      <c r="L11" s="44" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="66" t="s">
         <v>295</v>
       </c>
-      <c r="D11" s="167"/>
-      <c r="E11" s="167"/>
-      <c r="F11" s="167"/>
-      <c r="G11" s="167"/>
-      <c r="H11" s="168"/>
-      <c r="I11" s="208"/>
-      <c r="J11" s="209"/>
-      <c r="K11" s="70" t="s">
-        <v>491</v>
-      </c>
-      <c r="L11" s="44" t="s">
+      <c r="B12" s="67"/>
+      <c r="C12" s="238"/>
+      <c r="D12" s="239"/>
+      <c r="E12" s="239"/>
+      <c r="F12" s="239"/>
+      <c r="G12" s="239"/>
+      <c r="H12" s="239"/>
+      <c r="I12" s="165"/>
+      <c r="J12" s="166"/>
+      <c r="K12" s="39" t="s">
+        <v>296</v>
+      </c>
+      <c r="L12" s="39" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="120" customHeight="1">
-      <c r="A12" s="66" t="s">
-        <v>296</v>
-      </c>
-      <c r="B12" s="67"/>
-      <c r="C12" s="187"/>
-      <c r="D12" s="188"/>
-      <c r="E12" s="188"/>
-      <c r="F12" s="188"/>
-      <c r="G12" s="188"/>
-      <c r="H12" s="188"/>
-      <c r="I12" s="172"/>
-      <c r="J12" s="173"/>
-      <c r="K12" s="39" t="s">
-        <v>297</v>
-      </c>
-      <c r="L12" s="39" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="180" customHeight="1">
+    <row r="13" spans="1:12" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>39</v>
       </c>
@@ -6387,29 +6390,29 @@
         <v>142</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D13" s="26" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E13" s="60"/>
       <c r="F13" s="26" t="s">
         <v>38</v>
       </c>
       <c r="G13" s="26" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H13" s="60"/>
       <c r="I13" s="40" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J13" s="40" t="s">
-        <v>329</v>
-      </c>
-      <c r="K13" s="193"/>
-      <c r="L13" s="194"/>
+        <v>328</v>
+      </c>
+      <c r="K13" s="201"/>
+      <c r="L13" s="202"/>
     </row>
-    <row r="14" spans="1:12" ht="135">
+    <row r="14" spans="1:12" ht="135" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
         <v>37</v>
       </c>
@@ -6417,23 +6420,23 @@
         <v>141</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>317</v>
-      </c>
-      <c r="D14" s="171"/>
-      <c r="E14" s="158"/>
-      <c r="F14" s="172"/>
-      <c r="G14" s="172"/>
-      <c r="H14" s="172"/>
+        <v>316</v>
+      </c>
+      <c r="D14" s="164"/>
+      <c r="E14" s="168"/>
+      <c r="F14" s="165"/>
+      <c r="G14" s="165"/>
+      <c r="H14" s="165"/>
       <c r="I14" s="40" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="J14" s="40" t="s">
-        <v>506</v>
-      </c>
-      <c r="K14" s="195"/>
-      <c r="L14" s="196"/>
+        <v>505</v>
+      </c>
+      <c r="K14" s="219"/>
+      <c r="L14" s="220"/>
     </row>
-    <row r="15" spans="1:12" ht="135">
+    <row r="15" spans="1:12" ht="135" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>140</v>
       </c>
@@ -6447,7 +6450,7 @@
         <v>137</v>
       </c>
       <c r="E15" s="90" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="F15" s="17" t="s">
         <v>136</v>
@@ -6459,386 +6462,386 @@
         <v>134</v>
       </c>
       <c r="I15" s="39" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J15" s="39" t="s">
-        <v>209</v>
-      </c>
-      <c r="K15" s="195"/>
-      <c r="L15" s="196"/>
+        <v>208</v>
+      </c>
+      <c r="K15" s="219"/>
+      <c r="L15" s="220"/>
     </row>
-    <row r="16" spans="1:12" ht="150" customHeight="1">
-      <c r="A16" s="186" t="s">
+    <row r="16" spans="1:12" ht="150" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="237" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="189" t="s">
+      <c r="B16" s="203" t="s">
         <v>133</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>290</v>
-      </c>
-      <c r="D16" s="206"/>
-      <c r="E16" s="207"/>
+        <v>289</v>
+      </c>
+      <c r="D16" s="205"/>
+      <c r="E16" s="206"/>
       <c r="F16" s="26" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G16" s="27" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H16" s="38"/>
       <c r="I16" s="42" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="J16" s="42" t="s">
-        <v>211</v>
-      </c>
-      <c r="K16" s="195"/>
-      <c r="L16" s="196"/>
+        <v>210</v>
+      </c>
+      <c r="K16" s="219"/>
+      <c r="L16" s="220"/>
     </row>
-    <row r="17" spans="1:13" ht="15" customHeight="1">
-      <c r="A17" s="186"/>
-      <c r="B17" s="189"/>
-      <c r="C17" s="166" t="s">
+    <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="237"/>
+      <c r="B17" s="203"/>
+      <c r="C17" s="159" t="s">
         <v>132</v>
       </c>
-      <c r="D17" s="167"/>
-      <c r="E17" s="167"/>
-      <c r="F17" s="167"/>
-      <c r="G17" s="167"/>
-      <c r="H17" s="210"/>
-      <c r="I17" s="210"/>
-      <c r="J17" s="211"/>
-      <c r="K17" s="195"/>
-      <c r="L17" s="196"/>
+      <c r="D17" s="160"/>
+      <c r="E17" s="160"/>
+      <c r="F17" s="160"/>
+      <c r="G17" s="160"/>
+      <c r="H17" s="200"/>
+      <c r="I17" s="200"/>
+      <c r="J17" s="185"/>
+      <c r="K17" s="219"/>
+      <c r="L17" s="220"/>
     </row>
-    <row r="18" spans="1:13" ht="135" customHeight="1">
-      <c r="A18" s="186" t="s">
+    <row r="18" spans="1:13" ht="135" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="237" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="189" t="s">
+      <c r="B18" s="203" t="s">
         <v>131</v>
       </c>
       <c r="C18" s="82" t="s">
+        <v>286</v>
+      </c>
+      <c r="D18" s="205"/>
+      <c r="E18" s="206"/>
+      <c r="F18" s="83" t="s">
         <v>287</v>
       </c>
-      <c r="D18" s="206"/>
-      <c r="E18" s="207"/>
-      <c r="F18" s="83" t="s">
-        <v>288</v>
-      </c>
       <c r="G18" s="83" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H18" s="10"/>
       <c r="I18" s="42" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="J18" s="42" t="s">
-        <v>212</v>
-      </c>
-      <c r="K18" s="197"/>
-      <c r="L18" s="198"/>
+        <v>211</v>
+      </c>
+      <c r="K18" s="221"/>
+      <c r="L18" s="222"/>
     </row>
-    <row r="19" spans="1:13" ht="15" customHeight="1">
-      <c r="A19" s="186"/>
-      <c r="B19" s="224"/>
-      <c r="C19" s="179" t="s">
+    <row r="19" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="237"/>
+      <c r="B19" s="204"/>
+      <c r="C19" s="223" t="s">
         <v>130</v>
       </c>
-      <c r="D19" s="167"/>
-      <c r="E19" s="167"/>
-      <c r="F19" s="167"/>
-      <c r="G19" s="167"/>
-      <c r="H19" s="167"/>
-      <c r="I19" s="167"/>
-      <c r="J19" s="167"/>
-      <c r="K19" s="167"/>
-      <c r="L19" s="168"/>
+      <c r="D19" s="160"/>
+      <c r="E19" s="160"/>
+      <c r="F19" s="160"/>
+      <c r="G19" s="160"/>
+      <c r="H19" s="160"/>
+      <c r="I19" s="160"/>
+      <c r="J19" s="160"/>
+      <c r="K19" s="160"/>
+      <c r="L19" s="161"/>
     </row>
-    <row r="20" spans="1:13" ht="15" customHeight="1">
-      <c r="A20" s="161" t="s">
+    <row r="20" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="154" t="s">
+        <v>263</v>
+      </c>
+      <c r="B20" s="209" t="s">
         <v>264</v>
       </c>
-      <c r="B20" s="226" t="s">
-        <v>265</v>
-      </c>
-      <c r="C20" s="179" t="s">
-        <v>499</v>
-      </c>
-      <c r="D20" s="167"/>
-      <c r="E20" s="167"/>
-      <c r="F20" s="167"/>
-      <c r="G20" s="167"/>
-      <c r="H20" s="167"/>
-      <c r="I20" s="167"/>
-      <c r="J20" s="167"/>
-      <c r="K20" s="167"/>
-      <c r="L20" s="167"/>
+      <c r="C20" s="223" t="s">
+        <v>498</v>
+      </c>
+      <c r="D20" s="160"/>
+      <c r="E20" s="160"/>
+      <c r="F20" s="160"/>
+      <c r="G20" s="160"/>
+      <c r="H20" s="160"/>
+      <c r="I20" s="160"/>
+      <c r="J20" s="160"/>
+      <c r="K20" s="160"/>
+      <c r="L20" s="160"/>
       <c r="M20" s="141"/>
     </row>
-    <row r="21" spans="1:13" ht="105" customHeight="1">
-      <c r="A21" s="162"/>
-      <c r="B21" s="227"/>
-      <c r="C21" s="181" t="s">
-        <v>502</v>
-      </c>
-      <c r="D21" s="182"/>
-      <c r="E21" s="182"/>
-      <c r="F21" s="182"/>
-      <c r="G21" s="182"/>
-      <c r="H21" s="182"/>
-      <c r="I21" s="182"/>
-      <c r="J21" s="183"/>
+    <row r="21" spans="1:13" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="155"/>
+      <c r="B21" s="210"/>
+      <c r="C21" s="233" t="s">
+        <v>501</v>
+      </c>
+      <c r="D21" s="234"/>
+      <c r="E21" s="234"/>
+      <c r="F21" s="234"/>
+      <c r="G21" s="234"/>
+      <c r="H21" s="234"/>
+      <c r="I21" s="234"/>
+      <c r="J21" s="235"/>
       <c r="K21" s="42" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="L21" s="140" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="105" customHeight="1">
+    <row r="22" spans="1:13" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>129</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="C22" s="166" t="s">
-        <v>235</v>
-      </c>
-      <c r="D22" s="167"/>
-      <c r="E22" s="167"/>
-      <c r="F22" s="167"/>
-      <c r="G22" s="167"/>
-      <c r="H22" s="167"/>
-      <c r="I22" s="167"/>
-      <c r="J22" s="168"/>
+      <c r="C22" s="159" t="s">
+        <v>234</v>
+      </c>
+      <c r="D22" s="160"/>
+      <c r="E22" s="160"/>
+      <c r="F22" s="160"/>
+      <c r="G22" s="160"/>
+      <c r="H22" s="160"/>
+      <c r="I22" s="160"/>
+      <c r="J22" s="161"/>
       <c r="K22" s="41" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="L22" s="44" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="90" customHeight="1">
-      <c r="A23" s="234" t="s">
+    <row r="23" spans="1:13" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="180" t="s">
+        <v>366</v>
+      </c>
+      <c r="B23" s="162" t="s">
+        <v>371</v>
+      </c>
+      <c r="C23" s="159" t="s">
+        <v>368</v>
+      </c>
+      <c r="D23" s="160"/>
+      <c r="E23" s="160"/>
+      <c r="F23" s="160"/>
+      <c r="G23" s="160"/>
+      <c r="H23" s="160"/>
+      <c r="I23" s="160"/>
+      <c r="J23" s="161"/>
+      <c r="K23" s="185" t="s">
+        <v>370</v>
+      </c>
+      <c r="L23" s="185" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="181"/>
+      <c r="B24" s="179"/>
+      <c r="C24" s="159" t="s">
         <v>367</v>
       </c>
-      <c r="B23" s="169" t="s">
-        <v>372</v>
-      </c>
-      <c r="C23" s="166" t="s">
+      <c r="D24" s="160"/>
+      <c r="E24" s="160"/>
+      <c r="F24" s="160"/>
+      <c r="G24" s="160"/>
+      <c r="H24" s="160"/>
+      <c r="I24" s="160"/>
+      <c r="J24" s="161"/>
+      <c r="K24" s="186"/>
+      <c r="L24" s="186"/>
+    </row>
+    <row r="25" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="182"/>
+      <c r="B25" s="163"/>
+      <c r="C25" s="159" t="s">
         <v>369</v>
       </c>
-      <c r="D23" s="167"/>
-      <c r="E23" s="167"/>
-      <c r="F23" s="167"/>
-      <c r="G23" s="167"/>
-      <c r="H23" s="167"/>
-      <c r="I23" s="167"/>
-      <c r="J23" s="168"/>
-      <c r="K23" s="211" t="s">
-        <v>371</v>
-      </c>
-      <c r="L23" s="211" t="s">
-        <v>387</v>
-      </c>
+      <c r="D25" s="160"/>
+      <c r="E25" s="160"/>
+      <c r="F25" s="160"/>
+      <c r="G25" s="160"/>
+      <c r="H25" s="160"/>
+      <c r="I25" s="160"/>
+      <c r="J25" s="161"/>
+      <c r="K25" s="187"/>
+      <c r="L25" s="187"/>
     </row>
-    <row r="24" spans="1:13" ht="15" customHeight="1">
-      <c r="A24" s="235"/>
-      <c r="B24" s="185"/>
-      <c r="C24" s="166" t="s">
-        <v>368</v>
-      </c>
-      <c r="D24" s="167"/>
-      <c r="E24" s="167"/>
-      <c r="F24" s="167"/>
-      <c r="G24" s="167"/>
-      <c r="H24" s="167"/>
-      <c r="I24" s="167"/>
-      <c r="J24" s="168"/>
-      <c r="K24" s="225"/>
-      <c r="L24" s="225"/>
-    </row>
-    <row r="25" spans="1:13" ht="45" customHeight="1">
-      <c r="A25" s="236"/>
-      <c r="B25" s="170"/>
-      <c r="C25" s="166" t="s">
-        <v>370</v>
-      </c>
-      <c r="D25" s="167"/>
-      <c r="E25" s="167"/>
-      <c r="F25" s="167"/>
-      <c r="G25" s="167"/>
-      <c r="H25" s="167"/>
-      <c r="I25" s="167"/>
-      <c r="J25" s="168"/>
-      <c r="K25" s="220"/>
-      <c r="L25" s="220"/>
-    </row>
-    <row r="26" spans="1:13" ht="30" customHeight="1">
+    <row r="26" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
         <v>127</v>
       </c>
       <c r="B26" s="46" t="s">
         <v>126</v>
       </c>
-      <c r="C26" s="176" t="s">
+      <c r="C26" s="183" t="s">
         <v>125</v>
       </c>
-      <c r="D26" s="217"/>
-      <c r="E26" s="217"/>
-      <c r="F26" s="217"/>
-      <c r="G26" s="217"/>
-      <c r="H26" s="217"/>
-      <c r="I26" s="217"/>
-      <c r="J26" s="217"/>
-      <c r="K26" s="217"/>
-      <c r="L26" s="217"/>
+      <c r="D26" s="184"/>
+      <c r="E26" s="184"/>
+      <c r="F26" s="184"/>
+      <c r="G26" s="184"/>
+      <c r="H26" s="184"/>
+      <c r="I26" s="184"/>
+      <c r="J26" s="184"/>
+      <c r="K26" s="184"/>
+      <c r="L26" s="184"/>
     </row>
-    <row r="27" spans="1:13" ht="30" customHeight="1">
+    <row r="27" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
         <v>124</v>
       </c>
       <c r="B27" s="92" t="s">
         <v>123</v>
       </c>
-      <c r="C27" s="176" t="s">
+      <c r="C27" s="183" t="s">
         <v>122</v>
       </c>
-      <c r="D27" s="217"/>
-      <c r="E27" s="217"/>
-      <c r="F27" s="217"/>
-      <c r="G27" s="217"/>
-      <c r="H27" s="217"/>
-      <c r="I27" s="217"/>
-      <c r="J27" s="217"/>
-      <c r="K27" s="217"/>
-      <c r="L27" s="217"/>
+      <c r="D27" s="184"/>
+      <c r="E27" s="184"/>
+      <c r="F27" s="184"/>
+      <c r="G27" s="184"/>
+      <c r="H27" s="184"/>
+      <c r="I27" s="184"/>
+      <c r="J27" s="184"/>
+      <c r="K27" s="184"/>
+      <c r="L27" s="184"/>
     </row>
-    <row r="28" spans="1:13" ht="30" customHeight="1">
+    <row r="28" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
         <v>171</v>
       </c>
       <c r="B28" s="92" t="s">
         <v>172</v>
       </c>
-      <c r="C28" s="176" t="s">
+      <c r="C28" s="183" t="s">
         <v>173</v>
       </c>
-      <c r="D28" s="217"/>
-      <c r="E28" s="217"/>
-      <c r="F28" s="217"/>
-      <c r="G28" s="217"/>
-      <c r="H28" s="217"/>
-      <c r="I28" s="217"/>
-      <c r="J28" s="217"/>
-      <c r="K28" s="217"/>
-      <c r="L28" s="217"/>
+      <c r="D28" s="184"/>
+      <c r="E28" s="184"/>
+      <c r="F28" s="184"/>
+      <c r="G28" s="184"/>
+      <c r="H28" s="184"/>
+      <c r="I28" s="184"/>
+      <c r="J28" s="184"/>
+      <c r="K28" s="184"/>
+      <c r="L28" s="184"/>
     </row>
-    <row r="29" spans="1:13" ht="30" customHeight="1">
+    <row r="29" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
         <v>121</v>
       </c>
       <c r="B29" s="92" t="s">
         <v>120</v>
       </c>
-      <c r="C29" s="176" t="s">
+      <c r="C29" s="183" t="s">
         <v>119</v>
       </c>
-      <c r="D29" s="217"/>
-      <c r="E29" s="217"/>
-      <c r="F29" s="217"/>
-      <c r="G29" s="217"/>
-      <c r="H29" s="217"/>
-      <c r="I29" s="217"/>
-      <c r="J29" s="217"/>
-      <c r="K29" s="217"/>
-      <c r="L29" s="217"/>
+      <c r="D29" s="184"/>
+      <c r="E29" s="184"/>
+      <c r="F29" s="184"/>
+      <c r="G29" s="184"/>
+      <c r="H29" s="184"/>
+      <c r="I29" s="184"/>
+      <c r="J29" s="184"/>
+      <c r="K29" s="184"/>
+      <c r="L29" s="184"/>
     </row>
-    <row r="30" spans="1:13" ht="30" customHeight="1">
+    <row r="30" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
         <v>174</v>
       </c>
       <c r="B30" s="92" t="s">
         <v>175</v>
       </c>
-      <c r="C30" s="176" t="s">
+      <c r="C30" s="183" t="s">
         <v>176</v>
       </c>
-      <c r="D30" s="217"/>
-      <c r="E30" s="217"/>
-      <c r="F30" s="217"/>
-      <c r="G30" s="217"/>
-      <c r="H30" s="217"/>
-      <c r="I30" s="217"/>
-      <c r="J30" s="217"/>
-      <c r="K30" s="217"/>
-      <c r="L30" s="217"/>
+      <c r="D30" s="184"/>
+      <c r="E30" s="184"/>
+      <c r="F30" s="184"/>
+      <c r="G30" s="184"/>
+      <c r="H30" s="184"/>
+      <c r="I30" s="184"/>
+      <c r="J30" s="184"/>
+      <c r="K30" s="184"/>
+      <c r="L30" s="184"/>
     </row>
-    <row r="31" spans="1:13" ht="30" customHeight="1">
+    <row r="31" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
         <v>118</v>
       </c>
       <c r="B31" s="92" t="s">
         <v>117</v>
       </c>
-      <c r="C31" s="176" t="s">
+      <c r="C31" s="183" t="s">
         <v>116</v>
       </c>
-      <c r="D31" s="217"/>
-      <c r="E31" s="217"/>
-      <c r="F31" s="217"/>
-      <c r="G31" s="217"/>
-      <c r="H31" s="217"/>
-      <c r="I31" s="217"/>
-      <c r="J31" s="217"/>
-      <c r="K31" s="217"/>
-      <c r="L31" s="217"/>
+      <c r="D31" s="184"/>
+      <c r="E31" s="184"/>
+      <c r="F31" s="184"/>
+      <c r="G31" s="184"/>
+      <c r="H31" s="184"/>
+      <c r="I31" s="184"/>
+      <c r="J31" s="184"/>
+      <c r="K31" s="184"/>
+      <c r="L31" s="184"/>
     </row>
-    <row r="32" spans="1:13" ht="30" customHeight="1">
+    <row r="32" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
         <v>115</v>
       </c>
       <c r="B32" s="46" t="s">
         <v>114</v>
       </c>
-      <c r="C32" s="176" t="s">
+      <c r="C32" s="183" t="s">
         <v>113</v>
       </c>
-      <c r="D32" s="217"/>
-      <c r="E32" s="217"/>
-      <c r="F32" s="217"/>
-      <c r="G32" s="217"/>
-      <c r="H32" s="217"/>
-      <c r="I32" s="217"/>
-      <c r="J32" s="217"/>
-      <c r="K32" s="217"/>
-      <c r="L32" s="217"/>
+      <c r="D32" s="184"/>
+      <c r="E32" s="184"/>
+      <c r="F32" s="184"/>
+      <c r="G32" s="184"/>
+      <c r="H32" s="184"/>
+      <c r="I32" s="184"/>
+      <c r="J32" s="184"/>
+      <c r="K32" s="184"/>
+      <c r="L32" s="184"/>
     </row>
-    <row r="33" spans="1:12" ht="15" customHeight="1">
-      <c r="A33" s="161" t="s">
+    <row r="33" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="154" t="s">
         <v>112</v>
       </c>
-      <c r="B33" s="169" t="s">
+      <c r="B33" s="162" t="s">
         <v>111</v>
       </c>
-      <c r="C33" s="174" t="s">
-        <v>531</v>
-      </c>
-      <c r="D33" s="175"/>
-      <c r="E33" s="175"/>
-      <c r="F33" s="175"/>
-      <c r="G33" s="175"/>
-      <c r="H33" s="175"/>
-      <c r="I33" s="175"/>
-      <c r="J33" s="175"/>
-      <c r="K33" s="175"/>
-      <c r="L33" s="176"/>
+      <c r="C33" s="211" t="s">
+        <v>530</v>
+      </c>
+      <c r="D33" s="196"/>
+      <c r="E33" s="196"/>
+      <c r="F33" s="196"/>
+      <c r="G33" s="196"/>
+      <c r="H33" s="196"/>
+      <c r="I33" s="196"/>
+      <c r="J33" s="196"/>
+      <c r="K33" s="196"/>
+      <c r="L33" s="183"/>
     </row>
-    <row r="34" spans="1:12" ht="75" customHeight="1">
-      <c r="A34" s="178"/>
-      <c r="B34" s="177"/>
+    <row r="34" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="240"/>
+      <c r="B34" s="195"/>
       <c r="C34" s="133" t="s">
         <v>178</v>
       </c>
@@ -6849,160 +6852,160 @@
       <c r="F34" s="135" t="s">
         <v>179</v>
       </c>
-      <c r="G34" s="206"/>
-      <c r="H34" s="207"/>
+      <c r="G34" s="205"/>
+      <c r="H34" s="206"/>
       <c r="I34" s="134" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="J34" s="134" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="K34" s="40" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="L34" s="40" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="75" customHeight="1">
+    <row r="35" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="139" t="s">
+        <v>491</v>
+      </c>
+      <c r="B35" s="136" t="s">
         <v>492</v>
       </c>
-      <c r="B35" s="136" t="s">
+      <c r="C35" s="186" t="s">
+        <v>496</v>
+      </c>
+      <c r="D35" s="191"/>
+      <c r="E35" s="191"/>
+      <c r="F35" s="191"/>
+      <c r="G35" s="191"/>
+      <c r="H35" s="191"/>
+      <c r="I35" s="191"/>
+      <c r="J35" s="90" t="s">
+        <v>495</v>
+      </c>
+      <c r="K35" s="108" t="s">
+        <v>494</v>
+      </c>
+      <c r="L35" s="137" t="s">
         <v>493</v>
       </c>
-      <c r="C35" s="225" t="s">
-        <v>497</v>
-      </c>
-      <c r="D35" s="240"/>
-      <c r="E35" s="240"/>
-      <c r="F35" s="240"/>
-      <c r="G35" s="240"/>
-      <c r="H35" s="240"/>
-      <c r="I35" s="240"/>
-      <c r="J35" s="90" t="s">
-        <v>496</v>
-      </c>
-      <c r="K35" s="108" t="s">
-        <v>495</v>
-      </c>
-      <c r="L35" s="137" t="s">
-        <v>494</v>
-      </c>
     </row>
-    <row r="36" spans="1:12" s="61" customFormat="1" ht="15" customHeight="1">
-      <c r="A36" s="231" t="s">
+    <row r="36" spans="1:12" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="176" t="s">
         <v>55</v>
       </c>
-      <c r="B36" s="233" t="s">
+      <c r="B36" s="178" t="s">
         <v>54</v>
       </c>
-      <c r="C36" s="237" t="s">
-        <v>380</v>
-      </c>
-      <c r="D36" s="238"/>
-      <c r="E36" s="238"/>
-      <c r="F36" s="238"/>
-      <c r="G36" s="238"/>
-      <c r="H36" s="238"/>
-      <c r="I36" s="238"/>
-      <c r="J36" s="238"/>
-      <c r="K36" s="238"/>
-      <c r="L36" s="239"/>
+      <c r="C36" s="188" t="s">
+        <v>379</v>
+      </c>
+      <c r="D36" s="189"/>
+      <c r="E36" s="189"/>
+      <c r="F36" s="189"/>
+      <c r="G36" s="189"/>
+      <c r="H36" s="189"/>
+      <c r="I36" s="189"/>
+      <c r="J36" s="189"/>
+      <c r="K36" s="189"/>
+      <c r="L36" s="190"/>
     </row>
-    <row r="37" spans="1:12" ht="345" customHeight="1">
-      <c r="A37" s="232"/>
-      <c r="B37" s="185"/>
+    <row r="37" spans="1:12" ht="345" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="177"/>
+      <c r="B37" s="179"/>
       <c r="C37" s="104" t="s">
+        <v>226</v>
+      </c>
+      <c r="D37" s="90" t="s">
+        <v>378</v>
+      </c>
+      <c r="E37" s="167"/>
+      <c r="F37" s="168"/>
+      <c r="G37" s="169"/>
+      <c r="H37" s="105" t="s">
         <v>227</v>
       </c>
-      <c r="D37" s="90" t="s">
-        <v>379</v>
-      </c>
-      <c r="E37" s="157"/>
-      <c r="F37" s="158"/>
-      <c r="G37" s="159"/>
-      <c r="H37" s="105" t="s">
-        <v>228</v>
-      </c>
       <c r="I37" s="90" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="J37" s="90" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="K37" s="106" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="L37" s="40" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="45" customHeight="1">
+    <row r="38" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="116" t="s">
         <v>109</v>
       </c>
       <c r="B38" s="117" t="s">
-        <v>474</v>
-      </c>
-      <c r="C38" s="218" t="s">
+        <v>473</v>
+      </c>
+      <c r="C38" s="198" t="s">
         <v>108</v>
       </c>
-      <c r="D38" s="219"/>
-      <c r="E38" s="219"/>
-      <c r="F38" s="219"/>
-      <c r="G38" s="219"/>
-      <c r="H38" s="219"/>
-      <c r="I38" s="219"/>
-      <c r="J38" s="219"/>
-      <c r="K38" s="219"/>
-      <c r="L38" s="220"/>
+      <c r="D38" s="199"/>
+      <c r="E38" s="199"/>
+      <c r="F38" s="199"/>
+      <c r="G38" s="199"/>
+      <c r="H38" s="199"/>
+      <c r="I38" s="199"/>
+      <c r="J38" s="199"/>
+      <c r="K38" s="199"/>
+      <c r="L38" s="187"/>
     </row>
-    <row r="39" spans="1:12" ht="45" customHeight="1">
+    <row r="39" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="116" t="s">
         <v>107</v>
       </c>
       <c r="B39" s="117" t="s">
         <v>106</v>
       </c>
-      <c r="C39" s="223" t="s">
+      <c r="C39" s="197" t="s">
+        <v>431</v>
+      </c>
+      <c r="D39" s="200"/>
+      <c r="E39" s="200"/>
+      <c r="F39" s="200"/>
+      <c r="G39" s="200"/>
+      <c r="H39" s="200"/>
+      <c r="I39" s="200"/>
+      <c r="J39" s="200"/>
+      <c r="K39" s="200"/>
+      <c r="L39" s="185"/>
+    </row>
+    <row r="40" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="114" t="s">
+        <v>478</v>
+      </c>
+      <c r="B40" s="115" t="s">
+        <v>479</v>
+      </c>
+      <c r="C40" s="159" t="s">
+        <v>430</v>
+      </c>
+      <c r="D40" s="160"/>
+      <c r="E40" s="160"/>
+      <c r="F40" s="160"/>
+      <c r="G40" s="160"/>
+      <c r="H40" s="160"/>
+      <c r="I40" s="160"/>
+      <c r="J40" s="161"/>
+      <c r="K40" s="111" t="s">
         <v>432</v>
       </c>
-      <c r="D39" s="210"/>
-      <c r="E39" s="210"/>
-      <c r="F39" s="210"/>
-      <c r="G39" s="210"/>
-      <c r="H39" s="210"/>
-      <c r="I39" s="210"/>
-      <c r="J39" s="210"/>
-      <c r="K39" s="210"/>
-      <c r="L39" s="211"/>
+      <c r="L40" s="111" t="s">
+        <v>480</v>
+      </c>
     </row>
-    <row r="40" spans="1:12" ht="60" customHeight="1">
-      <c r="A40" s="114" t="s">
-        <v>479</v>
-      </c>
-      <c r="B40" s="115" t="s">
-        <v>480</v>
-      </c>
-      <c r="C40" s="166" t="s">
-        <v>431</v>
-      </c>
-      <c r="D40" s="167"/>
-      <c r="E40" s="167"/>
-      <c r="F40" s="167"/>
-      <c r="G40" s="167"/>
-      <c r="H40" s="167"/>
-      <c r="I40" s="167"/>
-      <c r="J40" s="168"/>
-      <c r="K40" s="111" t="s">
-        <v>433</v>
-      </c>
-      <c r="L40" s="111" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" ht="105" customHeight="1">
+    <row r="41" spans="1:12" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="116" t="s">
         <v>105</v>
       </c>
@@ -7010,27 +7013,27 @@
         <v>104</v>
       </c>
       <c r="C41" s="35" t="s">
-        <v>325</v>
-      </c>
-      <c r="D41" s="206"/>
-      <c r="E41" s="207"/>
+        <v>324</v>
+      </c>
+      <c r="D41" s="205"/>
+      <c r="E41" s="206"/>
       <c r="F41" s="27" t="s">
         <v>103</v>
       </c>
       <c r="G41" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="H41" s="212"/>
+      <c r="H41" s="207"/>
       <c r="I41" s="73" t="s">
-        <v>324</v>
-      </c>
-      <c r="J41" s="193"/>
-      <c r="K41" s="194"/>
+        <v>323</v>
+      </c>
+      <c r="J41" s="201"/>
+      <c r="K41" s="202"/>
       <c r="L41" s="94" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="90">
+    <row r="42" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A42" s="20" t="s">
         <v>101</v>
       </c>
@@ -7047,96 +7050,96 @@
         <v>97</v>
       </c>
       <c r="F42" s="21" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="G42" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="H42" s="213"/>
+      <c r="H42" s="208"/>
       <c r="I42" s="75" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="J42" s="40" t="s">
-        <v>214</v>
-      </c>
-      <c r="K42" s="214"/>
-      <c r="L42" s="214"/>
+        <v>213</v>
+      </c>
+      <c r="K42" s="212"/>
+      <c r="L42" s="212"/>
     </row>
-    <row r="43" spans="1:12" ht="135" customHeight="1">
+    <row r="43" spans="1:12" ht="135" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="20" t="s">
         <v>186</v>
       </c>
       <c r="B43" s="19" t="s">
         <v>187</v>
       </c>
-      <c r="C43" s="174" t="s">
+      <c r="C43" s="211" t="s">
         <v>188</v>
       </c>
-      <c r="D43" s="175"/>
-      <c r="E43" s="175"/>
-      <c r="F43" s="175"/>
-      <c r="G43" s="175"/>
-      <c r="H43" s="176"/>
-      <c r="I43" s="215"/>
-      <c r="J43" s="209"/>
+      <c r="D43" s="196"/>
+      <c r="E43" s="196"/>
+      <c r="F43" s="196"/>
+      <c r="G43" s="196"/>
+      <c r="H43" s="183"/>
+      <c r="I43" s="174"/>
+      <c r="J43" s="175"/>
       <c r="K43" s="70" t="s">
+        <v>214</v>
+      </c>
+      <c r="L43" s="94" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="20" t="s">
         <v>215</v>
       </c>
-      <c r="L43" s="94" t="s">
-        <v>504</v>
+      <c r="B44" s="19" t="s">
+        <v>216</v>
+      </c>
+      <c r="C44" s="211" t="s">
+        <v>218</v>
+      </c>
+      <c r="D44" s="196"/>
+      <c r="E44" s="196"/>
+      <c r="F44" s="196"/>
+      <c r="G44" s="196"/>
+      <c r="H44" s="183"/>
+      <c r="I44" s="167"/>
+      <c r="J44" s="169"/>
+      <c r="K44" s="70" t="s">
+        <v>217</v>
+      </c>
+      <c r="L44" s="94" t="s">
+        <v>391</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="75" customHeight="1">
-      <c r="A44" s="20" t="s">
-        <v>216</v>
-      </c>
-      <c r="B44" s="19" t="s">
-        <v>217</v>
-      </c>
-      <c r="C44" s="174" t="s">
-        <v>219</v>
-      </c>
-      <c r="D44" s="175"/>
-      <c r="E44" s="175"/>
-      <c r="F44" s="175"/>
-      <c r="G44" s="175"/>
-      <c r="H44" s="176"/>
-      <c r="I44" s="157"/>
-      <c r="J44" s="159"/>
-      <c r="K44" s="70" t="s">
-        <v>218</v>
-      </c>
-      <c r="L44" s="94" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" ht="120">
+    <row r="45" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="A45" s="20" t="s">
         <v>184</v>
       </c>
       <c r="B45" s="19" t="s">
         <v>183</v>
       </c>
-      <c r="C45" s="175" t="s">
+      <c r="C45" s="196" t="s">
         <v>185</v>
       </c>
-      <c r="D45" s="175"/>
-      <c r="E45" s="175"/>
-      <c r="F45" s="175"/>
-      <c r="G45" s="175"/>
-      <c r="H45" s="175"/>
+      <c r="D45" s="196"/>
+      <c r="E45" s="196"/>
+      <c r="F45" s="196"/>
+      <c r="G45" s="196"/>
+      <c r="H45" s="196"/>
       <c r="I45" s="42" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="J45" s="54"/>
       <c r="K45" s="40" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="L45" s="40" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="300" customHeight="1">
+    <row r="46" spans="1:12" ht="300" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="20" t="s">
         <v>95</v>
       </c>
@@ -7147,30 +7150,30 @@
         <v>93</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E46" s="30" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F46" s="30" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="G46" s="30" t="s">
         <v>92</v>
       </c>
       <c r="H46" s="72" t="s">
-        <v>398</v>
-      </c>
-      <c r="I46" s="157"/>
-      <c r="J46" s="159"/>
+        <v>397</v>
+      </c>
+      <c r="I46" s="167"/>
+      <c r="J46" s="169"/>
       <c r="K46" s="40" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L46" s="40" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
-    <row r="47" spans="1:12" ht="285">
+    <row r="47" spans="1:12" ht="285" x14ac:dyDescent="0.25">
       <c r="A47" s="20" t="s">
         <v>91</v>
       </c>
@@ -7182,49 +7185,49 @@
       </c>
       <c r="D47" s="43"/>
       <c r="E47" s="91" t="s">
+        <v>394</v>
+      </c>
+      <c r="F47" s="17" t="s">
         <v>395</v>
       </c>
-      <c r="F47" s="17" t="s">
+      <c r="G47" s="17" t="s">
         <v>396</v>
       </c>
-      <c r="G47" s="17" t="s">
-        <v>397</v>
-      </c>
-      <c r="H47" s="157"/>
-      <c r="I47" s="158"/>
-      <c r="J47" s="159"/>
+      <c r="H47" s="167"/>
+      <c r="I47" s="168"/>
+      <c r="J47" s="169"/>
       <c r="K47" s="40" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="L47" s="40" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="240">
+    <row r="48" spans="1:12" ht="240" x14ac:dyDescent="0.25">
       <c r="A48" s="20" t="s">
         <v>88</v>
       </c>
       <c r="B48" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="C48" s="221"/>
-      <c r="D48" s="158"/>
+      <c r="C48" s="214"/>
+      <c r="D48" s="168"/>
       <c r="E48" s="42" t="s">
-        <v>230</v>
-      </c>
-      <c r="F48" s="157"/>
-      <c r="G48" s="158"/>
-      <c r="H48" s="158"/>
-      <c r="I48" s="159"/>
+        <v>229</v>
+      </c>
+      <c r="F48" s="167"/>
+      <c r="G48" s="168"/>
+      <c r="H48" s="168"/>
+      <c r="I48" s="169"/>
       <c r="J48" s="40" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="K48" s="40" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="L48" s="40"/>
     </row>
-    <row r="49" spans="1:13" ht="180">
+    <row r="49" spans="1:13" ht="180" x14ac:dyDescent="0.25">
       <c r="A49" s="20" t="s">
         <v>86</v>
       </c>
@@ -7232,98 +7235,98 @@
         <v>85</v>
       </c>
       <c r="C49" s="33" t="s">
-        <v>301</v>
-      </c>
-      <c r="D49" s="171"/>
-      <c r="E49" s="172"/>
-      <c r="F49" s="172"/>
-      <c r="G49" s="173"/>
+        <v>300</v>
+      </c>
+      <c r="D49" s="164"/>
+      <c r="E49" s="165"/>
+      <c r="F49" s="165"/>
+      <c r="G49" s="166"/>
       <c r="H49" s="17" t="s">
         <v>177</v>
       </c>
       <c r="I49" s="22" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="J49" s="69" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K49" s="40" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="L49" s="93" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="M49" s="6"/>
     </row>
-    <row r="50" spans="1:13" ht="210" customHeight="1">
-      <c r="A50" s="228" t="s">
+    <row r="50" spans="1:13" ht="210" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="192" t="s">
         <v>84</v>
       </c>
-      <c r="B50" s="230" t="s">
+      <c r="B50" s="194" t="s">
         <v>83</v>
       </c>
-      <c r="C50" s="174" t="s">
-        <v>300</v>
-      </c>
-      <c r="D50" s="175"/>
+      <c r="C50" s="211" t="s">
+        <v>299</v>
+      </c>
+      <c r="D50" s="196"/>
       <c r="E50" s="42" t="s">
-        <v>302</v>
-      </c>
-      <c r="F50" s="175" t="s">
-        <v>299</v>
-      </c>
-      <c r="G50" s="175"/>
-      <c r="H50" s="176"/>
+        <v>301</v>
+      </c>
+      <c r="F50" s="196" t="s">
+        <v>298</v>
+      </c>
+      <c r="G50" s="196"/>
+      <c r="H50" s="183"/>
       <c r="I50" s="40" t="s">
+        <v>305</v>
+      </c>
+      <c r="J50" s="40" t="s">
+        <v>224</v>
+      </c>
+      <c r="K50" s="42" t="s">
         <v>306</v>
-      </c>
-      <c r="J50" s="40" t="s">
-        <v>225</v>
-      </c>
-      <c r="K50" s="42" t="s">
-        <v>307</v>
       </c>
       <c r="L50" s="10"/>
     </row>
-    <row r="51" spans="1:13" ht="15" customHeight="1">
-      <c r="A51" s="229"/>
-      <c r="B51" s="177"/>
-      <c r="C51" s="166" t="s">
+    <row r="51" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="193"/>
+      <c r="B51" s="195"/>
+      <c r="C51" s="159" t="s">
         <v>82</v>
       </c>
-      <c r="D51" s="167"/>
-      <c r="E51" s="167"/>
-      <c r="F51" s="167"/>
-      <c r="G51" s="167"/>
-      <c r="H51" s="167"/>
-      <c r="I51" s="167"/>
-      <c r="J51" s="167"/>
-      <c r="K51" s="167"/>
-      <c r="L51" s="168"/>
+      <c r="D51" s="160"/>
+      <c r="E51" s="160"/>
+      <c r="F51" s="160"/>
+      <c r="G51" s="160"/>
+      <c r="H51" s="160"/>
+      <c r="I51" s="160"/>
+      <c r="J51" s="160"/>
+      <c r="K51" s="160"/>
+      <c r="L51" s="161"/>
     </row>
-    <row r="52" spans="1:13" ht="15" customHeight="1">
-      <c r="A52" s="228" t="s">
+    <row r="52" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="273" t="s">
         <v>189</v>
       </c>
-      <c r="B52" s="230" t="s">
+      <c r="B52" s="194" t="s">
         <v>197</v>
       </c>
-      <c r="C52" s="218" t="s">
+      <c r="C52" s="198" t="s">
         <v>191</v>
       </c>
-      <c r="D52" s="219"/>
-      <c r="E52" s="219"/>
-      <c r="F52" s="219"/>
-      <c r="G52" s="219"/>
-      <c r="H52" s="219"/>
-      <c r="I52" s="219"/>
-      <c r="J52" s="219"/>
-      <c r="K52" s="219"/>
-      <c r="L52" s="220"/>
+      <c r="D52" s="199"/>
+      <c r="E52" s="199"/>
+      <c r="F52" s="199"/>
+      <c r="G52" s="199"/>
+      <c r="H52" s="199"/>
+      <c r="I52" s="199"/>
+      <c r="J52" s="199"/>
+      <c r="K52" s="199"/>
+      <c r="L52" s="187"/>
     </row>
-    <row r="53" spans="1:13" ht="300" customHeight="1">
-      <c r="A53" s="229"/>
-      <c r="B53" s="218"/>
+    <row r="53" spans="1:13" ht="300" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="193"/>
+      <c r="B53" s="198"/>
       <c r="C53" s="35" t="s">
         <v>192</v>
       </c>
@@ -7337,23 +7340,23 @@
         <v>195</v>
       </c>
       <c r="G53" s="27" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H53" s="36" t="s">
+        <v>514</v>
+      </c>
+      <c r="I53" s="42" t="s">
         <v>515</v>
       </c>
-      <c r="I53" s="42" t="s">
-        <v>516</v>
-      </c>
-      <c r="J53" s="212"/>
+      <c r="J53" s="207"/>
       <c r="K53" s="40" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L53" s="40" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
-    <row r="54" spans="1:13" ht="352.5" customHeight="1">
+    <row r="54" spans="1:13" ht="352.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="24" t="s">
         <v>190</v>
       </c>
@@ -7361,35 +7364,35 @@
         <v>198</v>
       </c>
       <c r="C54" s="35" t="s">
+        <v>200</v>
+      </c>
+      <c r="D54" s="27" t="s">
         <v>201</v>
       </c>
-      <c r="D54" s="27" t="s">
+      <c r="E54" s="27" t="s">
         <v>202</v>
-      </c>
-      <c r="E54" s="27" t="s">
-        <v>203</v>
       </c>
       <c r="F54" s="27" t="s">
         <v>199</v>
       </c>
       <c r="G54" s="27" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H54" s="36" t="s">
-        <v>200</v>
+        <v>558</v>
       </c>
       <c r="I54" s="42" t="s">
-        <v>311</v>
-      </c>
-      <c r="J54" s="213"/>
+        <v>310</v>
+      </c>
+      <c r="J54" s="208"/>
       <c r="K54" s="40" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="L54" s="40" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
-    <row r="55" spans="1:13" ht="135" customHeight="1">
+    <row r="55" spans="1:13" ht="135" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="20" t="s">
         <v>81</v>
       </c>
@@ -7403,7 +7406,7 @@
         <v>78</v>
       </c>
       <c r="E55" s="30" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F55" s="30" t="s">
         <v>77</v>
@@ -7416,112 +7419,112 @@
       </c>
       <c r="I55" s="10"/>
       <c r="J55" s="42" t="s">
+        <v>251</v>
+      </c>
+      <c r="K55" s="40" t="s">
         <v>252</v>
       </c>
-      <c r="K55" s="40" t="s">
-        <v>253</v>
-      </c>
       <c r="L55" s="34" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
-    <row r="56" spans="1:13" ht="30" customHeight="1">
-      <c r="A56" s="228" t="s">
+    <row r="56" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="192" t="s">
         <v>75</v>
       </c>
-      <c r="B56" s="223" t="s">
+      <c r="B56" s="197" t="s">
         <v>74</v>
       </c>
-      <c r="C56" s="216" t="s">
-        <v>405</v>
-      </c>
-      <c r="D56" s="217"/>
-      <c r="E56" s="217"/>
-      <c r="F56" s="217"/>
-      <c r="G56" s="217"/>
-      <c r="H56" s="217"/>
-      <c r="I56" s="217"/>
-      <c r="J56" s="217"/>
-      <c r="K56" s="217"/>
-      <c r="L56" s="217"/>
+      <c r="C56" s="213" t="s">
+        <v>404</v>
+      </c>
+      <c r="D56" s="184"/>
+      <c r="E56" s="184"/>
+      <c r="F56" s="184"/>
+      <c r="G56" s="184"/>
+      <c r="H56" s="184"/>
+      <c r="I56" s="184"/>
+      <c r="J56" s="184"/>
+      <c r="K56" s="184"/>
+      <c r="L56" s="184"/>
     </row>
-    <row r="57" spans="1:13" ht="195" customHeight="1">
-      <c r="A57" s="229"/>
-      <c r="B57" s="177"/>
+    <row r="57" spans="1:13" ht="195" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="193"/>
+      <c r="B57" s="195"/>
       <c r="C57" s="104" t="s">
+        <v>238</v>
+      </c>
+      <c r="D57" s="90" t="s">
+        <v>237</v>
+      </c>
+      <c r="E57" s="90" t="s">
+        <v>236</v>
+      </c>
+      <c r="F57" s="90" t="s">
+        <v>240</v>
+      </c>
+      <c r="G57" s="90" t="s">
         <v>239</v>
       </c>
-      <c r="D57" s="90" t="s">
-        <v>238</v>
-      </c>
-      <c r="E57" s="90" t="s">
-        <v>237</v>
-      </c>
-      <c r="F57" s="90" t="s">
-        <v>241</v>
-      </c>
-      <c r="G57" s="90" t="s">
-        <v>240</v>
-      </c>
       <c r="H57" s="105" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I57" s="60"/>
       <c r="J57" s="90" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="K57" s="107"/>
       <c r="L57" s="108" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
-    <row r="58" spans="1:13" ht="30" customHeight="1">
-      <c r="A58" s="228" t="s">
+    <row r="58" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="192" t="s">
         <v>73</v>
       </c>
-      <c r="B58" s="223" t="s">
+      <c r="B58" s="197" t="s">
         <v>72</v>
       </c>
-      <c r="C58" s="216" t="s">
-        <v>406</v>
-      </c>
-      <c r="D58" s="217"/>
-      <c r="E58" s="217"/>
-      <c r="F58" s="217"/>
-      <c r="G58" s="217"/>
-      <c r="H58" s="217"/>
-      <c r="I58" s="217"/>
-      <c r="J58" s="217"/>
-      <c r="K58" s="217"/>
-      <c r="L58" s="217"/>
+      <c r="C58" s="213" t="s">
+        <v>405</v>
+      </c>
+      <c r="D58" s="184"/>
+      <c r="E58" s="184"/>
+      <c r="F58" s="184"/>
+      <c r="G58" s="184"/>
+      <c r="H58" s="184"/>
+      <c r="I58" s="184"/>
+      <c r="J58" s="184"/>
+      <c r="K58" s="184"/>
+      <c r="L58" s="184"/>
     </row>
-    <row r="59" spans="1:13" ht="326.25" customHeight="1">
-      <c r="A59" s="229"/>
-      <c r="B59" s="177"/>
+    <row r="59" spans="1:13" ht="326.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="193"/>
+      <c r="B59" s="195"/>
       <c r="C59" s="109" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D59" s="13"/>
       <c r="E59" s="121" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="F59" s="121" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="G59" s="13"/>
       <c r="H59" s="34" t="s">
-        <v>484</v>
-      </c>
-      <c r="I59" s="215"/>
-      <c r="J59" s="209"/>
+        <v>483</v>
+      </c>
+      <c r="I59" s="174"/>
+      <c r="J59" s="175"/>
       <c r="K59" s="108" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="L59" s="88" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
-    <row r="60" spans="1:13" ht="195" customHeight="1">
+    <row r="60" spans="1:13" ht="195" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="20" t="s">
         <v>71</v>
       </c>
@@ -7546,18 +7549,18 @@
       <c r="H60" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="I60" s="222"/>
+      <c r="I60" s="215"/>
       <c r="J60" s="40" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K60" s="40" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="L60" s="40" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
-    <row r="61" spans="1:13" ht="105" customHeight="1">
+    <row r="61" spans="1:13" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="20" t="s">
         <v>63</v>
       </c>
@@ -7582,18 +7585,18 @@
       <c r="H61" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="I61" s="213"/>
+      <c r="I61" s="208"/>
       <c r="J61" s="40" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K61" s="40" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="L61" s="40" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
-    <row r="62" spans="1:13" ht="360">
+    <row r="62" spans="1:13" ht="360" x14ac:dyDescent="0.25">
       <c r="A62" s="20" t="s">
         <v>53</v>
       </c>
@@ -7601,7 +7604,7 @@
         <v>52</v>
       </c>
       <c r="C62" s="18" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D62" s="17" t="s">
         <v>182</v>
@@ -7609,21 +7612,21 @@
       <c r="E62" s="17" t="s">
         <v>181</v>
       </c>
-      <c r="F62" s="171"/>
-      <c r="G62" s="173"/>
+      <c r="F62" s="164"/>
+      <c r="G62" s="166"/>
       <c r="H62" s="23" t="s">
         <v>180</v>
       </c>
       <c r="I62" s="71" t="s">
+        <v>312</v>
+      </c>
+      <c r="J62" s="207"/>
+      <c r="K62" s="7" t="s">
         <v>313</v>
-      </c>
-      <c r="J62" s="212"/>
-      <c r="K62" s="7" t="s">
-        <v>314</v>
       </c>
       <c r="L62" s="95"/>
     </row>
-    <row r="63" spans="1:13" ht="405" customHeight="1">
+    <row r="63" spans="1:13" ht="405" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="20" t="s">
         <v>51</v>
       </c>
@@ -7646,21 +7649,94 @@
         <v>45</v>
       </c>
       <c r="H63" s="23" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I63" s="42" t="s">
-        <v>321</v>
-      </c>
-      <c r="J63" s="213"/>
+        <v>320</v>
+      </c>
+      <c r="J63" s="208"/>
       <c r="K63" s="40" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="L63" s="40" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="89">
+    <mergeCell ref="C33:L33"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="C20:L20"/>
+    <mergeCell ref="C3:L3"/>
+    <mergeCell ref="C9:L9"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="C12:H12"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C2:J2"/>
+    <mergeCell ref="K13:L18"/>
+    <mergeCell ref="C19:L19"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="C4:L4"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C8:J8"/>
+    <mergeCell ref="C10:J10"/>
+    <mergeCell ref="D14:H14"/>
+    <mergeCell ref="C11:H11"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="I11:J12"/>
+    <mergeCell ref="C17:J17"/>
+    <mergeCell ref="J62:J63"/>
+    <mergeCell ref="J53:J54"/>
+    <mergeCell ref="C44:H44"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="I43:J44"/>
+    <mergeCell ref="C43:H43"/>
+    <mergeCell ref="C58:L58"/>
+    <mergeCell ref="C51:L51"/>
+    <mergeCell ref="C52:L52"/>
+    <mergeCell ref="C56:L56"/>
+    <mergeCell ref="F62:G62"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="F48:I48"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="F50:H50"/>
+    <mergeCell ref="I60:I61"/>
+    <mergeCell ref="C38:L38"/>
+    <mergeCell ref="C39:L39"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="C40:J40"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="C25:J25"/>
+    <mergeCell ref="K23:K25"/>
+    <mergeCell ref="C26:L26"/>
+    <mergeCell ref="C27:L27"/>
+    <mergeCell ref="C28:L28"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="D49:G49"/>
+    <mergeCell ref="C45:H45"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="I46:J46"/>
     <mergeCell ref="I59:J59"/>
     <mergeCell ref="A36:A37"/>
     <mergeCell ref="B36:B37"/>
@@ -7677,79 +7753,6 @@
     <mergeCell ref="C36:L36"/>
     <mergeCell ref="C35:I35"/>
     <mergeCell ref="A50:A51"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="D49:G49"/>
-    <mergeCell ref="C45:H45"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="I46:J46"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="C38:L38"/>
-    <mergeCell ref="C39:L39"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="C40:J40"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="C25:J25"/>
-    <mergeCell ref="K23:K25"/>
-    <mergeCell ref="C26:L26"/>
-    <mergeCell ref="C27:L27"/>
-    <mergeCell ref="C28:L28"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="J62:J63"/>
-    <mergeCell ref="J53:J54"/>
-    <mergeCell ref="C44:H44"/>
-    <mergeCell ref="K42:L42"/>
-    <mergeCell ref="I43:J44"/>
-    <mergeCell ref="C43:H43"/>
-    <mergeCell ref="C58:L58"/>
-    <mergeCell ref="C51:L51"/>
-    <mergeCell ref="C52:L52"/>
-    <mergeCell ref="C56:L56"/>
-    <mergeCell ref="F62:G62"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="F48:I48"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="F50:H50"/>
-    <mergeCell ref="I60:I61"/>
-    <mergeCell ref="C2:J2"/>
-    <mergeCell ref="K13:L18"/>
-    <mergeCell ref="C19:L19"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="C4:L4"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="D7:G7"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C8:J8"/>
-    <mergeCell ref="C10:J10"/>
-    <mergeCell ref="D14:H14"/>
-    <mergeCell ref="C11:H11"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="I11:J12"/>
-    <mergeCell ref="C17:J17"/>
-    <mergeCell ref="C3:L3"/>
-    <mergeCell ref="C9:L9"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="C12:H12"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C33:L33"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="C20:L20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7761,13 +7764,13 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:XFB56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" style="2" customWidth="1"/>
     <col min="2" max="2" width="27.42578125" style="1" customWidth="1"/>
@@ -7778,18 +7781,18 @@
     <col min="13" max="14" width="27.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="15" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="1" spans="1:14" s="15" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="55" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B1" s="122" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C1" s="122" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D1" s="122" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E1" s="122" t="s">
         <v>44</v>
@@ -7807,498 +7810,498 @@
         <v>40</v>
       </c>
       <c r="J1" s="122" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="K1" s="122" t="s">
+        <v>244</v>
+      </c>
+      <c r="L1" s="122" t="s">
         <v>245</v>
       </c>
-      <c r="L1" s="122" t="s">
-        <v>246</v>
-      </c>
       <c r="M1" s="122" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="15" customFormat="1" ht="15" customHeight="1">
-      <c r="A2" s="253" t="s">
+    <row r="2" spans="1:14" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="266" t="s">
+        <v>372</v>
+      </c>
+      <c r="B2" s="264" t="s">
         <v>373</v>
-      </c>
-      <c r="B2" s="251" t="s">
-        <v>374</v>
       </c>
       <c r="C2" s="123">
         <v>1</v>
       </c>
-      <c r="D2" s="256" t="s">
-        <v>520</v>
-      </c>
-      <c r="E2" s="256"/>
-      <c r="F2" s="256"/>
-      <c r="G2" s="256"/>
-      <c r="H2" s="256"/>
-      <c r="I2" s="256"/>
-      <c r="J2" s="256"/>
-      <c r="K2" s="256"/>
-      <c r="L2" s="256"/>
-      <c r="M2" s="257"/>
+      <c r="D2" s="261" t="s">
+        <v>519</v>
+      </c>
+      <c r="E2" s="261"/>
+      <c r="F2" s="261"/>
+      <c r="G2" s="261"/>
+      <c r="H2" s="261"/>
+      <c r="I2" s="261"/>
+      <c r="J2" s="261"/>
+      <c r="K2" s="261"/>
+      <c r="L2" s="261"/>
+      <c r="M2" s="262"/>
     </row>
-    <row r="3" spans="1:14" s="15" customFormat="1" ht="15" customHeight="1">
-      <c r="A3" s="184"/>
-      <c r="B3" s="250"/>
+    <row r="3" spans="1:14" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="236"/>
+      <c r="B3" s="256"/>
       <c r="C3" s="124">
         <v>2</v>
       </c>
-      <c r="D3" s="258" t="s">
-        <v>529</v>
-      </c>
-      <c r="E3" s="258"/>
-      <c r="F3" s="258"/>
-      <c r="G3" s="258"/>
-      <c r="H3" s="258"/>
-      <c r="I3" s="258"/>
-      <c r="J3" s="258"/>
-      <c r="K3" s="258"/>
-      <c r="L3" s="258"/>
-      <c r="M3" s="258"/>
+      <c r="D3" s="263" t="s">
+        <v>528</v>
+      </c>
+      <c r="E3" s="263"/>
+      <c r="F3" s="263"/>
+      <c r="G3" s="263"/>
+      <c r="H3" s="263"/>
+      <c r="I3" s="263"/>
+      <c r="J3" s="263"/>
+      <c r="K3" s="263"/>
+      <c r="L3" s="263"/>
+      <c r="M3" s="263"/>
       <c r="N3" s="78"/>
     </row>
-    <row r="4" spans="1:14" s="15" customFormat="1" ht="120" customHeight="1">
-      <c r="A4" s="184"/>
-      <c r="B4" s="250"/>
+    <row r="4" spans="1:14" s="15" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="236"/>
+      <c r="B4" s="256"/>
       <c r="C4" s="124">
         <v>3</v>
       </c>
       <c r="D4" s="98" t="s">
+        <v>374</v>
+      </c>
+      <c r="E4" s="85" t="s">
+        <v>481</v>
+      </c>
+      <c r="F4" s="85" t="s">
+        <v>445</v>
+      </c>
+      <c r="G4" s="42" t="s">
+        <v>376</v>
+      </c>
+      <c r="H4" s="102" t="s">
+        <v>440</v>
+      </c>
+      <c r="I4" s="44" t="s">
+        <v>547</v>
+      </c>
+      <c r="J4" s="98" t="s">
         <v>375</v>
-      </c>
-      <c r="E4" s="85" t="s">
-        <v>482</v>
-      </c>
-      <c r="F4" s="85" t="s">
-        <v>446</v>
-      </c>
-      <c r="G4" s="42" t="s">
-        <v>377</v>
-      </c>
-      <c r="H4" s="102" t="s">
-        <v>441</v>
-      </c>
-      <c r="I4" s="44" t="s">
-        <v>548</v>
-      </c>
-      <c r="J4" s="98" t="s">
-        <v>376</v>
       </c>
       <c r="K4" s="44"/>
       <c r="L4" s="85" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="M4" s="85" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="90" customHeight="1">
-      <c r="A5" s="178"/>
-      <c r="B5" s="252"/>
+    <row r="5" spans="1:14" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="240"/>
+      <c r="B5" s="265"/>
       <c r="C5" s="130">
         <v>4</v>
       </c>
-      <c r="D5" s="249"/>
-      <c r="E5" s="249"/>
-      <c r="F5" s="249"/>
-      <c r="G5" s="249"/>
-      <c r="H5" s="249"/>
-      <c r="I5" s="249"/>
-      <c r="J5" s="249"/>
-      <c r="K5" s="249"/>
-      <c r="L5" s="207"/>
+      <c r="D5" s="248"/>
+      <c r="E5" s="248"/>
+      <c r="F5" s="248"/>
+      <c r="G5" s="248"/>
+      <c r="H5" s="248"/>
+      <c r="I5" s="248"/>
+      <c r="J5" s="248"/>
+      <c r="K5" s="248"/>
+      <c r="L5" s="206"/>
       <c r="M5" s="42" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
-    <row r="6" spans="1:14" s="15" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="184" t="s">
+    <row r="6" spans="1:14" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="236" t="s">
         <v>170</v>
       </c>
-      <c r="B6" s="250" t="s">
-        <v>260</v>
+      <c r="B6" s="256" t="s">
+        <v>259</v>
       </c>
       <c r="C6" s="131">
         <v>1</v>
       </c>
-      <c r="D6" s="243" t="s">
-        <v>519</v>
-      </c>
-      <c r="E6" s="243"/>
-      <c r="F6" s="243"/>
-      <c r="G6" s="243"/>
-      <c r="H6" s="243"/>
-      <c r="I6" s="243"/>
-      <c r="J6" s="243"/>
-      <c r="K6" s="243"/>
-      <c r="L6" s="243"/>
-      <c r="M6" s="241"/>
+      <c r="D6" s="250" t="s">
+        <v>518</v>
+      </c>
+      <c r="E6" s="250"/>
+      <c r="F6" s="250"/>
+      <c r="G6" s="250"/>
+      <c r="H6" s="250"/>
+      <c r="I6" s="250"/>
+      <c r="J6" s="250"/>
+      <c r="K6" s="250"/>
+      <c r="L6" s="250"/>
+      <c r="M6" s="251"/>
     </row>
-    <row r="7" spans="1:14" s="15" customFormat="1" ht="15" customHeight="1">
-      <c r="A7" s="184"/>
-      <c r="B7" s="250"/>
+    <row r="7" spans="1:14" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="236"/>
+      <c r="B7" s="256"/>
       <c r="C7" s="124">
         <v>2</v>
       </c>
-      <c r="D7" s="244" t="s">
-        <v>528</v>
-      </c>
-      <c r="E7" s="244"/>
-      <c r="F7" s="244"/>
-      <c r="G7" s="244"/>
-      <c r="H7" s="244"/>
-      <c r="I7" s="244"/>
-      <c r="J7" s="244"/>
-      <c r="K7" s="244"/>
-      <c r="L7" s="244"/>
-      <c r="M7" s="245"/>
+      <c r="D7" s="252" t="s">
+        <v>527</v>
+      </c>
+      <c r="E7" s="252"/>
+      <c r="F7" s="252"/>
+      <c r="G7" s="252"/>
+      <c r="H7" s="252"/>
+      <c r="I7" s="252"/>
+      <c r="J7" s="252"/>
+      <c r="K7" s="252"/>
+      <c r="L7" s="252"/>
+      <c r="M7" s="253"/>
     </row>
-    <row r="8" spans="1:14" s="15" customFormat="1" ht="105" customHeight="1">
-      <c r="A8" s="184"/>
-      <c r="B8" s="250"/>
+    <row r="8" spans="1:14" s="15" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="236"/>
+      <c r="B8" s="256"/>
       <c r="C8" s="124">
         <v>3</v>
       </c>
       <c r="D8" s="98" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E8" s="119" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="F8" s="113" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="G8" s="102" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H8" s="102" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="I8" s="102" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="J8" s="101" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="K8" s="102"/>
       <c r="L8" s="100" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="M8" s="112" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="75" customHeight="1">
-      <c r="A9" s="178"/>
-      <c r="B9" s="252"/>
+    <row r="9" spans="1:14" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="240"/>
+      <c r="B9" s="265"/>
       <c r="C9" s="125">
         <v>4</v>
       </c>
-      <c r="D9" s="249"/>
-      <c r="E9" s="207"/>
+      <c r="D9" s="248"/>
+      <c r="E9" s="206"/>
       <c r="F9" s="97" t="s">
-        <v>346</v>
-      </c>
-      <c r="G9" s="206"/>
-      <c r="H9" s="249"/>
-      <c r="I9" s="249"/>
-      <c r="J9" s="249"/>
-      <c r="K9" s="249"/>
-      <c r="L9" s="249"/>
-      <c r="M9" s="207"/>
+        <v>345</v>
+      </c>
+      <c r="G9" s="205"/>
+      <c r="H9" s="248"/>
+      <c r="I9" s="248"/>
+      <c r="J9" s="248"/>
+      <c r="K9" s="248"/>
+      <c r="L9" s="248"/>
+      <c r="M9" s="206"/>
     </row>
-    <row r="10" spans="1:14" s="15" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="254" t="s">
+    <row r="10" spans="1:14" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="267" t="s">
         <v>169</v>
       </c>
-      <c r="B10" s="255" t="s">
-        <v>261</v>
+      <c r="B10" s="268" t="s">
+        <v>260</v>
       </c>
       <c r="C10" s="131">
         <v>1</v>
       </c>
-      <c r="D10" s="243" t="s">
-        <v>521</v>
-      </c>
-      <c r="E10" s="243"/>
-      <c r="F10" s="243"/>
-      <c r="G10" s="243"/>
-      <c r="H10" s="243"/>
-      <c r="I10" s="243"/>
-      <c r="J10" s="243"/>
-      <c r="K10" s="243"/>
-      <c r="L10" s="243"/>
-      <c r="M10" s="241"/>
+      <c r="D10" s="250" t="s">
+        <v>520</v>
+      </c>
+      <c r="E10" s="250"/>
+      <c r="F10" s="250"/>
+      <c r="G10" s="250"/>
+      <c r="H10" s="250"/>
+      <c r="I10" s="250"/>
+      <c r="J10" s="250"/>
+      <c r="K10" s="250"/>
+      <c r="L10" s="250"/>
+      <c r="M10" s="251"/>
     </row>
-    <row r="11" spans="1:14" s="15" customFormat="1" ht="15" customHeight="1">
-      <c r="A11" s="184"/>
-      <c r="B11" s="250"/>
+    <row r="11" spans="1:14" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="236"/>
+      <c r="B11" s="256"/>
       <c r="C11" s="124">
         <v>2</v>
       </c>
-      <c r="D11" s="244" t="s">
-        <v>530</v>
-      </c>
-      <c r="E11" s="244"/>
-      <c r="F11" s="244"/>
-      <c r="G11" s="244"/>
-      <c r="H11" s="244"/>
-      <c r="I11" s="244"/>
-      <c r="J11" s="244"/>
-      <c r="K11" s="244"/>
-      <c r="L11" s="244"/>
-      <c r="M11" s="245"/>
+      <c r="D11" s="252" t="s">
+        <v>529</v>
+      </c>
+      <c r="E11" s="252"/>
+      <c r="F11" s="252"/>
+      <c r="G11" s="252"/>
+      <c r="H11" s="252"/>
+      <c r="I11" s="252"/>
+      <c r="J11" s="252"/>
+      <c r="K11" s="252"/>
+      <c r="L11" s="252"/>
+      <c r="M11" s="253"/>
     </row>
-    <row r="12" spans="1:14" s="15" customFormat="1" ht="105" customHeight="1">
-      <c r="A12" s="184"/>
-      <c r="B12" s="250"/>
+    <row r="12" spans="1:14" s="15" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="236"/>
+      <c r="B12" s="256"/>
       <c r="C12" s="124">
         <v>3</v>
       </c>
       <c r="D12" s="81" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E12" s="119" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="F12" s="44" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G12" s="42" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H12" s="102" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="I12" s="85" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="J12" s="101" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="K12" s="100"/>
       <c r="L12" s="100" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="M12" s="112" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="90" customHeight="1">
-      <c r="A13" s="162"/>
-      <c r="B13" s="227"/>
+    <row r="13" spans="1:14" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="155"/>
+      <c r="B13" s="210"/>
       <c r="C13" s="125">
         <v>4</v>
       </c>
-      <c r="D13" s="249"/>
-      <c r="E13" s="249"/>
-      <c r="F13" s="249"/>
-      <c r="G13" s="249"/>
-      <c r="H13" s="207"/>
+      <c r="D13" s="248"/>
+      <c r="E13" s="248"/>
+      <c r="F13" s="248"/>
+      <c r="G13" s="248"/>
+      <c r="H13" s="206"/>
       <c r="I13" s="88" t="s">
-        <v>347</v>
-      </c>
-      <c r="J13" s="206"/>
-      <c r="K13" s="249"/>
-      <c r="L13" s="249"/>
-      <c r="M13" s="207"/>
+        <v>346</v>
+      </c>
+      <c r="J13" s="205"/>
+      <c r="K13" s="248"/>
+      <c r="L13" s="248"/>
+      <c r="M13" s="206"/>
     </row>
-    <row r="14" spans="1:14" s="15" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="161" t="s">
+    <row r="14" spans="1:14" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="154" t="s">
         <v>168</v>
       </c>
-      <c r="B14" s="226" t="s">
-        <v>262</v>
+      <c r="B14" s="209" t="s">
+        <v>261</v>
       </c>
       <c r="C14" s="131">
         <v>1</v>
       </c>
-      <c r="D14" s="243" t="s">
-        <v>522</v>
-      </c>
-      <c r="E14" s="243"/>
-      <c r="F14" s="243"/>
-      <c r="G14" s="243"/>
-      <c r="H14" s="243"/>
-      <c r="I14" s="243"/>
-      <c r="J14" s="243"/>
-      <c r="K14" s="243"/>
-      <c r="L14" s="243"/>
-      <c r="M14" s="241"/>
+      <c r="D14" s="250" t="s">
+        <v>521</v>
+      </c>
+      <c r="E14" s="250"/>
+      <c r="F14" s="250"/>
+      <c r="G14" s="250"/>
+      <c r="H14" s="250"/>
+      <c r="I14" s="250"/>
+      <c r="J14" s="250"/>
+      <c r="K14" s="250"/>
+      <c r="L14" s="250"/>
+      <c r="M14" s="251"/>
     </row>
-    <row r="15" spans="1:14" s="15" customFormat="1" ht="15" customHeight="1">
-      <c r="A15" s="184"/>
-      <c r="B15" s="250"/>
+    <row r="15" spans="1:14" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="236"/>
+      <c r="B15" s="256"/>
       <c r="C15" s="124">
         <v>2</v>
       </c>
-      <c r="D15" s="244" t="s">
-        <v>465</v>
-      </c>
-      <c r="E15" s="244"/>
-      <c r="F15" s="244"/>
-      <c r="G15" s="244"/>
-      <c r="H15" s="244"/>
-      <c r="I15" s="244"/>
-      <c r="J15" s="244"/>
-      <c r="K15" s="244"/>
-      <c r="L15" s="244"/>
-      <c r="M15" s="245"/>
+      <c r="D15" s="252" t="s">
+        <v>464</v>
+      </c>
+      <c r="E15" s="252"/>
+      <c r="F15" s="252"/>
+      <c r="G15" s="252"/>
+      <c r="H15" s="252"/>
+      <c r="I15" s="252"/>
+      <c r="J15" s="252"/>
+      <c r="K15" s="252"/>
+      <c r="L15" s="252"/>
+      <c r="M15" s="253"/>
     </row>
-    <row r="16" spans="1:14" s="15" customFormat="1" ht="105" customHeight="1">
-      <c r="A16" s="184"/>
-      <c r="B16" s="250"/>
+    <row r="16" spans="1:14" s="15" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="236"/>
+      <c r="B16" s="256"/>
       <c r="C16" s="124">
         <v>3</v>
       </c>
       <c r="D16" s="81" t="s">
+        <v>415</v>
+      </c>
+      <c r="E16" s="119" t="s">
+        <v>532</v>
+      </c>
+      <c r="F16" s="44" t="s">
+        <v>442</v>
+      </c>
+      <c r="G16" s="42" t="s">
+        <v>414</v>
+      </c>
+      <c r="H16" s="102" t="s">
+        <v>438</v>
+      </c>
+      <c r="I16" s="100" t="s">
+        <v>541</v>
+      </c>
+      <c r="J16" s="101" t="s">
         <v>416</v>
-      </c>
-      <c r="E16" s="119" t="s">
-        <v>533</v>
-      </c>
-      <c r="F16" s="44" t="s">
-        <v>443</v>
-      </c>
-      <c r="G16" s="42" t="s">
-        <v>415</v>
-      </c>
-      <c r="H16" s="102" t="s">
-        <v>439</v>
-      </c>
-      <c r="I16" s="100" t="s">
-        <v>542</v>
-      </c>
-      <c r="J16" s="101" t="s">
-        <v>417</v>
       </c>
       <c r="K16" s="100"/>
       <c r="L16" s="100" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="M16" s="112" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
-    <row r="17" spans="1:16382" ht="75" customHeight="1">
-      <c r="A17" s="162"/>
-      <c r="B17" s="227"/>
+    <row r="17" spans="1:16382" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="155"/>
+      <c r="B17" s="210"/>
       <c r="C17" s="125">
         <v>4</v>
       </c>
-      <c r="D17" s="249"/>
-      <c r="E17" s="249"/>
-      <c r="F17" s="207"/>
+      <c r="D17" s="248"/>
+      <c r="E17" s="248"/>
+      <c r="F17" s="206"/>
       <c r="G17" s="88" t="s">
-        <v>298</v>
-      </c>
-      <c r="H17" s="206"/>
-      <c r="I17" s="249"/>
-      <c r="J17" s="249"/>
-      <c r="K17" s="249"/>
-      <c r="L17" s="249"/>
-      <c r="M17" s="207"/>
+        <v>297</v>
+      </c>
+      <c r="H17" s="205"/>
+      <c r="I17" s="248"/>
+      <c r="J17" s="248"/>
+      <c r="K17" s="248"/>
+      <c r="L17" s="248"/>
+      <c r="M17" s="206"/>
     </row>
-    <row r="18" spans="1:16382" s="15" customFormat="1" ht="15" customHeight="1">
-      <c r="A18" s="161" t="s">
+    <row r="18" spans="1:16382" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="154" t="s">
         <v>167</v>
       </c>
-      <c r="B18" s="226" t="s">
-        <v>263</v>
+      <c r="B18" s="209" t="s">
+        <v>262</v>
       </c>
       <c r="C18" s="131">
         <v>1</v>
       </c>
-      <c r="D18" s="243" t="s">
-        <v>523</v>
-      </c>
-      <c r="E18" s="243"/>
-      <c r="F18" s="243"/>
-      <c r="G18" s="243"/>
-      <c r="H18" s="243"/>
-      <c r="I18" s="243"/>
-      <c r="J18" s="243"/>
-      <c r="K18" s="243"/>
-      <c r="L18" s="243"/>
-      <c r="M18" s="241"/>
+      <c r="D18" s="250" t="s">
+        <v>522</v>
+      </c>
+      <c r="E18" s="250"/>
+      <c r="F18" s="250"/>
+      <c r="G18" s="250"/>
+      <c r="H18" s="250"/>
+      <c r="I18" s="250"/>
+      <c r="J18" s="250"/>
+      <c r="K18" s="250"/>
+      <c r="L18" s="250"/>
+      <c r="M18" s="251"/>
     </row>
-    <row r="19" spans="1:16382" s="15" customFormat="1" ht="15" customHeight="1">
-      <c r="A19" s="184"/>
-      <c r="B19" s="250"/>
+    <row r="19" spans="1:16382" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="236"/>
+      <c r="B19" s="256"/>
       <c r="C19" s="124">
         <v>2</v>
       </c>
-      <c r="D19" s="244" t="s">
-        <v>466</v>
-      </c>
-      <c r="E19" s="244"/>
-      <c r="F19" s="244"/>
-      <c r="G19" s="244"/>
-      <c r="H19" s="244"/>
-      <c r="I19" s="244"/>
-      <c r="J19" s="244"/>
-      <c r="K19" s="244"/>
-      <c r="L19" s="244"/>
-      <c r="M19" s="245"/>
+      <c r="D19" s="252" t="s">
+        <v>465</v>
+      </c>
+      <c r="E19" s="252"/>
+      <c r="F19" s="252"/>
+      <c r="G19" s="252"/>
+      <c r="H19" s="252"/>
+      <c r="I19" s="252"/>
+      <c r="J19" s="252"/>
+      <c r="K19" s="252"/>
+      <c r="L19" s="252"/>
+      <c r="M19" s="253"/>
     </row>
-    <row r="20" spans="1:16382" s="15" customFormat="1" ht="105" customHeight="1">
-      <c r="A20" s="184"/>
-      <c r="B20" s="250"/>
+    <row r="20" spans="1:16382" s="15" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="236"/>
+      <c r="B20" s="256"/>
       <c r="C20" s="124">
         <v>3</v>
       </c>
       <c r="D20" s="81" t="s">
+        <v>406</v>
+      </c>
+      <c r="E20" s="119" t="s">
+        <v>533</v>
+      </c>
+      <c r="F20" s="100" t="s">
+        <v>444</v>
+      </c>
+      <c r="G20" s="100" t="s">
         <v>407</v>
       </c>
-      <c r="E20" s="119" t="s">
-        <v>534</v>
-      </c>
-      <c r="F20" s="100" t="s">
-        <v>445</v>
-      </c>
-      <c r="G20" s="100" t="s">
+      <c r="H20" s="102" t="s">
+        <v>459</v>
+      </c>
+      <c r="I20" s="100" t="s">
+        <v>542</v>
+      </c>
+      <c r="J20" s="101" t="s">
         <v>408</v>
-      </c>
-      <c r="H20" s="102" t="s">
-        <v>460</v>
-      </c>
-      <c r="I20" s="100" t="s">
-        <v>543</v>
-      </c>
-      <c r="J20" s="101" t="s">
-        <v>409</v>
       </c>
       <c r="K20" s="100"/>
       <c r="L20" s="100" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="M20" s="112" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
-    <row r="21" spans="1:16382" s="58" customFormat="1" ht="60" customHeight="1">
-      <c r="A21" s="265"/>
-      <c r="B21" s="259"/>
+    <row r="21" spans="1:16382" s="58" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="260"/>
+      <c r="B21" s="257"/>
       <c r="C21" s="125">
         <v>4</v>
       </c>
       <c r="D21" s="86"/>
       <c r="E21" s="110" t="s">
-        <v>345</v>
-      </c>
-      <c r="F21" s="246"/>
-      <c r="G21" s="247"/>
-      <c r="H21" s="247"/>
-      <c r="I21" s="247"/>
-      <c r="J21" s="247"/>
-      <c r="K21" s="247"/>
-      <c r="L21" s="247"/>
-      <c r="M21" s="248"/>
+        <v>344</v>
+      </c>
+      <c r="F21" s="270"/>
+      <c r="G21" s="271"/>
+      <c r="H21" s="271"/>
+      <c r="I21" s="271"/>
+      <c r="J21" s="271"/>
+      <c r="K21" s="271"/>
+      <c r="L21" s="271"/>
+      <c r="M21" s="272"/>
       <c r="N21" s="61"/>
       <c r="O21" s="61"/>
       <c r="P21" s="61"/>
@@ -24669,426 +24672,426 @@
       <c r="XFA21" s="61"/>
       <c r="XFB21" s="61"/>
     </row>
-    <row r="22" spans="1:16382" s="59" customFormat="1" ht="15" customHeight="1">
-      <c r="A22" s="264" t="s">
+    <row r="22" spans="1:16382" s="59" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="259" t="s">
         <v>166</v>
       </c>
-      <c r="B22" s="263" t="s">
-        <v>422</v>
+      <c r="B22" s="258" t="s">
+        <v>421</v>
       </c>
       <c r="C22" s="131">
         <v>1</v>
       </c>
-      <c r="D22" s="244" t="s">
-        <v>527</v>
-      </c>
-      <c r="E22" s="244"/>
-      <c r="F22" s="244"/>
-      <c r="G22" s="244"/>
-      <c r="H22" s="244"/>
-      <c r="I22" s="244"/>
-      <c r="J22" s="244"/>
-      <c r="K22" s="244"/>
-      <c r="L22" s="244"/>
-      <c r="M22" s="245"/>
+      <c r="D22" s="252" t="s">
+        <v>526</v>
+      </c>
+      <c r="E22" s="252"/>
+      <c r="F22" s="252"/>
+      <c r="G22" s="252"/>
+      <c r="H22" s="252"/>
+      <c r="I22" s="252"/>
+      <c r="J22" s="252"/>
+      <c r="K22" s="252"/>
+      <c r="L22" s="252"/>
+      <c r="M22" s="253"/>
     </row>
-    <row r="23" spans="1:16382" s="59" customFormat="1" ht="15" customHeight="1">
-      <c r="A23" s="261"/>
-      <c r="B23" s="185"/>
+    <row r="23" spans="1:16382" s="59" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="245"/>
+      <c r="B23" s="179"/>
       <c r="C23" s="124">
         <v>2</v>
       </c>
-      <c r="D23" s="244" t="s">
-        <v>467</v>
-      </c>
-      <c r="E23" s="244"/>
-      <c r="F23" s="244"/>
-      <c r="G23" s="244"/>
-      <c r="H23" s="244"/>
-      <c r="I23" s="244"/>
-      <c r="J23" s="244"/>
-      <c r="K23" s="244"/>
-      <c r="L23" s="244"/>
-      <c r="M23" s="245"/>
+      <c r="D23" s="252" t="s">
+        <v>466</v>
+      </c>
+      <c r="E23" s="252"/>
+      <c r="F23" s="252"/>
+      <c r="G23" s="252"/>
+      <c r="H23" s="252"/>
+      <c r="I23" s="252"/>
+      <c r="J23" s="252"/>
+      <c r="K23" s="252"/>
+      <c r="L23" s="252"/>
+      <c r="M23" s="253"/>
     </row>
-    <row r="24" spans="1:16382" s="59" customFormat="1" ht="105" customHeight="1">
-      <c r="A24" s="261"/>
-      <c r="B24" s="185"/>
+    <row r="24" spans="1:16382" s="59" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="245"/>
+      <c r="B24" s="179"/>
       <c r="C24" s="124">
         <v>3</v>
       </c>
       <c r="D24" s="84" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E24" s="119" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="F24" s="100" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G24" s="100" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H24" s="100" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="I24" s="100" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="J24" s="101" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="K24" s="100"/>
       <c r="L24" s="100" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="M24" s="112" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
-    <row r="25" spans="1:16382" s="61" customFormat="1" ht="90" customHeight="1">
-      <c r="A25" s="262"/>
-      <c r="B25" s="170"/>
+    <row r="25" spans="1:16382" s="61" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="249"/>
+      <c r="B25" s="163"/>
       <c r="C25" s="125">
         <v>4</v>
       </c>
       <c r="D25" s="87" t="s">
-        <v>348</v>
-      </c>
-      <c r="E25" s="206"/>
-      <c r="F25" s="249"/>
-      <c r="G25" s="249"/>
-      <c r="H25" s="249"/>
-      <c r="I25" s="249"/>
-      <c r="J25" s="249"/>
-      <c r="K25" s="249"/>
-      <c r="L25" s="249"/>
-      <c r="M25" s="207"/>
+        <v>347</v>
+      </c>
+      <c r="E25" s="205"/>
+      <c r="F25" s="248"/>
+      <c r="G25" s="248"/>
+      <c r="H25" s="248"/>
+      <c r="I25" s="248"/>
+      <c r="J25" s="248"/>
+      <c r="K25" s="248"/>
+      <c r="L25" s="248"/>
+      <c r="M25" s="206"/>
     </row>
-    <row r="26" spans="1:16382" s="15" customFormat="1" ht="15" customHeight="1">
-      <c r="A26" s="266" t="s">
+    <row r="26" spans="1:16382" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="247" t="s">
         <v>165</v>
       </c>
-      <c r="B26" s="169" t="s">
-        <v>423</v>
+      <c r="B26" s="162" t="s">
+        <v>422</v>
       </c>
       <c r="C26" s="131">
         <v>1</v>
       </c>
-      <c r="D26" s="243" t="s">
-        <v>526</v>
-      </c>
-      <c r="E26" s="243"/>
-      <c r="F26" s="243"/>
-      <c r="G26" s="243"/>
-      <c r="H26" s="243"/>
-      <c r="I26" s="243"/>
-      <c r="J26" s="243"/>
-      <c r="K26" s="243"/>
-      <c r="L26" s="243"/>
-      <c r="M26" s="241"/>
+      <c r="D26" s="250" t="s">
+        <v>525</v>
+      </c>
+      <c r="E26" s="250"/>
+      <c r="F26" s="250"/>
+      <c r="G26" s="250"/>
+      <c r="H26" s="250"/>
+      <c r="I26" s="250"/>
+      <c r="J26" s="250"/>
+      <c r="K26" s="250"/>
+      <c r="L26" s="250"/>
+      <c r="M26" s="251"/>
     </row>
-    <row r="27" spans="1:16382" s="15" customFormat="1" ht="15" customHeight="1">
-      <c r="A27" s="261"/>
-      <c r="B27" s="185"/>
+    <row r="27" spans="1:16382" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="245"/>
+      <c r="B27" s="179"/>
       <c r="C27" s="124">
         <v>2</v>
       </c>
-      <c r="D27" s="244" t="s">
-        <v>468</v>
-      </c>
-      <c r="E27" s="244"/>
-      <c r="F27" s="244"/>
-      <c r="G27" s="244"/>
-      <c r="H27" s="244"/>
-      <c r="I27" s="244"/>
-      <c r="J27" s="244"/>
-      <c r="K27" s="244"/>
-      <c r="L27" s="244"/>
-      <c r="M27" s="245"/>
+      <c r="D27" s="252" t="s">
+        <v>467</v>
+      </c>
+      <c r="E27" s="252"/>
+      <c r="F27" s="252"/>
+      <c r="G27" s="252"/>
+      <c r="H27" s="252"/>
+      <c r="I27" s="252"/>
+      <c r="J27" s="252"/>
+      <c r="K27" s="252"/>
+      <c r="L27" s="252"/>
+      <c r="M27" s="253"/>
     </row>
-    <row r="28" spans="1:16382" s="15" customFormat="1" ht="105" customHeight="1">
-      <c r="A28" s="261"/>
-      <c r="B28" s="185"/>
+    <row r="28" spans="1:16382" s="15" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="245"/>
+      <c r="B28" s="179"/>
       <c r="C28" s="124">
         <v>3</v>
       </c>
       <c r="D28" s="84" t="s">
+        <v>360</v>
+      </c>
+      <c r="E28" s="85" t="s">
+        <v>537</v>
+      </c>
+      <c r="F28" s="100" t="s">
+        <v>447</v>
+      </c>
+      <c r="G28" s="85" t="s">
+        <v>342</v>
+      </c>
+      <c r="H28" s="113" t="s">
+        <v>461</v>
+      </c>
+      <c r="I28" s="100" t="s">
+        <v>544</v>
+      </c>
+      <c r="J28" s="100" t="s">
         <v>361</v>
-      </c>
-      <c r="E28" s="85" t="s">
-        <v>538</v>
-      </c>
-      <c r="F28" s="100" t="s">
-        <v>448</v>
-      </c>
-      <c r="G28" s="85" t="s">
-        <v>343</v>
-      </c>
-      <c r="H28" s="113" t="s">
-        <v>462</v>
-      </c>
-      <c r="I28" s="100" t="s">
-        <v>545</v>
-      </c>
-      <c r="J28" s="100" t="s">
-        <v>362</v>
       </c>
       <c r="K28" s="100"/>
       <c r="L28" s="100"/>
       <c r="M28" s="112" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
-    <row r="29" spans="1:16382" ht="60" customHeight="1">
-      <c r="A29" s="262"/>
-      <c r="B29" s="170"/>
+    <row r="29" spans="1:16382" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="249"/>
+      <c r="B29" s="163"/>
       <c r="C29" s="125">
         <v>4</v>
       </c>
-      <c r="D29" s="249"/>
-      <c r="E29" s="249"/>
-      <c r="F29" s="249"/>
-      <c r="G29" s="207"/>
+      <c r="D29" s="248"/>
+      <c r="E29" s="248"/>
+      <c r="F29" s="248"/>
+      <c r="G29" s="206"/>
       <c r="H29" s="79" t="s">
-        <v>282</v>
-      </c>
-      <c r="I29" s="206"/>
-      <c r="J29" s="249"/>
-      <c r="K29" s="249"/>
-      <c r="L29" s="249"/>
-      <c r="M29" s="207"/>
+        <v>281</v>
+      </c>
+      <c r="I29" s="205"/>
+      <c r="J29" s="248"/>
+      <c r="K29" s="248"/>
+      <c r="L29" s="248"/>
+      <c r="M29" s="206"/>
     </row>
-    <row r="30" spans="1:16382" s="15" customFormat="1" ht="15" customHeight="1">
-      <c r="A30" s="266" t="s">
-        <v>270</v>
-      </c>
-      <c r="B30" s="169" t="s">
-        <v>424</v>
+    <row r="30" spans="1:16382" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="247" t="s">
+        <v>269</v>
+      </c>
+      <c r="B30" s="162" t="s">
+        <v>423</v>
       </c>
       <c r="C30" s="131">
         <v>1</v>
       </c>
-      <c r="D30" s="243" t="s">
-        <v>525</v>
-      </c>
-      <c r="E30" s="243"/>
-      <c r="F30" s="243"/>
-      <c r="G30" s="243"/>
-      <c r="H30" s="243"/>
-      <c r="I30" s="243"/>
-      <c r="J30" s="243"/>
-      <c r="K30" s="243"/>
-      <c r="L30" s="243"/>
-      <c r="M30" s="241"/>
+      <c r="D30" s="250" t="s">
+        <v>524</v>
+      </c>
+      <c r="E30" s="250"/>
+      <c r="F30" s="250"/>
+      <c r="G30" s="250"/>
+      <c r="H30" s="250"/>
+      <c r="I30" s="250"/>
+      <c r="J30" s="250"/>
+      <c r="K30" s="250"/>
+      <c r="L30" s="250"/>
+      <c r="M30" s="251"/>
     </row>
-    <row r="31" spans="1:16382" s="15" customFormat="1" ht="15" customHeight="1">
-      <c r="A31" s="261"/>
-      <c r="B31" s="185"/>
+    <row r="31" spans="1:16382" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="245"/>
+      <c r="B31" s="179"/>
       <c r="C31" s="124">
         <v>2</v>
       </c>
-      <c r="D31" s="244" t="s">
-        <v>469</v>
-      </c>
-      <c r="E31" s="244"/>
-      <c r="F31" s="244"/>
-      <c r="G31" s="244"/>
-      <c r="H31" s="244"/>
-      <c r="I31" s="244"/>
-      <c r="J31" s="244"/>
-      <c r="K31" s="244"/>
-      <c r="L31" s="244"/>
-      <c r="M31" s="245"/>
+      <c r="D31" s="252" t="s">
+        <v>468</v>
+      </c>
+      <c r="E31" s="252"/>
+      <c r="F31" s="252"/>
+      <c r="G31" s="252"/>
+      <c r="H31" s="252"/>
+      <c r="I31" s="252"/>
+      <c r="J31" s="252"/>
+      <c r="K31" s="252"/>
+      <c r="L31" s="252"/>
+      <c r="M31" s="253"/>
     </row>
-    <row r="32" spans="1:16382" ht="105" customHeight="1">
-      <c r="A32" s="261"/>
-      <c r="B32" s="185"/>
+    <row r="32" spans="1:16382" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="245"/>
+      <c r="B32" s="179"/>
       <c r="C32" s="124">
         <v>3</v>
       </c>
       <c r="D32" s="84" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E32" s="42" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="F32" s="100" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="G32" s="42" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H32" s="113" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="I32" s="42" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="J32" s="85" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="K32" s="42"/>
       <c r="L32" s="72" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="M32" s="112" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
-    <row r="33" spans="1:13" s="15" customFormat="1" ht="45" customHeight="1">
-      <c r="A33" s="261"/>
-      <c r="B33" s="185"/>
+    <row r="33" spans="1:13" s="15" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="245"/>
+      <c r="B33" s="179"/>
       <c r="C33" s="125">
         <v>4</v>
       </c>
-      <c r="D33" s="249"/>
-      <c r="E33" s="249"/>
-      <c r="F33" s="249"/>
-      <c r="G33" s="249"/>
-      <c r="H33" s="249"/>
-      <c r="I33" s="249"/>
-      <c r="J33" s="249"/>
-      <c r="K33" s="207"/>
+      <c r="D33" s="248"/>
+      <c r="E33" s="248"/>
+      <c r="F33" s="248"/>
+      <c r="G33" s="248"/>
+      <c r="H33" s="248"/>
+      <c r="I33" s="248"/>
+      <c r="J33" s="248"/>
+      <c r="K33" s="206"/>
       <c r="L33" s="44" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="M33" s="53"/>
     </row>
-    <row r="34" spans="1:13" ht="15" customHeight="1">
-      <c r="A34" s="260" t="s">
+    <row r="34" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="244" t="s">
         <v>164</v>
       </c>
-      <c r="B34" s="230" t="s">
-        <v>425</v>
+      <c r="B34" s="194" t="s">
+        <v>424</v>
       </c>
       <c r="C34" s="131">
         <v>1</v>
       </c>
-      <c r="D34" s="243" t="s">
-        <v>524</v>
-      </c>
-      <c r="E34" s="243"/>
-      <c r="F34" s="243"/>
-      <c r="G34" s="243"/>
-      <c r="H34" s="243"/>
-      <c r="I34" s="243"/>
-      <c r="J34" s="243"/>
-      <c r="K34" s="243"/>
-      <c r="L34" s="243"/>
-      <c r="M34" s="241"/>
+      <c r="D34" s="250" t="s">
+        <v>523</v>
+      </c>
+      <c r="E34" s="250"/>
+      <c r="F34" s="250"/>
+      <c r="G34" s="250"/>
+      <c r="H34" s="250"/>
+      <c r="I34" s="250"/>
+      <c r="J34" s="250"/>
+      <c r="K34" s="250"/>
+      <c r="L34" s="250"/>
+      <c r="M34" s="251"/>
     </row>
-    <row r="35" spans="1:13" ht="15" customHeight="1">
-      <c r="A35" s="261"/>
-      <c r="B35" s="185"/>
+    <row r="35" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="245"/>
+      <c r="B35" s="179"/>
       <c r="C35" s="124">
         <v>2</v>
       </c>
-      <c r="D35" s="244" t="s">
-        <v>470</v>
-      </c>
-      <c r="E35" s="244"/>
-      <c r="F35" s="244"/>
-      <c r="G35" s="244"/>
-      <c r="H35" s="244"/>
-      <c r="I35" s="244"/>
-      <c r="J35" s="244"/>
-      <c r="K35" s="244"/>
-      <c r="L35" s="244"/>
-      <c r="M35" s="245"/>
+      <c r="D35" s="252" t="s">
+        <v>469</v>
+      </c>
+      <c r="E35" s="252"/>
+      <c r="F35" s="252"/>
+      <c r="G35" s="252"/>
+      <c r="H35" s="252"/>
+      <c r="I35" s="252"/>
+      <c r="J35" s="252"/>
+      <c r="K35" s="252"/>
+      <c r="L35" s="252"/>
+      <c r="M35" s="253"/>
     </row>
-    <row r="36" spans="1:13" ht="105" customHeight="1">
-      <c r="A36" s="261"/>
-      <c r="B36" s="185"/>
+    <row r="36" spans="1:13" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="245"/>
+      <c r="B36" s="179"/>
       <c r="C36" s="124">
         <v>3</v>
       </c>
       <c r="D36" s="84" t="s">
+        <v>364</v>
+      </c>
+      <c r="E36" s="85" t="s">
+        <v>535</v>
+      </c>
+      <c r="F36" s="100" t="s">
+        <v>449</v>
+      </c>
+      <c r="G36" s="85" t="s">
+        <v>351</v>
+      </c>
+      <c r="H36" s="85" t="s">
+        <v>463</v>
+      </c>
+      <c r="I36" s="85" t="s">
+        <v>546</v>
+      </c>
+      <c r="J36" s="85" t="s">
         <v>365</v>
-      </c>
-      <c r="E36" s="85" t="s">
-        <v>536</v>
-      </c>
-      <c r="F36" s="100" t="s">
-        <v>450</v>
-      </c>
-      <c r="G36" s="85" t="s">
-        <v>352</v>
-      </c>
-      <c r="H36" s="85" t="s">
-        <v>464</v>
-      </c>
-      <c r="I36" s="85" t="s">
-        <v>547</v>
-      </c>
-      <c r="J36" s="85" t="s">
-        <v>366</v>
       </c>
       <c r="K36" s="85"/>
       <c r="L36" s="100" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="M36" s="112" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
-    <row r="37" spans="1:13" s="15" customFormat="1" ht="45" customHeight="1">
-      <c r="A37" s="262"/>
-      <c r="B37" s="170"/>
+    <row r="37" spans="1:13" s="15" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="249"/>
+      <c r="B37" s="163"/>
       <c r="C37" s="125">
         <v>4</v>
       </c>
-      <c r="D37" s="249"/>
-      <c r="E37" s="249"/>
-      <c r="F37" s="249"/>
-      <c r="G37" s="249"/>
-      <c r="H37" s="249"/>
-      <c r="I37" s="249"/>
-      <c r="J37" s="207"/>
+      <c r="D37" s="248"/>
+      <c r="E37" s="248"/>
+      <c r="F37" s="248"/>
+      <c r="G37" s="248"/>
+      <c r="H37" s="248"/>
+      <c r="I37" s="248"/>
+      <c r="J37" s="206"/>
       <c r="K37" s="79" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="L37" s="38"/>
       <c r="M37" s="99"/>
     </row>
-    <row r="38" spans="1:13" s="61" customFormat="1" ht="15" customHeight="1">
-      <c r="A38" s="266" t="s">
+    <row r="38" spans="1:13" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="247" t="s">
         <v>163</v>
       </c>
-      <c r="B38" s="169" t="s">
-        <v>272</v>
+      <c r="B38" s="162" t="s">
+        <v>271</v>
       </c>
       <c r="C38" s="124">
         <v>1</v>
       </c>
-      <c r="D38" s="268" t="s">
-        <v>552</v>
-      </c>
-      <c r="E38" s="269"/>
-      <c r="F38" s="269"/>
-      <c r="G38" s="269"/>
-      <c r="H38" s="269"/>
-      <c r="I38" s="269"/>
-      <c r="J38" s="269"/>
-      <c r="K38" s="269"/>
-      <c r="L38" s="269"/>
-      <c r="M38" s="269"/>
+      <c r="D38" s="254" t="s">
+        <v>551</v>
+      </c>
+      <c r="E38" s="255"/>
+      <c r="F38" s="255"/>
+      <c r="G38" s="255"/>
+      <c r="H38" s="255"/>
+      <c r="I38" s="255"/>
+      <c r="J38" s="255"/>
+      <c r="K38" s="255"/>
+      <c r="L38" s="255"/>
+      <c r="M38" s="255"/>
     </row>
-    <row r="39" spans="1:13" s="59" customFormat="1" ht="120" customHeight="1">
-      <c r="A39" s="267"/>
-      <c r="B39" s="177"/>
+    <row r="39" spans="1:13" s="59" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="246"/>
+      <c r="B39" s="195"/>
       <c r="C39" s="124">
         <v>4</v>
       </c>
       <c r="D39" s="62" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E39" s="90" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F39" s="90"/>
       <c r="G39" s="90" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H39" s="60"/>
       <c r="I39" s="60"/>
@@ -25097,44 +25100,44 @@
       <c r="L39" s="60"/>
       <c r="M39" s="60"/>
     </row>
-    <row r="40" spans="1:13" s="61" customFormat="1" ht="15" customHeight="1">
-      <c r="A40" s="260" t="s">
+    <row r="40" spans="1:13" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="244" t="s">
         <v>162</v>
       </c>
-      <c r="B40" s="230" t="s">
-        <v>271</v>
+      <c r="B40" s="194" t="s">
+        <v>270</v>
       </c>
       <c r="C40" s="126">
         <v>1</v>
       </c>
-      <c r="D40" s="241" t="s">
-        <v>549</v>
-      </c>
-      <c r="E40" s="242"/>
-      <c r="F40" s="242"/>
-      <c r="G40" s="242"/>
-      <c r="H40" s="242"/>
-      <c r="I40" s="242"/>
-      <c r="J40" s="242"/>
-      <c r="K40" s="242"/>
-      <c r="L40" s="242"/>
-      <c r="M40" s="242"/>
+      <c r="D40" s="251" t="s">
+        <v>548</v>
+      </c>
+      <c r="E40" s="269"/>
+      <c r="F40" s="269"/>
+      <c r="G40" s="269"/>
+      <c r="H40" s="269"/>
+      <c r="I40" s="269"/>
+      <c r="J40" s="269"/>
+      <c r="K40" s="269"/>
+      <c r="L40" s="269"/>
+      <c r="M40" s="269"/>
     </row>
-    <row r="41" spans="1:13" s="15" customFormat="1" ht="150" customHeight="1">
-      <c r="A41" s="267"/>
-      <c r="B41" s="177"/>
+    <row r="41" spans="1:13" s="15" customFormat="1" ht="150" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="246"/>
+      <c r="B41" s="195"/>
       <c r="C41" s="124">
         <v>4</v>
       </c>
       <c r="D41" s="62" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E41" s="90" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F41" s="90"/>
       <c r="G41" s="90" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H41" s="60"/>
       <c r="I41" s="60"/>
@@ -25143,193 +25146,189 @@
       <c r="L41" s="60"/>
       <c r="M41" s="60"/>
     </row>
-    <row r="42" spans="1:13" s="61" customFormat="1" ht="15" customHeight="1">
-      <c r="A42" s="260" t="s">
+    <row r="42" spans="1:13" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="244" t="s">
         <v>161</v>
       </c>
-      <c r="B42" s="230" t="s">
-        <v>273</v>
+      <c r="B42" s="194" t="s">
+        <v>272</v>
       </c>
       <c r="C42" s="126">
         <v>1</v>
       </c>
-      <c r="D42" s="241" t="s">
-        <v>550</v>
-      </c>
-      <c r="E42" s="242"/>
-      <c r="F42" s="242"/>
-      <c r="G42" s="242"/>
-      <c r="H42" s="242"/>
-      <c r="I42" s="242"/>
-      <c r="J42" s="242"/>
-      <c r="K42" s="242"/>
-      <c r="L42" s="242"/>
-      <c r="M42" s="242"/>
+      <c r="D42" s="251" t="s">
+        <v>549</v>
+      </c>
+      <c r="E42" s="269"/>
+      <c r="F42" s="269"/>
+      <c r="G42" s="269"/>
+      <c r="H42" s="269"/>
+      <c r="I42" s="269"/>
+      <c r="J42" s="269"/>
+      <c r="K42" s="269"/>
+      <c r="L42" s="269"/>
+      <c r="M42" s="269"/>
     </row>
-    <row r="43" spans="1:13" s="89" customFormat="1" ht="225" customHeight="1">
-      <c r="A43" s="261"/>
-      <c r="B43" s="177"/>
+    <row r="43" spans="1:13" s="89" customFormat="1" ht="225" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="245"/>
+      <c r="B43" s="195"/>
       <c r="C43" s="132">
         <v>4</v>
       </c>
       <c r="D43" s="62" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E43" s="90" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F43" s="90"/>
       <c r="G43" s="90" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H43" s="62" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="I43" s="90" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="J43" s="90" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="K43" s="90" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="L43" s="60"/>
       <c r="M43" s="90" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
-    <row r="44" spans="1:13" s="61" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A44" s="270" t="s">
+    <row r="44" spans="1:13" s="61" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="241" t="s">
         <v>160</v>
       </c>
-      <c r="B44" s="185" t="s">
-        <v>274</v>
+      <c r="B44" s="179" t="s">
+        <v>273</v>
       </c>
       <c r="C44" s="124">
         <v>1</v>
       </c>
-      <c r="D44" s="241" t="s">
-        <v>551</v>
-      </c>
-      <c r="E44" s="242"/>
-      <c r="F44" s="242"/>
-      <c r="G44" s="242"/>
-      <c r="H44" s="242"/>
-      <c r="I44" s="242"/>
-      <c r="J44" s="242"/>
-      <c r="K44" s="242"/>
-      <c r="L44" s="242"/>
-      <c r="M44" s="242"/>
+      <c r="D44" s="251" t="s">
+        <v>550</v>
+      </c>
+      <c r="E44" s="269"/>
+      <c r="F44" s="269"/>
+      <c r="G44" s="269"/>
+      <c r="H44" s="269"/>
+      <c r="I44" s="269"/>
+      <c r="J44" s="269"/>
+      <c r="K44" s="269"/>
+      <c r="L44" s="269"/>
+      <c r="M44" s="269"/>
     </row>
-    <row r="45" spans="1:13" ht="300" customHeight="1">
-      <c r="A45" s="271"/>
-      <c r="B45" s="272"/>
+    <row r="45" spans="1:13" ht="300" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="242"/>
+      <c r="B45" s="243"/>
       <c r="C45" s="127">
         <v>4</v>
       </c>
       <c r="D45" s="63" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E45" s="65" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="F45" s="65" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="G45" s="65" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="H45" s="65" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="I45" s="63" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="J45" s="63" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="K45" s="65" t="s">
+        <v>506</v>
+      </c>
+      <c r="L45" s="63" t="s">
         <v>507</v>
       </c>
-      <c r="L45" s="63" t="s">
+      <c r="M45" s="63" t="s">
         <v>508</v>
       </c>
-      <c r="M45" s="63" t="s">
-        <v>509</v>
-      </c>
     </row>
-    <row r="46" spans="1:13">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B46" s="57"/>
       <c r="C46" s="128"/>
     </row>
-    <row r="47" spans="1:13">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B47" s="57"/>
       <c r="C47" s="128"/>
     </row>
-    <row r="48" spans="1:13">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B48" s="57"/>
       <c r="C48" s="128"/>
     </row>
-    <row r="49" spans="2:3">
+    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B49" s="57"/>
       <c r="C49" s="128"/>
     </row>
-    <row r="50" spans="2:3">
+    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B50" s="57"/>
       <c r="C50" s="128"/>
     </row>
-    <row r="51" spans="2:3">
+    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B51" s="57"/>
       <c r="C51" s="128"/>
     </row>
-    <row r="52" spans="2:3">
+    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B52" s="57"/>
       <c r="C52" s="128"/>
     </row>
-    <row r="53" spans="2:3">
+    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B53" s="57"/>
       <c r="C53" s="128"/>
     </row>
-    <row r="54" spans="2:3">
+    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B54" s="57"/>
       <c r="C54" s="128"/>
     </row>
-    <row r="55" spans="2:3">
+    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B55" s="57"/>
       <c r="C55" s="128"/>
     </row>
-    <row r="56" spans="2:3">
+    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B56" s="57"/>
       <c r="C56" s="128"/>
     </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="D29:G29"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="D30:M30"/>
-    <mergeCell ref="D33:K33"/>
-    <mergeCell ref="D37:J37"/>
-    <mergeCell ref="D35:M35"/>
-    <mergeCell ref="D34:M34"/>
-    <mergeCell ref="D38:M38"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="D40:M40"/>
+    <mergeCell ref="D42:M42"/>
+    <mergeCell ref="D44:M44"/>
+    <mergeCell ref="D18:M18"/>
+    <mergeCell ref="D19:M19"/>
+    <mergeCell ref="D31:M31"/>
+    <mergeCell ref="D26:M26"/>
+    <mergeCell ref="D27:M27"/>
+    <mergeCell ref="F21:M21"/>
+    <mergeCell ref="E25:M25"/>
+    <mergeCell ref="D22:M22"/>
+    <mergeCell ref="D23:M23"/>
+    <mergeCell ref="I29:M29"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="B6:B9"/>
     <mergeCell ref="D2:M2"/>
     <mergeCell ref="D3:M3"/>
     <mergeCell ref="D6:M6"/>
@@ -25345,27 +25344,31 @@
     <mergeCell ref="D11:M11"/>
     <mergeCell ref="D14:M14"/>
     <mergeCell ref="D15:M15"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="D40:M40"/>
-    <mergeCell ref="D42:M42"/>
-    <mergeCell ref="D44:M44"/>
-    <mergeCell ref="D18:M18"/>
-    <mergeCell ref="D19:M19"/>
-    <mergeCell ref="D31:M31"/>
-    <mergeCell ref="D26:M26"/>
-    <mergeCell ref="D27:M27"/>
-    <mergeCell ref="F21:M21"/>
-    <mergeCell ref="E25:M25"/>
-    <mergeCell ref="D22:M22"/>
-    <mergeCell ref="D23:M23"/>
-    <mergeCell ref="I29:M29"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="D29:G29"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="D30:M30"/>
+    <mergeCell ref="D33:K33"/>
+    <mergeCell ref="D37:J37"/>
+    <mergeCell ref="D35:M35"/>
+    <mergeCell ref="D34:M34"/>
+    <mergeCell ref="D38:M38"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="A40:A41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Tags and Affinities.xlsx
+++ b/Tags and Affinities.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Charles\Documents\Git Repositories\materials_and_crafting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F65FB6EE-4647-4A92-B123-B2CEAEBA2B77}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED2FC8F1-FF8B-4E3F-8893-E2DF54573D8A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{8FD76562-234B-40A6-8AC6-52675E21BBDC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="2" xr2:uid="{8FD76562-234B-40A6-8AC6-52675E21BBDC}"/>
   </bookViews>
   <sheets>
     <sheet name="COMPONENT TAGS" sheetId="2" r:id="rId1"/>
@@ -2562,13 +2562,6 @@
 When you have expended more movement than 15 feet per terran affinity, you no longer emanate this trail, but the trail lasts until the start of your next turn.</t>
   </si>
   <si>
-    <t>Once per long rest, the bearer of this tattoo may expend an action to transform for 1 minute, gaining bestial characteristics.
-While transformed, you gain the following benefits:
-· You gain the keen hearing and smell trait.
-· Your skin toughens, increasing your AC by 1.
-· Your nails sharpen to claws. The physical damage of your unarmed strikes changes to slashing, your unarmed strikes become magical, and they gain an additional dice of acid or poison damage.</t>
-  </si>
-  <si>
     <t>When you expend movement on your turn, the space that you pass through becomes covered in knots of thorned vines or venomous critters.
 Whenever a creature enters the trail or they start their turn in it, they take acid or poison  equal to the boots' primal affinity.
 When you have expended more movement than 15 feet per primal affinity, you no longer emanate this trail, but the trail lasts until the start of your next turn.</t>
@@ -3004,9 +2997,6 @@
     <t>This material increases the emission radius of evocation spells that conduct through it by a number of inches equal to 5x its ignan affinity.</t>
   </si>
   <si>
-    <t>This material increases the emission radius of spells that conduct through it by a number of inches equal to its 2.5x its primal affinity.</t>
-  </si>
-  <si>
     <t>This material increases the emission radius of abjuration spells that conduct through it by a number of inches equal to 5x its aquan affinity.</t>
   </si>
   <si>
@@ -3176,33 +3166,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">While you wear this headgear, you can understand deep speech, and once per long rest, you may cast the </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>dominate monster</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> spell on an aberration, with a save DC equal to 10 + the headgear's nyxian affinity.
-You can only dominate aberrations of a CR lower than 2 times this headgear's nyxian affinity.</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">While you wear this headgear, you can communicate telepathically with undead, and once per long rest, you may cast the </t>
     </r>
     <r>
@@ -3229,10 +3192,6 @@
     </r>
   </si>
   <si>
-    <t>While you wear this headgear, you can understand sylvan, and once per long rest, you may cast the dominate person spell on an a fey, with a save DC equal to 10 + the headgear's luthian affinity.
-You can only dominate celestials of a CR lower than 2 times this headgear's luthian affinity.</t>
-  </si>
-  <si>
     <t>Evocation spells cast through this staff's core are upcast by 1 level.</t>
   </si>
   <si>
@@ -3283,9 +3242,6 @@
   <si>
     <t>This flask is incredibly stable. Potions contained within this flask lose the unstable tag, and this flask cannot be broken.
 Constructs lose their resistance and immunity to potions contained within this flask.</t>
-  </si>
-  <si>
-    <t>This piece of ammunition</t>
   </si>
   <si>
     <t>This staff core thrums to a particular tempo. When you take your turn and cast a spell through this staff, you may choose to exactly repeat the last turn you made. If you choose to do so, it is upcast by 1 level, up to a maximum of the mechanic affinity. If you choose not to, this benefit is lost.</t>
@@ -3294,6 +3250,50 @@
     <t>When you are solely targeted by a spell, you may expend your reaction to absorb the spell into this staff's core, charging it with the spell's magic. Absorbing a spell flushes any previously stored spell out of the staff's core, causing it to be immediately cast targeting one random creature within its range.
 While this staff is charged, you may cast the spell that it has stored, releasing the spell and consuming the charge.
 The spell must be of a level equal to or below this item's spell turning tier for this property to apply.</t>
+  </si>
+  <si>
+    <t>This material increases the emission radius of universal spells and spell slots that conduct through it by a number of inches equal to its 5x its primal affinity.</t>
+  </si>
+  <si>
+    <t>While you wear this headgear, you can understand Sylvan, and once per long rest, you may cast the dominate person spell on an a fey, with a save DC equal to 10 + the headgear's luthian affinity.
+You can only dominate celestials of a CR lower than 2 times this headgear's luthian affinity.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">While you wear this headgear, you can understand Deep Speech, and once per long rest, you may cast the </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dominate monster</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> spell on an aberration, with a save DC equal to 10 + the headgear's nyxian affinity.
+You can only dominate aberrations of a CR lower than 2 times this headgear's nyxian affinity.</t>
+    </r>
+  </si>
+  <si>
+    <t>This piece of ammunition thrums to a particular tempo. When you take your turn and fire this ammunition, you may choose to exactly repeat the last turn you made. If you choose to do so, your ranged weapon becomes a precision weapon, or increases its precision tier, at this material's mechanic affinity, and up to a critical range of three times the mechanic affinity. If you choose not to, this benefit is lost.</t>
+  </si>
+  <si>
+    <t>Once per long rest, the bearer of this tattoo may expend an action to transform for 1 minute, gaining bestial characteristics.
+While transformed, you gain the following benefits:
+· You gain the keen hearing and smell trait.
+· Your skin toughens, increasing your AC by 2.
+· Your nails sharpen to claws. The physical damage of your unarmed strikes changes to slashing, your unarmed strikes become magical, with a +1 bonus to attack and damage rolls (this stacks with existing bonuses), and they gain an additional dice of acid or poison damage.</t>
   </si>
 </sst>
 </file>
@@ -4923,6 +4923,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="74" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="79" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="80" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="81" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -4962,32 +4983,179 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="60" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="79" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="80" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="81" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="89" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -4998,9 +5166,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="90" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -5010,21 +5175,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="88" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -5037,152 +5187,92 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="75" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="60" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -5192,96 +5282,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="75" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5655,13 +5655,13 @@
       <c r="C2" s="151" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="170"/>
-      <c r="E2" s="171"/>
-      <c r="F2" s="171"/>
-      <c r="G2" s="171"/>
-      <c r="H2" s="171"/>
-      <c r="I2" s="171"/>
-      <c r="J2" s="172"/>
+      <c r="D2" s="154"/>
+      <c r="E2" s="155"/>
+      <c r="F2" s="155"/>
+      <c r="G2" s="155"/>
+      <c r="H2" s="155"/>
+      <c r="I2" s="155"/>
+      <c r="J2" s="156"/>
     </row>
     <row r="3" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
@@ -5673,45 +5673,45 @@
       <c r="C3" s="152" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="167"/>
-      <c r="E3" s="168"/>
-      <c r="F3" s="168"/>
-      <c r="G3" s="168"/>
-      <c r="H3" s="168"/>
-      <c r="I3" s="168"/>
-      <c r="J3" s="169"/>
+      <c r="D3" s="157"/>
+      <c r="E3" s="158"/>
+      <c r="F3" s="158"/>
+      <c r="G3" s="158"/>
+      <c r="H3" s="158"/>
+      <c r="I3" s="158"/>
+      <c r="J3" s="159"/>
     </row>
     <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="154" t="s">
+      <c r="A4" s="161" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="162" t="s">
+      <c r="B4" s="169" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="159" t="s">
+      <c r="C4" s="166" t="s">
         <v>285</v>
       </c>
-      <c r="D4" s="160"/>
-      <c r="E4" s="160"/>
-      <c r="F4" s="160"/>
-      <c r="G4" s="160"/>
-      <c r="H4" s="160"/>
-      <c r="I4" s="160"/>
-      <c r="J4" s="161"/>
+      <c r="D4" s="167"/>
+      <c r="E4" s="167"/>
+      <c r="F4" s="167"/>
+      <c r="G4" s="167"/>
+      <c r="H4" s="167"/>
+      <c r="I4" s="167"/>
+      <c r="J4" s="168"/>
     </row>
     <row r="5" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="155"/>
-      <c r="B5" s="163"/>
+      <c r="A5" s="162"/>
+      <c r="B5" s="170"/>
       <c r="C5" s="153" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="167"/>
-      <c r="E5" s="168"/>
-      <c r="F5" s="168"/>
-      <c r="G5" s="168"/>
-      <c r="H5" s="168"/>
-      <c r="I5" s="168"/>
-      <c r="J5" s="169"/>
+      <c r="D5" s="157"/>
+      <c r="E5" s="158"/>
+      <c r="F5" s="158"/>
+      <c r="G5" s="158"/>
+      <c r="H5" s="158"/>
+      <c r="I5" s="158"/>
+      <c r="J5" s="159"/>
     </row>
     <row r="6" spans="1:10" s="3" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
@@ -5723,13 +5723,13 @@
       <c r="C6" s="142" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="167"/>
-      <c r="E6" s="168"/>
-      <c r="F6" s="168"/>
-      <c r="G6" s="168"/>
-      <c r="H6" s="168"/>
-      <c r="I6" s="168"/>
-      <c r="J6" s="169"/>
+      <c r="D6" s="157"/>
+      <c r="E6" s="158"/>
+      <c r="F6" s="158"/>
+      <c r="G6" s="158"/>
+      <c r="H6" s="158"/>
+      <c r="I6" s="158"/>
+      <c r="J6" s="159"/>
     </row>
     <row r="7" spans="1:10" s="3" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
@@ -5741,13 +5741,13 @@
       <c r="C7" s="142" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="167"/>
-      <c r="E7" s="168"/>
-      <c r="F7" s="168"/>
-      <c r="G7" s="168"/>
-      <c r="H7" s="168"/>
-      <c r="I7" s="168"/>
-      <c r="J7" s="169"/>
+      <c r="D7" s="157"/>
+      <c r="E7" s="158"/>
+      <c r="F7" s="158"/>
+      <c r="G7" s="158"/>
+      <c r="H7" s="158"/>
+      <c r="I7" s="158"/>
+      <c r="J7" s="159"/>
     </row>
     <row r="8" spans="1:10" s="3" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
@@ -5759,13 +5759,13 @@
       <c r="C8" s="142" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="167"/>
-      <c r="E8" s="168"/>
-      <c r="F8" s="168"/>
-      <c r="G8" s="168"/>
-      <c r="H8" s="168"/>
-      <c r="I8" s="168"/>
-      <c r="J8" s="169"/>
+      <c r="D8" s="157"/>
+      <c r="E8" s="158"/>
+      <c r="F8" s="158"/>
+      <c r="G8" s="158"/>
+      <c r="H8" s="158"/>
+      <c r="I8" s="158"/>
+      <c r="J8" s="159"/>
     </row>
     <row r="9" spans="1:10" s="3" customFormat="1" ht="135" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
@@ -5777,13 +5777,13 @@
       <c r="C9" s="142" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="167"/>
-      <c r="E9" s="168"/>
-      <c r="F9" s="168"/>
-      <c r="G9" s="168"/>
-      <c r="H9" s="168"/>
-      <c r="I9" s="168"/>
-      <c r="J9" s="169"/>
+      <c r="D9" s="157"/>
+      <c r="E9" s="158"/>
+      <c r="F9" s="158"/>
+      <c r="G9" s="158"/>
+      <c r="H9" s="158"/>
+      <c r="I9" s="158"/>
+      <c r="J9" s="159"/>
     </row>
     <row r="10" spans="1:10" s="3" customFormat="1" ht="135" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
@@ -5795,11 +5795,11 @@
       <c r="C10" s="144" t="s">
         <v>332</v>
       </c>
-      <c r="D10" s="167"/>
-      <c r="E10" s="168"/>
-      <c r="F10" s="168"/>
-      <c r="G10" s="168"/>
-      <c r="H10" s="169"/>
+      <c r="D10" s="157"/>
+      <c r="E10" s="158"/>
+      <c r="F10" s="158"/>
+      <c r="G10" s="158"/>
+      <c r="H10" s="159"/>
       <c r="I10" s="145" t="s">
         <v>331</v>
       </c>
@@ -5815,13 +5815,13 @@
       <c r="C11" s="144" t="s">
         <v>335</v>
       </c>
-      <c r="D11" s="167"/>
-      <c r="E11" s="168"/>
-      <c r="F11" s="168"/>
-      <c r="G11" s="168"/>
-      <c r="H11" s="168"/>
-      <c r="I11" s="168"/>
-      <c r="J11" s="169"/>
+      <c r="D11" s="157"/>
+      <c r="E11" s="158"/>
+      <c r="F11" s="158"/>
+      <c r="G11" s="158"/>
+      <c r="H11" s="158"/>
+      <c r="I11" s="158"/>
+      <c r="J11" s="159"/>
     </row>
     <row r="12" spans="1:10" s="3" customFormat="1" ht="135" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
@@ -5830,12 +5830,12 @@
       <c r="B12" s="74" t="s">
         <v>319</v>
       </c>
-      <c r="C12" s="173"/>
-      <c r="D12" s="168"/>
-      <c r="E12" s="168"/>
-      <c r="F12" s="168"/>
-      <c r="G12" s="168"/>
-      <c r="H12" s="169"/>
+      <c r="C12" s="160"/>
+      <c r="D12" s="158"/>
+      <c r="E12" s="158"/>
+      <c r="F12" s="158"/>
+      <c r="G12" s="158"/>
+      <c r="H12" s="159"/>
       <c r="I12" s="145" t="s">
         <v>321</v>
       </c>
@@ -5843,21 +5843,21 @@
     </row>
     <row r="13" spans="1:10" s="3" customFormat="1" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C13" s="120" t="s">
-        <v>471</v>
-      </c>
-      <c r="D13" s="167"/>
-      <c r="E13" s="168"/>
-      <c r="F13" s="168"/>
-      <c r="G13" s="168"/>
-      <c r="H13" s="168"/>
-      <c r="I13" s="168"/>
-      <c r="J13" s="169"/>
+        <v>470</v>
+      </c>
+      <c r="D13" s="157"/>
+      <c r="E13" s="158"/>
+      <c r="F13" s="158"/>
+      <c r="G13" s="158"/>
+      <c r="H13" s="158"/>
+      <c r="I13" s="158"/>
+      <c r="J13" s="159"/>
     </row>
     <row r="14" spans="1:10" s="3" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
@@ -5869,49 +5869,49 @@
       <c r="C14" s="148" t="s">
         <v>265</v>
       </c>
-      <c r="D14" s="167"/>
-      <c r="E14" s="168"/>
-      <c r="F14" s="168"/>
-      <c r="G14" s="168"/>
-      <c r="H14" s="168"/>
-      <c r="I14" s="168"/>
-      <c r="J14" s="169"/>
+      <c r="D14" s="157"/>
+      <c r="E14" s="158"/>
+      <c r="F14" s="158"/>
+      <c r="G14" s="158"/>
+      <c r="H14" s="158"/>
+      <c r="I14" s="158"/>
+      <c r="J14" s="159"/>
     </row>
     <row r="15" spans="1:10" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="B15" s="118" t="s">
         <v>475</v>
       </c>
-      <c r="B15" s="118" t="s">
+      <c r="C15" s="166" t="s">
         <v>476</v>
       </c>
-      <c r="C15" s="159" t="s">
-        <v>477</v>
-      </c>
-      <c r="D15" s="160"/>
-      <c r="E15" s="160"/>
-      <c r="F15" s="160"/>
-      <c r="G15" s="160"/>
-      <c r="H15" s="160"/>
-      <c r="I15" s="160"/>
-      <c r="J15" s="161"/>
+      <c r="D15" s="167"/>
+      <c r="E15" s="167"/>
+      <c r="F15" s="167"/>
+      <c r="G15" s="167"/>
+      <c r="H15" s="167"/>
+      <c r="I15" s="167"/>
+      <c r="J15" s="168"/>
     </row>
     <row r="16" spans="1:10" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>109</v>
       </c>
       <c r="B16" s="118" t="s">
-        <v>474</v>
-      </c>
-      <c r="C16" s="159" t="s">
-        <v>472</v>
-      </c>
-      <c r="D16" s="160"/>
-      <c r="E16" s="160"/>
-      <c r="F16" s="160"/>
-      <c r="G16" s="160"/>
-      <c r="H16" s="160"/>
-      <c r="I16" s="160"/>
-      <c r="J16" s="161"/>
+        <v>473</v>
+      </c>
+      <c r="C16" s="166" t="s">
+        <v>471</v>
+      </c>
+      <c r="D16" s="167"/>
+      <c r="E16" s="167"/>
+      <c r="F16" s="167"/>
+      <c r="G16" s="167"/>
+      <c r="H16" s="167"/>
+      <c r="I16" s="167"/>
+      <c r="J16" s="168"/>
     </row>
     <row r="17" spans="1:10" s="3" customFormat="1" ht="150" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
@@ -5923,13 +5923,13 @@
       <c r="C17" s="146" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="167"/>
-      <c r="E17" s="168"/>
-      <c r="F17" s="168"/>
-      <c r="G17" s="168"/>
-      <c r="H17" s="168"/>
-      <c r="I17" s="168"/>
-      <c r="J17" s="169"/>
+      <c r="D17" s="157"/>
+      <c r="E17" s="158"/>
+      <c r="F17" s="158"/>
+      <c r="G17" s="158"/>
+      <c r="H17" s="158"/>
+      <c r="I17" s="158"/>
+      <c r="J17" s="159"/>
     </row>
     <row r="18" spans="1:10" s="3" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
@@ -5941,13 +5941,13 @@
       <c r="C18" s="142" t="s">
         <v>8</v>
       </c>
-      <c r="D18" s="167"/>
-      <c r="E18" s="168"/>
-      <c r="F18" s="168"/>
-      <c r="G18" s="168"/>
-      <c r="H18" s="168"/>
-      <c r="I18" s="168"/>
-      <c r="J18" s="169"/>
+      <c r="D18" s="157"/>
+      <c r="E18" s="158"/>
+      <c r="F18" s="158"/>
+      <c r="G18" s="158"/>
+      <c r="H18" s="158"/>
+      <c r="I18" s="158"/>
+      <c r="J18" s="159"/>
     </row>
     <row r="19" spans="1:10" s="3" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
@@ -5959,13 +5959,13 @@
       <c r="C19" s="142" t="s">
         <v>5</v>
       </c>
-      <c r="D19" s="167"/>
-      <c r="E19" s="168"/>
-      <c r="F19" s="168"/>
-      <c r="G19" s="168"/>
-      <c r="H19" s="168"/>
-      <c r="I19" s="168"/>
-      <c r="J19" s="169"/>
+      <c r="D19" s="157"/>
+      <c r="E19" s="158"/>
+      <c r="F19" s="158"/>
+      <c r="G19" s="158"/>
+      <c r="H19" s="158"/>
+      <c r="I19" s="158"/>
+      <c r="J19" s="159"/>
     </row>
     <row r="20" spans="1:10" s="3" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
@@ -5977,13 +5977,13 @@
       <c r="C20" s="142" t="s">
         <v>2</v>
       </c>
-      <c r="D20" s="167"/>
-      <c r="E20" s="168"/>
-      <c r="F20" s="168"/>
-      <c r="G20" s="168"/>
-      <c r="H20" s="168"/>
-      <c r="I20" s="168"/>
-      <c r="J20" s="169"/>
+      <c r="D20" s="157"/>
+      <c r="E20" s="158"/>
+      <c r="F20" s="158"/>
+      <c r="G20" s="158"/>
+      <c r="H20" s="158"/>
+      <c r="I20" s="158"/>
+      <c r="J20" s="159"/>
     </row>
     <row r="21" spans="1:10" s="47" customFormat="1" ht="225" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="48" t="s">
@@ -5995,13 +5995,13 @@
       <c r="C21" s="148" t="s">
         <v>290</v>
       </c>
-      <c r="D21" s="167"/>
-      <c r="E21" s="168"/>
-      <c r="F21" s="168"/>
-      <c r="G21" s="168"/>
-      <c r="H21" s="168"/>
-      <c r="I21" s="168"/>
-      <c r="J21" s="169"/>
+      <c r="D21" s="157"/>
+      <c r="E21" s="158"/>
+      <c r="F21" s="158"/>
+      <c r="G21" s="158"/>
+      <c r="H21" s="158"/>
+      <c r="I21" s="158"/>
+      <c r="J21" s="159"/>
     </row>
     <row r="22" spans="1:10" s="47" customFormat="1" ht="225" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="56" t="s">
@@ -6013,10 +6013,10 @@
       <c r="C22" s="35" t="s">
         <v>204</v>
       </c>
-      <c r="D22" s="164"/>
-      <c r="E22" s="165"/>
-      <c r="F22" s="165"/>
-      <c r="G22" s="166"/>
+      <c r="D22" s="171"/>
+      <c r="E22" s="172"/>
+      <c r="F22" s="172"/>
+      <c r="G22" s="173"/>
       <c r="H22" s="145" t="s">
         <v>205</v>
       </c>
@@ -6032,16 +6032,16 @@
       <c r="B23" s="64" t="s">
         <v>284</v>
       </c>
-      <c r="C23" s="159" t="s">
+      <c r="C23" s="166" t="s">
         <v>283</v>
       </c>
-      <c r="D23" s="160"/>
-      <c r="E23" s="160"/>
-      <c r="F23" s="160"/>
-      <c r="G23" s="160"/>
-      <c r="H23" s="160"/>
-      <c r="I23" s="160"/>
-      <c r="J23" s="161"/>
+      <c r="D23" s="167"/>
+      <c r="E23" s="167"/>
+      <c r="F23" s="167"/>
+      <c r="G23" s="167"/>
+      <c r="H23" s="167"/>
+      <c r="I23" s="167"/>
+      <c r="J23" s="168"/>
     </row>
     <row r="24" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A24" s="50" t="s">
@@ -6050,24 +6050,19 @@
       <c r="B24" s="51" t="s">
         <v>266</v>
       </c>
-      <c r="C24" s="156" t="s">
+      <c r="C24" s="163" t="s">
         <v>267</v>
       </c>
-      <c r="D24" s="157"/>
-      <c r="E24" s="157"/>
-      <c r="F24" s="157"/>
-      <c r="G24" s="157"/>
-      <c r="H24" s="157"/>
-      <c r="I24" s="157"/>
-      <c r="J24" s="158"/>
+      <c r="D24" s="164"/>
+      <c r="E24" s="164"/>
+      <c r="F24" s="164"/>
+      <c r="G24" s="164"/>
+      <c r="H24" s="164"/>
+      <c r="I24" s="164"/>
+      <c r="J24" s="165"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="D2:J3"/>
-    <mergeCell ref="D5:J9"/>
-    <mergeCell ref="D11:J11"/>
-    <mergeCell ref="D10:H10"/>
-    <mergeCell ref="C12:H12"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="C24:J24"/>
     <mergeCell ref="C23:J23"/>
@@ -6078,6 +6073,11 @@
     <mergeCell ref="D17:J21"/>
     <mergeCell ref="C16:J16"/>
     <mergeCell ref="C15:J15"/>
+    <mergeCell ref="D2:J3"/>
+    <mergeCell ref="D5:J9"/>
+    <mergeCell ref="D11:J11"/>
+    <mergeCell ref="D10:H10"/>
+    <mergeCell ref="C12:H12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6089,7 +6089,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:M63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="H53" sqref="H53"/>
@@ -6151,67 +6151,67 @@
       <c r="B2" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="C2" s="216" t="s">
-        <v>517</v>
-      </c>
-      <c r="D2" s="217"/>
-      <c r="E2" s="217"/>
-      <c r="F2" s="217"/>
-      <c r="G2" s="217"/>
-      <c r="H2" s="217"/>
-      <c r="I2" s="217"/>
-      <c r="J2" s="218"/>
-      <c r="K2" s="226"/>
-      <c r="L2" s="227"/>
+      <c r="C2" s="190" t="s">
+        <v>516</v>
+      </c>
+      <c r="D2" s="191"/>
+      <c r="E2" s="191"/>
+      <c r="F2" s="191"/>
+      <c r="G2" s="191"/>
+      <c r="H2" s="191"/>
+      <c r="I2" s="191"/>
+      <c r="J2" s="192"/>
+      <c r="K2" s="201"/>
+      <c r="L2" s="202"/>
     </row>
     <row r="3" spans="1:12" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="154" t="s">
+      <c r="A3" s="161" t="s">
         <v>157</v>
       </c>
-      <c r="B3" s="162" t="s">
+      <c r="B3" s="169" t="s">
         <v>222</v>
       </c>
-      <c r="C3" s="159" t="s">
+      <c r="C3" s="166" t="s">
         <v>268</v>
       </c>
-      <c r="D3" s="160"/>
-      <c r="E3" s="160"/>
-      <c r="F3" s="160"/>
-      <c r="G3" s="160"/>
-      <c r="H3" s="160"/>
-      <c r="I3" s="160"/>
-      <c r="J3" s="160"/>
-      <c r="K3" s="160"/>
-      <c r="L3" s="161"/>
+      <c r="D3" s="167"/>
+      <c r="E3" s="167"/>
+      <c r="F3" s="167"/>
+      <c r="G3" s="167"/>
+      <c r="H3" s="167"/>
+      <c r="I3" s="167"/>
+      <c r="J3" s="167"/>
+      <c r="K3" s="167"/>
+      <c r="L3" s="168"/>
     </row>
     <row r="4" spans="1:12" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="236"/>
-      <c r="B4" s="179"/>
-      <c r="C4" s="159" t="s">
-        <v>516</v>
-      </c>
-      <c r="D4" s="160"/>
-      <c r="E4" s="160"/>
-      <c r="F4" s="160"/>
-      <c r="G4" s="160"/>
-      <c r="H4" s="160"/>
-      <c r="I4" s="160"/>
-      <c r="J4" s="160"/>
-      <c r="K4" s="160"/>
-      <c r="L4" s="161"/>
+      <c r="A4" s="184"/>
+      <c r="B4" s="185"/>
+      <c r="C4" s="166" t="s">
+        <v>515</v>
+      </c>
+      <c r="D4" s="167"/>
+      <c r="E4" s="167"/>
+      <c r="F4" s="167"/>
+      <c r="G4" s="167"/>
+      <c r="H4" s="167"/>
+      <c r="I4" s="167"/>
+      <c r="J4" s="167"/>
+      <c r="K4" s="167"/>
+      <c r="L4" s="168"/>
     </row>
     <row r="5" spans="1:12" s="15" customFormat="1" ht="180" x14ac:dyDescent="0.25">
-      <c r="A5" s="155"/>
-      <c r="B5" s="163"/>
+      <c r="A5" s="162"/>
+      <c r="B5" s="170"/>
       <c r="C5" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="D5" s="228" t="s">
+      <c r="D5" s="180" t="s">
         <v>353</v>
       </c>
-      <c r="E5" s="228"/>
-      <c r="F5" s="228"/>
-      <c r="G5" s="228"/>
+      <c r="E5" s="180"/>
+      <c r="F5" s="180"/>
+      <c r="G5" s="180"/>
       <c r="H5" s="36" t="s">
         <v>155</v>
       </c>
@@ -6220,7 +6220,7 @@
       </c>
       <c r="J5" s="52"/>
       <c r="K5" s="44" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="L5" s="44" t="s">
         <v>291</v>
@@ -6233,16 +6233,16 @@
       <c r="B6" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="C6" s="159" t="s">
+      <c r="C6" s="166" t="s">
         <v>152</v>
       </c>
-      <c r="D6" s="160"/>
-      <c r="E6" s="160"/>
-      <c r="F6" s="160"/>
-      <c r="G6" s="160"/>
-      <c r="H6" s="160"/>
-      <c r="I6" s="160"/>
-      <c r="J6" s="161"/>
+      <c r="D6" s="167"/>
+      <c r="E6" s="167"/>
+      <c r="F6" s="167"/>
+      <c r="G6" s="167"/>
+      <c r="H6" s="167"/>
+      <c r="I6" s="167"/>
+      <c r="J6" s="168"/>
       <c r="K6" s="103"/>
       <c r="L6" s="77" t="s">
         <v>382</v>
@@ -6256,17 +6256,17 @@
         <v>221</v>
       </c>
       <c r="C7" s="25"/>
-      <c r="D7" s="228" t="s">
+      <c r="D7" s="180" t="s">
         <v>151</v>
       </c>
-      <c r="E7" s="228"/>
-      <c r="F7" s="228"/>
-      <c r="G7" s="228"/>
+      <c r="E7" s="180"/>
+      <c r="F7" s="180"/>
+      <c r="G7" s="180"/>
       <c r="H7" s="36" t="s">
         <v>150</v>
       </c>
-      <c r="I7" s="224"/>
-      <c r="J7" s="225"/>
+      <c r="I7" s="199"/>
+      <c r="J7" s="200"/>
       <c r="K7" s="44" t="s">
         <v>436</v>
       </c>
@@ -6281,16 +6281,16 @@
       <c r="B8" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="C8" s="229" t="s">
+      <c r="C8" s="203" t="s">
         <v>147</v>
       </c>
-      <c r="D8" s="230"/>
-      <c r="E8" s="230"/>
-      <c r="F8" s="230"/>
-      <c r="G8" s="230"/>
-      <c r="H8" s="230"/>
-      <c r="I8" s="230"/>
-      <c r="J8" s="231"/>
+      <c r="D8" s="204"/>
+      <c r="E8" s="204"/>
+      <c r="F8" s="204"/>
+      <c r="G8" s="204"/>
+      <c r="H8" s="204"/>
+      <c r="I8" s="204"/>
+      <c r="J8" s="205"/>
       <c r="K8" s="103"/>
       <c r="L8" s="77" t="s">
         <v>147</v>
@@ -6303,18 +6303,18 @@
       <c r="B9" s="46" t="s">
         <v>220</v>
       </c>
-      <c r="C9" s="161" t="s">
+      <c r="C9" s="168" t="s">
         <v>145</v>
       </c>
-      <c r="D9" s="228"/>
-      <c r="E9" s="228"/>
-      <c r="F9" s="228"/>
-      <c r="G9" s="228"/>
-      <c r="H9" s="228"/>
-      <c r="I9" s="228"/>
-      <c r="J9" s="228"/>
-      <c r="K9" s="228"/>
-      <c r="L9" s="228"/>
+      <c r="D9" s="180"/>
+      <c r="E9" s="180"/>
+      <c r="F9" s="180"/>
+      <c r="G9" s="180"/>
+      <c r="H9" s="180"/>
+      <c r="I9" s="180"/>
+      <c r="J9" s="180"/>
+      <c r="K9" s="180"/>
+      <c r="L9" s="180"/>
     </row>
     <row r="10" spans="1:12" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="28" t="s">
@@ -6323,16 +6323,16 @@
       <c r="B10" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="C10" s="229" t="s">
+      <c r="C10" s="203" t="s">
         <v>143</v>
       </c>
-      <c r="D10" s="230"/>
-      <c r="E10" s="230"/>
-      <c r="F10" s="230"/>
-      <c r="G10" s="230"/>
-      <c r="H10" s="230"/>
-      <c r="I10" s="230"/>
-      <c r="J10" s="231"/>
+      <c r="D10" s="204"/>
+      <c r="E10" s="204"/>
+      <c r="F10" s="204"/>
+      <c r="G10" s="204"/>
+      <c r="H10" s="204"/>
+      <c r="I10" s="204"/>
+      <c r="J10" s="205"/>
       <c r="K10" s="76"/>
       <c r="L10" s="77" t="s">
         <v>381</v>
@@ -6345,18 +6345,18 @@
       <c r="B11" s="46" t="s">
         <v>223</v>
       </c>
-      <c r="C11" s="159" t="s">
+      <c r="C11" s="166" t="s">
         <v>294</v>
       </c>
-      <c r="D11" s="160"/>
-      <c r="E11" s="160"/>
-      <c r="F11" s="160"/>
-      <c r="G11" s="160"/>
-      <c r="H11" s="161"/>
-      <c r="I11" s="232"/>
-      <c r="J11" s="175"/>
+      <c r="D11" s="167"/>
+      <c r="E11" s="167"/>
+      <c r="F11" s="167"/>
+      <c r="G11" s="167"/>
+      <c r="H11" s="168"/>
+      <c r="I11" s="208"/>
+      <c r="J11" s="209"/>
       <c r="K11" s="70" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="L11" s="44" t="s">
         <v>384</v>
@@ -6367,14 +6367,14 @@
         <v>295</v>
       </c>
       <c r="B12" s="67"/>
-      <c r="C12" s="238"/>
-      <c r="D12" s="239"/>
-      <c r="E12" s="239"/>
-      <c r="F12" s="239"/>
-      <c r="G12" s="239"/>
-      <c r="H12" s="239"/>
-      <c r="I12" s="165"/>
-      <c r="J12" s="166"/>
+      <c r="C12" s="187"/>
+      <c r="D12" s="188"/>
+      <c r="E12" s="188"/>
+      <c r="F12" s="188"/>
+      <c r="G12" s="188"/>
+      <c r="H12" s="188"/>
+      <c r="I12" s="172"/>
+      <c r="J12" s="173"/>
       <c r="K12" s="39" t="s">
         <v>296</v>
       </c>
@@ -6409,8 +6409,8 @@
       <c r="J13" s="40" t="s">
         <v>328</v>
       </c>
-      <c r="K13" s="201"/>
-      <c r="L13" s="202"/>
+      <c r="K13" s="193"/>
+      <c r="L13" s="194"/>
     </row>
     <row r="14" spans="1:12" ht="135" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
@@ -6422,19 +6422,19 @@
       <c r="C14" s="11" t="s">
         <v>316</v>
       </c>
-      <c r="D14" s="164"/>
-      <c r="E14" s="168"/>
-      <c r="F14" s="165"/>
-      <c r="G14" s="165"/>
-      <c r="H14" s="165"/>
+      <c r="D14" s="171"/>
+      <c r="E14" s="158"/>
+      <c r="F14" s="172"/>
+      <c r="G14" s="172"/>
+      <c r="H14" s="172"/>
       <c r="I14" s="40" t="s">
         <v>322</v>
       </c>
       <c r="J14" s="40" t="s">
-        <v>505</v>
-      </c>
-      <c r="K14" s="219"/>
-      <c r="L14" s="220"/>
+        <v>504</v>
+      </c>
+      <c r="K14" s="195"/>
+      <c r="L14" s="196"/>
     </row>
     <row r="15" spans="1:12" ht="135" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
@@ -6450,7 +6450,7 @@
         <v>137</v>
       </c>
       <c r="E15" s="90" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="F15" s="17" t="s">
         <v>136</v>
@@ -6467,21 +6467,21 @@
       <c r="J15" s="39" t="s">
         <v>208</v>
       </c>
-      <c r="K15" s="219"/>
-      <c r="L15" s="220"/>
+      <c r="K15" s="195"/>
+      <c r="L15" s="196"/>
     </row>
     <row r="16" spans="1:12" ht="150" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="237" t="s">
+      <c r="A16" s="186" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="203" t="s">
+      <c r="B16" s="189" t="s">
         <v>133</v>
       </c>
       <c r="C16" s="11" t="s">
         <v>289</v>
       </c>
-      <c r="D16" s="205"/>
-      <c r="E16" s="206"/>
+      <c r="D16" s="206"/>
+      <c r="E16" s="207"/>
       <c r="F16" s="26" t="s">
         <v>288</v>
       </c>
@@ -6495,37 +6495,37 @@
       <c r="J16" s="42" t="s">
         <v>210</v>
       </c>
-      <c r="K16" s="219"/>
-      <c r="L16" s="220"/>
+      <c r="K16" s="195"/>
+      <c r="L16" s="196"/>
     </row>
     <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="237"/>
-      <c r="B17" s="203"/>
-      <c r="C17" s="159" t="s">
+      <c r="A17" s="186"/>
+      <c r="B17" s="189"/>
+      <c r="C17" s="166" t="s">
         <v>132</v>
       </c>
-      <c r="D17" s="160"/>
-      <c r="E17" s="160"/>
-      <c r="F17" s="160"/>
-      <c r="G17" s="160"/>
-      <c r="H17" s="200"/>
-      <c r="I17" s="200"/>
-      <c r="J17" s="185"/>
-      <c r="K17" s="219"/>
-      <c r="L17" s="220"/>
+      <c r="D17" s="167"/>
+      <c r="E17" s="167"/>
+      <c r="F17" s="167"/>
+      <c r="G17" s="167"/>
+      <c r="H17" s="210"/>
+      <c r="I17" s="210"/>
+      <c r="J17" s="211"/>
+      <c r="K17" s="195"/>
+      <c r="L17" s="196"/>
     </row>
     <row r="18" spans="1:13" ht="135" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="237" t="s">
+      <c r="A18" s="186" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="203" t="s">
+      <c r="B18" s="189" t="s">
         <v>131</v>
       </c>
       <c r="C18" s="82" t="s">
         <v>286</v>
       </c>
-      <c r="D18" s="205"/>
-      <c r="E18" s="206"/>
+      <c r="D18" s="206"/>
+      <c r="E18" s="207"/>
       <c r="F18" s="83" t="s">
         <v>287</v>
       </c>
@@ -6539,64 +6539,64 @@
       <c r="J18" s="42" t="s">
         <v>211</v>
       </c>
-      <c r="K18" s="221"/>
-      <c r="L18" s="222"/>
+      <c r="K18" s="197"/>
+      <c r="L18" s="198"/>
     </row>
     <row r="19" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="237"/>
-      <c r="B19" s="204"/>
-      <c r="C19" s="223" t="s">
+      <c r="A19" s="186"/>
+      <c r="B19" s="224"/>
+      <c r="C19" s="179" t="s">
         <v>130</v>
       </c>
-      <c r="D19" s="160"/>
-      <c r="E19" s="160"/>
-      <c r="F19" s="160"/>
-      <c r="G19" s="160"/>
-      <c r="H19" s="160"/>
-      <c r="I19" s="160"/>
-      <c r="J19" s="160"/>
-      <c r="K19" s="160"/>
-      <c r="L19" s="161"/>
+      <c r="D19" s="167"/>
+      <c r="E19" s="167"/>
+      <c r="F19" s="167"/>
+      <c r="G19" s="167"/>
+      <c r="H19" s="167"/>
+      <c r="I19" s="167"/>
+      <c r="J19" s="167"/>
+      <c r="K19" s="167"/>
+      <c r="L19" s="168"/>
     </row>
     <row r="20" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="154" t="s">
+      <c r="A20" s="161" t="s">
         <v>263</v>
       </c>
-      <c r="B20" s="209" t="s">
+      <c r="B20" s="226" t="s">
         <v>264</v>
       </c>
-      <c r="C20" s="223" t="s">
-        <v>498</v>
-      </c>
-      <c r="D20" s="160"/>
-      <c r="E20" s="160"/>
-      <c r="F20" s="160"/>
-      <c r="G20" s="160"/>
-      <c r="H20" s="160"/>
-      <c r="I20" s="160"/>
-      <c r="J20" s="160"/>
-      <c r="K20" s="160"/>
-      <c r="L20" s="160"/>
+      <c r="C20" s="179" t="s">
+        <v>497</v>
+      </c>
+      <c r="D20" s="167"/>
+      <c r="E20" s="167"/>
+      <c r="F20" s="167"/>
+      <c r="G20" s="167"/>
+      <c r="H20" s="167"/>
+      <c r="I20" s="167"/>
+      <c r="J20" s="167"/>
+      <c r="K20" s="167"/>
+      <c r="L20" s="167"/>
       <c r="M20" s="141"/>
     </row>
     <row r="21" spans="1:13" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="155"/>
-      <c r="B21" s="210"/>
-      <c r="C21" s="233" t="s">
-        <v>501</v>
-      </c>
-      <c r="D21" s="234"/>
-      <c r="E21" s="234"/>
-      <c r="F21" s="234"/>
-      <c r="G21" s="234"/>
-      <c r="H21" s="234"/>
-      <c r="I21" s="234"/>
-      <c r="J21" s="235"/>
+      <c r="A21" s="162"/>
+      <c r="B21" s="227"/>
+      <c r="C21" s="181" t="s">
+        <v>500</v>
+      </c>
+      <c r="D21" s="182"/>
+      <c r="E21" s="182"/>
+      <c r="F21" s="182"/>
+      <c r="G21" s="182"/>
+      <c r="H21" s="182"/>
+      <c r="I21" s="182"/>
+      <c r="J21" s="183"/>
       <c r="K21" s="42" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="L21" s="140" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="105" customHeight="1" x14ac:dyDescent="0.25">
@@ -6606,16 +6606,16 @@
       <c r="B22" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="C22" s="159" t="s">
+      <c r="C22" s="166" t="s">
         <v>234</v>
       </c>
-      <c r="D22" s="160"/>
-      <c r="E22" s="160"/>
-      <c r="F22" s="160"/>
-      <c r="G22" s="160"/>
-      <c r="H22" s="160"/>
-      <c r="I22" s="160"/>
-      <c r="J22" s="161"/>
+      <c r="D22" s="167"/>
+      <c r="E22" s="167"/>
+      <c r="F22" s="167"/>
+      <c r="G22" s="167"/>
+      <c r="H22" s="167"/>
+      <c r="I22" s="167"/>
+      <c r="J22" s="168"/>
       <c r="K22" s="41" t="s">
         <v>292</v>
       </c>
@@ -6624,60 +6624,60 @@
       </c>
     </row>
     <row r="23" spans="1:13" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="180" t="s">
+      <c r="A23" s="235" t="s">
         <v>366</v>
       </c>
-      <c r="B23" s="162" t="s">
+      <c r="B23" s="169" t="s">
         <v>371</v>
       </c>
-      <c r="C23" s="159" t="s">
+      <c r="C23" s="166" t="s">
         <v>368</v>
       </c>
-      <c r="D23" s="160"/>
-      <c r="E23" s="160"/>
-      <c r="F23" s="160"/>
-      <c r="G23" s="160"/>
-      <c r="H23" s="160"/>
-      <c r="I23" s="160"/>
-      <c r="J23" s="161"/>
-      <c r="K23" s="185" t="s">
+      <c r="D23" s="167"/>
+      <c r="E23" s="167"/>
+      <c r="F23" s="167"/>
+      <c r="G23" s="167"/>
+      <c r="H23" s="167"/>
+      <c r="I23" s="167"/>
+      <c r="J23" s="168"/>
+      <c r="K23" s="211" t="s">
         <v>370</v>
       </c>
-      <c r="L23" s="185" t="s">
+      <c r="L23" s="211" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="181"/>
-      <c r="B24" s="179"/>
-      <c r="C24" s="159" t="s">
+      <c r="A24" s="236"/>
+      <c r="B24" s="185"/>
+      <c r="C24" s="166" t="s">
         <v>367</v>
       </c>
-      <c r="D24" s="160"/>
-      <c r="E24" s="160"/>
-      <c r="F24" s="160"/>
-      <c r="G24" s="160"/>
-      <c r="H24" s="160"/>
-      <c r="I24" s="160"/>
-      <c r="J24" s="161"/>
-      <c r="K24" s="186"/>
-      <c r="L24" s="186"/>
+      <c r="D24" s="167"/>
+      <c r="E24" s="167"/>
+      <c r="F24" s="167"/>
+      <c r="G24" s="167"/>
+      <c r="H24" s="167"/>
+      <c r="I24" s="167"/>
+      <c r="J24" s="168"/>
+      <c r="K24" s="225"/>
+      <c r="L24" s="225"/>
     </row>
     <row r="25" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="182"/>
-      <c r="B25" s="163"/>
-      <c r="C25" s="159" t="s">
+      <c r="A25" s="237"/>
+      <c r="B25" s="170"/>
+      <c r="C25" s="166" t="s">
         <v>369</v>
       </c>
-      <c r="D25" s="160"/>
-      <c r="E25" s="160"/>
-      <c r="F25" s="160"/>
-      <c r="G25" s="160"/>
-      <c r="H25" s="160"/>
-      <c r="I25" s="160"/>
-      <c r="J25" s="161"/>
-      <c r="K25" s="187"/>
-      <c r="L25" s="187"/>
+      <c r="D25" s="167"/>
+      <c r="E25" s="167"/>
+      <c r="F25" s="167"/>
+      <c r="G25" s="167"/>
+      <c r="H25" s="167"/>
+      <c r="I25" s="167"/>
+      <c r="J25" s="168"/>
+      <c r="K25" s="220"/>
+      <c r="L25" s="220"/>
     </row>
     <row r="26" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
@@ -6686,18 +6686,18 @@
       <c r="B26" s="46" t="s">
         <v>126</v>
       </c>
-      <c r="C26" s="183" t="s">
+      <c r="C26" s="176" t="s">
         <v>125</v>
       </c>
-      <c r="D26" s="184"/>
-      <c r="E26" s="184"/>
-      <c r="F26" s="184"/>
-      <c r="G26" s="184"/>
-      <c r="H26" s="184"/>
-      <c r="I26" s="184"/>
-      <c r="J26" s="184"/>
-      <c r="K26" s="184"/>
-      <c r="L26" s="184"/>
+      <c r="D26" s="217"/>
+      <c r="E26" s="217"/>
+      <c r="F26" s="217"/>
+      <c r="G26" s="217"/>
+      <c r="H26" s="217"/>
+      <c r="I26" s="217"/>
+      <c r="J26" s="217"/>
+      <c r="K26" s="217"/>
+      <c r="L26" s="217"/>
     </row>
     <row r="27" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
@@ -6706,18 +6706,18 @@
       <c r="B27" s="92" t="s">
         <v>123</v>
       </c>
-      <c r="C27" s="183" t="s">
+      <c r="C27" s="176" t="s">
         <v>122</v>
       </c>
-      <c r="D27" s="184"/>
-      <c r="E27" s="184"/>
-      <c r="F27" s="184"/>
-      <c r="G27" s="184"/>
-      <c r="H27" s="184"/>
-      <c r="I27" s="184"/>
-      <c r="J27" s="184"/>
-      <c r="K27" s="184"/>
-      <c r="L27" s="184"/>
+      <c r="D27" s="217"/>
+      <c r="E27" s="217"/>
+      <c r="F27" s="217"/>
+      <c r="G27" s="217"/>
+      <c r="H27" s="217"/>
+      <c r="I27" s="217"/>
+      <c r="J27" s="217"/>
+      <c r="K27" s="217"/>
+      <c r="L27" s="217"/>
     </row>
     <row r="28" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
@@ -6726,18 +6726,18 @@
       <c r="B28" s="92" t="s">
         <v>172</v>
       </c>
-      <c r="C28" s="183" t="s">
+      <c r="C28" s="176" t="s">
         <v>173</v>
       </c>
-      <c r="D28" s="184"/>
-      <c r="E28" s="184"/>
-      <c r="F28" s="184"/>
-      <c r="G28" s="184"/>
-      <c r="H28" s="184"/>
-      <c r="I28" s="184"/>
-      <c r="J28" s="184"/>
-      <c r="K28" s="184"/>
-      <c r="L28" s="184"/>
+      <c r="D28" s="217"/>
+      <c r="E28" s="217"/>
+      <c r="F28" s="217"/>
+      <c r="G28" s="217"/>
+      <c r="H28" s="217"/>
+      <c r="I28" s="217"/>
+      <c r="J28" s="217"/>
+      <c r="K28" s="217"/>
+      <c r="L28" s="217"/>
     </row>
     <row r="29" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
@@ -6746,18 +6746,18 @@
       <c r="B29" s="92" t="s">
         <v>120</v>
       </c>
-      <c r="C29" s="183" t="s">
+      <c r="C29" s="176" t="s">
         <v>119</v>
       </c>
-      <c r="D29" s="184"/>
-      <c r="E29" s="184"/>
-      <c r="F29" s="184"/>
-      <c r="G29" s="184"/>
-      <c r="H29" s="184"/>
-      <c r="I29" s="184"/>
-      <c r="J29" s="184"/>
-      <c r="K29" s="184"/>
-      <c r="L29" s="184"/>
+      <c r="D29" s="217"/>
+      <c r="E29" s="217"/>
+      <c r="F29" s="217"/>
+      <c r="G29" s="217"/>
+      <c r="H29" s="217"/>
+      <c r="I29" s="217"/>
+      <c r="J29" s="217"/>
+      <c r="K29" s="217"/>
+      <c r="L29" s="217"/>
     </row>
     <row r="30" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
@@ -6766,18 +6766,18 @@
       <c r="B30" s="92" t="s">
         <v>175</v>
       </c>
-      <c r="C30" s="183" t="s">
+      <c r="C30" s="176" t="s">
         <v>176</v>
       </c>
-      <c r="D30" s="184"/>
-      <c r="E30" s="184"/>
-      <c r="F30" s="184"/>
-      <c r="G30" s="184"/>
-      <c r="H30" s="184"/>
-      <c r="I30" s="184"/>
-      <c r="J30" s="184"/>
-      <c r="K30" s="184"/>
-      <c r="L30" s="184"/>
+      <c r="D30" s="217"/>
+      <c r="E30" s="217"/>
+      <c r="F30" s="217"/>
+      <c r="G30" s="217"/>
+      <c r="H30" s="217"/>
+      <c r="I30" s="217"/>
+      <c r="J30" s="217"/>
+      <c r="K30" s="217"/>
+      <c r="L30" s="217"/>
     </row>
     <row r="31" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
@@ -6786,18 +6786,18 @@
       <c r="B31" s="92" t="s">
         <v>117</v>
       </c>
-      <c r="C31" s="183" t="s">
+      <c r="C31" s="176" t="s">
         <v>116</v>
       </c>
-      <c r="D31" s="184"/>
-      <c r="E31" s="184"/>
-      <c r="F31" s="184"/>
-      <c r="G31" s="184"/>
-      <c r="H31" s="184"/>
-      <c r="I31" s="184"/>
-      <c r="J31" s="184"/>
-      <c r="K31" s="184"/>
-      <c r="L31" s="184"/>
+      <c r="D31" s="217"/>
+      <c r="E31" s="217"/>
+      <c r="F31" s="217"/>
+      <c r="G31" s="217"/>
+      <c r="H31" s="217"/>
+      <c r="I31" s="217"/>
+      <c r="J31" s="217"/>
+      <c r="K31" s="217"/>
+      <c r="L31" s="217"/>
     </row>
     <row r="32" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
@@ -6806,42 +6806,42 @@
       <c r="B32" s="46" t="s">
         <v>114</v>
       </c>
-      <c r="C32" s="183" t="s">
+      <c r="C32" s="176" t="s">
         <v>113</v>
       </c>
-      <c r="D32" s="184"/>
-      <c r="E32" s="184"/>
-      <c r="F32" s="184"/>
-      <c r="G32" s="184"/>
-      <c r="H32" s="184"/>
-      <c r="I32" s="184"/>
-      <c r="J32" s="184"/>
-      <c r="K32" s="184"/>
-      <c r="L32" s="184"/>
+      <c r="D32" s="217"/>
+      <c r="E32" s="217"/>
+      <c r="F32" s="217"/>
+      <c r="G32" s="217"/>
+      <c r="H32" s="217"/>
+      <c r="I32" s="217"/>
+      <c r="J32" s="217"/>
+      <c r="K32" s="217"/>
+      <c r="L32" s="217"/>
     </row>
     <row r="33" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="154" t="s">
+      <c r="A33" s="161" t="s">
         <v>112</v>
       </c>
-      <c r="B33" s="162" t="s">
+      <c r="B33" s="169" t="s">
         <v>111</v>
       </c>
-      <c r="C33" s="211" t="s">
-        <v>530</v>
-      </c>
-      <c r="D33" s="196"/>
-      <c r="E33" s="196"/>
-      <c r="F33" s="196"/>
-      <c r="G33" s="196"/>
-      <c r="H33" s="196"/>
-      <c r="I33" s="196"/>
-      <c r="J33" s="196"/>
-      <c r="K33" s="196"/>
-      <c r="L33" s="183"/>
+      <c r="C33" s="174" t="s">
+        <v>528</v>
+      </c>
+      <c r="D33" s="175"/>
+      <c r="E33" s="175"/>
+      <c r="F33" s="175"/>
+      <c r="G33" s="175"/>
+      <c r="H33" s="175"/>
+      <c r="I33" s="175"/>
+      <c r="J33" s="175"/>
+      <c r="K33" s="175"/>
+      <c r="L33" s="176"/>
     </row>
     <row r="34" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="240"/>
-      <c r="B34" s="195"/>
+      <c r="A34" s="178"/>
+      <c r="B34" s="177"/>
       <c r="C34" s="133" t="s">
         <v>178</v>
       </c>
@@ -6852,8 +6852,8 @@
       <c r="F34" s="135" t="s">
         <v>179</v>
       </c>
-      <c r="G34" s="205"/>
-      <c r="H34" s="206"/>
+      <c r="G34" s="206"/>
+      <c r="H34" s="207"/>
       <c r="I34" s="134" t="s">
         <v>304</v>
       </c>
@@ -6869,62 +6869,62 @@
     </row>
     <row r="35" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="139" t="s">
+        <v>490</v>
+      </c>
+      <c r="B35" s="136" t="s">
         <v>491</v>
       </c>
-      <c r="B35" s="136" t="s">
+      <c r="C35" s="225" t="s">
+        <v>495</v>
+      </c>
+      <c r="D35" s="241"/>
+      <c r="E35" s="241"/>
+      <c r="F35" s="241"/>
+      <c r="G35" s="241"/>
+      <c r="H35" s="241"/>
+      <c r="I35" s="241"/>
+      <c r="J35" s="90" t="s">
+        <v>494</v>
+      </c>
+      <c r="K35" s="108" t="s">
+        <v>493</v>
+      </c>
+      <c r="L35" s="137" t="s">
         <v>492</v>
-      </c>
-      <c r="C35" s="186" t="s">
-        <v>496</v>
-      </c>
-      <c r="D35" s="191"/>
-      <c r="E35" s="191"/>
-      <c r="F35" s="191"/>
-      <c r="G35" s="191"/>
-      <c r="H35" s="191"/>
-      <c r="I35" s="191"/>
-      <c r="J35" s="90" t="s">
-        <v>495</v>
-      </c>
-      <c r="K35" s="108" t="s">
-        <v>494</v>
-      </c>
-      <c r="L35" s="137" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="36" spans="1:12" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="176" t="s">
+      <c r="A36" s="232" t="s">
         <v>55</v>
       </c>
-      <c r="B36" s="178" t="s">
+      <c r="B36" s="234" t="s">
         <v>54</v>
       </c>
-      <c r="C36" s="188" t="s">
+      <c r="C36" s="238" t="s">
         <v>379</v>
       </c>
-      <c r="D36" s="189"/>
-      <c r="E36" s="189"/>
-      <c r="F36" s="189"/>
-      <c r="G36" s="189"/>
-      <c r="H36" s="189"/>
-      <c r="I36" s="189"/>
-      <c r="J36" s="189"/>
-      <c r="K36" s="189"/>
-      <c r="L36" s="190"/>
+      <c r="D36" s="239"/>
+      <c r="E36" s="239"/>
+      <c r="F36" s="239"/>
+      <c r="G36" s="239"/>
+      <c r="H36" s="239"/>
+      <c r="I36" s="239"/>
+      <c r="J36" s="239"/>
+      <c r="K36" s="239"/>
+      <c r="L36" s="240"/>
     </row>
     <row r="37" spans="1:12" ht="345" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="177"/>
-      <c r="B37" s="179"/>
+      <c r="A37" s="233"/>
+      <c r="B37" s="185"/>
       <c r="C37" s="104" t="s">
         <v>226</v>
       </c>
       <c r="D37" s="90" t="s">
         <v>378</v>
       </c>
-      <c r="E37" s="167"/>
-      <c r="F37" s="168"/>
-      <c r="G37" s="169"/>
+      <c r="E37" s="157"/>
+      <c r="F37" s="158"/>
+      <c r="G37" s="159"/>
       <c r="H37" s="105" t="s">
         <v>227</v>
       </c>
@@ -6946,20 +6946,20 @@
         <v>109</v>
       </c>
       <c r="B38" s="117" t="s">
-        <v>473</v>
-      </c>
-      <c r="C38" s="198" t="s">
+        <v>472</v>
+      </c>
+      <c r="C38" s="218" t="s">
         <v>108</v>
       </c>
-      <c r="D38" s="199"/>
-      <c r="E38" s="199"/>
-      <c r="F38" s="199"/>
-      <c r="G38" s="199"/>
-      <c r="H38" s="199"/>
-      <c r="I38" s="199"/>
-      <c r="J38" s="199"/>
-      <c r="K38" s="199"/>
-      <c r="L38" s="187"/>
+      <c r="D38" s="219"/>
+      <c r="E38" s="219"/>
+      <c r="F38" s="219"/>
+      <c r="G38" s="219"/>
+      <c r="H38" s="219"/>
+      <c r="I38" s="219"/>
+      <c r="J38" s="219"/>
+      <c r="K38" s="219"/>
+      <c r="L38" s="220"/>
     </row>
     <row r="39" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="116" t="s">
@@ -6968,41 +6968,41 @@
       <c r="B39" s="117" t="s">
         <v>106</v>
       </c>
-      <c r="C39" s="197" t="s">
+      <c r="C39" s="223" t="s">
         <v>431</v>
       </c>
-      <c r="D39" s="200"/>
-      <c r="E39" s="200"/>
-      <c r="F39" s="200"/>
-      <c r="G39" s="200"/>
-      <c r="H39" s="200"/>
-      <c r="I39" s="200"/>
-      <c r="J39" s="200"/>
-      <c r="K39" s="200"/>
-      <c r="L39" s="185"/>
+      <c r="D39" s="210"/>
+      <c r="E39" s="210"/>
+      <c r="F39" s="210"/>
+      <c r="G39" s="210"/>
+      <c r="H39" s="210"/>
+      <c r="I39" s="210"/>
+      <c r="J39" s="210"/>
+      <c r="K39" s="210"/>
+      <c r="L39" s="211"/>
     </row>
     <row r="40" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="114" t="s">
+        <v>477</v>
+      </c>
+      <c r="B40" s="115" t="s">
         <v>478</v>
       </c>
-      <c r="B40" s="115" t="s">
-        <v>479</v>
-      </c>
-      <c r="C40" s="159" t="s">
+      <c r="C40" s="166" t="s">
         <v>430</v>
       </c>
-      <c r="D40" s="160"/>
-      <c r="E40" s="160"/>
-      <c r="F40" s="160"/>
-      <c r="G40" s="160"/>
-      <c r="H40" s="160"/>
-      <c r="I40" s="160"/>
-      <c r="J40" s="161"/>
+      <c r="D40" s="167"/>
+      <c r="E40" s="167"/>
+      <c r="F40" s="167"/>
+      <c r="G40" s="167"/>
+      <c r="H40" s="167"/>
+      <c r="I40" s="167"/>
+      <c r="J40" s="168"/>
       <c r="K40" s="111" t="s">
         <v>432</v>
       </c>
       <c r="L40" s="111" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="105" customHeight="1" x14ac:dyDescent="0.25">
@@ -7015,20 +7015,20 @@
       <c r="C41" s="35" t="s">
         <v>324</v>
       </c>
-      <c r="D41" s="205"/>
-      <c r="E41" s="206"/>
+      <c r="D41" s="206"/>
+      <c r="E41" s="207"/>
       <c r="F41" s="27" t="s">
         <v>103</v>
       </c>
       <c r="G41" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="H41" s="207"/>
+      <c r="H41" s="212"/>
       <c r="I41" s="73" t="s">
         <v>323</v>
       </c>
-      <c r="J41" s="201"/>
-      <c r="K41" s="202"/>
+      <c r="J41" s="193"/>
+      <c r="K41" s="194"/>
       <c r="L41" s="94" t="s">
         <v>388</v>
       </c>
@@ -7050,20 +7050,20 @@
         <v>97</v>
       </c>
       <c r="F42" s="21" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="G42" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="H42" s="208"/>
+      <c r="H42" s="213"/>
       <c r="I42" s="75" t="s">
         <v>307</v>
       </c>
       <c r="J42" s="40" t="s">
         <v>213</v>
       </c>
-      <c r="K42" s="212"/>
-      <c r="L42" s="212"/>
+      <c r="K42" s="214"/>
+      <c r="L42" s="214"/>
     </row>
     <row r="43" spans="1:12" ht="135" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="20" t="s">
@@ -7072,21 +7072,21 @@
       <c r="B43" s="19" t="s">
         <v>187</v>
       </c>
-      <c r="C43" s="211" t="s">
+      <c r="C43" s="174" t="s">
         <v>188</v>
       </c>
-      <c r="D43" s="196"/>
-      <c r="E43" s="196"/>
-      <c r="F43" s="196"/>
-      <c r="G43" s="196"/>
-      <c r="H43" s="183"/>
-      <c r="I43" s="174"/>
-      <c r="J43" s="175"/>
+      <c r="D43" s="175"/>
+      <c r="E43" s="175"/>
+      <c r="F43" s="175"/>
+      <c r="G43" s="175"/>
+      <c r="H43" s="176"/>
+      <c r="I43" s="215"/>
+      <c r="J43" s="209"/>
       <c r="K43" s="70" t="s">
         <v>214</v>
       </c>
       <c r="L43" s="94" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7096,16 +7096,16 @@
       <c r="B44" s="19" t="s">
         <v>216</v>
       </c>
-      <c r="C44" s="211" t="s">
+      <c r="C44" s="174" t="s">
         <v>218</v>
       </c>
-      <c r="D44" s="196"/>
-      <c r="E44" s="196"/>
-      <c r="F44" s="196"/>
-      <c r="G44" s="196"/>
-      <c r="H44" s="183"/>
-      <c r="I44" s="167"/>
-      <c r="J44" s="169"/>
+      <c r="D44" s="175"/>
+      <c r="E44" s="175"/>
+      <c r="F44" s="175"/>
+      <c r="G44" s="175"/>
+      <c r="H44" s="176"/>
+      <c r="I44" s="157"/>
+      <c r="J44" s="159"/>
       <c r="K44" s="70" t="s">
         <v>217</v>
       </c>
@@ -7120,14 +7120,14 @@
       <c r="B45" s="19" t="s">
         <v>183</v>
       </c>
-      <c r="C45" s="196" t="s">
+      <c r="C45" s="175" t="s">
         <v>185</v>
       </c>
-      <c r="D45" s="196"/>
-      <c r="E45" s="196"/>
-      <c r="F45" s="196"/>
-      <c r="G45" s="196"/>
-      <c r="H45" s="196"/>
+      <c r="D45" s="175"/>
+      <c r="E45" s="175"/>
+      <c r="F45" s="175"/>
+      <c r="G45" s="175"/>
+      <c r="H45" s="175"/>
       <c r="I45" s="42" t="s">
         <v>303</v>
       </c>
@@ -7153,7 +7153,7 @@
         <v>338</v>
       </c>
       <c r="E46" s="30" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F46" s="30" t="s">
         <v>398</v>
@@ -7164,8 +7164,8 @@
       <c r="H46" s="72" t="s">
         <v>397</v>
       </c>
-      <c r="I46" s="167"/>
-      <c r="J46" s="169"/>
+      <c r="I46" s="157"/>
+      <c r="J46" s="159"/>
       <c r="K46" s="40" t="s">
         <v>233</v>
       </c>
@@ -7193,9 +7193,9 @@
       <c r="G47" s="17" t="s">
         <v>396</v>
       </c>
-      <c r="H47" s="167"/>
-      <c r="I47" s="168"/>
-      <c r="J47" s="169"/>
+      <c r="H47" s="157"/>
+      <c r="I47" s="158"/>
+      <c r="J47" s="159"/>
       <c r="K47" s="40" t="s">
         <v>393</v>
       </c>
@@ -7210,15 +7210,15 @@
       <c r="B48" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="C48" s="214"/>
-      <c r="D48" s="168"/>
+      <c r="C48" s="221"/>
+      <c r="D48" s="158"/>
       <c r="E48" s="42" t="s">
         <v>229</v>
       </c>
-      <c r="F48" s="167"/>
-      <c r="G48" s="168"/>
-      <c r="H48" s="168"/>
-      <c r="I48" s="169"/>
+      <c r="F48" s="157"/>
+      <c r="G48" s="158"/>
+      <c r="H48" s="158"/>
+      <c r="I48" s="159"/>
       <c r="J48" s="40" t="s">
         <v>228</v>
       </c>
@@ -7237,10 +7237,10 @@
       <c r="C49" s="33" t="s">
         <v>300</v>
       </c>
-      <c r="D49" s="164"/>
-      <c r="E49" s="165"/>
-      <c r="F49" s="165"/>
-      <c r="G49" s="166"/>
+      <c r="D49" s="171"/>
+      <c r="E49" s="172"/>
+      <c r="F49" s="172"/>
+      <c r="G49" s="173"/>
       <c r="H49" s="17" t="s">
         <v>177</v>
       </c>
@@ -7259,24 +7259,24 @@
       <c r="M49" s="6"/>
     </row>
     <row r="50" spans="1:13" ht="210" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="192" t="s">
+      <c r="A50" s="228" t="s">
         <v>84</v>
       </c>
-      <c r="B50" s="194" t="s">
+      <c r="B50" s="231" t="s">
         <v>83</v>
       </c>
-      <c r="C50" s="211" t="s">
+      <c r="C50" s="174" t="s">
         <v>299</v>
       </c>
-      <c r="D50" s="196"/>
+      <c r="D50" s="175"/>
       <c r="E50" s="42" t="s">
         <v>301</v>
       </c>
-      <c r="F50" s="196" t="s">
+      <c r="F50" s="175" t="s">
         <v>298</v>
       </c>
-      <c r="G50" s="196"/>
-      <c r="H50" s="183"/>
+      <c r="G50" s="175"/>
+      <c r="H50" s="176"/>
       <c r="I50" s="40" t="s">
         <v>305</v>
       </c>
@@ -7289,44 +7289,44 @@
       <c r="L50" s="10"/>
     </row>
     <row r="51" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="193"/>
-      <c r="B51" s="195"/>
-      <c r="C51" s="159" t="s">
+      <c r="A51" s="229"/>
+      <c r="B51" s="177"/>
+      <c r="C51" s="166" t="s">
         <v>82</v>
       </c>
-      <c r="D51" s="160"/>
-      <c r="E51" s="160"/>
-      <c r="F51" s="160"/>
-      <c r="G51" s="160"/>
-      <c r="H51" s="160"/>
-      <c r="I51" s="160"/>
-      <c r="J51" s="160"/>
-      <c r="K51" s="160"/>
-      <c r="L51" s="161"/>
+      <c r="D51" s="167"/>
+      <c r="E51" s="167"/>
+      <c r="F51" s="167"/>
+      <c r="G51" s="167"/>
+      <c r="H51" s="167"/>
+      <c r="I51" s="167"/>
+      <c r="J51" s="167"/>
+      <c r="K51" s="167"/>
+      <c r="L51" s="168"/>
     </row>
     <row r="52" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="273" t="s">
+      <c r="A52" s="230" t="s">
         <v>189</v>
       </c>
-      <c r="B52" s="194" t="s">
+      <c r="B52" s="231" t="s">
         <v>197</v>
       </c>
-      <c r="C52" s="198" t="s">
+      <c r="C52" s="218" t="s">
         <v>191</v>
       </c>
-      <c r="D52" s="199"/>
-      <c r="E52" s="199"/>
-      <c r="F52" s="199"/>
-      <c r="G52" s="199"/>
-      <c r="H52" s="199"/>
-      <c r="I52" s="199"/>
-      <c r="J52" s="199"/>
-      <c r="K52" s="199"/>
-      <c r="L52" s="187"/>
+      <c r="D52" s="219"/>
+      <c r="E52" s="219"/>
+      <c r="F52" s="219"/>
+      <c r="G52" s="219"/>
+      <c r="H52" s="219"/>
+      <c r="I52" s="219"/>
+      <c r="J52" s="219"/>
+      <c r="K52" s="219"/>
+      <c r="L52" s="220"/>
     </row>
     <row r="53" spans="1:13" ht="300" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="193"/>
-      <c r="B53" s="198"/>
+      <c r="A53" s="229"/>
+      <c r="B53" s="218"/>
       <c r="C53" s="35" t="s">
         <v>192</v>
       </c>
@@ -7343,12 +7343,12 @@
         <v>230</v>
       </c>
       <c r="H53" s="36" t="s">
+        <v>513</v>
+      </c>
+      <c r="I53" s="42" t="s">
         <v>514</v>
       </c>
-      <c r="I53" s="42" t="s">
-        <v>515</v>
-      </c>
-      <c r="J53" s="207"/>
+      <c r="J53" s="212"/>
       <c r="K53" s="40" t="s">
         <v>225</v>
       </c>
@@ -7379,12 +7379,12 @@
         <v>231</v>
       </c>
       <c r="H54" s="36" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="I54" s="42" t="s">
         <v>310</v>
       </c>
-      <c r="J54" s="208"/>
+      <c r="J54" s="213"/>
       <c r="K54" s="40" t="s">
         <v>309</v>
       </c>
@@ -7406,7 +7406,7 @@
         <v>78</v>
       </c>
       <c r="E55" s="30" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F55" s="30" t="s">
         <v>77</v>
@@ -7425,32 +7425,32 @@
         <v>252</v>
       </c>
       <c r="L55" s="34" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="56" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="192" t="s">
+      <c r="A56" s="228" t="s">
         <v>75</v>
       </c>
-      <c r="B56" s="197" t="s">
+      <c r="B56" s="223" t="s">
         <v>74</v>
       </c>
-      <c r="C56" s="213" t="s">
+      <c r="C56" s="216" t="s">
         <v>404</v>
       </c>
-      <c r="D56" s="184"/>
-      <c r="E56" s="184"/>
-      <c r="F56" s="184"/>
-      <c r="G56" s="184"/>
-      <c r="H56" s="184"/>
-      <c r="I56" s="184"/>
-      <c r="J56" s="184"/>
-      <c r="K56" s="184"/>
-      <c r="L56" s="184"/>
+      <c r="D56" s="217"/>
+      <c r="E56" s="217"/>
+      <c r="F56" s="217"/>
+      <c r="G56" s="217"/>
+      <c r="H56" s="217"/>
+      <c r="I56" s="217"/>
+      <c r="J56" s="217"/>
+      <c r="K56" s="217"/>
+      <c r="L56" s="217"/>
     </row>
     <row r="57" spans="1:13" ht="195" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="193"/>
-      <c r="B57" s="195"/>
+      <c r="A57" s="229"/>
+      <c r="B57" s="177"/>
       <c r="C57" s="104" t="s">
         <v>238</v>
       </c>
@@ -7479,49 +7479,49 @@
       </c>
     </row>
     <row r="58" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="192" t="s">
+      <c r="A58" s="228" t="s">
         <v>73</v>
       </c>
-      <c r="B58" s="197" t="s">
+      <c r="B58" s="223" t="s">
         <v>72</v>
       </c>
-      <c r="C58" s="213" t="s">
+      <c r="C58" s="216" t="s">
         <v>405</v>
       </c>
-      <c r="D58" s="184"/>
-      <c r="E58" s="184"/>
-      <c r="F58" s="184"/>
-      <c r="G58" s="184"/>
-      <c r="H58" s="184"/>
-      <c r="I58" s="184"/>
-      <c r="J58" s="184"/>
-      <c r="K58" s="184"/>
-      <c r="L58" s="184"/>
+      <c r="D58" s="217"/>
+      <c r="E58" s="217"/>
+      <c r="F58" s="217"/>
+      <c r="G58" s="217"/>
+      <c r="H58" s="217"/>
+      <c r="I58" s="217"/>
+      <c r="J58" s="217"/>
+      <c r="K58" s="217"/>
+      <c r="L58" s="217"/>
     </row>
     <row r="59" spans="1:13" ht="326.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="193"/>
-      <c r="B59" s="195"/>
+      <c r="A59" s="229"/>
+      <c r="B59" s="177"/>
       <c r="C59" s="109" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D59" s="13"/>
       <c r="E59" s="121" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F59" s="121" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="G59" s="13"/>
       <c r="H59" s="34" t="s">
-        <v>483</v>
-      </c>
-      <c r="I59" s="174"/>
-      <c r="J59" s="175"/>
+        <v>482</v>
+      </c>
+      <c r="I59" s="215"/>
+      <c r="J59" s="209"/>
       <c r="K59" s="108" t="s">
         <v>235</v>
       </c>
       <c r="L59" s="88" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="60" spans="1:13" ht="195" customHeight="1" x14ac:dyDescent="0.25">
@@ -7549,7 +7549,7 @@
       <c r="H60" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="I60" s="215"/>
+      <c r="I60" s="222"/>
       <c r="J60" s="40" t="s">
         <v>254</v>
       </c>
@@ -7557,7 +7557,7 @@
         <v>253</v>
       </c>
       <c r="L60" s="40" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="61" spans="1:13" ht="105" customHeight="1" x14ac:dyDescent="0.25">
@@ -7585,7 +7585,7 @@
       <c r="H61" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="I61" s="208"/>
+      <c r="I61" s="213"/>
       <c r="J61" s="40" t="s">
         <v>256</v>
       </c>
@@ -7612,15 +7612,15 @@
       <c r="E62" s="17" t="s">
         <v>181</v>
       </c>
-      <c r="F62" s="164"/>
-      <c r="G62" s="166"/>
+      <c r="F62" s="171"/>
+      <c r="G62" s="173"/>
       <c r="H62" s="23" t="s">
         <v>180</v>
       </c>
       <c r="I62" s="71" t="s">
         <v>312</v>
       </c>
-      <c r="J62" s="207"/>
+      <c r="J62" s="212"/>
       <c r="K62" s="7" t="s">
         <v>313</v>
       </c>
@@ -7654,7 +7654,7 @@
       <c r="I63" s="42" t="s">
         <v>320</v>
       </c>
-      <c r="J63" s="208"/>
+      <c r="J63" s="213"/>
       <c r="K63" s="40" t="s">
         <v>258</v>
       </c>
@@ -7664,20 +7664,65 @@
     </row>
   </sheetData>
   <mergeCells count="89">
-    <mergeCell ref="C33:L33"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="C20:L20"/>
-    <mergeCell ref="C3:L3"/>
-    <mergeCell ref="C9:L9"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="C12:H12"/>
-    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="C22:J22"/>
+    <mergeCell ref="C23:J23"/>
+    <mergeCell ref="C24:J24"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="C29:L29"/>
+    <mergeCell ref="C30:L30"/>
+    <mergeCell ref="C31:L31"/>
+    <mergeCell ref="L23:L25"/>
+    <mergeCell ref="C32:L32"/>
+    <mergeCell ref="C36:L36"/>
+    <mergeCell ref="C35:I35"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="D49:G49"/>
+    <mergeCell ref="C45:H45"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="C38:L38"/>
+    <mergeCell ref="C39:L39"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="C40:J40"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="C25:J25"/>
+    <mergeCell ref="K23:K25"/>
+    <mergeCell ref="C26:L26"/>
+    <mergeCell ref="C27:L27"/>
+    <mergeCell ref="C28:L28"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="J62:J63"/>
+    <mergeCell ref="J53:J54"/>
+    <mergeCell ref="C44:H44"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="I43:J44"/>
+    <mergeCell ref="C43:H43"/>
+    <mergeCell ref="C58:L58"/>
+    <mergeCell ref="C51:L51"/>
+    <mergeCell ref="C52:L52"/>
+    <mergeCell ref="C56:L56"/>
+    <mergeCell ref="F62:G62"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="F48:I48"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="F50:H50"/>
+    <mergeCell ref="I60:I61"/>
     <mergeCell ref="C2:J2"/>
     <mergeCell ref="K13:L18"/>
     <mergeCell ref="C19:L19"/>
@@ -7694,65 +7739,20 @@
     <mergeCell ref="D16:E16"/>
     <mergeCell ref="I11:J12"/>
     <mergeCell ref="C17:J17"/>
-    <mergeCell ref="J62:J63"/>
-    <mergeCell ref="J53:J54"/>
-    <mergeCell ref="C44:H44"/>
-    <mergeCell ref="K42:L42"/>
-    <mergeCell ref="I43:J44"/>
-    <mergeCell ref="C43:H43"/>
-    <mergeCell ref="C58:L58"/>
-    <mergeCell ref="C51:L51"/>
-    <mergeCell ref="C52:L52"/>
-    <mergeCell ref="C56:L56"/>
-    <mergeCell ref="F62:G62"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="F48:I48"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="F50:H50"/>
-    <mergeCell ref="I60:I61"/>
-    <mergeCell ref="C38:L38"/>
-    <mergeCell ref="C39:L39"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="C40:J40"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="C25:J25"/>
-    <mergeCell ref="K23:K25"/>
-    <mergeCell ref="C26:L26"/>
-    <mergeCell ref="C27:L27"/>
-    <mergeCell ref="C28:L28"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="D49:G49"/>
-    <mergeCell ref="C45:H45"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="I46:J46"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="C22:J22"/>
-    <mergeCell ref="C23:J23"/>
-    <mergeCell ref="C24:J24"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="C29:L29"/>
-    <mergeCell ref="C30:L30"/>
-    <mergeCell ref="C31:L31"/>
-    <mergeCell ref="L23:L25"/>
-    <mergeCell ref="C32:L32"/>
-    <mergeCell ref="C36:L36"/>
-    <mergeCell ref="C35:I35"/>
-    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="C3:L3"/>
+    <mergeCell ref="C9:L9"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="C12:H12"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C33:L33"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="C20:L20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7764,10 +7764,10 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:XFB56"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="F45" sqref="F45"/>
+      <selection pane="bottomLeft" activeCell="D5" sqref="D5:L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7789,7 +7789,7 @@
         <v>434</v>
       </c>
       <c r="C1" s="122" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D1" s="122" t="s">
         <v>352</v>
@@ -7823,51 +7823,51 @@
       </c>
     </row>
     <row r="2" spans="1:14" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="266" t="s">
+      <c r="A2" s="254" t="s">
         <v>372</v>
       </c>
-      <c r="B2" s="264" t="s">
+      <c r="B2" s="252" t="s">
         <v>373</v>
       </c>
       <c r="C2" s="123">
         <v>1</v>
       </c>
-      <c r="D2" s="261" t="s">
-        <v>519</v>
-      </c>
-      <c r="E2" s="261"/>
-      <c r="F2" s="261"/>
-      <c r="G2" s="261"/>
-      <c r="H2" s="261"/>
-      <c r="I2" s="261"/>
-      <c r="J2" s="261"/>
-      <c r="K2" s="261"/>
-      <c r="L2" s="261"/>
-      <c r="M2" s="262"/>
+      <c r="D2" s="257" t="s">
+        <v>554</v>
+      </c>
+      <c r="E2" s="257"/>
+      <c r="F2" s="257"/>
+      <c r="G2" s="257"/>
+      <c r="H2" s="257"/>
+      <c r="I2" s="257"/>
+      <c r="J2" s="257"/>
+      <c r="K2" s="257"/>
+      <c r="L2" s="257"/>
+      <c r="M2" s="258"/>
     </row>
     <row r="3" spans="1:14" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="236"/>
-      <c r="B3" s="256"/>
+      <c r="A3" s="184"/>
+      <c r="B3" s="251"/>
       <c r="C3" s="124">
         <v>2</v>
       </c>
-      <c r="D3" s="263" t="s">
-        <v>528</v>
-      </c>
-      <c r="E3" s="263"/>
-      <c r="F3" s="263"/>
-      <c r="G3" s="263"/>
-      <c r="H3" s="263"/>
-      <c r="I3" s="263"/>
-      <c r="J3" s="263"/>
-      <c r="K3" s="263"/>
-      <c r="L3" s="263"/>
-      <c r="M3" s="263"/>
+      <c r="D3" s="259" t="s">
+        <v>526</v>
+      </c>
+      <c r="E3" s="259"/>
+      <c r="F3" s="259"/>
+      <c r="G3" s="259"/>
+      <c r="H3" s="259"/>
+      <c r="I3" s="259"/>
+      <c r="J3" s="259"/>
+      <c r="K3" s="259"/>
+      <c r="L3" s="259"/>
+      <c r="M3" s="259"/>
       <c r="N3" s="78"/>
     </row>
     <row r="4" spans="1:14" s="15" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="236"/>
-      <c r="B4" s="256"/>
+      <c r="A4" s="184"/>
+      <c r="B4" s="251"/>
       <c r="C4" s="124">
         <v>3</v>
       </c>
@@ -7875,19 +7875,19 @@
         <v>374</v>
       </c>
       <c r="E4" s="85" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F4" s="85" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G4" s="42" t="s">
         <v>376</v>
       </c>
       <c r="H4" s="102" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="I4" s="44" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="J4" s="98" t="s">
         <v>375</v>
@@ -7901,69 +7901,69 @@
       </c>
     </row>
     <row r="5" spans="1:14" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="240"/>
-      <c r="B5" s="265"/>
+      <c r="A5" s="178"/>
+      <c r="B5" s="253"/>
       <c r="C5" s="130">
         <v>4</v>
       </c>
-      <c r="D5" s="248"/>
-      <c r="E5" s="248"/>
-      <c r="F5" s="248"/>
-      <c r="G5" s="248"/>
-      <c r="H5" s="248"/>
-      <c r="I5" s="248"/>
-      <c r="J5" s="248"/>
-      <c r="K5" s="248"/>
-      <c r="L5" s="206"/>
+      <c r="D5" s="250"/>
+      <c r="E5" s="250"/>
+      <c r="F5" s="250"/>
+      <c r="G5" s="250"/>
+      <c r="H5" s="250"/>
+      <c r="I5" s="250"/>
+      <c r="J5" s="250"/>
+      <c r="K5" s="250"/>
+      <c r="L5" s="207"/>
       <c r="M5" s="42" t="s">
-        <v>439</v>
+        <v>558</v>
       </c>
     </row>
     <row r="6" spans="1:14" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="236" t="s">
+      <c r="A6" s="184" t="s">
         <v>170</v>
       </c>
-      <c r="B6" s="256" t="s">
+      <c r="B6" s="251" t="s">
         <v>259</v>
       </c>
       <c r="C6" s="131">
         <v>1</v>
       </c>
-      <c r="D6" s="250" t="s">
-        <v>518</v>
-      </c>
-      <c r="E6" s="250"/>
-      <c r="F6" s="250"/>
-      <c r="G6" s="250"/>
-      <c r="H6" s="250"/>
-      <c r="I6" s="250"/>
-      <c r="J6" s="250"/>
-      <c r="K6" s="250"/>
-      <c r="L6" s="250"/>
-      <c r="M6" s="251"/>
+      <c r="D6" s="244" t="s">
+        <v>517</v>
+      </c>
+      <c r="E6" s="244"/>
+      <c r="F6" s="244"/>
+      <c r="G6" s="244"/>
+      <c r="H6" s="244"/>
+      <c r="I6" s="244"/>
+      <c r="J6" s="244"/>
+      <c r="K6" s="244"/>
+      <c r="L6" s="244"/>
+      <c r="M6" s="242"/>
     </row>
     <row r="7" spans="1:14" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="236"/>
-      <c r="B7" s="256"/>
+      <c r="A7" s="184"/>
+      <c r="B7" s="251"/>
       <c r="C7" s="124">
         <v>2</v>
       </c>
-      <c r="D7" s="252" t="s">
-        <v>527</v>
-      </c>
-      <c r="E7" s="252"/>
-      <c r="F7" s="252"/>
-      <c r="G7" s="252"/>
-      <c r="H7" s="252"/>
-      <c r="I7" s="252"/>
-      <c r="J7" s="252"/>
-      <c r="K7" s="252"/>
-      <c r="L7" s="252"/>
-      <c r="M7" s="253"/>
+      <c r="D7" s="245" t="s">
+        <v>525</v>
+      </c>
+      <c r="E7" s="245"/>
+      <c r="F7" s="245"/>
+      <c r="G7" s="245"/>
+      <c r="H7" s="245"/>
+      <c r="I7" s="245"/>
+      <c r="J7" s="245"/>
+      <c r="K7" s="245"/>
+      <c r="L7" s="245"/>
+      <c r="M7" s="246"/>
     </row>
     <row r="8" spans="1:14" s="15" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="236"/>
-      <c r="B8" s="256"/>
+      <c r="A8" s="184"/>
+      <c r="B8" s="251"/>
       <c r="C8" s="124">
         <v>3</v>
       </c>
@@ -7971,19 +7971,19 @@
         <v>357</v>
       </c>
       <c r="E8" s="119" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="F8" s="113" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G8" s="102" t="s">
         <v>340</v>
       </c>
       <c r="H8" s="102" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="I8" s="102" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="J8" s="101" t="s">
         <v>355</v>
@@ -7997,69 +7997,69 @@
       </c>
     </row>
     <row r="9" spans="1:14" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="240"/>
-      <c r="B9" s="265"/>
+      <c r="A9" s="178"/>
+      <c r="B9" s="253"/>
       <c r="C9" s="125">
         <v>4</v>
       </c>
-      <c r="D9" s="248"/>
-      <c r="E9" s="206"/>
+      <c r="D9" s="250"/>
+      <c r="E9" s="207"/>
       <c r="F9" s="97" t="s">
         <v>345</v>
       </c>
-      <c r="G9" s="205"/>
-      <c r="H9" s="248"/>
-      <c r="I9" s="248"/>
-      <c r="J9" s="248"/>
-      <c r="K9" s="248"/>
-      <c r="L9" s="248"/>
-      <c r="M9" s="206"/>
+      <c r="G9" s="206"/>
+      <c r="H9" s="250"/>
+      <c r="I9" s="250"/>
+      <c r="J9" s="250"/>
+      <c r="K9" s="250"/>
+      <c r="L9" s="250"/>
+      <c r="M9" s="207"/>
     </row>
     <row r="10" spans="1:14" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="267" t="s">
+      <c r="A10" s="255" t="s">
         <v>169</v>
       </c>
-      <c r="B10" s="268" t="s">
+      <c r="B10" s="256" t="s">
         <v>260</v>
       </c>
       <c r="C10" s="131">
         <v>1</v>
       </c>
-      <c r="D10" s="250" t="s">
-        <v>520</v>
-      </c>
-      <c r="E10" s="250"/>
-      <c r="F10" s="250"/>
-      <c r="G10" s="250"/>
-      <c r="H10" s="250"/>
-      <c r="I10" s="250"/>
-      <c r="J10" s="250"/>
-      <c r="K10" s="250"/>
-      <c r="L10" s="250"/>
-      <c r="M10" s="251"/>
+      <c r="D10" s="244" t="s">
+        <v>518</v>
+      </c>
+      <c r="E10" s="244"/>
+      <c r="F10" s="244"/>
+      <c r="G10" s="244"/>
+      <c r="H10" s="244"/>
+      <c r="I10" s="244"/>
+      <c r="J10" s="244"/>
+      <c r="K10" s="244"/>
+      <c r="L10" s="244"/>
+      <c r="M10" s="242"/>
     </row>
     <row r="11" spans="1:14" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="236"/>
-      <c r="B11" s="256"/>
+      <c r="A11" s="184"/>
+      <c r="B11" s="251"/>
       <c r="C11" s="124">
         <v>2</v>
       </c>
-      <c r="D11" s="252" t="s">
-        <v>529</v>
-      </c>
-      <c r="E11" s="252"/>
-      <c r="F11" s="252"/>
-      <c r="G11" s="252"/>
-      <c r="H11" s="252"/>
-      <c r="I11" s="252"/>
-      <c r="J11" s="252"/>
-      <c r="K11" s="252"/>
-      <c r="L11" s="252"/>
-      <c r="M11" s="253"/>
+      <c r="D11" s="245" t="s">
+        <v>527</v>
+      </c>
+      <c r="E11" s="245"/>
+      <c r="F11" s="245"/>
+      <c r="G11" s="245"/>
+      <c r="H11" s="245"/>
+      <c r="I11" s="245"/>
+      <c r="J11" s="245"/>
+      <c r="K11" s="245"/>
+      <c r="L11" s="245"/>
+      <c r="M11" s="246"/>
     </row>
     <row r="12" spans="1:14" s="15" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="236"/>
-      <c r="B12" s="256"/>
+      <c r="A12" s="184"/>
+      <c r="B12" s="251"/>
       <c r="C12" s="124">
         <v>3</v>
       </c>
@@ -8067,19 +8067,19 @@
         <v>356</v>
       </c>
       <c r="E12" s="119" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="F12" s="44" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="G12" s="42" t="s">
         <v>339</v>
       </c>
       <c r="H12" s="102" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="I12" s="85" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="J12" s="101" t="s">
         <v>354</v>
@@ -8093,69 +8093,69 @@
       </c>
     </row>
     <row r="13" spans="1:14" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="155"/>
-      <c r="B13" s="210"/>
+      <c r="A13" s="162"/>
+      <c r="B13" s="227"/>
       <c r="C13" s="125">
         <v>4</v>
       </c>
-      <c r="D13" s="248"/>
-      <c r="E13" s="248"/>
-      <c r="F13" s="248"/>
-      <c r="G13" s="248"/>
-      <c r="H13" s="206"/>
+      <c r="D13" s="250"/>
+      <c r="E13" s="250"/>
+      <c r="F13" s="250"/>
+      <c r="G13" s="250"/>
+      <c r="H13" s="207"/>
       <c r="I13" s="88" t="s">
         <v>346</v>
       </c>
-      <c r="J13" s="205"/>
-      <c r="K13" s="248"/>
-      <c r="L13" s="248"/>
-      <c r="M13" s="206"/>
+      <c r="J13" s="206"/>
+      <c r="K13" s="250"/>
+      <c r="L13" s="250"/>
+      <c r="M13" s="207"/>
     </row>
     <row r="14" spans="1:14" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="154" t="s">
+      <c r="A14" s="161" t="s">
         <v>168</v>
       </c>
-      <c r="B14" s="209" t="s">
+      <c r="B14" s="226" t="s">
         <v>261</v>
       </c>
       <c r="C14" s="131">
         <v>1</v>
       </c>
-      <c r="D14" s="250" t="s">
-        <v>521</v>
-      </c>
-      <c r="E14" s="250"/>
-      <c r="F14" s="250"/>
-      <c r="G14" s="250"/>
-      <c r="H14" s="250"/>
-      <c r="I14" s="250"/>
-      <c r="J14" s="250"/>
-      <c r="K14" s="250"/>
-      <c r="L14" s="250"/>
-      <c r="M14" s="251"/>
+      <c r="D14" s="244" t="s">
+        <v>519</v>
+      </c>
+      <c r="E14" s="244"/>
+      <c r="F14" s="244"/>
+      <c r="G14" s="244"/>
+      <c r="H14" s="244"/>
+      <c r="I14" s="244"/>
+      <c r="J14" s="244"/>
+      <c r="K14" s="244"/>
+      <c r="L14" s="244"/>
+      <c r="M14" s="242"/>
     </row>
     <row r="15" spans="1:14" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="236"/>
-      <c r="B15" s="256"/>
+      <c r="A15" s="184"/>
+      <c r="B15" s="251"/>
       <c r="C15" s="124">
         <v>2</v>
       </c>
-      <c r="D15" s="252" t="s">
-        <v>464</v>
-      </c>
-      <c r="E15" s="252"/>
-      <c r="F15" s="252"/>
-      <c r="G15" s="252"/>
-      <c r="H15" s="252"/>
-      <c r="I15" s="252"/>
-      <c r="J15" s="252"/>
-      <c r="K15" s="252"/>
-      <c r="L15" s="252"/>
-      <c r="M15" s="253"/>
+      <c r="D15" s="245" t="s">
+        <v>463</v>
+      </c>
+      <c r="E15" s="245"/>
+      <c r="F15" s="245"/>
+      <c r="G15" s="245"/>
+      <c r="H15" s="245"/>
+      <c r="I15" s="245"/>
+      <c r="J15" s="245"/>
+      <c r="K15" s="245"/>
+      <c r="L15" s="245"/>
+      <c r="M15" s="246"/>
     </row>
     <row r="16" spans="1:14" s="15" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="236"/>
-      <c r="B16" s="256"/>
+      <c r="A16" s="184"/>
+      <c r="B16" s="251"/>
       <c r="C16" s="124">
         <v>3</v>
       </c>
@@ -8163,10 +8163,10 @@
         <v>415</v>
       </c>
       <c r="E16" s="119" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F16" s="44" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="G16" s="42" t="s">
         <v>414</v>
@@ -8175,7 +8175,7 @@
         <v>438</v>
       </c>
       <c r="I16" s="100" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="J16" s="101" t="s">
         <v>416</v>
@@ -8189,69 +8189,69 @@
       </c>
     </row>
     <row r="17" spans="1:16382" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="155"/>
-      <c r="B17" s="210"/>
+      <c r="A17" s="162"/>
+      <c r="B17" s="227"/>
       <c r="C17" s="125">
         <v>4</v>
       </c>
-      <c r="D17" s="248"/>
-      <c r="E17" s="248"/>
-      <c r="F17" s="206"/>
+      <c r="D17" s="250"/>
+      <c r="E17" s="250"/>
+      <c r="F17" s="207"/>
       <c r="G17" s="88" t="s">
         <v>297</v>
       </c>
-      <c r="H17" s="205"/>
-      <c r="I17" s="248"/>
-      <c r="J17" s="248"/>
-      <c r="K17" s="248"/>
-      <c r="L17" s="248"/>
-      <c r="M17" s="206"/>
+      <c r="H17" s="206"/>
+      <c r="I17" s="250"/>
+      <c r="J17" s="250"/>
+      <c r="K17" s="250"/>
+      <c r="L17" s="250"/>
+      <c r="M17" s="207"/>
     </row>
     <row r="18" spans="1:16382" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="154" t="s">
+      <c r="A18" s="161" t="s">
         <v>167</v>
       </c>
-      <c r="B18" s="209" t="s">
+      <c r="B18" s="226" t="s">
         <v>262</v>
       </c>
       <c r="C18" s="131">
         <v>1</v>
       </c>
-      <c r="D18" s="250" t="s">
-        <v>522</v>
-      </c>
-      <c r="E18" s="250"/>
-      <c r="F18" s="250"/>
-      <c r="G18" s="250"/>
-      <c r="H18" s="250"/>
-      <c r="I18" s="250"/>
-      <c r="J18" s="250"/>
-      <c r="K18" s="250"/>
-      <c r="L18" s="250"/>
-      <c r="M18" s="251"/>
+      <c r="D18" s="244" t="s">
+        <v>520</v>
+      </c>
+      <c r="E18" s="244"/>
+      <c r="F18" s="244"/>
+      <c r="G18" s="244"/>
+      <c r="H18" s="244"/>
+      <c r="I18" s="244"/>
+      <c r="J18" s="244"/>
+      <c r="K18" s="244"/>
+      <c r="L18" s="244"/>
+      <c r="M18" s="242"/>
     </row>
     <row r="19" spans="1:16382" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="236"/>
-      <c r="B19" s="256"/>
+      <c r="A19" s="184"/>
+      <c r="B19" s="251"/>
       <c r="C19" s="124">
         <v>2</v>
       </c>
-      <c r="D19" s="252" t="s">
-        <v>465</v>
-      </c>
-      <c r="E19" s="252"/>
-      <c r="F19" s="252"/>
-      <c r="G19" s="252"/>
-      <c r="H19" s="252"/>
-      <c r="I19" s="252"/>
-      <c r="J19" s="252"/>
-      <c r="K19" s="252"/>
-      <c r="L19" s="252"/>
-      <c r="M19" s="253"/>
+      <c r="D19" s="245" t="s">
+        <v>464</v>
+      </c>
+      <c r="E19" s="245"/>
+      <c r="F19" s="245"/>
+      <c r="G19" s="245"/>
+      <c r="H19" s="245"/>
+      <c r="I19" s="245"/>
+      <c r="J19" s="245"/>
+      <c r="K19" s="245"/>
+      <c r="L19" s="245"/>
+      <c r="M19" s="246"/>
     </row>
     <row r="20" spans="1:16382" s="15" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="236"/>
-      <c r="B20" s="256"/>
+      <c r="A20" s="184"/>
+      <c r="B20" s="251"/>
       <c r="C20" s="124">
         <v>3</v>
       </c>
@@ -8259,19 +8259,19 @@
         <v>406</v>
       </c>
       <c r="E20" s="119" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="F20" s="100" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G20" s="100" t="s">
         <v>407</v>
       </c>
       <c r="H20" s="102" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="I20" s="100" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="J20" s="101" t="s">
         <v>408</v>
@@ -8285,8 +8285,8 @@
       </c>
     </row>
     <row r="21" spans="1:16382" s="58" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="260"/>
-      <c r="B21" s="257"/>
+      <c r="A21" s="266"/>
+      <c r="B21" s="260"/>
       <c r="C21" s="125">
         <v>4</v>
       </c>
@@ -8294,14 +8294,14 @@
       <c r="E21" s="110" t="s">
         <v>344</v>
       </c>
-      <c r="F21" s="270"/>
-      <c r="G21" s="271"/>
-      <c r="H21" s="271"/>
-      <c r="I21" s="271"/>
-      <c r="J21" s="271"/>
-      <c r="K21" s="271"/>
-      <c r="L21" s="271"/>
-      <c r="M21" s="272"/>
+      <c r="F21" s="247"/>
+      <c r="G21" s="248"/>
+      <c r="H21" s="248"/>
+      <c r="I21" s="248"/>
+      <c r="J21" s="248"/>
+      <c r="K21" s="248"/>
+      <c r="L21" s="248"/>
+      <c r="M21" s="249"/>
       <c r="N21" s="61"/>
       <c r="O21" s="61"/>
       <c r="P21" s="61"/>
@@ -24673,50 +24673,50 @@
       <c r="XFB21" s="61"/>
     </row>
     <row r="22" spans="1:16382" s="59" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="259" t="s">
+      <c r="A22" s="265" t="s">
         <v>166</v>
       </c>
-      <c r="B22" s="258" t="s">
+      <c r="B22" s="264" t="s">
         <v>421</v>
       </c>
       <c r="C22" s="131">
         <v>1</v>
       </c>
-      <c r="D22" s="252" t="s">
-        <v>526</v>
-      </c>
-      <c r="E22" s="252"/>
-      <c r="F22" s="252"/>
-      <c r="G22" s="252"/>
-      <c r="H22" s="252"/>
-      <c r="I22" s="252"/>
-      <c r="J22" s="252"/>
-      <c r="K22" s="252"/>
-      <c r="L22" s="252"/>
-      <c r="M22" s="253"/>
+      <c r="D22" s="245" t="s">
+        <v>524</v>
+      </c>
+      <c r="E22" s="245"/>
+      <c r="F22" s="245"/>
+      <c r="G22" s="245"/>
+      <c r="H22" s="245"/>
+      <c r="I22" s="245"/>
+      <c r="J22" s="245"/>
+      <c r="K22" s="245"/>
+      <c r="L22" s="245"/>
+      <c r="M22" s="246"/>
     </row>
     <row r="23" spans="1:16382" s="59" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="245"/>
-      <c r="B23" s="179"/>
+      <c r="A23" s="262"/>
+      <c r="B23" s="185"/>
       <c r="C23" s="124">
         <v>2</v>
       </c>
-      <c r="D23" s="252" t="s">
-        <v>466</v>
-      </c>
-      <c r="E23" s="252"/>
-      <c r="F23" s="252"/>
-      <c r="G23" s="252"/>
-      <c r="H23" s="252"/>
-      <c r="I23" s="252"/>
-      <c r="J23" s="252"/>
-      <c r="K23" s="252"/>
-      <c r="L23" s="252"/>
-      <c r="M23" s="253"/>
+      <c r="D23" s="245" t="s">
+        <v>465</v>
+      </c>
+      <c r="E23" s="245"/>
+      <c r="F23" s="245"/>
+      <c r="G23" s="245"/>
+      <c r="H23" s="245"/>
+      <c r="I23" s="245"/>
+      <c r="J23" s="245"/>
+      <c r="K23" s="245"/>
+      <c r="L23" s="245"/>
+      <c r="M23" s="246"/>
     </row>
     <row r="24" spans="1:16382" s="59" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="245"/>
-      <c r="B24" s="179"/>
+      <c r="A24" s="262"/>
+      <c r="B24" s="185"/>
       <c r="C24" s="124">
         <v>3</v>
       </c>
@@ -24724,19 +24724,19 @@
         <v>359</v>
       </c>
       <c r="E24" s="119" t="s">
-        <v>538</v>
+        <v>555</v>
       </c>
       <c r="F24" s="100" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="G24" s="100" t="s">
         <v>343</v>
       </c>
       <c r="H24" s="100" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="I24" s="100" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="J24" s="101" t="s">
         <v>358</v>
@@ -24750,69 +24750,69 @@
       </c>
     </row>
     <row r="25" spans="1:16382" s="61" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="249"/>
-      <c r="B25" s="163"/>
+      <c r="A25" s="263"/>
+      <c r="B25" s="170"/>
       <c r="C25" s="125">
         <v>4</v>
       </c>
       <c r="D25" s="87" t="s">
         <v>347</v>
       </c>
-      <c r="E25" s="205"/>
-      <c r="F25" s="248"/>
-      <c r="G25" s="248"/>
-      <c r="H25" s="248"/>
-      <c r="I25" s="248"/>
-      <c r="J25" s="248"/>
-      <c r="K25" s="248"/>
-      <c r="L25" s="248"/>
-      <c r="M25" s="206"/>
+      <c r="E25" s="206"/>
+      <c r="F25" s="250"/>
+      <c r="G25" s="250"/>
+      <c r="H25" s="250"/>
+      <c r="I25" s="250"/>
+      <c r="J25" s="250"/>
+      <c r="K25" s="250"/>
+      <c r="L25" s="250"/>
+      <c r="M25" s="207"/>
     </row>
     <row r="26" spans="1:16382" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="247" t="s">
+      <c r="A26" s="267" t="s">
         <v>165</v>
       </c>
-      <c r="B26" s="162" t="s">
+      <c r="B26" s="169" t="s">
         <v>422</v>
       </c>
       <c r="C26" s="131">
         <v>1</v>
       </c>
-      <c r="D26" s="250" t="s">
-        <v>525</v>
-      </c>
-      <c r="E26" s="250"/>
-      <c r="F26" s="250"/>
-      <c r="G26" s="250"/>
-      <c r="H26" s="250"/>
-      <c r="I26" s="250"/>
-      <c r="J26" s="250"/>
-      <c r="K26" s="250"/>
-      <c r="L26" s="250"/>
-      <c r="M26" s="251"/>
+      <c r="D26" s="244" t="s">
+        <v>523</v>
+      </c>
+      <c r="E26" s="244"/>
+      <c r="F26" s="244"/>
+      <c r="G26" s="244"/>
+      <c r="H26" s="244"/>
+      <c r="I26" s="244"/>
+      <c r="J26" s="244"/>
+      <c r="K26" s="244"/>
+      <c r="L26" s="244"/>
+      <c r="M26" s="242"/>
     </row>
     <row r="27" spans="1:16382" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="245"/>
-      <c r="B27" s="179"/>
+      <c r="A27" s="262"/>
+      <c r="B27" s="185"/>
       <c r="C27" s="124">
         <v>2</v>
       </c>
-      <c r="D27" s="252" t="s">
-        <v>467</v>
-      </c>
-      <c r="E27" s="252"/>
-      <c r="F27" s="252"/>
-      <c r="G27" s="252"/>
-      <c r="H27" s="252"/>
-      <c r="I27" s="252"/>
-      <c r="J27" s="252"/>
-      <c r="K27" s="252"/>
-      <c r="L27" s="252"/>
-      <c r="M27" s="253"/>
+      <c r="D27" s="245" t="s">
+        <v>466</v>
+      </c>
+      <c r="E27" s="245"/>
+      <c r="F27" s="245"/>
+      <c r="G27" s="245"/>
+      <c r="H27" s="245"/>
+      <c r="I27" s="245"/>
+      <c r="J27" s="245"/>
+      <c r="K27" s="245"/>
+      <c r="L27" s="245"/>
+      <c r="M27" s="246"/>
     </row>
     <row r="28" spans="1:16382" s="15" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="245"/>
-      <c r="B28" s="179"/>
+      <c r="A28" s="262"/>
+      <c r="B28" s="185"/>
       <c r="C28" s="124">
         <v>3</v>
       </c>
@@ -24820,19 +24820,19 @@
         <v>360</v>
       </c>
       <c r="E28" s="85" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="F28" s="100" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G28" s="85" t="s">
         <v>342</v>
       </c>
       <c r="H28" s="113" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="I28" s="100" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="J28" s="100" t="s">
         <v>361</v>
@@ -24844,69 +24844,69 @@
       </c>
     </row>
     <row r="29" spans="1:16382" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="249"/>
-      <c r="B29" s="163"/>
+      <c r="A29" s="263"/>
+      <c r="B29" s="170"/>
       <c r="C29" s="125">
         <v>4</v>
       </c>
-      <c r="D29" s="248"/>
-      <c r="E29" s="248"/>
-      <c r="F29" s="248"/>
-      <c r="G29" s="206"/>
+      <c r="D29" s="250"/>
+      <c r="E29" s="250"/>
+      <c r="F29" s="250"/>
+      <c r="G29" s="207"/>
       <c r="H29" s="79" t="s">
         <v>281</v>
       </c>
-      <c r="I29" s="205"/>
-      <c r="J29" s="248"/>
-      <c r="K29" s="248"/>
-      <c r="L29" s="248"/>
-      <c r="M29" s="206"/>
+      <c r="I29" s="206"/>
+      <c r="J29" s="250"/>
+      <c r="K29" s="250"/>
+      <c r="L29" s="250"/>
+      <c r="M29" s="207"/>
     </row>
     <row r="30" spans="1:16382" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="247" t="s">
+      <c r="A30" s="267" t="s">
         <v>269</v>
       </c>
-      <c r="B30" s="162" t="s">
+      <c r="B30" s="169" t="s">
         <v>423</v>
       </c>
       <c r="C30" s="131">
         <v>1</v>
       </c>
-      <c r="D30" s="250" t="s">
-        <v>524</v>
-      </c>
-      <c r="E30" s="250"/>
-      <c r="F30" s="250"/>
-      <c r="G30" s="250"/>
-      <c r="H30" s="250"/>
-      <c r="I30" s="250"/>
-      <c r="J30" s="250"/>
-      <c r="K30" s="250"/>
-      <c r="L30" s="250"/>
-      <c r="M30" s="251"/>
+      <c r="D30" s="244" t="s">
+        <v>522</v>
+      </c>
+      <c r="E30" s="244"/>
+      <c r="F30" s="244"/>
+      <c r="G30" s="244"/>
+      <c r="H30" s="244"/>
+      <c r="I30" s="244"/>
+      <c r="J30" s="244"/>
+      <c r="K30" s="244"/>
+      <c r="L30" s="244"/>
+      <c r="M30" s="242"/>
     </row>
     <row r="31" spans="1:16382" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="245"/>
-      <c r="B31" s="179"/>
+      <c r="A31" s="262"/>
+      <c r="B31" s="185"/>
       <c r="C31" s="124">
         <v>2</v>
       </c>
-      <c r="D31" s="252" t="s">
-        <v>468</v>
-      </c>
-      <c r="E31" s="252"/>
-      <c r="F31" s="252"/>
-      <c r="G31" s="252"/>
-      <c r="H31" s="252"/>
-      <c r="I31" s="252"/>
-      <c r="J31" s="252"/>
-      <c r="K31" s="252"/>
-      <c r="L31" s="252"/>
-      <c r="M31" s="253"/>
+      <c r="D31" s="245" t="s">
+        <v>467</v>
+      </c>
+      <c r="E31" s="245"/>
+      <c r="F31" s="245"/>
+      <c r="G31" s="245"/>
+      <c r="H31" s="245"/>
+      <c r="I31" s="245"/>
+      <c r="J31" s="245"/>
+      <c r="K31" s="245"/>
+      <c r="L31" s="245"/>
+      <c r="M31" s="246"/>
     </row>
     <row r="32" spans="1:16382" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="245"/>
-      <c r="B32" s="179"/>
+      <c r="A32" s="262"/>
+      <c r="B32" s="185"/>
       <c r="C32" s="124">
         <v>3</v>
       </c>
@@ -24914,19 +24914,19 @@
         <v>363</v>
       </c>
       <c r="E32" s="42" t="s">
-        <v>536</v>
+        <v>556</v>
       </c>
       <c r="F32" s="100" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="G32" s="42" t="s">
         <v>341</v>
       </c>
       <c r="H32" s="113" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="I32" s="42" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="J32" s="85" t="s">
         <v>362</v>
@@ -24940,69 +24940,69 @@
       </c>
     </row>
     <row r="33" spans="1:13" s="15" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="245"/>
-      <c r="B33" s="179"/>
+      <c r="A33" s="262"/>
+      <c r="B33" s="185"/>
       <c r="C33" s="125">
         <v>4</v>
       </c>
-      <c r="D33" s="248"/>
-      <c r="E33" s="248"/>
-      <c r="F33" s="248"/>
-      <c r="G33" s="248"/>
-      <c r="H33" s="248"/>
-      <c r="I33" s="248"/>
-      <c r="J33" s="248"/>
-      <c r="K33" s="206"/>
+      <c r="D33" s="250"/>
+      <c r="E33" s="250"/>
+      <c r="F33" s="250"/>
+      <c r="G33" s="250"/>
+      <c r="H33" s="250"/>
+      <c r="I33" s="250"/>
+      <c r="J33" s="250"/>
+      <c r="K33" s="207"/>
       <c r="L33" s="44" t="s">
         <v>337</v>
       </c>
       <c r="M33" s="53"/>
     </row>
     <row r="34" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="244" t="s">
+      <c r="A34" s="261" t="s">
         <v>164</v>
       </c>
-      <c r="B34" s="194" t="s">
+      <c r="B34" s="231" t="s">
         <v>424</v>
       </c>
       <c r="C34" s="131">
         <v>1</v>
       </c>
-      <c r="D34" s="250" t="s">
-        <v>523</v>
-      </c>
-      <c r="E34" s="250"/>
-      <c r="F34" s="250"/>
-      <c r="G34" s="250"/>
-      <c r="H34" s="250"/>
-      <c r="I34" s="250"/>
-      <c r="J34" s="250"/>
-      <c r="K34" s="250"/>
-      <c r="L34" s="250"/>
-      <c r="M34" s="251"/>
+      <c r="D34" s="244" t="s">
+        <v>521</v>
+      </c>
+      <c r="E34" s="244"/>
+      <c r="F34" s="244"/>
+      <c r="G34" s="244"/>
+      <c r="H34" s="244"/>
+      <c r="I34" s="244"/>
+      <c r="J34" s="244"/>
+      <c r="K34" s="244"/>
+      <c r="L34" s="244"/>
+      <c r="M34" s="242"/>
     </row>
     <row r="35" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="245"/>
-      <c r="B35" s="179"/>
+      <c r="A35" s="262"/>
+      <c r="B35" s="185"/>
       <c r="C35" s="124">
         <v>2</v>
       </c>
-      <c r="D35" s="252" t="s">
-        <v>469</v>
-      </c>
-      <c r="E35" s="252"/>
-      <c r="F35" s="252"/>
-      <c r="G35" s="252"/>
-      <c r="H35" s="252"/>
-      <c r="I35" s="252"/>
-      <c r="J35" s="252"/>
-      <c r="K35" s="252"/>
-      <c r="L35" s="252"/>
-      <c r="M35" s="253"/>
+      <c r="D35" s="245" t="s">
+        <v>468</v>
+      </c>
+      <c r="E35" s="245"/>
+      <c r="F35" s="245"/>
+      <c r="G35" s="245"/>
+      <c r="H35" s="245"/>
+      <c r="I35" s="245"/>
+      <c r="J35" s="245"/>
+      <c r="K35" s="245"/>
+      <c r="L35" s="245"/>
+      <c r="M35" s="246"/>
     </row>
     <row r="36" spans="1:13" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="245"/>
-      <c r="B36" s="179"/>
+      <c r="A36" s="262"/>
+      <c r="B36" s="185"/>
       <c r="C36" s="124">
         <v>3</v>
       </c>
@@ -25010,19 +25010,19 @@
         <v>364</v>
       </c>
       <c r="E36" s="85" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="F36" s="100" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="G36" s="85" t="s">
         <v>351</v>
       </c>
       <c r="H36" s="85" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="I36" s="85" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="J36" s="85" t="s">
         <v>365</v>
@@ -25036,18 +25036,18 @@
       </c>
     </row>
     <row r="37" spans="1:13" s="15" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="249"/>
-      <c r="B37" s="163"/>
+      <c r="A37" s="263"/>
+      <c r="B37" s="170"/>
       <c r="C37" s="125">
         <v>4</v>
       </c>
-      <c r="D37" s="248"/>
-      <c r="E37" s="248"/>
-      <c r="F37" s="248"/>
-      <c r="G37" s="248"/>
-      <c r="H37" s="248"/>
-      <c r="I37" s="248"/>
-      <c r="J37" s="206"/>
+      <c r="D37" s="250"/>
+      <c r="E37" s="250"/>
+      <c r="F37" s="250"/>
+      <c r="G37" s="250"/>
+      <c r="H37" s="250"/>
+      <c r="I37" s="250"/>
+      <c r="J37" s="207"/>
       <c r="K37" s="79" t="s">
         <v>336</v>
       </c>
@@ -25055,31 +25055,31 @@
       <c r="M37" s="99"/>
     </row>
     <row r="38" spans="1:13" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="247" t="s">
+      <c r="A38" s="267" t="s">
         <v>163</v>
       </c>
-      <c r="B38" s="162" t="s">
+      <c r="B38" s="169" t="s">
         <v>271</v>
       </c>
       <c r="C38" s="124">
         <v>1</v>
       </c>
-      <c r="D38" s="254" t="s">
-        <v>551</v>
-      </c>
-      <c r="E38" s="255"/>
-      <c r="F38" s="255"/>
-      <c r="G38" s="255"/>
-      <c r="H38" s="255"/>
-      <c r="I38" s="255"/>
-      <c r="J38" s="255"/>
-      <c r="K38" s="255"/>
-      <c r="L38" s="255"/>
-      <c r="M38" s="255"/>
+      <c r="D38" s="269" t="s">
+        <v>547</v>
+      </c>
+      <c r="E38" s="270"/>
+      <c r="F38" s="270"/>
+      <c r="G38" s="270"/>
+      <c r="H38" s="270"/>
+      <c r="I38" s="270"/>
+      <c r="J38" s="270"/>
+      <c r="K38" s="270"/>
+      <c r="L38" s="270"/>
+      <c r="M38" s="270"/>
     </row>
     <row r="39" spans="1:13" s="59" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="246"/>
-      <c r="B39" s="195"/>
+      <c r="A39" s="268"/>
+      <c r="B39" s="177"/>
       <c r="C39" s="124">
         <v>4</v>
       </c>
@@ -25091,7 +25091,7 @@
       </c>
       <c r="F39" s="90"/>
       <c r="G39" s="90" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H39" s="60"/>
       <c r="I39" s="60"/>
@@ -25101,31 +25101,31 @@
       <c r="M39" s="60"/>
     </row>
     <row r="40" spans="1:13" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="244" t="s">
+      <c r="A40" s="261" t="s">
         <v>162</v>
       </c>
-      <c r="B40" s="194" t="s">
+      <c r="B40" s="231" t="s">
         <v>270</v>
       </c>
       <c r="C40" s="126">
         <v>1</v>
       </c>
-      <c r="D40" s="251" t="s">
-        <v>548</v>
-      </c>
-      <c r="E40" s="269"/>
-      <c r="F40" s="269"/>
-      <c r="G40" s="269"/>
-      <c r="H40" s="269"/>
-      <c r="I40" s="269"/>
-      <c r="J40" s="269"/>
-      <c r="K40" s="269"/>
-      <c r="L40" s="269"/>
-      <c r="M40" s="269"/>
+      <c r="D40" s="242" t="s">
+        <v>544</v>
+      </c>
+      <c r="E40" s="243"/>
+      <c r="F40" s="243"/>
+      <c r="G40" s="243"/>
+      <c r="H40" s="243"/>
+      <c r="I40" s="243"/>
+      <c r="J40" s="243"/>
+      <c r="K40" s="243"/>
+      <c r="L40" s="243"/>
+      <c r="M40" s="243"/>
     </row>
     <row r="41" spans="1:13" s="15" customFormat="1" ht="150" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="246"/>
-      <c r="B41" s="195"/>
+      <c r="A41" s="268"/>
+      <c r="B41" s="177"/>
       <c r="C41" s="124">
         <v>4</v>
       </c>
@@ -25137,7 +25137,7 @@
       </c>
       <c r="F41" s="90"/>
       <c r="G41" s="90" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H41" s="60"/>
       <c r="I41" s="60"/>
@@ -25147,119 +25147,119 @@
       <c r="M41" s="60"/>
     </row>
     <row r="42" spans="1:13" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="244" t="s">
+      <c r="A42" s="261" t="s">
         <v>161</v>
       </c>
-      <c r="B42" s="194" t="s">
+      <c r="B42" s="231" t="s">
         <v>272</v>
       </c>
       <c r="C42" s="126">
         <v>1</v>
       </c>
-      <c r="D42" s="251" t="s">
-        <v>549</v>
-      </c>
-      <c r="E42" s="269"/>
-      <c r="F42" s="269"/>
-      <c r="G42" s="269"/>
-      <c r="H42" s="269"/>
-      <c r="I42" s="269"/>
-      <c r="J42" s="269"/>
-      <c r="K42" s="269"/>
-      <c r="L42" s="269"/>
-      <c r="M42" s="269"/>
+      <c r="D42" s="242" t="s">
+        <v>545</v>
+      </c>
+      <c r="E42" s="243"/>
+      <c r="F42" s="243"/>
+      <c r="G42" s="243"/>
+      <c r="H42" s="243"/>
+      <c r="I42" s="243"/>
+      <c r="J42" s="243"/>
+      <c r="K42" s="243"/>
+      <c r="L42" s="243"/>
+      <c r="M42" s="243"/>
     </row>
     <row r="43" spans="1:13" s="89" customFormat="1" ht="225" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="245"/>
-      <c r="B43" s="195"/>
+      <c r="A43" s="262"/>
+      <c r="B43" s="177"/>
       <c r="C43" s="132">
         <v>4</v>
       </c>
       <c r="D43" s="62" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="E43" s="90" t="s">
         <v>350</v>
       </c>
       <c r="F43" s="90"/>
       <c r="G43" s="90" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H43" s="62" t="s">
+        <v>548</v>
+      </c>
+      <c r="I43" s="90" t="s">
         <v>552</v>
       </c>
-      <c r="I43" s="90" t="s">
+      <c r="J43" s="90" t="s">
         <v>557</v>
       </c>
-      <c r="J43" s="90" t="s">
-        <v>556</v>
-      </c>
       <c r="K43" s="90" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="L43" s="60"/>
       <c r="M43" s="90" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
     </row>
     <row r="44" spans="1:13" s="61" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="241" t="s">
+      <c r="A44" s="271" t="s">
         <v>160</v>
       </c>
-      <c r="B44" s="179" t="s">
+      <c r="B44" s="185" t="s">
         <v>273</v>
       </c>
       <c r="C44" s="124">
         <v>1</v>
       </c>
-      <c r="D44" s="251" t="s">
-        <v>550</v>
-      </c>
-      <c r="E44" s="269"/>
-      <c r="F44" s="269"/>
-      <c r="G44" s="269"/>
-      <c r="H44" s="269"/>
-      <c r="I44" s="269"/>
-      <c r="J44" s="269"/>
-      <c r="K44" s="269"/>
-      <c r="L44" s="269"/>
-      <c r="M44" s="269"/>
+      <c r="D44" s="242" t="s">
+        <v>546</v>
+      </c>
+      <c r="E44" s="243"/>
+      <c r="F44" s="243"/>
+      <c r="G44" s="243"/>
+      <c r="H44" s="243"/>
+      <c r="I44" s="243"/>
+      <c r="J44" s="243"/>
+      <c r="K44" s="243"/>
+      <c r="L44" s="243"/>
+      <c r="M44" s="243"/>
     </row>
     <row r="45" spans="1:13" ht="300" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="242"/>
-      <c r="B45" s="243"/>
+      <c r="A45" s="272"/>
+      <c r="B45" s="273"/>
       <c r="C45" s="127">
         <v>4</v>
       </c>
       <c r="D45" s="63" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E45" s="65" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="F45" s="65" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="G45" s="65" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H45" s="65" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="I45" s="63" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="J45" s="63" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="K45" s="65" t="s">
+        <v>505</v>
+      </c>
+      <c r="L45" s="63" t="s">
         <v>506</v>
       </c>
-      <c r="L45" s="63" t="s">
+      <c r="M45" s="63" t="s">
         <v>507</v>
-      </c>
-      <c r="M45" s="63" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
@@ -25308,27 +25308,31 @@
     </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="D40:M40"/>
-    <mergeCell ref="D42:M42"/>
-    <mergeCell ref="D44:M44"/>
-    <mergeCell ref="D18:M18"/>
-    <mergeCell ref="D19:M19"/>
-    <mergeCell ref="D31:M31"/>
-    <mergeCell ref="D26:M26"/>
-    <mergeCell ref="D27:M27"/>
-    <mergeCell ref="F21:M21"/>
-    <mergeCell ref="E25:M25"/>
-    <mergeCell ref="D22:M22"/>
-    <mergeCell ref="D23:M23"/>
-    <mergeCell ref="I29:M29"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="D29:G29"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="D30:M30"/>
+    <mergeCell ref="D33:K33"/>
+    <mergeCell ref="D37:J37"/>
+    <mergeCell ref="D35:M35"/>
+    <mergeCell ref="D34:M34"/>
+    <mergeCell ref="D38:M38"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="A18:A21"/>
     <mergeCell ref="D2:M2"/>
     <mergeCell ref="D3:M3"/>
     <mergeCell ref="D6:M6"/>
@@ -25344,31 +25348,27 @@
     <mergeCell ref="D11:M11"/>
     <mergeCell ref="D14:M14"/>
     <mergeCell ref="D15:M15"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="D29:G29"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="D30:M30"/>
-    <mergeCell ref="D33:K33"/>
-    <mergeCell ref="D37:J37"/>
-    <mergeCell ref="D35:M35"/>
-    <mergeCell ref="D34:M34"/>
-    <mergeCell ref="D38:M38"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="D40:M40"/>
+    <mergeCell ref="D42:M42"/>
+    <mergeCell ref="D44:M44"/>
+    <mergeCell ref="D18:M18"/>
+    <mergeCell ref="D19:M19"/>
+    <mergeCell ref="D31:M31"/>
+    <mergeCell ref="D26:M26"/>
+    <mergeCell ref="D27:M27"/>
+    <mergeCell ref="F21:M21"/>
+    <mergeCell ref="E25:M25"/>
+    <mergeCell ref="D22:M22"/>
+    <mergeCell ref="D23:M23"/>
+    <mergeCell ref="I29:M29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Tags and Affinities.xlsx
+++ b/Tags and Affinities.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Charles\Documents\Git Repositories\materials_and_crafting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED2FC8F1-FF8B-4E3F-8893-E2DF54573D8A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9E894FD-CACB-41DB-A78E-00D62C43D186}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="2" xr2:uid="{8FD76562-234B-40A6-8AC6-52675E21BBDC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{8FD76562-234B-40A6-8AC6-52675E21BBDC}"/>
   </bookViews>
   <sheets>
     <sheet name="COMPONENT TAGS" sheetId="2" r:id="rId1"/>
@@ -616,9 +616,6 @@
   </si>
   <si>
     <t>When you hit with an spell attack made with this staff, the elemental energy from the attack leaps to a number of different creatures of your choice up to the arcing tier, within a range in feet equal to 10 * the arcing tier, dealing the attack's elemental damage to this creature as well.</t>
-  </si>
-  <si>
-    <t>This weapon has disadvantage to hit its targets, and its physical damage is minimised (all dice are reduced to 1).</t>
   </si>
   <si>
     <t xml:space="preserve">This armour contours to the skin, allowing it to be hidden under clothes and removing its disadvantage on Dexterity (Stealth) checks. </t>
@@ -1360,11 +1357,6 @@
     </r>
   </si>
   <si>
-    <t>This potion looks and tastes like freshly spilled blood. Ingesting this potion forces the consumer to make a Constitution saving throw with a DC equal to 10 + (2 * the vampiric tier) or suffer from a blood craving for a number of days equal to the potion's vampiric tier.
-Creatures suffering from a blood craving must spend 10 minutes for each hour of rest drinking fresh blood from another living creature in order to gain any benefit from that rest. Creatures that refuse to do so must make a Wisdom saving throw with the same DC or seek out the nearest living creature to attack and feed on.
-When the craving fades, the creature must make a Charisma saving throw, permanently transforming into a vampire spawn, which may alter their alignment, on a failure.</t>
-  </si>
-  <si>
     <t>Dexterity (Stealth) and Charisma (Performance) checks made by the wearer of this cloak add its attachment value to their rolls.
 On a natural 1, the material's attachment value decreases by 1.</t>
   </si>
@@ -3294,6 +3286,15 @@
 · You gain the keen hearing and smell trait.
 · Your skin toughens, increasing your AC by 2.
 · Your nails sharpen to claws. The physical damage of your unarmed strikes changes to slashing, your unarmed strikes become magical, with a +1 bonus to attack and damage rolls (this stacks with existing bonuses), and they gain an additional dice of acid or poison damage.</t>
+  </si>
+  <si>
+    <t>This weapon has its physical damage minimised (all dice are reduced to 1).</t>
+  </si>
+  <si>
+    <t>This potion looks and tastes like freshly spilled blood. Ingesting this potion forces the consumer to make a Constitution saving throw with a DC equal to 10 + (2 * the vampiric tier) or suffer from a blood craving for a number of days equal to the potion's vampiric tier.
+Creatures suffering from a blood craving must spend 10 minutes for each hour of rest drinking fresh blood from another living creature in order to gain any benefit from that rest. Creatures that refuse to do so must make a Wisdom saving throw with the same DC or seek out the nearest living creature to attack and feed on.
+When the craving fades, the creature must make a Charisma saving throw, permanently transforming into a vampire spawn, which may alter their alignment, on a failure.
+This blood craving can be cured via a greater restoration or remove curse spell, both cast at a level equal to 2 + the vampiric tier.</t>
   </si>
 </sst>
 </file>
@@ -4923,6 +4924,54 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="74" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="79" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -4932,276 +4981,300 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="81" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="89" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="90" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="88" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="86" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="87" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="60" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="60" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="89" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="90" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="88" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="86" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="87" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="75" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -5210,78 +5283,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5615,13 +5616,13 @@
   <sheetData>
     <row r="1" spans="1:10" s="15" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B1" s="149" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C1" s="149" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D1" s="149" t="s">
         <v>44</v>
@@ -5639,10 +5640,10 @@
         <v>40</v>
       </c>
       <c r="I1" s="149" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="J1" s="149" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="105" x14ac:dyDescent="0.25">
@@ -5655,13 +5656,13 @@
       <c r="C2" s="151" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="154"/>
-      <c r="E2" s="155"/>
-      <c r="F2" s="155"/>
-      <c r="G2" s="155"/>
-      <c r="H2" s="155"/>
-      <c r="I2" s="155"/>
-      <c r="J2" s="156"/>
+      <c r="D2" s="170"/>
+      <c r="E2" s="171"/>
+      <c r="F2" s="171"/>
+      <c r="G2" s="171"/>
+      <c r="H2" s="171"/>
+      <c r="I2" s="171"/>
+      <c r="J2" s="172"/>
     </row>
     <row r="3" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
@@ -5673,45 +5674,45 @@
       <c r="C3" s="152" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="157"/>
-      <c r="E3" s="158"/>
-      <c r="F3" s="158"/>
-      <c r="G3" s="158"/>
-      <c r="H3" s="158"/>
-      <c r="I3" s="158"/>
-      <c r="J3" s="159"/>
+      <c r="D3" s="167"/>
+      <c r="E3" s="168"/>
+      <c r="F3" s="168"/>
+      <c r="G3" s="168"/>
+      <c r="H3" s="168"/>
+      <c r="I3" s="168"/>
+      <c r="J3" s="169"/>
     </row>
     <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="161" t="s">
+      <c r="A4" s="154" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="169" t="s">
+      <c r="B4" s="162" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="166" t="s">
-        <v>285</v>
-      </c>
-      <c r="D4" s="167"/>
-      <c r="E4" s="167"/>
-      <c r="F4" s="167"/>
-      <c r="G4" s="167"/>
-      <c r="H4" s="167"/>
-      <c r="I4" s="167"/>
-      <c r="J4" s="168"/>
+      <c r="C4" s="159" t="s">
+        <v>283</v>
+      </c>
+      <c r="D4" s="160"/>
+      <c r="E4" s="160"/>
+      <c r="F4" s="160"/>
+      <c r="G4" s="160"/>
+      <c r="H4" s="160"/>
+      <c r="I4" s="160"/>
+      <c r="J4" s="161"/>
     </row>
     <row r="5" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="162"/>
-      <c r="B5" s="170"/>
+      <c r="A5" s="155"/>
+      <c r="B5" s="163"/>
       <c r="C5" s="153" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="157"/>
-      <c r="E5" s="158"/>
-      <c r="F5" s="158"/>
-      <c r="G5" s="158"/>
-      <c r="H5" s="158"/>
-      <c r="I5" s="158"/>
-      <c r="J5" s="159"/>
+      <c r="D5" s="167"/>
+      <c r="E5" s="168"/>
+      <c r="F5" s="168"/>
+      <c r="G5" s="168"/>
+      <c r="H5" s="168"/>
+      <c r="I5" s="168"/>
+      <c r="J5" s="169"/>
     </row>
     <row r="6" spans="1:10" s="3" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
@@ -5723,13 +5724,13 @@
       <c r="C6" s="142" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="157"/>
-      <c r="E6" s="158"/>
-      <c r="F6" s="158"/>
-      <c r="G6" s="158"/>
-      <c r="H6" s="158"/>
-      <c r="I6" s="158"/>
-      <c r="J6" s="159"/>
+      <c r="D6" s="167"/>
+      <c r="E6" s="168"/>
+      <c r="F6" s="168"/>
+      <c r="G6" s="168"/>
+      <c r="H6" s="168"/>
+      <c r="I6" s="168"/>
+      <c r="J6" s="169"/>
     </row>
     <row r="7" spans="1:10" s="3" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
@@ -5741,13 +5742,13 @@
       <c r="C7" s="142" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="157"/>
-      <c r="E7" s="158"/>
-      <c r="F7" s="158"/>
-      <c r="G7" s="158"/>
-      <c r="H7" s="158"/>
-      <c r="I7" s="158"/>
-      <c r="J7" s="159"/>
+      <c r="D7" s="167"/>
+      <c r="E7" s="168"/>
+      <c r="F7" s="168"/>
+      <c r="G7" s="168"/>
+      <c r="H7" s="168"/>
+      <c r="I7" s="168"/>
+      <c r="J7" s="169"/>
     </row>
     <row r="8" spans="1:10" s="3" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
@@ -5759,13 +5760,13 @@
       <c r="C8" s="142" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="157"/>
-      <c r="E8" s="158"/>
-      <c r="F8" s="158"/>
-      <c r="G8" s="158"/>
-      <c r="H8" s="158"/>
-      <c r="I8" s="158"/>
-      <c r="J8" s="159"/>
+      <c r="D8" s="167"/>
+      <c r="E8" s="168"/>
+      <c r="F8" s="168"/>
+      <c r="G8" s="168"/>
+      <c r="H8" s="168"/>
+      <c r="I8" s="168"/>
+      <c r="J8" s="169"/>
     </row>
     <row r="9" spans="1:10" s="3" customFormat="1" ht="135" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
@@ -5777,87 +5778,87 @@
       <c r="C9" s="142" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="157"/>
-      <c r="E9" s="158"/>
-      <c r="F9" s="158"/>
-      <c r="G9" s="158"/>
-      <c r="H9" s="158"/>
-      <c r="I9" s="158"/>
-      <c r="J9" s="159"/>
+      <c r="D9" s="167"/>
+      <c r="E9" s="168"/>
+      <c r="F9" s="168"/>
+      <c r="G9" s="168"/>
+      <c r="H9" s="168"/>
+      <c r="I9" s="168"/>
+      <c r="J9" s="169"/>
     </row>
     <row r="10" spans="1:10" s="3" customFormat="1" ht="135" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="B10" s="74" t="s">
+        <v>328</v>
+      </c>
+      <c r="C10" s="144" t="s">
+        <v>330</v>
+      </c>
+      <c r="D10" s="167"/>
+      <c r="E10" s="168"/>
+      <c r="F10" s="168"/>
+      <c r="G10" s="168"/>
+      <c r="H10" s="169"/>
+      <c r="I10" s="145" t="s">
         <v>329</v>
-      </c>
-      <c r="B10" s="74" t="s">
-        <v>330</v>
-      </c>
-      <c r="C10" s="144" t="s">
-        <v>332</v>
-      </c>
-      <c r="D10" s="157"/>
-      <c r="E10" s="158"/>
-      <c r="F10" s="158"/>
-      <c r="G10" s="158"/>
-      <c r="H10" s="159"/>
-      <c r="I10" s="145" t="s">
-        <v>331</v>
       </c>
       <c r="J10" s="147"/>
     </row>
     <row r="11" spans="1:10" s="3" customFormat="1" ht="135" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="B11" s="80" t="s">
+        <v>332</v>
+      </c>
+      <c r="C11" s="144" t="s">
         <v>333</v>
       </c>
-      <c r="B11" s="80" t="s">
-        <v>334</v>
-      </c>
-      <c r="C11" s="144" t="s">
-        <v>335</v>
-      </c>
-      <c r="D11" s="157"/>
-      <c r="E11" s="158"/>
-      <c r="F11" s="158"/>
-      <c r="G11" s="158"/>
-      <c r="H11" s="158"/>
-      <c r="I11" s="158"/>
-      <c r="J11" s="159"/>
+      <c r="D11" s="167"/>
+      <c r="E11" s="168"/>
+      <c r="F11" s="168"/>
+      <c r="G11" s="168"/>
+      <c r="H11" s="168"/>
+      <c r="I11" s="168"/>
+      <c r="J11" s="169"/>
     </row>
     <row r="12" spans="1:10" s="3" customFormat="1" ht="135" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B12" s="74" t="s">
+        <v>317</v>
+      </c>
+      <c r="C12" s="173"/>
+      <c r="D12" s="168"/>
+      <c r="E12" s="168"/>
+      <c r="F12" s="168"/>
+      <c r="G12" s="168"/>
+      <c r="H12" s="169"/>
+      <c r="I12" s="145" t="s">
         <v>319</v>
-      </c>
-      <c r="C12" s="160"/>
-      <c r="D12" s="158"/>
-      <c r="E12" s="158"/>
-      <c r="F12" s="158"/>
-      <c r="G12" s="158"/>
-      <c r="H12" s="159"/>
-      <c r="I12" s="145" t="s">
-        <v>321</v>
       </c>
       <c r="J12" s="147"/>
     </row>
     <row r="13" spans="1:10" s="3" customFormat="1" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C13" s="120" t="s">
-        <v>470</v>
-      </c>
-      <c r="D13" s="157"/>
-      <c r="E13" s="158"/>
-      <c r="F13" s="158"/>
-      <c r="G13" s="158"/>
-      <c r="H13" s="158"/>
-      <c r="I13" s="158"/>
-      <c r="J13" s="159"/>
+        <v>468</v>
+      </c>
+      <c r="D13" s="167"/>
+      <c r="E13" s="168"/>
+      <c r="F13" s="168"/>
+      <c r="G13" s="168"/>
+      <c r="H13" s="168"/>
+      <c r="I13" s="168"/>
+      <c r="J13" s="169"/>
     </row>
     <row r="14" spans="1:10" s="3" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
@@ -5867,51 +5868,51 @@
         <v>14</v>
       </c>
       <c r="C14" s="148" t="s">
-        <v>265</v>
-      </c>
-      <c r="D14" s="157"/>
-      <c r="E14" s="158"/>
-      <c r="F14" s="158"/>
-      <c r="G14" s="158"/>
-      <c r="H14" s="158"/>
-      <c r="I14" s="158"/>
-      <c r="J14" s="159"/>
+        <v>263</v>
+      </c>
+      <c r="D14" s="167"/>
+      <c r="E14" s="168"/>
+      <c r="F14" s="168"/>
+      <c r="G14" s="168"/>
+      <c r="H14" s="168"/>
+      <c r="I14" s="168"/>
+      <c r="J14" s="169"/>
     </row>
     <row r="15" spans="1:10" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
+        <v>472</v>
+      </c>
+      <c r="B15" s="118" t="s">
+        <v>473</v>
+      </c>
+      <c r="C15" s="159" t="s">
         <v>474</v>
       </c>
-      <c r="B15" s="118" t="s">
-        <v>475</v>
-      </c>
-      <c r="C15" s="166" t="s">
-        <v>476</v>
-      </c>
-      <c r="D15" s="167"/>
-      <c r="E15" s="167"/>
-      <c r="F15" s="167"/>
-      <c r="G15" s="167"/>
-      <c r="H15" s="167"/>
-      <c r="I15" s="167"/>
-      <c r="J15" s="168"/>
+      <c r="D15" s="160"/>
+      <c r="E15" s="160"/>
+      <c r="F15" s="160"/>
+      <c r="G15" s="160"/>
+      <c r="H15" s="160"/>
+      <c r="I15" s="160"/>
+      <c r="J15" s="161"/>
     </row>
     <row r="16" spans="1:10" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>109</v>
       </c>
       <c r="B16" s="118" t="s">
-        <v>473</v>
-      </c>
-      <c r="C16" s="166" t="s">
         <v>471</v>
       </c>
-      <c r="D16" s="167"/>
-      <c r="E16" s="167"/>
-      <c r="F16" s="167"/>
-      <c r="G16" s="167"/>
-      <c r="H16" s="167"/>
-      <c r="I16" s="167"/>
-      <c r="J16" s="168"/>
+      <c r="C16" s="159" t="s">
+        <v>469</v>
+      </c>
+      <c r="D16" s="160"/>
+      <c r="E16" s="160"/>
+      <c r="F16" s="160"/>
+      <c r="G16" s="160"/>
+      <c r="H16" s="160"/>
+      <c r="I16" s="160"/>
+      <c r="J16" s="161"/>
     </row>
     <row r="17" spans="1:10" s="3" customFormat="1" ht="150" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
@@ -5923,13 +5924,13 @@
       <c r="C17" s="146" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="157"/>
-      <c r="E17" s="158"/>
-      <c r="F17" s="158"/>
-      <c r="G17" s="158"/>
-      <c r="H17" s="158"/>
-      <c r="I17" s="158"/>
-      <c r="J17" s="159"/>
+      <c r="D17" s="167"/>
+      <c r="E17" s="168"/>
+      <c r="F17" s="168"/>
+      <c r="G17" s="168"/>
+      <c r="H17" s="168"/>
+      <c r="I17" s="168"/>
+      <c r="J17" s="169"/>
     </row>
     <row r="18" spans="1:10" s="3" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
@@ -5941,13 +5942,13 @@
       <c r="C18" s="142" t="s">
         <v>8</v>
       </c>
-      <c r="D18" s="157"/>
-      <c r="E18" s="158"/>
-      <c r="F18" s="158"/>
-      <c r="G18" s="158"/>
-      <c r="H18" s="158"/>
-      <c r="I18" s="158"/>
-      <c r="J18" s="159"/>
+      <c r="D18" s="167"/>
+      <c r="E18" s="168"/>
+      <c r="F18" s="168"/>
+      <c r="G18" s="168"/>
+      <c r="H18" s="168"/>
+      <c r="I18" s="168"/>
+      <c r="J18" s="169"/>
     </row>
     <row r="19" spans="1:10" s="3" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
@@ -5959,13 +5960,13 @@
       <c r="C19" s="142" t="s">
         <v>5</v>
       </c>
-      <c r="D19" s="157"/>
-      <c r="E19" s="158"/>
-      <c r="F19" s="158"/>
-      <c r="G19" s="158"/>
-      <c r="H19" s="158"/>
-      <c r="I19" s="158"/>
-      <c r="J19" s="159"/>
+      <c r="D19" s="167"/>
+      <c r="E19" s="168"/>
+      <c r="F19" s="168"/>
+      <c r="G19" s="168"/>
+      <c r="H19" s="168"/>
+      <c r="I19" s="168"/>
+      <c r="J19" s="169"/>
     </row>
     <row r="20" spans="1:10" s="3" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
@@ -5977,13 +5978,13 @@
       <c r="C20" s="142" t="s">
         <v>2</v>
       </c>
-      <c r="D20" s="157"/>
-      <c r="E20" s="158"/>
-      <c r="F20" s="158"/>
-      <c r="G20" s="158"/>
-      <c r="H20" s="158"/>
-      <c r="I20" s="158"/>
-      <c r="J20" s="159"/>
+      <c r="D20" s="167"/>
+      <c r="E20" s="168"/>
+      <c r="F20" s="168"/>
+      <c r="G20" s="168"/>
+      <c r="H20" s="168"/>
+      <c r="I20" s="168"/>
+      <c r="J20" s="169"/>
     </row>
     <row r="21" spans="1:10" s="47" customFormat="1" ht="225" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="48" t="s">
@@ -5993,76 +5994,81 @@
         <v>0</v>
       </c>
       <c r="C21" s="148" t="s">
-        <v>290</v>
-      </c>
-      <c r="D21" s="157"/>
-      <c r="E21" s="158"/>
-      <c r="F21" s="158"/>
-      <c r="G21" s="158"/>
-      <c r="H21" s="158"/>
-      <c r="I21" s="158"/>
-      <c r="J21" s="159"/>
+        <v>288</v>
+      </c>
+      <c r="D21" s="167"/>
+      <c r="E21" s="168"/>
+      <c r="F21" s="168"/>
+      <c r="G21" s="168"/>
+      <c r="H21" s="168"/>
+      <c r="I21" s="168"/>
+      <c r="J21" s="169"/>
     </row>
     <row r="22" spans="1:10" s="47" customFormat="1" ht="225" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="56" t="s">
+        <v>202</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>244</v>
+      </c>
+      <c r="C22" s="35" t="s">
         <v>203</v>
       </c>
-      <c r="B22" s="19" t="s">
-        <v>246</v>
-      </c>
-      <c r="C22" s="35" t="s">
+      <c r="D22" s="164"/>
+      <c r="E22" s="165"/>
+      <c r="F22" s="165"/>
+      <c r="G22" s="166"/>
+      <c r="H22" s="145" t="s">
         <v>204</v>
       </c>
-      <c r="D22" s="171"/>
-      <c r="E22" s="172"/>
-      <c r="F22" s="172"/>
-      <c r="G22" s="173"/>
-      <c r="H22" s="145" t="s">
-        <v>205</v>
-      </c>
       <c r="I22" s="143" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="J22" s="147"/>
     </row>
     <row r="23" spans="1:10" s="47" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="68" t="s">
+        <v>280</v>
+      </c>
+      <c r="B23" s="64" t="s">
         <v>282</v>
       </c>
-      <c r="B23" s="64" t="s">
-        <v>284</v>
-      </c>
-      <c r="C23" s="166" t="s">
-        <v>283</v>
-      </c>
-      <c r="D23" s="167"/>
-      <c r="E23" s="167"/>
-      <c r="F23" s="167"/>
-      <c r="G23" s="167"/>
-      <c r="H23" s="167"/>
-      <c r="I23" s="167"/>
-      <c r="J23" s="168"/>
+      <c r="C23" s="159" t="s">
+        <v>281</v>
+      </c>
+      <c r="D23" s="160"/>
+      <c r="E23" s="160"/>
+      <c r="F23" s="160"/>
+      <c r="G23" s="160"/>
+      <c r="H23" s="160"/>
+      <c r="I23" s="160"/>
+      <c r="J23" s="161"/>
     </row>
     <row r="24" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A24" s="50" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B24" s="51" t="s">
-        <v>266</v>
-      </c>
-      <c r="C24" s="163" t="s">
-        <v>267</v>
-      </c>
-      <c r="D24" s="164"/>
-      <c r="E24" s="164"/>
-      <c r="F24" s="164"/>
-      <c r="G24" s="164"/>
-      <c r="H24" s="164"/>
-      <c r="I24" s="164"/>
-      <c r="J24" s="165"/>
+        <v>264</v>
+      </c>
+      <c r="C24" s="156" t="s">
+        <v>265</v>
+      </c>
+      <c r="D24" s="157"/>
+      <c r="E24" s="157"/>
+      <c r="F24" s="157"/>
+      <c r="G24" s="157"/>
+      <c r="H24" s="157"/>
+      <c r="I24" s="157"/>
+      <c r="J24" s="158"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="D2:J3"/>
+    <mergeCell ref="D5:J9"/>
+    <mergeCell ref="D11:J11"/>
+    <mergeCell ref="D10:H10"/>
+    <mergeCell ref="C12:H12"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="C24:J24"/>
     <mergeCell ref="C23:J23"/>
@@ -6073,11 +6079,6 @@
     <mergeCell ref="D17:J21"/>
     <mergeCell ref="C16:J16"/>
     <mergeCell ref="C15:J15"/>
-    <mergeCell ref="D2:J3"/>
-    <mergeCell ref="D5:J9"/>
-    <mergeCell ref="D11:J11"/>
-    <mergeCell ref="D10:H10"/>
-    <mergeCell ref="C12:H12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6089,10 +6090,10 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:M63"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="H53" sqref="H53"/>
+      <selection pane="bottomLeft" activeCell="K59" sqref="K59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6108,13 +6109,13 @@
   <sheetData>
     <row r="1" spans="1:12" s="15" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B1" s="149" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C1" s="149" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D1" s="122" t="s">
         <v>44</v>
@@ -6132,16 +6133,16 @@
         <v>40</v>
       </c>
       <c r="I1" s="150" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="J1" s="150" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K1" s="150" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="L1" s="150" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -6151,79 +6152,79 @@
       <c r="B2" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="C2" s="190" t="s">
-        <v>516</v>
-      </c>
-      <c r="D2" s="191"/>
-      <c r="E2" s="191"/>
-      <c r="F2" s="191"/>
-      <c r="G2" s="191"/>
-      <c r="H2" s="191"/>
-      <c r="I2" s="191"/>
-      <c r="J2" s="192"/>
-      <c r="K2" s="201"/>
-      <c r="L2" s="202"/>
+      <c r="C2" s="217" t="s">
+        <v>514</v>
+      </c>
+      <c r="D2" s="218"/>
+      <c r="E2" s="218"/>
+      <c r="F2" s="218"/>
+      <c r="G2" s="218"/>
+      <c r="H2" s="218"/>
+      <c r="I2" s="218"/>
+      <c r="J2" s="219"/>
+      <c r="K2" s="227"/>
+      <c r="L2" s="228"/>
     </row>
     <row r="3" spans="1:12" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="161" t="s">
+      <c r="A3" s="154" t="s">
         <v>157</v>
       </c>
-      <c r="B3" s="169" t="s">
-        <v>222</v>
-      </c>
-      <c r="C3" s="166" t="s">
-        <v>268</v>
-      </c>
-      <c r="D3" s="167"/>
-      <c r="E3" s="167"/>
-      <c r="F3" s="167"/>
-      <c r="G3" s="167"/>
-      <c r="H3" s="167"/>
-      <c r="I3" s="167"/>
-      <c r="J3" s="167"/>
-      <c r="K3" s="167"/>
-      <c r="L3" s="168"/>
+      <c r="B3" s="162" t="s">
+        <v>221</v>
+      </c>
+      <c r="C3" s="159" t="s">
+        <v>266</v>
+      </c>
+      <c r="D3" s="160"/>
+      <c r="E3" s="160"/>
+      <c r="F3" s="160"/>
+      <c r="G3" s="160"/>
+      <c r="H3" s="160"/>
+      <c r="I3" s="160"/>
+      <c r="J3" s="160"/>
+      <c r="K3" s="160"/>
+      <c r="L3" s="161"/>
     </row>
     <row r="4" spans="1:12" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="184"/>
-      <c r="B4" s="185"/>
-      <c r="C4" s="166" t="s">
-        <v>515</v>
-      </c>
-      <c r="D4" s="167"/>
-      <c r="E4" s="167"/>
-      <c r="F4" s="167"/>
-      <c r="G4" s="167"/>
-      <c r="H4" s="167"/>
-      <c r="I4" s="167"/>
-      <c r="J4" s="167"/>
-      <c r="K4" s="167"/>
-      <c r="L4" s="168"/>
+      <c r="A4" s="237"/>
+      <c r="B4" s="179"/>
+      <c r="C4" s="159" t="s">
+        <v>513</v>
+      </c>
+      <c r="D4" s="160"/>
+      <c r="E4" s="160"/>
+      <c r="F4" s="160"/>
+      <c r="G4" s="160"/>
+      <c r="H4" s="160"/>
+      <c r="I4" s="160"/>
+      <c r="J4" s="160"/>
+      <c r="K4" s="160"/>
+      <c r="L4" s="161"/>
     </row>
     <row r="5" spans="1:12" s="15" customFormat="1" ht="180" x14ac:dyDescent="0.25">
-      <c r="A5" s="162"/>
-      <c r="B5" s="170"/>
+      <c r="A5" s="155"/>
+      <c r="B5" s="163"/>
       <c r="C5" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="D5" s="180" t="s">
-        <v>353</v>
-      </c>
-      <c r="E5" s="180"/>
-      <c r="F5" s="180"/>
-      <c r="G5" s="180"/>
+      <c r="D5" s="229" t="s">
+        <v>351</v>
+      </c>
+      <c r="E5" s="229"/>
+      <c r="F5" s="229"/>
+      <c r="G5" s="229"/>
       <c r="H5" s="36" t="s">
         <v>155</v>
       </c>
       <c r="I5" s="77" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="J5" s="52"/>
       <c r="K5" s="44" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="L5" s="44" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="15" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.25">
@@ -6233,45 +6234,45 @@
       <c r="B6" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="C6" s="166" t="s">
+      <c r="C6" s="159" t="s">
         <v>152</v>
       </c>
-      <c r="D6" s="167"/>
-      <c r="E6" s="167"/>
-      <c r="F6" s="167"/>
-      <c r="G6" s="167"/>
-      <c r="H6" s="167"/>
-      <c r="I6" s="167"/>
-      <c r="J6" s="168"/>
+      <c r="D6" s="160"/>
+      <c r="E6" s="160"/>
+      <c r="F6" s="160"/>
+      <c r="G6" s="160"/>
+      <c r="H6" s="160"/>
+      <c r="I6" s="160"/>
+      <c r="J6" s="161"/>
       <c r="K6" s="103"/>
       <c r="L6" s="77" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="7" spans="1:12" s="15" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A7" s="28" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C7" s="25"/>
-      <c r="D7" s="180" t="s">
+      <c r="D7" s="229" t="s">
         <v>151</v>
       </c>
-      <c r="E7" s="180"/>
-      <c r="F7" s="180"/>
-      <c r="G7" s="180"/>
+      <c r="E7" s="229"/>
+      <c r="F7" s="229"/>
+      <c r="G7" s="229"/>
       <c r="H7" s="36" t="s">
         <v>150</v>
       </c>
-      <c r="I7" s="199"/>
-      <c r="J7" s="200"/>
+      <c r="I7" s="225"/>
+      <c r="J7" s="226"/>
       <c r="K7" s="44" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="L7" s="44" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="8" spans="1:12" s="15" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.25">
@@ -6281,16 +6282,16 @@
       <c r="B8" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="C8" s="203" t="s">
+      <c r="C8" s="230" t="s">
         <v>147</v>
       </c>
-      <c r="D8" s="204"/>
-      <c r="E8" s="204"/>
-      <c r="F8" s="204"/>
-      <c r="G8" s="204"/>
-      <c r="H8" s="204"/>
-      <c r="I8" s="204"/>
-      <c r="J8" s="205"/>
+      <c r="D8" s="231"/>
+      <c r="E8" s="231"/>
+      <c r="F8" s="231"/>
+      <c r="G8" s="231"/>
+      <c r="H8" s="231"/>
+      <c r="I8" s="231"/>
+      <c r="J8" s="232"/>
       <c r="K8" s="103"/>
       <c r="L8" s="77" t="s">
         <v>147</v>
@@ -6301,85 +6302,85 @@
         <v>146</v>
       </c>
       <c r="B9" s="46" t="s">
-        <v>220</v>
-      </c>
-      <c r="C9" s="168" t="s">
+        <v>219</v>
+      </c>
+      <c r="C9" s="161" t="s">
         <v>145</v>
       </c>
-      <c r="D9" s="180"/>
-      <c r="E9" s="180"/>
-      <c r="F9" s="180"/>
-      <c r="G9" s="180"/>
-      <c r="H9" s="180"/>
-      <c r="I9" s="180"/>
-      <c r="J9" s="180"/>
-      <c r="K9" s="180"/>
-      <c r="L9" s="180"/>
+      <c r="D9" s="229"/>
+      <c r="E9" s="229"/>
+      <c r="F9" s="229"/>
+      <c r="G9" s="229"/>
+      <c r="H9" s="229"/>
+      <c r="I9" s="229"/>
+      <c r="J9" s="229"/>
+      <c r="K9" s="229"/>
+      <c r="L9" s="229"/>
     </row>
     <row r="10" spans="1:12" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="28" t="s">
         <v>144</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="C10" s="203" t="s">
+        <v>218</v>
+      </c>
+      <c r="C10" s="230" t="s">
         <v>143</v>
       </c>
-      <c r="D10" s="204"/>
-      <c r="E10" s="204"/>
-      <c r="F10" s="204"/>
-      <c r="G10" s="204"/>
-      <c r="H10" s="204"/>
-      <c r="I10" s="204"/>
-      <c r="J10" s="205"/>
+      <c r="D10" s="231"/>
+      <c r="E10" s="231"/>
+      <c r="F10" s="231"/>
+      <c r="G10" s="231"/>
+      <c r="H10" s="231"/>
+      <c r="I10" s="231"/>
+      <c r="J10" s="232"/>
       <c r="K10" s="76"/>
       <c r="L10" s="77" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="28" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B11" s="46" t="s">
-        <v>223</v>
-      </c>
-      <c r="C11" s="166" t="s">
-        <v>294</v>
-      </c>
-      <c r="D11" s="167"/>
-      <c r="E11" s="167"/>
-      <c r="F11" s="167"/>
-      <c r="G11" s="167"/>
-      <c r="H11" s="168"/>
-      <c r="I11" s="208"/>
-      <c r="J11" s="209"/>
+        <v>222</v>
+      </c>
+      <c r="C11" s="159" t="s">
+        <v>292</v>
+      </c>
+      <c r="D11" s="160"/>
+      <c r="E11" s="160"/>
+      <c r="F11" s="160"/>
+      <c r="G11" s="160"/>
+      <c r="H11" s="161"/>
+      <c r="I11" s="233"/>
+      <c r="J11" s="175"/>
       <c r="K11" s="70" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="L11" s="44" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="66" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B12" s="67"/>
-      <c r="C12" s="187"/>
-      <c r="D12" s="188"/>
-      <c r="E12" s="188"/>
-      <c r="F12" s="188"/>
-      <c r="G12" s="188"/>
-      <c r="H12" s="188"/>
-      <c r="I12" s="172"/>
-      <c r="J12" s="173"/>
+      <c r="C12" s="239"/>
+      <c r="D12" s="240"/>
+      <c r="E12" s="240"/>
+      <c r="F12" s="240"/>
+      <c r="G12" s="240"/>
+      <c r="H12" s="240"/>
+      <c r="I12" s="165"/>
+      <c r="J12" s="166"/>
       <c r="K12" s="39" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="L12" s="39" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="180" customHeight="1" x14ac:dyDescent="0.25">
@@ -6390,27 +6391,27 @@
         <v>142</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D13" s="26" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E13" s="60"/>
       <c r="F13" s="26" t="s">
         <v>38</v>
       </c>
       <c r="G13" s="26" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="H13" s="60"/>
       <c r="I13" s="40" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="J13" s="40" t="s">
-        <v>328</v>
-      </c>
-      <c r="K13" s="193"/>
-      <c r="L13" s="194"/>
+        <v>326</v>
+      </c>
+      <c r="K13" s="202"/>
+      <c r="L13" s="203"/>
     </row>
     <row r="14" spans="1:12" ht="135" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
@@ -6420,21 +6421,21 @@
         <v>141</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>316</v>
-      </c>
-      <c r="D14" s="171"/>
-      <c r="E14" s="158"/>
-      <c r="F14" s="172"/>
-      <c r="G14" s="172"/>
-      <c r="H14" s="172"/>
+        <v>314</v>
+      </c>
+      <c r="D14" s="164"/>
+      <c r="E14" s="168"/>
+      <c r="F14" s="165"/>
+      <c r="G14" s="165"/>
+      <c r="H14" s="165"/>
       <c r="I14" s="40" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="J14" s="40" t="s">
-        <v>504</v>
-      </c>
-      <c r="K14" s="195"/>
-      <c r="L14" s="196"/>
+        <v>502</v>
+      </c>
+      <c r="K14" s="220"/>
+      <c r="L14" s="221"/>
     </row>
     <row r="15" spans="1:12" ht="135" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
@@ -6450,7 +6451,7 @@
         <v>137</v>
       </c>
       <c r="E15" s="90" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="F15" s="17" t="s">
         <v>136</v>
@@ -6462,141 +6463,141 @@
         <v>134</v>
       </c>
       <c r="I15" s="39" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J15" s="39" t="s">
-        <v>208</v>
-      </c>
-      <c r="K15" s="195"/>
-      <c r="L15" s="196"/>
+        <v>207</v>
+      </c>
+      <c r="K15" s="220"/>
+      <c r="L15" s="221"/>
     </row>
     <row r="16" spans="1:12" ht="150" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="186" t="s">
+      <c r="A16" s="238" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="189" t="s">
+      <c r="B16" s="204" t="s">
         <v>133</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D16" s="206"/>
       <c r="E16" s="207"/>
       <c r="F16" s="26" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="G16" s="27" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H16" s="38"/>
       <c r="I16" s="42" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="J16" s="42" t="s">
-        <v>210</v>
-      </c>
-      <c r="K16" s="195"/>
-      <c r="L16" s="196"/>
+        <v>209</v>
+      </c>
+      <c r="K16" s="220"/>
+      <c r="L16" s="221"/>
     </row>
     <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="186"/>
-      <c r="B17" s="189"/>
-      <c r="C17" s="166" t="s">
+      <c r="A17" s="238"/>
+      <c r="B17" s="204"/>
+      <c r="C17" s="159" t="s">
         <v>132</v>
       </c>
-      <c r="D17" s="167"/>
-      <c r="E17" s="167"/>
-      <c r="F17" s="167"/>
-      <c r="G17" s="167"/>
-      <c r="H17" s="210"/>
-      <c r="I17" s="210"/>
-      <c r="J17" s="211"/>
-      <c r="K17" s="195"/>
-      <c r="L17" s="196"/>
+      <c r="D17" s="160"/>
+      <c r="E17" s="160"/>
+      <c r="F17" s="160"/>
+      <c r="G17" s="160"/>
+      <c r="H17" s="201"/>
+      <c r="I17" s="201"/>
+      <c r="J17" s="185"/>
+      <c r="K17" s="220"/>
+      <c r="L17" s="221"/>
     </row>
     <row r="18" spans="1:13" ht="135" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="186" t="s">
+      <c r="A18" s="238" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="189" t="s">
+      <c r="B18" s="204" t="s">
         <v>131</v>
       </c>
       <c r="C18" s="82" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D18" s="206"/>
       <c r="E18" s="207"/>
       <c r="F18" s="83" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="G18" s="83" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H18" s="10"/>
       <c r="I18" s="42" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="J18" s="42" t="s">
-        <v>211</v>
-      </c>
-      <c r="K18" s="197"/>
-      <c r="L18" s="198"/>
+        <v>210</v>
+      </c>
+      <c r="K18" s="222"/>
+      <c r="L18" s="223"/>
     </row>
     <row r="19" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="186"/>
-      <c r="B19" s="224"/>
-      <c r="C19" s="179" t="s">
+      <c r="A19" s="238"/>
+      <c r="B19" s="205"/>
+      <c r="C19" s="224" t="s">
         <v>130</v>
       </c>
-      <c r="D19" s="167"/>
-      <c r="E19" s="167"/>
-      <c r="F19" s="167"/>
-      <c r="G19" s="167"/>
-      <c r="H19" s="167"/>
-      <c r="I19" s="167"/>
-      <c r="J19" s="167"/>
-      <c r="K19" s="167"/>
-      <c r="L19" s="168"/>
+      <c r="D19" s="160"/>
+      <c r="E19" s="160"/>
+      <c r="F19" s="160"/>
+      <c r="G19" s="160"/>
+      <c r="H19" s="160"/>
+      <c r="I19" s="160"/>
+      <c r="J19" s="160"/>
+      <c r="K19" s="160"/>
+      <c r="L19" s="161"/>
     </row>
     <row r="20" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="161" t="s">
-        <v>263</v>
-      </c>
-      <c r="B20" s="226" t="s">
-        <v>264</v>
-      </c>
-      <c r="C20" s="179" t="s">
-        <v>497</v>
-      </c>
-      <c r="D20" s="167"/>
-      <c r="E20" s="167"/>
-      <c r="F20" s="167"/>
-      <c r="G20" s="167"/>
-      <c r="H20" s="167"/>
-      <c r="I20" s="167"/>
-      <c r="J20" s="167"/>
-      <c r="K20" s="167"/>
-      <c r="L20" s="167"/>
+      <c r="A20" s="154" t="s">
+        <v>261</v>
+      </c>
+      <c r="B20" s="210" t="s">
+        <v>262</v>
+      </c>
+      <c r="C20" s="224" t="s">
+        <v>495</v>
+      </c>
+      <c r="D20" s="160"/>
+      <c r="E20" s="160"/>
+      <c r="F20" s="160"/>
+      <c r="G20" s="160"/>
+      <c r="H20" s="160"/>
+      <c r="I20" s="160"/>
+      <c r="J20" s="160"/>
+      <c r="K20" s="160"/>
+      <c r="L20" s="160"/>
       <c r="M20" s="141"/>
     </row>
     <row r="21" spans="1:13" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="162"/>
-      <c r="B21" s="227"/>
-      <c r="C21" s="181" t="s">
-        <v>500</v>
-      </c>
-      <c r="D21" s="182"/>
-      <c r="E21" s="182"/>
-      <c r="F21" s="182"/>
-      <c r="G21" s="182"/>
-      <c r="H21" s="182"/>
-      <c r="I21" s="182"/>
-      <c r="J21" s="183"/>
+      <c r="A21" s="155"/>
+      <c r="B21" s="211"/>
+      <c r="C21" s="234" t="s">
+        <v>498</v>
+      </c>
+      <c r="D21" s="235"/>
+      <c r="E21" s="235"/>
+      <c r="F21" s="235"/>
+      <c r="G21" s="235"/>
+      <c r="H21" s="235"/>
+      <c r="I21" s="235"/>
+      <c r="J21" s="236"/>
       <c r="K21" s="42" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="L21" s="140" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="105" customHeight="1" x14ac:dyDescent="0.25">
@@ -6606,78 +6607,78 @@
       <c r="B22" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="C22" s="166" t="s">
-        <v>234</v>
-      </c>
-      <c r="D22" s="167"/>
-      <c r="E22" s="167"/>
-      <c r="F22" s="167"/>
-      <c r="G22" s="167"/>
-      <c r="H22" s="167"/>
-      <c r="I22" s="167"/>
-      <c r="J22" s="168"/>
+      <c r="C22" s="159" t="s">
+        <v>233</v>
+      </c>
+      <c r="D22" s="160"/>
+      <c r="E22" s="160"/>
+      <c r="F22" s="160"/>
+      <c r="G22" s="160"/>
+      <c r="H22" s="160"/>
+      <c r="I22" s="160"/>
+      <c r="J22" s="161"/>
       <c r="K22" s="41" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="L22" s="44" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="235" t="s">
+      <c r="A23" s="180" t="s">
+        <v>364</v>
+      </c>
+      <c r="B23" s="162" t="s">
+        <v>369</v>
+      </c>
+      <c r="C23" s="159" t="s">
         <v>366</v>
       </c>
-      <c r="B23" s="169" t="s">
-        <v>371</v>
-      </c>
-      <c r="C23" s="166" t="s">
+      <c r="D23" s="160"/>
+      <c r="E23" s="160"/>
+      <c r="F23" s="160"/>
+      <c r="G23" s="160"/>
+      <c r="H23" s="160"/>
+      <c r="I23" s="160"/>
+      <c r="J23" s="161"/>
+      <c r="K23" s="185" t="s">
         <v>368</v>
       </c>
-      <c r="D23" s="167"/>
-      <c r="E23" s="167"/>
-      <c r="F23" s="167"/>
-      <c r="G23" s="167"/>
-      <c r="H23" s="167"/>
-      <c r="I23" s="167"/>
-      <c r="J23" s="168"/>
-      <c r="K23" s="211" t="s">
-        <v>370</v>
-      </c>
-      <c r="L23" s="211" t="s">
-        <v>386</v>
+      <c r="L23" s="185" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="236"/>
-      <c r="B24" s="185"/>
-      <c r="C24" s="166" t="s">
-        <v>367</v>
-      </c>
-      <c r="D24" s="167"/>
-      <c r="E24" s="167"/>
-      <c r="F24" s="167"/>
-      <c r="G24" s="167"/>
-      <c r="H24" s="167"/>
-      <c r="I24" s="167"/>
-      <c r="J24" s="168"/>
-      <c r="K24" s="225"/>
-      <c r="L24" s="225"/>
+      <c r="A24" s="181"/>
+      <c r="B24" s="179"/>
+      <c r="C24" s="159" t="s">
+        <v>365</v>
+      </c>
+      <c r="D24" s="160"/>
+      <c r="E24" s="160"/>
+      <c r="F24" s="160"/>
+      <c r="G24" s="160"/>
+      <c r="H24" s="160"/>
+      <c r="I24" s="160"/>
+      <c r="J24" s="161"/>
+      <c r="K24" s="186"/>
+      <c r="L24" s="186"/>
     </row>
     <row r="25" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="237"/>
-      <c r="B25" s="170"/>
-      <c r="C25" s="166" t="s">
-        <v>369</v>
-      </c>
-      <c r="D25" s="167"/>
-      <c r="E25" s="167"/>
-      <c r="F25" s="167"/>
-      <c r="G25" s="167"/>
-      <c r="H25" s="167"/>
-      <c r="I25" s="167"/>
-      <c r="J25" s="168"/>
-      <c r="K25" s="220"/>
-      <c r="L25" s="220"/>
+      <c r="A25" s="182"/>
+      <c r="B25" s="163"/>
+      <c r="C25" s="159" t="s">
+        <v>367</v>
+      </c>
+      <c r="D25" s="160"/>
+      <c r="E25" s="160"/>
+      <c r="F25" s="160"/>
+      <c r="G25" s="160"/>
+      <c r="H25" s="160"/>
+      <c r="I25" s="160"/>
+      <c r="J25" s="161"/>
+      <c r="K25" s="187"/>
+      <c r="L25" s="187"/>
     </row>
     <row r="26" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
@@ -6686,18 +6687,18 @@
       <c r="B26" s="46" t="s">
         <v>126</v>
       </c>
-      <c r="C26" s="176" t="s">
+      <c r="C26" s="183" t="s">
         <v>125</v>
       </c>
-      <c r="D26" s="217"/>
-      <c r="E26" s="217"/>
-      <c r="F26" s="217"/>
-      <c r="G26" s="217"/>
-      <c r="H26" s="217"/>
-      <c r="I26" s="217"/>
-      <c r="J26" s="217"/>
-      <c r="K26" s="217"/>
-      <c r="L26" s="217"/>
+      <c r="D26" s="184"/>
+      <c r="E26" s="184"/>
+      <c r="F26" s="184"/>
+      <c r="G26" s="184"/>
+      <c r="H26" s="184"/>
+      <c r="I26" s="184"/>
+      <c r="J26" s="184"/>
+      <c r="K26" s="184"/>
+      <c r="L26" s="184"/>
     </row>
     <row r="27" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
@@ -6706,18 +6707,18 @@
       <c r="B27" s="92" t="s">
         <v>123</v>
       </c>
-      <c r="C27" s="176" t="s">
+      <c r="C27" s="183" t="s">
         <v>122</v>
       </c>
-      <c r="D27" s="217"/>
-      <c r="E27" s="217"/>
-      <c r="F27" s="217"/>
-      <c r="G27" s="217"/>
-      <c r="H27" s="217"/>
-      <c r="I27" s="217"/>
-      <c r="J27" s="217"/>
-      <c r="K27" s="217"/>
-      <c r="L27" s="217"/>
+      <c r="D27" s="184"/>
+      <c r="E27" s="184"/>
+      <c r="F27" s="184"/>
+      <c r="G27" s="184"/>
+      <c r="H27" s="184"/>
+      <c r="I27" s="184"/>
+      <c r="J27" s="184"/>
+      <c r="K27" s="184"/>
+      <c r="L27" s="184"/>
     </row>
     <row r="28" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
@@ -6726,18 +6727,18 @@
       <c r="B28" s="92" t="s">
         <v>172</v>
       </c>
-      <c r="C28" s="176" t="s">
+      <c r="C28" s="183" t="s">
         <v>173</v>
       </c>
-      <c r="D28" s="217"/>
-      <c r="E28" s="217"/>
-      <c r="F28" s="217"/>
-      <c r="G28" s="217"/>
-      <c r="H28" s="217"/>
-      <c r="I28" s="217"/>
-      <c r="J28" s="217"/>
-      <c r="K28" s="217"/>
-      <c r="L28" s="217"/>
+      <c r="D28" s="184"/>
+      <c r="E28" s="184"/>
+      <c r="F28" s="184"/>
+      <c r="G28" s="184"/>
+      <c r="H28" s="184"/>
+      <c r="I28" s="184"/>
+      <c r="J28" s="184"/>
+      <c r="K28" s="184"/>
+      <c r="L28" s="184"/>
     </row>
     <row r="29" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
@@ -6746,18 +6747,18 @@
       <c r="B29" s="92" t="s">
         <v>120</v>
       </c>
-      <c r="C29" s="176" t="s">
+      <c r="C29" s="183" t="s">
         <v>119</v>
       </c>
-      <c r="D29" s="217"/>
-      <c r="E29" s="217"/>
-      <c r="F29" s="217"/>
-      <c r="G29" s="217"/>
-      <c r="H29" s="217"/>
-      <c r="I29" s="217"/>
-      <c r="J29" s="217"/>
-      <c r="K29" s="217"/>
-      <c r="L29" s="217"/>
+      <c r="D29" s="184"/>
+      <c r="E29" s="184"/>
+      <c r="F29" s="184"/>
+      <c r="G29" s="184"/>
+      <c r="H29" s="184"/>
+      <c r="I29" s="184"/>
+      <c r="J29" s="184"/>
+      <c r="K29" s="184"/>
+      <c r="L29" s="184"/>
     </row>
     <row r="30" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
@@ -6766,18 +6767,18 @@
       <c r="B30" s="92" t="s">
         <v>175</v>
       </c>
-      <c r="C30" s="176" t="s">
+      <c r="C30" s="183" t="s">
         <v>176</v>
       </c>
-      <c r="D30" s="217"/>
-      <c r="E30" s="217"/>
-      <c r="F30" s="217"/>
-      <c r="G30" s="217"/>
-      <c r="H30" s="217"/>
-      <c r="I30" s="217"/>
-      <c r="J30" s="217"/>
-      <c r="K30" s="217"/>
-      <c r="L30" s="217"/>
+      <c r="D30" s="184"/>
+      <c r="E30" s="184"/>
+      <c r="F30" s="184"/>
+      <c r="G30" s="184"/>
+      <c r="H30" s="184"/>
+      <c r="I30" s="184"/>
+      <c r="J30" s="184"/>
+      <c r="K30" s="184"/>
+      <c r="L30" s="184"/>
     </row>
     <row r="31" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
@@ -6786,18 +6787,18 @@
       <c r="B31" s="92" t="s">
         <v>117</v>
       </c>
-      <c r="C31" s="176" t="s">
+      <c r="C31" s="183" t="s">
         <v>116</v>
       </c>
-      <c r="D31" s="217"/>
-      <c r="E31" s="217"/>
-      <c r="F31" s="217"/>
-      <c r="G31" s="217"/>
-      <c r="H31" s="217"/>
-      <c r="I31" s="217"/>
-      <c r="J31" s="217"/>
-      <c r="K31" s="217"/>
-      <c r="L31" s="217"/>
+      <c r="D31" s="184"/>
+      <c r="E31" s="184"/>
+      <c r="F31" s="184"/>
+      <c r="G31" s="184"/>
+      <c r="H31" s="184"/>
+      <c r="I31" s="184"/>
+      <c r="J31" s="184"/>
+      <c r="K31" s="184"/>
+      <c r="L31" s="184"/>
     </row>
     <row r="32" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
@@ -6806,139 +6807,139 @@
       <c r="B32" s="46" t="s">
         <v>114</v>
       </c>
-      <c r="C32" s="176" t="s">
+      <c r="C32" s="183" t="s">
         <v>113</v>
       </c>
-      <c r="D32" s="217"/>
-      <c r="E32" s="217"/>
-      <c r="F32" s="217"/>
-      <c r="G32" s="217"/>
-      <c r="H32" s="217"/>
-      <c r="I32" s="217"/>
-      <c r="J32" s="217"/>
-      <c r="K32" s="217"/>
-      <c r="L32" s="217"/>
+      <c r="D32" s="184"/>
+      <c r="E32" s="184"/>
+      <c r="F32" s="184"/>
+      <c r="G32" s="184"/>
+      <c r="H32" s="184"/>
+      <c r="I32" s="184"/>
+      <c r="J32" s="184"/>
+      <c r="K32" s="184"/>
+      <c r="L32" s="184"/>
     </row>
     <row r="33" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="161" t="s">
+      <c r="A33" s="154" t="s">
         <v>112</v>
       </c>
-      <c r="B33" s="169" t="s">
+      <c r="B33" s="162" t="s">
         <v>111</v>
       </c>
-      <c r="C33" s="174" t="s">
-        <v>528</v>
-      </c>
-      <c r="D33" s="175"/>
-      <c r="E33" s="175"/>
-      <c r="F33" s="175"/>
-      <c r="G33" s="175"/>
-      <c r="H33" s="175"/>
-      <c r="I33" s="175"/>
-      <c r="J33" s="175"/>
-      <c r="K33" s="175"/>
-      <c r="L33" s="176"/>
+      <c r="C33" s="212" t="s">
+        <v>526</v>
+      </c>
+      <c r="D33" s="196"/>
+      <c r="E33" s="196"/>
+      <c r="F33" s="196"/>
+      <c r="G33" s="196"/>
+      <c r="H33" s="196"/>
+      <c r="I33" s="196"/>
+      <c r="J33" s="196"/>
+      <c r="K33" s="196"/>
+      <c r="L33" s="183"/>
     </row>
     <row r="34" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="178"/>
-      <c r="B34" s="177"/>
+      <c r="A34" s="241"/>
+      <c r="B34" s="195"/>
       <c r="C34" s="133" t="s">
-        <v>178</v>
+        <v>557</v>
       </c>
       <c r="D34" s="138"/>
       <c r="E34" s="134" t="s">
         <v>110</v>
       </c>
       <c r="F34" s="135" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G34" s="206"/>
       <c r="H34" s="207"/>
       <c r="I34" s="134" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="J34" s="134" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="K34" s="40" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L34" s="40" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="139" t="s">
+        <v>488</v>
+      </c>
+      <c r="B35" s="136" t="s">
+        <v>489</v>
+      </c>
+      <c r="C35" s="186" t="s">
+        <v>493</v>
+      </c>
+      <c r="D35" s="191"/>
+      <c r="E35" s="191"/>
+      <c r="F35" s="191"/>
+      <c r="G35" s="191"/>
+      <c r="H35" s="191"/>
+      <c r="I35" s="191"/>
+      <c r="J35" s="90" t="s">
+        <v>492</v>
+      </c>
+      <c r="K35" s="108" t="s">
+        <v>491</v>
+      </c>
+      <c r="L35" s="137" t="s">
         <v>490</v>
-      </c>
-      <c r="B35" s="136" t="s">
-        <v>491</v>
-      </c>
-      <c r="C35" s="225" t="s">
-        <v>495</v>
-      </c>
-      <c r="D35" s="241"/>
-      <c r="E35" s="241"/>
-      <c r="F35" s="241"/>
-      <c r="G35" s="241"/>
-      <c r="H35" s="241"/>
-      <c r="I35" s="241"/>
-      <c r="J35" s="90" t="s">
-        <v>494</v>
-      </c>
-      <c r="K35" s="108" t="s">
-        <v>493</v>
-      </c>
-      <c r="L35" s="137" t="s">
-        <v>492</v>
       </c>
     </row>
     <row r="36" spans="1:12" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="232" t="s">
+      <c r="A36" s="176" t="s">
         <v>55</v>
       </c>
-      <c r="B36" s="234" t="s">
+      <c r="B36" s="178" t="s">
         <v>54</v>
       </c>
-      <c r="C36" s="238" t="s">
-        <v>379</v>
-      </c>
-      <c r="D36" s="239"/>
-      <c r="E36" s="239"/>
-      <c r="F36" s="239"/>
-      <c r="G36" s="239"/>
-      <c r="H36" s="239"/>
-      <c r="I36" s="239"/>
-      <c r="J36" s="239"/>
-      <c r="K36" s="239"/>
-      <c r="L36" s="240"/>
+      <c r="C36" s="188" t="s">
+        <v>377</v>
+      </c>
+      <c r="D36" s="189"/>
+      <c r="E36" s="189"/>
+      <c r="F36" s="189"/>
+      <c r="G36" s="189"/>
+      <c r="H36" s="189"/>
+      <c r="I36" s="189"/>
+      <c r="J36" s="189"/>
+      <c r="K36" s="189"/>
+      <c r="L36" s="190"/>
     </row>
     <row r="37" spans="1:12" ht="345" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="233"/>
-      <c r="B37" s="185"/>
+      <c r="A37" s="177"/>
+      <c r="B37" s="179"/>
       <c r="C37" s="104" t="s">
+        <v>225</v>
+      </c>
+      <c r="D37" s="90" t="s">
+        <v>376</v>
+      </c>
+      <c r="E37" s="167"/>
+      <c r="F37" s="168"/>
+      <c r="G37" s="169"/>
+      <c r="H37" s="105" t="s">
         <v>226</v>
       </c>
-      <c r="D37" s="90" t="s">
-        <v>378</v>
-      </c>
-      <c r="E37" s="157"/>
-      <c r="F37" s="158"/>
-      <c r="G37" s="159"/>
-      <c r="H37" s="105" t="s">
-        <v>227</v>
-      </c>
       <c r="I37" s="90" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="J37" s="90" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="K37" s="106" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="L37" s="40" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -6946,20 +6947,20 @@
         <v>109</v>
       </c>
       <c r="B38" s="117" t="s">
-        <v>472</v>
-      </c>
-      <c r="C38" s="218" t="s">
+        <v>470</v>
+      </c>
+      <c r="C38" s="199" t="s">
         <v>108</v>
       </c>
-      <c r="D38" s="219"/>
-      <c r="E38" s="219"/>
-      <c r="F38" s="219"/>
-      <c r="G38" s="219"/>
-      <c r="H38" s="219"/>
-      <c r="I38" s="219"/>
-      <c r="J38" s="219"/>
-      <c r="K38" s="219"/>
-      <c r="L38" s="220"/>
+      <c r="D38" s="200"/>
+      <c r="E38" s="200"/>
+      <c r="F38" s="200"/>
+      <c r="G38" s="200"/>
+      <c r="H38" s="200"/>
+      <c r="I38" s="200"/>
+      <c r="J38" s="200"/>
+      <c r="K38" s="200"/>
+      <c r="L38" s="187"/>
     </row>
     <row r="39" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="116" t="s">
@@ -6968,41 +6969,41 @@
       <c r="B39" s="117" t="s">
         <v>106</v>
       </c>
-      <c r="C39" s="223" t="s">
-        <v>431</v>
-      </c>
-      <c r="D39" s="210"/>
-      <c r="E39" s="210"/>
-      <c r="F39" s="210"/>
-      <c r="G39" s="210"/>
-      <c r="H39" s="210"/>
-      <c r="I39" s="210"/>
-      <c r="J39" s="210"/>
-      <c r="K39" s="210"/>
-      <c r="L39" s="211"/>
+      <c r="C39" s="197" t="s">
+        <v>429</v>
+      </c>
+      <c r="D39" s="201"/>
+      <c r="E39" s="201"/>
+      <c r="F39" s="201"/>
+      <c r="G39" s="201"/>
+      <c r="H39" s="201"/>
+      <c r="I39" s="201"/>
+      <c r="J39" s="201"/>
+      <c r="K39" s="201"/>
+      <c r="L39" s="185"/>
     </row>
     <row r="40" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="114" t="s">
+        <v>475</v>
+      </c>
+      <c r="B40" s="115" t="s">
+        <v>476</v>
+      </c>
+      <c r="C40" s="159" t="s">
+        <v>428</v>
+      </c>
+      <c r="D40" s="160"/>
+      <c r="E40" s="160"/>
+      <c r="F40" s="160"/>
+      <c r="G40" s="160"/>
+      <c r="H40" s="160"/>
+      <c r="I40" s="160"/>
+      <c r="J40" s="161"/>
+      <c r="K40" s="111" t="s">
+        <v>430</v>
+      </c>
+      <c r="L40" s="111" t="s">
         <v>477</v>
-      </c>
-      <c r="B40" s="115" t="s">
-        <v>478</v>
-      </c>
-      <c r="C40" s="166" t="s">
-        <v>430</v>
-      </c>
-      <c r="D40" s="167"/>
-      <c r="E40" s="167"/>
-      <c r="F40" s="167"/>
-      <c r="G40" s="167"/>
-      <c r="H40" s="167"/>
-      <c r="I40" s="167"/>
-      <c r="J40" s="168"/>
-      <c r="K40" s="111" t="s">
-        <v>432</v>
-      </c>
-      <c r="L40" s="111" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="105" customHeight="1" x14ac:dyDescent="0.25">
@@ -7013,7 +7014,7 @@
         <v>104</v>
       </c>
       <c r="C41" s="35" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D41" s="206"/>
       <c r="E41" s="207"/>
@@ -7023,14 +7024,14 @@
       <c r="G41" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="H41" s="212"/>
+      <c r="H41" s="208"/>
       <c r="I41" s="73" t="s">
-        <v>323</v>
-      </c>
-      <c r="J41" s="193"/>
-      <c r="K41" s="194"/>
+        <v>321</v>
+      </c>
+      <c r="J41" s="202"/>
+      <c r="K41" s="203"/>
       <c r="L41" s="94" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="90" x14ac:dyDescent="0.25">
@@ -7050,93 +7051,93 @@
         <v>97</v>
       </c>
       <c r="F42" s="21" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="G42" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="H42" s="213"/>
+      <c r="H42" s="209"/>
       <c r="I42" s="75" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="J42" s="40" t="s">
-        <v>213</v>
-      </c>
-      <c r="K42" s="214"/>
-      <c r="L42" s="214"/>
+        <v>212</v>
+      </c>
+      <c r="K42" s="213"/>
+      <c r="L42" s="213"/>
     </row>
     <row r="43" spans="1:12" ht="135" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="B43" s="19" t="s">
         <v>186</v>
       </c>
-      <c r="B43" s="19" t="s">
+      <c r="C43" s="212" t="s">
         <v>187</v>
       </c>
-      <c r="C43" s="174" t="s">
-        <v>188</v>
-      </c>
-      <c r="D43" s="175"/>
-      <c r="E43" s="175"/>
-      <c r="F43" s="175"/>
-      <c r="G43" s="175"/>
-      <c r="H43" s="176"/>
-      <c r="I43" s="215"/>
-      <c r="J43" s="209"/>
+      <c r="D43" s="196"/>
+      <c r="E43" s="196"/>
+      <c r="F43" s="196"/>
+      <c r="G43" s="196"/>
+      <c r="H43" s="183"/>
+      <c r="I43" s="174"/>
+      <c r="J43" s="175"/>
       <c r="K43" s="70" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="L43" s="94" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="B44" s="19" t="s">
         <v>215</v>
       </c>
-      <c r="B44" s="19" t="s">
+      <c r="C44" s="212" t="s">
+        <v>217</v>
+      </c>
+      <c r="D44" s="196"/>
+      <c r="E44" s="196"/>
+      <c r="F44" s="196"/>
+      <c r="G44" s="196"/>
+      <c r="H44" s="183"/>
+      <c r="I44" s="167"/>
+      <c r="J44" s="169"/>
+      <c r="K44" s="70" t="s">
         <v>216</v>
       </c>
-      <c r="C44" s="174" t="s">
-        <v>218</v>
-      </c>
-      <c r="D44" s="175"/>
-      <c r="E44" s="175"/>
-      <c r="F44" s="175"/>
-      <c r="G44" s="175"/>
-      <c r="H44" s="176"/>
-      <c r="I44" s="157"/>
-      <c r="J44" s="159"/>
-      <c r="K44" s="70" t="s">
-        <v>217</v>
-      </c>
       <c r="L44" s="94" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="A45" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="B45" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="C45" s="196" t="s">
         <v>184</v>
       </c>
-      <c r="B45" s="19" t="s">
-        <v>183</v>
-      </c>
-      <c r="C45" s="175" t="s">
-        <v>185</v>
-      </c>
-      <c r="D45" s="175"/>
-      <c r="E45" s="175"/>
-      <c r="F45" s="175"/>
-      <c r="G45" s="175"/>
-      <c r="H45" s="175"/>
+      <c r="D45" s="196"/>
+      <c r="E45" s="196"/>
+      <c r="F45" s="196"/>
+      <c r="G45" s="196"/>
+      <c r="H45" s="196"/>
       <c r="I45" s="42" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="J45" s="54"/>
       <c r="K45" s="40" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="L45" s="40" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="300" customHeight="1" x14ac:dyDescent="0.25">
@@ -7150,27 +7151,27 @@
         <v>93</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="E46" s="30" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="F46" s="30" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="G46" s="30" t="s">
         <v>92</v>
       </c>
       <c r="H46" s="72" t="s">
-        <v>397</v>
-      </c>
-      <c r="I46" s="157"/>
-      <c r="J46" s="159"/>
+        <v>395</v>
+      </c>
+      <c r="I46" s="167"/>
+      <c r="J46" s="169"/>
       <c r="K46" s="40" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="L46" s="40" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="47" spans="1:12" ht="285" x14ac:dyDescent="0.25">
@@ -7185,22 +7186,22 @@
       </c>
       <c r="D47" s="43"/>
       <c r="E47" s="91" t="s">
+        <v>392</v>
+      </c>
+      <c r="F47" s="17" t="s">
+        <v>393</v>
+      </c>
+      <c r="G47" s="17" t="s">
         <v>394</v>
       </c>
-      <c r="F47" s="17" t="s">
-        <v>395</v>
-      </c>
-      <c r="G47" s="17" t="s">
-        <v>396</v>
-      </c>
-      <c r="H47" s="157"/>
-      <c r="I47" s="158"/>
-      <c r="J47" s="159"/>
+      <c r="H47" s="167"/>
+      <c r="I47" s="168"/>
+      <c r="J47" s="169"/>
       <c r="K47" s="40" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="L47" s="40" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="48" spans="1:12" ht="240" x14ac:dyDescent="0.25">
@@ -7210,20 +7211,20 @@
       <c r="B48" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="C48" s="221"/>
-      <c r="D48" s="158"/>
+      <c r="C48" s="215"/>
+      <c r="D48" s="168"/>
       <c r="E48" s="42" t="s">
-        <v>229</v>
-      </c>
-      <c r="F48" s="157"/>
-      <c r="G48" s="158"/>
-      <c r="H48" s="158"/>
-      <c r="I48" s="159"/>
+        <v>228</v>
+      </c>
+      <c r="F48" s="167"/>
+      <c r="G48" s="168"/>
+      <c r="H48" s="168"/>
+      <c r="I48" s="169"/>
       <c r="J48" s="40" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="K48" s="40" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L48" s="40"/>
     </row>
@@ -7235,161 +7236,161 @@
         <v>85</v>
       </c>
       <c r="C49" s="33" t="s">
-        <v>300</v>
-      </c>
-      <c r="D49" s="171"/>
-      <c r="E49" s="172"/>
-      <c r="F49" s="172"/>
-      <c r="G49" s="173"/>
+        <v>298</v>
+      </c>
+      <c r="D49" s="164"/>
+      <c r="E49" s="165"/>
+      <c r="F49" s="165"/>
+      <c r="G49" s="166"/>
       <c r="H49" s="17" t="s">
         <v>177</v>
       </c>
       <c r="I49" s="22" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="J49" s="69" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="K49" s="40" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="L49" s="93" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="M49" s="6"/>
     </row>
     <row r="50" spans="1:13" ht="210" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="228" t="s">
+      <c r="A50" s="192" t="s">
         <v>84</v>
       </c>
-      <c r="B50" s="231" t="s">
+      <c r="B50" s="194" t="s">
         <v>83</v>
       </c>
-      <c r="C50" s="174" t="s">
+      <c r="C50" s="212" t="s">
+        <v>297</v>
+      </c>
+      <c r="D50" s="196"/>
+      <c r="E50" s="42" t="s">
         <v>299</v>
       </c>
-      <c r="D50" s="175"/>
-      <c r="E50" s="42" t="s">
-        <v>301</v>
-      </c>
-      <c r="F50" s="175" t="s">
-        <v>298</v>
-      </c>
-      <c r="G50" s="175"/>
-      <c r="H50" s="176"/>
+      <c r="F50" s="196" t="s">
+        <v>296</v>
+      </c>
+      <c r="G50" s="196"/>
+      <c r="H50" s="183"/>
       <c r="I50" s="40" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="J50" s="40" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K50" s="42" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="L50" s="10"/>
     </row>
     <row r="51" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="229"/>
-      <c r="B51" s="177"/>
-      <c r="C51" s="166" t="s">
+      <c r="A51" s="193"/>
+      <c r="B51" s="195"/>
+      <c r="C51" s="159" t="s">
         <v>82</v>
       </c>
-      <c r="D51" s="167"/>
-      <c r="E51" s="167"/>
-      <c r="F51" s="167"/>
-      <c r="G51" s="167"/>
-      <c r="H51" s="167"/>
-      <c r="I51" s="167"/>
-      <c r="J51" s="167"/>
-      <c r="K51" s="167"/>
-      <c r="L51" s="168"/>
+      <c r="D51" s="160"/>
+      <c r="E51" s="160"/>
+      <c r="F51" s="160"/>
+      <c r="G51" s="160"/>
+      <c r="H51" s="160"/>
+      <c r="I51" s="160"/>
+      <c r="J51" s="160"/>
+      <c r="K51" s="160"/>
+      <c r="L51" s="161"/>
     </row>
     <row r="52" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="230" t="s">
-        <v>189</v>
-      </c>
-      <c r="B52" s="231" t="s">
-        <v>197</v>
-      </c>
-      <c r="C52" s="218" t="s">
-        <v>191</v>
-      </c>
-      <c r="D52" s="219"/>
-      <c r="E52" s="219"/>
-      <c r="F52" s="219"/>
-      <c r="G52" s="219"/>
-      <c r="H52" s="219"/>
-      <c r="I52" s="219"/>
-      <c r="J52" s="219"/>
-      <c r="K52" s="219"/>
-      <c r="L52" s="220"/>
+      <c r="A52" s="198" t="s">
+        <v>188</v>
+      </c>
+      <c r="B52" s="194" t="s">
+        <v>196</v>
+      </c>
+      <c r="C52" s="199" t="s">
+        <v>190</v>
+      </c>
+      <c r="D52" s="200"/>
+      <c r="E52" s="200"/>
+      <c r="F52" s="200"/>
+      <c r="G52" s="200"/>
+      <c r="H52" s="200"/>
+      <c r="I52" s="200"/>
+      <c r="J52" s="200"/>
+      <c r="K52" s="200"/>
+      <c r="L52" s="187"/>
     </row>
     <row r="53" spans="1:13" ht="300" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="229"/>
-      <c r="B53" s="218"/>
+      <c r="A53" s="193"/>
+      <c r="B53" s="199"/>
       <c r="C53" s="35" t="s">
+        <v>191</v>
+      </c>
+      <c r="D53" s="27" t="s">
         <v>192</v>
       </c>
-      <c r="D53" s="27" t="s">
+      <c r="E53" s="27" t="s">
         <v>193</v>
       </c>
-      <c r="E53" s="27" t="s">
+      <c r="F53" s="27" t="s">
         <v>194</v>
       </c>
-      <c r="F53" s="27" t="s">
-        <v>195</v>
-      </c>
       <c r="G53" s="27" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H53" s="36" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="I53" s="42" t="s">
-        <v>514</v>
-      </c>
-      <c r="J53" s="212"/>
+        <v>512</v>
+      </c>
+      <c r="J53" s="208"/>
       <c r="K53" s="40" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="L53" s="40" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="54" spans="1:13" ht="352.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="24" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B54" s="31" t="s">
+        <v>197</v>
+      </c>
+      <c r="C54" s="35" t="s">
+        <v>199</v>
+      </c>
+      <c r="D54" s="27" t="s">
+        <v>200</v>
+      </c>
+      <c r="E54" s="27" t="s">
+        <v>201</v>
+      </c>
+      <c r="F54" s="27" t="s">
         <v>198</v>
       </c>
-      <c r="C54" s="35" t="s">
-        <v>200</v>
-      </c>
-      <c r="D54" s="27" t="s">
-        <v>201</v>
-      </c>
-      <c r="E54" s="27" t="s">
-        <v>202</v>
-      </c>
-      <c r="F54" s="27" t="s">
-        <v>199</v>
-      </c>
       <c r="G54" s="27" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H54" s="36" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="I54" s="42" t="s">
-        <v>310</v>
-      </c>
-      <c r="J54" s="213"/>
+        <v>308</v>
+      </c>
+      <c r="J54" s="209"/>
       <c r="K54" s="40" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="L54" s="40" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="55" spans="1:13" ht="135" customHeight="1" x14ac:dyDescent="0.25">
@@ -7406,7 +7407,7 @@
         <v>78</v>
       </c>
       <c r="E55" s="30" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="F55" s="30" t="s">
         <v>77</v>
@@ -7415,113 +7416,113 @@
         <v>76</v>
       </c>
       <c r="H55" s="37" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I55" s="10"/>
       <c r="J55" s="42" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K55" s="40" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="L55" s="34" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="56" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="228" t="s">
+      <c r="A56" s="192" t="s">
         <v>75</v>
       </c>
-      <c r="B56" s="223" t="s">
+      <c r="B56" s="197" t="s">
         <v>74</v>
       </c>
-      <c r="C56" s="216" t="s">
-        <v>404</v>
-      </c>
-      <c r="D56" s="217"/>
-      <c r="E56" s="217"/>
-      <c r="F56" s="217"/>
-      <c r="G56" s="217"/>
-      <c r="H56" s="217"/>
-      <c r="I56" s="217"/>
-      <c r="J56" s="217"/>
-      <c r="K56" s="217"/>
-      <c r="L56" s="217"/>
+      <c r="C56" s="214" t="s">
+        <v>402</v>
+      </c>
+      <c r="D56" s="184"/>
+      <c r="E56" s="184"/>
+      <c r="F56" s="184"/>
+      <c r="G56" s="184"/>
+      <c r="H56" s="184"/>
+      <c r="I56" s="184"/>
+      <c r="J56" s="184"/>
+      <c r="K56" s="184"/>
+      <c r="L56" s="184"/>
     </row>
     <row r="57" spans="1:13" ht="195" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="229"/>
-      <c r="B57" s="177"/>
+      <c r="A57" s="193"/>
+      <c r="B57" s="195"/>
       <c r="C57" s="104" t="s">
+        <v>236</v>
+      </c>
+      <c r="D57" s="90" t="s">
+        <v>235</v>
+      </c>
+      <c r="E57" s="90" t="s">
+        <v>234</v>
+      </c>
+      <c r="F57" s="90" t="s">
         <v>238</v>
       </c>
-      <c r="D57" s="90" t="s">
+      <c r="G57" s="90" t="s">
         <v>237</v>
       </c>
-      <c r="E57" s="90" t="s">
-        <v>236</v>
-      </c>
-      <c r="F57" s="90" t="s">
+      <c r="H57" s="105" t="s">
         <v>240</v>
-      </c>
-      <c r="G57" s="90" t="s">
-        <v>239</v>
-      </c>
-      <c r="H57" s="105" t="s">
-        <v>242</v>
       </c>
       <c r="I57" s="60"/>
       <c r="J57" s="90" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K57" s="107"/>
       <c r="L57" s="108" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="58" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="228" t="s">
+      <c r="A58" s="192" t="s">
         <v>73</v>
       </c>
-      <c r="B58" s="223" t="s">
+      <c r="B58" s="197" t="s">
         <v>72</v>
       </c>
-      <c r="C58" s="216" t="s">
-        <v>405</v>
-      </c>
-      <c r="D58" s="217"/>
-      <c r="E58" s="217"/>
-      <c r="F58" s="217"/>
-      <c r="G58" s="217"/>
-      <c r="H58" s="217"/>
-      <c r="I58" s="217"/>
-      <c r="J58" s="217"/>
-      <c r="K58" s="217"/>
-      <c r="L58" s="217"/>
+      <c r="C58" s="214" t="s">
+        <v>403</v>
+      </c>
+      <c r="D58" s="184"/>
+      <c r="E58" s="184"/>
+      <c r="F58" s="184"/>
+      <c r="G58" s="184"/>
+      <c r="H58" s="184"/>
+      <c r="I58" s="184"/>
+      <c r="J58" s="184"/>
+      <c r="K58" s="184"/>
+      <c r="L58" s="184"/>
     </row>
     <row r="59" spans="1:13" ht="326.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="229"/>
-      <c r="B59" s="177"/>
+      <c r="A59" s="193"/>
+      <c r="B59" s="195"/>
       <c r="C59" s="109" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="D59" s="13"/>
       <c r="E59" s="121" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="F59" s="121" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="G59" s="13"/>
       <c r="H59" s="34" t="s">
-        <v>482</v>
-      </c>
-      <c r="I59" s="215"/>
-      <c r="J59" s="209"/>
+        <v>480</v>
+      </c>
+      <c r="I59" s="174"/>
+      <c r="J59" s="175"/>
       <c r="K59" s="108" t="s">
-        <v>235</v>
+        <v>558</v>
       </c>
       <c r="L59" s="88" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="60" spans="1:13" ht="195" customHeight="1" x14ac:dyDescent="0.25">
@@ -7549,15 +7550,15 @@
       <c r="H60" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="I60" s="222"/>
+      <c r="I60" s="216"/>
       <c r="J60" s="40" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="K60" s="40" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="L60" s="40" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="61" spans="1:13" ht="105" customHeight="1" x14ac:dyDescent="0.25">
@@ -7585,15 +7586,15 @@
       <c r="H61" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="I61" s="213"/>
+      <c r="I61" s="209"/>
       <c r="J61" s="40" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="K61" s="40" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="L61" s="40" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="62" spans="1:13" ht="360" x14ac:dyDescent="0.25">
@@ -7604,25 +7605,25 @@
         <v>52</v>
       </c>
       <c r="C62" s="18" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E62" s="17" t="s">
-        <v>181</v>
-      </c>
-      <c r="F62" s="171"/>
-      <c r="G62" s="173"/>
+        <v>180</v>
+      </c>
+      <c r="F62" s="164"/>
+      <c r="G62" s="166"/>
       <c r="H62" s="23" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I62" s="71" t="s">
-        <v>312</v>
-      </c>
-      <c r="J62" s="212"/>
+        <v>310</v>
+      </c>
+      <c r="J62" s="208"/>
       <c r="K62" s="7" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="L62" s="95"/>
     </row>
@@ -7649,21 +7650,94 @@
         <v>45</v>
       </c>
       <c r="H63" s="23" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I63" s="42" t="s">
-        <v>320</v>
-      </c>
-      <c r="J63" s="213"/>
+        <v>318</v>
+      </c>
+      <c r="J63" s="209"/>
       <c r="K63" s="40" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="L63" s="40" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="89">
+    <mergeCell ref="C33:L33"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="C20:L20"/>
+    <mergeCell ref="C3:L3"/>
+    <mergeCell ref="C9:L9"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="C12:H12"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C2:J2"/>
+    <mergeCell ref="K13:L18"/>
+    <mergeCell ref="C19:L19"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="C4:L4"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C8:J8"/>
+    <mergeCell ref="C10:J10"/>
+    <mergeCell ref="D14:H14"/>
+    <mergeCell ref="C11:H11"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="I11:J12"/>
+    <mergeCell ref="C17:J17"/>
+    <mergeCell ref="J62:J63"/>
+    <mergeCell ref="J53:J54"/>
+    <mergeCell ref="C44:H44"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="I43:J44"/>
+    <mergeCell ref="C43:H43"/>
+    <mergeCell ref="C58:L58"/>
+    <mergeCell ref="C51:L51"/>
+    <mergeCell ref="C52:L52"/>
+    <mergeCell ref="C56:L56"/>
+    <mergeCell ref="F62:G62"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="F48:I48"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="F50:H50"/>
+    <mergeCell ref="I60:I61"/>
+    <mergeCell ref="C38:L38"/>
+    <mergeCell ref="C39:L39"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="C40:J40"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="C25:J25"/>
+    <mergeCell ref="K23:K25"/>
+    <mergeCell ref="C26:L26"/>
+    <mergeCell ref="C27:L27"/>
+    <mergeCell ref="C28:L28"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="D49:G49"/>
+    <mergeCell ref="C45:H45"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="I46:J46"/>
     <mergeCell ref="I59:J59"/>
     <mergeCell ref="A36:A37"/>
     <mergeCell ref="B36:B37"/>
@@ -7680,79 +7754,6 @@
     <mergeCell ref="C36:L36"/>
     <mergeCell ref="C35:I35"/>
     <mergeCell ref="A50:A51"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="D49:G49"/>
-    <mergeCell ref="C45:H45"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="I46:J46"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="C38:L38"/>
-    <mergeCell ref="C39:L39"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="C40:J40"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="C25:J25"/>
-    <mergeCell ref="K23:K25"/>
-    <mergeCell ref="C26:L26"/>
-    <mergeCell ref="C27:L27"/>
-    <mergeCell ref="C28:L28"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="J62:J63"/>
-    <mergeCell ref="J53:J54"/>
-    <mergeCell ref="C44:H44"/>
-    <mergeCell ref="K42:L42"/>
-    <mergeCell ref="I43:J44"/>
-    <mergeCell ref="C43:H43"/>
-    <mergeCell ref="C58:L58"/>
-    <mergeCell ref="C51:L51"/>
-    <mergeCell ref="C52:L52"/>
-    <mergeCell ref="C56:L56"/>
-    <mergeCell ref="F62:G62"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="F48:I48"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="F50:H50"/>
-    <mergeCell ref="I60:I61"/>
-    <mergeCell ref="C2:J2"/>
-    <mergeCell ref="K13:L18"/>
-    <mergeCell ref="C19:L19"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="C4:L4"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="D7:G7"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C8:J8"/>
-    <mergeCell ref="C10:J10"/>
-    <mergeCell ref="D14:H14"/>
-    <mergeCell ref="C11:H11"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="I11:J12"/>
-    <mergeCell ref="C17:J17"/>
-    <mergeCell ref="C3:L3"/>
-    <mergeCell ref="C9:L9"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="C12:H12"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C33:L33"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="C20:L20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7764,7 +7765,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:XFB56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+    <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="D5" sqref="D5:L5"/>
@@ -7783,16 +7784,16 @@
   <sheetData>
     <row r="1" spans="1:14" s="15" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="55" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B1" s="122" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C1" s="122" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D1" s="122" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E1" s="122" t="s">
         <v>44</v>
@@ -7810,498 +7811,498 @@
         <v>40</v>
       </c>
       <c r="J1" s="122" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="K1" s="122" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="L1" s="122" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="M1" s="122" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="2" spans="1:14" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="254" t="s">
-        <v>372</v>
-      </c>
-      <c r="B2" s="252" t="s">
-        <v>373</v>
+      <c r="A2" s="267" t="s">
+        <v>370</v>
+      </c>
+      <c r="B2" s="265" t="s">
+        <v>371</v>
       </c>
       <c r="C2" s="123">
         <v>1</v>
       </c>
-      <c r="D2" s="257" t="s">
-        <v>554</v>
-      </c>
-      <c r="E2" s="257"/>
-      <c r="F2" s="257"/>
-      <c r="G2" s="257"/>
-      <c r="H2" s="257"/>
-      <c r="I2" s="257"/>
-      <c r="J2" s="257"/>
-      <c r="K2" s="257"/>
-      <c r="L2" s="257"/>
-      <c r="M2" s="258"/>
+      <c r="D2" s="262" t="s">
+        <v>552</v>
+      </c>
+      <c r="E2" s="262"/>
+      <c r="F2" s="262"/>
+      <c r="G2" s="262"/>
+      <c r="H2" s="262"/>
+      <c r="I2" s="262"/>
+      <c r="J2" s="262"/>
+      <c r="K2" s="262"/>
+      <c r="L2" s="262"/>
+      <c r="M2" s="263"/>
     </row>
     <row r="3" spans="1:14" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="184"/>
-      <c r="B3" s="251"/>
+      <c r="A3" s="237"/>
+      <c r="B3" s="257"/>
       <c r="C3" s="124">
         <v>2</v>
       </c>
-      <c r="D3" s="259" t="s">
-        <v>526</v>
-      </c>
-      <c r="E3" s="259"/>
-      <c r="F3" s="259"/>
-      <c r="G3" s="259"/>
-      <c r="H3" s="259"/>
-      <c r="I3" s="259"/>
-      <c r="J3" s="259"/>
-      <c r="K3" s="259"/>
-      <c r="L3" s="259"/>
-      <c r="M3" s="259"/>
+      <c r="D3" s="264" t="s">
+        <v>524</v>
+      </c>
+      <c r="E3" s="264"/>
+      <c r="F3" s="264"/>
+      <c r="G3" s="264"/>
+      <c r="H3" s="264"/>
+      <c r="I3" s="264"/>
+      <c r="J3" s="264"/>
+      <c r="K3" s="264"/>
+      <c r="L3" s="264"/>
+      <c r="M3" s="264"/>
       <c r="N3" s="78"/>
     </row>
     <row r="4" spans="1:14" s="15" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="184"/>
-      <c r="B4" s="251"/>
+      <c r="A4" s="237"/>
+      <c r="B4" s="257"/>
       <c r="C4" s="124">
         <v>3</v>
       </c>
       <c r="D4" s="98" t="s">
+        <v>372</v>
+      </c>
+      <c r="E4" s="85" t="s">
+        <v>478</v>
+      </c>
+      <c r="F4" s="85" t="s">
+        <v>442</v>
+      </c>
+      <c r="G4" s="42" t="s">
         <v>374</v>
       </c>
-      <c r="E4" s="85" t="s">
-        <v>480</v>
-      </c>
-      <c r="F4" s="85" t="s">
-        <v>444</v>
-      </c>
-      <c r="G4" s="42" t="s">
-        <v>376</v>
-      </c>
       <c r="H4" s="102" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="I4" s="44" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="J4" s="98" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="K4" s="44"/>
       <c r="L4" s="85" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="M4" s="85" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="178"/>
-      <c r="B5" s="253"/>
+      <c r="A5" s="241"/>
+      <c r="B5" s="266"/>
       <c r="C5" s="130">
         <v>4</v>
       </c>
-      <c r="D5" s="250"/>
-      <c r="E5" s="250"/>
-      <c r="F5" s="250"/>
-      <c r="G5" s="250"/>
-      <c r="H5" s="250"/>
-      <c r="I5" s="250"/>
-      <c r="J5" s="250"/>
-      <c r="K5" s="250"/>
+      <c r="D5" s="249"/>
+      <c r="E5" s="249"/>
+      <c r="F5" s="249"/>
+      <c r="G5" s="249"/>
+      <c r="H5" s="249"/>
+      <c r="I5" s="249"/>
+      <c r="J5" s="249"/>
+      <c r="K5" s="249"/>
       <c r="L5" s="207"/>
       <c r="M5" s="42" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="6" spans="1:14" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="184" t="s">
+      <c r="A6" s="237" t="s">
         <v>170</v>
       </c>
-      <c r="B6" s="251" t="s">
-        <v>259</v>
+      <c r="B6" s="257" t="s">
+        <v>257</v>
       </c>
       <c r="C6" s="131">
         <v>1</v>
       </c>
-      <c r="D6" s="244" t="s">
-        <v>517</v>
-      </c>
-      <c r="E6" s="244"/>
-      <c r="F6" s="244"/>
-      <c r="G6" s="244"/>
-      <c r="H6" s="244"/>
-      <c r="I6" s="244"/>
-      <c r="J6" s="244"/>
-      <c r="K6" s="244"/>
-      <c r="L6" s="244"/>
-      <c r="M6" s="242"/>
+      <c r="D6" s="251" t="s">
+        <v>515</v>
+      </c>
+      <c r="E6" s="251"/>
+      <c r="F6" s="251"/>
+      <c r="G6" s="251"/>
+      <c r="H6" s="251"/>
+      <c r="I6" s="251"/>
+      <c r="J6" s="251"/>
+      <c r="K6" s="251"/>
+      <c r="L6" s="251"/>
+      <c r="M6" s="252"/>
     </row>
     <row r="7" spans="1:14" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="184"/>
-      <c r="B7" s="251"/>
+      <c r="A7" s="237"/>
+      <c r="B7" s="257"/>
       <c r="C7" s="124">
         <v>2</v>
       </c>
-      <c r="D7" s="245" t="s">
-        <v>525</v>
-      </c>
-      <c r="E7" s="245"/>
-      <c r="F7" s="245"/>
-      <c r="G7" s="245"/>
-      <c r="H7" s="245"/>
-      <c r="I7" s="245"/>
-      <c r="J7" s="245"/>
-      <c r="K7" s="245"/>
-      <c r="L7" s="245"/>
-      <c r="M7" s="246"/>
+      <c r="D7" s="253" t="s">
+        <v>523</v>
+      </c>
+      <c r="E7" s="253"/>
+      <c r="F7" s="253"/>
+      <c r="G7" s="253"/>
+      <c r="H7" s="253"/>
+      <c r="I7" s="253"/>
+      <c r="J7" s="253"/>
+      <c r="K7" s="253"/>
+      <c r="L7" s="253"/>
+      <c r="M7" s="254"/>
     </row>
     <row r="8" spans="1:14" s="15" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="184"/>
-      <c r="B8" s="251"/>
+      <c r="A8" s="237"/>
+      <c r="B8" s="257"/>
       <c r="C8" s="124">
         <v>3</v>
       </c>
       <c r="D8" s="98" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E8" s="119" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="F8" s="113" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="G8" s="102" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="H8" s="102" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="I8" s="102" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="J8" s="101" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="K8" s="102"/>
       <c r="L8" s="100" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="M8" s="112" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="178"/>
-      <c r="B9" s="253"/>
+      <c r="A9" s="241"/>
+      <c r="B9" s="266"/>
       <c r="C9" s="125">
         <v>4</v>
       </c>
-      <c r="D9" s="250"/>
+      <c r="D9" s="249"/>
       <c r="E9" s="207"/>
       <c r="F9" s="97" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G9" s="206"/>
-      <c r="H9" s="250"/>
-      <c r="I9" s="250"/>
-      <c r="J9" s="250"/>
-      <c r="K9" s="250"/>
-      <c r="L9" s="250"/>
+      <c r="H9" s="249"/>
+      <c r="I9" s="249"/>
+      <c r="J9" s="249"/>
+      <c r="K9" s="249"/>
+      <c r="L9" s="249"/>
       <c r="M9" s="207"/>
     </row>
     <row r="10" spans="1:14" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="255" t="s">
+      <c r="A10" s="268" t="s">
         <v>169</v>
       </c>
-      <c r="B10" s="256" t="s">
-        <v>260</v>
+      <c r="B10" s="269" t="s">
+        <v>258</v>
       </c>
       <c r="C10" s="131">
         <v>1</v>
       </c>
-      <c r="D10" s="244" t="s">
-        <v>518</v>
-      </c>
-      <c r="E10" s="244"/>
-      <c r="F10" s="244"/>
-      <c r="G10" s="244"/>
-      <c r="H10" s="244"/>
-      <c r="I10" s="244"/>
-      <c r="J10" s="244"/>
-      <c r="K10" s="244"/>
-      <c r="L10" s="244"/>
-      <c r="M10" s="242"/>
+      <c r="D10" s="251" t="s">
+        <v>516</v>
+      </c>
+      <c r="E10" s="251"/>
+      <c r="F10" s="251"/>
+      <c r="G10" s="251"/>
+      <c r="H10" s="251"/>
+      <c r="I10" s="251"/>
+      <c r="J10" s="251"/>
+      <c r="K10" s="251"/>
+      <c r="L10" s="251"/>
+      <c r="M10" s="252"/>
     </row>
     <row r="11" spans="1:14" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="184"/>
-      <c r="B11" s="251"/>
+      <c r="A11" s="237"/>
+      <c r="B11" s="257"/>
       <c r="C11" s="124">
         <v>2</v>
       </c>
-      <c r="D11" s="245" t="s">
-        <v>527</v>
-      </c>
-      <c r="E11" s="245"/>
-      <c r="F11" s="245"/>
-      <c r="G11" s="245"/>
-      <c r="H11" s="245"/>
-      <c r="I11" s="245"/>
-      <c r="J11" s="245"/>
-      <c r="K11" s="245"/>
-      <c r="L11" s="245"/>
-      <c r="M11" s="246"/>
+      <c r="D11" s="253" t="s">
+        <v>525</v>
+      </c>
+      <c r="E11" s="253"/>
+      <c r="F11" s="253"/>
+      <c r="G11" s="253"/>
+      <c r="H11" s="253"/>
+      <c r="I11" s="253"/>
+      <c r="J11" s="253"/>
+      <c r="K11" s="253"/>
+      <c r="L11" s="253"/>
+      <c r="M11" s="254"/>
     </row>
     <row r="12" spans="1:14" s="15" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="184"/>
-      <c r="B12" s="251"/>
+      <c r="A12" s="237"/>
+      <c r="B12" s="257"/>
       <c r="C12" s="124">
         <v>3</v>
       </c>
       <c r="D12" s="81" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E12" s="119" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F12" s="44" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G12" s="42" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="H12" s="102" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I12" s="85" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="J12" s="101" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="K12" s="100"/>
       <c r="L12" s="100" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="M12" s="112" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="162"/>
-      <c r="B13" s="227"/>
+      <c r="A13" s="155"/>
+      <c r="B13" s="211"/>
       <c r="C13" s="125">
         <v>4</v>
       </c>
-      <c r="D13" s="250"/>
-      <c r="E13" s="250"/>
-      <c r="F13" s="250"/>
-      <c r="G13" s="250"/>
+      <c r="D13" s="249"/>
+      <c r="E13" s="249"/>
+      <c r="F13" s="249"/>
+      <c r="G13" s="249"/>
       <c r="H13" s="207"/>
       <c r="I13" s="88" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="J13" s="206"/>
-      <c r="K13" s="250"/>
-      <c r="L13" s="250"/>
+      <c r="K13" s="249"/>
+      <c r="L13" s="249"/>
       <c r="M13" s="207"/>
     </row>
     <row r="14" spans="1:14" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="161" t="s">
+      <c r="A14" s="154" t="s">
         <v>168</v>
       </c>
-      <c r="B14" s="226" t="s">
-        <v>261</v>
+      <c r="B14" s="210" t="s">
+        <v>259</v>
       </c>
       <c r="C14" s="131">
         <v>1</v>
       </c>
-      <c r="D14" s="244" t="s">
-        <v>519</v>
-      </c>
-      <c r="E14" s="244"/>
-      <c r="F14" s="244"/>
-      <c r="G14" s="244"/>
-      <c r="H14" s="244"/>
-      <c r="I14" s="244"/>
-      <c r="J14" s="244"/>
-      <c r="K14" s="244"/>
-      <c r="L14" s="244"/>
-      <c r="M14" s="242"/>
+      <c r="D14" s="251" t="s">
+        <v>517</v>
+      </c>
+      <c r="E14" s="251"/>
+      <c r="F14" s="251"/>
+      <c r="G14" s="251"/>
+      <c r="H14" s="251"/>
+      <c r="I14" s="251"/>
+      <c r="J14" s="251"/>
+      <c r="K14" s="251"/>
+      <c r="L14" s="251"/>
+      <c r="M14" s="252"/>
     </row>
     <row r="15" spans="1:14" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="184"/>
-      <c r="B15" s="251"/>
+      <c r="A15" s="237"/>
+      <c r="B15" s="257"/>
       <c r="C15" s="124">
         <v>2</v>
       </c>
-      <c r="D15" s="245" t="s">
-        <v>463</v>
-      </c>
-      <c r="E15" s="245"/>
-      <c r="F15" s="245"/>
-      <c r="G15" s="245"/>
-      <c r="H15" s="245"/>
-      <c r="I15" s="245"/>
-      <c r="J15" s="245"/>
-      <c r="K15" s="245"/>
-      <c r="L15" s="245"/>
-      <c r="M15" s="246"/>
+      <c r="D15" s="253" t="s">
+        <v>461</v>
+      </c>
+      <c r="E15" s="253"/>
+      <c r="F15" s="253"/>
+      <c r="G15" s="253"/>
+      <c r="H15" s="253"/>
+      <c r="I15" s="253"/>
+      <c r="J15" s="253"/>
+      <c r="K15" s="253"/>
+      <c r="L15" s="253"/>
+      <c r="M15" s="254"/>
     </row>
     <row r="16" spans="1:14" s="15" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="184"/>
-      <c r="B16" s="251"/>
+      <c r="A16" s="237"/>
+      <c r="B16" s="257"/>
       <c r="C16" s="124">
         <v>3</v>
       </c>
       <c r="D16" s="81" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="E16" s="119" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="F16" s="44" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G16" s="42" t="s">
+        <v>412</v>
+      </c>
+      <c r="H16" s="102" t="s">
+        <v>436</v>
+      </c>
+      <c r="I16" s="100" t="s">
+        <v>535</v>
+      </c>
+      <c r="J16" s="101" t="s">
         <v>414</v>
-      </c>
-      <c r="H16" s="102" t="s">
-        <v>438</v>
-      </c>
-      <c r="I16" s="100" t="s">
-        <v>537</v>
-      </c>
-      <c r="J16" s="101" t="s">
-        <v>416</v>
       </c>
       <c r="K16" s="100"/>
       <c r="L16" s="100" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="M16" s="112" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="17" spans="1:16382" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="162"/>
-      <c r="B17" s="227"/>
+      <c r="A17" s="155"/>
+      <c r="B17" s="211"/>
       <c r="C17" s="125">
         <v>4</v>
       </c>
-      <c r="D17" s="250"/>
-      <c r="E17" s="250"/>
+      <c r="D17" s="249"/>
+      <c r="E17" s="249"/>
       <c r="F17" s="207"/>
       <c r="G17" s="88" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="H17" s="206"/>
-      <c r="I17" s="250"/>
-      <c r="J17" s="250"/>
-      <c r="K17" s="250"/>
-      <c r="L17" s="250"/>
+      <c r="I17" s="249"/>
+      <c r="J17" s="249"/>
+      <c r="K17" s="249"/>
+      <c r="L17" s="249"/>
       <c r="M17" s="207"/>
     </row>
     <row r="18" spans="1:16382" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="161" t="s">
+      <c r="A18" s="154" t="s">
         <v>167</v>
       </c>
-      <c r="B18" s="226" t="s">
-        <v>262</v>
+      <c r="B18" s="210" t="s">
+        <v>260</v>
       </c>
       <c r="C18" s="131">
         <v>1</v>
       </c>
-      <c r="D18" s="244" t="s">
-        <v>520</v>
-      </c>
-      <c r="E18" s="244"/>
-      <c r="F18" s="244"/>
-      <c r="G18" s="244"/>
-      <c r="H18" s="244"/>
-      <c r="I18" s="244"/>
-      <c r="J18" s="244"/>
-      <c r="K18" s="244"/>
-      <c r="L18" s="244"/>
-      <c r="M18" s="242"/>
+      <c r="D18" s="251" t="s">
+        <v>518</v>
+      </c>
+      <c r="E18" s="251"/>
+      <c r="F18" s="251"/>
+      <c r="G18" s="251"/>
+      <c r="H18" s="251"/>
+      <c r="I18" s="251"/>
+      <c r="J18" s="251"/>
+      <c r="K18" s="251"/>
+      <c r="L18" s="251"/>
+      <c r="M18" s="252"/>
     </row>
     <row r="19" spans="1:16382" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="184"/>
-      <c r="B19" s="251"/>
+      <c r="A19" s="237"/>
+      <c r="B19" s="257"/>
       <c r="C19" s="124">
         <v>2</v>
       </c>
-      <c r="D19" s="245" t="s">
-        <v>464</v>
-      </c>
-      <c r="E19" s="245"/>
-      <c r="F19" s="245"/>
-      <c r="G19" s="245"/>
-      <c r="H19" s="245"/>
-      <c r="I19" s="245"/>
-      <c r="J19" s="245"/>
-      <c r="K19" s="245"/>
-      <c r="L19" s="245"/>
-      <c r="M19" s="246"/>
+      <c r="D19" s="253" t="s">
+        <v>462</v>
+      </c>
+      <c r="E19" s="253"/>
+      <c r="F19" s="253"/>
+      <c r="G19" s="253"/>
+      <c r="H19" s="253"/>
+      <c r="I19" s="253"/>
+      <c r="J19" s="253"/>
+      <c r="K19" s="253"/>
+      <c r="L19" s="253"/>
+      <c r="M19" s="254"/>
     </row>
     <row r="20" spans="1:16382" s="15" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="184"/>
-      <c r="B20" s="251"/>
+      <c r="A20" s="237"/>
+      <c r="B20" s="257"/>
       <c r="C20" s="124">
         <v>3</v>
       </c>
       <c r="D20" s="81" t="s">
+        <v>404</v>
+      </c>
+      <c r="E20" s="119" t="s">
+        <v>529</v>
+      </c>
+      <c r="F20" s="100" t="s">
+        <v>441</v>
+      </c>
+      <c r="G20" s="100" t="s">
+        <v>405</v>
+      </c>
+      <c r="H20" s="102" t="s">
+        <v>456</v>
+      </c>
+      <c r="I20" s="100" t="s">
+        <v>536</v>
+      </c>
+      <c r="J20" s="101" t="s">
         <v>406</v>
-      </c>
-      <c r="E20" s="119" t="s">
-        <v>531</v>
-      </c>
-      <c r="F20" s="100" t="s">
-        <v>443</v>
-      </c>
-      <c r="G20" s="100" t="s">
-        <v>407</v>
-      </c>
-      <c r="H20" s="102" t="s">
-        <v>458</v>
-      </c>
-      <c r="I20" s="100" t="s">
-        <v>538</v>
-      </c>
-      <c r="J20" s="101" t="s">
-        <v>408</v>
       </c>
       <c r="K20" s="100"/>
       <c r="L20" s="100" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="M20" s="112" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="21" spans="1:16382" s="58" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="266"/>
-      <c r="B21" s="260"/>
+      <c r="A21" s="261"/>
+      <c r="B21" s="258"/>
       <c r="C21" s="125">
         <v>4</v>
       </c>
       <c r="D21" s="86"/>
       <c r="E21" s="110" t="s">
-        <v>344</v>
-      </c>
-      <c r="F21" s="247"/>
-      <c r="G21" s="248"/>
-      <c r="H21" s="248"/>
-      <c r="I21" s="248"/>
-      <c r="J21" s="248"/>
-      <c r="K21" s="248"/>
-      <c r="L21" s="248"/>
-      <c r="M21" s="249"/>
+        <v>342</v>
+      </c>
+      <c r="F21" s="271"/>
+      <c r="G21" s="272"/>
+      <c r="H21" s="272"/>
+      <c r="I21" s="272"/>
+      <c r="J21" s="272"/>
+      <c r="K21" s="272"/>
+      <c r="L21" s="272"/>
+      <c r="M21" s="273"/>
       <c r="N21" s="61"/>
       <c r="O21" s="61"/>
       <c r="P21" s="61"/>
@@ -24673,425 +24674,425 @@
       <c r="XFB21" s="61"/>
     </row>
     <row r="22" spans="1:16382" s="59" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="265" t="s">
+      <c r="A22" s="260" t="s">
         <v>166</v>
       </c>
-      <c r="B22" s="264" t="s">
-        <v>421</v>
+      <c r="B22" s="259" t="s">
+        <v>419</v>
       </c>
       <c r="C22" s="131">
         <v>1</v>
       </c>
-      <c r="D22" s="245" t="s">
-        <v>524</v>
-      </c>
-      <c r="E22" s="245"/>
-      <c r="F22" s="245"/>
-      <c r="G22" s="245"/>
-      <c r="H22" s="245"/>
-      <c r="I22" s="245"/>
-      <c r="J22" s="245"/>
-      <c r="K22" s="245"/>
-      <c r="L22" s="245"/>
-      <c r="M22" s="246"/>
+      <c r="D22" s="253" t="s">
+        <v>522</v>
+      </c>
+      <c r="E22" s="253"/>
+      <c r="F22" s="253"/>
+      <c r="G22" s="253"/>
+      <c r="H22" s="253"/>
+      <c r="I22" s="253"/>
+      <c r="J22" s="253"/>
+      <c r="K22" s="253"/>
+      <c r="L22" s="253"/>
+      <c r="M22" s="254"/>
     </row>
     <row r="23" spans="1:16382" s="59" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="262"/>
-      <c r="B23" s="185"/>
+      <c r="A23" s="246"/>
+      <c r="B23" s="179"/>
       <c r="C23" s="124">
         <v>2</v>
       </c>
-      <c r="D23" s="245" t="s">
-        <v>465</v>
-      </c>
-      <c r="E23" s="245"/>
-      <c r="F23" s="245"/>
-      <c r="G23" s="245"/>
-      <c r="H23" s="245"/>
-      <c r="I23" s="245"/>
-      <c r="J23" s="245"/>
-      <c r="K23" s="245"/>
-      <c r="L23" s="245"/>
-      <c r="M23" s="246"/>
+      <c r="D23" s="253" t="s">
+        <v>463</v>
+      </c>
+      <c r="E23" s="253"/>
+      <c r="F23" s="253"/>
+      <c r="G23" s="253"/>
+      <c r="H23" s="253"/>
+      <c r="I23" s="253"/>
+      <c r="J23" s="253"/>
+      <c r="K23" s="253"/>
+      <c r="L23" s="253"/>
+      <c r="M23" s="254"/>
     </row>
     <row r="24" spans="1:16382" s="59" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="262"/>
-      <c r="B24" s="185"/>
+      <c r="A24" s="246"/>
+      <c r="B24" s="179"/>
       <c r="C24" s="124">
         <v>3</v>
       </c>
       <c r="D24" s="84" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E24" s="119" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="F24" s="100" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="G24" s="100" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="H24" s="100" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="I24" s="100" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="J24" s="101" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="K24" s="100"/>
       <c r="L24" s="100" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="M24" s="112" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="25" spans="1:16382" s="61" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="263"/>
-      <c r="B25" s="170"/>
+      <c r="A25" s="250"/>
+      <c r="B25" s="163"/>
       <c r="C25" s="125">
         <v>4</v>
       </c>
       <c r="D25" s="87" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E25" s="206"/>
-      <c r="F25" s="250"/>
-      <c r="G25" s="250"/>
-      <c r="H25" s="250"/>
-      <c r="I25" s="250"/>
-      <c r="J25" s="250"/>
-      <c r="K25" s="250"/>
-      <c r="L25" s="250"/>
+      <c r="F25" s="249"/>
+      <c r="G25" s="249"/>
+      <c r="H25" s="249"/>
+      <c r="I25" s="249"/>
+      <c r="J25" s="249"/>
+      <c r="K25" s="249"/>
+      <c r="L25" s="249"/>
       <c r="M25" s="207"/>
     </row>
     <row r="26" spans="1:16382" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="267" t="s">
+      <c r="A26" s="248" t="s">
         <v>165</v>
       </c>
-      <c r="B26" s="169" t="s">
-        <v>422</v>
+      <c r="B26" s="162" t="s">
+        <v>420</v>
       </c>
       <c r="C26" s="131">
         <v>1</v>
       </c>
-      <c r="D26" s="244" t="s">
-        <v>523</v>
-      </c>
-      <c r="E26" s="244"/>
-      <c r="F26" s="244"/>
-      <c r="G26" s="244"/>
-      <c r="H26" s="244"/>
-      <c r="I26" s="244"/>
-      <c r="J26" s="244"/>
-      <c r="K26" s="244"/>
-      <c r="L26" s="244"/>
-      <c r="M26" s="242"/>
+      <c r="D26" s="251" t="s">
+        <v>521</v>
+      </c>
+      <c r="E26" s="251"/>
+      <c r="F26" s="251"/>
+      <c r="G26" s="251"/>
+      <c r="H26" s="251"/>
+      <c r="I26" s="251"/>
+      <c r="J26" s="251"/>
+      <c r="K26" s="251"/>
+      <c r="L26" s="251"/>
+      <c r="M26" s="252"/>
     </row>
     <row r="27" spans="1:16382" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="262"/>
-      <c r="B27" s="185"/>
+      <c r="A27" s="246"/>
+      <c r="B27" s="179"/>
       <c r="C27" s="124">
         <v>2</v>
       </c>
-      <c r="D27" s="245" t="s">
-        <v>466</v>
-      </c>
-      <c r="E27" s="245"/>
-      <c r="F27" s="245"/>
-      <c r="G27" s="245"/>
-      <c r="H27" s="245"/>
-      <c r="I27" s="245"/>
-      <c r="J27" s="245"/>
-      <c r="K27" s="245"/>
-      <c r="L27" s="245"/>
-      <c r="M27" s="246"/>
+      <c r="D27" s="253" t="s">
+        <v>464</v>
+      </c>
+      <c r="E27" s="253"/>
+      <c r="F27" s="253"/>
+      <c r="G27" s="253"/>
+      <c r="H27" s="253"/>
+      <c r="I27" s="253"/>
+      <c r="J27" s="253"/>
+      <c r="K27" s="253"/>
+      <c r="L27" s="253"/>
+      <c r="M27" s="254"/>
     </row>
     <row r="28" spans="1:16382" s="15" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="262"/>
-      <c r="B28" s="185"/>
+      <c r="A28" s="246"/>
+      <c r="B28" s="179"/>
       <c r="C28" s="124">
         <v>3</v>
       </c>
       <c r="D28" s="84" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E28" s="85" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="F28" s="100" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="G28" s="85" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="H28" s="113" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="I28" s="100" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="J28" s="100" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="K28" s="100"/>
       <c r="L28" s="100"/>
       <c r="M28" s="112" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="29" spans="1:16382" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="263"/>
-      <c r="B29" s="170"/>
+      <c r="A29" s="250"/>
+      <c r="B29" s="163"/>
       <c r="C29" s="125">
         <v>4</v>
       </c>
-      <c r="D29" s="250"/>
-      <c r="E29" s="250"/>
-      <c r="F29" s="250"/>
+      <c r="D29" s="249"/>
+      <c r="E29" s="249"/>
+      <c r="F29" s="249"/>
       <c r="G29" s="207"/>
       <c r="H29" s="79" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="I29" s="206"/>
-      <c r="J29" s="250"/>
-      <c r="K29" s="250"/>
-      <c r="L29" s="250"/>
+      <c r="J29" s="249"/>
+      <c r="K29" s="249"/>
+      <c r="L29" s="249"/>
       <c r="M29" s="207"/>
     </row>
     <row r="30" spans="1:16382" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="267" t="s">
-        <v>269</v>
-      </c>
-      <c r="B30" s="169" t="s">
-        <v>423</v>
+      <c r="A30" s="248" t="s">
+        <v>267</v>
+      </c>
+      <c r="B30" s="162" t="s">
+        <v>421</v>
       </c>
       <c r="C30" s="131">
         <v>1</v>
       </c>
-      <c r="D30" s="244" t="s">
-        <v>522</v>
-      </c>
-      <c r="E30" s="244"/>
-      <c r="F30" s="244"/>
-      <c r="G30" s="244"/>
-      <c r="H30" s="244"/>
-      <c r="I30" s="244"/>
-      <c r="J30" s="244"/>
-      <c r="K30" s="244"/>
-      <c r="L30" s="244"/>
-      <c r="M30" s="242"/>
+      <c r="D30" s="251" t="s">
+        <v>520</v>
+      </c>
+      <c r="E30" s="251"/>
+      <c r="F30" s="251"/>
+      <c r="G30" s="251"/>
+      <c r="H30" s="251"/>
+      <c r="I30" s="251"/>
+      <c r="J30" s="251"/>
+      <c r="K30" s="251"/>
+      <c r="L30" s="251"/>
+      <c r="M30" s="252"/>
     </row>
     <row r="31" spans="1:16382" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="262"/>
-      <c r="B31" s="185"/>
+      <c r="A31" s="246"/>
+      <c r="B31" s="179"/>
       <c r="C31" s="124">
         <v>2</v>
       </c>
-      <c r="D31" s="245" t="s">
-        <v>467</v>
-      </c>
-      <c r="E31" s="245"/>
-      <c r="F31" s="245"/>
-      <c r="G31" s="245"/>
-      <c r="H31" s="245"/>
-      <c r="I31" s="245"/>
-      <c r="J31" s="245"/>
-      <c r="K31" s="245"/>
-      <c r="L31" s="245"/>
-      <c r="M31" s="246"/>
+      <c r="D31" s="253" t="s">
+        <v>465</v>
+      </c>
+      <c r="E31" s="253"/>
+      <c r="F31" s="253"/>
+      <c r="G31" s="253"/>
+      <c r="H31" s="253"/>
+      <c r="I31" s="253"/>
+      <c r="J31" s="253"/>
+      <c r="K31" s="253"/>
+      <c r="L31" s="253"/>
+      <c r="M31" s="254"/>
     </row>
     <row r="32" spans="1:16382" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="262"/>
-      <c r="B32" s="185"/>
+      <c r="A32" s="246"/>
+      <c r="B32" s="179"/>
       <c r="C32" s="124">
         <v>3</v>
       </c>
       <c r="D32" s="84" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E32" s="42" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="F32" s="100" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="G32" s="42" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="H32" s="113" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="I32" s="42" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="J32" s="85" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="K32" s="42"/>
       <c r="L32" s="72" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="M32" s="112" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="33" spans="1:13" s="15" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="262"/>
-      <c r="B33" s="185"/>
+      <c r="A33" s="246"/>
+      <c r="B33" s="179"/>
       <c r="C33" s="125">
         <v>4</v>
       </c>
-      <c r="D33" s="250"/>
-      <c r="E33" s="250"/>
-      <c r="F33" s="250"/>
-      <c r="G33" s="250"/>
-      <c r="H33" s="250"/>
-      <c r="I33" s="250"/>
-      <c r="J33" s="250"/>
+      <c r="D33" s="249"/>
+      <c r="E33" s="249"/>
+      <c r="F33" s="249"/>
+      <c r="G33" s="249"/>
+      <c r="H33" s="249"/>
+      <c r="I33" s="249"/>
+      <c r="J33" s="249"/>
       <c r="K33" s="207"/>
       <c r="L33" s="44" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="M33" s="53"/>
     </row>
     <row r="34" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="261" t="s">
+      <c r="A34" s="245" t="s">
         <v>164</v>
       </c>
-      <c r="B34" s="231" t="s">
-        <v>424</v>
+      <c r="B34" s="194" t="s">
+        <v>422</v>
       </c>
       <c r="C34" s="131">
         <v>1</v>
       </c>
-      <c r="D34" s="244" t="s">
-        <v>521</v>
-      </c>
-      <c r="E34" s="244"/>
-      <c r="F34" s="244"/>
-      <c r="G34" s="244"/>
-      <c r="H34" s="244"/>
-      <c r="I34" s="244"/>
-      <c r="J34" s="244"/>
-      <c r="K34" s="244"/>
-      <c r="L34" s="244"/>
-      <c r="M34" s="242"/>
+      <c r="D34" s="251" t="s">
+        <v>519</v>
+      </c>
+      <c r="E34" s="251"/>
+      <c r="F34" s="251"/>
+      <c r="G34" s="251"/>
+      <c r="H34" s="251"/>
+      <c r="I34" s="251"/>
+      <c r="J34" s="251"/>
+      <c r="K34" s="251"/>
+      <c r="L34" s="251"/>
+      <c r="M34" s="252"/>
     </row>
     <row r="35" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="262"/>
-      <c r="B35" s="185"/>
+      <c r="A35" s="246"/>
+      <c r="B35" s="179"/>
       <c r="C35" s="124">
         <v>2</v>
       </c>
-      <c r="D35" s="245" t="s">
-        <v>468</v>
-      </c>
-      <c r="E35" s="245"/>
-      <c r="F35" s="245"/>
-      <c r="G35" s="245"/>
-      <c r="H35" s="245"/>
-      <c r="I35" s="245"/>
-      <c r="J35" s="245"/>
-      <c r="K35" s="245"/>
-      <c r="L35" s="245"/>
-      <c r="M35" s="246"/>
+      <c r="D35" s="253" t="s">
+        <v>466</v>
+      </c>
+      <c r="E35" s="253"/>
+      <c r="F35" s="253"/>
+      <c r="G35" s="253"/>
+      <c r="H35" s="253"/>
+      <c r="I35" s="253"/>
+      <c r="J35" s="253"/>
+      <c r="K35" s="253"/>
+      <c r="L35" s="253"/>
+      <c r="M35" s="254"/>
     </row>
     <row r="36" spans="1:13" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="262"/>
-      <c r="B36" s="185"/>
+      <c r="A36" s="246"/>
+      <c r="B36" s="179"/>
       <c r="C36" s="124">
         <v>3</v>
       </c>
       <c r="D36" s="84" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E36" s="85" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="F36" s="100" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="G36" s="85" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="H36" s="85" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="I36" s="85" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="J36" s="85" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="K36" s="85"/>
       <c r="L36" s="100" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="M36" s="112" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="37" spans="1:13" s="15" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="263"/>
-      <c r="B37" s="170"/>
+      <c r="A37" s="250"/>
+      <c r="B37" s="163"/>
       <c r="C37" s="125">
         <v>4</v>
       </c>
-      <c r="D37" s="250"/>
-      <c r="E37" s="250"/>
-      <c r="F37" s="250"/>
-      <c r="G37" s="250"/>
-      <c r="H37" s="250"/>
-      <c r="I37" s="250"/>
+      <c r="D37" s="249"/>
+      <c r="E37" s="249"/>
+      <c r="F37" s="249"/>
+      <c r="G37" s="249"/>
+      <c r="H37" s="249"/>
+      <c r="I37" s="249"/>
       <c r="J37" s="207"/>
       <c r="K37" s="79" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="L37" s="38"/>
       <c r="M37" s="99"/>
     </row>
     <row r="38" spans="1:13" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="267" t="s">
+      <c r="A38" s="248" t="s">
         <v>163</v>
       </c>
-      <c r="B38" s="169" t="s">
-        <v>271</v>
+      <c r="B38" s="162" t="s">
+        <v>269</v>
       </c>
       <c r="C38" s="124">
         <v>1</v>
       </c>
-      <c r="D38" s="269" t="s">
-        <v>547</v>
-      </c>
-      <c r="E38" s="270"/>
-      <c r="F38" s="270"/>
-      <c r="G38" s="270"/>
-      <c r="H38" s="270"/>
-      <c r="I38" s="270"/>
-      <c r="J38" s="270"/>
-      <c r="K38" s="270"/>
-      <c r="L38" s="270"/>
-      <c r="M38" s="270"/>
+      <c r="D38" s="255" t="s">
+        <v>545</v>
+      </c>
+      <c r="E38" s="256"/>
+      <c r="F38" s="256"/>
+      <c r="G38" s="256"/>
+      <c r="H38" s="256"/>
+      <c r="I38" s="256"/>
+      <c r="J38" s="256"/>
+      <c r="K38" s="256"/>
+      <c r="L38" s="256"/>
+      <c r="M38" s="256"/>
     </row>
     <row r="39" spans="1:13" s="59" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="268"/>
-      <c r="B39" s="177"/>
+      <c r="A39" s="247"/>
+      <c r="B39" s="195"/>
       <c r="C39" s="124">
         <v>4</v>
       </c>
       <c r="D39" s="62" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E39" s="90" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F39" s="90"/>
       <c r="G39" s="90" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="H39" s="60"/>
       <c r="I39" s="60"/>
@@ -25101,43 +25102,43 @@
       <c r="M39" s="60"/>
     </row>
     <row r="40" spans="1:13" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="261" t="s">
+      <c r="A40" s="245" t="s">
         <v>162</v>
       </c>
-      <c r="B40" s="231" t="s">
-        <v>270</v>
+      <c r="B40" s="194" t="s">
+        <v>268</v>
       </c>
       <c r="C40" s="126">
         <v>1</v>
       </c>
-      <c r="D40" s="242" t="s">
-        <v>544</v>
-      </c>
-      <c r="E40" s="243"/>
-      <c r="F40" s="243"/>
-      <c r="G40" s="243"/>
-      <c r="H40" s="243"/>
-      <c r="I40" s="243"/>
-      <c r="J40" s="243"/>
-      <c r="K40" s="243"/>
-      <c r="L40" s="243"/>
-      <c r="M40" s="243"/>
+      <c r="D40" s="252" t="s">
+        <v>542</v>
+      </c>
+      <c r="E40" s="270"/>
+      <c r="F40" s="270"/>
+      <c r="G40" s="270"/>
+      <c r="H40" s="270"/>
+      <c r="I40" s="270"/>
+      <c r="J40" s="270"/>
+      <c r="K40" s="270"/>
+      <c r="L40" s="270"/>
+      <c r="M40" s="270"/>
     </row>
     <row r="41" spans="1:13" s="15" customFormat="1" ht="150" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="268"/>
-      <c r="B41" s="177"/>
+      <c r="A41" s="247"/>
+      <c r="B41" s="195"/>
       <c r="C41" s="124">
         <v>4</v>
       </c>
       <c r="D41" s="62" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E41" s="90" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="F41" s="90"/>
       <c r="G41" s="90" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="H41" s="60"/>
       <c r="I41" s="60"/>
@@ -25147,119 +25148,119 @@
       <c r="M41" s="60"/>
     </row>
     <row r="42" spans="1:13" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="261" t="s">
+      <c r="A42" s="245" t="s">
         <v>161</v>
       </c>
-      <c r="B42" s="231" t="s">
-        <v>272</v>
+      <c r="B42" s="194" t="s">
+        <v>270</v>
       </c>
       <c r="C42" s="126">
         <v>1</v>
       </c>
-      <c r="D42" s="242" t="s">
-        <v>545</v>
-      </c>
-      <c r="E42" s="243"/>
-      <c r="F42" s="243"/>
-      <c r="G42" s="243"/>
-      <c r="H42" s="243"/>
-      <c r="I42" s="243"/>
-      <c r="J42" s="243"/>
-      <c r="K42" s="243"/>
-      <c r="L42" s="243"/>
-      <c r="M42" s="243"/>
+      <c r="D42" s="252" t="s">
+        <v>543</v>
+      </c>
+      <c r="E42" s="270"/>
+      <c r="F42" s="270"/>
+      <c r="G42" s="270"/>
+      <c r="H42" s="270"/>
+      <c r="I42" s="270"/>
+      <c r="J42" s="270"/>
+      <c r="K42" s="270"/>
+      <c r="L42" s="270"/>
+      <c r="M42" s="270"/>
     </row>
     <row r="43" spans="1:13" s="89" customFormat="1" ht="225" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="262"/>
-      <c r="B43" s="177"/>
+      <c r="A43" s="246"/>
+      <c r="B43" s="195"/>
       <c r="C43" s="132">
         <v>4</v>
       </c>
       <c r="D43" s="62" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="E43" s="90" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F43" s="90"/>
       <c r="G43" s="90" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="H43" s="62" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="I43" s="90" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="J43" s="90" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="K43" s="90" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="L43" s="60"/>
       <c r="M43" s="90" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="44" spans="1:13" s="61" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="271" t="s">
+      <c r="A44" s="242" t="s">
         <v>160</v>
       </c>
-      <c r="B44" s="185" t="s">
-        <v>273</v>
+      <c r="B44" s="179" t="s">
+        <v>271</v>
       </c>
       <c r="C44" s="124">
         <v>1</v>
       </c>
-      <c r="D44" s="242" t="s">
-        <v>546</v>
-      </c>
-      <c r="E44" s="243"/>
-      <c r="F44" s="243"/>
-      <c r="G44" s="243"/>
-      <c r="H44" s="243"/>
-      <c r="I44" s="243"/>
-      <c r="J44" s="243"/>
-      <c r="K44" s="243"/>
-      <c r="L44" s="243"/>
-      <c r="M44" s="243"/>
+      <c r="D44" s="252" t="s">
+        <v>544</v>
+      </c>
+      <c r="E44" s="270"/>
+      <c r="F44" s="270"/>
+      <c r="G44" s="270"/>
+      <c r="H44" s="270"/>
+      <c r="I44" s="270"/>
+      <c r="J44" s="270"/>
+      <c r="K44" s="270"/>
+      <c r="L44" s="270"/>
+      <c r="M44" s="270"/>
     </row>
     <row r="45" spans="1:13" ht="300" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="272"/>
-      <c r="B45" s="273"/>
+      <c r="A45" s="243"/>
+      <c r="B45" s="244"/>
       <c r="C45" s="127">
         <v>4</v>
       </c>
       <c r="D45" s="63" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="E45" s="65" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="F45" s="65" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="G45" s="65" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="H45" s="65" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="I45" s="63" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="J45" s="63" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="K45" s="65" t="s">
+        <v>503</v>
+      </c>
+      <c r="L45" s="63" t="s">
+        <v>504</v>
+      </c>
+      <c r="M45" s="63" t="s">
         <v>505</v>
-      </c>
-      <c r="L45" s="63" t="s">
-        <v>506</v>
-      </c>
-      <c r="M45" s="63" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
@@ -25308,31 +25309,27 @@
     </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="D29:G29"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="D30:M30"/>
-    <mergeCell ref="D33:K33"/>
-    <mergeCell ref="D37:J37"/>
-    <mergeCell ref="D35:M35"/>
-    <mergeCell ref="D34:M34"/>
-    <mergeCell ref="D38:M38"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="D40:M40"/>
+    <mergeCell ref="D42:M42"/>
+    <mergeCell ref="D44:M44"/>
+    <mergeCell ref="D18:M18"/>
+    <mergeCell ref="D19:M19"/>
+    <mergeCell ref="D31:M31"/>
+    <mergeCell ref="D26:M26"/>
+    <mergeCell ref="D27:M27"/>
+    <mergeCell ref="F21:M21"/>
+    <mergeCell ref="E25:M25"/>
+    <mergeCell ref="D22:M22"/>
+    <mergeCell ref="D23:M23"/>
+    <mergeCell ref="I29:M29"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="B6:B9"/>
     <mergeCell ref="D2:M2"/>
     <mergeCell ref="D3:M3"/>
     <mergeCell ref="D6:M6"/>
@@ -25348,27 +25345,31 @@
     <mergeCell ref="D11:M11"/>
     <mergeCell ref="D14:M14"/>
     <mergeCell ref="D15:M15"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="D40:M40"/>
-    <mergeCell ref="D42:M42"/>
-    <mergeCell ref="D44:M44"/>
-    <mergeCell ref="D18:M18"/>
-    <mergeCell ref="D19:M19"/>
-    <mergeCell ref="D31:M31"/>
-    <mergeCell ref="D26:M26"/>
-    <mergeCell ref="D27:M27"/>
-    <mergeCell ref="F21:M21"/>
-    <mergeCell ref="E25:M25"/>
-    <mergeCell ref="D22:M22"/>
-    <mergeCell ref="D23:M23"/>
-    <mergeCell ref="I29:M29"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="D29:G29"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="D30:M30"/>
+    <mergeCell ref="D33:K33"/>
+    <mergeCell ref="D37:J37"/>
+    <mergeCell ref="D35:M35"/>
+    <mergeCell ref="D34:M34"/>
+    <mergeCell ref="D38:M38"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="A40:A41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Tags and Affinities.xlsx
+++ b/Tags and Affinities.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="COMPONENT TAGS" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="592">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="622">
   <si>
     <t xml:space="preserve">TAG</t>
   </si>
@@ -283,7 +283,7 @@
     <t xml:space="preserve">This material resonates with nearby sources of magic.</t>
   </si>
   <si>
-    <t xml:space="preserve">If there are any materials adjacent to this one that emit an MCI equal to or greater than this material's resonant tier, increase the item's total MCI by this material's resonant tier.</t>
+    <t xml:space="preserve">If there are any materials in this component that emit an MCI equal to or greater than this material's resonant tier, increase that material’s total MCI by this material's resonant tier.</t>
   </si>
   <si>
     <t xml:space="preserve">Damage Affinity</t>
@@ -301,6 +301,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Increase the enchantment pool of any </t>
     </r>
@@ -311,6 +312,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">magic weapon</t>
     </r>
@@ -320,6 +322,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> spells that conduct through this material by its force affinity.</t>
     </r>
@@ -351,7 +354,7 @@
     <t xml:space="preserve">This material resonates with nearby sources of compatible damage affinity.</t>
   </si>
   <si>
-    <t xml:space="preserve">If there are any components adjacent to this one that emit a compatible damage affinity equal to or greater than this material, increase the item's affinity by this material's resonant tier.</t>
+    <t xml:space="preserve">If there are any materials in this component that emit a compatible damage affinity equal to or greater than this material’s resonant tier, increase that material’s affinity by this material's resonant tier.</t>
   </si>
   <si>
     <t xml:space="preserve">If there are any materials adjacent to this one that hold a damage affinity equal to or greater than this material's resonance, increase the item's damage affinity by this material's resonant tier.</t>
@@ -381,6 +384,9 @@
     <t xml:space="preserve">This material resonates with nearby sources of compatible healing affinity.</t>
   </si>
   <si>
+    <t xml:space="preserve">If there are any materials in this component that emit a healing affinity equal to or greater than this material's resonant tier, increase that material’s true healing affinity by this material's resonant tier.</t>
+  </si>
+  <si>
     <t xml:space="preserve">If there are any materials adjacent to this one that hold a healing affinity equal to or greater than this material's resonance, increase the item's healing affinity by this material's resonant tier.</t>
   </si>
   <si>
@@ -390,7 +396,7 @@
     <t xml:space="preserve">This material has a special attunement with a specific element of nature.</t>
   </si>
   <si>
-    <t xml:space="preserve">Various effects depending on the element and the item type.</t>
+    <t xml:space="preserve">The item gains a number of charges equal to twice its elemental affinity, which can be used to activate certain effects depending on the element and item type. Multiple types of elemental affinity on an item grant separate pools of charges, and these charges are refreshed on the completion of a long rest.</t>
   </si>
   <si>
     <t xml:space="preserve">Elemental Resonance</t>
@@ -399,7 +405,7 @@
     <t xml:space="preserve">This material resonates with a specific element of nature.</t>
   </si>
   <si>
-    <t xml:space="preserve">If there are any materials adjacent to this one that hold a compatible affinity equal to or greater than this material's resonance, increase the item's total affinity by this material's resonant tier.</t>
+    <t xml:space="preserve">If there are any materials in this component that hold a compatible affinity equal to or greater than this material's resonance, increase that material’s elemental affinity by this material's resonant tier.</t>
   </si>
   <si>
     <t xml:space="preserve">If there are any materials adjacent to this one that hold a elemental affinity equal to or greater than this material's resonance, increase the item's elemental affinity by this material's resonant tier.</t>
@@ -423,10 +429,16 @@
     <t xml:space="preserve">Restorative</t>
   </si>
   <si>
-    <t xml:space="preserve">Ingesting this potion cures the consumer of a number of these conditions equal to its MOD - one non-magical disease, blindness, deafness, paralysis or poison.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The bearer of this tattoo is immune to a number of these conditions equal to its MOD - one non-magical disease, blindness, deafness, paralysis or poison.</t>
+    <t xml:space="preserve">This material is curative, healing those it comes into contact with.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">While you are in contact with this item, you are immune to one of these conditions – one disease (magical or otherwise), blindness, deafness, paralysis or poison.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ingesting this potion cures the consumer of a number of these conditions equal to its MOD - one disease (magical or otherwise), blindness, deafness, paralysis or poison.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The bearer of this tattoo is immune to a number of these conditions equal to its MOD - one disease (magical or otherwise), blindness, deafness, paralysis or poison.</t>
   </si>
   <si>
     <t xml:space="preserve">Forceful</t>
@@ -459,7 +471,7 @@
     <t xml:space="preserve">On a critical hit, this melee weapon deals a number of additional d6's of physical damage equal to its keen tier - a critical hit from a keen 2 weapon would deal 2d6 extra physical damage. These extra damage dice are not doubled on the critical hit.</t>
   </si>
   <si>
-    <t xml:space="preserve">On a critical hit, this piece of ammunition deals a number of additional d6's of physical damage equal to its keen tier - a critical hit from a keen 2 weapon would deal 2d6 extra physical damage. These extra damage dice are not doubled on the crit.</t>
+    <t xml:space="preserve">On a critical hit, this piece of ammunition deals a number of additional d6's of physical damage equal to its keen tier - a critical hit from a keen 2 weapon would deal 2d6 extra physical damage. These extra damage dice are not doubled on the critical hit.</t>
   </si>
   <si>
     <t xml:space="preserve">When this flask is shattered, all creatures in the range of the explosion take either piercing or slashing damage equal to the step damage of the flask's keen tier.</t>
@@ -558,6 +570,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">This material is toxic. Every day a creature handles or remains within 5 feet of an item fashioned from it they must make a Constitution save equal to 2 * the toxic tier or be </t>
     </r>
@@ -568,6 +581,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">poisoned</t>
     </r>
@@ -577,6 +591,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">. If they fail the save by more than 5, they become </t>
     </r>
@@ -587,6 +602,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">badly poisoned</t>
     </r>
@@ -596,6 +612,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> at a level equal to the material's toxic tier. Each day they make the save, regardless of whether they succeed or fail, its DC increases by 1.</t>
     </r>
@@ -607,6 +624,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">When this poison is ingested, the consumer must make a Constitution save equal to 8 + (2 * the toxic tier) or be </t>
     </r>
@@ -617,6 +635,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">poisoned</t>
     </r>
@@ -626,6 +645,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">, taking a poison damage at a step equal to the tier of the poison's toxic tier.</t>
     </r>
@@ -772,7 +792,7 @@
     <t xml:space="preserve">This material is highly unstable, vaporising when  magic is conducted through it and emanating the magical effect in the process.</t>
   </si>
   <si>
-    <t xml:space="preserve">This item's unstable area is instead replaced with pure elemental energy. If cooled down to a sufficient temperature, this material has its unstable property suppressed.</t>
+    <t xml:space="preserve">This item's unstable area is instead replaced with pure elemental energy. If cooled down to a sufficient temperature, this material has its unstable property suppressed (this does not apply with sources of cold affinity).</t>
   </si>
   <si>
     <t xml:space="preserve">The following effect only takes place if a striking part's base material is unstable.
@@ -821,7 +841,7 @@
     <t xml:space="preserve">This material is especially potent or durable for its structure.</t>
   </si>
   <si>
-    <t xml:space="preserve">This component has its overall MOD increased by the material's superior tier.</t>
+    <t xml:space="preserve">This component has its overall MOD increased by the material's superior tier. This increase applies after MOD calculations from materials.</t>
   </si>
   <si>
     <t xml:space="preserve">Self-Repairing</t>
@@ -836,6 +856,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">This component has the </t>
     </r>
@@ -846,6 +867,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">brittle</t>
     </r>
@@ -855,6 +877,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> tag removed from it.</t>
     </r>
@@ -872,6 +895,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">This component has a number of tiers of the </t>
     </r>
@@ -882,6 +906,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">toxic</t>
     </r>
@@ -891,6 +916,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> tag removed from it equal to its antitoxin tier.</t>
     </r>
@@ -1013,6 +1039,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">While you wear this helmet, you can use your action to exhale slowing cold in a cone with a size equal to 10 feet per slowdown tier. Each creature in that area must succeed on a Constitution saving throw equal to 10 + (2 * the slowdown tier) or suffer a number of levels of </t>
     </r>
@@ -1023,6 +1050,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">freezing</t>
     </r>
@@ -1032,6 +1060,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> equal to the slowdown tier for 1 minute. A creature can repeat the saving throw at the end of each of its turns, reducing its level of </t>
     </r>
@@ -1042,6 +1071,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">freezing</t>
     </r>
@@ -1051,6 +1081,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> by 1 on a success.
 Once you have used this ability, you cannot use it again until you have spent a long rest keeping the helmet in a cold environment.</t>
@@ -1076,6 +1107,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Ingesting this potion forces the consumer to make a Constitution saving throw with a DC equal to 10 + (2 * the slowdown tier) or become </t>
     </r>
@@ -1086,6 +1118,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">paralysed</t>
     </r>
@@ -1095,6 +1128,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> for 1 minute.
 If it is thrown, this saving throw is forced upon all creatures within the radius of its explosion.</t>
@@ -1116,6 +1150,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Attacks with this weapon force a Constitution saving throw equal to 10 + (2 * the flaming tier) to set the target </t>
     </r>
@@ -1126,6 +1161,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">aflame</t>
     </r>
@@ -1135,6 +1171,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> at a grade equal to the flaming tier.</t>
     </r>
@@ -1146,6 +1183,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">When you intercept an attack with this cloak, the attacker is forced to make a Dexterity saving throw equal to 10 + (2 * the flaming tier) or be set </t>
     </r>
@@ -1156,6 +1194,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">aflame</t>
     </r>
@@ -1165,6 +1204,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> at a grade equal to the flaming tier until the end of your next turn.</t>
     </r>
@@ -1176,6 +1216,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Successful attacks made against the wearer of this armour force the attacker to make a Constitution saving throw equal to 10 + (2 * the flaming tier) or be set </t>
     </r>
@@ -1186,6 +1227,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">aflame</t>
     </r>
@@ -1195,6 +1237,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> at a grade equal to the flaming tier until the end of your next turn.</t>
     </r>
@@ -1206,6 +1249,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">When you expend movement on your turn, the space that you pass through becomes covered in a trail of flames that forces all creatures that pass into it to make a Constitution saving throw equal to 10 + (2 * the flaming tier) or be set </t>
     </r>
@@ -1216,6 +1260,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">aflame</t>
     </r>
@@ -1225,6 +1270,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> at a grade equal to the flaming tier until the end of your next turn.
 When you have expended more movement than 15 feet per flaming tier, you no longer emanate this trail, but the trail lasts until the start of your next turn.</t>
@@ -1237,6 +1283,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Ingesting this potion forces the consumer to make a Constitution saving throw with a DC equal to 10 + (2 * the flaming tier) or become set </t>
     </r>
@@ -1247,6 +1294,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">aflame</t>
     </r>
@@ -1256,6 +1304,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> at a grade equal to the flaming tier for 1 minute.
 If it is thrown, this saving throw is forced upon all creatures within the radius of its explosion.</t>
@@ -1268,6 +1317,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Once per turn, if the bearer of this tattoo hits with an unarmed strike with the tattooed area, they may force the target to make a Constitution saving throw with a DC equal to 10 + (2 * the flaming tier) or become set </t>
     </r>
@@ -1278,6 +1328,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">aflame</t>
     </r>
@@ -1287,6 +1338,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> at a grade equal to the flaming tier until the end of your next turn.</t>
     </r>
@@ -1304,6 +1356,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">This cloak ripples and shimmers with entrancing patterns and beautiful light. When you make a Charisma (Performance) check, all creatures that are swayed by your performance are </t>
     </r>
@@ -1314,6 +1367,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">charmed</t>
     </r>
@@ -1323,6 +1377,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> by you for a number of minutes equal to 5 times its hypnotising tier.</t>
     </r>
@@ -1334,6 +1389,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Ingesting this potion forces the consumer to make a Wisdom saving throw with a DC equal to 10 + (2 * the hypnotising tier) or become </t>
     </r>
@@ -1344,6 +1400,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">charmed</t>
     </r>
@@ -1353,6 +1410,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> by the brewer for a number of hours equal to its hypnotising tier.
 If it is thrown, this saving throw is forced upon all creatures within the radius of its explosion, with the effect lasting for a number of minutes equal to its hypnotising tier.</t>
@@ -1365,6 +1423,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">These tattoos ripple and shimmer with entrancing patterns and beautiful light. When you make a Charisma (Performance) check, all creatures that are swayed by your performance are </t>
     </r>
@@ -1375,6 +1434,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">charmed</t>
     </r>
@@ -1384,6 +1444,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> by you for a number of minutes equal to 5 times its hypnotising tier.</t>
     </r>
@@ -1428,6 +1489,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">While you wear this cloak, you gain the benefits of the </t>
     </r>
@@ -1438,6 +1500,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">feather fall</t>
     </r>
@@ -1447,6 +1510,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> spell. This benefit is overpowered you hold a weight (in lbs) above 20 times its weightless tier.</t>
     </r>
@@ -1474,7 +1538,7 @@
     <t xml:space="preserve">This material seems to silence the oscillation of magic that attempts to run through it, preventing the magic from expressing itself.</t>
   </si>
   <si>
-    <t xml:space="preserve">This item cannot be enchanted.</t>
+    <t xml:space="preserve">This item cannot be enchanted, unless with spells of a level higher than its antimagic tier.</t>
   </si>
   <si>
     <t xml:space="preserve">When you hit with an attack made by this weapon, you may cast dispel magic on the target at the level of this item's antimagic tier.</t>
@@ -1486,6 +1550,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">You cannot be affected by </t>
     </r>
@@ -1496,6 +1561,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">illusion</t>
     </r>
@@ -1505,6 +1571,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> or </t>
     </r>
@@ -1515,6 +1582,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">enchantment</t>
     </r>
@@ -1524,6 +1592,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> spells of a level equal to or below this item's antimagic tier.</t>
     </r>
@@ -1535,6 +1604,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">You cannot be affected by </t>
     </r>
@@ -1545,6 +1615,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">divination</t>
     </r>
@@ -1554,6 +1625,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> spells of a level equal to or below this item's antimagic tier.</t>
     </r>
@@ -1568,6 +1640,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Magic cannot reduce the speed of the wearer of these boots, nor cause them to become </t>
     </r>
@@ -1578,6 +1651,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">paralysed</t>
     </r>
@@ -1587,6 +1661,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> or </t>
     </r>
@@ -1597,6 +1672,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">restrained</t>
     </r>
@@ -1606,6 +1682,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">.</t>
     </r>
@@ -1637,6 +1714,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">When you successfully </t>
     </r>
@@ -1647,6 +1725,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">parry</t>
     </r>
@@ -1656,6 +1735,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> a melee spell attack with this weapon, or successfully </t>
     </r>
@@ -1666,6 +1746,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">deflect</t>
     </r>
@@ -1675,6 +1756,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> a ranged spell attack with this weapon, you may reflect the spell back on the caster. You are unaffected, and the effect is reflected back at the caster as though it originated from you, turning the caster into the target.
 The spell must be of a level equal to or below this item's spell turning tier for this property to apply.</t>
@@ -1687,6 +1769,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">When you are targeted by an </t>
     </r>
@@ -1697,6 +1780,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">illusion</t>
     </r>
@@ -1706,6 +1790,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> or </t>
     </r>
@@ -1716,6 +1801,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">enchantment</t>
     </r>
@@ -1725,6 +1811,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> spell of a level equal to or below this item's spell turning tier, you may reflect the spell back at the caster if you succeed on its save, as though it originated from you, turning the caster into the target.
 The spell must be of a level equal to or below this item's spell turning tier for this property to apply.</t>
@@ -1737,6 +1824,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">When you are targeted by a </t>
     </r>
@@ -1747,6 +1835,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">divination</t>
     </r>
@@ -1756,6 +1845,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> spell of a level equal to or below this item's spell turning tier, you may reflect the spell back at the caster if you succeed on its save, as though it originated from you, turning the caster into the target.
 The spell must be of a level equal to or below this item's spell turning tier for this property to apply.</t>
@@ -1772,6 +1862,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">When you would suffer the effects of a spell that would reduce your speed, </t>
     </r>
@@ -1782,6 +1873,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">incapacitate</t>
     </r>
@@ -1791,6 +1883,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> you or </t>
     </r>
@@ -1801,6 +1894,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">paralyse</t>
     </r>
@@ -1810,6 +1904,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> you, you are unaffected, and your speed is increased for 1 minute by the amount that the spell would have reduced your speed by.
 The spell must be of a level equal to or below this item's spell turning tier for this property to apply.</t>
@@ -1839,6 +1934,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Any time the bearer of this tattoo is targetted by a </t>
     </r>
@@ -1849,6 +1945,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">magic missile</t>
     </r>
@@ -1858,6 +1955,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> spell, a line spell, or a spell that requires a ranged attack roll, roll a d6. On a 1 or 5, they are unaffected. On a 6, the effect is reflected back upon the caster as through it had originated from the tattoo bearer, turning the caster into the target.
 This only affects spells that have a level equal to or lower than the tattoo's tier.</t>
@@ -1972,6 +2070,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">When the bearer of this tattoo hits with an unarmed strike made with this tattoo's area, they may spend charges to deal one hit dice of extra necrotic damage per charge spent.
 Additionally, once per long rest, the bearer of this tattoo can take can action to enter a blood frenzy for 1 minute.
@@ -1985,6 +2084,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">precision</t>
     </r>
@@ -1994,6 +2094,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> 1.
 · When you score a critical hit against a creature, you deal a number of hit dice of extra necrotic damage equal to twice the number of charges stored within this tattoo, regaining a number of hit points equal to the necrotic damage dealt.</t>
@@ -2021,7 +2122,7 @@
     <t xml:space="preserve">The wearer of these boots has their speed doubled in dim light and darkness.</t>
   </si>
   <si>
-    <t xml:space="preserve">Spells cast by the wielder of this staff can have their attack rolls rerolled once if they are in dim light or darkness, or have their targets' saving throws rerolled once if the targets are in dim light or darkness, potentially causing a different result.</t>
+    <t xml:space="preserve">Spells cast by the wielder of this staff can have their attack rolls rerolled once if they are in dim light or darkness (a light level of 3 or lower), or have their targets' saving throws rerolled once if the targets are in dim light or darkness, potentially causing a different result.</t>
   </si>
   <si>
     <t xml:space="preserve">This flask's material alters the appearance of the potion inside it, transforming it to appear like oily, liquid shadow.</t>
@@ -2084,6 +2185,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">This helmet allows its wielder to peer into the minds of others.
 This helmet holds a number of charges equal to your Charisma modifier.
@@ -2096,6 +2198,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">detect thoughts</t>
     </r>
@@ -2105,6 +2208,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> spell for 1 hour.
 You can restore charges by spending a long rest while awake, but blinded and deafened to the world.</t>
@@ -2121,6 +2225,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Spells cast by the wielder of this staff are purely mental. Similar to the </t>
     </r>
@@ -2131,6 +2236,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">mental prison</t>
     </r>
@@ -2140,6 +2246,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> spell, these spells force Intelligence saves instead of their regular saving throws, and deal psychic damage instead of their normal damage type. Their effects are invisible to all creatures unaffected by them.
 In addition, </t>
@@ -2151,6 +2258,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">enchantment</t>
     </r>
@@ -2160,6 +2268,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> and </t>
     </r>
@@ -2170,6 +2279,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">illusion</t>
     </r>
@@ -2179,6 +2289,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> spells cast through this staff are upcast by 1 level.</t>
     </r>
@@ -2196,6 +2307,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Ingesting this potion casts the </t>
     </r>
@@ -2206,6 +2318,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">mental prison</t>
     </r>
@@ -2215,6 +2328,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> spell as if it the consumer was the target.
 If it is thrown, all creatures within its explosion have the </t>
@@ -2226,6 +2340,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">dissonant whispers</t>
     </r>
@@ -2235,6 +2350,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> spell cast on them.</t>
     </r>
@@ -2246,6 +2362,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">This tattoo is composed of shifting, flitting shadows. 1d4 eyes and 1d4 mouths emerge from the the tattoo, splitting the skin without pain. You can see out of these eyes and consume food and drink from these mouths to receive sustenance.
 All creatures that are aware of you suffer from maddening whispers and the paranoia of constantly being watched.
@@ -2258,6 +2375,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">frightened</t>
     </r>
@@ -2267,6 +2385,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> for 1 minute. A creature repeats the saving throw at the end of each of its turns, ending the effect on itself on a success.
 If a creature fails the saving throw by 5 or more it is driven </t>
@@ -2278,6 +2397,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">insane</t>
     </r>
@@ -2287,6 +2407,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">. An </t>
     </r>
@@ -2297,6 +2418,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">insane</t>
     </r>
@@ -2306,6 +2428,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> creature is </t>
     </r>
@@ -2316,6 +2439,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">frightened</t>
     </r>
@@ -2325,6 +2449,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> permanently, and behaves as if affected by the </t>
     </r>
@@ -2335,6 +2460,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">confusion</t>
     </r>
@@ -2344,6 +2470,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> spell while it is </t>
     </r>
@@ -2354,6 +2481,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">frightened</t>
     </r>
@@ -2363,6 +2491,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> in this way.
 If a creature’s saving throw is successful or the effect ends for it, the creature is immune to this effect for the next 24 hours.</t>
@@ -2386,6 +2515,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">At the start of your turn, if you blind yourself until the start of your next turn, you charge this helmet with temporal energy until the end of the turn after that.
 While this helmet is charged, you can see the threads of infinite timelines and futures, granting you the effects of the </t>
@@ -2397,6 +2527,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">foresight </t>
     </r>
@@ -2406,6 +2537,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">spell.</t>
     </r>
@@ -2431,6 +2563,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">If you cast no spells on one of your turns, you charge this staff with temporal energy until the end of your next turn.
 When you cast a healing or other beneficial spell through this staff while it is charged, the targets automatically have the </t>
@@ -2442,6 +2575,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">haste</t>
     </r>
@@ -2451,6 +2585,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> spell cast on them.
 When you cast a spell that requires a saving throw to avoid some debilitating effect, the targets automatically have the </t>
@@ -2462,6 +2597,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">slow</t>
     </r>
@@ -2471,6 +2607,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> spell cast on them, using your spell save DC. Creatures that roll a natural 1 on the </t>
     </r>
@@ -2481,6 +2618,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">slow</t>
     </r>
@@ -2490,6 +2628,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> spell's saving throw are immediately frozen in time and </t>
     </r>
@@ -2500,6 +2639,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">paralyzed</t>
     </r>
@@ -2509,6 +2649,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> for 1 minute. They do not perceive time passing while they are frozen.
 This staff cannot be charged while the effects of these spells last.</t>
@@ -2531,6 +2672,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">The bearer of this tattoo permanently has the effect of the </t>
     </r>
@@ -2541,6 +2683,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">haste</t>
     </r>
@@ -2550,6 +2693,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> spell applied to them.</t>
     </r>
@@ -2582,6 +2726,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">While you wear this headgear, you are always under the effects of the </t>
     </r>
@@ -2592,6 +2737,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">speak with animals</t>
     </r>
@@ -2601,6 +2747,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> spell, and you may cast the</t>
     </r>
@@ -2611,6 +2758,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> beast bond</t>
     </r>
@@ -2620,6 +2768,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> spell a number of times per long rest equal to this headgear’s primal affinity.</t>
     </r>
@@ -2634,27 +2783,125 @@
     <t xml:space="preserve">While you wear these boots, your walking speed is increased by 10 ft. for every tier of primal affinity.</t>
   </si>
   <si>
-    <t xml:space="preserve">Druid and ranger spells cast through this staff's core are upcast by 1 level.</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">You gain the ability to spend charges to cast the following spells through this staff:
+· For 1 charge, the </t>
+    </r>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">goodberry</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> spell.
+· For 2 charges, the </t>
+    </r>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">barkskin</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> spell.
+· For 3 charges, the </t>
+    </r>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">conjure beasts</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> spell.
+· For 4 charges, the </t>
+    </r>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">giant insects</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> spell.</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">This piece of ammunition deals either 1 extra acid or poison damage.</t>
   </si>
   <si>
-    <t xml:space="preserve">When ingested, this potion grants resistance to acid or poison damage.</t>
+    <t xml:space="preserve">When ingested, this potion grants resistance to one of either acid or poison damage.</t>
   </si>
   <si>
     <t xml:space="preserve">Unarmed strikes made with the tattooed area deal 1 extra acid or poison damage.</t>
   </si>
   <si>
-    <t xml:space="preserve">This melee weapon deals 1d6 extra damage of either poison or acid damage.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
+    <t xml:space="preserve">This melee weapon deals 1d4 extra damage of either poison or acid damage.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">While you wear this headgear, once per long rest, you may cast the </t>
     </r>
@@ -2665,6 +2912,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">dominate beasts</t>
     </r>
@@ -2674,20 +2922,144 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> spell, with a save DC equal to 10 + the headgear's primal affinity.</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">This armour grants its wearer immunity to one of either acid or poison damage.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">When you expend movement on your turn, the space that you pass through becomes covered in knots of thorned vines or venomous critters.
+    <t xml:space="preserve">While you wear this armour, you can spend charges to gain immunity to one of either acid or poison damage for a number of rounds equal to the number of charges spent.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">While you wear these boots, you can spend charges as a bonus action to activate the following effect for a number of rounds equal to the number of charges spent.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+When you expend movement on your turn, the space that you pass through becomes covered in knots of thorned vines or venomous critters.
 Whenever a creature enters the trail or they start their turn in it, they take acid or poison  equal to the boots' primal affinity.
 When you have expended more movement than 15 feet per primal affinity, you no longer emanate this trail, but the trail lasts until the start of your next turn.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Once per long rest, the bearer of this tattoo may expend an action to transform for 1 minute, gaining bestial characteristics.
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">You gain the ability to spend charges to cast the following spells through this staff:
+· For 5 charges, the </t>
+    </r>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">commune with nature</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> spell.
+· For 6 charges, the </t>
+    </r>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">druid grove</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> spell.
+· For 7 charges, the </t>
+    </r>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">mirage arcane</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> spell.
+· For 8 charges, the </t>
+    </r>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">beast shapes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> spell.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">When ingested, this potion grants immunity to one of either acid or poison damage.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The bearer of this tattoo may spend 6 charges as an action to transform for 1 minute, gaining bestial characteristics.
 While transformed, you gain the following benefits:
 · You gain the keen hearing and smell trait.
 · Your skin toughens, increasing your AC by 2.
@@ -2715,6 +3087,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">While you wear this headgear, you can understand Ignan, and once per long rest, you may cast the </t>
     </r>
@@ -2725,6 +3098,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">charm monster</t>
     </r>
@@ -2734,6 +3108,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> spell on a fire elemental, with a save DC equal to 10 + the headgear's ignan affinity.
 You can only target elementals of a CR lower than 2 times this headgear's ignan affinity.</t>
@@ -2749,7 +3124,104 @@
     <t xml:space="preserve">While you wear these boots, you can stand on and walk across molten rock as if it were solid ground.</t>
   </si>
   <si>
-    <t xml:space="preserve">Evocation spells cast through this staff's core are upcast by 1 level.</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">You gain the ability to spend charges to cast the following spells through this staff:
+· For 1 charge, the </t>
+    </r>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">burning hands</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> spell.
+· For 2 charges, the </t>
+    </r>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">flaming sphere</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> spell.
+· For 3 charges, the </t>
+    </r>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">elemental weapon</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> spell (fire only).
+· For 4 charges, the </t>
+    </r>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">wall of fire</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> spell.</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">This piece of ammunition deals 1 extra fire damage.</t>
@@ -2761,15 +3233,16 @@
     <t xml:space="preserve">Unarmed strikes made with the tattooed area deal 1 extra fire damage.</t>
   </si>
   <si>
-    <t xml:space="preserve">This melee weapon deals 1d6 extra fire damage.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
+    <t xml:space="preserve">This melee weapon deals 1d4 extra fire damage.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">While you wear this headgear, once per long rest, you may cast the </t>
     </r>
@@ -2780,6 +3253,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">dominate monster</t>
     </r>
@@ -2789,54 +3263,80 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> spell on a fire elemental, with a save DC equal to 10 + the headgear's ignan affinity.
 You can only target elementals of a CR lower than 2 times this headgear's ignan affinity.</t>
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">As a reaction when you take damage or when you die, you may explode in blazing wings of phoenix flame.
-Each creature within a radius 10 times this cloak's ignan affinity must make a Dexterity saving throw equal to 10 + (2 * ignan affinity) or take 1d10 fire damage per ignan affinity and be set </t>
-    </r>
-    <r>
-      <rPr>
-        <i val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">aflame</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> at a grade equal to the cloak's ignan affinity.
-The explosion reduces you to 0 hit points if you are not dead, and incases you in an glowing obsidian egg, granting you total cover from all effects outside of it. The egg is resistant to all damage,  has a number of hit points equal to 10 times the cloak's ignan affinity, and has an AC of 10 + ignan affinity. While you are incased in this egg, you regain hit points equal to the cloak's ignan affinity at the start of each of your turns.
-Once this ability has been used, it can no longer be used until the weapon has spent a short or long rest bathed in magma.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">This armour grants its wearer immunity to fire damage.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">When you expend movement on your turn, the space that you pass through becomes covered in scorching flames.
+    <t xml:space="preserve">While you wear this armour, you can spend charges to gain immunity to fire damage for a number of rounds equal to the number of charges spent.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">While you wear these boots, you can spend charges as a bonus action to activate the following effect for a number of rounds equal to the number of charges spent.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+When you expend movement on your turn, the space that you pass through becomes covered in scorching flames.
 Whenever a creature enters the trail or they start their turn in it, they take fire damage equal to the boots' ignan affinity.
 When you have expended more movement than 15 feet per ignan affinity, you no longer emanate this trail, but the trail lasts until the start of your next turn.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unarmed strikes made with the tattooed area deal 1d6 extra fire damage.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">When ingested, this potion grants immunity to fire damage.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unarmed strikes made with the tattooed area deal 1d4 extra fire damage.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">As a reaction when you take damage or when you die, you may spend 6 charges to explode in blazing wings of phoenix flame.
+Each creature within a radius 10 times this cloak's ignan affinity must make a Dexterity saving throw equal to 10 + (2 * ignan affinity) or take 1d10 fire damage per ignan affinity and be set </t>
+    </r>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">aflame</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> at a grade equal to the cloak's ignan affinity.
+The explosion reduces you to 0 hit points if you are not dead, and incases you in an glowing obsidian egg, granting you total cover from all effects outside of it. The egg is resistant to all damage,  has a number of hit points equal to 10 times the cloak's ignan affinity, and has an AC of 10 + ignan affinity. While you are incased in this egg, you regain hit points equal to the cloak's ignan affinity at the start of each of your turns.</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Aquan</t>
@@ -2860,6 +3360,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">While you wear this headgear, you can understand Aquan, and once per long rest, you may cast the </t>
     </r>
@@ -2870,6 +3371,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">charm monster</t>
     </r>
@@ -2879,6 +3381,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> spell on a water elemental, with a save DC equal to 10 + the headgear's aquan affinity.
 You can only target elementals of a CR lower than 2 times this headgear's aquan affinity.</t>
@@ -2894,7 +3397,104 @@
     <t xml:space="preserve">While you wear these boots, you have a swimming speed equal to your walking speed.</t>
   </si>
   <si>
-    <t xml:space="preserve">Abjuration spells cast through this staff's core are upcast by 1 level.</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">You gain the ability to spend charges to cast the following spells through this staff:
+· For 1 charge, the </t>
+    </r>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">ice knife</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> spell.
+· For 2 charges, the </t>
+    </r>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">snowball swarm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> spell.
+· For 3 charges, the </t>
+    </r>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">wall of water</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> spell.
+· For 4 charges, the </t>
+    </r>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">watery sphere</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> spell.</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">This piece of ammunition deals 1 extra cold damage.</t>
@@ -2906,15 +3506,16 @@
     <t xml:space="preserve">Unarmed strikes made with the tattooed area deal 1 extra cold damage.</t>
   </si>
   <si>
-    <t xml:space="preserve">This melee weapon deals 1d6 extra cold damage.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
+    <t xml:space="preserve">This melee weapon deals 1d4 extra cold damage.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">While you wear this headgear, once per long rest, you may cast the </t>
     </r>
@@ -2925,6 +3526,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">dominate monster</t>
     </r>
@@ -2934,13 +3536,14 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> spell on a water elemental, with a save DC equal to 10 + the headgear's aquan affinity.
 You can only target elementals of a CR lower than 2 times this headgear's aquan affinity.</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">This armour grants its wearer immunity to cold damage.</t>
+    <t xml:space="preserve">While you wear this armour, you can spend charges to gain immunity to cold damage for a number of rounds equal to the number of charges spent.</t>
   </si>
   <si>
     <t xml:space="preserve">When you expend movement on your turn, the space that you pass through becomes covered in watery frost.
@@ -2948,13 +3551,15 @@
 When you have expended more movement than 15 feet per aquan affinity, you no longer emanate this trail, but the trail lasts until the start of your next turn.</t>
   </si>
   <si>
-    <t xml:space="preserve">As an action while you wield this staff, you may conjure a bubble of frigid water that surrounds an area centered on a point you can see within 120 feet.
+    <t xml:space="preserve">When ingested, this potion grants immunity to cold damage.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unarmed strikes made with the tattooed area deal 1d4 extra cold damage.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As an action while you wield this staff, you may spend 6 charges to conjure a bubble of frigid water that surrounds an area centered on a point you can see within 120 feet.
 This bubble is a hollow sphere, with a radius that fully encompasses the creature and extends to the edge of its space up to a maximum number of feet equal to 5 times the staff's aquan affinity, granting all things within it total cover from all attacks outside. Creatures and objects can move freely within the bubble, and creatures can see through the walls of the bubble. Creatures and objects cannot move through the walls of the bubble.
-This bubble can be pierced and destroyed, and has a number of hit points equal to 20 times the aquan affinity, and an AC equal to 10 + (2 * the cloak's aquan affinity). It will also be destroyed if you lose your concentration (as if casting a spell), or if 1 minute has passed.
-Once this ability has been used, it can no longer be used until the weapon has spent a short or long rest bathed in frigid water.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unarmed strikes made with the tattooed area deal 1d6 extra cold damage.</t>
+This bubble can be pierced and destroyed, and has a number of hit points equal to 20 times the aquan affinity, and an AC equal to 10 + (2 * the cloak's aquan affinity). It will also be destroyed if you lose your concentration (as if casting a spell), or if 1 minute has passed.</t>
   </si>
   <si>
     <t xml:space="preserve">Terran</t>
@@ -2972,6 +3577,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">This item counts as holding a number of tiers of </t>
     </r>
@@ -2982,6 +3588,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">superior</t>
     </r>
@@ -2991,6 +3598,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> equal to its terran affinity.</t>
     </r>
@@ -3002,6 +3610,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">This melee weapon counts as having the </t>
     </r>
@@ -3012,6 +3621,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">superior</t>
     </r>
@@ -3021,6 +3631,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> 1 tag.</t>
     </r>
@@ -3032,6 +3643,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">While you wear this headgear, you can understand Terran, and once per long rest, you may cast the </t>
     </r>
@@ -3042,6 +3654,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">charm monster</t>
     </r>
@@ -3051,6 +3664,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> spell on an earth elemental, with a save DC equal to 10 + the headgear's terran affinity.
 You can only target elementals of a CR lower than 2 times this headgear's terran affinity.</t>
@@ -3066,7 +3680,104 @@
     <t xml:space="preserve">While you wear these boots, you have a burrowing speed equal to your walking speed.</t>
   </si>
   <si>
-    <t xml:space="preserve">Transmutation spells cast through this staff's core are upcast by 1 level.</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">You gain the ability to spend charges to cast the following spells through this staff:
+· For 1 charge, the </t>
+    </r>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">earth tremor</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> spell.
+· For 2 charges, the </t>
+    </r>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">earthbind</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> spell.
+· For 3 charges, the </t>
+    </r>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">erupting earth</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> spell.
+· For 4 charges, the </t>
+    </r>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">stone shape</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> spell.</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">This piece of ammunition deals 1 extra physical damage.</t>
@@ -3081,6 +3792,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Unarmed strikes made with the tattooed area count as having the </t>
     </r>
@@ -3091,6 +3803,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">superior</t>
     </r>
@@ -3100,6 +3813,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> 1 tag.</t>
     </r>
@@ -3111,6 +3825,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">This melee weapon counts as having the </t>
     </r>
@@ -3121,6 +3836,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">superior</t>
     </r>
@@ -3130,6 +3846,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> 2 tag.</t>
     </r>
@@ -3141,6 +3858,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">While you wear this headgear, once per long rest, you may cast the </t>
     </r>
@@ -3151,6 +3869,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">dominate monster</t>
     </r>
@@ -3160,28 +3879,54 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> spell on an earth elemental, with a save DC equal to 10 + the headgear's terran affinity.
 You can only target elementals of a CR lower than 2 times this headgear's terran affinity.</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Your movement can shake the ground, sending shockwaves and tremors rumbling through the earth.
-As a bonus action after moving at least 30 feet on the ground, you may send a shockwave through the ground in a circle of a radius equal to 5 feet per terran affinity, centered on yourself.
-All creatures in contact with the ground in that area must make a Constitution saving throw equal to 10 + (2 * terran affinity) or take 1d6 thunder damage per terran affinity, and lose their concentration.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">When you expend movement on your turn, the space that you pass through fissures as piercing earth erupts from its surface.
+    <t xml:space="preserve">While you wear this armour, you can spend charges to gain immunity to physical damage for a number of rounds equal to the number of charges spent.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">While you wear these boots, you can spend charges as a bonus action to activate the following effect for a number of rounds equal to the number of charges spent.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+When you expend movement on your turn, the space that you pass through fissures as piercing earth erupts from its surface.
 Whenever a creature enters the trail or they start their turn in it, they take physical damage equal to the boots' terran affinity.
 When you have expended more movement than 15 feet per terran affinity, you no longer emanate this trail, but the trail lasts until the start of your next turn.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">This piece of ammunition deals 1d4 extra physical damage.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When ingested, this potion grants immunity to physical damage.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Unarmed strikes made with the tattooed area count as having the </t>
     </r>
@@ -3192,6 +3937,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">superior</t>
     </r>
@@ -3201,11 +3947,18 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> 2 tag.</t>
     </r>
   </si>
   <si>
+    <t xml:space="preserve">As an action on your turn, you may spend 6 charges to harden this armourset with plates of crystalline stone for 1 minute, turning it into a giant set of armour.
+While this armourset is hardened, your movement can shake the ground, sending shockwaves and tremors rumbling through the earth.
+As a bonus action after moving at least 30 feet on the ground, you may send a shockwave through the ground in a circle of a radius equal to 5 feet per terran affinity, centered on yourself.
+All creatures in contact with the ground in that area must make a Constitution saving throw equal to 10 + (2 * terran affinity) or take 1d6 thunder damage per terran affinity, be knocked prone, and lose their concentration.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Auran</t>
   </si>
   <si>
@@ -3218,7 +3971,165 @@
     <t xml:space="preserve">This item counts as holding a number of tiers of lightning or thunder affinity equal to its auran affinity.</t>
   </si>
   <si>
-    <t xml:space="preserve">This melee weapon deals 1 extra lightning or thunder damage.</t>
+    <t xml:space="preserve">This melee weapon deals 1 extra damage of either thunder or lightning damage.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When this cloak is used to intercept damage, you may reduce its hit points to zero to become immune to either lightning or thunder damage until the end of your next turn.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This armour grants its wearer resistance to one of either thunder or lightning damage.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">While you wear these boots, you have a flying speed equal to your walking speed.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">You gain the ability to spend charges to cast the following spells through this staff:
+· For 1 charge, the </t>
+    </r>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">gust</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> spell.
+· For 2 charges, the </t>
+    </r>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">warding wind</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> spell.
+· For 3 charges, the </t>
+    </r>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">wind wall</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> spell.
+· For 4 charges, the </t>
+    </r>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">storm sphere</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> spell.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">This ammunition deals 1 extra damage of either thunder or lightning damage.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When ingested, this potion grants resistance to one of either lightning or thunder damage.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unarmed strikes made with the tattooed area deal 1 extra lightning or thunder damage.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This melee weapon deals 1d4 extra damage of either thunder or lightning damage.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">While you wear this armour, you can spend charges to gain immunity to one of either thunder or lightning damage for a number of rounds equal to the number of charges spent.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">While you wear these boots, you can spend charges as a bonus action to activate the following effect for a number of rounds equal to the number of charges spent.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+When you expend movement on your turn, the space that you pass through sparks and howls with brewing storms.
+Whenever a creature enters the trail or they start their turn in it, they take lightning or thunder damage equal to the boots' auran affinity.
+When you have expended more movement than 15 feet per auran affinity, you no longer emanate this trail, but the trail lasts until the start of your next turn.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">This ammunition deals 1d4 extra damage of either thunder or lightning damage.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When ingested, this potion grants immunity to one of either lightning or thunder damage.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unarmed strikes made with the tattooed area deal 1d4 extra lightning or thunder damage.</t>
   </si>
   <si>
     <r>
@@ -3227,6 +4138,366 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">While you wear this headgear, you may spend 6 charges to cast the spell </t>
+    </r>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">truesight</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Luthian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This material is imbued with the primeval essence of light.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This material increases the emission radius of divination spells that conduct through it by a number of inches equal to 5x its luthian affinity.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This item counts as holding a number of tiers of radiant affinity equal to its luthian affinity.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This melee weapon deals 1 extra radiant damage.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">While you wear this headgear, you can understand Sylvan, and once per long rest, you may cast the </t>
+    </r>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">charm monster</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> spell on an a fey, with a save DC equal to 10 + the headgear's luthian affinity.
+You can only charm fey of a CR lower than 2 times this headgear's luthian affinity.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">When this cloak is used to intercept damage, you may reduce its hit points to zero to become immune to radiant damage until the end of your next turn.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This armour grants its wearer resistance to radiant damage.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">While you wear these boots, your speed is increased by 5 ft. for every tier of luthian affinity if you are in bright light (a light level of 4 or above).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This piece of ammunition deals 1 extra radiant damage.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When ingested, this potion grants resistance to radiant damage.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unarmed strikes made with the tattooed area deal 1 extra radiant damage.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This melee weapon deals 1d4 extra radiant damage.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">While you wear this headgear, once per long rest, you may cast the </t>
+    </r>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">dominate monster</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> spell on an a fey, with a save DC equal to 10 + the headgear's luthian affinity.
+You can only dominate fey of a CR lower than 2 times this headgear's luthian affinity.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">While you wear this armour, you can spend charges to gain immunity to radiant damage for a number of rounds equal to the number of charges spent.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">While you wear these boots, you can spend charges as a bonus action to activate the following effect for a number of rounds equal to the number of charges spent.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+When you expend movement on your turn, the space that you pass through blazes with bright light.
+Whenever a creature enters the trail or they start their turn in it, they take radiant damage equal to the boots' luthian affinity.
+When you have expended more movement than 15 feet per luthian affinity, you no longer emanate this trail, but the trail lasts until the start of your next turn.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">This piece of ammunition deals 1d4 extra radiant damage.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When ingested, this potion grants immunity to radiant damage.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unarmed strikes made with the tattooed area deal 1d4 extra radiant damage.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When you make an attack with this weapon, you can charge your weapon with radiant energy, firing a blasting wave of light that illuminates all things.
+The space you target is the origin of the wave, which must be directed away from you (when applicable). You choose the form of the wave’s area from the following options:
+· A 5-foot-wide line with a length of 10 feet per luthian affinity.
+· A cone of size 5 feet per luthian affinity.
+· A radius-area 10 feet per 3 luthian affinity centered on the point of impact.
+All creatures (except you) within the affected area must succeed on a Constitution saving throw equal to 10 + (2 * luthian affinity) or take 2d10 points of radiant damage per luthian affinity, bathed in an illuminating light. A successful saving throw halves the damage and prevents the illumination. This illuminating light forces disadvantage on Stealth checks to hide, and nullifies invisibility.
+Once this ability has been used, it can no longer be used until the weapon has spent a short or long rest bathed in bright light.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Erebian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This material is imbued with the primeval essence of darkness.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This material increases the emission radius of necromancy spells that conduct through it by a number of inches equal to 5x its erebian affinity.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This item counts as holding a number of tiers of necrotic affinity equal to its erebian affinity.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This melee weapon deals 1 extra necrotic damage.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">While you wear this headgear, you can communicate telepathically with undead, and once per long rest, you may cast the </t>
+    </r>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">charm monster</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> spell on an undead, with a save DC equal to 10 + the headgear's erebian affinity.
+You can only charm undead of a CR lower than 2 times this headgear's erebian affinity.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">When this cloak is used to intercept damage, you may reduce its hit points to zero to become immune to necrotic damage until the end of your next turn.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This armour grants its wearer resistance to necrotic damage.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">While you wear these boots, your speed is increased by 5 ft. for every tier of erebian affinity if you are in darkness (a light level of 2 or below).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This piece of ammunition deals 1 extra necrotic damage.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When ingested, this potion grants resistance to necrotic damage.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unarmed strikes made with the tattooed area deal 1 extra necrotic damage.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This melee weapon deals 1d4 extra necrotic damage.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">While you wear this headgear, and once per long rest, you may cast the </t>
+    </r>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">dominate monster</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> spell on an undead, with a save DC equal to 10 + the headgear's erebian affinity.
+You can only dominate undead of a CR lower than 2 times this headgear's erebian affinity.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">While you wear this armour, you can spend charges to gain immunity to necrotic damage for a number of rounds equal to the number of charges spent.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">While you wear these boots, you can spend charges as a bonus action to activate the following effect for a number of rounds equal to the number of charges spent.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+While you wear these boots, you can spend charges as a bonus action to activate the following effect for a number of rounds equal to the number of charges spent.
+When you expend movement on your turn, the space that you pass through falls into a pool of viscous, ominous shadow.
+Whenever a creature enters the trail or they start their turn in it, they take necrotic damage equal to the boots' erebian affinity.
+When you have expended more movement than 15 feet per </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">erebian</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> affinity, you no longer emanate this trail, but the trail lasts until the start of your next turn.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">This piece of ammunition deals 1d4 extra necrotic damage.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When ingested, this potion grants immunity to necrotic damage.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unarmed strikes made with the tattooed area deal 1d4 extra necrotic damage.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nyxian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This material is imbued with the primeval essence of dreams.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This material increases the emission radius of enchantment spells that conduct through it by a number of inches equal to 5x its nyxian affinity.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This item counts as holding a number of tiers of psychic affinity equal to its nyxian affinity.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This melee weapon deals 1 extra psychic damage.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">While you wear this headgear, you can understand Deep Speech, and once per long rest, you may cast the </t>
     </r>
@@ -3237,6 +4508,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">charm monster</t>
     </r>
@@ -3246,6 +4518,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> spell on an aberration, with a save DC equal to 10 + the headgear's nyxian affinity.
 </t>
@@ -3256,31 +4529,32 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">
 You can only target aberrations of a CR lower than 2 times this headgear's nyxian affinity.</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">When this cloak is used to intercept damage, you may reduce its hit points to zero to become immune to either lightning or thunder damage until the end of your next turn.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This armour grants its wearer resistance to one of either thunder or lightning damage.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">While you wear these boots, you have a flying speed equal to your walking speed.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Illusion spells cast through this staff's core are upcast by 1 level.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This piece of ammunition deals 1 extra lightning or thunder damage.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">When ingested, this potion grants resistance to lightning or thunder damage.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unarmed strikes made with the tattooed area deal 1 extra lightning or thunder damage.</t>
+    <t xml:space="preserve">When this cloak is used to intercept damage, you may reduce its hit points to zero to become immune to psychic damage until the end of your next turn.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This armour grants its wearer resistance to psychic damage.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">While you wear these boots, if you would make a Wisdom saving throw against an effect that would force you to move, you have a bonus to your save equal to these boots’ nyxian affinity.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This piece of ammunition deals 1 extra psychic damage.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When ingested, this potion grants resistance to psychic damage.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unarmed strikes made with the tattooed area deal 1 extra psychic damage.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This melee weapon deals 1d4 extra psychic damage.</t>
   </si>
   <si>
     <r>
@@ -3289,6 +4563,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">While you wear this headgear, once per long rest, you may cast the </t>
     </r>
@@ -3299,6 +4574,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">dominate monster</t>
     </r>
@@ -3308,227 +4584,57 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> spell on an aberration, with a save DC equal to 10 + the headgear's nyxian affinity.
 You can only target aberrations of a CR lower than 2 times this headgear's nyxian affinity.</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">This armour grants its wearer immunity to one of either thunder or lightning damage.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">When you expend movement on your turn, the space that you pass through sparks and howls with brewing storms.
-Whenever a creature enters the trail or they start their turn in it, they take lightning or thunder damage equal to the boots' auran affinity.
-When you have expended more movement than 15 feet per auran affinity, you no longer emanate this trail, but the trail lasts until the start of your next turn.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unarmed strikes made with the tattooed area deal 1d6 extra lightning or thunder damage.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Luthian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This material is imbued with the primeval essence of light.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This material increases the emission radius of divination spells that conduct through it by a number of inches equal to 5x its luthian affinity.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This item counts as holding a number of tiers of radiant affinity equal to its luthian affinity.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This melee weapon deals 1 extra radiant damage.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">While you wear this headgear, you can understand Sylvan, and once per long rest, you may cast the dominate person spell on an a fey, with a save DC equal to 10 + the headgear's luthian affinity.
-You can only dominate celestials of a CR lower than 2 times this headgear's luthian affinity.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">When this cloak is used to intercept damage, you may reduce its hit points to zero to become immune to radiant damage until the end of your next turn.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This armour grants its wearer resistance to radiant damage.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">When you expend movement on your turn, the space that you pass through blazes with bright light.
-Whenever a creature enters the trail or they start their turn in it, they take radiant damage equal to the boots' luthian affinity.
-When you have expended more movement than 15 feet per luthian affinity, you no longer emanate this trail, but the trail lasts until the start of your next turn.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Divination spells cast through this staff's core are upcast by 1 level.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This piece of ammunition deals 1 extra radiant damage.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">When ingested, this potion grants resistance to radiant damage.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unarmed strikes made with the tattooed area deal 1 extra radiant damage.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">When you make an attack with this weapon, you can charge your weapon with radiant energy, firing a blasting wave of light that illuminates all things.
-The space you target is the origin of the wave, which must be directed away from you (when applicable). You choose the form of the wave’s area from the following options:
- • A 5-foot-wide line with a length of 10 feet per luthian affinity.
- • A cone of size 5 feet per luthian affinity.
- • A radius-area 10 feet per 3 luthian affinity centered on the point of impact.
-All creatures (except you) within the affected area must succeed on a Constitution saving throw equal to 10 + (2 * luthian affinity) or take 2d10 points of radiant damage per luthian affinity, bathed in an illuminating light. A successful saving throw halves the damage and prevents the illumination. This illuminating light forces disadvantage on Stealth checks to hide, and nullifies invisibility.
-Once this ability has been used, it can no longer be used until the weapon has spent a short or long rest bathed in bright light.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This armour grants its wearer immunity to radiant damage.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unarmed strikes made with the tattooed area deal 1d6 extra radiant damage.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Erebian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This material is imbued with the primeval essence of darkness.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This material increases the emission radius of necromancy spells that conduct through it by a number of inches equal to 5x its erebian affinity.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This item counts as holding a number of tiers of necrotic affinity equal to its erebian affinity.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This melee weapon deals 1 extra necrotic damage.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">While you wear this headgear, you can communicate telepathically with undead, and once per long rest, you may cast the </t>
-    </r>
-    <r>
-      <rPr>
-        <i val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">dominate monster</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> spell on an undead, with a save DC equal to 10 + the headgear's erebian affinity.
-You can only dominate undead of a CR lower than 2 times this headgear's erebian affinity.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">When this cloak is used to intercept damage, you may reduce its hit points to zero to become immune to necrotic damage until the end of your next turn.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This armour grants its wearer resistance to necrotic damage.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">When you expend movement on your turn, the space that you pass through pools with enervating darkness.
-Whenever a creature enters the trail or they start their turn in it, they take necrotic damage equal to the boots' erebian affinity.
-When you have expended more movement than 15 feet per erebian affinity, you no longer emanate this trail, but the trail lasts until the start of your next turn.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Necromancy spells cast through this staff's core are upcast by 1 level.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This piece of ammunition deals 1 extra necrotic damage.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unarmed strikes made with the tattooed area deal 1 extra necrotic damage.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This armour grants its wearer immunity to necrotic damage.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unarmed strikes made with the tattooed area deal 1d6 extra necrotic damage.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nyxian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This material is imbued with the primeval essence of dreams.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This material increases the emission radius of enchantment spells that conduct through it by a number of inches equal to 5x its nyxian affinity.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This item counts as holding a number of tiers of psychic affinity equal to its nyxian affinity.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This melee weapon deals 1 extra psychic damage.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">While you wear this headgear, you can understand Deep Speech, and once per long rest, you may cast the </t>
-    </r>
-    <r>
-      <rPr>
-        <i val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">dominate monster</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> spell on an aberration, with a save DC equal to 10 + the headgear's nyxian affinity.
-You can only dominate aberrations of a CR lower than 2 times this headgear's nyxian affinity.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">When this cloak is used to intercept damage, you may reduce its hit points to zero to become immune to psychic damage until the end of your next turn.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This armour grants its wearer resistance to psychic damage.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enchantment spells cast through this staff's core are upcast by 1 level.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This piece of ammunition deals 1 extra psychic damage.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">When ingested, this potion grants resistance to psychic damage.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unarmed strikes made with the tattooed area deal 1 extra psychic damage.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">When you expend movement on your turn, the space that you pass through fills with dreamsmoke.
+    <t xml:space="preserve">While you wear this armour, you can spend charges to gain immunity to psychic damage for a number of rounds equal to the number of charges spent.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">While you wear these boots, you can spend charges as a bonus action to activate the following effect for a number of rounds equal to the number of charges spent.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+When you expend movement on your turn, the space that you pass through fills with dreamsmoke.
 Whenever a creature enters the trail or they start their turn in it, they take psychic damage equal to the boots' nyxian affinity.
 When you have expended more movement than 15 feet per nyxian affinity, you no longer emanate this trail, but the trail lasts until the start of your next turn.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">This piece of ammunition deals 1d4 extra psychic damage.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When ingested, this potion grants immunity to psychic damage.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unarmed strikes made with the tattooed area deal 1d4 extra psychic damage.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">This potion swirls with potent dreamsmoke and nyx.
 When ingested, the consumer must make a Wisdom save equal to 10 + (2 * the nyxian affinity) or fall </t>
@@ -3540,6 +4646,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">unconscious</t>
     </r>
@@ -3549,6 +4656,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">, suffering the effects of the </t>
     </r>
@@ -3559,6 +4667,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">dream</t>
     </r>
@@ -3568,15 +4677,13 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> spell. The brewer of this potion is the one in control of the dream.
 If it is thrown, this saving throw is forced upon all creatures within the radius of its explosion.</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Unarmed strikes made with the tattooed area deal 1d6 extra psychic damage.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Animus</t>
   </si>
   <si>
@@ -3601,6 +4708,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">While you wear this headgear, you can understand Arcane, and once per long rest, you may cast the </t>
     </r>
@@ -3611,6 +4719,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">dominate monster</t>
     </r>
@@ -3620,6 +4729,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> spell, with a save DC equal to 10 + the headgear's animus affinity.
 You can only dominate creatures of a CR lower than 2 times this headgear's animus affinity.</t>
@@ -3632,29 +4742,65 @@
     <t xml:space="preserve">This armour grants its wearer resistance to force damage.</t>
   </si>
   <si>
-    <t xml:space="preserve">When you expend movement on your turn, the space that you pass through fills with crystallised soul.
+    <t xml:space="preserve">While you wear these boots, you may move as you would normally in the material plane, while you are in the astral or ethereal planes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This piece of ammunition deals 1 extra force damage.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When ingested, this potion grants resistance to force damage.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unarmed strikes made with the tattooed area deal 1 extra force damage.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This melee weapon deals 1d4 extra force damage.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">While you wear this armour, you can spend charges to gain immunity to force damage for a number of rounds equal to the number of charges spent.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">While you wear these boots, you can spend charges as a bonus action to activate the following effect for a number of rounds equal to the number of charges spent.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+When you expend movement on your turn, the space that you pass through fills with crystallised soul.
 Whenever a creature enters the trail or they start their turn in it, they take force damage equal to the boots' animus affinity.
 When you have expended more movement than 15 feet per animus affinity, you no longer emanate this trail, but the trail lasts until the start of your next turn.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dunamancy spells cast through this staff's core are upcast by 1 level.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This piece of ammunition deals 1 extra force damage.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">When ingested, this potion grants resistance to force damage.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unarmed strikes made with the tattooed area deal 1 extra force damage.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">This piece of ammunition deals 1d4 extra force damage.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When ingested, this potion grants immunity to force damage.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unarmed strikes made with the tattooed area deal 1d4 extra force damage.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">This flask can store a soul within its cavity.
 This flask can be used as the material component of the </t>
@@ -3666,6 +4812,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">soul cage</t>
     </r>
@@ -3675,6 +4822,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> and </t>
     </r>
@@ -3685,6 +4833,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">soul jar</t>
     </r>
@@ -3694,13 +4843,11 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> spells, and you may cast both of these spells once as a bonus action through this flask.
-These spells cannot be cast again from this flask until it has spent a long rest bathed in quintescent energy.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Unarmed strikes made with the tattooed area deal 1d6 extra force damage.</t>
+These spells cannot be cast again from this flask until it has spent a long rest bathed in quintessent energy.</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Elysian</t>
@@ -3721,6 +4868,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">While you wear this helmet, your words boom with holy authority. You may cast the </t>
     </r>
@@ -3731,6 +4879,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">divine word</t>
     </r>
@@ -3740,6 +4889,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> spell, with the spell save DC equalling 10 + (2 * the elysian tier).
 Once this ability has been used, it can no longer be used until the weapon has spent a short or long rest bathed in the energies of hallowed ground.</t>
@@ -3767,6 +4917,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">While you wear this helmet, your eyes drip with black, malignant darkness. You may cast the </t>
     </r>
@@ -3777,6 +4928,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">eyebite</t>
     </r>
@@ -3786,6 +4938,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> spell, with the spell save DC equalling 10 + (2 * the hadean tier).
 Once this ability has been used, it can no longer be used until the weapon has spent a short or long rest steeped in desecrated ground.</t>
@@ -3966,6 +5119,7 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -3988,6 +5142,7 @@
       <color rgb="FF000000"/>
       <name val="Caesar"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <i val="true"/>
@@ -3995,9 +5150,11 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -4006,6 +5163,7 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <i val="true"/>
@@ -4013,9 +5171,10 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4025,7 +5184,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFD9D9D9"/>
-        <bgColor rgb="FFCCFFCC"/>
+        <bgColor rgb="FFDDDDDD"/>
       </patternFill>
     </fill>
     <fill>
@@ -4034,8 +5193,14 @@
         <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDDDDD"/>
+        <bgColor rgb="FFD9D9D9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="74">
+  <borders count="76">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -4733,6 +5898,34 @@
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right style="thin">
+        <color rgb="FF999999"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF999999"/>
+      </top>
+      <bottom style="hair">
+        <color rgb="FF999999"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin">
+        <color rgb="FF999999"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF999999"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF999999"/>
+      </top>
+      <bottom style="hair">
+        <color rgb="FF999999"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="thin">
         <color rgb="FFA6A6A6"/>
       </right>
       <top style="thin">
@@ -4834,7 +6027,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="160">
+  <cellXfs count="181">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -4992,6 +6185,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4999,6 +6196,10 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -5051,10 +6252,6 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="32" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -5335,6 +6532,18 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="21" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="58" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -5359,7 +6568,19 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="62" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="14" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="62" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5367,6 +6588,14 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="14" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="32" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="64" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -5375,40 +6604,88 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="66" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="66" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="67" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="67" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="67" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="68" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="69" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="69" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="70" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="71" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="32" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="21" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="66" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="69" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="67" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="21" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="67" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="68" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="69" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="62" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -5420,7 +6697,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="31" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -5447,23 +6724,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="70" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="72" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="71" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="73" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="70" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="72" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="72" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="74" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="73" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="75" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5520,7 +6797,7 @@
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FF00CCFF"/>
       <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFDDDDDD"/>
       <rgbColor rgb="FFFFFF99"/>
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
@@ -5554,13 +6831,13 @@
   </sheetPr>
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="54" zoomScaleNormal="54" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.60546875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="19.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="27.42"/>
@@ -6063,15 +7340,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:M1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A39" activeCellId="0" sqref="A39"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="54" zoomScaleNormal="54" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.60546875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="19.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="27.42"/>
@@ -6082,49 +7359,49 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="11" style="0" width="27.31"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="42" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="40" t="s">
         <v>80</v>
       </c>
-      <c r="D1" s="39" t="s">
+      <c r="D1" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="39" t="s">
+      <c r="E1" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="39" t="s">
+      <c r="F1" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="39" t="s">
+      <c r="G1" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="39" t="s">
+      <c r="H1" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="40" t="s">
+      <c r="I1" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="40" t="s">
+      <c r="J1" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="40" t="s">
+      <c r="K1" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="L1" s="40" t="s">
+      <c r="L1" s="41" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="2" s="5" customFormat="true" ht="24.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="43" t="s">
         <v>83</v>
       </c>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="44" t="s">
         <v>84</v>
       </c>
       <c r="C2" s="8" t="s">
@@ -6137,8 +7414,8 @@
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
     </row>
     <row r="3" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="13" t="s">
@@ -6176,33 +7453,33 @@
       <c r="K4" s="15"/>
       <c r="L4" s="15"/>
     </row>
-    <row r="5" s="5" customFormat="true" ht="115.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" s="5" customFormat="true" ht="121.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="13"/>
       <c r="B5" s="14"/>
       <c r="C5" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="D5" s="44" t="s">
+      <c r="D5" s="46" t="s">
         <v>91</v>
       </c>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="45" t="s">
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="47" t="s">
         <v>92</v>
       </c>
-      <c r="I5" s="46" t="s">
+      <c r="I5" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="J5" s="47"/>
-      <c r="K5" s="48" t="s">
+      <c r="J5" s="49"/>
+      <c r="K5" s="50" t="s">
         <v>94</v>
       </c>
-      <c r="L5" s="48" t="s">
+      <c r="L5" s="50" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="6" s="5" customFormat="true" ht="81.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" s="5" customFormat="true" ht="81.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="13" t="s">
         <v>96</v>
       </c>
@@ -6219,38 +7496,38 @@
       <c r="H6" s="15"/>
       <c r="I6" s="15"/>
       <c r="J6" s="15"/>
-      <c r="K6" s="49"/>
-      <c r="L6" s="46" t="s">
+      <c r="K6" s="51"/>
+      <c r="L6" s="48" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="7" s="5" customFormat="true" ht="58.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" s="5" customFormat="true" ht="58.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="13" t="s">
         <v>100</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="C7" s="50"/>
-      <c r="D7" s="44" t="s">
+      <c r="C7" s="52"/>
+      <c r="D7" s="46" t="s">
         <v>102</v>
       </c>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="44"/>
-      <c r="H7" s="45" t="s">
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="47" t="s">
         <v>103</v>
       </c>
-      <c r="I7" s="51"/>
-      <c r="J7" s="51"/>
-      <c r="K7" s="48" t="s">
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
+      <c r="K7" s="50" t="s">
         <v>104</v>
       </c>
-      <c r="L7" s="48" t="s">
+      <c r="L7" s="50" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="8" s="5" customFormat="true" ht="81.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" s="5" customFormat="true" ht="81.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="13" t="s">
         <v>106</v>
       </c>
@@ -6267,20 +7544,20 @@
       <c r="H8" s="24"/>
       <c r="I8" s="24"/>
       <c r="J8" s="24"/>
-      <c r="K8" s="49"/>
-      <c r="L8" s="46" t="s">
-        <v>108</v>
+      <c r="K8" s="51"/>
+      <c r="L8" s="48" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="9" s="5" customFormat="true" ht="35.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="13" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C9" s="33" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D9" s="33"/>
       <c r="E9" s="33"/>
@@ -6292,15 +7569,15 @@
       <c r="K9" s="33"/>
       <c r="L9" s="33"/>
     </row>
-    <row r="10" customFormat="false" ht="81.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="81.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="13" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D10" s="24"/>
       <c r="E10" s="24"/>
@@ -6309,176 +7586,180 @@
       <c r="H10" s="24"/>
       <c r="I10" s="24"/>
       <c r="J10" s="24"/>
-      <c r="K10" s="52"/>
-      <c r="L10" s="46" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="58.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="K10" s="54"/>
+      <c r="L10" s="48" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="67.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="13" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D11" s="15"/>
       <c r="E11" s="15"/>
       <c r="F11" s="15"/>
       <c r="G11" s="15"/>
       <c r="H11" s="15"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="44" t="s">
-        <v>119</v>
-      </c>
-      <c r="L11" s="48" t="s">
+      <c r="I11" s="55"/>
+      <c r="J11" s="55"/>
+      <c r="K11" s="46" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L11" s="50" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="69.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="54"/>
-      <c r="D12" s="54"/>
-      <c r="E12" s="54"/>
-      <c r="F12" s="54"/>
-      <c r="G12" s="54"/>
-      <c r="H12" s="54"/>
-      <c r="I12" s="53"/>
-      <c r="J12" s="53"/>
-      <c r="K12" s="55" t="s">
         <v>122</v>
       </c>
-      <c r="L12" s="55" t="s">
+      <c r="B12" s="7" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="115.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C12" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="55"/>
+      <c r="J12" s="55"/>
+      <c r="K12" s="56" t="s">
+        <v>125</v>
+      </c>
+      <c r="L12" s="56" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="121.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C13" s="33" t="s">
-        <v>126</v>
-      </c>
-      <c r="D13" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="E13" s="56"/>
-      <c r="F13" s="44" t="s">
-        <v>128</v>
-      </c>
-      <c r="G13" s="44" t="s">
         <v>129</v>
       </c>
-      <c r="H13" s="56"/>
-      <c r="I13" s="48" t="s">
+      <c r="D13" s="46" t="s">
         <v>130</v>
       </c>
-      <c r="J13" s="48" t="s">
+      <c r="E13" s="57"/>
+      <c r="F13" s="46" t="s">
         <v>131</v>
       </c>
-      <c r="K13" s="57"/>
-      <c r="L13" s="57"/>
+      <c r="G13" s="46" t="s">
+        <v>132</v>
+      </c>
+      <c r="H13" s="57"/>
+      <c r="I13" s="50" t="s">
+        <v>133</v>
+      </c>
+      <c r="J13" s="50" t="s">
+        <v>134</v>
+      </c>
+      <c r="K13" s="58"/>
+      <c r="L13" s="58"/>
     </row>
     <row r="14" customFormat="false" ht="104.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="s">
         <v>10</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C14" s="33" t="s">
-        <v>133</v>
-      </c>
-      <c r="D14" s="58"/>
-      <c r="E14" s="58"/>
-      <c r="F14" s="58"/>
-      <c r="G14" s="58"/>
-      <c r="H14" s="58"/>
-      <c r="I14" s="48" t="s">
-        <v>134</v>
-      </c>
-      <c r="J14" s="48" t="s">
-        <v>135</v>
-      </c>
-      <c r="K14" s="57"/>
-      <c r="L14" s="57"/>
-    </row>
-    <row r="15" customFormat="false" ht="92.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>136</v>
+      </c>
+      <c r="D14" s="59"/>
+      <c r="E14" s="59"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="59"/>
+      <c r="H14" s="59"/>
+      <c r="I14" s="50" t="s">
+        <v>137</v>
+      </c>
+      <c r="J14" s="50" t="s">
+        <v>138</v>
+      </c>
+      <c r="K14" s="58"/>
+      <c r="L14" s="58"/>
+    </row>
+    <row r="15" customFormat="false" ht="93.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C15" s="33" t="s">
-        <v>138</v>
-      </c>
-      <c r="D15" s="59" t="s">
-        <v>139</v>
-      </c>
-      <c r="E15" s="60" t="s">
-        <v>140</v>
+        <v>141</v>
+      </c>
+      <c r="D15" s="60" t="s">
+        <v>142</v>
+      </c>
+      <c r="E15" s="61" t="s">
+        <v>143</v>
       </c>
       <c r="F15" s="22" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="G15" s="22" t="s">
-        <v>142</v>
-      </c>
-      <c r="H15" s="61" t="s">
-        <v>143</v>
-      </c>
-      <c r="I15" s="55" t="s">
-        <v>144</v>
-      </c>
-      <c r="J15" s="55" t="s">
-        <v>144</v>
-      </c>
-      <c r="K15" s="57"/>
-      <c r="L15" s="57"/>
-    </row>
-    <row r="16" customFormat="false" ht="104.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>145</v>
+      </c>
+      <c r="H15" s="62" t="s">
+        <v>146</v>
+      </c>
+      <c r="I15" s="56" t="s">
+        <v>147</v>
+      </c>
+      <c r="J15" s="56" t="s">
+        <v>147</v>
+      </c>
+      <c r="K15" s="58"/>
+      <c r="L15" s="58"/>
+    </row>
+    <row r="16" customFormat="false" ht="110.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="13" t="s">
         <v>13</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C16" s="33" t="s">
-        <v>146</v>
-      </c>
-      <c r="D16" s="62"/>
-      <c r="E16" s="62"/>
-      <c r="F16" s="44" t="s">
-        <v>147</v>
-      </c>
-      <c r="G16" s="44" t="s">
-        <v>148</v>
-      </c>
-      <c r="H16" s="63"/>
-      <c r="I16" s="46" t="s">
         <v>149</v>
       </c>
-      <c r="J16" s="46" t="s">
-        <v>149</v>
-      </c>
-      <c r="K16" s="57"/>
-      <c r="L16" s="57"/>
+      <c r="D16" s="63"/>
+      <c r="E16" s="63"/>
+      <c r="F16" s="46" t="s">
+        <v>150</v>
+      </c>
+      <c r="G16" s="46" t="s">
+        <v>151</v>
+      </c>
+      <c r="H16" s="64"/>
+      <c r="I16" s="48" t="s">
+        <v>152</v>
+      </c>
+      <c r="J16" s="48" t="s">
+        <v>152</v>
+      </c>
+      <c r="K16" s="58"/>
+      <c r="L16" s="58"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="13"/>
       <c r="B17" s="7"/>
       <c r="C17" s="15" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D17" s="15"/>
       <c r="E17" s="15"/>
@@ -6487,42 +7768,42 @@
       <c r="H17" s="15"/>
       <c r="I17" s="15"/>
       <c r="J17" s="15"/>
-      <c r="K17" s="57"/>
-      <c r="L17" s="57"/>
-    </row>
-    <row r="18" customFormat="false" ht="92.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="K17" s="58"/>
+      <c r="L17" s="58"/>
+    </row>
+    <row r="18" customFormat="false" ht="99.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="13" t="s">
         <v>16</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C18" s="33" t="s">
-        <v>152</v>
-      </c>
-      <c r="D18" s="62"/>
-      <c r="E18" s="62"/>
-      <c r="F18" s="44" t="s">
-        <v>153</v>
-      </c>
-      <c r="G18" s="44" t="s">
-        <v>154</v>
-      </c>
-      <c r="H18" s="64"/>
-      <c r="I18" s="46" t="s">
         <v>155</v>
       </c>
-      <c r="J18" s="46" t="s">
-        <v>155</v>
-      </c>
-      <c r="K18" s="57"/>
-      <c r="L18" s="57"/>
+      <c r="D18" s="63"/>
+      <c r="E18" s="63"/>
+      <c r="F18" s="46" t="s">
+        <v>156</v>
+      </c>
+      <c r="G18" s="46" t="s">
+        <v>157</v>
+      </c>
+      <c r="H18" s="65"/>
+      <c r="I18" s="48" t="s">
+        <v>158</v>
+      </c>
+      <c r="J18" s="48" t="s">
+        <v>158</v>
+      </c>
+      <c r="K18" s="58"/>
+      <c r="L18" s="58"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="13"/>
       <c r="B19" s="7"/>
       <c r="C19" s="15" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="D19" s="15"/>
       <c r="E19" s="15"/>
@@ -6536,13 +7817,13 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="13" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D20" s="19"/>
       <c r="E20" s="19"/>
@@ -6553,37 +7834,37 @@
       <c r="J20" s="19"/>
       <c r="K20" s="19"/>
       <c r="L20" s="19"/>
-      <c r="M20" s="65"/>
-    </row>
-    <row r="21" customFormat="false" ht="69.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="M20" s="66"/>
+    </row>
+    <row r="21" customFormat="false" ht="69.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="13"/>
       <c r="B21" s="14"/>
-      <c r="C21" s="66" t="s">
-        <v>160</v>
-      </c>
-      <c r="D21" s="66"/>
-      <c r="E21" s="66"/>
-      <c r="F21" s="66"/>
-      <c r="G21" s="66"/>
-      <c r="H21" s="66"/>
-      <c r="I21" s="66"/>
-      <c r="J21" s="66"/>
-      <c r="K21" s="46" t="s">
-        <v>161</v>
-      </c>
-      <c r="L21" s="67" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="81.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C21" s="67" t="s">
+        <v>163</v>
+      </c>
+      <c r="D21" s="67"/>
+      <c r="E21" s="67"/>
+      <c r="F21" s="67"/>
+      <c r="G21" s="67"/>
+      <c r="H21" s="67"/>
+      <c r="I21" s="67"/>
+      <c r="J21" s="67"/>
+      <c r="K21" s="48" t="s">
+        <v>164</v>
+      </c>
+      <c r="L21" s="68" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="81.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="18" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="D22" s="15"/>
       <c r="E22" s="15"/>
@@ -6592,22 +7873,22 @@
       <c r="H22" s="15"/>
       <c r="I22" s="15"/>
       <c r="J22" s="15"/>
-      <c r="K22" s="68" t="s">
-        <v>166</v>
-      </c>
-      <c r="L22" s="48" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="24.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="K22" s="69" t="s">
+        <v>169</v>
+      </c>
+      <c r="L22" s="50" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="23.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="18" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D23" s="15"/>
       <c r="E23" s="15"/>
@@ -6617,17 +7898,17 @@
       <c r="I23" s="15"/>
       <c r="J23" s="15"/>
       <c r="K23" s="33" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="L23" s="33" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="18"/>
       <c r="B24" s="14"/>
       <c r="C24" s="15" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D24" s="15"/>
       <c r="E24" s="15"/>
@@ -6643,7 +7924,7 @@
       <c r="A25" s="18"/>
       <c r="B25" s="14"/>
       <c r="C25" s="15" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D25" s="15"/>
       <c r="E25" s="15"/>
@@ -6655,337 +7936,337 @@
       <c r="K25" s="33"/>
       <c r="L25" s="33"/>
     </row>
-    <row r="26" customFormat="false" ht="24.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="23.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>176</v>
-      </c>
-      <c r="C26" s="69" t="s">
-        <v>177</v>
-      </c>
-      <c r="D26" s="69"/>
-      <c r="E26" s="69"/>
-      <c r="F26" s="69"/>
-      <c r="G26" s="69"/>
-      <c r="H26" s="69"/>
-      <c r="I26" s="69"/>
-      <c r="J26" s="69"/>
-      <c r="K26" s="69"/>
-      <c r="L26" s="69"/>
-    </row>
-    <row r="27" customFormat="false" ht="24.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>179</v>
+      </c>
+      <c r="C26" s="70" t="s">
+        <v>180</v>
+      </c>
+      <c r="D26" s="70"/>
+      <c r="E26" s="70"/>
+      <c r="F26" s="70"/>
+      <c r="G26" s="70"/>
+      <c r="H26" s="70"/>
+      <c r="I26" s="70"/>
+      <c r="J26" s="70"/>
+      <c r="K26" s="70"/>
+      <c r="L26" s="70"/>
+    </row>
+    <row r="27" customFormat="false" ht="23.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="10" t="s">
-        <v>178</v>
-      </c>
-      <c r="B27" s="70" t="s">
-        <v>179</v>
-      </c>
-      <c r="C27" s="69" t="s">
-        <v>180</v>
-      </c>
-      <c r="D27" s="69"/>
-      <c r="E27" s="69"/>
-      <c r="F27" s="69"/>
-      <c r="G27" s="69"/>
-      <c r="H27" s="69"/>
-      <c r="I27" s="69"/>
-      <c r="J27" s="69"/>
-      <c r="K27" s="69"/>
-      <c r="L27" s="69"/>
-    </row>
-    <row r="28" customFormat="false" ht="24.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>181</v>
+      </c>
+      <c r="B27" s="71" t="s">
+        <v>182</v>
+      </c>
+      <c r="C27" s="70" t="s">
+        <v>183</v>
+      </c>
+      <c r="D27" s="70"/>
+      <c r="E27" s="70"/>
+      <c r="F27" s="70"/>
+      <c r="G27" s="70"/>
+      <c r="H27" s="70"/>
+      <c r="I27" s="70"/>
+      <c r="J27" s="70"/>
+      <c r="K27" s="70"/>
+      <c r="L27" s="70"/>
+    </row>
+    <row r="28" customFormat="false" ht="23.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="B28" s="70" t="s">
-        <v>182</v>
-      </c>
-      <c r="C28" s="69" t="s">
-        <v>183</v>
-      </c>
-      <c r="D28" s="69"/>
-      <c r="E28" s="69"/>
-      <c r="F28" s="69"/>
-      <c r="G28" s="69"/>
-      <c r="H28" s="69"/>
-      <c r="I28" s="69"/>
-      <c r="J28" s="69"/>
-      <c r="K28" s="69"/>
-      <c r="L28" s="69"/>
-    </row>
-    <row r="29" customFormat="false" ht="24.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>184</v>
+      </c>
+      <c r="B28" s="71" t="s">
+        <v>185</v>
+      </c>
+      <c r="C28" s="70" t="s">
+        <v>186</v>
+      </c>
+      <c r="D28" s="70"/>
+      <c r="E28" s="70"/>
+      <c r="F28" s="70"/>
+      <c r="G28" s="70"/>
+      <c r="H28" s="70"/>
+      <c r="I28" s="70"/>
+      <c r="J28" s="70"/>
+      <c r="K28" s="70"/>
+      <c r="L28" s="70"/>
+    </row>
+    <row r="29" customFormat="false" ht="23.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="B29" s="70" t="s">
-        <v>185</v>
-      </c>
-      <c r="C29" s="69" t="s">
-        <v>186</v>
-      </c>
-      <c r="D29" s="69"/>
-      <c r="E29" s="69"/>
-      <c r="F29" s="69"/>
-      <c r="G29" s="69"/>
-      <c r="H29" s="69"/>
-      <c r="I29" s="69"/>
-      <c r="J29" s="69"/>
-      <c r="K29" s="69"/>
-      <c r="L29" s="69"/>
-    </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>187</v>
+      </c>
+      <c r="B29" s="71" t="s">
+        <v>188</v>
+      </c>
+      <c r="C29" s="70" t="s">
+        <v>189</v>
+      </c>
+      <c r="D29" s="70"/>
+      <c r="E29" s="70"/>
+      <c r="F29" s="70"/>
+      <c r="G29" s="70"/>
+      <c r="H29" s="70"/>
+      <c r="I29" s="70"/>
+      <c r="J29" s="70"/>
+      <c r="K29" s="70"/>
+      <c r="L29" s="70"/>
+    </row>
+    <row r="30" customFormat="false" ht="23.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="B30" s="70" t="s">
-        <v>188</v>
-      </c>
-      <c r="C30" s="69" t="s">
-        <v>189</v>
-      </c>
-      <c r="D30" s="69"/>
-      <c r="E30" s="69"/>
-      <c r="F30" s="69"/>
-      <c r="G30" s="69"/>
-      <c r="H30" s="69"/>
-      <c r="I30" s="69"/>
-      <c r="J30" s="69"/>
-      <c r="K30" s="69"/>
-      <c r="L30" s="69"/>
-    </row>
-    <row r="31" customFormat="false" ht="24.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>190</v>
+      </c>
+      <c r="B30" s="71" t="s">
+        <v>191</v>
+      </c>
+      <c r="C30" s="70" t="s">
+        <v>192</v>
+      </c>
+      <c r="D30" s="70"/>
+      <c r="E30" s="70"/>
+      <c r="F30" s="70"/>
+      <c r="G30" s="70"/>
+      <c r="H30" s="70"/>
+      <c r="I30" s="70"/>
+      <c r="J30" s="70"/>
+      <c r="K30" s="70"/>
+      <c r="L30" s="70"/>
+    </row>
+    <row r="31" customFormat="false" ht="23.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="B31" s="70" t="s">
-        <v>191</v>
-      </c>
-      <c r="C31" s="69" t="s">
-        <v>192</v>
-      </c>
-      <c r="D31" s="69"/>
-      <c r="E31" s="69"/>
-      <c r="F31" s="69"/>
-      <c r="G31" s="69"/>
-      <c r="H31" s="69"/>
-      <c r="I31" s="69"/>
-      <c r="J31" s="69"/>
-      <c r="K31" s="69"/>
-      <c r="L31" s="69"/>
-    </row>
-    <row r="32" customFormat="false" ht="24.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>193</v>
+      </c>
+      <c r="B31" s="71" t="s">
+        <v>194</v>
+      </c>
+      <c r="C31" s="70" t="s">
+        <v>195</v>
+      </c>
+      <c r="D31" s="70"/>
+      <c r="E31" s="70"/>
+      <c r="F31" s="70"/>
+      <c r="G31" s="70"/>
+      <c r="H31" s="70"/>
+      <c r="I31" s="70"/>
+      <c r="J31" s="70"/>
+      <c r="K31" s="70"/>
+      <c r="L31" s="70"/>
+    </row>
+    <row r="32" customFormat="false" ht="23.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="10" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>194</v>
-      </c>
-      <c r="C32" s="69" t="s">
-        <v>195</v>
-      </c>
-      <c r="D32" s="69"/>
-      <c r="E32" s="69"/>
-      <c r="F32" s="69"/>
-      <c r="G32" s="69"/>
-      <c r="H32" s="69"/>
-      <c r="I32" s="69"/>
-      <c r="J32" s="69"/>
-      <c r="K32" s="69"/>
-      <c r="L32" s="69"/>
+        <v>197</v>
+      </c>
+      <c r="C32" s="70" t="s">
+        <v>198</v>
+      </c>
+      <c r="D32" s="70"/>
+      <c r="E32" s="70"/>
+      <c r="F32" s="70"/>
+      <c r="G32" s="70"/>
+      <c r="H32" s="70"/>
+      <c r="I32" s="70"/>
+      <c r="J32" s="70"/>
+      <c r="K32" s="70"/>
+      <c r="L32" s="70"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="71" t="s">
-        <v>196</v>
+      <c r="A33" s="72" t="s">
+        <v>199</v>
       </c>
       <c r="B33" s="28" t="s">
-        <v>197</v>
-      </c>
-      <c r="C33" s="72" t="s">
-        <v>198</v>
-      </c>
-      <c r="D33" s="72"/>
-      <c r="E33" s="72"/>
-      <c r="F33" s="72"/>
-      <c r="G33" s="72"/>
-      <c r="H33" s="72"/>
-      <c r="I33" s="72"/>
-      <c r="J33" s="72"/>
-      <c r="K33" s="72"/>
-      <c r="L33" s="72"/>
-    </row>
-    <row r="34" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="71"/>
+        <v>200</v>
+      </c>
+      <c r="C33" s="73" t="s">
+        <v>201</v>
+      </c>
+      <c r="D33" s="73"/>
+      <c r="E33" s="73"/>
+      <c r="F33" s="73"/>
+      <c r="G33" s="73"/>
+      <c r="H33" s="73"/>
+      <c r="I33" s="73"/>
+      <c r="J33" s="73"/>
+      <c r="K33" s="73"/>
+      <c r="L33" s="73"/>
+    </row>
+    <row r="34" customFormat="false" ht="58.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="72"/>
       <c r="B34" s="28"/>
       <c r="C34" s="33" t="s">
-        <v>199</v>
-      </c>
-      <c r="D34" s="73"/>
-      <c r="E34" s="44" t="s">
-        <v>200</v>
+        <v>202</v>
+      </c>
+      <c r="D34" s="74"/>
+      <c r="E34" s="46" t="s">
+        <v>203</v>
       </c>
       <c r="F34" s="22" t="s">
-        <v>201</v>
-      </c>
-      <c r="G34" s="62"/>
-      <c r="H34" s="62"/>
-      <c r="I34" s="44" t="s">
-        <v>202</v>
-      </c>
-      <c r="J34" s="44" t="s">
-        <v>203</v>
-      </c>
-      <c r="K34" s="48" t="s">
         <v>204</v>
       </c>
-      <c r="L34" s="48" t="s">
+      <c r="G34" s="63"/>
+      <c r="H34" s="63"/>
+      <c r="I34" s="46" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="35" customFormat="false" ht="58.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="74" t="s">
+      <c r="J34" s="46" t="s">
         <v>206</v>
       </c>
-      <c r="B35" s="75" t="s">
+      <c r="K34" s="50" t="s">
         <v>207</v>
       </c>
-      <c r="C35" s="76" t="s">
+      <c r="L34" s="50" t="s">
         <v>208</v>
       </c>
-      <c r="D35" s="76"/>
-      <c r="E35" s="76"/>
-      <c r="F35" s="76"/>
-      <c r="G35" s="76"/>
-      <c r="H35" s="76"/>
-      <c r="I35" s="76"/>
-      <c r="J35" s="60" t="s">
+    </row>
+    <row r="35" customFormat="false" ht="58.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="75" t="s">
         <v>209</v>
       </c>
-      <c r="K35" s="77" t="s">
+      <c r="B35" s="76" t="s">
         <v>210</v>
       </c>
-      <c r="L35" s="78" t="s">
+      <c r="C35" s="77" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="36" s="82" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="79" t="s">
+      <c r="D35" s="77"/>
+      <c r="E35" s="77"/>
+      <c r="F35" s="77"/>
+      <c r="G35" s="77"/>
+      <c r="H35" s="77"/>
+      <c r="I35" s="77"/>
+      <c r="J35" s="61" t="s">
         <v>212</v>
       </c>
-      <c r="B36" s="80" t="s">
+      <c r="K35" s="78" t="s">
         <v>213</v>
       </c>
-      <c r="C36" s="81" t="s">
+      <c r="L35" s="79" t="s">
         <v>214</v>
       </c>
-      <c r="D36" s="81"/>
-      <c r="E36" s="81"/>
-      <c r="F36" s="81"/>
-      <c r="G36" s="81"/>
-      <c r="H36" s="81"/>
-      <c r="I36" s="81"/>
-      <c r="J36" s="81"/>
-      <c r="K36" s="81"/>
-      <c r="L36" s="81"/>
-    </row>
-    <row r="37" customFormat="false" ht="676.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="79"/>
-      <c r="B37" s="80"/>
-      <c r="C37" s="83" t="s">
+    </row>
+    <row r="36" s="83" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="80" t="s">
         <v>215</v>
       </c>
-      <c r="D37" s="60" t="s">
+      <c r="B36" s="81" t="s">
         <v>216</v>
+      </c>
+      <c r="C36" s="82" t="s">
+        <v>217</v>
+      </c>
+      <c r="D36" s="82"/>
+      <c r="E36" s="82"/>
+      <c r="F36" s="82"/>
+      <c r="G36" s="82"/>
+      <c r="H36" s="82"/>
+      <c r="I36" s="82"/>
+      <c r="J36" s="82"/>
+      <c r="K36" s="82"/>
+      <c r="L36" s="82"/>
+    </row>
+    <row r="37" customFormat="false" ht="664.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="80"/>
+      <c r="B37" s="81"/>
+      <c r="C37" s="84" t="s">
+        <v>218</v>
+      </c>
+      <c r="D37" s="61" t="s">
+        <v>219</v>
       </c>
       <c r="E37" s="17"/>
       <c r="F37" s="17"/>
       <c r="G37" s="17"/>
-      <c r="H37" s="84" t="s">
-        <v>217</v>
-      </c>
-      <c r="I37" s="60" t="s">
-        <v>218</v>
-      </c>
-      <c r="J37" s="60" t="s">
-        <v>203</v>
-      </c>
-      <c r="K37" s="85" t="s">
-        <v>219</v>
-      </c>
-      <c r="L37" s="48" t="s">
+      <c r="H37" s="85" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="38" customFormat="false" ht="58.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="79" t="s">
+      <c r="I37" s="61" t="s">
         <v>221</v>
       </c>
-      <c r="B38" s="80" t="s">
+      <c r="J37" s="61" t="s">
+        <v>206</v>
+      </c>
+      <c r="K37" s="86" t="s">
         <v>222</v>
       </c>
-      <c r="C38" s="86" t="s">
+      <c r="L37" s="50" t="s">
         <v>223</v>
       </c>
-      <c r="D38" s="86"/>
-      <c r="E38" s="86"/>
-      <c r="F38" s="86"/>
-      <c r="G38" s="86"/>
-      <c r="H38" s="86"/>
-      <c r="I38" s="86"/>
-      <c r="J38" s="86"/>
-      <c r="K38" s="86"/>
-      <c r="L38" s="86"/>
+    </row>
+    <row r="38" customFormat="false" ht="58.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A38" s="80" t="s">
+        <v>224</v>
+      </c>
+      <c r="B38" s="81" t="s">
+        <v>225</v>
+      </c>
+      <c r="C38" s="87" t="s">
+        <v>226</v>
+      </c>
+      <c r="D38" s="87"/>
+      <c r="E38" s="87"/>
+      <c r="F38" s="87"/>
+      <c r="G38" s="87"/>
+      <c r="H38" s="87"/>
+      <c r="I38" s="87"/>
+      <c r="J38" s="87"/>
+      <c r="K38" s="87"/>
+      <c r="L38" s="87"/>
     </row>
     <row r="39" customFormat="false" ht="24.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="87" t="s">
+      <c r="A39" s="88" t="s">
         <v>52</v>
       </c>
-      <c r="B39" s="88" t="s">
-        <v>224</v>
-      </c>
-      <c r="C39" s="89" t="s">
-        <v>225</v>
-      </c>
-      <c r="D39" s="89"/>
-      <c r="E39" s="89"/>
-      <c r="F39" s="89"/>
-      <c r="G39" s="89"/>
-      <c r="H39" s="89"/>
-      <c r="I39" s="89"/>
-      <c r="J39" s="89"/>
-      <c r="K39" s="89"/>
-      <c r="L39" s="89"/>
-    </row>
-    <row r="40" customFormat="false" ht="24.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="87" t="s">
-        <v>226</v>
-      </c>
-      <c r="B40" s="88" t="s">
+      <c r="B39" s="89" t="s">
         <v>227</v>
       </c>
-      <c r="C40" s="90" t="s">
+      <c r="C39" s="90" t="s">
         <v>228</v>
       </c>
-      <c r="D40" s="90"/>
-      <c r="E40" s="90"/>
-      <c r="F40" s="90"/>
-      <c r="G40" s="90"/>
-      <c r="H40" s="90"/>
-      <c r="I40" s="90"/>
-      <c r="J40" s="90"/>
-      <c r="K40" s="90"/>
-      <c r="L40" s="90"/>
-    </row>
-    <row r="41" customFormat="false" ht="35.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="91" t="s">
+      <c r="D39" s="90"/>
+      <c r="E39" s="90"/>
+      <c r="F39" s="90"/>
+      <c r="G39" s="90"/>
+      <c r="H39" s="90"/>
+      <c r="I39" s="90"/>
+      <c r="J39" s="90"/>
+      <c r="K39" s="90"/>
+      <c r="L39" s="90"/>
+    </row>
+    <row r="40" customFormat="false" ht="23.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A40" s="88" t="s">
         <v>229</v>
       </c>
-      <c r="B41" s="92" t="s">
+      <c r="B40" s="89" t="s">
         <v>230</v>
       </c>
+      <c r="C40" s="91" t="s">
+        <v>231</v>
+      </c>
+      <c r="D40" s="91"/>
+      <c r="E40" s="91"/>
+      <c r="F40" s="91"/>
+      <c r="G40" s="91"/>
+      <c r="H40" s="91"/>
+      <c r="I40" s="91"/>
+      <c r="J40" s="91"/>
+      <c r="K40" s="91"/>
+      <c r="L40" s="91"/>
+    </row>
+    <row r="41" customFormat="false" ht="35.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A41" s="92" t="s">
+        <v>232</v>
+      </c>
+      <c r="B41" s="93" t="s">
+        <v>233</v>
+      </c>
       <c r="C41" s="15" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="D41" s="15"/>
       <c r="E41" s="15"/>
@@ -6995,302 +8276,302 @@
       <c r="I41" s="15"/>
       <c r="J41" s="15"/>
       <c r="K41" s="33" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="L41" s="33" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="87" t="s">
-        <v>234</v>
+        <v>236</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="56.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="88" t="s">
+        <v>237</v>
       </c>
       <c r="B42" s="31" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="C42" s="15" t="s">
-        <v>236</v>
-      </c>
-      <c r="D42" s="62"/>
-      <c r="E42" s="62"/>
-      <c r="F42" s="44" t="s">
-        <v>237</v>
-      </c>
-      <c r="G42" s="44" t="s">
-        <v>238</v>
-      </c>
-      <c r="H42" s="62"/>
+        <v>239</v>
+      </c>
+      <c r="D42" s="63"/>
+      <c r="E42" s="63"/>
+      <c r="F42" s="46" t="s">
+        <v>240</v>
+      </c>
+      <c r="G42" s="46" t="s">
+        <v>241</v>
+      </c>
+      <c r="H42" s="63"/>
       <c r="I42" s="33" t="s">
-        <v>239</v>
-      </c>
-      <c r="J42" s="93"/>
-      <c r="K42" s="93"/>
-      <c r="L42" s="44" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="94" t="s">
-        <v>241</v>
+        <v>242</v>
+      </c>
+      <c r="J42" s="94"/>
+      <c r="K42" s="94"/>
+      <c r="L42" s="46" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="67.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="95" t="s">
+        <v>244</v>
       </c>
       <c r="B43" s="31" t="s">
-        <v>242</v>
-      </c>
-      <c r="C43" s="95" t="s">
-        <v>243</v>
-      </c>
-      <c r="D43" s="59" t="s">
-        <v>244</v>
-      </c>
-      <c r="E43" s="55" t="s">
         <v>245</v>
       </c>
-      <c r="F43" s="59" t="s">
+      <c r="C43" s="96" t="s">
         <v>246</v>
       </c>
-      <c r="G43" s="55" t="s">
+      <c r="D43" s="60" t="s">
         <v>247</v>
       </c>
-      <c r="H43" s="62"/>
-      <c r="I43" s="96" t="s">
+      <c r="E43" s="56" t="s">
         <v>248</v>
       </c>
-      <c r="J43" s="48" t="s">
+      <c r="F43" s="60" t="s">
         <v>249</v>
       </c>
-      <c r="K43" s="97"/>
-      <c r="L43" s="97"/>
-    </row>
-    <row r="44" customFormat="false" ht="92.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="94" t="s">
+      <c r="G43" s="56" t="s">
         <v>250</v>
       </c>
+      <c r="H43" s="63"/>
+      <c r="I43" s="97" t="s">
+        <v>251</v>
+      </c>
+      <c r="J43" s="50" t="s">
+        <v>252</v>
+      </c>
+      <c r="K43" s="98"/>
+      <c r="L43" s="98"/>
+    </row>
+    <row r="44" customFormat="false" ht="99.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A44" s="95" t="s">
+        <v>253</v>
+      </c>
       <c r="B44" s="31" t="s">
-        <v>251</v>
-      </c>
-      <c r="C44" s="72" t="s">
-        <v>252</v>
-      </c>
-      <c r="D44" s="72"/>
-      <c r="E44" s="72"/>
-      <c r="F44" s="72"/>
-      <c r="G44" s="72"/>
-      <c r="H44" s="72"/>
-      <c r="I44" s="98"/>
-      <c r="J44" s="98"/>
-      <c r="K44" s="44" t="s">
-        <v>253</v>
-      </c>
-      <c r="L44" s="44" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="45" customFormat="false" ht="46.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="94" t="s">
+      <c r="C44" s="73" t="s">
         <v>255</v>
       </c>
+      <c r="D44" s="73"/>
+      <c r="E44" s="73"/>
+      <c r="F44" s="73"/>
+      <c r="G44" s="73"/>
+      <c r="H44" s="73"/>
+      <c r="I44" s="99"/>
+      <c r="J44" s="99"/>
+      <c r="K44" s="46" t="s">
+        <v>256</v>
+      </c>
+      <c r="L44" s="46" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="56.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A45" s="95" t="s">
+        <v>258</v>
+      </c>
       <c r="B45" s="31" t="s">
-        <v>256</v>
-      </c>
-      <c r="C45" s="72" t="s">
-        <v>257</v>
-      </c>
-      <c r="D45" s="72"/>
-      <c r="E45" s="72"/>
-      <c r="F45" s="72"/>
-      <c r="G45" s="72"/>
-      <c r="H45" s="72"/>
-      <c r="I45" s="98"/>
-      <c r="J45" s="98"/>
-      <c r="K45" s="44" t="s">
-        <v>258</v>
-      </c>
-      <c r="L45" s="44" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="46" customFormat="false" ht="69.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="94" t="s">
+      <c r="C45" s="73" t="s">
         <v>260</v>
       </c>
+      <c r="D45" s="73"/>
+      <c r="E45" s="73"/>
+      <c r="F45" s="73"/>
+      <c r="G45" s="73"/>
+      <c r="H45" s="73"/>
+      <c r="I45" s="99"/>
+      <c r="J45" s="99"/>
+      <c r="K45" s="46" t="s">
+        <v>261</v>
+      </c>
+      <c r="L45" s="46" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="69.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A46" s="95" t="s">
+        <v>263</v>
+      </c>
       <c r="B46" s="31" t="s">
-        <v>261</v>
-      </c>
-      <c r="C46" s="99" t="s">
-        <v>262</v>
-      </c>
-      <c r="D46" s="99"/>
-      <c r="E46" s="99"/>
-      <c r="F46" s="99"/>
-      <c r="G46" s="99"/>
-      <c r="H46" s="99"/>
-      <c r="I46" s="46" t="s">
-        <v>263</v>
-      </c>
-      <c r="J46" s="100"/>
-      <c r="K46" s="48" t="s">
         <v>264</v>
       </c>
-      <c r="L46" s="48" t="s">
+      <c r="C46" s="100" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="47" customFormat="false" ht="241.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="94" t="s">
+      <c r="D46" s="100"/>
+      <c r="E46" s="100"/>
+      <c r="F46" s="100"/>
+      <c r="G46" s="100"/>
+      <c r="H46" s="100"/>
+      <c r="I46" s="48" t="s">
         <v>266</v>
       </c>
+      <c r="J46" s="101"/>
+      <c r="K46" s="50" t="s">
+        <v>267</v>
+      </c>
+      <c r="L46" s="50" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="241.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="95" t="s">
+        <v>269</v>
+      </c>
       <c r="B47" s="31" t="s">
-        <v>267</v>
-      </c>
-      <c r="C47" s="101" t="s">
-        <v>268</v>
-      </c>
-      <c r="D47" s="102" t="s">
-        <v>269</v>
-      </c>
-      <c r="E47" s="103" t="s">
         <v>270</v>
       </c>
-      <c r="F47" s="103" t="s">
+      <c r="C47" s="102" t="s">
         <v>271</v>
       </c>
-      <c r="G47" s="103" t="s">
+      <c r="D47" s="103" t="s">
         <v>272</v>
       </c>
+      <c r="E47" s="104" t="s">
+        <v>273</v>
+      </c>
+      <c r="F47" s="104" t="s">
+        <v>274</v>
+      </c>
+      <c r="G47" s="104" t="s">
+        <v>275</v>
+      </c>
       <c r="H47" s="22" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="I47" s="17"/>
       <c r="J47" s="17"/>
-      <c r="K47" s="48" t="s">
-        <v>274</v>
-      </c>
-      <c r="L47" s="48" t="s">
-        <v>275</v>
+      <c r="K47" s="50" t="s">
+        <v>277</v>
+      </c>
+      <c r="L47" s="50" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="195.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="94" t="s">
-        <v>276</v>
+      <c r="A48" s="95" t="s">
+        <v>279</v>
       </c>
       <c r="B48" s="31" t="s">
-        <v>277</v>
-      </c>
-      <c r="C48" s="72" t="s">
-        <v>278</v>
-      </c>
-      <c r="D48" s="104"/>
-      <c r="E48" s="105" t="s">
-        <v>279</v>
+        <v>280</v>
+      </c>
+      <c r="C48" s="73" t="s">
+        <v>281</v>
+      </c>
+      <c r="D48" s="105"/>
+      <c r="E48" s="106" t="s">
+        <v>282</v>
       </c>
       <c r="F48" s="22" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="G48" s="22" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="H48" s="17"/>
       <c r="I48" s="17"/>
       <c r="J48" s="17"/>
-      <c r="K48" s="48" t="s">
-        <v>282</v>
-      </c>
-      <c r="L48" s="48" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="161.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="94" t="s">
-        <v>284</v>
+      <c r="K48" s="50" t="s">
+        <v>285</v>
+      </c>
+      <c r="L48" s="50" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="161.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="95" t="s">
+        <v>287</v>
       </c>
       <c r="B49" s="31" t="s">
-        <v>285</v>
-      </c>
-      <c r="C49" s="106"/>
-      <c r="D49" s="106"/>
-      <c r="E49" s="46" t="s">
-        <v>286</v>
+        <v>288</v>
+      </c>
+      <c r="C49" s="107"/>
+      <c r="D49" s="107"/>
+      <c r="E49" s="48" t="s">
+        <v>289</v>
       </c>
       <c r="F49" s="17"/>
       <c r="G49" s="17"/>
       <c r="H49" s="17"/>
       <c r="I49" s="17"/>
-      <c r="J49" s="48" t="s">
-        <v>287</v>
-      </c>
-      <c r="K49" s="48" t="s">
-        <v>287</v>
-      </c>
-      <c r="L49" s="46" t="s">
-        <v>288</v>
+      <c r="J49" s="50" t="s">
+        <v>290</v>
+      </c>
+      <c r="K49" s="50" t="s">
+        <v>290</v>
+      </c>
+      <c r="L49" s="48" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="115.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="94" t="s">
-        <v>289</v>
+      <c r="A50" s="95" t="s">
+        <v>292</v>
       </c>
       <c r="B50" s="31" t="s">
-        <v>290</v>
-      </c>
-      <c r="C50" s="72" t="s">
-        <v>291</v>
+        <v>293</v>
+      </c>
+      <c r="C50" s="73" t="s">
+        <v>294</v>
       </c>
       <c r="D50" s="32"/>
       <c r="E50" s="32"/>
       <c r="F50" s="32"/>
       <c r="G50" s="32"/>
       <c r="H50" s="22" t="s">
-        <v>292</v>
-      </c>
-      <c r="I50" s="69" t="s">
-        <v>293</v>
-      </c>
-      <c r="J50" s="69" t="s">
-        <v>294</v>
-      </c>
-      <c r="K50" s="48" t="s">
         <v>295</v>
       </c>
-      <c r="L50" s="69" t="s">
+      <c r="I50" s="70" t="s">
         <v>296</v>
       </c>
-      <c r="M50" s="102"/>
-    </row>
-    <row r="51" customFormat="false" ht="150" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="107" t="s">
+      <c r="J50" s="70" t="s">
         <v>297</v>
       </c>
+      <c r="K50" s="50" t="s">
+        <v>298</v>
+      </c>
+      <c r="L50" s="70" t="s">
+        <v>299</v>
+      </c>
+      <c r="M50" s="103"/>
+    </row>
+    <row r="51" customFormat="false" ht="149.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A51" s="108" t="s">
+        <v>300</v>
+      </c>
       <c r="B51" s="31" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="C51" s="21" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="D51" s="21"/>
-      <c r="E51" s="46" t="s">
-        <v>300</v>
-      </c>
-      <c r="F51" s="69" t="s">
-        <v>301</v>
-      </c>
-      <c r="G51" s="69"/>
-      <c r="H51" s="69"/>
-      <c r="I51" s="48" t="s">
-        <v>302</v>
-      </c>
-      <c r="J51" s="48" t="s">
+      <c r="E51" s="48" t="s">
         <v>303</v>
       </c>
-      <c r="K51" s="46" t="s">
+      <c r="F51" s="70" t="s">
         <v>304</v>
       </c>
-      <c r="L51" s="64"/>
+      <c r="G51" s="70"/>
+      <c r="H51" s="70"/>
+      <c r="I51" s="50" t="s">
+        <v>305</v>
+      </c>
+      <c r="J51" s="50" t="s">
+        <v>306</v>
+      </c>
+      <c r="K51" s="48" t="s">
+        <v>307</v>
+      </c>
+      <c r="L51" s="65"/>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="107"/>
+      <c r="A52" s="108"/>
       <c r="B52" s="31"/>
       <c r="C52" s="15" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="D52" s="15"/>
       <c r="E52" s="15"/>
@@ -7303,365 +8584,366 @@
       <c r="L52" s="15"/>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="107" t="s">
-        <v>306</v>
+      <c r="A53" s="108" t="s">
+        <v>309</v>
       </c>
       <c r="B53" s="31" t="s">
-        <v>307</v>
-      </c>
-      <c r="C53" s="89" t="s">
-        <v>308</v>
-      </c>
-      <c r="D53" s="89"/>
-      <c r="E53" s="89"/>
-      <c r="F53" s="89"/>
-      <c r="G53" s="89"/>
-      <c r="H53" s="89"/>
-      <c r="I53" s="89"/>
-      <c r="J53" s="89"/>
-      <c r="K53" s="89"/>
-      <c r="L53" s="89"/>
-    </row>
-    <row r="54" customFormat="false" ht="207.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="107"/>
+        <v>310</v>
+      </c>
+      <c r="C53" s="90" t="s">
+        <v>311</v>
+      </c>
+      <c r="D53" s="90"/>
+      <c r="E53" s="90"/>
+      <c r="F53" s="90"/>
+      <c r="G53" s="90"/>
+      <c r="H53" s="90"/>
+      <c r="I53" s="90"/>
+      <c r="J53" s="90"/>
+      <c r="K53" s="90"/>
+      <c r="L53" s="90"/>
+    </row>
+    <row r="54" customFormat="false" ht="207.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="108"/>
       <c r="B54" s="31"/>
       <c r="C54" s="15" t="s">
-        <v>309</v>
-      </c>
-      <c r="D54" s="44" t="s">
-        <v>310</v>
-      </c>
-      <c r="E54" s="44" t="s">
-        <v>311</v>
-      </c>
-      <c r="F54" s="44" t="s">
         <v>312</v>
       </c>
-      <c r="G54" s="44" t="s">
+      <c r="D54" s="46" t="s">
         <v>313</v>
       </c>
-      <c r="H54" s="45" t="s">
+      <c r="E54" s="46" t="s">
         <v>314</v>
       </c>
-      <c r="I54" s="46" t="s">
+      <c r="F54" s="46" t="s">
         <v>315</v>
       </c>
-      <c r="J54" s="62"/>
-      <c r="K54" s="48" t="s">
+      <c r="G54" s="46" t="s">
         <v>316</v>
       </c>
-      <c r="L54" s="48" t="s">
+      <c r="H54" s="47" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="55" customFormat="false" ht="298.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="108" t="s">
+      <c r="I54" s="48" t="s">
         <v>318</v>
       </c>
+      <c r="J54" s="63"/>
+      <c r="K54" s="50" t="s">
+        <v>319</v>
+      </c>
+      <c r="L54" s="50" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="299.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="109" t="s">
+        <v>321</v>
+      </c>
       <c r="B55" s="26" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="C55" s="15" t="s">
-        <v>320</v>
-      </c>
-      <c r="D55" s="44" t="s">
-        <v>321</v>
-      </c>
-      <c r="E55" s="44" t="s">
-        <v>322</v>
-      </c>
-      <c r="F55" s="44" t="s">
         <v>323</v>
       </c>
-      <c r="G55" s="44" t="s">
+      <c r="D55" s="46" t="s">
         <v>324</v>
       </c>
-      <c r="H55" s="45" t="s">
+      <c r="E55" s="46" t="s">
         <v>325</v>
       </c>
-      <c r="I55" s="46" t="s">
+      <c r="F55" s="46" t="s">
         <v>326</v>
       </c>
-      <c r="J55" s="62"/>
-      <c r="K55" s="48" t="s">
+      <c r="G55" s="46" t="s">
         <v>327</v>
       </c>
-      <c r="L55" s="48" t="s">
+      <c r="H55" s="47" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="56" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="94" t="s">
+      <c r="I55" s="48" t="s">
         <v>329</v>
       </c>
-      <c r="B56" s="109" t="s">
+      <c r="J55" s="63"/>
+      <c r="K55" s="50" t="s">
         <v>330</v>
       </c>
-      <c r="C56" s="101" t="s">
+      <c r="L55" s="50" t="s">
         <v>331</v>
       </c>
-      <c r="D56" s="103" t="s">
+    </row>
+    <row r="56" customFormat="false" ht="81.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="95" t="s">
         <v>332</v>
       </c>
-      <c r="E56" s="103" t="s">
+      <c r="B56" s="110" t="s">
         <v>333</v>
       </c>
-      <c r="F56" s="103" t="s">
+      <c r="C56" s="102" t="s">
         <v>334</v>
       </c>
-      <c r="G56" s="103" t="s">
+      <c r="D56" s="104" t="s">
         <v>335</v>
       </c>
-      <c r="H56" s="110" t="s">
+      <c r="E56" s="104" t="s">
         <v>336</v>
       </c>
-      <c r="I56" s="64"/>
-      <c r="J56" s="46" t="s">
+      <c r="F56" s="104" t="s">
         <v>337</v>
       </c>
-      <c r="K56" s="48" t="s">
+      <c r="G56" s="104" t="s">
         <v>338</v>
       </c>
-      <c r="L56" s="101" t="s">
+      <c r="H56" s="111" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="57" customFormat="false" ht="24.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="107" t="s">
+      <c r="I56" s="65"/>
+      <c r="J56" s="48" t="s">
         <v>340</v>
       </c>
-      <c r="B57" s="109" t="s">
+      <c r="K56" s="50" t="s">
         <v>341</v>
       </c>
-      <c r="C57" s="72" t="s">
+      <c r="L56" s="102" t="s">
         <v>342</v>
       </c>
-      <c r="D57" s="72"/>
-      <c r="E57" s="72"/>
-      <c r="F57" s="72"/>
-      <c r="G57" s="72"/>
-      <c r="H57" s="72"/>
-      <c r="I57" s="72"/>
-      <c r="J57" s="72"/>
-      <c r="K57" s="72"/>
-      <c r="L57" s="72"/>
-    </row>
-    <row r="58" customFormat="false" ht="138.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="107"/>
-      <c r="B58" s="109"/>
-      <c r="C58" s="83" t="s">
+    </row>
+    <row r="57" customFormat="false" ht="23.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A57" s="108" t="s">
         <v>343</v>
       </c>
-      <c r="D58" s="60" t="s">
+      <c r="B57" s="110" t="s">
         <v>344</v>
       </c>
-      <c r="E58" s="60" t="s">
+      <c r="C57" s="73" t="s">
         <v>345</v>
       </c>
-      <c r="F58" s="60" t="s">
+      <c r="D57" s="73"/>
+      <c r="E57" s="73"/>
+      <c r="F57" s="73"/>
+      <c r="G57" s="73"/>
+      <c r="H57" s="73"/>
+      <c r="I57" s="73"/>
+      <c r="J57" s="73"/>
+      <c r="K57" s="73"/>
+      <c r="L57" s="73"/>
+    </row>
+    <row r="58" customFormat="false" ht="138.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="108"/>
+      <c r="B58" s="110"/>
+      <c r="C58" s="84" t="s">
         <v>346</v>
       </c>
-      <c r="G58" s="60" t="s">
+      <c r="D58" s="61" t="s">
         <v>347</v>
       </c>
-      <c r="H58" s="84" t="s">
+      <c r="E58" s="61" t="s">
         <v>348</v>
       </c>
-      <c r="I58" s="56"/>
-      <c r="J58" s="60" t="s">
+      <c r="F58" s="61" t="s">
         <v>349</v>
       </c>
-      <c r="K58" s="111"/>
-      <c r="L58" s="77" t="s">
+      <c r="G58" s="61" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="59" customFormat="false" ht="24.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A59" s="107" t="s">
+      <c r="H58" s="85" t="s">
         <v>351</v>
       </c>
+      <c r="I58" s="57"/>
+      <c r="J58" s="61" t="s">
+        <v>352</v>
+      </c>
+      <c r="K58" s="112"/>
+      <c r="L58" s="78" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="23.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A59" s="108" t="s">
+        <v>354</v>
+      </c>
       <c r="B59" s="19" t="s">
-        <v>352</v>
-      </c>
-      <c r="C59" s="72" t="s">
-        <v>353</v>
-      </c>
-      <c r="D59" s="72"/>
-      <c r="E59" s="72"/>
-      <c r="F59" s="72"/>
-      <c r="G59" s="72"/>
-      <c r="H59" s="72"/>
-      <c r="I59" s="72"/>
-      <c r="J59" s="72"/>
-      <c r="K59" s="72"/>
-      <c r="L59" s="72"/>
-    </row>
-    <row r="60" customFormat="false" ht="390.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="107"/>
+        <v>355</v>
+      </c>
+      <c r="C59" s="73" t="s">
+        <v>356</v>
+      </c>
+      <c r="D59" s="73"/>
+      <c r="E59" s="73"/>
+      <c r="F59" s="73"/>
+      <c r="G59" s="73"/>
+      <c r="H59" s="73"/>
+      <c r="I59" s="73"/>
+      <c r="J59" s="73"/>
+      <c r="K59" s="73"/>
+      <c r="L59" s="73"/>
+    </row>
+    <row r="60" customFormat="false" ht="379.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="108"/>
       <c r="B60" s="19"/>
-      <c r="C60" s="112" t="s">
-        <v>354</v>
-      </c>
-      <c r="D60" s="113"/>
-      <c r="E60" s="114" t="s">
-        <v>355</v>
-      </c>
-      <c r="F60" s="114" t="s">
-        <v>356</v>
-      </c>
-      <c r="G60" s="113"/>
-      <c r="H60" s="101" t="s">
+      <c r="C60" s="113" t="s">
         <v>357</v>
       </c>
-      <c r="I60" s="98"/>
-      <c r="J60" s="98"/>
-      <c r="K60" s="77" t="s">
+      <c r="D60" s="114"/>
+      <c r="E60" s="115" t="s">
         <v>358</v>
       </c>
-      <c r="L60" s="115" t="s">
+      <c r="F60" s="115" t="s">
         <v>359</v>
       </c>
+      <c r="G60" s="114"/>
+      <c r="H60" s="102" t="s">
+        <v>360</v>
+      </c>
+      <c r="I60" s="99"/>
+      <c r="J60" s="99"/>
+      <c r="K60" s="78" t="s">
+        <v>361</v>
+      </c>
+      <c r="L60" s="116" t="s">
+        <v>362</v>
+      </c>
     </row>
     <row r="61" customFormat="false" ht="138.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="94" t="s">
-        <v>360</v>
+      <c r="A61" s="95" t="s">
+        <v>363</v>
       </c>
       <c r="B61" s="31" t="s">
-        <v>361</v>
-      </c>
-      <c r="C61" s="69" t="s">
-        <v>362</v>
+        <v>364</v>
+      </c>
+      <c r="C61" s="70" t="s">
+        <v>365</v>
       </c>
       <c r="D61" s="22" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="E61" s="22" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="F61" s="22" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="G61" s="22" t="s">
-        <v>366</v>
-      </c>
-      <c r="H61" s="61" t="s">
-        <v>367</v>
+        <v>369</v>
+      </c>
+      <c r="H61" s="62" t="s">
+        <v>370</v>
       </c>
       <c r="I61" s="32"/>
-      <c r="J61" s="48" t="s">
-        <v>368</v>
-      </c>
-      <c r="K61" s="48" t="s">
-        <v>369</v>
-      </c>
-      <c r="L61" s="48" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="94" t="s">
+      <c r="J61" s="50" t="s">
         <v>371</v>
       </c>
+      <c r="K61" s="50" t="s">
+        <v>372</v>
+      </c>
+      <c r="L61" s="50" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="78" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="95" t="s">
+        <v>374</v>
+      </c>
       <c r="B62" s="31" t="s">
-        <v>372</v>
-      </c>
-      <c r="C62" s="69" t="s">
-        <v>373</v>
+        <v>375</v>
+      </c>
+      <c r="C62" s="70" t="s">
+        <v>376</v>
       </c>
       <c r="D62" s="22" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="E62" s="22" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="F62" s="22" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="G62" s="22" t="s">
-        <v>377</v>
-      </c>
-      <c r="H62" s="61" t="s">
-        <v>378</v>
+        <v>380</v>
+      </c>
+      <c r="H62" s="62" t="s">
+        <v>381</v>
       </c>
       <c r="I62" s="32"/>
-      <c r="J62" s="48" t="s">
-        <v>379</v>
-      </c>
-      <c r="K62" s="48" t="s">
-        <v>380</v>
-      </c>
-      <c r="L62" s="48" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="424.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="94" t="s">
+      <c r="J62" s="50" t="s">
         <v>382</v>
       </c>
+      <c r="K62" s="50" t="s">
+        <v>383</v>
+      </c>
+      <c r="L62" s="50" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="413.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="95" t="s">
+        <v>385</v>
+      </c>
       <c r="B63" s="31" t="s">
-        <v>383</v>
-      </c>
-      <c r="C63" s="69" t="s">
-        <v>384</v>
+        <v>386</v>
+      </c>
+      <c r="C63" s="70" t="s">
+        <v>387</v>
       </c>
       <c r="D63" s="22" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="E63" s="22" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="F63" s="32"/>
       <c r="G63" s="32"/>
-      <c r="H63" s="61" t="s">
-        <v>387</v>
-      </c>
-      <c r="I63" s="61" t="s">
-        <v>388</v>
-      </c>
-      <c r="J63" s="62"/>
-      <c r="K63" s="96" t="s">
-        <v>389</v>
-      </c>
-      <c r="L63" s="102" t="s">
+      <c r="H63" s="62" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="64" customFormat="false" ht="424.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="94" t="s">
+      <c r="I63" s="62" t="s">
         <v>391</v>
       </c>
+      <c r="J63" s="63"/>
+      <c r="K63" s="97" t="s">
+        <v>392</v>
+      </c>
+      <c r="L63" s="103" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="424.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="95" t="s">
+        <v>394</v>
+      </c>
       <c r="B64" s="31" t="s">
-        <v>392</v>
-      </c>
-      <c r="C64" s="69" t="s">
-        <v>393</v>
+        <v>395</v>
+      </c>
+      <c r="C64" s="70" t="s">
+        <v>396</v>
       </c>
       <c r="D64" s="22" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="E64" s="22" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="F64" s="22" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="G64" s="22" t="s">
-        <v>397</v>
-      </c>
-      <c r="H64" s="61" t="s">
-        <v>398</v>
-      </c>
-      <c r="I64" s="46" t="s">
-        <v>399</v>
-      </c>
-      <c r="J64" s="62"/>
-      <c r="K64" s="48" t="s">
         <v>400</v>
       </c>
-      <c r="L64" s="48" t="s">
+      <c r="H64" s="62" t="s">
         <v>401</v>
       </c>
-    </row>
+      <c r="I64" s="48" t="s">
+        <v>402</v>
+      </c>
+      <c r="J64" s="63"/>
+      <c r="K64" s="50" t="s">
+        <v>403</v>
+      </c>
+      <c r="L64" s="50" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="90">
     <mergeCell ref="C2:J2"/>
@@ -7770,19 +9052,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N57"/>
+  <dimension ref="A1:N66"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="D33" activeCellId="0" sqref="D33"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="54" zoomScaleNormal="54" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="K19" activeCellId="0" sqref="K19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.60546875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="19.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="27.42"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="116" width="8.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="117" width="8.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="4" style="2" width="26.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="9" style="2" width="27.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="2" width="27.58"/>
@@ -7790,58 +9072,58 @@
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="16.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="117" t="s">
+      <c r="A1" s="118" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="39" t="s">
-        <v>402</v>
-      </c>
-      <c r="D1" s="39" t="s">
+      <c r="C1" s="40" t="s">
+        <v>405</v>
+      </c>
+      <c r="D1" s="40" t="s">
         <v>80</v>
       </c>
-      <c r="E1" s="39" t="s">
+      <c r="E1" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="39" t="s">
+      <c r="F1" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="39" t="s">
+      <c r="G1" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="39" t="s">
+      <c r="H1" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="39" t="s">
+      <c r="I1" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="39" t="s">
+      <c r="J1" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="39" t="s">
+      <c r="K1" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="39" t="s">
-        <v>403</v>
-      </c>
-      <c r="M1" s="39" t="s">
+      <c r="L1" s="40" t="s">
+        <v>406</v>
+      </c>
+      <c r="M1" s="40" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="2" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="118" t="s">
-        <v>404</v>
-      </c>
-      <c r="B2" s="119" t="s">
-        <v>405</v>
-      </c>
-      <c r="C2" s="120" t="n">
+      <c r="A2" s="119" t="s">
+        <v>407</v>
+      </c>
+      <c r="B2" s="120" t="s">
+        <v>408</v>
+      </c>
+      <c r="C2" s="121" t="n">
         <v>1</v>
       </c>
       <c r="D2" s="33" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="E2" s="33"/>
       <c r="F2" s="33"/>
@@ -7854,1223 +9136,1445 @@
       <c r="M2" s="33"/>
     </row>
     <row r="3" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="118"/>
-      <c r="B3" s="119"/>
-      <c r="C3" s="121" t="n">
+      <c r="A3" s="119"/>
+      <c r="B3" s="120"/>
+      <c r="C3" s="122" t="n">
         <v>2</v>
       </c>
-      <c r="D3" s="122" t="s">
-        <v>407</v>
-      </c>
-      <c r="E3" s="122"/>
-      <c r="F3" s="122"/>
-      <c r="G3" s="122"/>
-      <c r="H3" s="122"/>
-      <c r="I3" s="122"/>
-      <c r="J3" s="122"/>
-      <c r="K3" s="122"/>
-      <c r="L3" s="122"/>
-      <c r="M3" s="122"/>
-      <c r="N3" s="123"/>
-    </row>
-    <row r="4" s="5" customFormat="true" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="118"/>
-      <c r="B4" s="119"/>
-      <c r="C4" s="121" t="n">
+      <c r="D3" s="123" t="s">
+        <v>410</v>
+      </c>
+      <c r="E3" s="123"/>
+      <c r="F3" s="123"/>
+      <c r="G3" s="123"/>
+      <c r="H3" s="123"/>
+      <c r="I3" s="123"/>
+      <c r="J3" s="123"/>
+      <c r="K3" s="123"/>
+      <c r="L3" s="123"/>
+      <c r="M3" s="123"/>
+      <c r="N3" s="124"/>
+    </row>
+    <row r="4" s="5" customFormat="true" ht="184.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="119"/>
+      <c r="B4" s="120"/>
+      <c r="C4" s="122" t="n">
         <v>3</v>
       </c>
       <c r="D4" s="33" t="s">
-        <v>408</v>
-      </c>
-      <c r="E4" s="44" t="s">
-        <v>409</v>
-      </c>
-      <c r="F4" s="44" t="s">
-        <v>410</v>
+        <v>411</v>
+      </c>
+      <c r="E4" s="46" t="s">
+        <v>412</v>
+      </c>
+      <c r="F4" s="46" t="s">
+        <v>413</v>
       </c>
       <c r="G4" s="22" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="H4" s="22" t="s">
-        <v>412</v>
-      </c>
-      <c r="I4" s="44" t="s">
-        <v>413</v>
+        <v>415</v>
+      </c>
+      <c r="I4" s="46" t="s">
+        <v>416</v>
       </c>
       <c r="J4" s="33" t="s">
-        <v>414</v>
-      </c>
-      <c r="K4" s="44"/>
-      <c r="L4" s="44" t="s">
-        <v>415</v>
-      </c>
-      <c r="M4" s="44" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="281.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="118"/>
-      <c r="B5" s="119"/>
-      <c r="C5" s="124" t="n">
+        <v>417</v>
+      </c>
+      <c r="K4" s="46"/>
+      <c r="L4" s="46" t="s">
+        <v>418</v>
+      </c>
+      <c r="M4" s="46" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="295.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="119"/>
+      <c r="B5" s="120"/>
+      <c r="C5" s="125" t="n">
         <v>4</v>
       </c>
-      <c r="D5" s="69" t="s">
-        <v>417</v>
-      </c>
-      <c r="E5" s="44" t="s">
-        <v>418</v>
-      </c>
-      <c r="F5" s="50"/>
+      <c r="D5" s="70" t="s">
+        <v>420</v>
+      </c>
+      <c r="E5" s="46" t="s">
+        <v>421</v>
+      </c>
+      <c r="F5" s="126"/>
       <c r="G5" s="22" t="s">
-        <v>419</v>
-      </c>
-      <c r="H5" s="55" t="s">
-        <v>420</v>
-      </c>
-      <c r="I5" s="50"/>
-      <c r="J5" s="50"/>
-      <c r="K5" s="50"/>
-      <c r="L5" s="50"/>
-      <c r="M5" s="22" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="6" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="125" t="s">
         <v>422</v>
       </c>
-      <c r="B6" s="126" t="s">
+      <c r="H5" s="127" t="s">
         <v>423</v>
       </c>
-      <c r="C6" s="127" t="n">
+      <c r="I5" s="126" t="s">
+        <v>424</v>
+      </c>
+      <c r="J5" s="126"/>
+      <c r="K5" s="126"/>
+      <c r="L5" s="46" t="s">
+        <v>425</v>
+      </c>
+      <c r="M5" s="22"/>
+    </row>
+    <row r="6" customFormat="false" ht="282.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="119"/>
+      <c r="B6" s="120"/>
+      <c r="C6" s="125" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" s="128"/>
+      <c r="E6" s="128"/>
+      <c r="F6" s="128"/>
+      <c r="G6" s="128"/>
+      <c r="H6" s="128"/>
+      <c r="I6" s="128"/>
+      <c r="J6" s="128"/>
+      <c r="K6" s="128"/>
+      <c r="L6" s="128"/>
+      <c r="M6" s="22" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="7" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="129" t="s">
+        <v>427</v>
+      </c>
+      <c r="B7" s="130" t="s">
+        <v>428</v>
+      </c>
+      <c r="C7" s="131" t="n">
         <v>1</v>
       </c>
-      <c r="D6" s="33" t="s">
-        <v>424</v>
-      </c>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="33"/>
-      <c r="J6" s="33"/>
-      <c r="K6" s="33"/>
-      <c r="L6" s="33"/>
-      <c r="M6" s="33"/>
-    </row>
-    <row r="7" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="125"/>
-      <c r="B7" s="126"/>
-      <c r="C7" s="121" t="n">
+      <c r="D7" s="33" t="s">
+        <v>429</v>
+      </c>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="33"/>
+      <c r="L7" s="33"/>
+      <c r="M7" s="33"/>
+    </row>
+    <row r="8" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="129"/>
+      <c r="B8" s="130"/>
+      <c r="C8" s="122" t="n">
         <v>2</v>
       </c>
-      <c r="D7" s="128" t="s">
-        <v>425</v>
-      </c>
-      <c r="E7" s="128"/>
-      <c r="F7" s="128"/>
-      <c r="G7" s="128"/>
-      <c r="H7" s="128"/>
-      <c r="I7" s="128"/>
-      <c r="J7" s="128"/>
-      <c r="K7" s="128"/>
-      <c r="L7" s="128"/>
-      <c r="M7" s="128"/>
-    </row>
-    <row r="8" s="5" customFormat="true" ht="129.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="125"/>
-      <c r="B8" s="126"/>
-      <c r="C8" s="121" t="n">
+      <c r="D8" s="132" t="s">
+        <v>430</v>
+      </c>
+      <c r="E8" s="132"/>
+      <c r="F8" s="132"/>
+      <c r="G8" s="132"/>
+      <c r="H8" s="132"/>
+      <c r="I8" s="132"/>
+      <c r="J8" s="132"/>
+      <c r="K8" s="132"/>
+      <c r="L8" s="132"/>
+      <c r="M8" s="132"/>
+    </row>
+    <row r="9" s="5" customFormat="true" ht="184.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="129"/>
+      <c r="B9" s="130"/>
+      <c r="C9" s="122" t="n">
         <v>3</v>
       </c>
-      <c r="D8" s="33" t="s">
-        <v>426</v>
-      </c>
-      <c r="E8" s="44" t="s">
-        <v>427</v>
-      </c>
-      <c r="F8" s="44" t="s">
-        <v>428</v>
-      </c>
-      <c r="G8" s="55" t="s">
-        <v>429</v>
-      </c>
-      <c r="H8" s="22" t="s">
-        <v>430</v>
-      </c>
-      <c r="I8" s="55" t="s">
+      <c r="D9" s="33" t="s">
         <v>431</v>
       </c>
-      <c r="J8" s="129" t="s">
+      <c r="E9" s="46" t="s">
         <v>432</v>
       </c>
-      <c r="K8" s="55"/>
-      <c r="L8" s="55" t="s">
+      <c r="F9" s="46" t="s">
         <v>433</v>
       </c>
-      <c r="M8" s="44" t="s">
+      <c r="G9" s="56" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="378.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="125"/>
-      <c r="B9" s="126"/>
-      <c r="C9" s="130" t="n">
+      <c r="H9" s="22" t="s">
+        <v>435</v>
+      </c>
+      <c r="I9" s="46" t="s">
+        <v>436</v>
+      </c>
+      <c r="J9" s="133" t="s">
+        <v>437</v>
+      </c>
+      <c r="K9" s="56"/>
+      <c r="L9" s="56" t="s">
+        <v>438</v>
+      </c>
+      <c r="M9" s="46" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="264.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="129"/>
+      <c r="B10" s="130"/>
+      <c r="C10" s="134" t="n">
         <v>4</v>
       </c>
-      <c r="D9" s="69" t="s">
-        <v>435</v>
-      </c>
-      <c r="E9" s="44" t="s">
-        <v>436</v>
-      </c>
-      <c r="F9" s="103" t="s">
-        <v>437</v>
-      </c>
-      <c r="G9" s="22" t="s">
-        <v>438</v>
-      </c>
-      <c r="H9" s="55" t="s">
-        <v>439</v>
-      </c>
-      <c r="I9" s="73"/>
-      <c r="J9" s="73"/>
-      <c r="K9" s="73"/>
-      <c r="L9" s="73"/>
-      <c r="M9" s="44" t="s">
+      <c r="D10" s="70" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="10" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="131" t="s">
+      <c r="E10" s="46" t="s">
         <v>441</v>
       </c>
-      <c r="B10" s="132" t="s">
+      <c r="F10" s="104"/>
+      <c r="G10" s="135" t="s">
         <v>442</v>
       </c>
-      <c r="C10" s="127" t="n">
+      <c r="H10" s="127" t="s">
+        <v>443</v>
+      </c>
+      <c r="I10" s="126"/>
+      <c r="J10" s="136"/>
+      <c r="K10" s="136"/>
+      <c r="L10" s="56" t="s">
+        <v>444</v>
+      </c>
+      <c r="M10" s="46" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="356.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="129"/>
+      <c r="B11" s="130"/>
+      <c r="C11" s="134" t="n">
+        <v>5</v>
+      </c>
+      <c r="D11" s="128"/>
+      <c r="E11" s="128"/>
+      <c r="F11" s="104" t="s">
+        <v>446</v>
+      </c>
+      <c r="G11" s="137"/>
+      <c r="H11" s="137"/>
+      <c r="I11" s="137"/>
+      <c r="J11" s="137"/>
+      <c r="K11" s="137"/>
+      <c r="L11" s="137"/>
+      <c r="M11" s="137"/>
+    </row>
+    <row r="12" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="138" t="s">
+        <v>447</v>
+      </c>
+      <c r="B12" s="139" t="s">
+        <v>448</v>
+      </c>
+      <c r="C12" s="131" t="n">
         <v>1</v>
       </c>
-      <c r="D10" s="33" t="s">
-        <v>443</v>
-      </c>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="33"/>
-      <c r="I10" s="33"/>
-      <c r="J10" s="33"/>
-      <c r="K10" s="33"/>
-      <c r="L10" s="33"/>
-      <c r="M10" s="33"/>
-    </row>
-    <row r="11" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="131"/>
-      <c r="B11" s="132"/>
-      <c r="C11" s="121" t="n">
+      <c r="D12" s="33" t="s">
+        <v>449</v>
+      </c>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="33"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="33"/>
+      <c r="L12" s="33"/>
+      <c r="M12" s="33"/>
+    </row>
+    <row r="13" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="138"/>
+      <c r="B13" s="139"/>
+      <c r="C13" s="122" t="n">
         <v>2</v>
       </c>
-      <c r="D11" s="128" t="s">
-        <v>444</v>
-      </c>
-      <c r="E11" s="128"/>
-      <c r="F11" s="128"/>
-      <c r="G11" s="128"/>
-      <c r="H11" s="128"/>
-      <c r="I11" s="128"/>
-      <c r="J11" s="128"/>
-      <c r="K11" s="128"/>
-      <c r="L11" s="128"/>
-      <c r="M11" s="128"/>
-    </row>
-    <row r="12" s="5" customFormat="true" ht="129.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="131"/>
-      <c r="B12" s="132"/>
-      <c r="C12" s="121" t="n">
+      <c r="D13" s="132" t="s">
+        <v>450</v>
+      </c>
+      <c r="E13" s="132"/>
+      <c r="F13" s="132"/>
+      <c r="G13" s="132"/>
+      <c r="H13" s="132"/>
+      <c r="I13" s="132"/>
+      <c r="J13" s="132"/>
+      <c r="K13" s="132"/>
+      <c r="L13" s="132"/>
+      <c r="M13" s="132"/>
+    </row>
+    <row r="14" s="5" customFormat="true" ht="171.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="138"/>
+      <c r="B14" s="139"/>
+      <c r="C14" s="122" t="n">
         <v>3</v>
       </c>
-      <c r="D12" s="33" t="s">
-        <v>445</v>
-      </c>
-      <c r="E12" s="44" t="s">
-        <v>446</v>
-      </c>
-      <c r="F12" s="44" t="s">
-        <v>447</v>
-      </c>
-      <c r="G12" s="22" t="s">
-        <v>448</v>
-      </c>
-      <c r="H12" s="55" t="s">
-        <v>449</v>
-      </c>
-      <c r="I12" s="44" t="s">
-        <v>450</v>
-      </c>
-      <c r="J12" s="129" t="s">
+      <c r="D14" s="33" t="s">
         <v>451</v>
       </c>
-      <c r="K12" s="55"/>
-      <c r="L12" s="55" t="s">
+      <c r="E14" s="46" t="s">
         <v>452</v>
       </c>
-      <c r="M12" s="44" t="s">
+      <c r="F14" s="46" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="413.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="131"/>
-      <c r="B13" s="132"/>
-      <c r="C13" s="130" t="n">
+      <c r="G14" s="22" t="s">
+        <v>454</v>
+      </c>
+      <c r="H14" s="56" t="s">
+        <v>455</v>
+      </c>
+      <c r="I14" s="46" t="s">
+        <v>456</v>
+      </c>
+      <c r="J14" s="133" t="s">
+        <v>457</v>
+      </c>
+      <c r="K14" s="56"/>
+      <c r="L14" s="56" t="s">
+        <v>458</v>
+      </c>
+      <c r="M14" s="46" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="195.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="138"/>
+      <c r="B15" s="139"/>
+      <c r="C15" s="134" t="n">
         <v>4</v>
       </c>
-      <c r="D13" s="69" t="s">
-        <v>454</v>
-      </c>
-      <c r="E13" s="44" t="s">
-        <v>455</v>
-      </c>
-      <c r="F13" s="50"/>
-      <c r="G13" s="22" t="s">
-        <v>456</v>
-      </c>
-      <c r="H13" s="55" t="s">
-        <v>457</v>
-      </c>
-      <c r="I13" s="103" t="s">
-        <v>458</v>
-      </c>
-      <c r="J13" s="73"/>
-      <c r="K13" s="73"/>
-      <c r="L13" s="73"/>
-      <c r="M13" s="44" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="14" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="13" t="s">
+      <c r="D15" s="70" t="s">
         <v>460</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="E15" s="46" t="s">
         <v>461</v>
       </c>
-      <c r="C14" s="127" t="n">
+      <c r="F15" s="126"/>
+      <c r="G15" s="135" t="s">
+        <v>462</v>
+      </c>
+      <c r="H15" s="56" t="s">
+        <v>463</v>
+      </c>
+      <c r="I15" s="104"/>
+      <c r="J15" s="136"/>
+      <c r="K15" s="136"/>
+      <c r="L15" s="56" t="s">
+        <v>464</v>
+      </c>
+      <c r="M15" s="46" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="393.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="138"/>
+      <c r="B16" s="139"/>
+      <c r="C16" s="134" t="n">
+        <v>5</v>
+      </c>
+      <c r="D16" s="128"/>
+      <c r="E16" s="128"/>
+      <c r="F16" s="128"/>
+      <c r="G16" s="128"/>
+      <c r="H16" s="128"/>
+      <c r="I16" s="104" t="s">
+        <v>466</v>
+      </c>
+      <c r="J16" s="140"/>
+      <c r="K16" s="140"/>
+      <c r="L16" s="140"/>
+      <c r="M16" s="140"/>
+    </row>
+    <row r="17" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="13" t="s">
+        <v>467</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>468</v>
+      </c>
+      <c r="C17" s="131" t="n">
         <v>1</v>
       </c>
-      <c r="D14" s="33" t="s">
-        <v>462</v>
-      </c>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="33"/>
-      <c r="I14" s="33"/>
-      <c r="J14" s="33"/>
-      <c r="K14" s="33"/>
-      <c r="L14" s="33"/>
-      <c r="M14" s="33"/>
-    </row>
-    <row r="15" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="13"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="121" t="n">
+      <c r="D17" s="33" t="s">
+        <v>469</v>
+      </c>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="33"/>
+      <c r="J17" s="33"/>
+      <c r="K17" s="33"/>
+      <c r="L17" s="33"/>
+      <c r="M17" s="33"/>
+    </row>
+    <row r="18" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="13"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="122" t="n">
         <v>2</v>
       </c>
-      <c r="D15" s="128" t="s">
-        <v>463</v>
-      </c>
-      <c r="E15" s="128"/>
-      <c r="F15" s="128"/>
-      <c r="G15" s="128"/>
-      <c r="H15" s="128"/>
-      <c r="I15" s="128"/>
-      <c r="J15" s="128"/>
-      <c r="K15" s="128"/>
-      <c r="L15" s="128"/>
-      <c r="M15" s="128"/>
-    </row>
-    <row r="16" s="5" customFormat="true" ht="127.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="13"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="121" t="n">
+      <c r="D18" s="132" t="s">
+        <v>470</v>
+      </c>
+      <c r="E18" s="132"/>
+      <c r="F18" s="132"/>
+      <c r="G18" s="132"/>
+      <c r="H18" s="132"/>
+      <c r="I18" s="132"/>
+      <c r="J18" s="132"/>
+      <c r="K18" s="132"/>
+      <c r="L18" s="132"/>
+      <c r="M18" s="132"/>
+    </row>
+    <row r="19" s="5" customFormat="true" ht="184.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="13"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="122" t="n">
         <v>3</v>
       </c>
-      <c r="D16" s="33" t="s">
-        <v>464</v>
-      </c>
-      <c r="E16" s="44" t="s">
-        <v>465</v>
-      </c>
-      <c r="F16" s="44" t="s">
-        <v>466</v>
-      </c>
-      <c r="G16" s="22" t="s">
-        <v>467</v>
-      </c>
-      <c r="H16" s="55" t="s">
-        <v>468</v>
-      </c>
-      <c r="I16" s="55" t="s">
-        <v>469</v>
-      </c>
-      <c r="J16" s="129" t="s">
-        <v>470</v>
-      </c>
-      <c r="K16" s="55"/>
-      <c r="L16" s="55" t="s">
+      <c r="D19" s="33" t="s">
         <v>471</v>
       </c>
-      <c r="M16" s="33" t="s">
+      <c r="E19" s="46" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="17" customFormat="false" ht="234.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="13"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="130" t="n">
+      <c r="F19" s="46" t="s">
+        <v>473</v>
+      </c>
+      <c r="G19" s="22" t="s">
+        <v>474</v>
+      </c>
+      <c r="H19" s="56" t="s">
+        <v>475</v>
+      </c>
+      <c r="I19" s="46" t="s">
+        <v>476</v>
+      </c>
+      <c r="J19" s="133" t="s">
+        <v>477</v>
+      </c>
+      <c r="K19" s="56"/>
+      <c r="L19" s="56" t="s">
+        <v>478</v>
+      </c>
+      <c r="M19" s="33" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="264.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="13"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="134" t="n">
         <v>4</v>
       </c>
-      <c r="D17" s="33" t="s">
-        <v>473</v>
-      </c>
-      <c r="E17" s="69" t="s">
-        <v>474</v>
-      </c>
-      <c r="F17" s="50"/>
-      <c r="G17" s="103" t="s">
-        <v>475</v>
-      </c>
-      <c r="H17" s="55" t="s">
-        <v>476</v>
-      </c>
-      <c r="I17" s="73"/>
-      <c r="J17" s="73"/>
-      <c r="K17" s="73"/>
-      <c r="L17" s="73"/>
-      <c r="M17" s="33" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="18" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="133" t="s">
-        <v>478</v>
-      </c>
-      <c r="B18" s="134" t="s">
-        <v>479</v>
-      </c>
-      <c r="C18" s="127" t="n">
+      <c r="D20" s="33" t="s">
+        <v>480</v>
+      </c>
+      <c r="E20" s="70" t="s">
+        <v>481</v>
+      </c>
+      <c r="F20" s="126"/>
+      <c r="G20" s="135" t="s">
+        <v>482</v>
+      </c>
+      <c r="H20" s="127" t="s">
+        <v>483</v>
+      </c>
+      <c r="I20" s="136"/>
+      <c r="J20" s="133" t="s">
+        <v>484</v>
+      </c>
+      <c r="K20" s="136"/>
+      <c r="L20" s="56" t="s">
+        <v>485</v>
+      </c>
+      <c r="M20" s="33" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="332.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="13"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="134" t="n">
+        <v>5</v>
+      </c>
+      <c r="D21" s="128"/>
+      <c r="E21" s="128"/>
+      <c r="F21" s="128"/>
+      <c r="G21" s="104" t="s">
+        <v>487</v>
+      </c>
+      <c r="H21" s="141"/>
+      <c r="I21" s="141"/>
+      <c r="J21" s="141"/>
+      <c r="K21" s="141"/>
+      <c r="L21" s="141"/>
+      <c r="M21" s="141"/>
+    </row>
+    <row r="22" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="142" t="s">
+        <v>488</v>
+      </c>
+      <c r="B22" s="143" t="s">
+        <v>489</v>
+      </c>
+      <c r="C22" s="131" t="n">
         <v>1</v>
       </c>
-      <c r="D18" s="33" t="s">
-        <v>480</v>
-      </c>
-      <c r="E18" s="33"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="33"/>
-      <c r="I18" s="33"/>
-      <c r="J18" s="33"/>
-      <c r="K18" s="33"/>
-      <c r="L18" s="33"/>
-      <c r="M18" s="33"/>
-    </row>
-    <row r="19" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="133"/>
-      <c r="B19" s="134"/>
-      <c r="C19" s="121" t="n">
+      <c r="D22" s="33" t="s">
+        <v>490</v>
+      </c>
+      <c r="E22" s="33"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="33"/>
+      <c r="I22" s="33"/>
+      <c r="J22" s="33"/>
+      <c r="K22" s="33"/>
+      <c r="L22" s="33"/>
+      <c r="M22" s="33"/>
+    </row>
+    <row r="23" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="142"/>
+      <c r="B23" s="143"/>
+      <c r="C23" s="122" t="n">
         <v>2</v>
       </c>
-      <c r="D19" s="128" t="s">
+      <c r="D23" s="132" t="s">
+        <v>491</v>
+      </c>
+      <c r="E23" s="132"/>
+      <c r="F23" s="132"/>
+      <c r="G23" s="132"/>
+      <c r="H23" s="132"/>
+      <c r="I23" s="132"/>
+      <c r="J23" s="132"/>
+      <c r="K23" s="132"/>
+      <c r="L23" s="132"/>
+      <c r="M23" s="132"/>
+    </row>
+    <row r="24" s="5" customFormat="true" ht="171.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="142"/>
+      <c r="B24" s="143"/>
+      <c r="C24" s="122" t="n">
+        <v>3</v>
+      </c>
+      <c r="D24" s="33" t="s">
+        <v>492</v>
+      </c>
+      <c r="E24" s="46" t="s">
+        <v>472</v>
+      </c>
+      <c r="F24" s="56" t="s">
+        <v>493</v>
+      </c>
+      <c r="G24" s="22" t="s">
+        <v>494</v>
+      </c>
+      <c r="H24" s="56" t="s">
+        <v>495</v>
+      </c>
+      <c r="I24" s="46" t="s">
+        <v>496</v>
+      </c>
+      <c r="J24" s="33" t="s">
+        <v>497</v>
+      </c>
+      <c r="K24" s="56"/>
+      <c r="L24" s="56" t="s">
+        <v>498</v>
+      </c>
+      <c r="M24" s="46" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="25" s="83" customFormat="true" ht="307.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="142"/>
+      <c r="B25" s="143"/>
+      <c r="C25" s="134" t="n">
+        <v>4</v>
+      </c>
+      <c r="D25" s="144" t="s">
+        <v>500</v>
+      </c>
+      <c r="E25" s="145" t="s">
         <v>481</v>
       </c>
-      <c r="E19" s="128"/>
-      <c r="F19" s="128"/>
-      <c r="G19" s="128"/>
-      <c r="H19" s="128"/>
-      <c r="I19" s="128"/>
-      <c r="J19" s="128"/>
-      <c r="K19" s="128"/>
-      <c r="L19" s="128"/>
-      <c r="M19" s="128"/>
-    </row>
-    <row r="20" s="5" customFormat="true" ht="129.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="133"/>
-      <c r="B20" s="134"/>
-      <c r="C20" s="121" t="n">
+      <c r="F25" s="146"/>
+      <c r="G25" s="147" t="s">
+        <v>501</v>
+      </c>
+      <c r="H25" s="147" t="s">
+        <v>502</v>
+      </c>
+      <c r="I25" s="146"/>
+      <c r="J25" s="144" t="s">
+        <v>503</v>
+      </c>
+      <c r="K25" s="146"/>
+      <c r="L25" s="148" t="s">
+        <v>504</v>
+      </c>
+      <c r="M25" s="148" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="26" s="83" customFormat="true" ht="36.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="142"/>
+      <c r="B26" s="143"/>
+      <c r="C26" s="134" t="n">
+        <v>5</v>
+      </c>
+      <c r="D26" s="149"/>
+      <c r="E26" s="150" t="s">
+        <v>506</v>
+      </c>
+      <c r="F26" s="151"/>
+      <c r="G26" s="151"/>
+      <c r="H26" s="151"/>
+      <c r="I26" s="151"/>
+      <c r="J26" s="151"/>
+      <c r="K26" s="151"/>
+      <c r="L26" s="151"/>
+      <c r="M26" s="151"/>
+    </row>
+    <row r="27" s="154" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="152" t="s">
+        <v>507</v>
+      </c>
+      <c r="B27" s="153" t="s">
+        <v>508</v>
+      </c>
+      <c r="C27" s="131" t="n">
+        <v>1</v>
+      </c>
+      <c r="D27" s="132" t="s">
+        <v>509</v>
+      </c>
+      <c r="E27" s="132"/>
+      <c r="F27" s="132"/>
+      <c r="G27" s="132"/>
+      <c r="H27" s="132"/>
+      <c r="I27" s="132"/>
+      <c r="J27" s="132"/>
+      <c r="K27" s="132"/>
+      <c r="L27" s="132"/>
+      <c r="M27" s="132"/>
+    </row>
+    <row r="28" s="154" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="152"/>
+      <c r="B28" s="153"/>
+      <c r="C28" s="122" t="n">
+        <v>2</v>
+      </c>
+      <c r="D28" s="132" t="s">
+        <v>510</v>
+      </c>
+      <c r="E28" s="132"/>
+      <c r="F28" s="132"/>
+      <c r="G28" s="132"/>
+      <c r="H28" s="132"/>
+      <c r="I28" s="132"/>
+      <c r="J28" s="132"/>
+      <c r="K28" s="132"/>
+      <c r="L28" s="132"/>
+      <c r="M28" s="132"/>
+    </row>
+    <row r="29" s="154" customFormat="true" ht="115.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="152"/>
+      <c r="B29" s="153"/>
+      <c r="C29" s="122" t="n">
         <v>3</v>
       </c>
-      <c r="D20" s="33" t="s">
-        <v>482</v>
-      </c>
-      <c r="E20" s="135" t="s">
-        <v>483</v>
-      </c>
-      <c r="F20" s="55" t="s">
-        <v>484</v>
-      </c>
-      <c r="G20" s="22" t="s">
-        <v>485</v>
-      </c>
-      <c r="H20" s="55" t="s">
-        <v>486</v>
-      </c>
-      <c r="I20" s="55" t="s">
-        <v>487</v>
-      </c>
-      <c r="J20" s="129" t="s">
-        <v>488</v>
-      </c>
-      <c r="K20" s="55"/>
-      <c r="L20" s="55" t="s">
-        <v>489</v>
-      </c>
-      <c r="M20" s="44" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="21" s="82" customFormat="true" ht="207.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="133"/>
-      <c r="B21" s="134"/>
-      <c r="C21" s="130" t="n">
+      <c r="D29" s="33" t="s">
+        <v>511</v>
+      </c>
+      <c r="E29" s="46" t="s">
+        <v>512</v>
+      </c>
+      <c r="F29" s="56" t="s">
+        <v>513</v>
+      </c>
+      <c r="G29" s="56" t="s">
+        <v>514</v>
+      </c>
+      <c r="H29" s="56" t="s">
+        <v>515</v>
+      </c>
+      <c r="I29" s="56"/>
+      <c r="J29" s="133" t="s">
+        <v>516</v>
+      </c>
+      <c r="K29" s="56"/>
+      <c r="L29" s="56" t="s">
+        <v>517</v>
+      </c>
+      <c r="M29" s="46" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="30" s="83" customFormat="true" ht="275.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="152"/>
+      <c r="B30" s="153"/>
+      <c r="C30" s="134" t="n">
         <v>4</v>
       </c>
-      <c r="D21" s="136"/>
-      <c r="E21" s="137" t="s">
-        <v>491</v>
-      </c>
-      <c r="F21" s="138"/>
-      <c r="G21" s="22" t="s">
-        <v>492</v>
-      </c>
-      <c r="H21" s="55" t="s">
-        <v>493</v>
-      </c>
-      <c r="I21" s="138"/>
-      <c r="J21" s="138"/>
-      <c r="K21" s="138"/>
-      <c r="L21" s="138"/>
-      <c r="M21" s="44" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="22" s="141" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="139" t="s">
-        <v>495</v>
-      </c>
-      <c r="B22" s="140" t="s">
-        <v>496</v>
-      </c>
-      <c r="C22" s="127" t="n">
+      <c r="D30" s="33" t="s">
+        <v>519</v>
+      </c>
+      <c r="E30" s="46" t="s">
+        <v>520</v>
+      </c>
+      <c r="F30" s="136"/>
+      <c r="G30" s="135" t="s">
+        <v>521</v>
+      </c>
+      <c r="H30" s="155" t="s">
+        <v>522</v>
+      </c>
+      <c r="I30" s="136"/>
+      <c r="J30" s="133" t="s">
+        <v>523</v>
+      </c>
+      <c r="K30" s="136"/>
+      <c r="L30" s="56" t="s">
+        <v>524</v>
+      </c>
+      <c r="M30" s="46" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="31" s="83" customFormat="true" ht="479.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="152"/>
+      <c r="B31" s="153"/>
+      <c r="C31" s="134" t="n">
+        <v>5</v>
+      </c>
+      <c r="D31" s="102" t="s">
+        <v>526</v>
+      </c>
+      <c r="E31" s="156"/>
+      <c r="F31" s="156"/>
+      <c r="G31" s="156"/>
+      <c r="H31" s="156"/>
+      <c r="I31" s="156"/>
+      <c r="J31" s="156"/>
+      <c r="K31" s="156"/>
+      <c r="L31" s="156"/>
+      <c r="M31" s="156"/>
+    </row>
+    <row r="32" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="157" t="s">
+        <v>527</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>528</v>
+      </c>
+      <c r="C32" s="131" t="n">
         <v>1</v>
-      </c>
-      <c r="D22" s="128" t="s">
-        <v>497</v>
-      </c>
-      <c r="E22" s="128"/>
-      <c r="F22" s="128"/>
-      <c r="G22" s="128"/>
-      <c r="H22" s="128"/>
-      <c r="I22" s="128"/>
-      <c r="J22" s="128"/>
-      <c r="K22" s="128"/>
-      <c r="L22" s="128"/>
-      <c r="M22" s="128"/>
-    </row>
-    <row r="23" s="141" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="139"/>
-      <c r="B23" s="140"/>
-      <c r="C23" s="121" t="n">
-        <v>2</v>
-      </c>
-      <c r="D23" s="128" t="s">
-        <v>498</v>
-      </c>
-      <c r="E23" s="128"/>
-      <c r="F23" s="128"/>
-      <c r="G23" s="128"/>
-      <c r="H23" s="128"/>
-      <c r="I23" s="128"/>
-      <c r="J23" s="128"/>
-      <c r="K23" s="128"/>
-      <c r="L23" s="128"/>
-      <c r="M23" s="128"/>
-    </row>
-    <row r="24" s="141" customFormat="true" ht="211.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="139"/>
-      <c r="B24" s="140"/>
-      <c r="C24" s="121" t="n">
-        <v>3</v>
-      </c>
-      <c r="D24" s="33" t="s">
-        <v>499</v>
-      </c>
-      <c r="E24" s="44" t="s">
-        <v>500</v>
-      </c>
-      <c r="F24" s="55" t="s">
-        <v>501</v>
-      </c>
-      <c r="G24" s="55" t="s">
-        <v>502</v>
-      </c>
-      <c r="H24" s="55" t="s">
-        <v>503</v>
-      </c>
-      <c r="I24" s="55" t="s">
-        <v>504</v>
-      </c>
-      <c r="J24" s="129" t="s">
-        <v>505</v>
-      </c>
-      <c r="K24" s="55"/>
-      <c r="L24" s="55" t="s">
-        <v>506</v>
-      </c>
-      <c r="M24" s="44" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="25" s="82" customFormat="true" ht="459" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="139"/>
-      <c r="B25" s="140"/>
-      <c r="C25" s="130" t="n">
-        <v>4</v>
-      </c>
-      <c r="D25" s="101" t="s">
-        <v>508</v>
-      </c>
-      <c r="E25" s="73"/>
-      <c r="F25" s="73"/>
-      <c r="G25" s="22" t="s">
-        <v>509</v>
-      </c>
-      <c r="H25" s="55" t="s">
-        <v>503</v>
-      </c>
-      <c r="I25" s="73"/>
-      <c r="J25" s="73"/>
-      <c r="K25" s="73"/>
-      <c r="L25" s="73"/>
-      <c r="M25" s="44" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="26" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="142" t="s">
-        <v>511</v>
-      </c>
-      <c r="B26" s="14" t="s">
-        <v>512</v>
-      </c>
-      <c r="C26" s="127" t="n">
-        <v>1</v>
-      </c>
-      <c r="D26" s="33" t="s">
-        <v>513</v>
-      </c>
-      <c r="E26" s="33"/>
-      <c r="F26" s="33"/>
-      <c r="G26" s="33"/>
-      <c r="H26" s="33"/>
-      <c r="I26" s="33"/>
-      <c r="J26" s="33"/>
-      <c r="K26" s="33"/>
-      <c r="L26" s="33"/>
-      <c r="M26" s="33"/>
-    </row>
-    <row r="27" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="142"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="121" t="n">
-        <v>2</v>
-      </c>
-      <c r="D27" s="128" t="s">
-        <v>514</v>
-      </c>
-      <c r="E27" s="128"/>
-      <c r="F27" s="128"/>
-      <c r="G27" s="128"/>
-      <c r="H27" s="128"/>
-      <c r="I27" s="128"/>
-      <c r="J27" s="128"/>
-      <c r="K27" s="128"/>
-      <c r="L27" s="128"/>
-      <c r="M27" s="128"/>
-    </row>
-    <row r="28" s="5" customFormat="true" ht="207.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="142"/>
-      <c r="B28" s="14"/>
-      <c r="C28" s="121" t="n">
-        <v>3</v>
-      </c>
-      <c r="D28" s="33" t="s">
-        <v>515</v>
-      </c>
-      <c r="E28" s="44" t="s">
-        <v>516</v>
-      </c>
-      <c r="F28" s="55" t="s">
-        <v>517</v>
-      </c>
-      <c r="G28" s="44" t="s">
-        <v>518</v>
-      </c>
-      <c r="H28" s="44" t="s">
-        <v>519</v>
-      </c>
-      <c r="I28" s="55" t="s">
-        <v>520</v>
-      </c>
-      <c r="J28" s="55" t="s">
-        <v>521</v>
-      </c>
-      <c r="K28" s="55"/>
-      <c r="L28" s="55"/>
-      <c r="M28" s="44" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="142"/>
-      <c r="B29" s="14"/>
-      <c r="C29" s="130" t="n">
-        <v>4</v>
-      </c>
-      <c r="D29" s="50"/>
-      <c r="E29" s="50"/>
-      <c r="F29" s="50"/>
-      <c r="G29" s="69" t="s">
-        <v>523</v>
-      </c>
-      <c r="H29" s="103"/>
-      <c r="I29" s="73"/>
-      <c r="J29" s="73"/>
-      <c r="K29" s="73"/>
-      <c r="L29" s="73"/>
-      <c r="M29" s="44" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="30" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="143" t="s">
-        <v>525</v>
-      </c>
-      <c r="B30" s="70" t="s">
-        <v>526</v>
-      </c>
-      <c r="C30" s="127" t="n">
-        <v>1</v>
-      </c>
-      <c r="D30" s="33" t="s">
-        <v>527</v>
-      </c>
-      <c r="E30" s="33"/>
-      <c r="F30" s="33"/>
-      <c r="G30" s="33"/>
-      <c r="H30" s="33"/>
-      <c r="I30" s="33"/>
-      <c r="J30" s="33"/>
-      <c r="K30" s="33"/>
-      <c r="L30" s="33"/>
-      <c r="M30" s="33"/>
-    </row>
-    <row r="31" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="143"/>
-      <c r="B31" s="70"/>
-      <c r="C31" s="121" t="n">
-        <v>2</v>
-      </c>
-      <c r="D31" s="128" t="s">
-        <v>528</v>
-      </c>
-      <c r="E31" s="128"/>
-      <c r="F31" s="128"/>
-      <c r="G31" s="128"/>
-      <c r="H31" s="128"/>
-      <c r="I31" s="128"/>
-      <c r="J31" s="128"/>
-      <c r="K31" s="128"/>
-      <c r="L31" s="128"/>
-      <c r="M31" s="128"/>
-    </row>
-    <row r="32" customFormat="false" ht="141.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="143"/>
-      <c r="B32" s="70"/>
-      <c r="C32" s="121" t="n">
-        <v>3</v>
       </c>
       <c r="D32" s="33" t="s">
         <v>529</v>
       </c>
-      <c r="E32" s="22" t="s">
+      <c r="E32" s="33"/>
+      <c r="F32" s="33"/>
+      <c r="G32" s="33"/>
+      <c r="H32" s="33"/>
+      <c r="I32" s="33"/>
+      <c r="J32" s="33"/>
+      <c r="K32" s="33"/>
+      <c r="L32" s="33"/>
+      <c r="M32" s="33"/>
+    </row>
+    <row r="33" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="157"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="122" t="n">
+        <v>2</v>
+      </c>
+      <c r="D33" s="132" t="s">
         <v>530</v>
       </c>
-      <c r="F32" s="55" t="s">
+      <c r="E33" s="132"/>
+      <c r="F33" s="132"/>
+      <c r="G33" s="132"/>
+      <c r="H33" s="132"/>
+      <c r="I33" s="132"/>
+      <c r="J33" s="132"/>
+      <c r="K33" s="132"/>
+      <c r="L33" s="132"/>
+      <c r="M33" s="132"/>
+    </row>
+    <row r="34" s="5" customFormat="true" ht="138.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="157"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="122" t="n">
+        <v>3</v>
+      </c>
+      <c r="D34" s="33" t="s">
         <v>531</v>
       </c>
-      <c r="G32" s="22" t="s">
+      <c r="E34" s="46" t="s">
         <v>532</v>
       </c>
-      <c r="H32" s="44"/>
-      <c r="I32" s="22" t="s">
+      <c r="F34" s="56" t="s">
         <v>533</v>
       </c>
-      <c r="J32" s="44" t="s">
+      <c r="G34" s="46" t="s">
         <v>534</v>
       </c>
-      <c r="K32" s="22"/>
-      <c r="L32" s="22" t="s">
+      <c r="H34" s="158" t="s">
         <v>535</v>
       </c>
-      <c r="M32" s="44" t="s">
+      <c r="I34" s="56"/>
+      <c r="J34" s="56" t="s">
         <v>536</v>
       </c>
-    </row>
-    <row r="33" s="5" customFormat="true" ht="195.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="143"/>
-      <c r="B33" s="70"/>
-      <c r="C33" s="130" t="n">
+      <c r="K34" s="56"/>
+      <c r="L34" s="22" t="s">
+        <v>537</v>
+      </c>
+      <c r="M34" s="46" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="356" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="157"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="134" t="n">
         <v>4</v>
       </c>
-      <c r="D33" s="50"/>
-      <c r="E33" s="50"/>
-      <c r="F33" s="50"/>
-      <c r="G33" s="50"/>
-      <c r="H33" s="44" t="s">
-        <v>537</v>
-      </c>
-      <c r="I33" s="50"/>
-      <c r="J33" s="50"/>
-      <c r="K33" s="50"/>
-      <c r="L33" s="44" t="s">
-        <v>538</v>
-      </c>
-      <c r="M33" s="44" t="s">
+      <c r="D35" s="33" t="s">
         <v>539</v>
       </c>
-    </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="144" t="s">
+      <c r="E35" s="46" t="s">
         <v>540</v>
       </c>
-      <c r="B34" s="132" t="s">
+      <c r="F35" s="126"/>
+      <c r="G35" s="135" t="s">
         <v>541</v>
       </c>
-      <c r="C34" s="127" t="n">
+      <c r="H35" s="155" t="s">
+        <v>542</v>
+      </c>
+      <c r="I35" s="136"/>
+      <c r="J35" s="56" t="s">
+        <v>543</v>
+      </c>
+      <c r="K35" s="136"/>
+      <c r="L35" s="22" t="s">
+        <v>544</v>
+      </c>
+      <c r="M35" s="46" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="157"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="134" t="n">
+        <v>5</v>
+      </c>
+      <c r="D36" s="159"/>
+      <c r="E36" s="159"/>
+      <c r="F36" s="159"/>
+      <c r="G36" s="159"/>
+      <c r="H36" s="46"/>
+      <c r="I36" s="156"/>
+      <c r="J36" s="156"/>
+      <c r="K36" s="156"/>
+      <c r="L36" s="156"/>
+      <c r="M36" s="156"/>
+    </row>
+    <row r="37" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A37" s="160" t="s">
+        <v>546</v>
+      </c>
+      <c r="B37" s="71" t="s">
+        <v>547</v>
+      </c>
+      <c r="C37" s="131" t="n">
         <v>1</v>
       </c>
-      <c r="D34" s="33" t="s">
-        <v>542</v>
-      </c>
-      <c r="E34" s="33"/>
-      <c r="F34" s="33"/>
-      <c r="G34" s="33"/>
-      <c r="H34" s="33"/>
-      <c r="I34" s="33"/>
-      <c r="J34" s="33"/>
-      <c r="K34" s="33"/>
-      <c r="L34" s="33"/>
-      <c r="M34" s="33"/>
-    </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="144"/>
-      <c r="B35" s="132"/>
-      <c r="C35" s="121" t="n">
+      <c r="D37" s="33" t="s">
+        <v>548</v>
+      </c>
+      <c r="E37" s="33"/>
+      <c r="F37" s="33"/>
+      <c r="G37" s="33"/>
+      <c r="H37" s="33"/>
+      <c r="I37" s="33"/>
+      <c r="J37" s="33"/>
+      <c r="K37" s="33"/>
+      <c r="L37" s="33"/>
+      <c r="M37" s="33"/>
+    </row>
+    <row r="38" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A38" s="160"/>
+      <c r="B38" s="71"/>
+      <c r="C38" s="122" t="n">
         <v>2</v>
       </c>
-      <c r="D35" s="128" t="s">
-        <v>543</v>
-      </c>
-      <c r="E35" s="128"/>
-      <c r="F35" s="128"/>
-      <c r="G35" s="128"/>
-      <c r="H35" s="128"/>
-      <c r="I35" s="128"/>
-      <c r="J35" s="128"/>
-      <c r="K35" s="128"/>
-      <c r="L35" s="128"/>
-      <c r="M35" s="128"/>
-    </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="144"/>
-      <c r="B36" s="132"/>
-      <c r="C36" s="121" t="n">
+      <c r="D38" s="132" t="s">
+        <v>549</v>
+      </c>
+      <c r="E38" s="132"/>
+      <c r="F38" s="132"/>
+      <c r="G38" s="132"/>
+      <c r="H38" s="132"/>
+      <c r="I38" s="132"/>
+      <c r="J38" s="132"/>
+      <c r="K38" s="132"/>
+      <c r="L38" s="132"/>
+      <c r="M38" s="132"/>
+    </row>
+    <row r="39" customFormat="false" ht="127.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="160"/>
+      <c r="B39" s="71"/>
+      <c r="C39" s="122" t="n">
         <v>3</v>
       </c>
-      <c r="D36" s="145" t="s">
-        <v>544</v>
-      </c>
-      <c r="E36" s="145"/>
-      <c r="F36" s="145"/>
-      <c r="G36" s="145"/>
-      <c r="H36" s="145"/>
-      <c r="I36" s="145"/>
-      <c r="J36" s="145"/>
-      <c r="K36" s="145"/>
-      <c r="L36" s="145"/>
-      <c r="M36" s="145"/>
-    </row>
-    <row r="37" customFormat="false" ht="195.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="144"/>
-      <c r="B37" s="132"/>
-      <c r="C37" s="121" t="n">
+      <c r="D39" s="33" t="s">
+        <v>550</v>
+      </c>
+      <c r="E39" s="161" t="s">
+        <v>551</v>
+      </c>
+      <c r="F39" s="56" t="s">
+        <v>552</v>
+      </c>
+      <c r="G39" s="22" t="s">
+        <v>553</v>
+      </c>
+      <c r="H39" s="46" t="s">
+        <v>554</v>
+      </c>
+      <c r="I39" s="22"/>
+      <c r="J39" s="46" t="s">
+        <v>555</v>
+      </c>
+      <c r="K39" s="22"/>
+      <c r="L39" s="22" t="s">
+        <v>556</v>
+      </c>
+      <c r="M39" s="46" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="40" s="5" customFormat="true" ht="275.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="160"/>
+      <c r="B40" s="71"/>
+      <c r="C40" s="134" t="n">
+        <v>4</v>
+      </c>
+      <c r="D40" s="33" t="s">
+        <v>558</v>
+      </c>
+      <c r="E40" s="162" t="s">
+        <v>559</v>
+      </c>
+      <c r="F40" s="126"/>
+      <c r="G40" s="135" t="s">
+        <v>560</v>
+      </c>
+      <c r="H40" s="135" t="s">
+        <v>561</v>
+      </c>
+      <c r="I40" s="126"/>
+      <c r="J40" s="46" t="s">
+        <v>562</v>
+      </c>
+      <c r="K40" s="126"/>
+      <c r="L40" s="56" t="s">
+        <v>563</v>
+      </c>
+      <c r="M40" s="46" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="41" s="5" customFormat="true" ht="171.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="160"/>
+      <c r="B41" s="71"/>
+      <c r="C41" s="134" t="n">
+        <v>5</v>
+      </c>
+      <c r="D41" s="163"/>
+      <c r="E41" s="163"/>
+      <c r="F41" s="163"/>
+      <c r="G41" s="163"/>
+      <c r="H41" s="163"/>
+      <c r="I41" s="163"/>
+      <c r="J41" s="163"/>
+      <c r="K41" s="163"/>
+      <c r="L41" s="46" t="s">
+        <v>565</v>
+      </c>
+      <c r="M41" s="164"/>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A42" s="165" t="s">
+        <v>566</v>
+      </c>
+      <c r="B42" s="139" t="s">
+        <v>567</v>
+      </c>
+      <c r="C42" s="131" t="n">
+        <v>1</v>
+      </c>
+      <c r="D42" s="33" t="s">
+        <v>568</v>
+      </c>
+      <c r="E42" s="33"/>
+      <c r="F42" s="33"/>
+      <c r="G42" s="33"/>
+      <c r="H42" s="33"/>
+      <c r="I42" s="33"/>
+      <c r="J42" s="33"/>
+      <c r="K42" s="33"/>
+      <c r="L42" s="33"/>
+      <c r="M42" s="33"/>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A43" s="165"/>
+      <c r="B43" s="139"/>
+      <c r="C43" s="122" t="n">
+        <v>2</v>
+      </c>
+      <c r="D43" s="132" t="s">
+        <v>569</v>
+      </c>
+      <c r="E43" s="132"/>
+      <c r="F43" s="132"/>
+      <c r="G43" s="132"/>
+      <c r="H43" s="132"/>
+      <c r="I43" s="132"/>
+      <c r="J43" s="132"/>
+      <c r="K43" s="132"/>
+      <c r="L43" s="132"/>
+      <c r="M43" s="132"/>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A44" s="165"/>
+      <c r="B44" s="139"/>
+      <c r="C44" s="122" t="n">
         <v>3</v>
       </c>
-      <c r="D37" s="33" t="s">
-        <v>545</v>
-      </c>
-      <c r="E37" s="44" t="s">
-        <v>546</v>
-      </c>
-      <c r="F37" s="55" t="s">
-        <v>547</v>
-      </c>
-      <c r="G37" s="44" t="s">
-        <v>548</v>
-      </c>
-      <c r="H37" s="44" t="s">
-        <v>549</v>
-      </c>
-      <c r="I37" s="44" t="s">
-        <v>550</v>
-      </c>
-      <c r="J37" s="44" t="s">
-        <v>551</v>
-      </c>
-      <c r="K37" s="44"/>
-      <c r="L37" s="55" t="s">
-        <v>552</v>
-      </c>
-      <c r="M37" s="44" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="38" s="5" customFormat="true" ht="161.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="144"/>
-      <c r="B38" s="132"/>
-      <c r="C38" s="130" t="n">
+      <c r="D44" s="166" t="s">
+        <v>570</v>
+      </c>
+      <c r="E44" s="166"/>
+      <c r="F44" s="166"/>
+      <c r="G44" s="166"/>
+      <c r="H44" s="166"/>
+      <c r="I44" s="166"/>
+      <c r="J44" s="166"/>
+      <c r="K44" s="166"/>
+      <c r="L44" s="166"/>
+      <c r="M44" s="166"/>
+    </row>
+    <row r="45" customFormat="false" ht="115.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="165"/>
+      <c r="B45" s="139"/>
+      <c r="C45" s="122" t="n">
+        <v>3</v>
+      </c>
+      <c r="D45" s="33" t="s">
+        <v>571</v>
+      </c>
+      <c r="E45" s="46" t="s">
+        <v>572</v>
+      </c>
+      <c r="F45" s="56" t="s">
+        <v>573</v>
+      </c>
+      <c r="G45" s="46" t="s">
+        <v>574</v>
+      </c>
+      <c r="H45" s="46" t="s">
+        <v>575</v>
+      </c>
+      <c r="I45" s="46"/>
+      <c r="J45" s="46" t="s">
+        <v>576</v>
+      </c>
+      <c r="K45" s="46"/>
+      <c r="L45" s="56" t="s">
+        <v>577</v>
+      </c>
+      <c r="M45" s="46" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="46" s="5" customFormat="true" ht="275.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="165"/>
+      <c r="B46" s="139"/>
+      <c r="C46" s="134" t="n">
         <v>4</v>
       </c>
-      <c r="D38" s="50"/>
-      <c r="E38" s="50"/>
-      <c r="F38" s="50"/>
-      <c r="G38" s="50"/>
-      <c r="H38" s="50"/>
-      <c r="I38" s="50"/>
-      <c r="J38" s="50"/>
-      <c r="K38" s="103" t="s">
-        <v>554</v>
-      </c>
-      <c r="L38" s="146"/>
-      <c r="M38" s="44" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="39" s="82" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="147" t="s">
-        <v>556</v>
-      </c>
-      <c r="B39" s="28" t="s">
-        <v>557</v>
-      </c>
-      <c r="C39" s="121" t="n">
+      <c r="D46" s="33" t="s">
+        <v>579</v>
+      </c>
+      <c r="E46" s="126"/>
+      <c r="F46" s="126"/>
+      <c r="G46" s="135" t="s">
+        <v>580</v>
+      </c>
+      <c r="H46" s="158" t="s">
+        <v>581</v>
+      </c>
+      <c r="I46" s="126"/>
+      <c r="J46" s="46" t="s">
+        <v>582</v>
+      </c>
+      <c r="K46" s="104"/>
+      <c r="L46" s="56" t="s">
+        <v>583</v>
+      </c>
+      <c r="M46" s="46" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="47" s="5" customFormat="true" ht="171.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="165"/>
+      <c r="B47" s="139"/>
+      <c r="C47" s="134" t="n">
+        <v>5</v>
+      </c>
+      <c r="D47" s="159"/>
+      <c r="E47" s="159"/>
+      <c r="F47" s="159"/>
+      <c r="G47" s="159"/>
+      <c r="H47" s="159"/>
+      <c r="I47" s="159"/>
+      <c r="J47" s="159"/>
+      <c r="K47" s="104" t="s">
+        <v>585</v>
+      </c>
+      <c r="L47" s="167"/>
+      <c r="M47" s="167"/>
+    </row>
+    <row r="48" s="83" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A48" s="168" t="s">
+        <v>586</v>
+      </c>
+      <c r="B48" s="28" t="s">
+        <v>587</v>
+      </c>
+      <c r="C48" s="122" t="n">
         <v>1</v>
       </c>
-      <c r="D39" s="69" t="s">
-        <v>558</v>
-      </c>
-      <c r="E39" s="69"/>
-      <c r="F39" s="69"/>
-      <c r="G39" s="69"/>
-      <c r="H39" s="69"/>
-      <c r="I39" s="69"/>
-      <c r="J39" s="69"/>
-      <c r="K39" s="69"/>
-      <c r="L39" s="69"/>
-      <c r="M39" s="69"/>
-    </row>
-    <row r="40" s="141" customFormat="true" ht="141.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="147"/>
-      <c r="B40" s="28"/>
-      <c r="C40" s="121" t="n">
+      <c r="D48" s="70" t="s">
+        <v>588</v>
+      </c>
+      <c r="E48" s="70"/>
+      <c r="F48" s="70"/>
+      <c r="G48" s="70"/>
+      <c r="H48" s="70"/>
+      <c r="I48" s="70"/>
+      <c r="J48" s="70"/>
+      <c r="K48" s="70"/>
+      <c r="L48" s="70"/>
+      <c r="M48" s="70"/>
+    </row>
+    <row r="49" s="154" customFormat="true" ht="147.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="168"/>
+      <c r="B49" s="28"/>
+      <c r="C49" s="122" t="n">
         <v>4</v>
       </c>
-      <c r="D40" s="76" t="s">
-        <v>559</v>
-      </c>
-      <c r="E40" s="60" t="s">
-        <v>560</v>
-      </c>
-      <c r="F40" s="60"/>
-      <c r="G40" s="60" t="s">
-        <v>561</v>
-      </c>
-      <c r="H40" s="56"/>
-      <c r="I40" s="56"/>
-      <c r="J40" s="56"/>
-      <c r="K40" s="56"/>
-      <c r="L40" s="56"/>
-      <c r="M40" s="56"/>
-    </row>
-    <row r="41" s="82" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="148" t="s">
-        <v>562</v>
-      </c>
-      <c r="B41" s="31" t="s">
-        <v>563</v>
-      </c>
-      <c r="C41" s="149" t="n">
+      <c r="D49" s="77" t="s">
+        <v>589</v>
+      </c>
+      <c r="E49" s="61" t="s">
+        <v>590</v>
+      </c>
+      <c r="F49" s="61"/>
+      <c r="G49" s="61" t="s">
+        <v>591</v>
+      </c>
+      <c r="H49" s="57"/>
+      <c r="I49" s="57"/>
+      <c r="J49" s="57"/>
+      <c r="K49" s="57"/>
+      <c r="L49" s="57"/>
+      <c r="M49" s="57"/>
+    </row>
+    <row r="50" s="83" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A50" s="169" t="s">
+        <v>592</v>
+      </c>
+      <c r="B50" s="31" t="s">
+        <v>593</v>
+      </c>
+      <c r="C50" s="170" t="n">
         <v>1</v>
       </c>
-      <c r="D41" s="33" t="s">
-        <v>564</v>
-      </c>
-      <c r="E41" s="33"/>
-      <c r="F41" s="33"/>
-      <c r="G41" s="33"/>
-      <c r="H41" s="33"/>
-      <c r="I41" s="33"/>
-      <c r="J41" s="33"/>
-      <c r="K41" s="33"/>
-      <c r="L41" s="33"/>
-      <c r="M41" s="33"/>
-    </row>
-    <row r="42" s="5" customFormat="true" ht="141.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="148"/>
-      <c r="B42" s="31"/>
-      <c r="C42" s="121" t="n">
+      <c r="D50" s="33" t="s">
+        <v>594</v>
+      </c>
+      <c r="E50" s="33"/>
+      <c r="F50" s="33"/>
+      <c r="G50" s="33"/>
+      <c r="H50" s="33"/>
+      <c r="I50" s="33"/>
+      <c r="J50" s="33"/>
+      <c r="K50" s="33"/>
+      <c r="L50" s="33"/>
+      <c r="M50" s="33"/>
+    </row>
+    <row r="51" s="5" customFormat="true" ht="147.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="169"/>
+      <c r="B51" s="31"/>
+      <c r="C51" s="122" t="n">
         <v>4</v>
       </c>
-      <c r="D42" s="76" t="s">
-        <v>565</v>
-      </c>
-      <c r="E42" s="60" t="s">
-        <v>566</v>
-      </c>
-      <c r="F42" s="60"/>
-      <c r="G42" s="60" t="s">
-        <v>567</v>
-      </c>
-      <c r="H42" s="56"/>
-      <c r="I42" s="56"/>
-      <c r="J42" s="56"/>
-      <c r="K42" s="56"/>
-      <c r="L42" s="56"/>
-      <c r="M42" s="56"/>
-    </row>
-    <row r="43" s="82" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="150" t="s">
-        <v>568</v>
-      </c>
-      <c r="B43" s="31" t="s">
-        <v>569</v>
-      </c>
-      <c r="C43" s="149" t="n">
+      <c r="D51" s="77" t="s">
+        <v>595</v>
+      </c>
+      <c r="E51" s="61" t="s">
+        <v>596</v>
+      </c>
+      <c r="F51" s="61"/>
+      <c r="G51" s="61" t="s">
+        <v>597</v>
+      </c>
+      <c r="H51" s="57"/>
+      <c r="I51" s="57"/>
+      <c r="J51" s="57"/>
+      <c r="K51" s="57"/>
+      <c r="L51" s="57"/>
+      <c r="M51" s="57"/>
+    </row>
+    <row r="52" s="83" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A52" s="171" t="s">
+        <v>598</v>
+      </c>
+      <c r="B52" s="31" t="s">
+        <v>599</v>
+      </c>
+      <c r="C52" s="170" t="n">
         <v>1</v>
       </c>
-      <c r="D43" s="33" t="s">
-        <v>570</v>
-      </c>
-      <c r="E43" s="33"/>
-      <c r="F43" s="33"/>
-      <c r="G43" s="33"/>
-      <c r="H43" s="33"/>
-      <c r="I43" s="33"/>
-      <c r="J43" s="33"/>
-      <c r="K43" s="33"/>
-      <c r="L43" s="33"/>
-      <c r="M43" s="33"/>
-    </row>
-    <row r="44" s="152" customFormat="true" ht="164.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="150"/>
-      <c r="B44" s="31"/>
-      <c r="C44" s="151" t="n">
+      <c r="D52" s="33" t="s">
+        <v>600</v>
+      </c>
+      <c r="E52" s="33"/>
+      <c r="F52" s="33"/>
+      <c r="G52" s="33"/>
+      <c r="H52" s="33"/>
+      <c r="I52" s="33"/>
+      <c r="J52" s="33"/>
+      <c r="K52" s="33"/>
+      <c r="L52" s="33"/>
+      <c r="M52" s="33"/>
+    </row>
+    <row r="53" s="173" customFormat="true" ht="159.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="171"/>
+      <c r="B53" s="31"/>
+      <c r="C53" s="172" t="n">
         <v>4</v>
       </c>
-      <c r="D44" s="76" t="s">
-        <v>571</v>
-      </c>
-      <c r="E44" s="60" t="s">
-        <v>572</v>
-      </c>
-      <c r="F44" s="60"/>
-      <c r="G44" s="60" t="s">
-        <v>573</v>
-      </c>
-      <c r="H44" s="76" t="s">
-        <v>574</v>
-      </c>
-      <c r="I44" s="60" t="s">
-        <v>575</v>
-      </c>
-      <c r="J44" s="60" t="s">
-        <v>576</v>
-      </c>
-      <c r="K44" s="60" t="s">
-        <v>577</v>
-      </c>
-      <c r="L44" s="56"/>
-      <c r="M44" s="60" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="45" s="82" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="153" t="s">
-        <v>579</v>
-      </c>
-      <c r="B45" s="154" t="s">
-        <v>580</v>
-      </c>
-      <c r="C45" s="121" t="n">
+      <c r="D53" s="77" t="s">
+        <v>601</v>
+      </c>
+      <c r="E53" s="61" t="s">
+        <v>602</v>
+      </c>
+      <c r="F53" s="61"/>
+      <c r="G53" s="61" t="s">
+        <v>603</v>
+      </c>
+      <c r="H53" s="77" t="s">
+        <v>604</v>
+      </c>
+      <c r="I53" s="61" t="s">
+        <v>605</v>
+      </c>
+      <c r="J53" s="61" t="s">
+        <v>606</v>
+      </c>
+      <c r="K53" s="61" t="s">
+        <v>607</v>
+      </c>
+      <c r="L53" s="57"/>
+      <c r="M53" s="61" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="54" s="83" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A54" s="174" t="s">
+        <v>609</v>
+      </c>
+      <c r="B54" s="175" t="s">
+        <v>610</v>
+      </c>
+      <c r="C54" s="122" t="n">
         <v>1</v>
       </c>
-      <c r="D45" s="33" t="s">
-        <v>581</v>
-      </c>
-      <c r="E45" s="33"/>
-      <c r="F45" s="33"/>
-      <c r="G45" s="33"/>
-      <c r="H45" s="33"/>
-      <c r="I45" s="33"/>
-      <c r="J45" s="33"/>
-      <c r="K45" s="33"/>
-      <c r="L45" s="33"/>
-      <c r="M45" s="33"/>
-    </row>
-    <row r="46" customFormat="false" ht="223.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="153"/>
-      <c r="B46" s="154"/>
-      <c r="C46" s="155" t="n">
+      <c r="D54" s="33" t="s">
+        <v>611</v>
+      </c>
+      <c r="E54" s="33"/>
+      <c r="F54" s="33"/>
+      <c r="G54" s="33"/>
+      <c r="H54" s="33"/>
+      <c r="I54" s="33"/>
+      <c r="J54" s="33"/>
+      <c r="K54" s="33"/>
+      <c r="L54" s="33"/>
+      <c r="M54" s="33"/>
+    </row>
+    <row r="55" customFormat="false" ht="233.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="174"/>
+      <c r="B55" s="175"/>
+      <c r="C55" s="176" t="n">
         <v>4</v>
       </c>
-      <c r="D46" s="156" t="s">
-        <v>582</v>
-      </c>
-      <c r="E46" s="157" t="s">
-        <v>583</v>
-      </c>
-      <c r="F46" s="157" t="s">
-        <v>584</v>
-      </c>
-      <c r="G46" s="157" t="s">
-        <v>585</v>
-      </c>
-      <c r="H46" s="157" t="s">
-        <v>586</v>
-      </c>
-      <c r="I46" s="156" t="s">
-        <v>587</v>
-      </c>
-      <c r="J46" s="156" t="s">
-        <v>588</v>
-      </c>
-      <c r="K46" s="157" t="s">
-        <v>589</v>
-      </c>
-      <c r="L46" s="156" t="s">
-        <v>590</v>
-      </c>
-      <c r="M46" s="156" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="158"/>
-      <c r="C47" s="159"/>
-    </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B48" s="158"/>
-      <c r="C48" s="159"/>
-    </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B49" s="158"/>
-      <c r="C49" s="159"/>
-    </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B50" s="158"/>
-      <c r="C50" s="159"/>
-    </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B51" s="158"/>
-      <c r="C51" s="159"/>
-    </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B52" s="158"/>
-      <c r="C52" s="159"/>
-    </row>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B53" s="158"/>
-      <c r="C53" s="159"/>
-    </row>
-    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B54" s="158"/>
-      <c r="C54" s="159"/>
-    </row>
-    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B55" s="158"/>
-      <c r="C55" s="159"/>
+      <c r="D55" s="177" t="s">
+        <v>612</v>
+      </c>
+      <c r="E55" s="178" t="s">
+        <v>613</v>
+      </c>
+      <c r="F55" s="178" t="s">
+        <v>614</v>
+      </c>
+      <c r="G55" s="178" t="s">
+        <v>615</v>
+      </c>
+      <c r="H55" s="178" t="s">
+        <v>616</v>
+      </c>
+      <c r="I55" s="177" t="s">
+        <v>617</v>
+      </c>
+      <c r="J55" s="177" t="s">
+        <v>618</v>
+      </c>
+      <c r="K55" s="178" t="s">
+        <v>619</v>
+      </c>
+      <c r="L55" s="177" t="s">
+        <v>620</v>
+      </c>
+      <c r="M55" s="177" t="s">
+        <v>621</v>
+      </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B56" s="158"/>
-      <c r="C56" s="159"/>
+      <c r="B56" s="179"/>
+      <c r="C56" s="180"/>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B57" s="158"/>
-      <c r="C57" s="159"/>
+      <c r="B57" s="179"/>
+      <c r="C57" s="180"/>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B58" s="179"/>
+      <c r="C58" s="180"/>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B59" s="179"/>
+      <c r="C59" s="180"/>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B60" s="179"/>
+      <c r="C60" s="180"/>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B61" s="179"/>
+      <c r="C61" s="180"/>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B62" s="179"/>
+      <c r="C62" s="180"/>
+    </row>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B63" s="179"/>
+      <c r="C63" s="180"/>
+    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B64" s="179"/>
+      <c r="C64" s="180"/>
+    </row>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B65" s="179"/>
+      <c r="C65" s="180"/>
+    </row>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B66" s="179"/>
+      <c r="C66" s="180"/>
     </row>
   </sheetData>
-  <mergeCells count="51">
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B2:B5"/>
+  <mergeCells count="64">
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="B2:B6"/>
     <mergeCell ref="D2:M2"/>
     <mergeCell ref="D3:M3"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="D6:M6"/>
+    <mergeCell ref="D6:L6"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="B7:B11"/>
     <mergeCell ref="D7:M7"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="D10:M10"/>
-    <mergeCell ref="D11:M11"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="D14:M14"/>
-    <mergeCell ref="D15:M15"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="D8:M8"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="G11:M11"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="D12:M12"/>
+    <mergeCell ref="D13:M13"/>
+    <mergeCell ref="D16:H16"/>
+    <mergeCell ref="J16:M16"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="B17:B21"/>
+    <mergeCell ref="D17:M17"/>
     <mergeCell ref="D18:M18"/>
-    <mergeCell ref="D19:M19"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="H21:M21"/>
+    <mergeCell ref="A22:A26"/>
+    <mergeCell ref="B22:B26"/>
     <mergeCell ref="D22:M22"/>
     <mergeCell ref="D23:M23"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="D26:M26"/>
+    <mergeCell ref="F26:M26"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="B27:B31"/>
     <mergeCell ref="D27:M27"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="D30:M30"/>
-    <mergeCell ref="D31:M31"/>
-    <mergeCell ref="A34:A38"/>
-    <mergeCell ref="B34:B38"/>
-    <mergeCell ref="D34:M34"/>
-    <mergeCell ref="D35:M35"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="D36:M36"/>
-    <mergeCell ref="D38:J38"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="D39:M39"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="D41:M41"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="D28:M28"/>
+    <mergeCell ref="E31:M31"/>
+    <mergeCell ref="A32:A36"/>
+    <mergeCell ref="B32:B36"/>
+    <mergeCell ref="D32:M32"/>
+    <mergeCell ref="D33:M33"/>
+    <mergeCell ref="D36:G36"/>
+    <mergeCell ref="I36:M36"/>
+    <mergeCell ref="A37:A41"/>
+    <mergeCell ref="B37:B41"/>
+    <mergeCell ref="D37:M37"/>
+    <mergeCell ref="D38:M38"/>
+    <mergeCell ref="D41:K41"/>
+    <mergeCell ref="A42:A47"/>
+    <mergeCell ref="B42:B47"/>
+    <mergeCell ref="D42:M42"/>
     <mergeCell ref="D43:M43"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="D45:M45"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="D44:M44"/>
+    <mergeCell ref="D47:J47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="D48:M48"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="D50:M50"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="D52:M52"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="D54:M54"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
